--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="391">
   <si>
     <t>Doi</t>
   </si>
@@ -1624,6 +1624,573 @@
   </si>
   <si>
     <t>[Geehan%Suleyman%NULL%1,  Raef A.%Fadel%NULL%1,  Kelly M.%Malette%NULL%1,  Charles%Hammond%NULL%1,  Hafsa%Abdulla%NULL%1,  Abigail%Entz%NULL%1,  Zachary%Demertzis%NULL%1,  Zachary%Hanna%NULL%1,  Andrew%Failla%NULL%1,  Carina%Dagher%NULL%0,  Zohra%Chaudhry%NULL%0,  Amit%Vahia%NULL%0,  Odaliz%Abreu Lanfranco%NULL%1,  Mayur%Ramesh%NULL%1,  Marcus J.%Zervos%NULL%0,  George%Alangaden%NULL%0,  Joseph%Miller%NULL%0,  Indira%Brar%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate critical care delivery for Coronavirus disease 2019 (COVID-19) is a cornerstone in saving lives.
+ Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
+ In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,   Naofumi%Bunya%NULL%1,   Tomoyuki%Endo%NULL%1,   Yuji%Fujino%NULL%1,   Kensuke%Fujita%NULL%1,   Kenji%Fujizuka%NULL%1,   Yoshihiro%Hagiwara%NULL%1,   Jun%Hamaguchi%NULL%1,   Yoshitaka%Hara%NULL%1,   Eiji%Hashiba%NULL%1,   Satoru%Hashimoto%NULL%1,   Noriyuki%Hattori%NULL%1,   Kota%Hoshino%NULL%1,   Shinichi%Ijuin%NULL%1,   Takanari%Ikeyama%NULL%1,   Shingo%Ichiba%NULL%1,   Wataru%Iwanaga%NULL%1,   Yoshiaki%Iwashita%NULL%1,   Masafumi%Kanamoto%NULL%1,   Hitoshi%Kaneko%NULL%1,   Kaneyuki%Kawamae%NULL%1,   Toru%Kotani%NULL%1,   Yasuaki%Koyama%NULL%1,   Keibun%Liu%NULL%1,   Tomohiko%Masuno%NULL%1,   Naoto%Morimura%NULL%1,   Tomoyuki%Nakamura%NULL%1,   Masaki%Nakane%NULL%1,   Michitaka%Nasu%NULL%1,   Osamu%Nishida%NULL%1,   Masaji%Nishimura%NULL%1,   Kanae%Ochiai%NULL%1,   Takayuki%Ogura%NULL%1,   Shinichiro%Ohshimo%NULL%1,   Keisuke%Oyama%NULL%1,   Junichi%Sasaki%NULL%1,   Ryutaro%Seo%NULL%1,   Takeshi%Shimazu%NULL%1,   Nobuaki%Shime%NULL%4,   Keiki%Shimizu%NULL%1,   Hiroyuki%Suzuki%NULL%1,   Shuhei%Takauji%NULL%1,   Shinhiro%Takeda%NULL%1,   Ichiro%Takeuchi%NULL%1,   Mumon%Takita%NULL%1,   Hayato%Taniguchi%NULL%1,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+When severe, COVID-19 shares many clinical features with bacterial sepsis.
+ Yet, secondary bacterial infection is uncommon.
+ However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
+Methods
+id="Par2"&gt;We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
+Results
+id="Par3"&gt;Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
+ We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
+ Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
+ Proteobacteria was the most abundant phylum.
+ The diversity of bacterial genera was decreased overtime.
+Conclusions
+id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
+ This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
+</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,   Win%Kulvichit%NULL%1,   Sunchai%Payungporn%NULL%1,   Trairak%Pisitkun%NULL%1,   Ariya%Chindamporn%NULL%1,   Sadudee%Peerapornratana%NULL%1,   Prapaporn%Pisitkun%NULL%1,   Suwalak%Chitcharoen%NULL%1,   Vorthon%Sawaswong%NULL%1,   Navaporn%Worasilchai%NULL%1,   Sarinya%Kampunya%NULL%1,   Opass%Putcharoen%NULL%1,   Thammasak%Thawitsri%NULL%1,   Nophol%Leelayuwatanakul%NULL%1,   Napplika%Kongpolprom%NULL%1,   Vorakamol%Phoophiboon%NULL%1,   Thitiwat%Sriprasart%NULL%1,   Rujipat%Samransamruajkit%NULL%1,   Somkanya%Tungsanga%NULL%1,   Kanitha%Tiankanon%NULL%1,   Nuttha%Lumlertgul%NULL%1,   Asada%Leelahavanichkul%NULL%1,   Tueboon%Sriphojanart%NULL%1,   Terapong%Tantawichien%NULL%1,   Usa%Thisyakorn%NULL%1,   Chintana%Chirathaworn%NULL%1,   Kearkiat%Praditpornsilpa%NULL%1,   Kriang%Tungsanga%NULL%1,   Somchai%Eiam-Ong%NULL%1,   Visith%Sitprija%NULL%1,   John A.%Kellum%NULL%1,   Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,   Dan%Xu%NULL%0,   Shouzhi%Fu%NULL%0,   Jun%Zhang%NULL%0,   Xiaobo%Yang%NULL%0,   Liang%Xu%NULL%0,   Jiqian%Xu%NULL%0,   Yongran%Wu%NULL%0,   Chaolin%Huang%NULL%0,   Yaqi%Ouyang%NULL%0,   Luyu%Yang%NULL%0,   Minghao%Fang%NULL%0,   Hongwen%Xiao%NULL%0,   Jing%Ma%NULL%0,   Wei%Zhu%NULL%0,   Song%Hu%NULL%0,   Quan%Hu%NULL%0,   Daoyin%Ding%NULL%0,   Ming%Hu%NULL%0,   Guochao%Zhu%NULL%0,   Weijiang%Xu%NULL%0,   Jun%Guo%NULL%0,   Jinglong%Xu%NULL%0,   Haitao%Yuan%NULL%0,   Bin%Zhang%NULL%0,   Zhui%Yu%yuzhui@whu.edu.cn%0,   Dechang%Chen%icudechangchen@163.com%0,   Shiying%Yuan%yuan_shiying@163.com%0,   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
+ The characteristics of this infection in patients varies from country to country.
+ To move forward, clinical data on infected patients are needed.
+ Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
+Methods
+id="Par2"&gt;Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
+ We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
+Results
+id="Par3"&gt;Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
+ Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
+ Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
+ The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
+ The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
+ Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
+ Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
+ Combination antiviral and antibiotic therapy was used in 43.0% of cases.
+Conclusions
+id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
+ In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
+</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,   Mina%Akbari Rad%NULL%1,   Robert%Bergquist%NULL%1,   Abolghasem%Allahyari%NULL%1,   Kamila%Hashemzadeh%NULL%1,   Nasrin%Milani%NULL%1,   Mahdi%Gholian-Aval%NULL%1,   Fariba%Rezaeitalab%NULL%1,   Mohammad Jafar%Sadeghi Quchani%NULL%1,   Zahra%Nahbandani%NULL%1,   Mandana%Khodashahi%NULL%1,   Zahra%Javid%NULL%1,   Mahnaz%Mozdourian%NULL%1,   Mohammad Ali%Yaghoubi%NULL%1,   Zahra%Mozaheb%NULL%1,   Mohsen%Seddigh-Shamsi%NULL%1,   Mohammad%Moeini Nodeh%NULL%1,   Shima%Nabavi%NULL%1,   Hooman%Mosannen Mozaffari%NULL%1,   Mohammadreza%Farzanehfar%NULL%1,   Zahra%Lotfi%NULL%1,   Alireza%Shariati%NULL%1,   Shekoofe%Bonakdaran%NULL%1,   Zahra%Rezaieyazdi%NULL%1,   Zahra%Mirfeizi%NULL%1,   Maryam%Miri%NULL%1,   Reza%Bassiri%NULL%1,   Sajjad%Ataei Azimi%NULL%1,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
+ Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
+ To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
+Methods
+id="Par2"&gt;In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
+Results
+id="Par3"&gt;The mean age was 53.75 years and 71 (62.8%) were males.
+ The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
+ Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
+ The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
+ Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
+Conclusion
+id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,   Zohre%Khodamoradi%NULL%1,   Amirhossein%Erfani%NULL%1,   Hamidreza%Hosseinpour%NULL%1,   Keivan%Ranjbar%NULL%1,   Yasaman%Emami%NULL%1,   Alireza%Mirahmadizadeh%NULL%1,   Mehrzad%Lotfi%NULL%1,   Babak%Shirazi Yeganeh%NULL%1,   Abolfazl%Dorrani Nejad%NULL%1,   Abdolrasool%Hemmati%NULL%1,   Mostafa%Ebrahimi%NULL%1,   Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
+ This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
+Methods
+id="Par2"&gt;We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
+Results
+id="Par3"&gt;AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
+ Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
+ AKI patients had a mean age of 74.7 ± 9.9 years.
+ These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
+ Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
+ Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
+ Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
+ Patients with AKI had a mortality rate of 56.5%.
+ Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
+Conclusion
+id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
+ Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
+</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,   Annachiara%Ferrari%NULL%2,   Annachiara%Ferrari%NULL%0,   Francesco%Fontana%NULL%1,   Giacomo%Mori%NULL%1,   Riccardo%Magistroni%NULL%1,   Marianna%Meschiari%NULL%1,   Erica%Franceschini%NULL%1,   Marianna%Menozzi%NULL%1,   Gianluca%Cuomo%NULL%1,   Gabriella%Orlando%NULL%1,   Antonella%Santoro%NULL%1,   Margherita%Digaetano%NULL%1,   Cinzia%Puzzolante%NULL%1,   Federica%Carli%NULL%1,   Andrea%Bedini%NULL%1,   Jovana%Milic%NULL%1,   Irene%Coloretti%NULL%1,   Paolo%Raggi%NULL%1,   Cristina%Mussini%NULL%1,   Massimo%Girardis%NULL%1,   Gianni%Cappelli%NULL%1,   Giovanni%Guaraldi%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invasive mechanical ventilation (IMV) is the standard treatment in critically ill COVID-19 patients with acute severe respiratory distress syndrome (ARDS).
+ When IMV setting is extremely aggressive, especially through the application of high positive-end-expiratory respiration (PEEP) values, lung damage can occur.
+ Until today, in COVID-19 patients, two types of ARDS were identified (L- and H-type); for the L-type, a lower PEEP strategy was supposed to be preferred, but data are still missing.
+ The aim of this study was to evaluate if a clinical management with lower PEEP values in critically ill L-type COVID-19 patients was safe and efficient in comparison to usual standard of care.
+ A retrospective analysis was conducted on consecutive patients with COVID-19 ARDS admitted to the ICU and treated with IMV.
+ Patients were treated with a lower PEEP strategy adapted to BMI: PEEP 10 cmH2O if BMI &amp;lt; 30 kg m−2, PEEP 12 cmH2O if BMI 30–50 kg m−2, PEEP 15 cmH2O if BMI &amp;gt; 50 kg m−2.
+ Primary endpoint was the PaO2/FiO2 ratio evolution during the first 3 IMV days; secondary endpoints were to analyze ICU length of stay (LOS) and IMV length.
+ From March 2 to January 15, 2021, 79 patients underwent IMV.
+ Average applied PEEP was 11 ± 2.9 cmH2O for BMI &amp;lt; 30 kg m−2 and 16 ± 3.18 cmH2O for BMI &amp;gt; 30 kg m−2.
+ During the first 24 h of IMV, patients’ PaO2/FiO2 ratio presented an improvement (p&amp;lt;0.001; CI 99%) that continued daily up to 72 h (p&amp;lt;0.001; CI 99%).
+ Median ICU LOS was 15 days (10–28); median duration of IMV was 12 days (8–26).
+ The ICU mortality rate was 31.6%.
+ Lower PEEP strategy treatment in L-type COVID-19 ARDS resulted in a PaO2/FiO2 ratio persistent daily improvement during the first 72 h of IMV.
+ A lower PEEP strategy could be beneficial in the first phase of ARDS in critically ill COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,   Marco%Roncador%NULL%2,   Marco%Roncador%NULL%0,   Andrea%Saporito%NULL%1,   Maira%Biggiogero%NULL%1,   Andrea%Glotta%NULL%1,   Pier Andrea%Maida%NULL%1,   Patrizia%Urso%NULL%1,   Giovanni%Bona%NULL%1,   Christian%Garzoni%NULL%1,   Romano%Mauri%NULL%0,   Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critically ill patients with COVID-19 pneumonia suffered both high thrombotic and bleeding risk.
+ The effect of SARS-CoV-2 on coagulation and fibrinolysis is not well known.
+ We conducted a retrospective study of critically ill patients admitted to an intensive care unit (ICU) a cause of severe COVID-19 pneumonia and we evaluated coagulation function using rotational thromboelastometry (ROTEM) on day of admission (T0) and 5 (T5) and 10 (T10) days after admission to ICU.
+ Coagulation standard parameters were also evaluated.
+ Forty patients were enrolled into the study.
+ The ICU and the hospital mortality were 10% and 12.5%, respectively.
+ On ICU admission, prothrombin time was slightly reduced and it increased significantly at T10 (T0 = 65.1 ± 9.8 vs T10 = 85.7 ± 1.5, p = 0.002), while activated partial thromboplastin time and fibrinogen values were higher at T0 than T10 (32.2 ± 2.9 vs 27.2 ± 2.1, p = 0.017 and 895.1 ± 110 vs 332.5 ± 50, p = 0.002, respectively); moreover, whole blood thromboelastometry profiles were consistent with hypercoagulability characterized by an acceleration of the propagation phase of blood clot formation [i.
+e.
+, CFT below the lower limit in INTEM 16/40 patients (40%) and EXTEM 20/40 patients (50%)] and significant higher clot strength [MCF above the upper limit in INTEM 20/40 patients (50%), in EXTEM 28/40 patients (70%) and in FIBTEM 29/40 patients (72.5%)]; however, this hypercoagulable state persists in the first five days, but it decreases ten day after, without returning to normal values.
+ No sign of secondary hyperfibrinolysis or sepsis induced coagulopathy (SIC) were found during the study period.
+ In six patients (15%) a deep vein thrombosis and in 2 patients (5%) a thromboembolic event, were found; 12 patients (30%) had a catheter-related thrombosis.
+ ROTEM analysis confirms that patients with severe COVID-19 pneumonia had a hypercoagulation state that persisted over time.
+</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,   Lara%Gianesello%gianesello.lara@libero.it%1,   Maddalena%Pazzi%NULL%2,   Maddalena%Pazzi%NULL%0,   Caterina%Stera%NULL%1,   Tommaso%Meconi%NULL%1,   Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+When severe, COVID-19 shares many clinical features with bacterial sepsis.
+ Yet, secondary bacterial infection is uncommon.
+ However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
+Methods
+We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
+Results
+id="Par3"&gt;Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
+ We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
+ Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
+ Proteobacteria was the most abundant phylum.
+ The diversity of bacterial genera was decreased overtime.
+Conclusions
+id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
+ This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
+</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,    Win%Kulvichit%NULL%1,    Sunchai%Payungporn%NULL%1,    Trairak%Pisitkun%NULL%1,    Ariya%Chindamporn%NULL%1,    Sadudee%Peerapornratana%NULL%1,    Prapaporn%Pisitkun%NULL%1,    Suwalak%Chitcharoen%NULL%1,    Vorthon%Sawaswong%NULL%1,    Navaporn%Worasilchai%NULL%1,    Sarinya%Kampunya%NULL%1,    Opass%Putcharoen%NULL%1,    Thammasak%Thawitsri%NULL%1,    Nophol%Leelayuwatanakul%NULL%1,    Napplika%Kongpolprom%NULL%1,    Vorakamol%Phoophiboon%NULL%1,    Thitiwat%Sriprasart%NULL%1,    Rujipat%Samransamruajkit%NULL%1,    Somkanya%Tungsanga%NULL%1,    Kanitha%Tiankanon%NULL%1,    Nuttha%Lumlertgul%NULL%1,    Asada%Leelahavanichkul%NULL%1,    Tueboon%Sriphojanart%NULL%1,    Terapong%Tantawichien%NULL%1,    Usa%Thisyakorn%NULL%1,    Chintana%Chirathaworn%NULL%1,    Kearkiat%Praditpornsilpa%NULL%1,    Kriang%Tungsanga%NULL%1,    Somchai%Eiam-Ong%NULL%1,    Visith%Sitprija%NULL%1,    John A.%Kellum%NULL%1,    Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+id="Par3"&gt;A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
+ The characteristics of this infection in patients varies from country to country.
+ To move forward, clinical data on infected patients are needed.
+ Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
+Methods
+Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
+ We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
+Results
+id="Par3"&gt;Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
+ Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
+ Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
+ The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
+ The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
+ Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
+ Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
+ Combination antiviral and antibiotic therapy was used in 43.0% of cases.
+Conclusions
+id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
+ In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
+</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,    Mina%Akbari Rad%NULL%1,    Robert%Bergquist%NULL%1,    Abolghasem%Allahyari%NULL%1,    Kamila%Hashemzadeh%NULL%1,    Nasrin%Milani%NULL%1,    Mahdi%Gholian-Aval%NULL%1,    Fariba%Rezaeitalab%NULL%1,    Mohammad Jafar%Sadeghi Quchani%NULL%1,    Zahra%Nahbandani%NULL%1,    Mandana%Khodashahi%NULL%1,    Zahra%Javid%NULL%1,    Mahnaz%Mozdourian%NULL%1,    Mohammad Ali%Yaghoubi%NULL%1,    Zahra%Mozaheb%NULL%1,    Mohsen%Seddigh-Shamsi%NULL%1,    Mohammad%Moeini Nodeh%NULL%1,    Shima%Nabavi%NULL%1,    Hooman%Mosannen Mozaffari%NULL%1,    Mohammadreza%Farzanehfar%NULL%1,    Zahra%Lotfi%NULL%1,    Alireza%Shariati%NULL%1,    Shekoofe%Bonakdaran%NULL%1,    Zahra%Rezaieyazdi%NULL%1,    Zahra%Mirfeizi%NULL%1,    Maryam%Miri%NULL%1,    Reza%Bassiri%NULL%1,    Sajjad%Ataei Azimi%NULL%1,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
+ Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
+ To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
+Methods
+In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
+Results
+id="Par3"&gt;The mean age was 53.75 years and 71 (62.8%) were males.
+ The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
+ Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
+ The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
+ Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
+Conclusion
+id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,    Zohre%Khodamoradi%NULL%1,    Amirhossein%Erfani%NULL%1,    Hamidreza%Hosseinpour%NULL%1,    Keivan%Ranjbar%NULL%1,    Yasaman%Emami%NULL%1,    Alireza%Mirahmadizadeh%NULL%1,    Mehrzad%Lotfi%NULL%1,    Babak%Shirazi Yeganeh%NULL%1,    Abolfazl%Dorrani Nejad%NULL%1,    Abdolrasool%Hemmati%NULL%1,    Mostafa%Ebrahimi%NULL%1,    Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
+ This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
+Methods
+We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
+Results
+id="Par3"&gt;AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
+ Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
+ AKI patients had a mean age of 74.7 ± 9.9 years.
+ These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
+ Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
+ Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
+ Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
+ Patients with AKI had a mortality rate of 56.5%.
+ Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
+Conclusion
+id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
+ Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
+</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,    Annachiara%Ferrari%NULL%2,    Annachiara%Ferrari%NULL%0,    Francesco%Fontana%NULL%1,    Giacomo%Mori%NULL%1,    Riccardo%Magistroni%NULL%1,    Marianna%Meschiari%NULL%1,    Erica%Franceschini%NULL%1,    Marianna%Menozzi%NULL%1,    Gianluca%Cuomo%NULL%1,    Gabriella%Orlando%NULL%1,    Antonella%Santoro%NULL%1,    Margherita%Digaetano%NULL%1,    Cinzia%Puzzolante%NULL%1,    Federica%Carli%NULL%1,    Andrea%Bedini%NULL%1,    Jovana%Milic%NULL%1,    Irene%Coloretti%NULL%1,    Paolo%Raggi%NULL%1,    Cristina%Mussini%NULL%1,    Massimo%Girardis%NULL%1,    Gianni%Cappelli%NULL%1,    Giovanni%Guaraldi%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+When severe, COVID-19 shares many clinical features with bacterial sepsis.
+ Yet, secondary bacterial infection is uncommon.
+ However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
+Methods
+We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
+Results
+Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
+ We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
+ Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
+ Proteobacteria was the most abundant phylum.
+ The diversity of bacterial genera was decreased overtime.
+Conclusions
+id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
+ This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
+</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,     Win%Kulvichit%NULL%1,     Sunchai%Payungporn%NULL%1,     Trairak%Pisitkun%NULL%1,     Ariya%Chindamporn%NULL%1,     Sadudee%Peerapornratana%NULL%1,     Prapaporn%Pisitkun%NULL%1,     Suwalak%Chitcharoen%NULL%1,     Vorthon%Sawaswong%NULL%1,     Navaporn%Worasilchai%NULL%1,     Sarinya%Kampunya%NULL%1,     Opass%Putcharoen%NULL%1,     Thammasak%Thawitsri%NULL%1,     Nophol%Leelayuwatanakul%NULL%1,     Napplika%Kongpolprom%NULL%1,     Vorakamol%Phoophiboon%NULL%1,     Thitiwat%Sriprasart%NULL%1,     Rujipat%Samransamruajkit%NULL%1,     Somkanya%Tungsanga%NULL%1,     Kanitha%Tiankanon%NULL%1,     Nuttha%Lumlertgul%NULL%1,     Asada%Leelahavanichkul%NULL%1,     Tueboon%Sriphojanart%NULL%1,     Terapong%Tantawichien%NULL%1,     Usa%Thisyakorn%NULL%1,     Chintana%Chirathaworn%NULL%1,     Kearkiat%Praditpornsilpa%NULL%1,     Kriang%Tungsanga%NULL%1,     Somchai%Eiam-Ong%NULL%1,     Visith%Sitprija%NULL%1,     John A.%Kellum%NULL%1,     Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%0,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%0,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%0,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%0,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%0,     Song%Hu%NULL%0,     Quan%Hu%NULL%0,     Daoyin%Ding%NULL%0,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%0,     Weijiang%Xu%NULL%0,     Jun%Guo%NULL%0,     Jinglong%Xu%NULL%0,     Haitao%Yuan%NULL%0,     Bin%Zhang%NULL%0,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%0,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
+ The characteristics of this infection in patients varies from country to country.
+ To move forward, clinical data on infected patients are needed.
+ Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
+Methods
+Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
+ We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
+Results
+Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
+ Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
+ Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
+ The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
+ The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
+ Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
+ Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
+ Combination antiviral and antibiotic therapy was used in 43.0% of cases.
+Conclusions
+id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
+ In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
+</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,     Mina%Akbari Rad%NULL%1,     Robert%Bergquist%NULL%1,     Abolghasem%Allahyari%NULL%1,     Kamila%Hashemzadeh%NULL%1,     Nasrin%Milani%NULL%1,     Mahdi%Gholian-Aval%NULL%1,     Fariba%Rezaeitalab%NULL%1,     Mohammad Jafar%Sadeghi Quchani%NULL%1,     Zahra%Nahbandani%NULL%1,     Mandana%Khodashahi%NULL%1,     Zahra%Javid%NULL%1,     Mahnaz%Mozdourian%NULL%1,     Mohammad Ali%Yaghoubi%NULL%1,     Zahra%Mozaheb%NULL%1,     Mohsen%Seddigh-Shamsi%NULL%1,     Mohammad%Moeini Nodeh%NULL%1,     Shima%Nabavi%NULL%1,     Hooman%Mosannen Mozaffari%NULL%1,     Mohammadreza%Farzanehfar%NULL%1,     Zahra%Lotfi%NULL%1,     Alireza%Shariati%NULL%1,     Shekoofe%Bonakdaran%NULL%1,     Zahra%Rezaieyazdi%NULL%1,     Zahra%Mirfeizi%NULL%1,     Maryam%Miri%NULL%1,     Reza%Bassiri%NULL%1,     Sajjad%Ataei Azimi%NULL%1,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
+ Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
+ To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
+Methods
+In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
+Results
+The mean age was 53.75 years and 71 (62.8%) were males.
+ The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
+ Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
+ The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
+ Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
+Conclusion
+id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,     Zohre%Khodamoradi%NULL%1,     Amirhossein%Erfani%NULL%1,     Hamidreza%Hosseinpour%NULL%1,     Keivan%Ranjbar%NULL%1,     Yasaman%Emami%NULL%1,     Alireza%Mirahmadizadeh%NULL%1,     Mehrzad%Lotfi%NULL%1,     Babak%Shirazi Yeganeh%NULL%1,     Abolfazl%Dorrani Nejad%NULL%1,     Abdolrasool%Hemmati%NULL%1,     Mostafa%Ebrahimi%NULL%1,     Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
+ This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
+Methods
+We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
+Results
+AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
+ Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
+ AKI patients had a mean age of 74.7 ± 9.9 years.
+ These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
+ Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
+ Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
+ Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
+ Patients with AKI had a mortality rate of 56.5%.
+ Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
+Conclusion
+id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
+ Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
+</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,     Annachiara%Ferrari%NULL%2,     Annachiara%Ferrari%NULL%0,     Francesco%Fontana%NULL%1,     Giacomo%Mori%NULL%1,     Riccardo%Magistroni%NULL%1,     Marianna%Meschiari%NULL%1,     Erica%Franceschini%NULL%1,     Marianna%Menozzi%NULL%1,     Gianluca%Cuomo%NULL%1,     Gabriella%Orlando%NULL%1,     Antonella%Santoro%NULL%1,     Margherita%Digaetano%NULL%1,     Cinzia%Puzzolante%NULL%1,     Federica%Carli%NULL%1,     Andrea%Bedini%NULL%1,     Jovana%Milic%NULL%1,     Irene%Coloretti%NULL%1,     Paolo%Raggi%NULL%1,     Cristina%Mussini%NULL%1,     Massimo%Girardis%NULL%1,     Gianni%Cappelli%NULL%1,     Giovanni%Guaraldi%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+When severe, COVID-19 shares many clinical features with bacterial sepsis.
+ Yet, secondary bacterial infection is uncommon.
+ However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
+Methods
+We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
+Results
+Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
+ We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
+ Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
+ Proteobacteria was the most abundant phylum.
+ The diversity of bacterial genera was decreased overtime.
+Conclusions
+Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
+ This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
+</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,      Win%Kulvichit%NULL%1,      Sunchai%Payungporn%NULL%1,      Trairak%Pisitkun%NULL%1,      Ariya%Chindamporn%NULL%1,      Sadudee%Peerapornratana%NULL%1,      Prapaporn%Pisitkun%NULL%1,      Suwalak%Chitcharoen%NULL%1,      Vorthon%Sawaswong%NULL%1,      Navaporn%Worasilchai%NULL%1,      Sarinya%Kampunya%NULL%1,      Opass%Putcharoen%NULL%1,      Thammasak%Thawitsri%NULL%1,      Nophol%Leelayuwatanakul%NULL%1,      Napplika%Kongpolprom%NULL%1,      Vorakamol%Phoophiboon%NULL%1,      Thitiwat%Sriprasart%NULL%1,      Rujipat%Samransamruajkit%NULL%1,      Somkanya%Tungsanga%NULL%1,      Kanitha%Tiankanon%NULL%1,      Nuttha%Lumlertgul%NULL%1,      Asada%Leelahavanichkul%NULL%1,      Tueboon%Sriphojanart%NULL%1,      Terapong%Tantawichien%NULL%1,      Usa%Thisyakorn%NULL%1,      Chintana%Chirathaworn%NULL%1,      Kearkiat%Praditpornsilpa%NULL%1,      Kriang%Tungsanga%NULL%1,      Somchai%Eiam-Ong%NULL%1,      Visith%Sitprija%NULL%1,      John A.%Kellum%NULL%1,      Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%0,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%0,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%0,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%0,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%0,      Song%Hu%NULL%0,      Quan%Hu%NULL%0,      Daoyin%Ding%NULL%0,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%0,      Weijiang%Xu%NULL%0,      Jun%Guo%NULL%0,      Jinglong%Xu%NULL%0,      Haitao%Yuan%NULL%0,      Bin%Zhang%NULL%0,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%0,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
+ The characteristics of this infection in patients varies from country to country.
+ To move forward, clinical data on infected patients are needed.
+ Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
+Methods
+Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
+ We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
+Results
+Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
+ Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
+ Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
+ The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
+ The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
+ Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
+ Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
+ Combination antiviral and antibiotic therapy was used in 43.0% of cases.
+Conclusions
+The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
+ In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
+</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,      Mina%Akbari Rad%NULL%1,      Robert%Bergquist%NULL%1,      Abolghasem%Allahyari%NULL%1,      Kamila%Hashemzadeh%NULL%1,      Nasrin%Milani%NULL%1,      Mahdi%Gholian-Aval%NULL%1,      Fariba%Rezaeitalab%NULL%1,      Mohammad Jafar%Sadeghi Quchani%NULL%1,      Zahra%Nahbandani%NULL%1,      Mandana%Khodashahi%NULL%1,      Zahra%Javid%NULL%1,      Mahnaz%Mozdourian%NULL%1,      Mohammad Ali%Yaghoubi%NULL%1,      Zahra%Mozaheb%NULL%1,      Mohsen%Seddigh-Shamsi%NULL%1,      Mohammad%Moeini Nodeh%NULL%1,      Shima%Nabavi%NULL%1,      Hooman%Mosannen Mozaffari%NULL%1,      Mohammadreza%Farzanehfar%NULL%1,      Zahra%Lotfi%NULL%1,      Alireza%Shariati%NULL%1,      Shekoofe%Bonakdaran%NULL%1,      Zahra%Rezaieyazdi%NULL%1,      Zahra%Mirfeizi%NULL%1,      Maryam%Miri%NULL%1,      Reza%Bassiri%NULL%1,      Sajjad%Ataei Azimi%NULL%1,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
+ Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
+ To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
+Methods
+In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
+Results
+The mean age was 53.75 years and 71 (62.8%) were males.
+ The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
+ Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
+ The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
+ Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
+Conclusion
+Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,      Zohre%Khodamoradi%NULL%1,      Amirhossein%Erfani%NULL%1,      Hamidreza%Hosseinpour%NULL%1,      Keivan%Ranjbar%NULL%1,      Yasaman%Emami%NULL%1,      Alireza%Mirahmadizadeh%NULL%1,      Mehrzad%Lotfi%NULL%1,      Babak%Shirazi Yeganeh%NULL%1,      Abolfazl%Dorrani Nejad%NULL%1,      Abdolrasool%Hemmati%NULL%1,      Mostafa%Ebrahimi%NULL%1,      Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
+ This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
+Methods
+We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
+Results
+AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
+ Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
+ AKI patients had a mean age of 74.7 ± 9.9 years.
+ These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
+ Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
+ Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
+ Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
+ Patients with AKI had a mortality rate of 56.5%.
+ Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
+Conclusion
+AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
+ Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
+</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,      Annachiara%Ferrari%NULL%2,      Annachiara%Ferrari%NULL%0,      Francesco%Fontana%NULL%1,      Giacomo%Mori%NULL%1,      Riccardo%Magistroni%NULL%1,      Marianna%Meschiari%NULL%1,      Erica%Franceschini%NULL%1,      Marianna%Menozzi%NULL%1,      Gianluca%Cuomo%NULL%1,      Gabriella%Orlando%NULL%1,      Antonella%Santoro%NULL%1,      Margherita%Digaetano%NULL%1,      Cinzia%Puzzolante%NULL%1,      Federica%Carli%NULL%1,      Andrea%Bedini%NULL%1,      Jovana%Milic%NULL%1,      Irene%Coloretti%NULL%1,      Paolo%Raggi%NULL%1,      Cristina%Mussini%NULL%1,      Massimo%Girardis%NULL%1,      Gianni%Cappelli%NULL%1,      Giovanni%Guaraldi%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%0,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%0,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%0,       Song%Hu%NULL%0,       Quan%Hu%NULL%0,       Daoyin%Ding%NULL%0,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%0,       Weijiang%Xu%NULL%0,       Jun%Guo%NULL%0,       Jinglong%Xu%NULL%0,       Haitao%Yuan%NULL%0,       Bin%Zhang%NULL%0,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%0,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -2126,10 +2693,10 @@
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
         <v>104</v>
@@ -2282,10 +2849,10 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -2490,10 +3057,10 @@
         <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
         <v>154</v>
@@ -2620,10 +3187,10 @@
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>383</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="F25" t="s">
         <v>178</v>
@@ -2672,10 +3239,10 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="F27" t="s">
         <v>188</v>
@@ -2698,10 +3265,10 @@
         <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>387</v>
       </c>
       <c r="E28" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="F28" t="s">
         <v>192</v>
@@ -2750,10 +3317,10 @@
         <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
         <v>202</v>
@@ -2828,10 +3395,10 @@
         <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="F33" t="s">
         <v>211</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="343">
   <si>
     <t>Doi</t>
   </si>
@@ -1624,573 +1624,6 @@
   </si>
   <si>
     <t>[Geehan%Suleyman%NULL%1,  Raef A.%Fadel%NULL%1,  Kelly M.%Malette%NULL%1,  Charles%Hammond%NULL%1,  Hafsa%Abdulla%NULL%1,  Abigail%Entz%NULL%1,  Zachary%Demertzis%NULL%1,  Zachary%Hanna%NULL%1,  Andrew%Failla%NULL%1,  Carina%Dagher%NULL%0,  Zohra%Chaudhry%NULL%0,  Amit%Vahia%NULL%0,  Odaliz%Abreu Lanfranco%NULL%1,  Mayur%Ramesh%NULL%1,  Marcus J.%Zervos%NULL%0,  George%Alangaden%NULL%0,  Joseph%Miller%NULL%0,  Indira%Brar%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appropriate critical care delivery for Coronavirus disease 2019 (COVID-19) is a cornerstone in saving lives.
- Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
- In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,   Naofumi%Bunya%NULL%1,   Tomoyuki%Endo%NULL%1,   Yuji%Fujino%NULL%1,   Kensuke%Fujita%NULL%1,   Kenji%Fujizuka%NULL%1,   Yoshihiro%Hagiwara%NULL%1,   Jun%Hamaguchi%NULL%1,   Yoshitaka%Hara%NULL%1,   Eiji%Hashiba%NULL%1,   Satoru%Hashimoto%NULL%1,   Noriyuki%Hattori%NULL%1,   Kota%Hoshino%NULL%1,   Shinichi%Ijuin%NULL%1,   Takanari%Ikeyama%NULL%1,   Shingo%Ichiba%NULL%1,   Wataru%Iwanaga%NULL%1,   Yoshiaki%Iwashita%NULL%1,   Masafumi%Kanamoto%NULL%1,   Hitoshi%Kaneko%NULL%1,   Kaneyuki%Kawamae%NULL%1,   Toru%Kotani%NULL%1,   Yasuaki%Koyama%NULL%1,   Keibun%Liu%NULL%1,   Tomohiko%Masuno%NULL%1,   Naoto%Morimura%NULL%1,   Tomoyuki%Nakamura%NULL%1,   Masaki%Nakane%NULL%1,   Michitaka%Nasu%NULL%1,   Osamu%Nishida%NULL%1,   Masaji%Nishimura%NULL%1,   Kanae%Ochiai%NULL%1,   Takayuki%Ogura%NULL%1,   Shinichiro%Ohshimo%NULL%1,   Keisuke%Oyama%NULL%1,   Junichi%Sasaki%NULL%1,   Ryutaro%Seo%NULL%1,   Takeshi%Shimazu%NULL%1,   Nobuaki%Shime%NULL%4,   Keiki%Shimizu%NULL%1,   Hiroyuki%Suzuki%NULL%1,   Shuhei%Takauji%NULL%1,   Shinhiro%Takeda%NULL%1,   Ichiro%Takeuchi%NULL%1,   Mumon%Takita%NULL%1,   Hayato%Taniguchi%NULL%1,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-When severe, COVID-19 shares many clinical features with bacterial sepsis.
- Yet, secondary bacterial infection is uncommon.
- However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
-Methods
-id="Par2"&gt;We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
-Results
-id="Par3"&gt;Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
- We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
- Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
- Proteobacteria was the most abundant phylum.
- The diversity of bacterial genera was decreased overtime.
-Conclusions
-id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
- This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
-</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,   Win%Kulvichit%NULL%1,   Sunchai%Payungporn%NULL%1,   Trairak%Pisitkun%NULL%1,   Ariya%Chindamporn%NULL%1,   Sadudee%Peerapornratana%NULL%1,   Prapaporn%Pisitkun%NULL%1,   Suwalak%Chitcharoen%NULL%1,   Vorthon%Sawaswong%NULL%1,   Navaporn%Worasilchai%NULL%1,   Sarinya%Kampunya%NULL%1,   Opass%Putcharoen%NULL%1,   Thammasak%Thawitsri%NULL%1,   Nophol%Leelayuwatanakul%NULL%1,   Napplika%Kongpolprom%NULL%1,   Vorakamol%Phoophiboon%NULL%1,   Thitiwat%Sriprasart%NULL%1,   Rujipat%Samransamruajkit%NULL%1,   Somkanya%Tungsanga%NULL%1,   Kanitha%Tiankanon%NULL%1,   Nuttha%Lumlertgul%NULL%1,   Asada%Leelahavanichkul%NULL%1,   Tueboon%Sriphojanart%NULL%1,   Terapong%Tantawichien%NULL%1,   Usa%Thisyakorn%NULL%1,   Chintana%Chirathaworn%NULL%1,   Kearkiat%Praditpornsilpa%NULL%1,   Kriang%Tungsanga%NULL%1,   Somchai%Eiam-Ong%NULL%1,   Visith%Sitprija%NULL%1,   John A.%Kellum%NULL%1,   Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,   Dan%Xu%NULL%0,   Shouzhi%Fu%NULL%0,   Jun%Zhang%NULL%0,   Xiaobo%Yang%NULL%0,   Liang%Xu%NULL%0,   Jiqian%Xu%NULL%0,   Yongran%Wu%NULL%0,   Chaolin%Huang%NULL%0,   Yaqi%Ouyang%NULL%0,   Luyu%Yang%NULL%0,   Minghao%Fang%NULL%0,   Hongwen%Xiao%NULL%0,   Jing%Ma%NULL%0,   Wei%Zhu%NULL%0,   Song%Hu%NULL%0,   Quan%Hu%NULL%0,   Daoyin%Ding%NULL%0,   Ming%Hu%NULL%0,   Guochao%Zhu%NULL%0,   Weijiang%Xu%NULL%0,   Jun%Guo%NULL%0,   Jinglong%Xu%NULL%0,   Haitao%Yuan%NULL%0,   Bin%Zhang%NULL%0,   Zhui%Yu%yuzhui@whu.edu.cn%0,   Dechang%Chen%icudechangchen@163.com%0,   Shiying%Yuan%yuan_shiying@163.com%0,   You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
- The characteristics of this infection in patients varies from country to country.
- To move forward, clinical data on infected patients are needed.
- Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
-Methods
-id="Par2"&gt;Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
- We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
-Results
-id="Par3"&gt;Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
- Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
- Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
- The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
- The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
- Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
- Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
- Combination antiviral and antibiotic therapy was used in 43.0% of cases.
-Conclusions
-id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
- In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
-</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,   Mina%Akbari Rad%NULL%1,   Robert%Bergquist%NULL%1,   Abolghasem%Allahyari%NULL%1,   Kamila%Hashemzadeh%NULL%1,   Nasrin%Milani%NULL%1,   Mahdi%Gholian-Aval%NULL%1,   Fariba%Rezaeitalab%NULL%1,   Mohammad Jafar%Sadeghi Quchani%NULL%1,   Zahra%Nahbandani%NULL%1,   Mandana%Khodashahi%NULL%1,   Zahra%Javid%NULL%1,   Mahnaz%Mozdourian%NULL%1,   Mohammad Ali%Yaghoubi%NULL%1,   Zahra%Mozaheb%NULL%1,   Mohsen%Seddigh-Shamsi%NULL%1,   Mohammad%Moeini Nodeh%NULL%1,   Shima%Nabavi%NULL%1,   Hooman%Mosannen Mozaffari%NULL%1,   Mohammadreza%Farzanehfar%NULL%1,   Zahra%Lotfi%NULL%1,   Alireza%Shariati%NULL%1,   Shekoofe%Bonakdaran%NULL%1,   Zahra%Rezaieyazdi%NULL%1,   Zahra%Mirfeizi%NULL%1,   Maryam%Miri%NULL%1,   Reza%Bassiri%NULL%1,   Sajjad%Ataei Azimi%NULL%1,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
- Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
- To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
-Methods
-id="Par2"&gt;In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
-Results
-id="Par3"&gt;The mean age was 53.75 years and 71 (62.8%) were males.
- The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
- Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
- The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
- Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
-Conclusion
-id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,   Zohre%Khodamoradi%NULL%1,   Amirhossein%Erfani%NULL%1,   Hamidreza%Hosseinpour%NULL%1,   Keivan%Ranjbar%NULL%1,   Yasaman%Emami%NULL%1,   Alireza%Mirahmadizadeh%NULL%1,   Mehrzad%Lotfi%NULL%1,   Babak%Shirazi Yeganeh%NULL%1,   Abolfazl%Dorrani Nejad%NULL%1,   Abdolrasool%Hemmati%NULL%1,   Mostafa%Ebrahimi%NULL%1,   Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
- This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
-Methods
-id="Par2"&gt;We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
-Results
-id="Par3"&gt;AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
- Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
- AKI patients had a mean age of 74.7 ± 9.9 years.
- These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
- Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
- Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
- Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
- Patients with AKI had a mortality rate of 56.5%.
- Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
-Conclusion
-id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
- Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
-</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,   Annachiara%Ferrari%NULL%2,   Annachiara%Ferrari%NULL%0,   Francesco%Fontana%NULL%1,   Giacomo%Mori%NULL%1,   Riccardo%Magistroni%NULL%1,   Marianna%Meschiari%NULL%1,   Erica%Franceschini%NULL%1,   Marianna%Menozzi%NULL%1,   Gianluca%Cuomo%NULL%1,   Gabriella%Orlando%NULL%1,   Antonella%Santoro%NULL%1,   Margherita%Digaetano%NULL%1,   Cinzia%Puzzolante%NULL%1,   Federica%Carli%NULL%1,   Andrea%Bedini%NULL%1,   Jovana%Milic%NULL%1,   Irene%Coloretti%NULL%1,   Paolo%Raggi%NULL%1,   Cristina%Mussini%NULL%1,   Massimo%Girardis%NULL%1,   Gianni%Cappelli%NULL%1,   Giovanni%Guaraldi%NULL%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invasive mechanical ventilation (IMV) is the standard treatment in critically ill COVID-19 patients with acute severe respiratory distress syndrome (ARDS).
- When IMV setting is extremely aggressive, especially through the application of high positive-end-expiratory respiration (PEEP) values, lung damage can occur.
- Until today, in COVID-19 patients, two types of ARDS were identified (L- and H-type); for the L-type, a lower PEEP strategy was supposed to be preferred, but data are still missing.
- The aim of this study was to evaluate if a clinical management with lower PEEP values in critically ill L-type COVID-19 patients was safe and efficient in comparison to usual standard of care.
- A retrospective analysis was conducted on consecutive patients with COVID-19 ARDS admitted to the ICU and treated with IMV.
- Patients were treated with a lower PEEP strategy adapted to BMI: PEEP 10 cmH2O if BMI &amp;lt; 30 kg m−2, PEEP 12 cmH2O if BMI 30–50 kg m−2, PEEP 15 cmH2O if BMI &amp;gt; 50 kg m−2.
- Primary endpoint was the PaO2/FiO2 ratio evolution during the first 3 IMV days; secondary endpoints were to analyze ICU length of stay (LOS) and IMV length.
- From March 2 to January 15, 2021, 79 patients underwent IMV.
- Average applied PEEP was 11 ± 2.9 cmH2O for BMI &amp;lt; 30 kg m−2 and 16 ± 3.18 cmH2O for BMI &amp;gt; 30 kg m−2.
- During the first 24 h of IMV, patients’ PaO2/FiO2 ratio presented an improvement (p&amp;lt;0.001; CI 99%) that continued daily up to 72 h (p&amp;lt;0.001; CI 99%).
- Median ICU LOS was 15 days (10–28); median duration of IMV was 12 days (8–26).
- The ICU mortality rate was 31.6%.
- Lower PEEP strategy treatment in L-type COVID-19 ARDS resulted in a PaO2/FiO2 ratio persistent daily improvement during the first 72 h of IMV.
- A lower PEEP strategy could be beneficial in the first phase of ARDS in critically ill COVID-19 patients.
-</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,   Marco%Roncador%NULL%2,   Marco%Roncador%NULL%0,   Andrea%Saporito%NULL%1,   Maira%Biggiogero%NULL%1,   Andrea%Glotta%NULL%1,   Pier Andrea%Maida%NULL%1,   Patrizia%Urso%NULL%1,   Giovanni%Bona%NULL%1,   Christian%Garzoni%NULL%1,   Romano%Mauri%NULL%0,   Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critically ill patients with COVID-19 pneumonia suffered both high thrombotic and bleeding risk.
- The effect of SARS-CoV-2 on coagulation and fibrinolysis is not well known.
- We conducted a retrospective study of critically ill patients admitted to an intensive care unit (ICU) a cause of severe COVID-19 pneumonia and we evaluated coagulation function using rotational thromboelastometry (ROTEM) on day of admission (T0) and 5 (T5) and 10 (T10) days after admission to ICU.
- Coagulation standard parameters were also evaluated.
- Forty patients were enrolled into the study.
- The ICU and the hospital mortality were 10% and 12.5%, respectively.
- On ICU admission, prothrombin time was slightly reduced and it increased significantly at T10 (T0 = 65.1 ± 9.8 vs T10 = 85.7 ± 1.5, p = 0.002), while activated partial thromboplastin time and fibrinogen values were higher at T0 than T10 (32.2 ± 2.9 vs 27.2 ± 2.1, p = 0.017 and 895.1 ± 110 vs 332.5 ± 50, p = 0.002, respectively); moreover, whole blood thromboelastometry profiles were consistent with hypercoagulability characterized by an acceleration of the propagation phase of blood clot formation [i.
-e.
-, CFT below the lower limit in INTEM 16/40 patients (40%) and EXTEM 20/40 patients (50%)] and significant higher clot strength [MCF above the upper limit in INTEM 20/40 patients (50%), in EXTEM 28/40 patients (70%) and in FIBTEM 29/40 patients (72.5%)]; however, this hypercoagulable state persists in the first five days, but it decreases ten day after, without returning to normal values.
- No sign of secondary hyperfibrinolysis or sepsis induced coagulopathy (SIC) were found during the study period.
- In six patients (15%) a deep vein thrombosis and in 2 patients (5%) a thromboembolic event, were found; 12 patients (30%) had a catheter-related thrombosis.
- ROTEM analysis confirms that patients with severe COVID-19 pneumonia had a hypercoagulation state that persisted over time.
-</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,   Lara%Gianesello%gianesello.lara@libero.it%1,   Maddalena%Pazzi%NULL%2,   Maddalena%Pazzi%NULL%0,   Caterina%Stera%NULL%1,   Tommaso%Meconi%NULL%1,   Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-When severe, COVID-19 shares many clinical features with bacterial sepsis.
- Yet, secondary bacterial infection is uncommon.
- However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
-Methods
-We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
-Results
-id="Par3"&gt;Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
- We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
- Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
- Proteobacteria was the most abundant phylum.
- The diversity of bacterial genera was decreased overtime.
-Conclusions
-id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
- This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
-</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,    Win%Kulvichit%NULL%1,    Sunchai%Payungporn%NULL%1,    Trairak%Pisitkun%NULL%1,    Ariya%Chindamporn%NULL%1,    Sadudee%Peerapornratana%NULL%1,    Prapaporn%Pisitkun%NULL%1,    Suwalak%Chitcharoen%NULL%1,    Vorthon%Sawaswong%NULL%1,    Navaporn%Worasilchai%NULL%1,    Sarinya%Kampunya%NULL%1,    Opass%Putcharoen%NULL%1,    Thammasak%Thawitsri%NULL%1,    Nophol%Leelayuwatanakul%NULL%1,    Napplika%Kongpolprom%NULL%1,    Vorakamol%Phoophiboon%NULL%1,    Thitiwat%Sriprasart%NULL%1,    Rujipat%Samransamruajkit%NULL%1,    Somkanya%Tungsanga%NULL%1,    Kanitha%Tiankanon%NULL%1,    Nuttha%Lumlertgul%NULL%1,    Asada%Leelahavanichkul%NULL%1,    Tueboon%Sriphojanart%NULL%1,    Terapong%Tantawichien%NULL%1,    Usa%Thisyakorn%NULL%1,    Chintana%Chirathaworn%NULL%1,    Kearkiat%Praditpornsilpa%NULL%1,    Kriang%Tungsanga%NULL%1,    Somchai%Eiam-Ong%NULL%1,    Visith%Sitprija%NULL%1,    John A.%Kellum%NULL%1,    Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
- The characteristics of this infection in patients varies from country to country.
- To move forward, clinical data on infected patients are needed.
- Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
-Methods
-Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
- We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
-Results
-id="Par3"&gt;Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
- Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
- Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
- The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
- The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
- Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
- Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
- Combination antiviral and antibiotic therapy was used in 43.0% of cases.
-Conclusions
-id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
- In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
-</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,    Mina%Akbari Rad%NULL%1,    Robert%Bergquist%NULL%1,    Abolghasem%Allahyari%NULL%1,    Kamila%Hashemzadeh%NULL%1,    Nasrin%Milani%NULL%1,    Mahdi%Gholian-Aval%NULL%1,    Fariba%Rezaeitalab%NULL%1,    Mohammad Jafar%Sadeghi Quchani%NULL%1,    Zahra%Nahbandani%NULL%1,    Mandana%Khodashahi%NULL%1,    Zahra%Javid%NULL%1,    Mahnaz%Mozdourian%NULL%1,    Mohammad Ali%Yaghoubi%NULL%1,    Zahra%Mozaheb%NULL%1,    Mohsen%Seddigh-Shamsi%NULL%1,    Mohammad%Moeini Nodeh%NULL%1,    Shima%Nabavi%NULL%1,    Hooman%Mosannen Mozaffari%NULL%1,    Mohammadreza%Farzanehfar%NULL%1,    Zahra%Lotfi%NULL%1,    Alireza%Shariati%NULL%1,    Shekoofe%Bonakdaran%NULL%1,    Zahra%Rezaieyazdi%NULL%1,    Zahra%Mirfeizi%NULL%1,    Maryam%Miri%NULL%1,    Reza%Bassiri%NULL%1,    Sajjad%Ataei Azimi%NULL%1,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
- Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
- To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
-Methods
-In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
-Results
-id="Par3"&gt;The mean age was 53.75 years and 71 (62.8%) were males.
- The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
- Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
- The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
- Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
-Conclusion
-id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,    Zohre%Khodamoradi%NULL%1,    Amirhossein%Erfani%NULL%1,    Hamidreza%Hosseinpour%NULL%1,    Keivan%Ranjbar%NULL%1,    Yasaman%Emami%NULL%1,    Alireza%Mirahmadizadeh%NULL%1,    Mehrzad%Lotfi%NULL%1,    Babak%Shirazi Yeganeh%NULL%1,    Abolfazl%Dorrani Nejad%NULL%1,    Abdolrasool%Hemmati%NULL%1,    Mostafa%Ebrahimi%NULL%1,    Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
- This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
-Methods
-We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
-Results
-id="Par3"&gt;AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
- Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
- AKI patients had a mean age of 74.7 ± 9.9 years.
- These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
- Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
- Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
- Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
- Patients with AKI had a mortality rate of 56.5%.
- Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
-Conclusion
-id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
- Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
-</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,    Annachiara%Ferrari%NULL%2,    Annachiara%Ferrari%NULL%0,    Francesco%Fontana%NULL%1,    Giacomo%Mori%NULL%1,    Riccardo%Magistroni%NULL%1,    Marianna%Meschiari%NULL%1,    Erica%Franceschini%NULL%1,    Marianna%Menozzi%NULL%1,    Gianluca%Cuomo%NULL%1,    Gabriella%Orlando%NULL%1,    Antonella%Santoro%NULL%1,    Margherita%Digaetano%NULL%1,    Cinzia%Puzzolante%NULL%1,    Federica%Carli%NULL%1,    Andrea%Bedini%NULL%1,    Jovana%Milic%NULL%1,    Irene%Coloretti%NULL%1,    Paolo%Raggi%NULL%1,    Cristina%Mussini%NULL%1,    Massimo%Girardis%NULL%1,    Gianni%Cappelli%NULL%1,    Giovanni%Guaraldi%NULL%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-When severe, COVID-19 shares many clinical features with bacterial sepsis.
- Yet, secondary bacterial infection is uncommon.
- However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
-Methods
-We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
-Results
-Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
- We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
- Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
- Proteobacteria was the most abundant phylum.
- The diversity of bacterial genera was decreased overtime.
-Conclusions
-id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
- This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
-</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,     Win%Kulvichit%NULL%1,     Sunchai%Payungporn%NULL%1,     Trairak%Pisitkun%NULL%1,     Ariya%Chindamporn%NULL%1,     Sadudee%Peerapornratana%NULL%1,     Prapaporn%Pisitkun%NULL%1,     Suwalak%Chitcharoen%NULL%1,     Vorthon%Sawaswong%NULL%1,     Navaporn%Worasilchai%NULL%1,     Sarinya%Kampunya%NULL%1,     Opass%Putcharoen%NULL%1,     Thammasak%Thawitsri%NULL%1,     Nophol%Leelayuwatanakul%NULL%1,     Napplika%Kongpolprom%NULL%1,     Vorakamol%Phoophiboon%NULL%1,     Thitiwat%Sriprasart%NULL%1,     Rujipat%Samransamruajkit%NULL%1,     Somkanya%Tungsanga%NULL%1,     Kanitha%Tiankanon%NULL%1,     Nuttha%Lumlertgul%NULL%1,     Asada%Leelahavanichkul%NULL%1,     Tueboon%Sriphojanart%NULL%1,     Terapong%Tantawichien%NULL%1,     Usa%Thisyakorn%NULL%1,     Chintana%Chirathaworn%NULL%1,     Kearkiat%Praditpornsilpa%NULL%1,     Kriang%Tungsanga%NULL%1,     Somchai%Eiam-Ong%NULL%1,     Visith%Sitprija%NULL%1,     John A.%Kellum%NULL%1,     Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%0,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%0,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%0,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%0,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%0,     Song%Hu%NULL%0,     Quan%Hu%NULL%0,     Daoyin%Ding%NULL%0,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%0,     Weijiang%Xu%NULL%0,     Jun%Guo%NULL%0,     Jinglong%Xu%NULL%0,     Haitao%Yuan%NULL%0,     Bin%Zhang%NULL%0,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%0,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
- The characteristics of this infection in patients varies from country to country.
- To move forward, clinical data on infected patients are needed.
- Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
-Methods
-Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
- We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
-Results
-Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
- Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
- Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
- The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
- The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
- Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
- Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
- Combination antiviral and antibiotic therapy was used in 43.0% of cases.
-Conclusions
-id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
- In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
-</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,     Mina%Akbari Rad%NULL%1,     Robert%Bergquist%NULL%1,     Abolghasem%Allahyari%NULL%1,     Kamila%Hashemzadeh%NULL%1,     Nasrin%Milani%NULL%1,     Mahdi%Gholian-Aval%NULL%1,     Fariba%Rezaeitalab%NULL%1,     Mohammad Jafar%Sadeghi Quchani%NULL%1,     Zahra%Nahbandani%NULL%1,     Mandana%Khodashahi%NULL%1,     Zahra%Javid%NULL%1,     Mahnaz%Mozdourian%NULL%1,     Mohammad Ali%Yaghoubi%NULL%1,     Zahra%Mozaheb%NULL%1,     Mohsen%Seddigh-Shamsi%NULL%1,     Mohammad%Moeini Nodeh%NULL%1,     Shima%Nabavi%NULL%1,     Hooman%Mosannen Mozaffari%NULL%1,     Mohammadreza%Farzanehfar%NULL%1,     Zahra%Lotfi%NULL%1,     Alireza%Shariati%NULL%1,     Shekoofe%Bonakdaran%NULL%1,     Zahra%Rezaieyazdi%NULL%1,     Zahra%Mirfeizi%NULL%1,     Maryam%Miri%NULL%1,     Reza%Bassiri%NULL%1,     Sajjad%Ataei Azimi%NULL%1,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
- Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
- To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
-Methods
-In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
-Results
-The mean age was 53.75 years and 71 (62.8%) were males.
- The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
- Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
- The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
- Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
-Conclusion
-id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,     Zohre%Khodamoradi%NULL%1,     Amirhossein%Erfani%NULL%1,     Hamidreza%Hosseinpour%NULL%1,     Keivan%Ranjbar%NULL%1,     Yasaman%Emami%NULL%1,     Alireza%Mirahmadizadeh%NULL%1,     Mehrzad%Lotfi%NULL%1,     Babak%Shirazi Yeganeh%NULL%1,     Abolfazl%Dorrani Nejad%NULL%1,     Abdolrasool%Hemmati%NULL%1,     Mostafa%Ebrahimi%NULL%1,     Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
- This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
-Methods
-We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
-Results
-AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
- Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
- AKI patients had a mean age of 74.7 ± 9.9 years.
- These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
- Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
- Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
- Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
- Patients with AKI had a mortality rate of 56.5%.
- Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
-Conclusion
-id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
- Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
-</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,     Annachiara%Ferrari%NULL%2,     Annachiara%Ferrari%NULL%0,     Francesco%Fontana%NULL%1,     Giacomo%Mori%NULL%1,     Riccardo%Magistroni%NULL%1,     Marianna%Meschiari%NULL%1,     Erica%Franceschini%NULL%1,     Marianna%Menozzi%NULL%1,     Gianluca%Cuomo%NULL%1,     Gabriella%Orlando%NULL%1,     Antonella%Santoro%NULL%1,     Margherita%Digaetano%NULL%1,     Cinzia%Puzzolante%NULL%1,     Federica%Carli%NULL%1,     Andrea%Bedini%NULL%1,     Jovana%Milic%NULL%1,     Irene%Coloretti%NULL%1,     Paolo%Raggi%NULL%1,     Cristina%Mussini%NULL%1,     Massimo%Girardis%NULL%1,     Gianni%Cappelli%NULL%1,     Giovanni%Guaraldi%NULL%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-When severe, COVID-19 shares many clinical features with bacterial sepsis.
- Yet, secondary bacterial infection is uncommon.
- However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
-Methods
-We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
-Results
-Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
- We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
- Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
- Proteobacteria was the most abundant phylum.
- The diversity of bacterial genera was decreased overtime.
-Conclusions
-Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
- This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
-</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,      Win%Kulvichit%NULL%1,      Sunchai%Payungporn%NULL%1,      Trairak%Pisitkun%NULL%1,      Ariya%Chindamporn%NULL%1,      Sadudee%Peerapornratana%NULL%1,      Prapaporn%Pisitkun%NULL%1,      Suwalak%Chitcharoen%NULL%1,      Vorthon%Sawaswong%NULL%1,      Navaporn%Worasilchai%NULL%1,      Sarinya%Kampunya%NULL%1,      Opass%Putcharoen%NULL%1,      Thammasak%Thawitsri%NULL%1,      Nophol%Leelayuwatanakul%NULL%1,      Napplika%Kongpolprom%NULL%1,      Vorakamol%Phoophiboon%NULL%1,      Thitiwat%Sriprasart%NULL%1,      Rujipat%Samransamruajkit%NULL%1,      Somkanya%Tungsanga%NULL%1,      Kanitha%Tiankanon%NULL%1,      Nuttha%Lumlertgul%NULL%1,      Asada%Leelahavanichkul%NULL%1,      Tueboon%Sriphojanart%NULL%1,      Terapong%Tantawichien%NULL%1,      Usa%Thisyakorn%NULL%1,      Chintana%Chirathaworn%NULL%1,      Kearkiat%Praditpornsilpa%NULL%1,      Kriang%Tungsanga%NULL%1,      Somchai%Eiam-Ong%NULL%1,      Visith%Sitprija%NULL%1,      John A.%Kellum%NULL%1,      Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%0,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%0,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%0,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%0,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%0,      Song%Hu%NULL%0,      Quan%Hu%NULL%0,      Daoyin%Ding%NULL%0,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%0,      Weijiang%Xu%NULL%0,      Jun%Guo%NULL%0,      Jinglong%Xu%NULL%0,      Haitao%Yuan%NULL%0,      Bin%Zhang%NULL%0,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%0,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
- The characteristics of this infection in patients varies from country to country.
- To move forward, clinical data on infected patients are needed.
- Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
-Methods
-Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
- We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
-Results
-Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
- Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
- Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
- The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
- The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
- Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
- Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
- Combination antiviral and antibiotic therapy was used in 43.0% of cases.
-Conclusions
-The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
- In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
-</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,      Mina%Akbari Rad%NULL%1,      Robert%Bergquist%NULL%1,      Abolghasem%Allahyari%NULL%1,      Kamila%Hashemzadeh%NULL%1,      Nasrin%Milani%NULL%1,      Mahdi%Gholian-Aval%NULL%1,      Fariba%Rezaeitalab%NULL%1,      Mohammad Jafar%Sadeghi Quchani%NULL%1,      Zahra%Nahbandani%NULL%1,      Mandana%Khodashahi%NULL%1,      Zahra%Javid%NULL%1,      Mahnaz%Mozdourian%NULL%1,      Mohammad Ali%Yaghoubi%NULL%1,      Zahra%Mozaheb%NULL%1,      Mohsen%Seddigh-Shamsi%NULL%1,      Mohammad%Moeini Nodeh%NULL%1,      Shima%Nabavi%NULL%1,      Hooman%Mosannen Mozaffari%NULL%1,      Mohammadreza%Farzanehfar%NULL%1,      Zahra%Lotfi%NULL%1,      Alireza%Shariati%NULL%1,      Shekoofe%Bonakdaran%NULL%1,      Zahra%Rezaieyazdi%NULL%1,      Zahra%Mirfeizi%NULL%1,      Maryam%Miri%NULL%1,      Reza%Bassiri%NULL%1,      Sajjad%Ataei Azimi%NULL%1,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
- Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
- To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
-Methods
-In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
-Results
-The mean age was 53.75 years and 71 (62.8%) were males.
- The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
- Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
- The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
- Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
-Conclusion
-Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
-</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,      Zohre%Khodamoradi%NULL%1,      Amirhossein%Erfani%NULL%1,      Hamidreza%Hosseinpour%NULL%1,      Keivan%Ranjbar%NULL%1,      Yasaman%Emami%NULL%1,      Alireza%Mirahmadizadeh%NULL%1,      Mehrzad%Lotfi%NULL%1,      Babak%Shirazi Yeganeh%NULL%1,      Abolfazl%Dorrani Nejad%NULL%1,      Abdolrasool%Hemmati%NULL%1,      Mostafa%Ebrahimi%NULL%1,      Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
- This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
-Methods
-We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
-Results
-AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
- Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
- AKI patients had a mean age of 74.7 ± 9.9 years.
- These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
- Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
- Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
- Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
- Patients with AKI had a mortality rate of 56.5%.
- Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
-Conclusion
-AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
- Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
-</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,      Annachiara%Ferrari%NULL%2,      Annachiara%Ferrari%NULL%0,      Francesco%Fontana%NULL%1,      Giacomo%Mori%NULL%1,      Riccardo%Magistroni%NULL%1,      Marianna%Meschiari%NULL%1,      Erica%Franceschini%NULL%1,      Marianna%Menozzi%NULL%1,      Gianluca%Cuomo%NULL%1,      Gabriella%Orlando%NULL%1,      Antonella%Santoro%NULL%1,      Margherita%Digaetano%NULL%1,      Cinzia%Puzzolante%NULL%1,      Federica%Carli%NULL%1,      Andrea%Bedini%NULL%1,      Jovana%Milic%NULL%1,      Irene%Coloretti%NULL%1,      Paolo%Raggi%NULL%1,      Cristina%Mussini%NULL%1,      Massimo%Girardis%NULL%1,      Gianni%Cappelli%NULL%1,      Giovanni%Guaraldi%NULL%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%0,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%0,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%0,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%0,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%0,       Song%Hu%NULL%0,       Quan%Hu%NULL%0,       Daoyin%Ding%NULL%0,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%0,       Weijiang%Xu%NULL%0,       Jun%Guo%NULL%0,       Jinglong%Xu%NULL%0,       Haitao%Yuan%NULL%0,       Bin%Zhang%NULL%0,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%0,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
   </si>
 </sst>
 </file>
@@ -2693,10 +2126,10 @@
         <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
         <v>104</v>
@@ -2849,10 +2282,10 @@
         <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -3057,10 +2490,10 @@
         <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
         <v>154</v>
@@ -3187,10 +2620,10 @@
         <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
         <v>178</v>
@@ -3239,10 +2672,10 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
         <v>188</v>
@@ -3265,10 +2698,10 @@
         <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
         <v>192</v>
@@ -3317,10 +2750,10 @@
         <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
         <v>202</v>
@@ -3395,10 +2828,10 @@
         <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="F33" t="s">
         <v>211</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="400">
   <si>
     <t>Doi</t>
   </si>
@@ -1624,6 +1624,184 @@
   </si>
   <si>
     <t>[Geehan%Suleyman%NULL%1,  Raef A.%Fadel%NULL%1,  Kelly M.%Malette%NULL%1,  Charles%Hammond%NULL%1,  Hafsa%Abdulla%NULL%1,  Abigail%Entz%NULL%1,  Zachary%Demertzis%NULL%1,  Zachary%Hanna%NULL%1,  Andrew%Failla%NULL%1,  Carina%Dagher%NULL%0,  Zohra%Chaudhry%NULL%0,  Amit%Vahia%NULL%0,  Odaliz%Abreu Lanfranco%NULL%1,  Mayur%Ramesh%NULL%1,  Marcus J.%Zervos%NULL%0,  George%Alangaden%NULL%0,  Joseph%Miller%NULL%0,  Indira%Brar%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,    J.% Jiang%null%1,    X.% Xu%null%1,    Y.% Hu%null%2,    Y.% Hu%null%0,    Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,   Chenchen%Qian%NULL%1,   Zhibing%Luo%NULL%1,   Qiang%Li%liqressh@hotmail.com%0,   Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,   Chunlin%Cai%NULL%1,   Jinglei%Zang%NULL%1,   Jun%Xie%NULL%1,   Dan%Xu%NULL%0,   Fang%Zheng%NULL%0,   Tao%Zhan%NULL%1,   Kang%Huang%NULL%1,   Yikai%Wang%NULL%1,   Xiao%Wang%NULL%0,   Zhe-Yu%Hu%NULL%1,   Yapeng%Deng%NULL%1,   Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,   Naofumi%Bunya%NULL%1,   Tomoyuki%Endo%NULL%1,   Yuji%Fujino%NULL%1,   Kensuke%Fujita%NULL%1,   Kenji%Fujizuka%NULL%1,   Yoshihiro%Hagiwara%NULL%1,   Jun%Hamaguchi%NULL%1,   Yoshitaka%Hara%NULL%1,   Eiji%Hashiba%NULL%1,   Satoru%Hashimoto%NULL%1,   Noriyuki%Hattori%NULL%1,   Kota%Hoshino%NULL%1,   Shinichi%Ijuin%NULL%1,   Takanari%Ikeyama%NULL%1,   Shingo%Ichiba%NULL%1,   Wataru%Iwanaga%NULL%1,   Yoshiaki%Iwashita%NULL%1,   Masafumi%Kanamoto%NULL%1,   Hitoshi%Kaneko%NULL%1,   Kaneyuki%Kawamae%NULL%1,   Toru%Kotani%NULL%1,   Yasuaki%Koyama%NULL%1,   Keibun%Liu%NULL%1,   Tomohiko%Masuno%NULL%1,   Naoto%Morimura%NULL%1,   Tomoyuki%Nakamura%NULL%1,   Masaki%Nakane%NULL%1,   Michitaka%Nasu%NULL%1,   Osamu%Nishida%NULL%1,   Masaji%Nishimura%NULL%1,   Kanae%Ochiai%NULL%1,   Takayuki%Ogura%NULL%1,   Shinichiro%Ohshimo%NULL%1,   Keisuke%Oyama%NULL%1,   Junichi%Sasaki%NULL%1,   Ryutaro%Seo%NULL%1,   Takeshi%Shimazu%NULL%1,   Nobuaki%Shime%NULL%4,   Keiki%Shimizu%NULL%1,   Hiroyuki%Suzuki%NULL%1,   Shuhei%Takauji%NULL%1,   Shinhiro%Takeda%NULL%1,   Ichiro%Takeuchi%NULL%0,   Mumon%Takita%NULL%1,   Hayato%Taniguchi%NULL%1,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,   Yi Xin%Tong%NULL%3,   Sheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,   Hong%Chen%NULL%2,   Zhen%Li%NULL%2,   Bo%Wang%NULL%0,   Zhong-Wei%Zhang%NULL%1,   Wei-Min%Li%NULL%1,   Zong-An%Liang%NULL%1,   Jin%Tang%NULL%1,   Jian%Wang%NULL%2,   Rui%Shi%NULL%1,   Xiao-Dong%Jin%NULL%1,   Yan%Kang%NULL%1,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,    S. F.% Mahmood%null%1,    K.% Habib%null%1,    I.% Khanum%null%1,    B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,   Chaisith%Sivakorn%NULL%1,   Tanuwong%Viarasilpa%NULL%1,   Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,   Mu%Qin%qinmuae@163.com%0,   Yuli%Cai%NULL%0,   Tao%Liu%NULL%0,   Bo%Shen%NULL%0,   Fan%Yang%NULL%0,   Sheng%Cao%NULL%0,   Xu%Liu%NULL%0,   Xu%Liu%NULL%0,   Yaozu%Xiang%NULL%0,   Qinyan%Zhao%NULL%0,   He%Huang%huanghe1977@whu.edu.cn%0,   Bo%Yang%yybb112@whu.edu.cn%0,   Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,   Win%Kulvichit%NULL%1,   Sunchai%Payungporn%NULL%1,   Trairak%Pisitkun%NULL%1,   Ariya%Chindamporn%NULL%1,   Sadudee%Peerapornratana%NULL%1,   Prapaporn%Pisitkun%NULL%1,   Suwalak%Chitcharoen%NULL%1,   Vorthon%Sawaswong%NULL%1,   Navaporn%Worasilchai%NULL%1,   Sarinya%Kampunya%NULL%1,   Opass%Putcharoen%NULL%1,   Thammasak%Thawitsri%NULL%1,   Nophol%Leelayuwatanakul%NULL%1,   Napplika%Kongpolprom%NULL%1,   Vorakamol%Phoophiboon%NULL%1,   Thitiwat%Sriprasart%NULL%1,   Rujipat%Samransamruajkit%NULL%1,   Somkanya%Tungsanga%NULL%1,   Kanitha%Tiankanon%NULL%1,   Nuttha%Lumlertgul%NULL%1,   Asada%Leelahavanichkul%NULL%1,   Tueboon%Sriphojanart%NULL%1,   Terapong%Tantawichien%NULL%1,   Usa%Thisyakorn%NULL%1,   Chintana%Chirathaworn%NULL%1,   Kearkiat%Praditpornsilpa%NULL%1,   Kriang%Tungsanga%NULL%1,   Somchai%Eiam-Ong%NULL%1,   Visith%Sitprija%NULL%1,   John A.%Kellum%NULL%1,   Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,   Min%Pan%NULL%0,   Xiumei%Zhang%NULL%0,   Mingfeng%Han%fyhmf@163.com%0,   Xiaoyun%Fan%13956988552@126.com%0,   Fengde%Zhao%NULL%0,   Manli%Miao%NULL%0,   Jing%Xu%NULL%0,   Minglong%Guan%NULL%0,   Xia%Deng%NULL%0,   Xu%Chen%NULL%0,   Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,   Chunli%Tang%NULL%1,   Ruchong%Chen%NULL%1,   Honglian%Ruan%NULL%1,   Wenhua%Liang%NULL%2,   Weijie%Guan%NULL%2,   Ling%Sang%NULL%0,   Ruidi%Tang%NULL%1,   Nanshan%Zhong%NULL%3,   Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,   Shanyan%Zhang%NULL%0,   Xiaoli%Zhang%NULL%2,   Huan%Cai%NULL%0,   Jueqing%Gu%NULL%0,   Jiangshan%Lian%NULL%0,   Yingfeng%Lu%NULL%0,   Hongyu%Jia%NULL%0,   Jianhua%Hu%NULL%0,   Ciliang%Jin%NULL%0,   Guodong%Yu%NULL%0,   Yimin%Zhang%NULL%0,   Jifang%Sheng%NULL%0,   Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,   Dan%Xu%NULL%0,   Shouzhi%Fu%NULL%0,   Jun%Zhang%NULL%1,   Xiaobo%Yang%NULL%0,   Liang%Xu%NULL%1,   Jiqian%Xu%NULL%0,   Yongran%Wu%NULL%0,   Chaolin%Huang%NULL%1,   Yaqi%Ouyang%NULL%0,   Luyu%Yang%NULL%0,   Minghao%Fang%NULL%0,   Hongwen%Xiao%NULL%1,   Jing%Ma%NULL%0,   Wei%Zhu%NULL%1,   Song%Hu%NULL%1,   Quan%Hu%NULL%1,   Daoyin%Ding%NULL%1,   Ming%Hu%NULL%0,   Guochao%Zhu%NULL%0,   Weijiang%Xu%NULL%1,   Jun%Guo%NULL%1,   Jinglong%Xu%NULL%1,   Haitao%Yuan%NULL%1,   Bin%Zhang%NULL%2,   Zhui%Yu%yuzhui@whu.edu.cn%0,   Dechang%Chen%icudechangchen@163.com%1,   Shiying%Yuan%yuan_shiying@163.com%0,   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,   Hao-Yu%Gao%NULL%1,   Zi-Yi%Feng%NULL%1,   Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,   Li-jun%Sun%NULL%1,   Mi%Xu%NULL%1,   Jian%Pan%NULL%1,   Yun-tao%Zhang%NULL%1,   Xue-ling%Fang%NULL%1,   Qiang%Fang%NULL%2,   Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,   Ziqiang%Du%NULL%1,   Yanfang%Zhu%NULL%1,   Wenfeng%Li%NULL%1,   Hongjun%Miao%NULL%1,   Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,   Sarah%Al-Youha%sarahalyouha@gmail.com%0,   Mohammad H.%Jamal%NULL%0,   Mohannad%Al-Haddad%NULL%0,   Ali%Al-Muhaini%NULL%0,   Fahad%Al-Ghimlas%NULL%0,   Salman%Al-Sabah%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,   Mina%Akbari Rad%NULL%1,   Robert%Bergquist%NULL%1,   Abolghasem%Allahyari%NULL%1,   Kamila%Hashemzadeh%NULL%1,   Nasrin%Milani%NULL%1,   Mahdi%Gholian-Aval%NULL%1,   Fariba%Rezaeitalab%NULL%1,   Mohammad Jafar%Sadeghi Quchani%NULL%1,   Zahra%Nahbandani%NULL%1,   Mandana%Khodashahi%NULL%1,   Zahra%Javid%NULL%1,   Mahnaz%Mozdourian%NULL%1,   Mohammad Ali%Yaghoubi%NULL%1,   Zahra%Mozaheb%NULL%1,   Mohsen%Seddigh-Shamsi%NULL%1,   Mohammad%Moeini Nodeh%NULL%1,   Shima%Nabavi%NULL%1,   Hooman%Mosannen Mozaffari%NULL%1,   Mohammadreza%Farzanehfar%NULL%1,   Zahra%Lotfi%NULL%0,   Alireza%Shariati%NULL%1,   Shekoofe%Bonakdaran%NULL%1,   Zahra%Rezaieyazdi%NULL%1,   Zahra%Mirfeizi%NULL%1,   Maryam%Miri%NULL%1,   Reza%Bassiri%NULL%1,   Sajjad%Ataei Azimi%NULL%1,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,   Ibrahim%Al-Zakwani%NULL%1,   Hamed%Al Naamani%NULL%1,   Sultan%Al Lawati%NULL%1,   Nenad%Pandak%NULL%1,   Muna Ba%Omar%NULL%1,   Maher%Al Bahrani%NULL%1,   Zakaryia AL%Bulushi%NULL%1,   Huda%Al Khalili%NULL%1,   Issa%Al Salmi%NULL%1,   Ruwaida%Al Ismaili%NULL%1,   Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,   Zohre%Khodamoradi%NULL%1,   Amirhossein%Erfani%NULL%1,   Hamidreza%Hosseinpour%NULL%1,   Keivan%Ranjbar%NULL%1,   Yasaman%Emami%NULL%1,   Alireza%Mirahmadizadeh%NULL%1,   Mehrzad%Lotfi%NULL%1,   Babak%Shirazi Yeganeh%NULL%1,   Abolfazl%Dorrani Nejad%NULL%1,   Abdolrasool%Hemmati%NULL%1,   Mostafa%Ebrahimi%NULL%1,   Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,   Annachiara%Ferrari%NULL%2,   Annachiara%Ferrari%NULL%0,   Francesco%Fontana%NULL%1,   Giacomo%Mori%NULL%1,   Riccardo%Magistroni%NULL%1,   Marianna%Meschiari%NULL%1,   Erica%Franceschini%NULL%1,   Marianna%Menozzi%NULL%1,   Gianluca%Cuomo%NULL%1,   Gabriella%Orlando%NULL%1,   Antonella%Santoro%NULL%1,   Margherita%Digaetano%NULL%1,   Cinzia%Puzzolante%NULL%1,   Federica%Carli%NULL%1,   Andrea%Bedini%NULL%1,   Jovana%Milic%NULL%1,   Irene%Coloretti%NULL%1,   Paolo%Raggi%NULL%1,   Cristina%Mussini%NULL%1,   Massimo%Girardis%NULL%1,   Gianni%Cappelli%NULL%1,   Giovanni%Guaraldi%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,   Silvia%Bettini%NULL%2,   Silvia%Bettini%NULL%0,   Roberto%Fabris%NULL%1,   Roberto%Serra%NULL%2,   Chiara%Dal Pra%NULL%1,   Pietro%Maffei%NULL%1,   Marco%Rossato%NULL%1,   Paola%Fioretto%NULL%1,   Roberto%Vettor%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,   Marco%Roncador%NULL%2,   Marco%Roncador%NULL%0,   Andrea%Saporito%NULL%1,   Maira%Biggiogero%NULL%1,   Andrea%Glotta%NULL%1,   Pier Andrea%Maida%NULL%1,   Patrizia%Urso%NULL%1,   Giovanni%Bona%NULL%1,   Christian%Garzoni%NULL%1,   Romano%Mauri%NULL%2,   Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,   Anna Lisa%Ridolfo%NULL%4,   Laura%Milazzo%NULL%2,   Letizia%Oreni%NULL%4,   Dario%Bernacchia%NULL%4,   Matteo%Siano%NULL%4,   Cecilia%Bonazzetti%NULL%2,   Alice%Covizzi%NULL%2,   Marco%Schiuma%NULL%2,   Matteo%Passerini%NULL%2,   Marco%Piscaglia%NULL%2,   Massimo%Coen%NULL%2,   Guido%Gubertini%NULL%2,   Giuliano%Rizzardini%NULL%4,   Chiara%Cogliati%NULL%3,   Anna Maria%Brambilla%NULL%2,   Riccardo%Colombo%NULL%3,   Antonio%Castelli%NULL%2,   Roberto%Rech%NULL%2,   Agostino%Riva%NULL%2,   Alessandro%Torre%NULL%2,   Luca%Meroni%NULL%2,   Stefano%Rusconi%NULL%4,   Spinello%Antinori%NULL%4,   Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%5,  Cabrini%Luca%coreGivesNoEmail%2,  Castelli%Antonio%coreGivesNoEmail%2,  Cecconi%Maurizio%coreGivesNoEmail%2,  Cereda%Danilo%coreGivesNoEmail%2,  Coluccello%Antonio%coreGivesNoEmail%2,  Foti%Giuseppe%coreGivesNoEmail%2,  Fumagalli%Roberto%coreGivesNoEmail%2,  Grasselli%Giacomo%coreGivesNoEmail%2,  Iotti%Giorgio%coreGivesNoEmail%2,  Latronico%Nicola%coreGivesNoEmail%2,  Lorini%Luca%coreGivesNoEmail%2,  Merler%Stefano%coreGivesNoEmail%2,  Natalini%Giuseppe%coreGivesNoEmail%2,  Pesenti%Antonio%coreGivesNoEmail%2,  Piatti%Alessandra%coreGivesNoEmail%2,  Ranieri%Marco Vito%coreGivesNoEmail%2,  Scandroglio%Anna Mara%coreGivesNoEmail%2,  Storti%Enrico%coreGivesNoEmail%2,  Zanella%Alberto%coreGivesNoEmail%2,  Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,   Lara%Gianesello%gianesello.lara@libero.it%1,   Maddalena%Pazzi%NULL%2,   Maddalena%Pazzi%NULL%0,   Caterina%Stera%NULL%1,   Tommaso%Meconi%NULL%1,   Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,   Andrea%Dalbeni%NULL%2,   Andrea%Dalbeni%NULL%0,   Elia%Vettore%NULL%2,   Elia%Vettore%NULL%0,   Devis%Benfaremo%NULL%1,   Massimo%Mattioli%NULL%1,   Carmine G.%Gambino%NULL%1,   Viviana%Framba%NULL%2,   Viviana%Framba%NULL%0,   Lorenzo%Cerruti%NULL%1,   Anna%Mantovani%NULL%1,   Andrea%Martini%NULL%1,   Michele M.%Luchetti%NULL%1,   Roberto%Serra%NULL%0,   Annamaria%Cattelan%NULL%1,   Roberto%Vettor%NULL%0,   Paolo%Angeli%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,   Matthaios%Papadimitriou-Olivgeris%NULL%2,   Matthaios%Papadimitriou-Olivgeris%NULL%0,   Raphaël%Burger%NULL%1,   Marie-Annick%Le Pogam%NULL%1,   Tapio%Niemi%NULL%2,   Tapio%Niemi%NULL%0,   Paraskevas%Filippidis%NULL%1,   Jonathan%Tschopp%NULL%1,   Florian%Desgranges%NULL%1,   Benjamin%Viala%NULL%1,   Eleftheria%Kampouri%NULL%1,   Laurence%Rochat%NULL%2,   Laurence%Rochat%NULL%0,   David%Haefliger%NULL%1,   Mehdi%Belkoniene%NULL%1,   Carlos%Fidalgo%NULL%1,   Antonios%Kritikos%NULL%1,   Katia%Jaton%NULL%1,   Laurence%Senn%NULL%1,   Pierre-Alexandre%Bart%NULL%1,   Jean-Luc%Pagani%NULL%2,   Jean-Luc%Pagani%NULL%0,   Oriol%Manuel%NULL%1,   Loïc%Lhopitallier%NULL%1,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,   Ashwin%Subramaniam%NULL%2,   Ashwin%Subramaniam%NULL%0,   Mallikarjuna%Ponnapa Reddy%NULL%2,   Mallikarjuna%Ponnapa Reddy%NULL%0,   Gabriel%Blecher%NULL%1,   Umesh%Kadam%NULL%2,   Umesh%Kadam%NULL%0,   Afsana%Afroz%NULL%1,   Baki%Billah%NULL%1,   Sushma%Ashwin%NULL%1,   Mark%Kubicki%NULL%1,   Federico%Bilotta%NULL%1,   J. Randall%Curtis%NULL%2,   J. Randall%Curtis%NULL%0,   Francesca%Rubulotta%NULL%2,   Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,  Aggarwal%Saurabh%coreGivesNoEmail%2,  Garcia-Telles%Nelson%coreGivesNoEmail%2,  Henry%Brandon Michael%coreGivesNoEmail%2,  Lavie%Carl%coreGivesNoEmail%2,  Lippi%Giuseppe%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,   Samuel L%Bruce%NULL%0,   Cody L%Slater%NULL%0,   Jonathan R%Tiao%NULL%0,   Matthew R%Baldwin%NULL%0,   R Graham%Barr%NULL%0,   Bernard P%Chang%NULL%0,   Katherine H%Chau%NULL%0,   Justin J%Choi%NULL%0,   Nicholas%Gavin%NULL%0,   Parag%Goyal%NULL%0,   Angela M%Mills%NULL%0,   Ashmi A%Patel%NULL%0,   Marie-Laure S%Romney%NULL%0,   Monika M%Safford%NULL%0,   Neil W%Schluger%NULL%0,   Soumitra%Sengupta%NULL%0,   Magdalena E%Sobieszczyk%NULL%0,   Jason E%Zucker%NULL%0,   Paul A%Asadourian%NULL%0,   Fletcher M%Bell%NULL%0,   Rebekah%Boyd%NULL%0,   Matthew F%Cohen%NULL%0,   MacAlistair I%Colquhoun%NULL%0,   Lucy A%Colville%NULL%0,   Joseph H%de Jonge%NULL%0,   Lyle B%Dershowitz%NULL%0,   Shirin A%Dey%NULL%0,   Katherine A%Eiseman%NULL%0,   Zachary P%Girvin%NULL%0,   Daniella T%Goni%NULL%0,   Amro A%Harb%NULL%0,   Nicholas%Herzik%NULL%0,   Sarah%Householder%NULL%0,   Lara E%Karaaslan%NULL%0,   Heather%Lee%NULL%0,   Evan%Lieberman%NULL%0,   Andrew%Ling%NULL%0,   Ree%Lu%NULL%0,   Arthur Y%Shou%NULL%0,   Alexander C%Sisti%NULL%0,   Zachary E%Snow%NULL%0,   Colin P%Sperring%NULL%0,   Yuqing%Xiong%NULL%0,   Henry W%Zhou%NULL%0,   Karthik%Natarajan%NULL%0,   George%Hripcsak%NULL%0,   Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%0,   Colleen%Kraft%NULL%0,   Jesse T.%Jacob%NULL%0,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%0,   Roberta%Kaplow%NULL%0,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%0,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,   Bijan J.%Ghassemieh%NULL%0,   Michelle%Nichols%NULL%0,   Richard%Kim%NULL%0,   Keith R.%Jerome%NULL%0,   Arun K.%Nalla%NULL%0,   Alexander L.%Greninger%NULL%0,   Sudhakar%Pipavath%NULL%0,   Mark M.%Wurfel%NULL%0,   Laura%Evans%NULL%0,   Patricia A.%Kritek%NULL%0,   T. Eoin%West%NULL%0,   Andrew%Luks%NULL%0,   Anthony%Gerbino%NULL%0,   Chris R.%Dale%NULL%0,   Jason D.%Goldman%NULL%0,   Shane%O’Mahony%NULL%0,   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,   Denise J%McCulloch%NULL%0,   Denise J%McCulloch%NULL%0,   Vidya%Atluri%NULL%0,   Michela%Blain%NULL%0,   Sarah A%McGuffin%NULL%0,   Arun K%Nalla%NULL%0,   Meei-Li%Huang%NULL%0,   Alex L%Greninger%NULL%0,   Keith R%Jerome%NULL%0,   Seth A%Cohen%NULL%0,   Santiago%Neme%NULL%0,   Margaret L%Green%NULL%0,   Helen Y%Chu%NULL%0,   H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,   Joelle I.%Rosser%NULL%1,   Orlando%Quintero%NULL%1,   Jake%Scott%NULL%1,   Aruna%Subramanian%NULL%1,   Mohammad%Gumma%NULL%1,   Angela%Rogers%NULL%1,   Shanthi%Kappagoda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,   Jacob%Fiksel%NULL%0,   Jacob%Fiksel%NULL%0,   John%Muschelli%NULL%0,   John%Muschelli%NULL%0,   Matthew L.%Robinson%NULL%0,   Matthew L.%Robinson%NULL%0,   Masoud%Rouhizadeh%NULL%0,   Masoud%Rouhizadeh%NULL%0,   Jamie%Perin%NULL%0,   Jamie%Perin%NULL%0,   Grant%Schumock%NULL%0,   Grant%Schumock%NULL%0,   Paul%Nagy%NULL%0,   Paul%Nagy%NULL%0,   Josh H.%Gray%NULL%0,   Josh H.%Gray%NULL%0,   Harsha%Malapati%NULL%0,   Harsha%Malapati%NULL%0,   Mariam%Ghobadi-Krueger%NULL%0,   Mariam%Ghobadi-Krueger%NULL%0,   Timothy M.%Niessen%NULL%0,   Bo Soo%Kim%NULL%0,   Peter M.%Hill%NULL%0,   M. Shafeeq%Ahmed%NULL%0,   Eric D.%Dobkin%NULL%0,   Renee%Blanding%NULL%0,   Jennifer%Abele%NULL%0,   Bonnie%Woods%NULL%0,   Kenneth%Harkness%NULL%0,   David R.%Thiemann%NULL%0,   Mary G.%Bowring%NULL%0,   Aalok B.%Shah%NULL%0,   Aalok B.%Shah%NULL%0,   Mei-Cheng%Wang%NULL%0,   Karen%Bandeen-Roche%NULL%0,   Antony%Rosen%NULL%0,   Scott L.%Zeger%NULL%0,   Scott L.%Zeger%NULL%0,   Amita%Gupta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,   Justin J.%Choi%NULL%0,   Laura C.%Pinheiro%NULL%0,   Edward J.%Schenck%NULL%0,   Ruijun%Chen%NULL%0,   Assem%Jabri%NULL%0,   Michael J.%Satlin%NULL%0,   Thomas R.%Campion%NULL%0,   Musarrat%Nahid%NULL%0,   Joanna B.%Ringel%NULL%0,   Katherine L.%Hoffman%NULL%0,   Mark N.%Alshak%NULL%0,   Han A.%Li%NULL%0,   Graham T.%Wehmeyer%NULL%0,   Graham T.%Wehmeyer%NULL%0,   Mangala%Rajan%NULL%0,   Evgeniya%Reshetnyak%NULL%0,   Nathaniel%Hupert%NULL%0,   Evelyn M.%Horn%NULL%0,   Fernando J.%Martinez%NULL%0,   Roy M.%Gulick%NULL%0,   Monika M.%Safford%NULL%0,   Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,   Simon A%Jones%NULL%0,   Jie%Yang%NULL%0,   Harish%Rajagopalan%NULL%0,   Luke%O’Donnell%NULL%0,   Yelena%Chernyak%NULL%0,   Katie A%Tobin%NULL%0,   Robert J%Cerfolio%NULL%0,   Fritz%Francois%NULL%0,   Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,   Anatoly%Mitrokhin%NULL%2,   Anatoly%Mitrokhin%NULL%0,   Ajai%Rajabalan%NULL%1,   Christian%Benjamin%NULL%1,   Sushma%Raviralla%NULL%1,   Vishnu R%Mani%vishnu.mani@duke.edu%2,   Vishnu R%Mani%vishnu.mani@duke.edu%0,   Aleksandr%Kalabin%NULL%2,   Aleksandr%Kalabin%NULL%0,   Sebastian C%Valdivieso%NULL%2,   Sebastian C%Valdivieso%NULL%0,   Max%Murray-Ramcharan%NULL%2,   Max%Murray-Ramcharan%NULL%0,   Brian%Donaldson%NULL%2,   Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%3,    Nicholas A.%Fergusson%null%1,    Elisa%Lloyd-Smith%null%1,    Andrew%Wormsbecker%null%1,    Denise%Foster%null%1,    Andrei%Karpov%null%1,    Sarah%Crowe%null%1,    Greg%Haljan%null%1,    Dean R.%Chittock%null%1,    Hussein D.%Kanji%null%1,    Mypinder S.%Sekhon%null%1,    Donald E.G.%Griesdale%null%1,  Anish R.%Mitra%null%0,  Nicholas A.%Fergusson%null%1,  Elisa%Lloyd-Smith%null%1,  Andrew%Wormsbecker%null%1,  Denise%Foster%null%1,  Andrei%Karpov%null%1,  Sarah%Crowe%null%1,  Greg%Haljan%null%1,  Dean R.%Chittock%null%1,  Hussein D.%Kanji%null%1,  Mypinder S.%Sekhon%null%1,  Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,   Damianos G.%Kokkinidis%NULL%1,   Weijia%Li%NULL%1,   Dimitrios%Karamanis%NULL%1,   Jennifer%Ognibene%NULL%1,   Shitij%Arora%NULL%1,   William N.%Southern%NULL%1,   Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,   Jesus D.%Gonzalez-Lugo%NULL%1,   Shafia%Rahman%NULL%1,   Mohammad%Barouqa%NULL%1,   James%Szymanski%NULL%1,   Kenji%Ikemura%NULL%1,   Yungtai%Lo%NULL%1,   Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,  Becker%L.B.%coreGivesNoEmail%2,  Chelico%J.D.%coreGivesNoEmail%2,  Cohen%S.L.%coreGivesNoEmail%2,  Cookingham%J.%coreGivesNoEmail%2,  Coppa%K.%coreGivesNoEmail%2,  Crawford%J.M.%coreGivesNoEmail%2,  Davidson%K.W.%coreGivesNoEmail%2,  Diefenbach%M.A.%coreGivesNoEmail%2,  Dominello%A.J.%coreGivesNoEmail%2,  Duer-Hefele%J.%coreGivesNoEmail%2,  Falzon%L.%coreGivesNoEmail%2,  Gitlin%J.%coreGivesNoEmail%2,  Hajizadeh%N.%coreGivesNoEmail%2,  Harvin%T.G.%coreGivesNoEmail%2,  Hirsch%J.S.%coreGivesNoEmail%2,  Hirschwerk%D.A.%coreGivesNoEmail%2,  Kim%E.J.%coreGivesNoEmail%2,  Kozel%Z.M.%coreGivesNoEmail%2,  Marrast%L.M.%coreGivesNoEmail%2,  McGinn%T.%coreGivesNoEmail%2,  Mogavero%J.N.%coreGivesNoEmail%2,  Narasimhan%M.%coreGivesNoEmail%2,  Osorio%G.A.%coreGivesNoEmail%2,  Qiu%M.%coreGivesNoEmail%2,  Richardson%S.%coreGivesNoEmail%2,  Zanos%T.P.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,   Viet-Thi%Tran%NULL%4,   Viet-Thi%Tran%NULL%0,   Mathilde%Roumier%NULL%2,   Amélie%Chabrol%NULL%2,   Romain%Paule%NULL%2,   Constance%Guillaud%NULL%2,   Elena%Fois%NULL%2,   Raphael%Lepeule%NULL%2,   Tali-Anne%Szwebel%NULL%2,   François-Xavier%Lescure%NULL%0,   Frédéric%Schlemmer%NULL%2,   Marie%Matignon%NULL%2,   Mehdi%Khellaf%NULL%2,   Etienne%Crickx%NULL%2,   Benjamin%Terrier%NULL%2,   Caroline%Morbieu%NULL%2,   Paul%Legendre%NULL%2,   Julien%Dang%NULL%2,   Yoland%Schoindre%NULL%2,   Jean-Michel%Pawlotsky%NULL%2,   Marc%Michel%NULL%2,   Elodie%Perrodeau%NULL%2,   Nicolas%Carlier%NULL%2,   Nicolas%Roche%NULL%2,   Victoire%de Lastours%NULL%2,   Clément%Ourghanlian%NULL%2,   Solen%Kerneis%NULL%2,   Philippe%Ménager%NULL%2,   Luc%Mouthon%NULL%2,   Etienne%Audureau%NULL%2,   Philippe%Ravaud%NULL%2,   Bertrand%Godeau%NULL%2,   Sébastien%Gallien%NULL%2,   Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>Neutrophil calprotectin identifies severe pulmonary disease in COVID-19</t>
+  </si>
+  <si>
+    <t>Severe cases of coronavirus disease 2019 (COVID-19) are regularly complicated by respiratory failure.
+ Although it has been suggested that elevated levels of blood neutrophils associate with worsening oxygenation in COVID-19, it is unknown whether neutrophils are drivers of the thrombo-inflammatory storm or simple bystanders.
+ To better understand the potential role of neutrophils in COVID-19, we measured levels of the neutrophil activation marker S100A8/A9 (calprotectin) in hospitalized patients and determined its relationship to severity of illness and respiratory status.
+ Patients with COVID-19 (n = 172) had markedly elevated levels of calprotectin in their blood.
+ Calprotectin tracked with other acute phase reactants including C-reactive protein, ferritin, lactate dehydrogenase, and absolute neutrophil count, but was superior in identifying patients requiring mechanical ventilation.
+ In longitudinal samples, calprotectin rose as oxygenation worsened.
+ When tested on day 1 or 2 of hospitalization (n = 94 patients), calprotectin levels were significantly higher in patients who progressed to severe COVID-19 requiring mechanical ventilation (8039 ± 7031 ng/ml, n = 32) as compared to those who remained free of intubation (3365 ± 3146, P &amp;lt; 0.0001).
+ In summary, serum calprotectin levels track closely with current and future COVID-19 severity, implicating neutrophils as potential perpetuators of inflammation and respiratory compromise in COVID-19.</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1, Yu%Zuo%NULL%1, Srilakshmi%Yalavarthi%NULL%1, Kelsey%Gockman%NULL%1, Melanie%Zuo%NULL%1, Jacqueline A%Madison%NULL%1, Christopher%Blair%NULL%1, Wrenn%Woodward%NULL%1, Sean P%Lezak%NULL%1, Njira L%Lugogo%NULL%1, Robert J%Woods%NULL%1, Christian%Lood%NULL%1, Jason S%Knight%NULL%2, Jason S%Knight%NULL%0, Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7902293</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,   Raef A.%Fadel%NULL%1,   Kelly M.%Malette%NULL%1,   Charles%Hammond%NULL%1,   Hafsa%Abdulla%NULL%1,   Abigail%Entz%NULL%1,   Zachary%Demertzis%NULL%1,   Zachary%Hanna%NULL%1,   Andrew%Failla%NULL%1,   Carina%Dagher%NULL%1,   Zohra%Chaudhry%NULL%0,   Amit%Vahia%NULL%0,   Odaliz%Abreu Lanfranco%NULL%1,   Mayur%Ramesh%NULL%1,   Marcus J.%Zervos%NULL%0,   George%Alangaden%NULL%0,   Joseph%Miller%NULL%0,   Indira%Brar%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2010,6 +2188,9 @@
       <c r="H1" t="s">
         <v>83</v>
       </c>
+      <c r="I1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2025,16 +2206,19 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
         <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="3">
@@ -2062,6 +2246,9 @@
       <c r="H3" t="s">
         <v>89</v>
       </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -2077,7 +2264,7 @@
         <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
         <v>93</v>
@@ -2087,6 +2274,9 @@
       </c>
       <c r="H4" t="s">
         <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -2103,7 +2293,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
         <v>99</v>
@@ -2113,6 +2303,9 @@
       </c>
       <c r="H5" t="s">
         <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="6">
@@ -2129,7 +2322,7 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
         <v>104</v>
@@ -2139,6 +2332,9 @@
       </c>
       <c r="H6" t="s">
         <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="7">
@@ -2155,7 +2351,7 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>109</v>
@@ -2165,6 +2361,9 @@
       </c>
       <c r="H7" t="s">
         <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="8">
@@ -2181,7 +2380,7 @@
         <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
         <v>113</v>
@@ -2191,6 +2390,9 @@
       </c>
       <c r="H8" t="s">
         <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="9">
@@ -2207,16 +2409,19 @@
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="10">
@@ -2233,7 +2438,7 @@
         <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
         <v>121</v>
@@ -2243,6 +2448,9 @@
       </c>
       <c r="H10" t="s">
         <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="11">
@@ -2259,7 +2467,7 @@
         <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s">
         <v>126</v>
@@ -2269,6 +2477,9 @@
       </c>
       <c r="H11" t="s">
         <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="12">
@@ -2285,7 +2496,7 @@
         <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -2295,6 +2506,9 @@
       </c>
       <c r="H12" t="s">
         <v>132</v>
+      </c>
+      <c r="I12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -2311,7 +2525,7 @@
         <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="F13" t="s">
         <v>136</v>
@@ -2321,6 +2535,9 @@
       </c>
       <c r="H13" t="s">
         <v>137</v>
+      </c>
+      <c r="I13" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="14">
@@ -2337,7 +2554,7 @@
         <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
         <v>141</v>
@@ -2347,6 +2564,9 @@
       </c>
       <c r="H14" t="s">
         <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="15">
@@ -2374,6 +2594,9 @@
       <c r="H15" t="s">
         <v>89</v>
       </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -2400,6 +2623,9 @@
       <c r="H16" t="s">
         <v>89</v>
       </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
@@ -2415,7 +2641,7 @@
         <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="F17" t="s">
         <v>145</v>
@@ -2425,6 +2651,9 @@
       </c>
       <c r="H17" t="s">
         <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="18">
@@ -2441,7 +2670,7 @@
         <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="F18" t="s">
         <v>149</v>
@@ -2451,6 +2680,9 @@
       </c>
       <c r="H18" t="s">
         <v>150</v>
+      </c>
+      <c r="I18" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="19">
@@ -2478,6 +2710,9 @@
       <c r="H19" t="s">
         <v>89</v>
       </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -2493,7 +2728,7 @@
         <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="F20" t="s">
         <v>154</v>
@@ -2503,6 +2738,9 @@
       </c>
       <c r="H20" t="s">
         <v>155</v>
+      </c>
+      <c r="I20" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="21">
@@ -2519,7 +2757,7 @@
         <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="F21" t="s">
         <v>159</v>
@@ -2529,6 +2767,9 @@
       </c>
       <c r="H21" t="s">
         <v>160</v>
+      </c>
+      <c r="I21" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="22">
@@ -2545,7 +2786,7 @@
         <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s">
         <v>164</v>
@@ -2555,6 +2796,9 @@
       </c>
       <c r="H22" t="s">
         <v>165</v>
+      </c>
+      <c r="I22" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="23">
@@ -2571,7 +2815,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -2581,6 +2825,9 @@
       </c>
       <c r="H23" t="s">
         <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="24">
@@ -2597,7 +2844,7 @@
         <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="F24" t="s">
         <v>173</v>
@@ -2607,6 +2854,9 @@
       </c>
       <c r="H24" t="s">
         <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="25">
@@ -2623,7 +2873,7 @@
         <v>176</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="F25" t="s">
         <v>178</v>
@@ -2633,6 +2883,9 @@
       </c>
       <c r="H25" t="s">
         <v>179</v>
+      </c>
+      <c r="I25" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="26">
@@ -2649,7 +2902,7 @@
         <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="F26" t="s">
         <v>183</v>
@@ -2659,6 +2912,9 @@
       </c>
       <c r="H26" t="s">
         <v>184</v>
+      </c>
+      <c r="I26" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="27">
@@ -2675,7 +2931,7 @@
         <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="F27" t="s">
         <v>188</v>
@@ -2685,6 +2941,9 @@
       </c>
       <c r="H27" t="s">
         <v>95</v>
+      </c>
+      <c r="I27" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="28">
@@ -2701,7 +2960,7 @@
         <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="F28" t="s">
         <v>192</v>
@@ -2711,6 +2970,9 @@
       </c>
       <c r="H28" t="s">
         <v>193</v>
+      </c>
+      <c r="I28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="29">
@@ -2727,7 +2989,7 @@
         <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="F29" t="s">
         <v>197</v>
@@ -2737,6 +2999,9 @@
       </c>
       <c r="H29" t="s">
         <v>198</v>
+      </c>
+      <c r="I29" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="30">
@@ -2753,7 +3018,7 @@
         <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="F30" t="s">
         <v>202</v>
@@ -2763,6 +3028,9 @@
       </c>
       <c r="H30" t="s">
         <v>203</v>
+      </c>
+      <c r="I30" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="31">
@@ -2779,7 +3047,7 @@
         <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="F31" t="s">
         <v>206</v>
@@ -2789,6 +3057,9 @@
       </c>
       <c r="H31" t="s">
         <v>207</v>
+      </c>
+      <c r="I31" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="32">
@@ -2805,16 +3076,19 @@
         <v>316</v>
       </c>
       <c r="E32" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
         <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -2831,7 +3105,7 @@
         <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="F33" t="s">
         <v>211</v>
@@ -2841,6 +3115,9 @@
       </c>
       <c r="H33" t="s">
         <v>89</v>
+      </c>
+      <c r="I33" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="34">
@@ -2857,7 +3134,7 @@
         <v>213</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="F34" t="s">
         <v>215</v>
@@ -2867,6 +3144,9 @@
       </c>
       <c r="H34" t="s">
         <v>216</v>
+      </c>
+      <c r="I34" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="35">
@@ -2883,7 +3163,7 @@
         <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="F35" t="s">
         <v>220</v>
@@ -2893,6 +3173,9 @@
       </c>
       <c r="H35" t="s">
         <v>221</v>
+      </c>
+      <c r="I35" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="36">
@@ -2909,7 +3192,7 @@
         <v>223</v>
       </c>
       <c r="E36" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="F36" t="s">
         <v>225</v>
@@ -2919,6 +3202,9 @@
       </c>
       <c r="H36" t="s">
         <v>226</v>
+      </c>
+      <c r="I36" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="37">
@@ -2946,6 +3232,9 @@
       <c r="H37" t="s">
         <v>89</v>
       </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
@@ -2961,16 +3250,19 @@
         <v>324</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
         <v>89</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -2998,6 +3290,9 @@
       <c r="H39" t="s">
         <v>89</v>
       </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -3013,7 +3308,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -3023,6 +3318,9 @@
       </c>
       <c r="H40" t="s">
         <v>231</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="41">
@@ -3039,7 +3337,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -3049,6 +3347,9 @@
       </c>
       <c r="H41" t="s">
         <v>89</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="42">
@@ -3065,7 +3366,7 @@
         <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="F42" t="s">
         <v>239</v>
@@ -3075,6 +3376,9 @@
       </c>
       <c r="H42" t="s">
         <v>89</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="43">
@@ -3091,7 +3395,7 @@
         <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="F43" t="s">
         <v>243</v>
@@ -3101,6 +3405,9 @@
       </c>
       <c r="H43" t="s">
         <v>160</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="44">
@@ -3117,7 +3424,7 @@
         <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="F44" t="s">
         <v>247</v>
@@ -3127,6 +3434,9 @@
       </c>
       <c r="H44" t="s">
         <v>89</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -3143,7 +3453,7 @@
         <v>249</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="F45" t="s">
         <v>251</v>
@@ -3153,6 +3463,9 @@
       </c>
       <c r="H45" t="s">
         <v>89</v>
+      </c>
+      <c r="I45" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="46">
@@ -3180,6 +3493,9 @@
       <c r="H46" t="s">
         <v>89</v>
       </c>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
@@ -3195,7 +3511,7 @@
         <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="F47" t="s">
         <v>254</v>
@@ -3205,6 +3521,9 @@
       </c>
       <c r="H47" t="s">
         <v>89</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="48">
@@ -3221,7 +3540,7 @@
         <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="F48" t="s">
         <v>258</v>
@@ -3231,6 +3550,9 @@
       </c>
       <c r="H48" t="s">
         <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="49">
@@ -3247,7 +3569,7 @@
         <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="F49" t="s">
         <v>262</v>
@@ -3257,6 +3579,9 @@
       </c>
       <c r="H49" t="s">
         <v>263</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="50">
@@ -3273,7 +3598,7 @@
         <v>265</v>
       </c>
       <c r="E50" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="F50" t="s">
         <v>267</v>
@@ -3283,6 +3608,9 @@
       </c>
       <c r="H50" t="s">
         <v>269</v>
+      </c>
+      <c r="I50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51">
@@ -3299,7 +3627,7 @@
         <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="F51" t="s">
         <v>273</v>
@@ -3309,6 +3637,9 @@
       </c>
       <c r="H51" t="s">
         <v>100</v>
+      </c>
+      <c r="I51" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="52">
@@ -3325,7 +3656,7 @@
         <v>256</v>
       </c>
       <c r="E52" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
         <v>258</v>
@@ -3335,6 +3666,9 @@
       </c>
       <c r="H52" t="s">
         <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="53">
@@ -3351,7 +3685,7 @@
         <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
         <v>278</v>
@@ -3361,6 +3695,9 @@
       </c>
       <c r="H53" t="s">
         <v>279</v>
+      </c>
+      <c r="I53" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="54">
@@ -3377,16 +3714,19 @@
         <v>339</v>
       </c>
       <c r="E54" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
         <v>89</v>
+      </c>
+      <c r="I54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -3403,7 +3743,7 @@
         <v>281</v>
       </c>
       <c r="E55" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="F55" t="s">
         <v>283</v>
@@ -3413,6 +3753,9 @@
       </c>
       <c r="H55" t="s">
         <v>284</v>
+      </c>
+      <c r="I55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="56">
@@ -3440,6 +3783,9 @@
       <c r="H56" t="s">
         <v>89</v>
       </c>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
@@ -3449,22 +3795,25 @@
         <v>44075.0</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>398</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -3481,7 +3830,7 @@
         <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="F58" t="s">
         <v>288</v>
@@ -3491,6 +3840,9 @@
       </c>
       <c r="H58" t="s">
         <v>88</v>
+      </c>
+      <c r="I58" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="59">
@@ -3517,6 +3869,9 @@
       </c>
       <c r="H59" t="s">
         <v>89</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6F90C0-F108-4E71-9A5C-82DCCE7962AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="451">
   <si>
     <t>Doi</t>
   </si>
@@ -276,12 +283,6 @@
 ConclusionIn moderate and severe patients, liver dysfunction was mild. Patients widely presented lower level of ALB. The higher level of bilirubin, AST, and GGT was likely to indicate the worse outcome. Dynamic monitoring of liver function indexes could be considered and liver failure related death should be noticed and prevented in the early stage. </t>
   </si>
   <si>
-    <t>[ C.%Chen%null%1,  J.% Jiang%null%1,  X.% Xu%null%1,  Y.% Hu%null%2,  Y.% Hu%null%0,  Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>medrxiv doi</t>
-  </si>
-  <si>
     <t>2020-05-20</t>
   </si>
   <si>
@@ -292,9 +293,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1, Chenchen%Qian%NULL%1, Zhibing%Luo%NULL%1, Qiang%Li%liqressh@hotmail.com%0, Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
   </si>
   <si>
     <t>PMC7296285</t>
@@ -324,9 +322,6 @@
 </t>
   </si>
   <si>
-    <t>[Yaxiong%Huang%NULL%1, Chunlin%Cai%NULL%1, Jinglei%Zang%NULL%1, Jun%Xie%NULL%1, Dan%Xu%NULL%2, Fang%Zheng%NULL%1, Tao%Zhan%NULL%1, Kang%Huang%NULL%1, Yikai%Wang%NULL%1, Xiao%Wang%NULL%2, Zhe-Yu%Hu%NULL%1, Yapeng%Deng%NULL%1, Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7343487</t>
   </si>
   <si>
@@ -340,9 +335,6 @@
  Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
  In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1, Naofumi%Bunya%NULL%1, Tomoyuki%Endo%NULL%1, Yuji%Fujino%NULL%1, Kensuke%Fujita%NULL%1, Kenji%Fujizuka%NULL%1, Yoshihiro%Hagiwara%NULL%1, Jun%Hamaguchi%NULL%1, Yoshitaka%Hara%NULL%1, Eiji%Hashiba%NULL%1, Satoru%Hashimoto%NULL%1, Noriyuki%Hattori%NULL%1, Kota%Hoshino%NULL%1, Shinichi%Ijuin%NULL%1, Takanari%Ikeyama%NULL%1, Shingo%Ichiba%NULL%1, Wataru%Iwanaga%NULL%1, Yoshiaki%Iwashita%NULL%1, Masafumi%Kanamoto%NULL%1, Hitoshi%Kaneko%NULL%1, Kaneyuki%Kawamae%NULL%1, Toru%Kotani%NULL%1, Yasuaki%Koyama%NULL%1, Keibun%Liu%NULL%1, Tomohiko%Masuno%NULL%1, Naoto%Morimura%NULL%1, Tomoyuki%Nakamura%NULL%1, Masaki%Nakane%NULL%1, Michitaka%Nasu%NULL%1, Osamu%Nishida%NULL%1, Masaji%Nishimura%NULL%1, Kanae%Ochiai%NULL%1, Takayuki%Ogura%NULL%1, Shinichiro%Ohshimo%NULL%1, Keisuke%Oyama%NULL%1, Junichi%Sasaki%NULL%1, Ryutaro%Seo%NULL%1, Takeshi%Shimazu%NULL%1, Nobuaki%Shime%NULL%4, Keiki%Shimizu%NULL%1, Hiroyuki%Suzuki%NULL%1, Shuhei%Takauji%NULL%1, Shinhiro%Takeda%NULL%1, Ichiro%Takeuchi%NULL%1, Mumon%Takita%NULL%1, Hayato%Taniguchi%NULL%1, Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0, Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0, Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
   </si>
   <si>
     <t>PMC7294761</t>
@@ -364,9 +356,6 @@
 </t>
   </si>
   <si>
-    <t>[Ai Tang%Xiao%NULL%1, Yi Xin%Tong%NULL%1, Sheng%Zhang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7188124</t>
   </si>
   <si>
@@ -376,9 +365,6 @@
     <t>Critical care for severe coronavirus disease 2019: a population-based study from a province with low case-fatality rate in China</t>
   </si>
   <si>
-    <t>[Xue-Lian%Liao%NULL%1, Hong%Chen%NULL%1, Zhen%Li%NULL%1, Bo%Wang%NULL%2, Zhong-Wei%Zhang%NULL%1, Wei-Min%Li%NULL%1, Zong-An%Liang%NULL%1, Jin%Tang%NULL%1, Jian%Wang%NULL%1, Rui%Shi%NULL%1, Xiao-Dong%Jin%NULL%1, Yan%Kang%NULL%1, Pei-Fang%Wei%NULL%4, Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7862801</t>
   </si>
   <si>
@@ -386,9 +372,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cytokine release syndrome in COVID-19 is characterized by hyperinflammation which manifests as ARDS, multi-organ failure, and high inflammatory parameters. Tocilizumab, an IL-6 antagonist has been used in COVID-19 acute respiratory distress syndrome (ARDS) with conflicting results from different parts of the world. We conducted a retrospective descriptive study from Feb 2020 to May 2020 on COVID-19 patients with ARDS and hyperinflammation characterized by raised CRP and/or ferritin. A total of 244 patients with COVID-19 were admitted out of which 107 had ARDS. Thirty patients had both ARDS and hyperinflammation and received tocilizumab. The mean age was 62.5 years (SD: 13.5) and the majority were male (83%). The mean CRP pre-treatment was 217.5 mg/L and post 48 to 72 hours of tocilizumab treatment was 98.5 mg/L. Twenty-one patients (70%) also received concomitant intravenous methylprednisolone. Of the 30 patients, 7 died and 20 recovered. Ten patients required intensive care unit admission and nine developed nosocomial infections. COVID-19 associated aspergillosis was diagnosed in three patients post tocilizumab treatment. Mortality was significantly higher in patients who developed a nosocomial infection and who required intermittent positive pressure ventilation (IPPV). Our study is the first to describe the treatment outcomes with tocilizumab from a low-middle income country. The availability and cost of tocilizumab in our region which makes it imperative to understand its potential for use in our setting. Our study supports the use of tocilizumab in a select patient population with COVID-19 and recommends monitoring of nosocomial infections and opportunistic infections. </t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,  S. F.% Mahmood%null%1,  K.% Habib%null%1,  I.% Khanum%null%1,  B. % Jamil%null%1]</t>
   </si>
   <si>
     <t>2020-06-26</t>
@@ -402,9 +385,6 @@
  We present our initial experience with COVID-19 in Thailand, focusing on several aspects that may have played a crucial role in curtailment of the pandemic, and elements of care for severely ill COVID-19 patients, including stratification, isolation, and affordable diagnostic approaches and supportive care measures.
  We also discuss local considerations concerning some proposed experimental treatments.
 </t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1, Chaisith%Sivakorn%NULL%1, Tanuwong%Viarasilpa%NULL%1, Marcus J.%Schultz%NULL%1]</t>
   </si>
   <si>
     <t>PMC7356442</t>
@@ -434,9 +414,6 @@
 </t>
   </si>
   <si>
-    <t>[Shaobo%Shi%NULL%0, Mu%Qin%qinmuae@163.com%2, Yuli%Cai%NULL%2, Tao%Liu%NULL%3, Bo%Shen%NULL%2, Fan%Yang%NULL%2, Sheng%Cao%NULL%2, Xu%Liu%NULL%4, Xu%Liu%NULL%0, Yaozu%Xiang%NULL%2, Qinyan%Zhao%NULL%2, He%Huang%huanghe1977@whu.edu.cn%2, Bo%Yang%yybb112@whu.edu.cn%2, Congxin%Huang%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7239100</t>
   </si>
   <si>
@@ -464,9 +441,6 @@
 </t>
   </si>
   <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1, Win%Kulvichit%NULL%1, Sunchai%Payungporn%NULL%1, Trairak%Pisitkun%NULL%1, Ariya%Chindamporn%NULL%1, Sadudee%Peerapornratana%NULL%1, Prapaporn%Pisitkun%NULL%1, Suwalak%Chitcharoen%NULL%1, Vorthon%Sawaswong%NULL%1, Navaporn%Worasilchai%NULL%1, Sarinya%Kampunya%NULL%1, Opass%Putcharoen%NULL%1, Thammasak%Thawitsri%NULL%1, Nophol%Leelayuwatanakul%NULL%1, Napplika%Kongpolprom%NULL%1, Vorakamol%Phoophiboon%NULL%1, Thitiwat%Sriprasart%NULL%1, Rujipat%Samransamruajkit%NULL%1, Somkanya%Tungsanga%NULL%1, Kanitha%Tiankanon%NULL%1, Nuttha%Lumlertgul%NULL%1, Asada%Leelahavanichkul%NULL%1, Tueboon%Sriphojanart%NULL%1, Terapong%Tantawichien%NULL%1, Usa%Thisyakorn%NULL%1, Chintana%Chirathaworn%NULL%1, Kearkiat%Praditpornsilpa%NULL%1, Kriang%Tungsanga%NULL%1, Somchai%Eiam-Ong%NULL%1, Visith%Sitprija%NULL%1, John A.%Kellum%NULL%1, Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
     <t>PMC7719737</t>
   </si>
   <si>
@@ -482,9 +456,6 @@
 </t>
   </si>
   <si>
-    <t>[Ruirui%Wang%NULL%0, Min%Pan%NULL%1, Xiumei%Zhang%NULL%1, Mingfeng%Han%fyhmf@163.com%1, Xiaoyun%Fan%13956988552@126.com%1, Fengde%Zhao%NULL%1, Manli%Miao%NULL%1, Jing%Xu%NULL%1, Minglong%Guan%NULL%1, Xia%Deng%NULL%1, Xu%Chen%NULL%1, Leilei%Shen%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7151431</t>
   </si>
   <si>
@@ -496,9 +467,6 @@
   <si>
     <t xml:space="preserve">Supplemental Digital Content is available in the text.
 </t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%3, Chunli%Tang%NULL%1, Ruchong%Chen%NULL%0, Honglian%Ruan%NULL%1, Wenhua%Liang%NULL%2, Weijie%Guan%NULL%2, Ling%Sang%NULL%2, Ruidi%Tang%NULL%1, Nanshan%Zhong%NULL%2, Shiyue%Li%NULL%2]</t>
   </si>
   <si>
     <t>PMC7314346</t>
@@ -533,9 +501,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%1, Jia'an%Xia%NULL%1, Hong%Liu%NULL%1, Yongran%Wu%NULL%3, Lu%Zhang%NULL%1, Zhui%Yu%NULL%2, Minghao%Fang%NULL%2, Ting%Yu%NULL%2, Yaxin%Wang%NULL%2, Shangwen%Pan%NULL%1, Xiaojing%Zou%NULL%1, Shiying%Yuan%NULL%2, You%Shang%NULL%3]</t>
-  </si>
-  <si>
     <t>PMC7102538</t>
   </si>
   <si>
@@ -555,9 +520,6 @@
  COVID‐19 patients with comorbidities had worse clinical outcomes as compared with those without any comorbidity.
  The higher the number of comorbidities, the greater was the risk of serious adverse outcomes.
 </t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1, Shanyan%Zhang%NULL%1, Xiaoli%Zhang%NULL%0, Huan%Cai%NULL%1, Jueqing%Gu%NULL%1, Jiangshan%Lian%NULL%1, Yingfeng%Lu%NULL%1, Hongyu%Jia%NULL%1, Jianhua%Hu%NULL%1, Ciliang%Jin%NULL%1, Guodong%Yu%NULL%1, Yimin%Zhang%NULL%1, Jifang%Sheng%NULL%1, Yida%Yang%yidayang65@zju.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7323387</t>
@@ -594,9 +556,6 @@
 </t>
   </si>
   <si>
-    <t>[Yuan%Yu%NULL%0, Dan%Xu%NULL%0, Shouzhi%Fu%NULL%1, Jun%Zhang%NULL%0, Xiaobo%Yang%NULL%0, Liang%Xu%NULL%1, Jiqian%Xu%NULL%0, Yongran%Wu%NULL%0, Chaolin%Huang%NULL%0, Yaqi%Ouyang%NULL%1, Luyu%Yang%NULL%1, Minghao%Fang%NULL%0, Hongwen%Xiao%NULL%1, Jing%Ma%NULL%1, Wei%Zhu%NULL%1, Song%Hu%NULL%1, Quan%Hu%NULL%1, Daoyin%Ding%NULL%1, Ming%Hu%NULL%2, Guochao%Zhu%NULL%1, Weijiang%Xu%NULL%1, Jun%Guo%NULL%1, Jinglong%Xu%NULL%1, Haitao%Yuan%NULL%1, Bin%Zhang%NULL%0, Zhui%Yu%yuzhui@whu.edu.cn%0, Dechang%Chen%icudechangchen@163.com%1, Shiying%Yuan%yuan_shiying@163.com%0, You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
     <t>PMC7223395</t>
   </si>
   <si>
@@ -608,9 +567,6 @@
   <si>
     <t xml:space="preserve">Objective: This study evaluated the clinical and epidemiological characteristics of patients with confirmed coronavirus disease 2019 (COVID-19).
 </t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%1, Hao-Yu%Gao%NULL%1, Zi-Yi%Feng%NULL%1, Qi-Jun%Wu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7291880</t>
@@ -633,9 +589,6 @@
  The prothrombin time was increased and the levels of platelet, hemoglobin, blood urea nitrogen (BUN), D-dimer, lactate dehydrogenase (LDH), and IL-6 were higher in IMV cases compared with NIV cases during hospitalization.
  Conclusions: Data showed that the rates of complications, dynamics of lymphocytopenia, and changes in levels of platelet, hemoglobin, BUN, D-dimer, LDH and IL-6, and prothrombin time in these ICU patients were significantly different between IMV and NIV cases.
 </t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%1, Li-jun%Sun%NULL%1, Mi%Xu%NULL%1, Jian%Pan%NULL%1, Yun-tao%Zhang%NULL%1, Xue-ling%Fang%NULL%1, Qiang%Fang%NULL%1, Hong-liu%Cai%NULL%1]</t>
   </si>
   <si>
     <t>PMC7238397</t>
@@ -664,9 +617,6 @@
 </t>
   </si>
   <si>
-    <t>[Yingjie%Zhu%NULL%1, Ziqiang%Du%NULL%1, Yanfang%Zhu%NULL%1, Wenfeng%Li%NULL%1, Hongjun%Miao%NULL%1, Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7269959</t>
   </si>
   <si>
@@ -688,9 +638,6 @@
  On multivariable analysis, the risk factors found to be significantly associated with admission to intensive care were age above 50 years old, a qSOFA score above 0, smoking, elevated CRP and elevated procalcitonin levels.
  Asthma, smoking and elevated procalcitonin levels correlated significantly with mortality in our cohort.
 </t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0, Sarah%Al-Youha%sarahalyouha@gmail.com%1, Mohammad H.%Jamal%NULL%1, Mohannad%Al-Haddad%NULL%1, Ali%Al-Muhaini%NULL%1, Fahad%Al-Ghimlas%NULL%1, Salman%Al-Sabah%NULL%1]</t>
   </si>
   <si>
     <t>PMC7335246</t>
@@ -727,9 +674,6 @@
 </t>
   </si>
   <si>
-    <t>[Ladan%Goshayeshi%NULL%1, Mina%Akbari Rad%NULL%1, Robert%Bergquist%NULL%1, Abolghasem%Allahyari%NULL%1, Kamila%Hashemzadeh%NULL%1, Nasrin%Milani%NULL%1, Mahdi%Gholian-Aval%NULL%1, Fariba%Rezaeitalab%NULL%1, Mohammad Jafar%Sadeghi Quchani%NULL%1, Zahra%Nahbandani%NULL%1, Mandana%Khodashahi%NULL%1, Zahra%Javid%NULL%1, Mahnaz%Mozdourian%NULL%1, Mohammad Ali%Yaghoubi%NULL%1, Zahra%Mozaheb%NULL%1, Mohsen%Seddigh-Shamsi%NULL%1, Mohammad%Moeini Nodeh%NULL%1, Shima%Nabavi%NULL%1, Hooman%Mosannen Mozaffari%NULL%1, Mohammadreza%Farzanehfar%NULL%1, Zahra%Lotfi%NULL%1, Alireza%Shariati%NULL%1, Shekoofe%Bonakdaran%NULL%1, Zahra%Rezaieyazdi%NULL%1, Zahra%Mirfeizi%NULL%1, Maryam%Miri%NULL%1, Reza%Bassiri%NULL%1, Sajjad%Ataei Azimi%NULL%1, Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3, Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0, Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
     <t>PMC8261035</t>
   </si>
   <si>
@@ -758,9 +702,6 @@
 </t>
   </si>
   <si>
-    <t>[Faryal%Khamis%NULL%1, Ibrahim%Al-Zakwani%NULL%1, Hamed%Al Naamani%NULL%1, Sultan%Al Lawati%NULL%1, Nenad%Pandak%NULL%1, Muna Ba%Omar%NULL%1, Maher%Al Bahrani%NULL%1, Zakaryia AL%Bulushi%NULL%1, Huda%Al Khalili%NULL%1, Issa%Al Salmi%NULL%1, Ruwaida%Al Ismaili%NULL%1, Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7832725</t>
   </si>
   <si>
@@ -785,9 +726,6 @@
 Conclusion
 id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1, Zohre%Khodamoradi%NULL%1, Amirhossein%Erfani%NULL%1, Hamidreza%Hosseinpour%NULL%1, Keivan%Ranjbar%NULL%1, Yasaman%Emami%NULL%1, Alireza%Mirahmadizadeh%NULL%1, Mehrzad%Lotfi%NULL%1, Babak%Shirazi Yeganeh%NULL%1, Abolfazl%Dorrani Nejad%NULL%1, Abdolrasool%Hemmati%NULL%1, Mostafa%Ebrahimi%NULL%1, Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
   </si>
   <si>
     <t>PMC7301075</t>
@@ -819,9 +757,6 @@
 </t>
   </si>
   <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1, Annachiara%Ferrari%NULL%2, Annachiara%Ferrari%NULL%0, Francesco%Fontana%NULL%1, Giacomo%Mori%NULL%1, Riccardo%Magistroni%NULL%1, Marianna%Meschiari%NULL%1, Erica%Franceschini%NULL%1, Marianna%Menozzi%NULL%1, Gianluca%Cuomo%NULL%1, Gabriella%Orlando%NULL%1, Antonella%Santoro%NULL%1, Margherita%Digaetano%NULL%1, Cinzia%Puzzolante%NULL%1, Federica%Carli%NULL%1, Andrea%Bedini%NULL%1, Jovana%Milic%NULL%1, Irene%Coloretti%NULL%1, Paolo%Raggi%NULL%1, Cristina%Mussini%NULL%1, Massimo%Girardis%NULL%1, Gianni%Cappelli%NULL%1, Giovanni%Guaraldi%NULL%1, NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC8245663</t>
   </si>
   <si>
@@ -848,9 +783,6 @@
 </t>
   </si>
   <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1, Silvia%Bettini%NULL%2, Silvia%Bettini%NULL%0, Roberto%Fabris%NULL%1, Roberto%Serra%NULL%2, Chiara%Dal Pra%NULL%1, Pietro%Maffei%NULL%1, Marco%Rossato%NULL%1, Paola%Fioretto%NULL%1, Roberto%Vettor%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7283686</t>
   </si>
   <si>
@@ -877,9 +809,6 @@
 </t>
   </si>
   <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%2, Marco%Roncador%NULL%2, Marco%Roncador%NULL%0, Andrea%Saporito%NULL%1, Maira%Biggiogero%NULL%1, Andrea%Glotta%NULL%1, Pier Andrea%Maida%NULL%1, Patrizia%Urso%NULL%1, Giovanni%Bona%NULL%1, Christian%Garzoni%NULL%1, Romano%Mauri%NULL%2, Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC8310399</t>
   </si>
   <si>
@@ -887,9 +816,6 @@
   </si>
   <si>
     <t>30-day mortality in patients hospitalized with COVID-19 during the first wave of the Italian epidemic: A prospective cohort study</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%1, Anna Lisa%Ridolfo%NULL%1, Laura%Milazzo%NULL%1, Letizia%Oreni%NULL%1, Dario%Bernacchia%NULL%1, Matteo%Siano%NULL%1, Cecilia%Bonazzetti%NULL%1, Alice%Covizzi%NULL%1, Marco%Schiuma%NULL%1, Matteo%Passerini%NULL%1, Marco%Piscaglia%NULL%1, Massimo%Coen%NULL%1, Guido%Gubertini%NULL%1, Giuliano%Rizzardini%NULL%1, Chiara%Cogliati%NULL%2, Anna Maria%Brambilla%NULL%1, Riccardo%Colombo%NULL%2, Antonio%Castelli%NULL%1, Roberto%Rech%NULL%1, Agostino%Riva%NULL%1, Alessandro%Torre%NULL%1, Luca%Meroni%NULL%1, Stefano%Rusconi%NULL%1, Spinello%Antinori%NULL%1, Massimo%Galli%NULL%1]</t>
   </si>
   <si>
     <t>PMC7242199</t>
@@ -914,9 +840,6 @@
  In six patients (15%) a deep vein thrombosis and in 2 patients (5%) a thromboembolic event, were found; 12 patients (30%) had a catheter-related thrombosis.
  ROTEM analysis confirms that patients with severe COVID-19 pneumonia had a hypercoagulation state that persisted over time.
 </t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1, Lara%Gianesello%gianesello.lara@libero.it%1, Maddalena%Pazzi%NULL%2, Maddalena%Pazzi%NULL%0, Caterina%Stera%NULL%1, Tommaso%Meconi%NULL%1, Francesca Covani%Frigieri%NULL%1]</t>
   </si>
   <si>
     <t>PMC7211560</t>
@@ -948,9 +871,6 @@
 </t>
   </si>
   <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1, Andrea%Dalbeni%NULL%2, Andrea%Dalbeni%NULL%0, Elia%Vettore%NULL%2, Elia%Vettore%NULL%0, Devis%Benfaremo%NULL%1, Massimo%Mattioli%NULL%1, Carmine G.%Gambino%NULL%1, Viviana%Framba%NULL%2, Viviana%Framba%NULL%0, Lorenzo%Cerruti%NULL%1, Anna%Mantovani%NULL%1, Andrea%Martini%NULL%1, Michele M.%Luchetti%NULL%1, Roberto%Serra%NULL%0, Annamaria%Cattelan%NULL%1, Roberto%Vettor%NULL%0, Paolo%Angeli%NULL%1, NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7307119</t>
   </si>
   <si>
@@ -977,9 +897,6 @@
 </t>
   </si>
   <si>
-    <t>[Jean%Regina%NULL%1, Matthaios%Papadimitriou-Olivgeris%NULL%2, Matthaios%Papadimitriou-Olivgeris%NULL%0, Raphaël%Burger%NULL%1, Marie-Annick%Le Pogam%NULL%1, Tapio%Niemi%NULL%2, Tapio%Niemi%NULL%0, Paraskevas%Filippidis%NULL%1, Jonathan%Tschopp%NULL%1, Florian%Desgranges%NULL%1, Benjamin%Viala%NULL%1, Eleftheria%Kampouri%NULL%1, Laurence%Rochat%NULL%2, Laurence%Rochat%NULL%0, David%Haefliger%NULL%1, Mehdi%Belkoniene%NULL%1, Carlos%Fidalgo%NULL%1, Antonios%Kritikos%NULL%1, Katia%Jaton%NULL%1, Laurence%Senn%NULL%1, Pierre-Alexandre%Bart%NULL%1, Jean-Luc%Pagani%NULL%2, Jean-Luc%Pagani%NULL%0, Oriol%Manuel%NULL%1, Loïc%Lhopitallier%NULL%1, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7665644</t>
   </si>
   <si>
@@ -991,9 +908,6 @@
   <si>
     <t xml:space="preserve">Rationale: Initial reports of case fatality rates (CFRs) among adults with coronavirus disease (COVID-19) receiving invasive mechanical ventilation (IMV) are highly variable.
 </t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1, Ashwin%Subramaniam%NULL%2, Ashwin%Subramaniam%NULL%0, Mallikarjuna%Ponnapa Reddy%NULL%2, Mallikarjuna%Ponnapa Reddy%NULL%0, Gabriel%Blecher%NULL%1, Umesh%Kadam%NULL%2, Umesh%Kadam%NULL%0, Afsana%Afroz%NULL%1, Baki%Billah%NULL%1, Sushma%Ashwin%NULL%1, Mark%Kubicki%NULL%1, Federico%Bilotta%NULL%1, J. Randall%Curtis%NULL%2, J. Randall%Curtis%NULL%0, Francesca%Rubulotta%NULL%2, Francesca%Rubulotta%NULL%0]</t>
   </si>
   <si>
     <t>PMC7781141</t>
@@ -1028,9 +942,6 @@
 </t>
   </si>
   <si>
-    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%1, Cody L%Slater%NULL%1, Jonathan R%Tiao%NULL%1, Matthew R%Baldwin%NULL%1, R Graham%Barr%NULL%1, Bernard P%Chang%NULL%1, Katherine H%Chau%NULL%1, Justin J%Choi%NULL%1, Nicholas%Gavin%NULL%1, Parag%Goyal%NULL%0, Angela M%Mills%NULL%1, Ashmi A%Patel%NULL%1, Marie-Laure S%Romney%NULL%1, Monika M%Safford%NULL%1, Neil W%Schluger%NULL%1, Soumitra%Sengupta%NULL%1, Magdalena E%Sobieszczyk%NULL%1, Jason E%Zucker%NULL%1, Paul A%Asadourian%NULL%1, Fletcher M%Bell%NULL%1, Rebekah%Boyd%NULL%1, Matthew F%Cohen%NULL%1, MacAlistair I%Colquhoun%NULL%1, Lucy A%Colville%NULL%1, Joseph H%de Jonge%NULL%1, Lyle B%Dershowitz%NULL%1, Shirin A%Dey%NULL%1, Katherine A%Eiseman%NULL%1, Zachary P%Girvin%NULL%1, Daniella T%Goni%NULL%1, Amro A%Harb%NULL%1, Nicholas%Herzik%NULL%1, Sarah%Householder%NULL%1, Lara E%Karaaslan%NULL%1, Heather%Lee%NULL%1, Evan%Lieberman%NULL%1, Andrew%Ling%NULL%1, Ree%Lu%NULL%1, Arthur Y%Shou%NULL%1, Alexander C%Sisti%NULL%1, Zachary E%Snow%NULL%1, Colin P%Sperring%NULL%1, Yuqing%Xiong%NULL%1, Henry W%Zhou%NULL%1, Karthik%Natarajan%NULL%1, George%Hripcsak%NULL%1, Ruijun%Chen%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7256651</t>
   </si>
   <si>
@@ -1055,9 +966,6 @@
 Conclusions:
 Despite multiple reports of mortality rates exceeding 50% among critically ill adults with coronavirus disease 2019, particularly among those requiring mechanical ventilation, our early experience indicates that many patients survive their critical illness.
 </t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%1, James M.%Blum%NULL%1, Chad%Robichaux%NULL%1, Colleen%Kraft%NULL%1, Jesse T.%Jacob%NULL%1, Craig S.%Jabaley%NULL%1, David%Carpenter%NULL%1, Roberta%Kaplow%NULL%1, Alfonso C.%Hernandez-Romieu%NULL%1, Max W.%Adelman%NULL%1, Greg S.%Martin%NULL%1, Craig M.%Coopersmith%NULL%1, David J.%Murphy%NULL%1, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7255393</t>
@@ -1086,9 +994,6 @@
  (Funded by the National Institutes of Health.
 )
 </t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%1, Michelle%Nichols%NULL%1, Richard%Kim%NULL%1, Keith R.%Jerome%NULL%1, Arun K.%Nalla%NULL%1, Alexander L.%Greninger%NULL%1, Sudhakar%Pipavath%NULL%1, Mark M.%Wurfel%NULL%1, Laura%Evans%NULL%1, Patricia A.%Kritek%NULL%1, T. Eoin%West%NULL%1, Andrew%Luks%NULL%1, Anthony%Gerbino%NULL%1, Chris R.%Dale%NULL%1, Jason D.%Goldman%NULL%1, Shane%O’Mahony%NULL%1, Carmen%Mikacenic%NULL%1]</t>
   </si>
   <si>
     <t>PMC7143164</t>
@@ -1120,9 +1025,6 @@
 </t>
   </si>
   <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0, Denise J%McCulloch%NULL%2, Denise J%McCulloch%NULL%0, Vidya%Atluri%NULL%1, Michela%Blain%NULL%1, Sarah A%McGuffin%NULL%1, Arun K%Nalla%NULL%1, Meei-Li%Huang%NULL%1, Alex L%Greninger%NULL%1, Keith R%Jerome%NULL%1, Seth A%Cohen%NULL%1, Santiago%Neme%NULL%1, Margaret L%Green%NULL%1, Helen Y%Chu%NULL%1, H Nina%Kim%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7314181</t>
   </si>
   <si>
@@ -1137,9 +1039,6 @@
 </t>
   </si>
   <si>
-    <t>[Jessica%Ferguson%NULL%0, Joelle I.%Rosser%NULL%1, Orlando%Quintero%NULL%1, Jake%Scott%NULL%1, Aruna%Subramanian%NULL%1, Mohammad%Gumma%NULL%1, Angela%Rogers%NULL%1, Shanthi%Kappagoda%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7392471</t>
   </si>
   <si>
@@ -1150,16 +1049,10 @@
 </t>
   </si>
   <si>
-    <t>[Brian T.%Garibaldi%NULL%0, Jacob%Fiksel%NULL%2, Jacob%Fiksel%NULL%0, John%Muschelli%NULL%2, John%Muschelli%NULL%0, Matthew L.%Robinson%NULL%2, Matthew L.%Robinson%NULL%0, Masoud%Rouhizadeh%NULL%2, Masoud%Rouhizadeh%NULL%0, Jamie%Perin%NULL%2, Jamie%Perin%NULL%0, Grant%Schumock%NULL%2, Grant%Schumock%NULL%0, Paul%Nagy%NULL%2, Paul%Nagy%NULL%0, Josh H.%Gray%NULL%2, Josh H.%Gray%NULL%0, Harsha%Malapati%NULL%2, Harsha%Malapati%NULL%0, Mariam%Ghobadi-Krueger%NULL%2, Mariam%Ghobadi-Krueger%NULL%0, Timothy M.%Niessen%NULL%1, Bo Soo%Kim%NULL%1, Peter M.%Hill%NULL%1, M. Shafeeq%Ahmed%NULL%1, Eric D.%Dobkin%NULL%1, Renee%Blanding%NULL%1, Jennifer%Abele%NULL%1, Bonnie%Woods%NULL%1, Kenneth%Harkness%NULL%1, David R.%Thiemann%NULL%1, Mary G.%Bowring%NULL%1, Aalok B.%Shah%NULL%2, Aalok B.%Shah%NULL%0, Mei-Cheng%Wang%NULL%1, Karen%Bandeen-Roche%NULL%1, Antony%Rosen%NULL%1, Scott L.%Zeger%NULL%2, Scott L.%Zeger%NULL%0, Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7530643</t>
   </si>
   <si>
     <t>Clinical Characteristics of Covid-19 in New York City</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0, Justin J.%Choi%NULL%1, Laura C.%Pinheiro%NULL%1, Edward J.%Schenck%NULL%1, Ruijun%Chen%NULL%0, Assem%Jabri%NULL%1, Michael J.%Satlin%NULL%1, Thomas R.%Campion%NULL%1, Musarrat%Nahid%NULL%1, Joanna B.%Ringel%NULL%1, Katherine L.%Hoffman%NULL%1, Mark N.%Alshak%NULL%1, Han A.%Li%NULL%1, Graham T.%Wehmeyer%NULL%2, Graham T.%Wehmeyer%NULL%0, Mangala%Rajan%NULL%1, Evgeniya%Reshetnyak%NULL%1, Nathaniel%Hupert%NULL%1, Evelyn M.%Horn%NULL%1, Fernando J.%Martinez%NULL%1, Roy M.%Gulick%NULL%1, Monika M.%Safford%NULL%2, Monika M.%Safford%NULL%0]</t>
   </si>
   <si>
     <t>PMC7182018</t>
@@ -1195,9 +1088,6 @@
 Age and comorbidities were found to be strong predictors of hospital admission and to a lesser extent of critical illness and mortality in people with covid-19; however, impairment of oxygen on admission and markers of inflammation were most strongly associated with critical illness and mortality.
  Outcomes seem to be improving over time, potentially suggesting improvements in care.
 </t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%2, Jie%Yang%NULL%2, Harish%Rajagopalan%NULL%2, Luke%O’Donnell%NULL%2, Yelena%Chernyak%NULL%2, Katie A%Tobin%NULL%2, Robert J%Cerfolio%NULL%2, Fritz%Francois%NULL%2, Leora I%Horwitz%NULL%2]</t>
   </si>
   <si>
     <t>PMC7243801</t>
@@ -1247,9 +1137,6 @@
 </t>
   </si>
   <si>
-    <t>[Gunther%Eysenbach%NULL%0, Anatoly%Mitrokhin%NULL%2, Anatoly%Mitrokhin%NULL%0, Ajai%Rajabalan%NULL%1, Christian%Benjamin%NULL%1, Sushma%Raviralla%NULL%1, Vishnu R%Mani%vishnu.mani@duke.edu%2, Vishnu R%Mani%vishnu.mani@duke.edu%0, Aleksandr%Kalabin%NULL%2, Aleksandr%Kalabin%NULL%0, Sebastian C%Valdivieso%NULL%2, Sebastian C%Valdivieso%NULL%0, Max%Murray-Ramcharan%NULL%2, Max%Murray-Ramcharan%NULL%0, Brian%Donaldson%NULL%2, Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7505684</t>
   </si>
   <si>
@@ -1269,9 +1156,6 @@
                   INTERPRETATION
                   In our setting, mortality in critically ill patients with COVID-19 admitted to the ICU was lower than in previously published studies. These data suggest that the prognosis associated with critical illness due to COVID-19 may not be as poor as previously reported.
                </t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%1,  Nicholas A.%Fergusson%null%1,  Elisa%Lloyd-Smith%null%1,  Andrew%Wormsbecker%null%1,  Denise%Foster%null%1,  Andrei%Karpov%null%1,  Sarah%Crowe%null%1,  Greg%Haljan%null%1,  Dean R.%Chittock%null%1,  Hussein D.%Kanji%null%1,  Mypinder S.%Sekhon%null%1,  Donald E.G.%Griesdale%null%1]</t>
   </si>
   <si>
     <t>S0820-3946(20)30400-4</t>
@@ -1308,13 +1192,7 @@
 </t>
   </si>
   <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1, Damianos G.%Kokkinidis%NULL%1, Weijia%Li%NULL%1, Dimitrios%Karamanis%NULL%1, Jennifer%Ognibene%NULL%1, Shitij%Arora%NULL%1, William N.%Southern%NULL%1, Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7228874</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0, Simon A%Jones%NULL%0, Jie%Yang%NULL%0, Harish%Rajagopalan%NULL%0, Luke%O’Donnell%NULL%0, Yelena%Chernyak%NULL%0, Katie A%Tobin%NULL%0, Robert J%Cerfolio%NULL%0, Fritz%Francois%NULL%0, Leora I%Horwitz%NULL%0]</t>
   </si>
   <si>
     <t>Correlation of Coagulation Parameters With Clinical Outcomes During the Coronavirus-19 Surge in New York: Observational Cohort</t>
@@ -1349,9 +1227,6 @@
 </t>
   </si>
   <si>
-    <t>[Morayma%Reyes Gil%NULL%1, Jesus D.%Gonzalez-Lugo%NULL%1, Shafia%Rahman%NULL%1, Mohammad%Barouqa%NULL%1, James%Szymanski%NULL%1, Kenji%Ikemura%NULL%1, Yungtai%Lo%NULL%1, Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7940374</t>
   </si>
   <si>
@@ -1388,9 +1263,6 @@
 </t>
   </si>
   <si>
-    <t>[Matthieu%Mahévas%NULL%1, Viet-Thi%Tran%NULL%2, Viet-Thi%Tran%NULL%0, Mathilde%Roumier%NULL%1, Amélie%Chabrol%NULL%1, Romain%Paule%NULL%1, Constance%Guillaud%NULL%1, Elena%Fois%NULL%1, Raphael%Lepeule%NULL%1, Tali-Anne%Szwebel%NULL%1, François-Xavier%Lescure%NULL%1, Frédéric%Schlemmer%NULL%1, Marie%Matignon%NULL%1, Mehdi%Khellaf%NULL%1, Etienne%Crickx%NULL%1, Benjamin%Terrier%NULL%1, Caroline%Morbieu%NULL%1, Paul%Legendre%NULL%1, Julien%Dang%NULL%1, Yoland%Schoindre%NULL%1, Jean-Michel%Pawlotsky%NULL%1, Marc%Michel%NULL%1, Elodie%Perrodeau%NULL%1, Nicolas%Carlier%NULL%1, Nicolas%Roche%NULL%1, Victoire%de Lastours%NULL%1, Clément%Ourghanlian%NULL%1, Solen%Kerneis%NULL%1, Philippe%Ménager%NULL%1, Luc%Mouthon%NULL%1, Etienne%Audureau%NULL%1, Philippe%Ravaud%NULL%1, Bertrand%Godeau%NULL%1, Sébastien%Gallien%NULL%1, Nathalie%Costedoat-Chalumeau%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7221472</t>
   </si>
   <si>
@@ -1410,88 +1282,7 @@
 </t>
   </si>
   <si>
-    <t>[Geehan%Suleyman%NULL%1, Raef A.%Fadel%NULL%1, Kelly M.%Malette%NULL%1, Charles%Hammond%NULL%1, Hafsa%Abdulla%NULL%1, Abigail%Entz%NULL%1, Zachary%Demertzis%NULL%1, Zachary%Hanna%NULL%1, Andrew%Failla%NULL%1, Carina%Dagher%NULL%1, Zohra%Chaudhry%NULL%1, Amit%Vahia%NULL%1, Odaliz%Abreu Lanfranco%NULL%1, Mayur%Ramesh%NULL%1, Marcus J.%Zervos%NULL%1, George%Alangaden%NULL%1, Joseph%Miller%NULL%1, Indira%Brar%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7298606</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,   J.% Jiang%null%2,   X.% Xu%null%1,   Y.% Hu%null%2,   Y.% Hu%null%0,   Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,  Chenchen%Qian%NULL%1,  Zhibing%Luo%NULL%1,  Qiang%Li%liqressh@hotmail.com%1,  Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,  Chunlin%Cai%NULL%1,  Jinglei%Zang%NULL%1,  Jun%Xie%NULL%1,  Dan%Xu%NULL%0,  Fang%Zheng%NULL%0,  Tao%Zhan%NULL%1,  Kang%Huang%NULL%1,  Yikai%Wang%NULL%1,  Xiao%Wang%NULL%0,  Zhe-Yu%Hu%NULL%1,  Yapeng%Deng%NULL%1,  Yuanlin%Xie%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,  Naofumi%Bunya%NULL%1,  Tomoyuki%Endo%NULL%1,  Yuji%Fujino%NULL%1,  Kensuke%Fujita%NULL%1,  Kenji%Fujizuka%NULL%1,  Yoshihiro%Hagiwara%NULL%1,  Jun%Hamaguchi%NULL%1,  Yoshitaka%Hara%NULL%1,  Eiji%Hashiba%NULL%1,  Satoru%Hashimoto%NULL%1,  Noriyuki%Hattori%NULL%1,  Kota%Hoshino%NULL%1,  Shinichi%Ijuin%NULL%1,  Takanari%Ikeyama%NULL%1,  Shingo%Ichiba%NULL%1,  Wataru%Iwanaga%NULL%1,  Yoshiaki%Iwashita%NULL%1,  Masafumi%Kanamoto%NULL%1,  Hitoshi%Kaneko%NULL%1,  Kaneyuki%Kawamae%NULL%1,  Toru%Kotani%NULL%1,  Yasuaki%Koyama%NULL%1,  Keibun%Liu%NULL%1,  Tomohiko%Masuno%NULL%1,  Naoto%Morimura%NULL%1,  Tomoyuki%Nakamura%NULL%1,  Masaki%Nakane%NULL%1,  Michitaka%Nasu%NULL%1,  Osamu%Nishida%NULL%1,  Masaji%Nishimura%NULL%1,  Kanae%Ochiai%NULL%1,  Takayuki%Ogura%NULL%1,  Shinichiro%Ohshimo%NULL%1,  Keisuke%Oyama%NULL%1,  Junichi%Sasaki%NULL%1,  Ryutaro%Seo%NULL%1,  Takeshi%Shimazu%NULL%1,  Nobuaki%Shime%NULL%4,  Keiki%Shimizu%NULL%1,  Hiroyuki%Suzuki%NULL%1,  Shuhei%Takauji%NULL%1,  Shinhiro%Takeda%NULL%1,  Ichiro%Takeuchi%NULL%2,  Mumon%Takita%NULL%1,  Hayato%Taniguchi%NULL%1,  Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,  Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,  Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,  Yi Xin%Tong%NULL%3,  Sheng%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,  Hong%Chen%NULL%0,  Zhen%Li%NULL%4,  Bo%Wang%NULL%0,  Zhong-Wei%Zhang%NULL%1,  Wei-Min%Li%NULL%0,  Zong-An%Liang%NULL%0,  Jin%Tang%NULL%1,  Jian%Wang%NULL%3,  Rui%Shi%NULL%1,  Xiao-Dong%Jin%NULL%1,  Yan%Kang%NULL%1,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,   S. F.% Mahmood%null%1,   K.% Habib%null%1,   I.% Khanum%null%1,   B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,  Chaisith%Sivakorn%NULL%1,  Tanuwong%Viarasilpa%NULL%1,  Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,  Mu%Qin%qinmuae@163.com%0,  Yuli%Cai%NULL%0,  Tao%Liu%NULL%0,  Bo%Shen%NULL%0,  Fan%Yang%NULL%0,  Sheng%Cao%NULL%0,  Xu%Liu%NULL%0,  Xu%Liu%NULL%0,  Yaozu%Xiang%NULL%0,  Qinyan%Zhao%NULL%0,  He%Huang%huanghe1977@whu.edu.cn%0,  Bo%Yang%yybb112@whu.edu.cn%0,  Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,  Win%Kulvichit%NULL%1,  Sunchai%Payungporn%NULL%1,  Trairak%Pisitkun%NULL%1,  Ariya%Chindamporn%NULL%1,  Sadudee%Peerapornratana%NULL%1,  Prapaporn%Pisitkun%NULL%1,  Suwalak%Chitcharoen%NULL%1,  Vorthon%Sawaswong%NULL%1,  Navaporn%Worasilchai%NULL%1,  Sarinya%Kampunya%NULL%1,  Opass%Putcharoen%NULL%1,  Thammasak%Thawitsri%NULL%1,  Nophol%Leelayuwatanakul%NULL%1,  Napplika%Kongpolprom%NULL%1,  Vorakamol%Phoophiboon%NULL%1,  Thitiwat%Sriprasart%NULL%1,  Rujipat%Samransamruajkit%NULL%1,  Somkanya%Tungsanga%NULL%1,  Kanitha%Tiankanon%NULL%1,  Nuttha%Lumlertgul%NULL%1,  Asada%Leelahavanichkul%NULL%1,  Tueboon%Sriphojanart%NULL%1,  Terapong%Tantawichien%NULL%1,  Usa%Thisyakorn%NULL%1,  Chintana%Chirathaworn%NULL%1,  Kearkiat%Praditpornsilpa%NULL%1,  Kriang%Tungsanga%NULL%1,  Somchai%Eiam-Ong%NULL%1,  Visith%Sitprija%NULL%1,  John A.%Kellum%NULL%1,  Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,  Min%Pan%NULL%0,  Xiumei%Zhang%NULL%0,  Mingfeng%Han%fyhmf@163.com%0,  Xiaoyun%Fan%13956988552@126.com%0,  Fengde%Zhao%NULL%0,  Manli%Miao%NULL%0,  Jing%Xu%NULL%0,  Minglong%Guan%NULL%0,  Xia%Deng%NULL%0,  Xu%Chen%NULL%0,  Leilei%Shen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,  Chunli%Tang%NULL%0,  Ruchong%Chen%NULL%1,  Honglian%Ruan%NULL%1,  Wenhua%Liang%NULL%0,  Weijie%Guan%NULL%0,  Ling%Sang%NULL%0,  Ruidi%Tang%NULL%1,  Nanshan%Zhong%NULL%0,  Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,  Shanyan%Zhang%NULL%0,  Xiaoli%Zhang%NULL%0,  Huan%Cai%NULL%0,  Jueqing%Gu%NULL%0,  Jiangshan%Lian%NULL%0,  Yingfeng%Lu%NULL%0,  Hongyu%Jia%NULL%0,  Jianhua%Hu%NULL%0,  Ciliang%Jin%NULL%0,  Guodong%Yu%NULL%0,  Yimin%Zhang%NULL%0,  Jifang%Sheng%NULL%0,  Yida%Yang%yidayang65@zju.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,  Dan%Xu%NULL%0,  Shouzhi%Fu%NULL%0,  Jun%Zhang%NULL%0,  Xiaobo%Yang%NULL%0,  Liang%Xu%NULL%0,  Jiqian%Xu%NULL%0,  Yongran%Wu%NULL%0,  Chaolin%Huang%NULL%0,  Yaqi%Ouyang%NULL%0,  Luyu%Yang%NULL%0,  Minghao%Fang%NULL%0,  Hongwen%Xiao%NULL%0,  Jing%Ma%NULL%0,  Wei%Zhu%NULL%0,  Song%Hu%NULL%0,  Quan%Hu%NULL%0,  Daoyin%Ding%NULL%0,  Ming%Hu%NULL%0,  Guochao%Zhu%NULL%0,  Weijiang%Xu%NULL%0,  Jun%Guo%NULL%0,  Jinglong%Xu%NULL%0,  Haitao%Yuan%NULL%0,  Bin%Zhang%NULL%0,  Zhui%Yu%yuzhui@whu.edu.cn%0,  Dechang%Chen%icudechangchen@163.com%0,  Shiying%Yuan%yuan_shiying@163.com%0,  You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,  Hao-Yu%Gao%NULL%1,  Zi-Yi%Feng%NULL%1,  Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,  Li-jun%Sun%NULL%2,  Mi%Xu%NULL%2,  Jian%Pan%NULL%2,  Yun-tao%Zhang%NULL%2,  Xue-ling%Fang%NULL%2,  Qiang%Fang%NULL%3,  Hong-liu%Cai%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,  Ziqiang%Du%NULL%1,  Yanfang%Zhu%NULL%1,  Wenfeng%Li%NULL%1,  Hongjun%Miao%NULL%1,  Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,  Sarah%Al-Youha%sarahalyouha@gmail.com%0,  Mohammad H.%Jamal%NULL%0,  Mohannad%Al-Haddad%NULL%0,  Ali%Al-Muhaini%NULL%0,  Fahad%Al-Ghimlas%NULL%0,  Salman%Al-Sabah%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,  Mina%Akbari Rad%NULL%1,  Robert%Bergquist%NULL%1,  Abolghasem%Allahyari%NULL%1,  Kamila%Hashemzadeh%NULL%1,  Nasrin%Milani%NULL%1,  Mahdi%Gholian-Aval%NULL%1,  Fariba%Rezaeitalab%NULL%1,  Mohammad Jafar%Sadeghi Quchani%NULL%1,  Zahra%Nahbandani%NULL%1,  Mandana%Khodashahi%NULL%1,  Zahra%Javid%NULL%1,  Mahnaz%Mozdourian%NULL%1,  Mohammad Ali%Yaghoubi%NULL%1,  Zahra%Mozaheb%NULL%1,  Mohsen%Seddigh-Shamsi%NULL%1,  Mohammad%Moeini Nodeh%NULL%1,  Shima%Nabavi%NULL%1,  Hooman%Mosannen Mozaffari%NULL%1,  Mohammadreza%Farzanehfar%NULL%1,  Zahra%Lotfi%NULL%0,  Alireza%Shariati%NULL%1,  Shekoofe%Bonakdaran%NULL%1,  Zahra%Rezaieyazdi%NULL%1,  Zahra%Mirfeizi%NULL%1,  Maryam%Miri%NULL%1,  Reza%Bassiri%NULL%1,  Sajjad%Ataei Azimi%NULL%1,  Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,  Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,  Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,  Ibrahim%Al-Zakwani%NULL%1,  Hamed%Al Naamani%NULL%1,  Sultan%Al Lawati%NULL%1,  Nenad%Pandak%NULL%1,  Muna Ba%Omar%NULL%1,  Maher%Al Bahrani%NULL%1,  Zakaryia AL%Bulushi%NULL%1,  Huda%Al Khalili%NULL%1,  Issa%Al Salmi%NULL%1,  Ruwaida%Al Ismaili%NULL%1,  Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,  Zohre%Khodamoradi%NULL%1,  Amirhossein%Erfani%NULL%1,  Hamidreza%Hosseinpour%NULL%1,  Keivan%Ranjbar%NULL%1,  Yasaman%Emami%NULL%1,  Alireza%Mirahmadizadeh%NULL%1,  Mehrzad%Lotfi%NULL%1,  Babak%Shirazi Yeganeh%NULL%1,  Abolfazl%Dorrani Nejad%NULL%1,  Abdolrasool%Hemmati%NULL%1,  Mostafa%Ebrahimi%NULL%1,  Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,  Annachiara%Ferrari%NULL%2,  Annachiara%Ferrari%NULL%0,  Francesco%Fontana%NULL%1,  Giacomo%Mori%NULL%1,  Riccardo%Magistroni%NULL%1,  Marianna%Meschiari%NULL%1,  Erica%Franceschini%NULL%1,  Marianna%Menozzi%NULL%1,  Gianluca%Cuomo%NULL%1,  Gabriella%Orlando%NULL%1,  Antonella%Santoro%NULL%1,  Margherita%Digaetano%NULL%1,  Cinzia%Puzzolante%NULL%1,  Federica%Carli%NULL%1,  Andrea%Bedini%NULL%1,  Jovana%Milic%NULL%1,  Irene%Coloretti%NULL%1,  Paolo%Raggi%NULL%1,  Cristina%Mussini%NULL%1,  Massimo%Girardis%NULL%1,  Gianni%Cappelli%NULL%1,  Giovanni%Guaraldi%NULL%1,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,  Silvia%Bettini%NULL%2,  Silvia%Bettini%NULL%0,  Roberto%Fabris%NULL%1,  Roberto%Serra%NULL%2,  Chiara%Dal Pra%NULL%1,  Pietro%Maffei%NULL%1,  Marco%Rossato%NULL%1,  Paola%Fioretto%NULL%0,  Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,  Marco%Roncador%NULL%2,  Marco%Roncador%NULL%0,  Andrea%Saporito%NULL%1,  Maira%Biggiogero%NULL%1,  Andrea%Glotta%NULL%1,  Pier Andrea%Maida%NULL%1,  Patrizia%Urso%NULL%1,  Giovanni%Bona%NULL%1,  Christian%Garzoni%NULL%1,  Romano%Mauri%NULL%0,  Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,  Anna Lisa%Ridolfo%NULL%4,  Laura%Milazzo%NULL%2,  Letizia%Oreni%NULL%4,  Dario%Bernacchia%NULL%4,  Matteo%Siano%NULL%4,  Cecilia%Bonazzetti%NULL%2,  Alice%Covizzi%NULL%2,  Marco%Schiuma%NULL%2,  Matteo%Passerini%NULL%2,  Marco%Piscaglia%NULL%2,  Massimo%Coen%NULL%2,  Guido%Gubertini%NULL%2,  Giuliano%Rizzardini%NULL%4,  Chiara%Cogliati%NULL%0,  Anna Maria%Brambilla%NULL%2,  Riccardo%Colombo%NULL%0,  Antonio%Castelli%NULL%2,  Roberto%Rech%NULL%2,  Agostino%Riva%NULL%2,  Alessandro%Torre%NULL%2,  Luca%Meroni%NULL%2,  Stefano%Rusconi%NULL%4,  Spinello%Antinori%NULL%5,  Massimo%Galli%NULL%7]</t>
   </si>
   <si>
     <t>Baseline Characteristics and Outcomes of 1591 Patients Infected With SARS-CoV-2 Admitted to ICUs of the Lombardy Region, Italy</t>
@@ -1516,24 +1307,6 @@
 \r\n\r\nConclusions and Relevance  In this case series of critically ill patients with laboratory-confirmed COVID-19 admitted to ICUs in Lombardy, Italy, the majority were older men, a large proportion required mechanical ventilation and high levels of PEEP, and ICU mortality was 26%</t>
   </si>
   <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%2, Cabrini%Luca%coreGivesNoEmail%2, Castelli%Antonio%coreGivesNoEmail%2, Cecconi%Maurizio%coreGivesNoEmail%2, Cereda%Danilo%coreGivesNoEmail%2, Coluccello%Antonio%coreGivesNoEmail%2, Foti%Giuseppe%coreGivesNoEmail%2, Fumagalli%Roberto%coreGivesNoEmail%2, Grasselli%Giacomo%coreGivesNoEmail%2, Iotti%Giorgio%coreGivesNoEmail%2, Latronico%Nicola%coreGivesNoEmail%2, Lorini%Luca%coreGivesNoEmail%2, Merler%Stefano%coreGivesNoEmail%2, Natalini%Giuseppe%coreGivesNoEmail%2, Pesenti%Antonio%coreGivesNoEmail%2, Piatti%Alessandra%coreGivesNoEmail%2, Ranieri%Marco Vito%coreGivesNoEmail%2, Scandroglio%Anna Mara%coreGivesNoEmail%2, Storti%Enrico%coreGivesNoEmail%2, Zanella%Alberto%coreGivesNoEmail%2, Zangrillo%Alberto%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,  Lara%Gianesello%gianesello.lara@libero.it%1,  Maddalena%Pazzi%NULL%2,  Maddalena%Pazzi%NULL%0,  Caterina%Stera%NULL%1,  Tommaso%Meconi%NULL%1,  Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,  Andrea%Dalbeni%NULL%2,  Andrea%Dalbeni%NULL%0,  Elia%Vettore%NULL%2,  Elia%Vettore%NULL%0,  Devis%Benfaremo%NULL%1,  Massimo%Mattioli%NULL%1,  Carmine G.%Gambino%NULL%1,  Viviana%Framba%NULL%2,  Viviana%Framba%NULL%0,  Lorenzo%Cerruti%NULL%1,  Anna%Mantovani%NULL%1,  Andrea%Martini%NULL%1,  Michele M.%Luchetti%NULL%1,  Roberto%Serra%NULL%0,  Annamaria%Cattelan%NULL%1,  Roberto%Vettor%NULL%0,  Paolo%Angeli%NULL%1,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,  Matthaios%Papadimitriou-Olivgeris%NULL%2,  Matthaios%Papadimitriou-Olivgeris%NULL%0,  Raphaël%Burger%NULL%1,  Marie-Annick%Le Pogam%NULL%1,  Tapio%Niemi%NULL%2,  Tapio%Niemi%NULL%0,  Paraskevas%Filippidis%NULL%1,  Jonathan%Tschopp%NULL%1,  Florian%Desgranges%NULL%1,  Benjamin%Viala%NULL%1,  Eleftheria%Kampouri%NULL%1,  Laurence%Rochat%NULL%2,  Laurence%Rochat%NULL%0,  David%Haefliger%NULL%1,  Mehdi%Belkoniene%NULL%1,  Carlos%Fidalgo%NULL%1,  Antonios%Kritikos%NULL%1,  Katia%Jaton%NULL%1,  Laurence%Senn%NULL%1,  Pierre-Alexandre%Bart%NULL%1,  Jean-Luc%Pagani%NULL%2,  Jean-Luc%Pagani%NULL%0,  Oriol%Manuel%NULL%1,  Loïc%Lhopitallier%NULL%1,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,  Ashwin%Subramaniam%NULL%2,  Ashwin%Subramaniam%NULL%0,  Mallikarjuna%Ponnapa Reddy%NULL%2,  Mallikarjuna%Ponnapa Reddy%NULL%0,  Gabriel%Blecher%NULL%1,  Umesh%Kadam%NULL%2,  Umesh%Kadam%NULL%0,  Afsana%Afroz%NULL%1,  Baki%Billah%NULL%1,  Sushma%Ashwin%NULL%1,  Mark%Kubicki%NULL%1,  Federico%Bilotta%NULL%1,  J. Randall%Curtis%NULL%2,  J. Randall%Curtis%NULL%0,  Francesca%Rubulotta%NULL%2,  Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
     <t>Clinical features, laboratory characteristics, and outcomes of patients hospitalized with coronavirus disease 2019 (COVID-19): Early report from the United States</t>
   </si>
   <si>
@@ -1552,45 +1325,6 @@
  A total of three patients died; all were aged 70 years or older.
  Conclusions Laboratory abnormalities and acute renal failure were common in hospitalized patients with SARS-CoV2 infection in our center.
  Admission to ICU and mechanical ventilation were common</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%2, Aggarwal%Saurabh%coreGivesNoEmail%2, Garcia-Telles%Nelson%coreGivesNoEmail%2, Henry%Brandon Michael%coreGivesNoEmail%0, Lavie%Carl%coreGivesNoEmail%2, Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,  Samuel L%Bruce%NULL%0,  Cody L%Slater%NULL%0,  Jonathan R%Tiao%NULL%0,  Matthew R%Baldwin%NULL%0,  R Graham%Barr%NULL%0,  Bernard P%Chang%NULL%0,  Katherine H%Chau%NULL%0,  Justin J%Choi%NULL%0,  Nicholas%Gavin%NULL%0,  Parag%Goyal%NULL%0,  Angela M%Mills%NULL%0,  Ashmi A%Patel%NULL%0,  Marie-Laure S%Romney%NULL%0,  Monika M%Safford%NULL%0,  Neil W%Schluger%NULL%0,  Soumitra%Sengupta%NULL%0,  Magdalena E%Sobieszczyk%NULL%0,  Jason E%Zucker%NULL%0,  Paul A%Asadourian%NULL%0,  Fletcher M%Bell%NULL%0,  Rebekah%Boyd%NULL%0,  Matthew F%Cohen%NULL%0,  MacAlistair I%Colquhoun%NULL%0,  Lucy A%Colville%NULL%0,  Joseph H%de Jonge%NULL%0,  Lyle B%Dershowitz%NULL%0,  Shirin A%Dey%NULL%0,  Katherine A%Eiseman%NULL%0,  Zachary P%Girvin%NULL%0,  Daniella T%Goni%NULL%0,  Amro A%Harb%NULL%0,  Nicholas%Herzik%NULL%0,  Sarah%Householder%NULL%0,  Lara E%Karaaslan%NULL%0,  Heather%Lee%NULL%0,  Evan%Lieberman%NULL%0,  Andrew%Ling%NULL%0,  Ree%Lu%NULL%0,  Arthur Y%Shou%NULL%0,  Alexander C%Sisti%NULL%0,  Zachary E%Snow%NULL%0,  Colin P%Sperring%NULL%0,  Yuqing%Xiong%NULL%0,  Henry W%Zhou%NULL%0,  Karthik%Natarajan%NULL%0,  George%Hripcsak%NULL%0,  Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,  Mark%Caridi-Scheible%NULL%0,  James M.%Blum%NULL%0,  Chad%Robichaux%NULL%0,  Colleen%Kraft%NULL%0,  Jesse T.%Jacob%NULL%0,  Craig S.%Jabaley%NULL%0,  David%Carpenter%NULL%0,  Roberta%Kaplow%NULL%0,  Alfonso C.%Hernandez-Romieu%NULL%0,  Max W.%Adelman%NULL%0,  Greg S.%Martin%NULL%0,  Craig M.%Coopersmith%NULL%0,  David J.%Murphy%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,  Bijan J.%Ghassemieh%NULL%0,  Michelle%Nichols%NULL%0,  Richard%Kim%NULL%0,  Keith R.%Jerome%NULL%0,  Arun K.%Nalla%NULL%0,  Alexander L.%Greninger%NULL%0,  Sudhakar%Pipavath%NULL%0,  Mark M.%Wurfel%NULL%0,  Laura%Evans%NULL%0,  Patricia A.%Kritek%NULL%0,  T. Eoin%West%NULL%0,  Andrew%Luks%NULL%0,  Anthony%Gerbino%NULL%0,  Chris R.%Dale%NULL%0,  Jason D.%Goldman%NULL%0,  Shane%O’Mahony%NULL%0,  Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,  Denise J%McCulloch%NULL%0,  Denise J%McCulloch%NULL%0,  Vidya%Atluri%NULL%0,  Michela%Blain%NULL%0,  Sarah A%McGuffin%NULL%0,  Arun K%Nalla%NULL%0,  Meei-Li%Huang%NULL%0,  Alex L%Greninger%NULL%0,  Keith R%Jerome%NULL%0,  Seth A%Cohen%NULL%0,  Santiago%Neme%NULL%0,  Margaret L%Green%NULL%0,  Helen Y%Chu%NULL%0,  H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,  Joelle I.%Rosser%NULL%0,  Orlando%Quintero%NULL%0,  Jake%Scott%NULL%0,  Aruna%Subramanian%NULL%0,  Mohammad%Gumma%NULL%0,  Angela%Rogers%NULL%0,  Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,  Jacob%Fiksel%NULL%0,  Jacob%Fiksel%NULL%0,  John%Muschelli%NULL%0,  John%Muschelli%NULL%0,  Matthew L.%Robinson%NULL%0,  Matthew L.%Robinson%NULL%0,  Masoud%Rouhizadeh%NULL%0,  Masoud%Rouhizadeh%NULL%0,  Jamie%Perin%NULL%0,  Jamie%Perin%NULL%0,  Grant%Schumock%NULL%0,  Grant%Schumock%NULL%0,  Paul%Nagy%NULL%0,  Paul%Nagy%NULL%0,  Josh H.%Gray%NULL%0,  Josh H.%Gray%NULL%0,  Harsha%Malapati%NULL%0,  Harsha%Malapati%NULL%0,  Mariam%Ghobadi-Krueger%NULL%0,  Mariam%Ghobadi-Krueger%NULL%0,  Timothy M.%Niessen%NULL%0,  Bo Soo%Kim%NULL%0,  Peter M.%Hill%NULL%0,  M. Shafeeq%Ahmed%NULL%0,  Eric D.%Dobkin%NULL%0,  Renee%Blanding%NULL%0,  Jennifer%Abele%NULL%0,  Bonnie%Woods%NULL%0,  Kenneth%Harkness%NULL%0,  David R.%Thiemann%NULL%0,  Mary G.%Bowring%NULL%0,  Aalok B.%Shah%NULL%0,  Aalok B.%Shah%NULL%0,  Mei-Cheng%Wang%NULL%0,  Karen%Bandeen-Roche%NULL%0,  Antony%Rosen%NULL%0,  Scott L.%Zeger%NULL%0,  Scott L.%Zeger%NULL%0,  Amita%Gupta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,  Justin J.%Choi%NULL%0,  Laura C.%Pinheiro%NULL%0,  Edward J.%Schenck%NULL%0,  Ruijun%Chen%NULL%0,  Assem%Jabri%NULL%0,  Michael J.%Satlin%NULL%0,  Thomas R.%Campion%NULL%0,  Musarrat%Nahid%NULL%0,  Joanna B.%Ringel%NULL%0,  Katherine L.%Hoffman%NULL%0,  Mark N.%Alshak%NULL%0,  Han A.%Li%NULL%0,  Graham T.%Wehmeyer%NULL%0,  Graham T.%Wehmeyer%NULL%0,  Mangala%Rajan%NULL%0,  Evgeniya%Reshetnyak%NULL%0,  Nathaniel%Hupert%NULL%0,  Evelyn M.%Horn%NULL%0,  Fernando J.%Martinez%NULL%0,  Roy M.%Gulick%NULL%0,  Monika M.%Safford%NULL%0,  Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,  Simon A%Jones%NULL%0,  Jie%Yang%NULL%0,  Harish%Rajagopalan%NULL%0,  Luke%O’Donnell%NULL%0,  Yelena%Chernyak%NULL%0,  Katie A%Tobin%NULL%0,  Robert J%Cerfolio%NULL%0,  Fritz%Francois%NULL%0,  Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,  Anatoly%Mitrokhin%NULL%2,  Anatoly%Mitrokhin%NULL%0,  Ajai%Rajabalan%NULL%1,  Christian%Benjamin%NULL%1,  Sushma%Raviralla%NULL%1,  Vishnu R%Mani%vishnu.mani@duke.edu%2,  Vishnu R%Mani%vishnu.mani@duke.edu%0,  Aleksandr%Kalabin%NULL%2,  Aleksandr%Kalabin%NULL%0,  Sebastian C%Valdivieso%NULL%2,  Sebastian C%Valdivieso%NULL%0,  Max%Murray-Ramcharan%NULL%2,  Max%Murray-Ramcharan%NULL%0,  Brian%Donaldson%NULL%2,  Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,   Nicholas A.%Fergusson%null%2,   Elisa%Lloyd-Smith%null%2,   Andrew%Wormsbecker%null%2,   Denise%Foster%null%2,   Andrei%Karpov%null%2,   Sarah%Crowe%null%2,   Greg%Haljan%null%2,   Dean R.%Chittock%null%2,   Hussein D.%Kanji%null%2,   Mypinder S.%Sekhon%null%2,   Donald E.G.%Griesdale%null%2]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,  Damianos G.%Kokkinidis%NULL%1,  Weijia%Li%NULL%1,  Dimitrios%Karamanis%NULL%1,  Jennifer%Ognibene%NULL%1,  Shitij%Arora%NULL%1,  William N.%Southern%NULL%1,  Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,  Jesus D.%Gonzalez-Lugo%NULL%1,  Shafia%Rahman%NULL%1,  Mohammad%Barouqa%NULL%1,  James%Szymanski%NULL%1,  Kenji%Ikemura%NULL%1,  Yungtai%Lo%NULL%1,  Henny H.%Billett%NULL%1]</t>
   </si>
   <si>
     <t>Presenting characteristics, comorbidities, and outcomes among 5700 patients hospitalized with COVID-19 in the New York City area</t>
@@ -1617,166 +1351,19 @@
 \n\n\n\n\n\n\n\nConclusions and Relevance:  This case series provides characteristics and early outcomes of sequentially hospitalized patients with confirmed COVID-19 in the New York City area</t>
   </si>
   <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0, Becker%L.B.%coreGivesNoEmail%0, Chelico%J.D.%coreGivesNoEmail%0, Cohen%S.L.%coreGivesNoEmail%0, Cookingham%J.%coreGivesNoEmail%0, Coppa%K.%coreGivesNoEmail%0, Crawford%J.M.%coreGivesNoEmail%0, Davidson%K.W.%coreGivesNoEmail%0, Diefenbach%M.A.%coreGivesNoEmail%0, Dominello%A.J.%coreGivesNoEmail%0, Duer-Hefele%J.%coreGivesNoEmail%0, Falzon%L.%coreGivesNoEmail%0, Gitlin%J.%coreGivesNoEmail%0, Hajizadeh%N.%coreGivesNoEmail%0, Harvin%T.G.%coreGivesNoEmail%0, Hirsch%J.S.%coreGivesNoEmail%0, Hirschwerk%D.A.%coreGivesNoEmail%0, Kim%E.J.%coreGivesNoEmail%0, Kozel%Z.M.%coreGivesNoEmail%0, Marrast%L.M.%coreGivesNoEmail%0, McGinn%T.%coreGivesNoEmail%0, Mogavero%J.N.%coreGivesNoEmail%0, Narasimhan%M.%coreGivesNoEmail%0, Osorio%G.A.%coreGivesNoEmail%0, Qiu%M.%coreGivesNoEmail%0, Richardson%S.%coreGivesNoEmail%0, Zanos%T.P.%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,  Viet-Thi%Tran%NULL%4,  Viet-Thi%Tran%NULL%0,  Mathilde%Roumier%NULL%2,  Amélie%Chabrol%NULL%2,  Romain%Paule%NULL%2,  Constance%Guillaud%NULL%2,  Elena%Fois%NULL%2,  Raphael%Lepeule%NULL%2,  Tali-Anne%Szwebel%NULL%2,  François-Xavier%Lescure%NULL%0,  Frédéric%Schlemmer%NULL%2,  Marie%Matignon%NULL%2,  Mehdi%Khellaf%NULL%2,  Etienne%Crickx%NULL%2,  Benjamin%Terrier%NULL%2,  Caroline%Morbieu%NULL%2,  Paul%Legendre%NULL%2,  Julien%Dang%NULL%2,  Yoland%Schoindre%NULL%2,  Jean-Michel%Pawlotsky%NULL%2,  Marc%Michel%NULL%2,  Elodie%Perrodeau%NULL%2,  Nicolas%Carlier%NULL%2,  Nicolas%Roche%NULL%2,  Victoire%de Lastours%NULL%2,  Clément%Ourghanlian%NULL%2,  Solen%Kerneis%NULL%2,  Philippe%Ménager%NULL%2,  Luc%Mouthon%NULL%2,  Etienne%Audureau%NULL%2,  Philippe%Ravaud%NULL%2,  Bertrand%Godeau%NULL%2,  Sébastien%Gallien%NULL%2,  Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,  Raef A.%Fadel%NULL%1,  Kelly M.%Malette%NULL%1,  Charles%Hammond%NULL%1,  Hafsa%Abdulla%NULL%1,  Abigail%Entz%NULL%1,  Zachary%Demertzis%NULL%1,  Zachary%Hanna%NULL%1,  Andrew%Failla%NULL%1,  Carina%Dagher%NULL%0,  Zohra%Chaudhry%NULL%0,  Amit%Vahia%NULL%0,  Odaliz%Abreu Lanfranco%NULL%1,  Mayur%Ramesh%NULL%1,  Marcus J.%Zervos%NULL%0,  George%Alangaden%NULL%0,  Joseph%Miller%NULL%0,  Indira%Brar%NULL%0]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[ C.%Chen%null%1,    J.% Jiang%null%1,    X.% Xu%null%1,    Y.% Hu%null%2,    Y.% Hu%null%0,    Y. % Zhao%null%1]</t>
-  </si>
-  <si>
     <t>_MedBiorxiv</t>
   </si>
   <si>
-    <t>[Jing%Hua%NULL%1,   Chenchen%Qian%NULL%1,   Zhibing%Luo%NULL%1,   Qiang%Li%liqressh@hotmail.com%0,   Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Yaxiong%Huang%NULL%1,   Chunlin%Cai%NULL%1,   Jinglei%Zang%NULL%1,   Jun%Xie%NULL%1,   Dan%Xu%NULL%0,   Fang%Zheng%NULL%0,   Tao%Zhan%NULL%1,   Kang%Huang%NULL%1,   Yikai%Wang%NULL%1,   Xiao%Wang%NULL%0,   Zhe-Yu%Hu%NULL%1,   Yapeng%Deng%NULL%1,   Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Ryuzo%Abe%NULL%1,   Naofumi%Bunya%NULL%1,   Tomoyuki%Endo%NULL%1,   Yuji%Fujino%NULL%1,   Kensuke%Fujita%NULL%1,   Kenji%Fujizuka%NULL%1,   Yoshihiro%Hagiwara%NULL%1,   Jun%Hamaguchi%NULL%1,   Yoshitaka%Hara%NULL%1,   Eiji%Hashiba%NULL%1,   Satoru%Hashimoto%NULL%1,   Noriyuki%Hattori%NULL%1,   Kota%Hoshino%NULL%1,   Shinichi%Ijuin%NULL%1,   Takanari%Ikeyama%NULL%1,   Shingo%Ichiba%NULL%1,   Wataru%Iwanaga%NULL%1,   Yoshiaki%Iwashita%NULL%1,   Masafumi%Kanamoto%NULL%1,   Hitoshi%Kaneko%NULL%1,   Kaneyuki%Kawamae%NULL%1,   Toru%Kotani%NULL%1,   Yasuaki%Koyama%NULL%1,   Keibun%Liu%NULL%1,   Tomohiko%Masuno%NULL%1,   Naoto%Morimura%NULL%1,   Tomoyuki%Nakamura%NULL%1,   Masaki%Nakane%NULL%1,   Michitaka%Nasu%NULL%1,   Osamu%Nishida%NULL%1,   Masaji%Nishimura%NULL%1,   Kanae%Ochiai%NULL%1,   Takayuki%Ogura%NULL%1,   Shinichiro%Ohshimo%NULL%1,   Keisuke%Oyama%NULL%1,   Junichi%Sasaki%NULL%1,   Ryutaro%Seo%NULL%1,   Takeshi%Shimazu%NULL%1,   Nobuaki%Shime%NULL%4,   Keiki%Shimizu%NULL%1,   Hiroyuki%Suzuki%NULL%1,   Shuhei%Takauji%NULL%1,   Shinhiro%Takeda%NULL%1,   Ichiro%Takeuchi%NULL%0,   Mumon%Takita%NULL%1,   Hayato%Taniguchi%NULL%1,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,   Yi Xin%Tong%NULL%3,   Sheng%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,   Hong%Chen%NULL%2,   Zhen%Li%NULL%2,   Bo%Wang%NULL%0,   Zhong-Wei%Zhang%NULL%1,   Wei-Min%Li%NULL%1,   Zong-An%Liang%NULL%1,   Jin%Tang%NULL%1,   Jian%Wang%NULL%2,   Rui%Shi%NULL%1,   Xiao-Dong%Jin%NULL%1,   Yan%Kang%NULL%1,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,    S. F.% Mahmood%null%1,    K.% Habib%null%1,    I.% Khanum%null%1,    B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,   Chaisith%Sivakorn%NULL%1,   Tanuwong%Viarasilpa%NULL%1,   Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,   Mu%Qin%qinmuae@163.com%0,   Yuli%Cai%NULL%0,   Tao%Liu%NULL%0,   Bo%Shen%NULL%0,   Fan%Yang%NULL%0,   Sheng%Cao%NULL%0,   Xu%Liu%NULL%0,   Xu%Liu%NULL%0,   Yaozu%Xiang%NULL%0,   Qinyan%Zhao%NULL%0,   He%Huang%huanghe1977@whu.edu.cn%0,   Bo%Yang%yybb112@whu.edu.cn%0,   Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,   Win%Kulvichit%NULL%1,   Sunchai%Payungporn%NULL%1,   Trairak%Pisitkun%NULL%1,   Ariya%Chindamporn%NULL%1,   Sadudee%Peerapornratana%NULL%1,   Prapaporn%Pisitkun%NULL%1,   Suwalak%Chitcharoen%NULL%1,   Vorthon%Sawaswong%NULL%1,   Navaporn%Worasilchai%NULL%1,   Sarinya%Kampunya%NULL%1,   Opass%Putcharoen%NULL%1,   Thammasak%Thawitsri%NULL%1,   Nophol%Leelayuwatanakul%NULL%1,   Napplika%Kongpolprom%NULL%1,   Vorakamol%Phoophiboon%NULL%1,   Thitiwat%Sriprasart%NULL%1,   Rujipat%Samransamruajkit%NULL%1,   Somkanya%Tungsanga%NULL%1,   Kanitha%Tiankanon%NULL%1,   Nuttha%Lumlertgul%NULL%1,   Asada%Leelahavanichkul%NULL%1,   Tueboon%Sriphojanart%NULL%1,   Terapong%Tantawichien%NULL%1,   Usa%Thisyakorn%NULL%1,   Chintana%Chirathaworn%NULL%1,   Kearkiat%Praditpornsilpa%NULL%1,   Kriang%Tungsanga%NULL%1,   Somchai%Eiam-Ong%NULL%1,   Visith%Sitprija%NULL%1,   John A.%Kellum%NULL%1,   Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,   Min%Pan%NULL%0,   Xiumei%Zhang%NULL%0,   Mingfeng%Han%fyhmf@163.com%0,   Xiaoyun%Fan%13956988552@126.com%0,   Fengde%Zhao%NULL%0,   Manli%Miao%NULL%0,   Jing%Xu%NULL%0,   Minglong%Guan%NULL%0,   Xia%Deng%NULL%0,   Xu%Chen%NULL%0,   Leilei%Shen%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,   Chunli%Tang%NULL%1,   Ruchong%Chen%NULL%1,   Honglian%Ruan%NULL%1,   Wenhua%Liang%NULL%2,   Weijie%Guan%NULL%2,   Ling%Sang%NULL%0,   Ruidi%Tang%NULL%1,   Nanshan%Zhong%NULL%3,   Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,   Shanyan%Zhang%NULL%0,   Xiaoli%Zhang%NULL%2,   Huan%Cai%NULL%0,   Jueqing%Gu%NULL%0,   Jiangshan%Lian%NULL%0,   Yingfeng%Lu%NULL%0,   Hongyu%Jia%NULL%0,   Jianhua%Hu%NULL%0,   Ciliang%Jin%NULL%0,   Guodong%Yu%NULL%0,   Yimin%Zhang%NULL%0,   Jifang%Sheng%NULL%0,   Yida%Yang%yidayang65@zju.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,   Dan%Xu%NULL%0,   Shouzhi%Fu%NULL%0,   Jun%Zhang%NULL%1,   Xiaobo%Yang%NULL%0,   Liang%Xu%NULL%1,   Jiqian%Xu%NULL%0,   Yongran%Wu%NULL%0,   Chaolin%Huang%NULL%1,   Yaqi%Ouyang%NULL%0,   Luyu%Yang%NULL%0,   Minghao%Fang%NULL%0,   Hongwen%Xiao%NULL%1,   Jing%Ma%NULL%0,   Wei%Zhu%NULL%1,   Song%Hu%NULL%1,   Quan%Hu%NULL%1,   Daoyin%Ding%NULL%1,   Ming%Hu%NULL%0,   Guochao%Zhu%NULL%0,   Weijiang%Xu%NULL%1,   Jun%Guo%NULL%1,   Jinglong%Xu%NULL%1,   Haitao%Yuan%NULL%1,   Bin%Zhang%NULL%2,   Zhui%Yu%yuzhui@whu.edu.cn%0,   Dechang%Chen%icudechangchen@163.com%1,   Shiying%Yuan%yuan_shiying@163.com%0,   You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,   Hao-Yu%Gao%NULL%1,   Zi-Yi%Feng%NULL%1,   Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,   Li-jun%Sun%NULL%1,   Mi%Xu%NULL%1,   Jian%Pan%NULL%1,   Yun-tao%Zhang%NULL%1,   Xue-ling%Fang%NULL%1,   Qiang%Fang%NULL%2,   Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,   Ziqiang%Du%NULL%1,   Yanfang%Zhu%NULL%1,   Wenfeng%Li%NULL%1,   Hongjun%Miao%NULL%1,   Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,   Sarah%Al-Youha%sarahalyouha@gmail.com%0,   Mohammad H.%Jamal%NULL%0,   Mohannad%Al-Haddad%NULL%0,   Ali%Al-Muhaini%NULL%0,   Fahad%Al-Ghimlas%NULL%0,   Salman%Al-Sabah%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,   Mina%Akbari Rad%NULL%1,   Robert%Bergquist%NULL%1,   Abolghasem%Allahyari%NULL%1,   Kamila%Hashemzadeh%NULL%1,   Nasrin%Milani%NULL%1,   Mahdi%Gholian-Aval%NULL%1,   Fariba%Rezaeitalab%NULL%1,   Mohammad Jafar%Sadeghi Quchani%NULL%1,   Zahra%Nahbandani%NULL%1,   Mandana%Khodashahi%NULL%1,   Zahra%Javid%NULL%1,   Mahnaz%Mozdourian%NULL%1,   Mohammad Ali%Yaghoubi%NULL%1,   Zahra%Mozaheb%NULL%1,   Mohsen%Seddigh-Shamsi%NULL%1,   Mohammad%Moeini Nodeh%NULL%1,   Shima%Nabavi%NULL%1,   Hooman%Mosannen Mozaffari%NULL%1,   Mohammadreza%Farzanehfar%NULL%1,   Zahra%Lotfi%NULL%0,   Alireza%Shariati%NULL%1,   Shekoofe%Bonakdaran%NULL%1,   Zahra%Rezaieyazdi%NULL%1,   Zahra%Mirfeizi%NULL%1,   Maryam%Miri%NULL%1,   Reza%Bassiri%NULL%1,   Sajjad%Ataei Azimi%NULL%1,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,   Ibrahim%Al-Zakwani%NULL%1,   Hamed%Al Naamani%NULL%1,   Sultan%Al Lawati%NULL%1,   Nenad%Pandak%NULL%1,   Muna Ba%Omar%NULL%1,   Maher%Al Bahrani%NULL%1,   Zakaryia AL%Bulushi%NULL%1,   Huda%Al Khalili%NULL%1,   Issa%Al Salmi%NULL%1,   Ruwaida%Al Ismaili%NULL%1,   Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,   Zohre%Khodamoradi%NULL%1,   Amirhossein%Erfani%NULL%1,   Hamidreza%Hosseinpour%NULL%1,   Keivan%Ranjbar%NULL%1,   Yasaman%Emami%NULL%1,   Alireza%Mirahmadizadeh%NULL%1,   Mehrzad%Lotfi%NULL%1,   Babak%Shirazi Yeganeh%NULL%1,   Abolfazl%Dorrani Nejad%NULL%1,   Abdolrasool%Hemmati%NULL%1,   Mostafa%Ebrahimi%NULL%1,   Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,   Annachiara%Ferrari%NULL%2,   Annachiara%Ferrari%NULL%0,   Francesco%Fontana%NULL%1,   Giacomo%Mori%NULL%1,   Riccardo%Magistroni%NULL%1,   Marianna%Meschiari%NULL%1,   Erica%Franceschini%NULL%1,   Marianna%Menozzi%NULL%1,   Gianluca%Cuomo%NULL%1,   Gabriella%Orlando%NULL%1,   Antonella%Santoro%NULL%1,   Margherita%Digaetano%NULL%1,   Cinzia%Puzzolante%NULL%1,   Federica%Carli%NULL%1,   Andrea%Bedini%NULL%1,   Jovana%Milic%NULL%1,   Irene%Coloretti%NULL%1,   Paolo%Raggi%NULL%1,   Cristina%Mussini%NULL%1,   Massimo%Girardis%NULL%1,   Gianni%Cappelli%NULL%1,   Giovanni%Guaraldi%NULL%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,   Silvia%Bettini%NULL%2,   Silvia%Bettini%NULL%0,   Roberto%Fabris%NULL%1,   Roberto%Serra%NULL%2,   Chiara%Dal Pra%NULL%1,   Pietro%Maffei%NULL%1,   Marco%Rossato%NULL%1,   Paola%Fioretto%NULL%1,   Roberto%Vettor%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,   Marco%Roncador%NULL%2,   Marco%Roncador%NULL%0,   Andrea%Saporito%NULL%1,   Maira%Biggiogero%NULL%1,   Andrea%Glotta%NULL%1,   Pier Andrea%Maida%NULL%1,   Patrizia%Urso%NULL%1,   Giovanni%Bona%NULL%1,   Christian%Garzoni%NULL%1,   Romano%Mauri%NULL%2,   Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,   Anna Lisa%Ridolfo%NULL%4,   Laura%Milazzo%NULL%2,   Letizia%Oreni%NULL%4,   Dario%Bernacchia%NULL%4,   Matteo%Siano%NULL%4,   Cecilia%Bonazzetti%NULL%2,   Alice%Covizzi%NULL%2,   Marco%Schiuma%NULL%2,   Matteo%Passerini%NULL%2,   Marco%Piscaglia%NULL%2,   Massimo%Coen%NULL%2,   Guido%Gubertini%NULL%2,   Giuliano%Rizzardini%NULL%4,   Chiara%Cogliati%NULL%3,   Anna Maria%Brambilla%NULL%2,   Riccardo%Colombo%NULL%3,   Antonio%Castelli%NULL%2,   Roberto%Rech%NULL%2,   Agostino%Riva%NULL%2,   Alessandro%Torre%NULL%2,   Luca%Meroni%NULL%2,   Stefano%Rusconi%NULL%4,   Spinello%Antinori%NULL%4,   Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%5,  Cabrini%Luca%coreGivesNoEmail%2,  Castelli%Antonio%coreGivesNoEmail%2,  Cecconi%Maurizio%coreGivesNoEmail%2,  Cereda%Danilo%coreGivesNoEmail%2,  Coluccello%Antonio%coreGivesNoEmail%2,  Foti%Giuseppe%coreGivesNoEmail%2,  Fumagalli%Roberto%coreGivesNoEmail%2,  Grasselli%Giacomo%coreGivesNoEmail%2,  Iotti%Giorgio%coreGivesNoEmail%2,  Latronico%Nicola%coreGivesNoEmail%2,  Lorini%Luca%coreGivesNoEmail%2,  Merler%Stefano%coreGivesNoEmail%2,  Natalini%Giuseppe%coreGivesNoEmail%2,  Pesenti%Antonio%coreGivesNoEmail%2,  Piatti%Alessandra%coreGivesNoEmail%2,  Ranieri%Marco Vito%coreGivesNoEmail%2,  Scandroglio%Anna Mara%coreGivesNoEmail%2,  Storti%Enrico%coreGivesNoEmail%2,  Zanella%Alberto%coreGivesNoEmail%2,  Zangrillo%Alberto%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,   Lara%Gianesello%gianesello.lara@libero.it%1,   Maddalena%Pazzi%NULL%2,   Maddalena%Pazzi%NULL%0,   Caterina%Stera%NULL%1,   Tommaso%Meconi%NULL%1,   Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,   Andrea%Dalbeni%NULL%2,   Andrea%Dalbeni%NULL%0,   Elia%Vettore%NULL%2,   Elia%Vettore%NULL%0,   Devis%Benfaremo%NULL%1,   Massimo%Mattioli%NULL%1,   Carmine G.%Gambino%NULL%1,   Viviana%Framba%NULL%2,   Viviana%Framba%NULL%0,   Lorenzo%Cerruti%NULL%1,   Anna%Mantovani%NULL%1,   Andrea%Martini%NULL%1,   Michele M.%Luchetti%NULL%1,   Roberto%Serra%NULL%0,   Annamaria%Cattelan%NULL%1,   Roberto%Vettor%NULL%0,   Paolo%Angeli%NULL%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,   Matthaios%Papadimitriou-Olivgeris%NULL%2,   Matthaios%Papadimitriou-Olivgeris%NULL%0,   Raphaël%Burger%NULL%1,   Marie-Annick%Le Pogam%NULL%1,   Tapio%Niemi%NULL%2,   Tapio%Niemi%NULL%0,   Paraskevas%Filippidis%NULL%1,   Jonathan%Tschopp%NULL%1,   Florian%Desgranges%NULL%1,   Benjamin%Viala%NULL%1,   Eleftheria%Kampouri%NULL%1,   Laurence%Rochat%NULL%2,   Laurence%Rochat%NULL%0,   David%Haefliger%NULL%1,   Mehdi%Belkoniene%NULL%1,   Carlos%Fidalgo%NULL%1,   Antonios%Kritikos%NULL%1,   Katia%Jaton%NULL%1,   Laurence%Senn%NULL%1,   Pierre-Alexandre%Bart%NULL%1,   Jean-Luc%Pagani%NULL%2,   Jean-Luc%Pagani%NULL%0,   Oriol%Manuel%NULL%1,   Loïc%Lhopitallier%NULL%1,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,   Ashwin%Subramaniam%NULL%2,   Ashwin%Subramaniam%NULL%0,   Mallikarjuna%Ponnapa Reddy%NULL%2,   Mallikarjuna%Ponnapa Reddy%NULL%0,   Gabriel%Blecher%NULL%1,   Umesh%Kadam%NULL%2,   Umesh%Kadam%NULL%0,   Afsana%Afroz%NULL%1,   Baki%Billah%NULL%1,   Sushma%Ashwin%NULL%1,   Mark%Kubicki%NULL%1,   Federico%Bilotta%NULL%1,   J. Randall%Curtis%NULL%2,   J. Randall%Curtis%NULL%0,   Francesca%Rubulotta%NULL%2,   Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,  Aggarwal%Saurabh%coreGivesNoEmail%2,  Garcia-Telles%Nelson%coreGivesNoEmail%2,  Henry%Brandon Michael%coreGivesNoEmail%2,  Lavie%Carl%coreGivesNoEmail%2,  Lippi%Giuseppe%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,   Samuel L%Bruce%NULL%0,   Cody L%Slater%NULL%0,   Jonathan R%Tiao%NULL%0,   Matthew R%Baldwin%NULL%0,   R Graham%Barr%NULL%0,   Bernard P%Chang%NULL%0,   Katherine H%Chau%NULL%0,   Justin J%Choi%NULL%0,   Nicholas%Gavin%NULL%0,   Parag%Goyal%NULL%0,   Angela M%Mills%NULL%0,   Ashmi A%Patel%NULL%0,   Marie-Laure S%Romney%NULL%0,   Monika M%Safford%NULL%0,   Neil W%Schluger%NULL%0,   Soumitra%Sengupta%NULL%0,   Magdalena E%Sobieszczyk%NULL%0,   Jason E%Zucker%NULL%0,   Paul A%Asadourian%NULL%0,   Fletcher M%Bell%NULL%0,   Rebekah%Boyd%NULL%0,   Matthew F%Cohen%NULL%0,   MacAlistair I%Colquhoun%NULL%0,   Lucy A%Colville%NULL%0,   Joseph H%de Jonge%NULL%0,   Lyle B%Dershowitz%NULL%0,   Shirin A%Dey%NULL%0,   Katherine A%Eiseman%NULL%0,   Zachary P%Girvin%NULL%0,   Daniella T%Goni%NULL%0,   Amro A%Harb%NULL%0,   Nicholas%Herzik%NULL%0,   Sarah%Householder%NULL%0,   Lara E%Karaaslan%NULL%0,   Heather%Lee%NULL%0,   Evan%Lieberman%NULL%0,   Andrew%Ling%NULL%0,   Ree%Lu%NULL%0,   Arthur Y%Shou%NULL%0,   Alexander C%Sisti%NULL%0,   Zachary E%Snow%NULL%0,   Colin P%Sperring%NULL%0,   Yuqing%Xiong%NULL%0,   Henry W%Zhou%NULL%0,   Karthik%Natarajan%NULL%0,   George%Hripcsak%NULL%0,   Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%0,   Colleen%Kraft%NULL%0,   Jesse T.%Jacob%NULL%0,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%0,   Roberta%Kaplow%NULL%0,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%0,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,   Bijan J.%Ghassemieh%NULL%0,   Michelle%Nichols%NULL%0,   Richard%Kim%NULL%0,   Keith R.%Jerome%NULL%0,   Arun K.%Nalla%NULL%0,   Alexander L.%Greninger%NULL%0,   Sudhakar%Pipavath%NULL%0,   Mark M.%Wurfel%NULL%0,   Laura%Evans%NULL%0,   Patricia A.%Kritek%NULL%0,   T. Eoin%West%NULL%0,   Andrew%Luks%NULL%0,   Anthony%Gerbino%NULL%0,   Chris R.%Dale%NULL%0,   Jason D.%Goldman%NULL%0,   Shane%O’Mahony%NULL%0,   Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,   Denise J%McCulloch%NULL%0,   Denise J%McCulloch%NULL%0,   Vidya%Atluri%NULL%0,   Michela%Blain%NULL%0,   Sarah A%McGuffin%NULL%0,   Arun K%Nalla%NULL%0,   Meei-Li%Huang%NULL%0,   Alex L%Greninger%NULL%0,   Keith R%Jerome%NULL%0,   Seth A%Cohen%NULL%0,   Santiago%Neme%NULL%0,   Margaret L%Green%NULL%0,   Helen Y%Chu%NULL%0,   H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,   Joelle I.%Rosser%NULL%1,   Orlando%Quintero%NULL%1,   Jake%Scott%NULL%1,   Aruna%Subramanian%NULL%1,   Mohammad%Gumma%NULL%1,   Angela%Rogers%NULL%1,   Shanthi%Kappagoda%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,   Jacob%Fiksel%NULL%0,   Jacob%Fiksel%NULL%0,   John%Muschelli%NULL%0,   John%Muschelli%NULL%0,   Matthew L.%Robinson%NULL%0,   Matthew L.%Robinson%NULL%0,   Masoud%Rouhizadeh%NULL%0,   Masoud%Rouhizadeh%NULL%0,   Jamie%Perin%NULL%0,   Jamie%Perin%NULL%0,   Grant%Schumock%NULL%0,   Grant%Schumock%NULL%0,   Paul%Nagy%NULL%0,   Paul%Nagy%NULL%0,   Josh H.%Gray%NULL%0,   Josh H.%Gray%NULL%0,   Harsha%Malapati%NULL%0,   Harsha%Malapati%NULL%0,   Mariam%Ghobadi-Krueger%NULL%0,   Mariam%Ghobadi-Krueger%NULL%0,   Timothy M.%Niessen%NULL%0,   Bo Soo%Kim%NULL%0,   Peter M.%Hill%NULL%0,   M. Shafeeq%Ahmed%NULL%0,   Eric D.%Dobkin%NULL%0,   Renee%Blanding%NULL%0,   Jennifer%Abele%NULL%0,   Bonnie%Woods%NULL%0,   Kenneth%Harkness%NULL%0,   David R.%Thiemann%NULL%0,   Mary G.%Bowring%NULL%0,   Aalok B.%Shah%NULL%0,   Aalok B.%Shah%NULL%0,   Mei-Cheng%Wang%NULL%0,   Karen%Bandeen-Roche%NULL%0,   Antony%Rosen%NULL%0,   Scott L.%Zeger%NULL%0,   Scott L.%Zeger%NULL%0,   Amita%Gupta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,   Justin J.%Choi%NULL%0,   Laura C.%Pinheiro%NULL%0,   Edward J.%Schenck%NULL%0,   Ruijun%Chen%NULL%0,   Assem%Jabri%NULL%0,   Michael J.%Satlin%NULL%0,   Thomas R.%Campion%NULL%0,   Musarrat%Nahid%NULL%0,   Joanna B.%Ringel%NULL%0,   Katherine L.%Hoffman%NULL%0,   Mark N.%Alshak%NULL%0,   Han A.%Li%NULL%0,   Graham T.%Wehmeyer%NULL%0,   Graham T.%Wehmeyer%NULL%0,   Mangala%Rajan%NULL%0,   Evgeniya%Reshetnyak%NULL%0,   Nathaniel%Hupert%NULL%0,   Evelyn M.%Horn%NULL%0,   Fernando J.%Martinez%NULL%0,   Roy M.%Gulick%NULL%0,   Monika M.%Safford%NULL%0,   Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,   Simon A%Jones%NULL%0,   Jie%Yang%NULL%0,   Harish%Rajagopalan%NULL%0,   Luke%O’Donnell%NULL%0,   Yelena%Chernyak%NULL%0,   Katie A%Tobin%NULL%0,   Robert J%Cerfolio%NULL%0,   Fritz%Francois%NULL%0,   Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,   Anatoly%Mitrokhin%NULL%2,   Anatoly%Mitrokhin%NULL%0,   Ajai%Rajabalan%NULL%1,   Christian%Benjamin%NULL%1,   Sushma%Raviralla%NULL%1,   Vishnu R%Mani%vishnu.mani@duke.edu%2,   Vishnu R%Mani%vishnu.mani@duke.edu%0,   Aleksandr%Kalabin%NULL%2,   Aleksandr%Kalabin%NULL%0,   Sebastian C%Valdivieso%NULL%2,   Sebastian C%Valdivieso%NULL%0,   Max%Murray-Ramcharan%NULL%2,   Max%Murray-Ramcharan%NULL%0,   Brian%Donaldson%NULL%2,   Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%3,    Nicholas A.%Fergusson%null%1,    Elisa%Lloyd-Smith%null%1,    Andrew%Wormsbecker%null%1,    Denise%Foster%null%1,    Andrei%Karpov%null%1,    Sarah%Crowe%null%1,    Greg%Haljan%null%1,    Dean R.%Chittock%null%1,    Hussein D.%Kanji%null%1,    Mypinder S.%Sekhon%null%1,    Donald E.G.%Griesdale%null%1,  Anish R.%Mitra%null%0,  Nicholas A.%Fergusson%null%1,  Elisa%Lloyd-Smith%null%1,  Andrew%Wormsbecker%null%1,  Denise%Foster%null%1,  Andrei%Karpov%null%1,  Sarah%Crowe%null%1,  Greg%Haljan%null%1,  Dean R.%Chittock%null%1,  Hussein D.%Kanji%null%1,  Mypinder S.%Sekhon%null%1,  Donald E.G.%Griesdale%null%1]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,   Damianos G.%Kokkinidis%NULL%1,   Weijia%Li%NULL%1,   Dimitrios%Karamanis%NULL%1,   Jennifer%Ognibene%NULL%1,   Shitij%Arora%NULL%1,   William N.%Southern%NULL%1,   Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,   Jesus D.%Gonzalez-Lugo%NULL%1,   Shafia%Rahman%NULL%1,   Mohammad%Barouqa%NULL%1,   James%Szymanski%NULL%1,   Kenji%Ikemura%NULL%1,   Yungtai%Lo%NULL%1,   Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,  Becker%L.B.%coreGivesNoEmail%2,  Chelico%J.D.%coreGivesNoEmail%2,  Cohen%S.L.%coreGivesNoEmail%2,  Cookingham%J.%coreGivesNoEmail%2,  Coppa%K.%coreGivesNoEmail%2,  Crawford%J.M.%coreGivesNoEmail%2,  Davidson%K.W.%coreGivesNoEmail%2,  Diefenbach%M.A.%coreGivesNoEmail%2,  Dominello%A.J.%coreGivesNoEmail%2,  Duer-Hefele%J.%coreGivesNoEmail%2,  Falzon%L.%coreGivesNoEmail%2,  Gitlin%J.%coreGivesNoEmail%2,  Hajizadeh%N.%coreGivesNoEmail%2,  Harvin%T.G.%coreGivesNoEmail%2,  Hirsch%J.S.%coreGivesNoEmail%2,  Hirschwerk%D.A.%coreGivesNoEmail%2,  Kim%E.J.%coreGivesNoEmail%2,  Kozel%Z.M.%coreGivesNoEmail%2,  Marrast%L.M.%coreGivesNoEmail%2,  McGinn%T.%coreGivesNoEmail%2,  Mogavero%J.N.%coreGivesNoEmail%2,  Narasimhan%M.%coreGivesNoEmail%2,  Osorio%G.A.%coreGivesNoEmail%2,  Qiu%M.%coreGivesNoEmail%2,  Richardson%S.%coreGivesNoEmail%2,  Zanos%T.P.%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,   Viet-Thi%Tran%NULL%4,   Viet-Thi%Tran%NULL%0,   Mathilde%Roumier%NULL%2,   Amélie%Chabrol%NULL%2,   Romain%Paule%NULL%2,   Constance%Guillaud%NULL%2,   Elena%Fois%NULL%2,   Raphael%Lepeule%NULL%2,   Tali-Anne%Szwebel%NULL%2,   François-Xavier%Lescure%NULL%0,   Frédéric%Schlemmer%NULL%2,   Marie%Matignon%NULL%2,   Mehdi%Khellaf%NULL%2,   Etienne%Crickx%NULL%2,   Benjamin%Terrier%NULL%2,   Caroline%Morbieu%NULL%2,   Paul%Legendre%NULL%2,   Julien%Dang%NULL%2,   Yoland%Schoindre%NULL%2,   Jean-Michel%Pawlotsky%NULL%2,   Marc%Michel%NULL%2,   Elodie%Perrodeau%NULL%2,   Nicolas%Carlier%NULL%2,   Nicolas%Roche%NULL%2,   Victoire%de Lastours%NULL%2,   Clément%Ourghanlian%NULL%2,   Solen%Kerneis%NULL%2,   Philippe%Ménager%NULL%2,   Luc%Mouthon%NULL%2,   Etienne%Audureau%NULL%2,   Philippe%Ravaud%NULL%2,   Bertrand%Godeau%NULL%2,   Sébastien%Gallien%NULL%2,   Nathalie%Costedoat-Chalumeau%NULL%2]</t>
   </si>
   <si>
     <t>Neutrophil calprotectin identifies severe pulmonary disease in COVID-19</t>
@@ -1792,72 +1379,652 @@
  In summary, serum calprotectin levels track closely with current and future COVID-19 severity, implicating neutrophils as potential perpetuators of inflammation and respiratory compromise in COVID-19.</t>
   </si>
   <si>
-    <t>[Hui%Shi%NULL%1, Yu%Zuo%NULL%1, Srilakshmi%Yalavarthi%NULL%1, Kelsey%Gockman%NULL%1, Melanie%Zuo%NULL%1, Jacqueline A%Madison%NULL%1, Christopher%Blair%NULL%1, Wrenn%Woodward%NULL%1, Sean P%Lezak%NULL%1, Njira L%Lugogo%NULL%1, Robert J%Woods%NULL%1, Christian%Lood%NULL%1, Jason S%Knight%NULL%2, Jason S%Knight%NULL%0, Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7902293</t>
   </si>
   <si>
     <t>2020-07-30</t>
   </si>
   <si>
-    <t>[Geehan%Suleyman%NULL%1,   Raef A.%Fadel%NULL%1,   Kelly M.%Malette%NULL%1,   Charles%Hammond%NULL%1,   Hafsa%Abdulla%NULL%1,   Abigail%Entz%NULL%1,   Zachary%Demertzis%NULL%1,   Zachary%Hanna%NULL%1,   Andrew%Failla%NULL%1,   Carina%Dagher%NULL%1,   Zohra%Chaudhry%NULL%0,   Amit%Vahia%NULL%0,   Odaliz%Abreu Lanfranco%NULL%1,   Mayur%Ramesh%NULL%1,   Marcus J.%Zervos%NULL%0,   George%Alangaden%NULL%0,   Joseph%Miller%NULL%0,   Indira%Brar%NULL%0]</t>
+    <t>[ C.%Chen%null%1,     J.% Jiang%null%1,     X.% Xu%null%1,     Y.% Hu%null%2,     Y.% Hu%null%0,     Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,    Chenchen%Qian%NULL%1,    Zhibing%Luo%NULL%1,    Qiang%Li%liqressh@hotmail.com%0,    Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,    Chunlin%Cai%NULL%1,    Jinglei%Zang%NULL%1,    Jun%Xie%NULL%1,    Dan%Xu%NULL%0,    Fang%Zheng%NULL%0,    Tao%Zhan%NULL%1,    Kang%Huang%NULL%1,    Yikai%Wang%NULL%1,    Xiao%Wang%NULL%0,    Zhe-Yu%Hu%NULL%1,    Yapeng%Deng%NULL%1,    Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,    Naofumi%Bunya%NULL%1,    Tomoyuki%Endo%NULL%1,    Yuji%Fujino%NULL%1,    Kensuke%Fujita%NULL%1,    Kenji%Fujizuka%NULL%1,    Yoshihiro%Hagiwara%NULL%1,    Jun%Hamaguchi%NULL%1,    Yoshitaka%Hara%NULL%1,    Eiji%Hashiba%NULL%1,    Satoru%Hashimoto%NULL%1,    Noriyuki%Hattori%NULL%1,    Kota%Hoshino%NULL%1,    Shinichi%Ijuin%NULL%1,    Takanari%Ikeyama%NULL%1,    Shingo%Ichiba%NULL%1,    Wataru%Iwanaga%NULL%1,    Yoshiaki%Iwashita%NULL%1,    Masafumi%Kanamoto%NULL%1,    Hitoshi%Kaneko%NULL%1,    Kaneyuki%Kawamae%NULL%1,    Toru%Kotani%NULL%1,    Yasuaki%Koyama%NULL%1,    Keibun%Liu%NULL%1,    Tomohiko%Masuno%NULL%1,    Naoto%Morimura%NULL%1,    Tomoyuki%Nakamura%NULL%1,    Masaki%Nakane%NULL%1,    Michitaka%Nasu%NULL%1,    Osamu%Nishida%NULL%1,    Masaji%Nishimura%NULL%1,    Kanae%Ochiai%NULL%1,    Takayuki%Ogura%NULL%1,    Shinichiro%Ohshimo%NULL%1,    Keisuke%Oyama%NULL%1,    Junichi%Sasaki%NULL%1,    Ryutaro%Seo%NULL%1,    Takeshi%Shimazu%NULL%1,    Nobuaki%Shime%NULL%4,    Keiki%Shimizu%NULL%1,    Hiroyuki%Suzuki%NULL%1,    Shuhei%Takauji%NULL%1,    Shinhiro%Takeda%NULL%1,    Ichiro%Takeuchi%NULL%1,    Mumon%Takita%NULL%1,    Hayato%Taniguchi%NULL%1,    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,    Yi Xin%Tong%NULL%3,    Sheng%Zhang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,    Hong%Chen%NULL%0,    Zhen%Li%NULL%2,    Bo%Wang%NULL%0,    Zhong-Wei%Zhang%NULL%1,    Wei-Min%Li%NULL%0,    Zong-An%Liang%NULL%0,    Jin%Tang%NULL%1,    Jian%Wang%NULL%2,    Rui%Shi%NULL%1,    Xiao-Dong%Jin%NULL%1,    Yan%Kang%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,     S. F.% Mahmood%null%1,     K.% Habib%null%1,     I.% Khanum%null%1,     B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,    Chaisith%Sivakorn%NULL%1,    Tanuwong%Viarasilpa%NULL%1,    Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,    Mu%Qin%qinmuae@163.com%0,    Yuli%Cai%NULL%0,    Tao%Liu%NULL%0,    Bo%Shen%NULL%0,    Fan%Yang%NULL%0,    Sheng%Cao%NULL%0,    Xu%Liu%NULL%0,    Xu%Liu%NULL%0,    Yaozu%Xiang%NULL%0,    Qinyan%Zhao%NULL%0,    He%Huang%huanghe1977@whu.edu.cn%0,    Bo%Yang%yybb112@whu.edu.cn%0,    Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,    Win%Kulvichit%NULL%1,    Sunchai%Payungporn%NULL%1,    Trairak%Pisitkun%NULL%1,    Ariya%Chindamporn%NULL%1,    Sadudee%Peerapornratana%NULL%1,    Prapaporn%Pisitkun%NULL%1,    Suwalak%Chitcharoen%NULL%1,    Vorthon%Sawaswong%NULL%1,    Navaporn%Worasilchai%NULL%1,    Sarinya%Kampunya%NULL%1,    Opass%Putcharoen%NULL%1,    Thammasak%Thawitsri%NULL%1,    Nophol%Leelayuwatanakul%NULL%1,    Napplika%Kongpolprom%NULL%1,    Vorakamol%Phoophiboon%NULL%1,    Thitiwat%Sriprasart%NULL%1,    Rujipat%Samransamruajkit%NULL%1,    Somkanya%Tungsanga%NULL%1,    Kanitha%Tiankanon%NULL%1,    Nuttha%Lumlertgul%NULL%1,    Asada%Leelahavanichkul%NULL%1,    Tueboon%Sriphojanart%NULL%1,    Terapong%Tantawichien%NULL%1,    Usa%Thisyakorn%NULL%1,    Chintana%Chirathaworn%NULL%1,    Kearkiat%Praditpornsilpa%NULL%1,    Kriang%Tungsanga%NULL%1,    Somchai%Eiam-Ong%NULL%1,    Visith%Sitprija%NULL%1,    John A.%Kellum%NULL%1,    Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,    Min%Pan%NULL%2,    Xiumei%Zhang%NULL%2,    Mingfeng%Han%fyhmf@163.com%0,    Xiaoyun%Fan%13956988552@126.com%2,    Fengde%Zhao%NULL%2,    Manli%Miao%NULL%2,    Jing%Xu%NULL%0,    Minglong%Guan%NULL%2,    Xia%Deng%NULL%2,    Xu%Chen%NULL%3,    Leilei%Shen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,    Chunli%Tang%NULL%0,    Ruchong%Chen%NULL%1,    Honglian%Ruan%NULL%1,    Wenhua%Liang%NULL%0,    Weijie%Guan%NULL%0,    Ling%Sang%NULL%0,    Ruidi%Tang%NULL%1,    Nanshan%Zhong%NULL%0,    Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,    Shanyan%Zhang%NULL%2,    Xiaoli%Zhang%NULL%0,    Huan%Cai%NULL%2,    Jueqing%Gu%NULL%2,    Jiangshan%Lian%NULL%2,    Yingfeng%Lu%NULL%2,    Hongyu%Jia%NULL%2,    Jianhua%Hu%NULL%2,    Ciliang%Jin%NULL%2,    Guodong%Yu%NULL%2,    Yimin%Zhang%NULL%2,    Jifang%Sheng%NULL%4,    Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,    Hao-Yu%Gao%NULL%1,    Zi-Yi%Feng%NULL%1,    Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,    Li-jun%Sun%NULL%1,    Mi%Xu%NULL%1,    Jian%Pan%NULL%1,    Yun-tao%Zhang%NULL%1,    Xue-ling%Fang%NULL%1,    Qiang%Fang%NULL%2,    Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,    Ziqiang%Du%NULL%1,    Yanfang%Zhu%NULL%1,    Wenfeng%Li%NULL%1,    Hongjun%Miao%NULL%1,    Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,    Sarah%Al-Youha%sarahalyouha@gmail.com%0,    Mohammad H.%Jamal%NULL%0,    Mohannad%Al-Haddad%NULL%0,    Ali%Al-Muhaini%NULL%0,    Fahad%Al-Ghimlas%NULL%0,    Salman%Al-Sabah%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,    Mina%Akbari Rad%NULL%1,    Robert%Bergquist%NULL%1,    Abolghasem%Allahyari%NULL%1,    Kamila%Hashemzadeh%NULL%1,    Nasrin%Milani%NULL%1,    Mahdi%Gholian-Aval%NULL%1,    Fariba%Rezaeitalab%NULL%1,    Mohammad Jafar%Sadeghi Quchani%NULL%1,    Zahra%Nahbandani%NULL%1,    Mandana%Khodashahi%NULL%1,    Zahra%Javid%NULL%1,    Mahnaz%Mozdourian%NULL%1,    Mohammad Ali%Yaghoubi%NULL%1,    Zahra%Mozaheb%NULL%1,    Mohsen%Seddigh-Shamsi%NULL%1,    Mohammad%Moeini Nodeh%NULL%1,    Shima%Nabavi%NULL%1,    Hooman%Mosannen Mozaffari%NULL%1,    Mohammadreza%Farzanehfar%NULL%1,    Zahra%Lotfi%NULL%1,    Alireza%Shariati%NULL%1,    Shekoofe%Bonakdaran%NULL%1,    Zahra%Rezaieyazdi%NULL%1,    Zahra%Mirfeizi%NULL%1,    Maryam%Miri%NULL%1,    Reza%Bassiri%NULL%1,    Sajjad%Ataei Azimi%NULL%1,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,    Ibrahim%Al-Zakwani%NULL%1,    Hamed%Al Naamani%NULL%1,    Sultan%Al Lawati%NULL%1,    Nenad%Pandak%NULL%1,    Muna Ba%Omar%NULL%1,    Maher%Al Bahrani%NULL%1,    Zakaryia AL%Bulushi%NULL%1,    Huda%Al Khalili%NULL%1,    Issa%Al Salmi%NULL%1,    Ruwaida%Al Ismaili%NULL%1,    Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,    Zohre%Khodamoradi%NULL%1,    Amirhossein%Erfani%NULL%1,    Hamidreza%Hosseinpour%NULL%1,    Keivan%Ranjbar%NULL%1,    Yasaman%Emami%NULL%1,    Alireza%Mirahmadizadeh%NULL%1,    Mehrzad%Lotfi%NULL%1,    Babak%Shirazi Yeganeh%NULL%1,    Abolfazl%Dorrani Nejad%NULL%1,    Abdolrasool%Hemmati%NULL%1,    Mostafa%Ebrahimi%NULL%1,    Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,    Annachiara%Ferrari%NULL%2,    Annachiara%Ferrari%NULL%0,    Francesco%Fontana%NULL%1,    Giacomo%Mori%NULL%1,    Riccardo%Magistroni%NULL%1,    Marianna%Meschiari%NULL%1,    Erica%Franceschini%NULL%1,    Marianna%Menozzi%NULL%1,    Gianluca%Cuomo%NULL%1,    Gabriella%Orlando%NULL%1,    Antonella%Santoro%NULL%1,    Margherita%Digaetano%NULL%1,    Cinzia%Puzzolante%NULL%1,    Federica%Carli%NULL%1,    Andrea%Bedini%NULL%1,    Jovana%Milic%NULL%1,    Irene%Coloretti%NULL%1,    Paolo%Raggi%NULL%1,    Cristina%Mussini%NULL%1,    Massimo%Girardis%NULL%1,    Gianni%Cappelli%NULL%1,    Giovanni%Guaraldi%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,    Silvia%Bettini%NULL%2,    Silvia%Bettini%NULL%0,    Roberto%Fabris%NULL%1,    Roberto%Serra%NULL%2,    Chiara%Dal Pra%NULL%1,    Pietro%Maffei%NULL%1,    Marco%Rossato%NULL%1,    Paola%Fioretto%NULL%0,    Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,    Marco%Roncador%NULL%2,    Marco%Roncador%NULL%0,    Andrea%Saporito%NULL%1,    Maira%Biggiogero%NULL%1,    Andrea%Glotta%NULL%1,    Pier Andrea%Maida%NULL%1,    Patrizia%Urso%NULL%1,    Giovanni%Bona%NULL%1,    Christian%Garzoni%NULL%1,    Romano%Mauri%NULL%0,    Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,    Anna Lisa%Ridolfo%NULL%4,    Laura%Milazzo%NULL%2,    Letizia%Oreni%NULL%4,    Dario%Bernacchia%NULL%4,    Matteo%Siano%NULL%4,    Cecilia%Bonazzetti%NULL%2,    Alice%Covizzi%NULL%2,    Marco%Schiuma%NULL%2,    Matteo%Passerini%NULL%2,    Marco%Piscaglia%NULL%2,    Massimo%Coen%NULL%2,    Guido%Gubertini%NULL%2,    Giuliano%Rizzardini%NULL%4,    Chiara%Cogliati%NULL%0,    Anna Maria%Brambilla%NULL%2,    Riccardo%Colombo%NULL%0,    Antonio%Castelli%NULL%2,    Roberto%Rech%NULL%2,    Agostino%Riva%NULL%2,    Alessandro%Torre%NULL%2,    Luca%Meroni%NULL%2,    Stefano%Rusconi%NULL%4,    Spinello%Antinori%NULL%4,    Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%7,   Cabrini%Luca%coreGivesNoEmail%2,   Castelli%Antonio%coreGivesNoEmail%2,   Cecconi%Maurizio%coreGivesNoEmail%2,   Cereda%Danilo%coreGivesNoEmail%2,   Coluccello%Antonio%coreGivesNoEmail%2,   Foti%Giuseppe%coreGivesNoEmail%2,   Fumagalli%Roberto%coreGivesNoEmail%2,   Grasselli%Giacomo%coreGivesNoEmail%2,   Iotti%Giorgio%coreGivesNoEmail%2,   Latronico%Nicola%coreGivesNoEmail%2,   Lorini%Luca%coreGivesNoEmail%2,   Merler%Stefano%coreGivesNoEmail%2,   Natalini%Giuseppe%coreGivesNoEmail%2,   Pesenti%Antonio%coreGivesNoEmail%2,   Piatti%Alessandra%coreGivesNoEmail%2,   Ranieri%Marco Vito%coreGivesNoEmail%2,   Scandroglio%Anna Mara%coreGivesNoEmail%2,   Storti%Enrico%coreGivesNoEmail%2,   Zanella%Alberto%coreGivesNoEmail%2,   Zangrillo%Alberto%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,    Lara%Gianesello%gianesello.lara@libero.it%1,    Maddalena%Pazzi%NULL%2,    Maddalena%Pazzi%NULL%0,    Caterina%Stera%NULL%1,    Tommaso%Meconi%NULL%1,    Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,    Andrea%Dalbeni%NULL%2,    Andrea%Dalbeni%NULL%0,    Elia%Vettore%NULL%2,    Elia%Vettore%NULL%0,    Devis%Benfaremo%NULL%1,    Massimo%Mattioli%NULL%1,    Carmine G.%Gambino%NULL%1,    Viviana%Framba%NULL%2,    Viviana%Framba%NULL%0,    Lorenzo%Cerruti%NULL%1,    Anna%Mantovani%NULL%1,    Andrea%Martini%NULL%1,    Michele M.%Luchetti%NULL%1,    Roberto%Serra%NULL%0,    Annamaria%Cattelan%NULL%1,    Roberto%Vettor%NULL%0,    Paolo%Angeli%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,    Matthaios%Papadimitriou-Olivgeris%NULL%2,    Matthaios%Papadimitriou-Olivgeris%NULL%0,    Raphaël%Burger%NULL%1,    Marie-Annick%Le Pogam%NULL%1,    Tapio%Niemi%NULL%2,    Tapio%Niemi%NULL%0,    Paraskevas%Filippidis%NULL%1,    Jonathan%Tschopp%NULL%1,    Florian%Desgranges%NULL%1,    Benjamin%Viala%NULL%1,    Eleftheria%Kampouri%NULL%1,    Laurence%Rochat%NULL%2,    Laurence%Rochat%NULL%0,    David%Haefliger%NULL%1,    Mehdi%Belkoniene%NULL%1,    Carlos%Fidalgo%NULL%1,    Antonios%Kritikos%NULL%1,    Katia%Jaton%NULL%1,    Laurence%Senn%NULL%1,    Pierre-Alexandre%Bart%NULL%1,    Jean-Luc%Pagani%NULL%2,    Jean-Luc%Pagani%NULL%0,    Oriol%Manuel%NULL%1,    Loïc%Lhopitallier%NULL%1,    Chiara%Lazzeri%NULL%2,    Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,    Ashwin%Subramaniam%NULL%2,    Ashwin%Subramaniam%NULL%0,    Mallikarjuna%Ponnapa Reddy%NULL%2,    Mallikarjuna%Ponnapa Reddy%NULL%0,    Gabriel%Blecher%NULL%1,    Umesh%Kadam%NULL%2,    Umesh%Kadam%NULL%0,    Afsana%Afroz%NULL%1,    Baki%Billah%NULL%1,    Sushma%Ashwin%NULL%1,    Mark%Kubicki%NULL%1,    Federico%Bilotta%NULL%1,    J. Randall%Curtis%NULL%2,    J. Randall%Curtis%NULL%0,    Francesca%Rubulotta%NULL%2,    Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,   Aggarwal%Saurabh%coreGivesNoEmail%2,   Garcia-Telles%Nelson%coreGivesNoEmail%2,   Henry%Brandon Michael%coreGivesNoEmail%2,   Lavie%Carl%coreGivesNoEmail%2,   Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,    Samuel L%Bruce%NULL%0,    Cody L%Slater%NULL%0,    Jonathan R%Tiao%NULL%0,    Matthew R%Baldwin%NULL%0,    R Graham%Barr%NULL%0,    Bernard P%Chang%NULL%0,    Katherine H%Chau%NULL%0,    Justin J%Choi%NULL%0,    Nicholas%Gavin%NULL%0,    Parag%Goyal%NULL%0,    Angela M%Mills%NULL%0,    Ashmi A%Patel%NULL%0,    Marie-Laure S%Romney%NULL%0,    Monika M%Safford%NULL%0,    Neil W%Schluger%NULL%0,    Soumitra%Sengupta%NULL%0,    Magdalena E%Sobieszczyk%NULL%0,    Jason E%Zucker%NULL%0,    Paul A%Asadourian%NULL%0,    Fletcher M%Bell%NULL%0,    Rebekah%Boyd%NULL%0,    Matthew F%Cohen%NULL%0,    MacAlistair I%Colquhoun%NULL%0,    Lucy A%Colville%NULL%0,    Joseph H%de Jonge%NULL%0,    Lyle B%Dershowitz%NULL%0,    Shirin A%Dey%NULL%0,    Katherine A%Eiseman%NULL%0,    Zachary P%Girvin%NULL%0,    Daniella T%Goni%NULL%0,    Amro A%Harb%NULL%0,    Nicholas%Herzik%NULL%0,    Sarah%Householder%NULL%0,    Lara E%Karaaslan%NULL%0,    Heather%Lee%NULL%0,    Evan%Lieberman%NULL%0,    Andrew%Ling%NULL%0,    Ree%Lu%NULL%0,    Arthur Y%Shou%NULL%0,    Alexander C%Sisti%NULL%0,    Zachary E%Snow%NULL%0,    Colin P%Sperring%NULL%0,    Yuqing%Xiong%NULL%0,    Henry W%Zhou%NULL%0,    Karthik%Natarajan%NULL%0,    George%Hripcsak%NULL%0,    Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,    Mark%Caridi-Scheible%NULL%0,    James M.%Blum%NULL%0,    Chad%Robichaux%NULL%0,    Colleen%Kraft%NULL%0,    Jesse T.%Jacob%NULL%0,    Craig S.%Jabaley%NULL%0,    David%Carpenter%NULL%0,    Roberta%Kaplow%NULL%0,    Alfonso C.%Hernandez-Romieu%NULL%0,    Max W.%Adelman%NULL%0,    Greg S.%Martin%NULL%0,    Craig M.%Coopersmith%NULL%0,    David J.%Murphy%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,    Bijan J.%Ghassemieh%NULL%0,    Michelle%Nichols%NULL%0,    Richard%Kim%NULL%0,    Keith R.%Jerome%NULL%0,    Arun K.%Nalla%NULL%0,    Alexander L.%Greninger%NULL%0,    Sudhakar%Pipavath%NULL%0,    Mark M.%Wurfel%NULL%0,    Laura%Evans%NULL%0,    Patricia A.%Kritek%NULL%0,    T. Eoin%West%NULL%0,    Andrew%Luks%NULL%0,    Anthony%Gerbino%NULL%0,    Chris R.%Dale%NULL%0,    Jason D.%Goldman%NULL%0,    Shane%O’Mahony%NULL%0,    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,    Denise J%McCulloch%NULL%0,    Denise J%McCulloch%NULL%0,    Vidya%Atluri%NULL%0,    Michela%Blain%NULL%0,    Sarah A%McGuffin%NULL%0,    Arun K%Nalla%NULL%0,    Meei-Li%Huang%NULL%0,    Alex L%Greninger%NULL%0,    Keith R%Jerome%NULL%0,    Seth A%Cohen%NULL%0,    Santiago%Neme%NULL%0,    Margaret L%Green%NULL%0,    Helen Y%Chu%NULL%0,    H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,    Joelle I.%Rosser%NULL%0,    Orlando%Quintero%NULL%0,    Jake%Scott%NULL%0,    Aruna%Subramanian%NULL%0,    Mohammad%Gumma%NULL%0,    Angela%Rogers%NULL%0,    Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,    Jacob%Fiksel%NULL%2,    Jacob%Fiksel%NULL%0,    John%Muschelli%NULL%2,    John%Muschelli%NULL%0,    Matthew L.%Robinson%NULL%2,    Matthew L.%Robinson%NULL%0,    Masoud%Rouhizadeh%NULL%2,    Masoud%Rouhizadeh%NULL%0,    Jamie%Perin%NULL%2,    Jamie%Perin%NULL%0,    Grant%Schumock%NULL%2,    Grant%Schumock%NULL%0,    Paul%Nagy%NULL%2,    Paul%Nagy%NULL%0,    Josh H.%Gray%NULL%2,    Josh H.%Gray%NULL%0,    Harsha%Malapati%NULL%2,    Harsha%Malapati%NULL%0,    Mariam%Ghobadi-Krueger%NULL%2,    Mariam%Ghobadi-Krueger%NULL%0,    Timothy M.%Niessen%NULL%1,    Bo Soo%Kim%NULL%1,    Peter M.%Hill%NULL%1,    M. Shafeeq%Ahmed%NULL%1,    Eric D.%Dobkin%NULL%1,    Renee%Blanding%NULL%1,    Jennifer%Abele%NULL%1,    Bonnie%Woods%NULL%1,    Kenneth%Harkness%NULL%1,    David R.%Thiemann%NULL%1,    Mary G.%Bowring%NULL%1,    Aalok B.%Shah%NULL%2,    Aalok B.%Shah%NULL%0,    Mei-Cheng%Wang%NULL%1,    Karen%Bandeen-Roche%NULL%1,    Antony%Rosen%NULL%1,    Scott L.%Zeger%NULL%2,    Scott L.%Zeger%NULL%0,    Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,    Justin J.%Choi%NULL%0,    Laura C.%Pinheiro%NULL%0,    Edward J.%Schenck%NULL%0,    Ruijun%Chen%NULL%0,    Assem%Jabri%NULL%0,    Michael J.%Satlin%NULL%0,    Thomas R.%Campion%NULL%0,    Musarrat%Nahid%NULL%0,    Joanna B.%Ringel%NULL%0,    Katherine L.%Hoffman%NULL%0,    Mark N.%Alshak%NULL%0,    Han A.%Li%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Mangala%Rajan%NULL%0,    Evgeniya%Reshetnyak%NULL%0,    Nathaniel%Hupert%NULL%0,    Evelyn M.%Horn%NULL%0,    Fernando J.%Martinez%NULL%0,    Roy M.%Gulick%NULL%0,    Monika M.%Safford%NULL%0,    Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,    Simon A%Jones%NULL%0,    Jie%Yang%NULL%0,    Harish%Rajagopalan%NULL%0,    Luke%O’Donnell%NULL%0,    Yelena%Chernyak%NULL%0,    Katie A%Tobin%NULL%0,    Robert J%Cerfolio%NULL%0,    Fritz%Francois%NULL%0,    Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,    Anatoly%Mitrokhin%NULL%2,    Anatoly%Mitrokhin%NULL%0,    Ajai%Rajabalan%NULL%1,    Christian%Benjamin%NULL%1,    Sushma%Raviralla%NULL%1,    Vishnu R%Mani%vishnu.mani@duke.edu%2,    Vishnu R%Mani%vishnu.mani@duke.edu%0,    Aleksandr%Kalabin%NULL%2,    Aleksandr%Kalabin%NULL%0,    Sebastian C%Valdivieso%NULL%2,    Sebastian C%Valdivieso%NULL%0,    Max%Murray-Ramcharan%NULL%2,    Max%Murray-Ramcharan%NULL%0,    Brian%Donaldson%NULL%2,    Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,     Nicholas A.%Fergusson%null%1,     Elisa%Lloyd-Smith%null%1,     Andrew%Wormsbecker%null%1,     Denise%Foster%null%1,     Andrei%Karpov%null%1,     Sarah%Crowe%null%1,     Greg%Haljan%null%1,     Dean R.%Chittock%null%1,     Hussein D.%Kanji%null%1,     Mypinder S.%Sekhon%null%1,     Donald E.G.%Griesdale%null%1,   Anish R.%Mitra%null%2,   Nicholas A.%Fergusson%null%2,   Elisa%Lloyd-Smith%null%2,   Andrew%Wormsbecker%null%2,   Denise%Foster%null%2,   Andrei%Karpov%null%2,   Sarah%Crowe%null%2,   Greg%Haljan%null%2,   Dean R.%Chittock%null%2,   Hussein D.%Kanji%null%2,   Mypinder S.%Sekhon%null%2,   Donald E.G.%Griesdale%null%2]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,    Damianos G.%Kokkinidis%NULL%1,    Weijia%Li%NULL%1,    Dimitrios%Karamanis%NULL%1,    Jennifer%Ognibene%NULL%1,    Shitij%Arora%NULL%1,    William N.%Southern%NULL%1,    Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,    Jesus D.%Gonzalez-Lugo%NULL%1,    Shafia%Rahman%NULL%1,    Mohammad%Barouqa%NULL%1,    James%Szymanski%NULL%1,    Kenji%Ikemura%NULL%1,    Yungtai%Lo%NULL%1,    Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,    Viet-Thi%Tran%NULL%4,    Viet-Thi%Tran%NULL%0,    Mathilde%Roumier%NULL%2,    Amélie%Chabrol%NULL%2,    Romain%Paule%NULL%2,    Constance%Guillaud%NULL%2,    Elena%Fois%NULL%2,    Raphael%Lepeule%NULL%2,    Tali-Anne%Szwebel%NULL%2,    François-Xavier%Lescure%NULL%0,    Frédéric%Schlemmer%NULL%2,    Marie%Matignon%NULL%2,    Mehdi%Khellaf%NULL%2,    Etienne%Crickx%NULL%2,    Benjamin%Terrier%NULL%2,    Caroline%Morbieu%NULL%2,    Paul%Legendre%NULL%2,    Julien%Dang%NULL%2,    Yoland%Schoindre%NULL%2,    Jean-Michel%Pawlotsky%NULL%2,    Marc%Michel%NULL%2,    Elodie%Perrodeau%NULL%2,    Nicolas%Carlier%NULL%2,    Nicolas%Roche%NULL%2,    Victoire%de Lastours%NULL%2,    Clément%Ourghanlian%NULL%2,    Solen%Kerneis%NULL%2,    Philippe%Ménager%NULL%2,    Luc%Mouthon%NULL%2,    Etienne%Audureau%NULL%2,    Philippe%Ravaud%NULL%2,    Bertrand%Godeau%NULL%2,    Sébastien%Gallien%NULL%2,    Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,  Yu%Zuo%NULL%1,  Srilakshmi%Yalavarthi%NULL%1,  Kelsey%Gockman%NULL%1,  Melanie%Zuo%NULL%1,  Jacqueline A%Madison%NULL%1,  Christopher%Blair%NULL%1,  Wrenn%Woodward%NULL%1,  Sean P%Lezak%NULL%1,  Njira L%Lugogo%NULL%1,  Robert J%Woods%NULL%1,  Christian%Lood%NULL%1,  Jason S%Knight%NULL%2,  Jason S%Knight%NULL%0,  Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,    Raef A.%Fadel%NULL%1,    Kelly M.%Malette%NULL%1,    Charles%Hammond%NULL%1,    Hafsa%Abdulla%NULL%1,    Abigail%Entz%NULL%1,    Zachary%Demertzis%NULL%1,    Zachary%Hanna%NULL%1,    Andrew%Failla%NULL%1,    Carina%Dagher%NULL%0,    Zohra%Chaudhry%NULL%2,    Amit%Vahia%NULL%2,    Odaliz%Abreu Lanfranco%NULL%1,    Mayur%Ramesh%NULL%1,    Marcus J.%Zervos%NULL%1,    George%Alangaden%NULL%2,    Joseph%Miller%NULL%2,    Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,      J.% Jiang%null%1,      X.% Xu%null%1,      Y.% Hu%null%2,      Y.% Hu%null%0,      Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,     Chenchen%Qian%NULL%1,     Zhibing%Luo%NULL%1,     Qiang%Li%liqressh@hotmail.com%0,     Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,     Chunlin%Cai%NULL%1,     Jinglei%Zang%NULL%1,     Jun%Xie%NULL%1,     Dan%Xu%NULL%0,     Fang%Zheng%NULL%1,     Tao%Zhan%NULL%1,     Kang%Huang%NULL%1,     Yikai%Wang%NULL%1,     Xiao%Wang%NULL%1,     Zhe-Yu%Hu%NULL%1,     Yapeng%Deng%NULL%1,     Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,     Naofumi%Bunya%NULL%1,     Tomoyuki%Endo%NULL%1,     Yuji%Fujino%NULL%1,     Kensuke%Fujita%NULL%1,     Kenji%Fujizuka%NULL%1,     Yoshihiro%Hagiwara%NULL%1,     Jun%Hamaguchi%NULL%1,     Yoshitaka%Hara%NULL%1,     Eiji%Hashiba%NULL%1,     Satoru%Hashimoto%NULL%1,     Noriyuki%Hattori%NULL%1,     Kota%Hoshino%NULL%1,     Shinichi%Ijuin%NULL%1,     Takanari%Ikeyama%NULL%1,     Shingo%Ichiba%NULL%1,     Wataru%Iwanaga%NULL%1,     Yoshiaki%Iwashita%NULL%1,     Masafumi%Kanamoto%NULL%1,     Hitoshi%Kaneko%NULL%1,     Kaneyuki%Kawamae%NULL%1,     Toru%Kotani%NULL%1,     Yasuaki%Koyama%NULL%1,     Keibun%Liu%NULL%1,     Tomohiko%Masuno%NULL%1,     Naoto%Morimura%NULL%1,     Tomoyuki%Nakamura%NULL%1,     Masaki%Nakane%NULL%1,     Michitaka%Nasu%NULL%1,     Osamu%Nishida%NULL%1,     Masaji%Nishimura%NULL%1,     Kanae%Ochiai%NULL%1,     Takayuki%Ogura%NULL%1,     Shinichiro%Ohshimo%NULL%1,     Keisuke%Oyama%NULL%1,     Junichi%Sasaki%NULL%1,     Ryutaro%Seo%NULL%1,     Takeshi%Shimazu%NULL%1,     Nobuaki%Shime%NULL%4,     Keiki%Shimizu%NULL%1,     Hiroyuki%Suzuki%NULL%1,     Shuhei%Takauji%NULL%1,     Shinhiro%Takeda%NULL%1,     Ichiro%Takeuchi%NULL%0,     Mumon%Takita%NULL%1,     Hayato%Taniguchi%NULL%1,     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,     Yi Xin%Tong%NULL%3,     Sheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,     Hong%Chen%NULL%1,     Zhen%Li%NULL%2,     Bo%Wang%NULL%0,     Zhong-Wei%Zhang%NULL%1,     Wei-Min%Li%NULL%1,     Zong-An%Liang%NULL%1,     Jin%Tang%NULL%1,     Jian%Wang%NULL%1,     Rui%Shi%NULL%1,     Xiao-Dong%Jin%NULL%1,     Yan%Kang%NULL%1,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,      S. F.% Mahmood%null%1,      K.% Habib%null%1,      I.% Khanum%null%1,      B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,     Chaisith%Sivakorn%NULL%1,     Tanuwong%Viarasilpa%NULL%1,     Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,     Mu%Qin%qinmuae@163.com%1,     Yuli%Cai%NULL%1,     Tao%Liu%NULL%1,     Bo%Shen%NULL%1,     Fan%Yang%NULL%0,     Sheng%Cao%NULL%1,     Xu%Liu%NULL%2,     Xu%Liu%NULL%0,     Yaozu%Xiang%NULL%1,     Qinyan%Zhao%NULL%1,     He%Huang%huanghe1977@whu.edu.cn%1,     Bo%Yang%yybb112@whu.edu.cn%0,     Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,     Win%Kulvichit%NULL%1,     Sunchai%Payungporn%NULL%1,     Trairak%Pisitkun%NULL%1,     Ariya%Chindamporn%NULL%1,     Sadudee%Peerapornratana%NULL%1,     Prapaporn%Pisitkun%NULL%1,     Suwalak%Chitcharoen%NULL%1,     Vorthon%Sawaswong%NULL%1,     Navaporn%Worasilchai%NULL%1,     Sarinya%Kampunya%NULL%1,     Opass%Putcharoen%NULL%1,     Thammasak%Thawitsri%NULL%1,     Nophol%Leelayuwatanakul%NULL%1,     Napplika%Kongpolprom%NULL%1,     Vorakamol%Phoophiboon%NULL%1,     Thitiwat%Sriprasart%NULL%1,     Rujipat%Samransamruajkit%NULL%1,     Somkanya%Tungsanga%NULL%1,     Kanitha%Tiankanon%NULL%1,     Nuttha%Lumlertgul%NULL%1,     Asada%Leelahavanichkul%NULL%1,     Tueboon%Sriphojanart%NULL%1,     Terapong%Tantawichien%NULL%1,     Usa%Thisyakorn%NULL%1,     Chintana%Chirathaworn%NULL%1,     Kearkiat%Praditpornsilpa%NULL%1,     Kriang%Tungsanga%NULL%1,     Somchai%Eiam-Ong%NULL%1,     Visith%Sitprija%NULL%1,     John A.%Kellum%NULL%1,     Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,     Min%Pan%NULL%0,     Xiumei%Zhang%NULL%0,     Mingfeng%Han%fyhmf@163.com%0,     Xiaoyun%Fan%13956988552@126.com%0,     Fengde%Zhao%NULL%0,     Manli%Miao%NULL%0,     Jing%Xu%NULL%0,     Minglong%Guan%NULL%0,     Xia%Deng%NULL%0,     Xu%Chen%NULL%0,     Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,     Chunli%Tang%NULL%1,     Ruchong%Chen%NULL%1,     Honglian%Ruan%NULL%1,     Wenhua%Liang%NULL%1,     Weijie%Guan%NULL%1,     Ling%Sang%NULL%0,     Ruidi%Tang%NULL%1,     Nanshan%Zhong%NULL%2,     Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,     Shanyan%Zhang%NULL%0,     Xiaoli%Zhang%NULL%1,     Huan%Cai%NULL%0,     Jueqing%Gu%NULL%0,     Jiangshan%Lian%NULL%0,     Yingfeng%Lu%NULL%0,     Hongyu%Jia%NULL%0,     Jianhua%Hu%NULL%0,     Ciliang%Jin%NULL%0,     Guodong%Yu%NULL%0,     Yimin%Zhang%NULL%0,     Jifang%Sheng%NULL%0,     Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%1,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%1,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%1,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%1,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%1,     Song%Hu%NULL%1,     Quan%Hu%NULL%1,     Daoyin%Ding%NULL%1,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%1,     Weijiang%Xu%NULL%1,     Jun%Guo%NULL%1,     Jinglong%Xu%NULL%1,     Haitao%Yuan%NULL%1,     Bin%Zhang%NULL%2,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%1,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,     Hao-Yu%Gao%NULL%1,     Zi-Yi%Feng%NULL%1,     Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,     Li-jun%Sun%NULL%1,     Mi%Xu%NULL%1,     Jian%Pan%NULL%1,     Yun-tao%Zhang%NULL%1,     Xue-ling%Fang%NULL%1,     Qiang%Fang%NULL%2,     Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,     Ziqiang%Du%NULL%1,     Yanfang%Zhu%NULL%1,     Wenfeng%Li%NULL%1,     Hongjun%Miao%NULL%1,     Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,     Sarah%Al-Youha%sarahalyouha@gmail.com%1,     Mohammad H.%Jamal%NULL%1,     Mohannad%Al-Haddad%NULL%1,     Ali%Al-Muhaini%NULL%1,     Fahad%Al-Ghimlas%NULL%1,     Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,     Mina%Akbari Rad%NULL%1,     Robert%Bergquist%NULL%1,     Abolghasem%Allahyari%NULL%1,     Kamila%Hashemzadeh%NULL%1,     Nasrin%Milani%NULL%1,     Mahdi%Gholian-Aval%NULL%1,     Fariba%Rezaeitalab%NULL%1,     Mohammad Jafar%Sadeghi Quchani%NULL%1,     Zahra%Nahbandani%NULL%1,     Mandana%Khodashahi%NULL%1,     Zahra%Javid%NULL%1,     Mahnaz%Mozdourian%NULL%1,     Mohammad Ali%Yaghoubi%NULL%1,     Zahra%Mozaheb%NULL%1,     Mohsen%Seddigh-Shamsi%NULL%1,     Mohammad%Moeini Nodeh%NULL%1,     Shima%Nabavi%NULL%1,     Hooman%Mosannen Mozaffari%NULL%1,     Mohammadreza%Farzanehfar%NULL%1,     Zahra%Lotfi%NULL%0,     Alireza%Shariati%NULL%1,     Shekoofe%Bonakdaran%NULL%1,     Zahra%Rezaieyazdi%NULL%1,     Zahra%Mirfeizi%NULL%1,     Maryam%Miri%NULL%1,     Reza%Bassiri%NULL%1,     Sajjad%Ataei Azimi%NULL%1,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,     Ibrahim%Al-Zakwani%NULL%1,     Hamed%Al Naamani%NULL%1,     Sultan%Al Lawati%NULL%1,     Nenad%Pandak%NULL%1,     Muna Ba%Omar%NULL%1,     Maher%Al Bahrani%NULL%1,     Zakaryia AL%Bulushi%NULL%1,     Huda%Al Khalili%NULL%1,     Issa%Al Salmi%NULL%1,     Ruwaida%Al Ismaili%NULL%1,     Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,     Zohre%Khodamoradi%NULL%1,     Amirhossein%Erfani%NULL%1,     Hamidreza%Hosseinpour%NULL%1,     Keivan%Ranjbar%NULL%1,     Yasaman%Emami%NULL%1,     Alireza%Mirahmadizadeh%NULL%1,     Mehrzad%Lotfi%NULL%1,     Babak%Shirazi Yeganeh%NULL%1,     Abolfazl%Dorrani Nejad%NULL%1,     Abdolrasool%Hemmati%NULL%1,     Mostafa%Ebrahimi%NULL%1,     Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,     Annachiara%Ferrari%NULL%2,     Annachiara%Ferrari%NULL%0,     Francesco%Fontana%NULL%1,     Giacomo%Mori%NULL%1,     Riccardo%Magistroni%NULL%1,     Marianna%Meschiari%NULL%1,     Erica%Franceschini%NULL%1,     Marianna%Menozzi%NULL%1,     Gianluca%Cuomo%NULL%1,     Gabriella%Orlando%NULL%1,     Antonella%Santoro%NULL%1,     Margherita%Digaetano%NULL%1,     Cinzia%Puzzolante%NULL%1,     Federica%Carli%NULL%1,     Andrea%Bedini%NULL%1,     Jovana%Milic%NULL%1,     Irene%Coloretti%NULL%1,     Paolo%Raggi%NULL%1,     Cristina%Mussini%NULL%1,     Massimo%Girardis%NULL%1,     Gianni%Cappelli%NULL%1,     Giovanni%Guaraldi%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,     Silvia%Bettini%NULL%2,     Silvia%Bettini%NULL%0,     Roberto%Fabris%NULL%1,     Roberto%Serra%NULL%2,     Chiara%Dal Pra%NULL%1,     Pietro%Maffei%NULL%1,     Marco%Rossato%NULL%1,     Paola%Fioretto%NULL%1,     Roberto%Vettor%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,     Marco%Roncador%NULL%2,     Marco%Roncador%NULL%0,     Andrea%Saporito%NULL%1,     Maira%Biggiogero%NULL%1,     Andrea%Glotta%NULL%1,     Pier Andrea%Maida%NULL%1,     Patrizia%Urso%NULL%1,     Giovanni%Bona%NULL%1,     Christian%Garzoni%NULL%1,     Romano%Mauri%NULL%1,     Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,     Anna Lisa%Ridolfo%NULL%4,     Laura%Milazzo%NULL%2,     Letizia%Oreni%NULL%4,     Dario%Bernacchia%NULL%4,     Matteo%Siano%NULL%4,     Cecilia%Bonazzetti%NULL%2,     Alice%Covizzi%NULL%2,     Marco%Schiuma%NULL%2,     Matteo%Passerini%NULL%2,     Marco%Piscaglia%NULL%2,     Massimo%Coen%NULL%2,     Guido%Gubertini%NULL%2,     Giuliano%Rizzardini%NULL%4,     Chiara%Cogliati%NULL%2,     Anna Maria%Brambilla%NULL%2,     Riccardo%Colombo%NULL%2,     Antonio%Castelli%NULL%2,     Roberto%Rech%NULL%2,     Agostino%Riva%NULL%2,     Alessandro%Torre%NULL%2,     Luca%Meroni%NULL%2,     Stefano%Rusconi%NULL%4,     Spinello%Antinori%NULL%4,     Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%1,    Castelli%Antonio%coreGivesNoEmail%1,    Cecconi%Maurizio%coreGivesNoEmail%1,    Cereda%Danilo%coreGivesNoEmail%1,    Coluccello%Antonio%coreGivesNoEmail%1,    Foti%Giuseppe%coreGivesNoEmail%1,    Fumagalli%Roberto%coreGivesNoEmail%1,    Grasselli%Giacomo%coreGivesNoEmail%1,    Iotti%Giorgio%coreGivesNoEmail%1,    Latronico%Nicola%coreGivesNoEmail%1,    Lorini%Luca%coreGivesNoEmail%1,    Merler%Stefano%coreGivesNoEmail%1,    Natalini%Giuseppe%coreGivesNoEmail%1,    Pesenti%Antonio%coreGivesNoEmail%1,    Piatti%Alessandra%coreGivesNoEmail%1,    Ranieri%Marco Vito%coreGivesNoEmail%1,    Scandroglio%Anna Mara%coreGivesNoEmail%1,    Storti%Enrico%coreGivesNoEmail%1,    Zanella%Alberto%coreGivesNoEmail%1,    Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,     Lara%Gianesello%gianesello.lara@libero.it%1,     Maddalena%Pazzi%NULL%2,     Maddalena%Pazzi%NULL%0,     Caterina%Stera%NULL%1,     Tommaso%Meconi%NULL%1,     Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,     Andrea%Dalbeni%NULL%2,     Andrea%Dalbeni%NULL%0,     Elia%Vettore%NULL%2,     Elia%Vettore%NULL%0,     Devis%Benfaremo%NULL%1,     Massimo%Mattioli%NULL%1,     Carmine G.%Gambino%NULL%1,     Viviana%Framba%NULL%2,     Viviana%Framba%NULL%0,     Lorenzo%Cerruti%NULL%1,     Anna%Mantovani%NULL%1,     Andrea%Martini%NULL%1,     Michele M.%Luchetti%NULL%1,     Roberto%Serra%NULL%0,     Annamaria%Cattelan%NULL%1,     Roberto%Vettor%NULL%0,     Paolo%Angeli%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,     Matthaios%Papadimitriou-Olivgeris%NULL%2,     Matthaios%Papadimitriou-Olivgeris%NULL%0,     Raphaël%Burger%NULL%1,     Marie-Annick%Le Pogam%NULL%1,     Tapio%Niemi%NULL%2,     Tapio%Niemi%NULL%0,     Paraskevas%Filippidis%NULL%1,     Jonathan%Tschopp%NULL%1,     Florian%Desgranges%NULL%1,     Benjamin%Viala%NULL%1,     Eleftheria%Kampouri%NULL%1,     Laurence%Rochat%NULL%2,     Laurence%Rochat%NULL%0,     David%Haefliger%NULL%1,     Mehdi%Belkoniene%NULL%1,     Carlos%Fidalgo%NULL%1,     Antonios%Kritikos%NULL%1,     Katia%Jaton%NULL%1,     Laurence%Senn%NULL%1,     Pierre-Alexandre%Bart%NULL%1,     Jean-Luc%Pagani%NULL%2,     Jean-Luc%Pagani%NULL%0,     Oriol%Manuel%NULL%1,     Loïc%Lhopitallier%NULL%1,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,     Ashwin%Subramaniam%NULL%2,     Ashwin%Subramaniam%NULL%0,     Mallikarjuna%Ponnapa Reddy%NULL%2,     Mallikarjuna%Ponnapa Reddy%NULL%0,     Gabriel%Blecher%NULL%1,     Umesh%Kadam%NULL%2,     Umesh%Kadam%NULL%0,     Afsana%Afroz%NULL%1,     Baki%Billah%NULL%1,     Sushma%Ashwin%NULL%1,     Mark%Kubicki%NULL%1,     Federico%Bilotta%NULL%1,     J. Randall%Curtis%NULL%2,     J. Randall%Curtis%NULL%0,     Francesca%Rubulotta%NULL%2,     Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,    Aggarwal%Saurabh%coreGivesNoEmail%2,    Garcia-Telles%Nelson%coreGivesNoEmail%2,    Henry%Brandon Michael%coreGivesNoEmail%2,    Lavie%Carl%coreGivesNoEmail%2,    Lippi%Giuseppe%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,     Samuel L%Bruce%NULL%0,     Cody L%Slater%NULL%0,     Jonathan R%Tiao%NULL%0,     Matthew R%Baldwin%NULL%0,     R Graham%Barr%NULL%0,     Bernard P%Chang%NULL%0,     Katherine H%Chau%NULL%0,     Justin J%Choi%NULL%0,     Nicholas%Gavin%NULL%0,     Parag%Goyal%NULL%0,     Angela M%Mills%NULL%0,     Ashmi A%Patel%NULL%0,     Marie-Laure S%Romney%NULL%0,     Monika M%Safford%NULL%0,     Neil W%Schluger%NULL%0,     Soumitra%Sengupta%NULL%0,     Magdalena E%Sobieszczyk%NULL%0,     Jason E%Zucker%NULL%0,     Paul A%Asadourian%NULL%0,     Fletcher M%Bell%NULL%0,     Rebekah%Boyd%NULL%0,     Matthew F%Cohen%NULL%0,     MacAlistair I%Colquhoun%NULL%0,     Lucy A%Colville%NULL%0,     Joseph H%de Jonge%NULL%0,     Lyle B%Dershowitz%NULL%0,     Shirin A%Dey%NULL%0,     Katherine A%Eiseman%NULL%0,     Zachary P%Girvin%NULL%0,     Daniella T%Goni%NULL%0,     Amro A%Harb%NULL%0,     Nicholas%Herzik%NULL%0,     Sarah%Householder%NULL%0,     Lara E%Karaaslan%NULL%0,     Heather%Lee%NULL%0,     Evan%Lieberman%NULL%0,     Andrew%Ling%NULL%0,     Ree%Lu%NULL%0,     Arthur Y%Shou%NULL%0,     Alexander C%Sisti%NULL%0,     Zachary E%Snow%NULL%0,     Colin P%Sperring%NULL%0,     Yuqing%Xiong%NULL%0,     Henry W%Zhou%NULL%0,     Karthik%Natarajan%NULL%0,     George%Hripcsak%NULL%0,     Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%0,     James M.%Blum%NULL%0,     Chad%Robichaux%NULL%0,     Colleen%Kraft%NULL%0,     Jesse T.%Jacob%NULL%0,     Craig S.%Jabaley%NULL%0,     David%Carpenter%NULL%0,     Roberta%Kaplow%NULL%0,     Alfonso C.%Hernandez-Romieu%NULL%0,     Max W.%Adelman%NULL%0,     Greg S.%Martin%NULL%0,     Craig M.%Coopersmith%NULL%0,     David J.%Murphy%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%0,     Michelle%Nichols%NULL%0,     Richard%Kim%NULL%0,     Keith R.%Jerome%NULL%0,     Arun K.%Nalla%NULL%0,     Alexander L.%Greninger%NULL%0,     Sudhakar%Pipavath%NULL%0,     Mark M.%Wurfel%NULL%0,     Laura%Evans%NULL%0,     Patricia A.%Kritek%NULL%0,     T. Eoin%West%NULL%0,     Andrew%Luks%NULL%0,     Anthony%Gerbino%NULL%0,     Chris R.%Dale%NULL%0,     Jason D.%Goldman%NULL%0,     Shane%O’Mahony%NULL%0,     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,     Denise J%McCulloch%NULL%2,     Denise J%McCulloch%NULL%0,     Vidya%Atluri%NULL%1,     Michela%Blain%NULL%1,     Sarah A%McGuffin%NULL%1,     Arun K%Nalla%NULL%1,     Meei-Li%Huang%NULL%1,     Alex L%Greninger%NULL%1,     Keith R%Jerome%NULL%1,     Seth A%Cohen%NULL%1,     Santiago%Neme%NULL%0,     Margaret L%Green%NULL%1,     Helen Y%Chu%NULL%1,     H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,     Joelle I.%Rosser%NULL%1,     Orlando%Quintero%NULL%1,     Jake%Scott%NULL%1,     Aruna%Subramanian%NULL%1,     Mohammad%Gumma%NULL%1,     Angela%Rogers%NULL%1,     Shanthi%Kappagoda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,     Jacob%Fiksel%NULL%0,     Jacob%Fiksel%NULL%0,     John%Muschelli%NULL%0,     John%Muschelli%NULL%0,     Matthew L.%Robinson%NULL%0,     Matthew L.%Robinson%NULL%0,     Masoud%Rouhizadeh%NULL%0,     Masoud%Rouhizadeh%NULL%0,     Jamie%Perin%NULL%0,     Jamie%Perin%NULL%0,     Grant%Schumock%NULL%0,     Grant%Schumock%NULL%0,     Paul%Nagy%NULL%0,     Paul%Nagy%NULL%0,     Josh H.%Gray%NULL%0,     Josh H.%Gray%NULL%0,     Harsha%Malapati%NULL%0,     Harsha%Malapati%NULL%0,     Mariam%Ghobadi-Krueger%NULL%0,     Mariam%Ghobadi-Krueger%NULL%0,     Timothy M.%Niessen%NULL%0,     Bo Soo%Kim%NULL%0,     Peter M.%Hill%NULL%0,     M. Shafeeq%Ahmed%NULL%0,     Eric D.%Dobkin%NULL%0,     Renee%Blanding%NULL%0,     Jennifer%Abele%NULL%0,     Bonnie%Woods%NULL%0,     Kenneth%Harkness%NULL%0,     David R.%Thiemann%NULL%0,     Mary G.%Bowring%NULL%0,     Aalok B.%Shah%NULL%0,     Aalok B.%Shah%NULL%0,     Mei-Cheng%Wang%NULL%0,     Karen%Bandeen-Roche%NULL%0,     Antony%Rosen%NULL%0,     Scott L.%Zeger%NULL%0,     Scott L.%Zeger%NULL%0,     Amita%Gupta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,     Justin J.%Choi%NULL%2,     Laura C.%Pinheiro%NULL%2,     Edward J.%Schenck%NULL%2,     Ruijun%Chen%NULL%0,     Assem%Jabri%NULL%2,     Michael J.%Satlin%NULL%2,     Thomas R.%Campion%NULL%2,     Musarrat%Nahid%NULL%2,     Joanna B.%Ringel%NULL%2,     Katherine L.%Hoffman%NULL%2,     Mark N.%Alshak%NULL%2,     Han A.%Li%NULL%2,     Graham T.%Wehmeyer%NULL%4,     Graham T.%Wehmeyer%NULL%0,     Mangala%Rajan%NULL%2,     Evgeniya%Reshetnyak%NULL%2,     Nathaniel%Hupert%NULL%2,     Evelyn M.%Horn%NULL%2,     Fernando J.%Martinez%NULL%2,     Roy M.%Gulick%NULL%2,     Monika M.%Safford%NULL%4,     Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,     Simon A%Jones%NULL%0,     Jie%Yang%NULL%0,     Harish%Rajagopalan%NULL%0,     Luke%O’Donnell%NULL%0,     Yelena%Chernyak%NULL%0,     Katie A%Tobin%NULL%0,     Robert J%Cerfolio%NULL%0,     Fritz%Francois%NULL%0,     Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,     Anatoly%Mitrokhin%NULL%2,     Anatoly%Mitrokhin%NULL%0,     Ajai%Rajabalan%NULL%1,     Christian%Benjamin%NULL%1,     Sushma%Raviralla%NULL%1,     Vishnu R%Mani%vishnu.mani@duke.edu%2,     Vishnu R%Mani%vishnu.mani@duke.edu%0,     Aleksandr%Kalabin%NULL%2,     Aleksandr%Kalabin%NULL%0,     Sebastian C%Valdivieso%NULL%2,     Sebastian C%Valdivieso%NULL%0,     Max%Murray-Ramcharan%NULL%2,     Max%Murray-Ramcharan%NULL%0,     Brian%Donaldson%NULL%2,     Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,      Nicholas A.%Fergusson%null%1,      Elisa%Lloyd-Smith%null%1,      Andrew%Wormsbecker%null%1,      Denise%Foster%null%1,      Andrei%Karpov%null%1,      Sarah%Crowe%null%1,      Greg%Haljan%null%1,      Dean R.%Chittock%null%1,      Hussein D.%Kanji%null%1,      Mypinder S.%Sekhon%null%1,      Donald E.G.%Griesdale%null%1,    Anish R.%Mitra%null%2,    Nicholas A.%Fergusson%null%2,    Elisa%Lloyd-Smith%null%2,    Andrew%Wormsbecker%null%2,    Denise%Foster%null%2,    Andrei%Karpov%null%2,    Sarah%Crowe%null%2,    Greg%Haljan%null%2,    Dean R.%Chittock%null%2,    Hussein D.%Kanji%null%2,    Mypinder S.%Sekhon%null%2,    Donald E.G.%Griesdale%null%2]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,     Damianos G.%Kokkinidis%NULL%1,     Weijia%Li%NULL%1,     Dimitrios%Karamanis%NULL%1,     Jennifer%Ognibene%NULL%1,     Shitij%Arora%NULL%1,     William N.%Southern%NULL%1,     Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,     Jesus D.%Gonzalez-Lugo%NULL%1,     Shafia%Rahman%NULL%1,     Mohammad%Barouqa%NULL%1,     James%Szymanski%NULL%1,     Kenji%Ikemura%NULL%1,     Yungtai%Lo%NULL%1,     Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%1,    Chelico%J.D.%coreGivesNoEmail%1,    Cohen%S.L.%coreGivesNoEmail%1,    Cookingham%J.%coreGivesNoEmail%1,    Coppa%K.%coreGivesNoEmail%1,    Crawford%J.M.%coreGivesNoEmail%1,    Davidson%K.W.%coreGivesNoEmail%1,    Diefenbach%M.A.%coreGivesNoEmail%1,    Dominello%A.J.%coreGivesNoEmail%1,    Duer-Hefele%J.%coreGivesNoEmail%1,    Falzon%L.%coreGivesNoEmail%1,    Gitlin%J.%coreGivesNoEmail%1,    Hajizadeh%N.%coreGivesNoEmail%1,    Harvin%T.G.%coreGivesNoEmail%1,    Hirsch%J.S.%coreGivesNoEmail%1,    Hirschwerk%D.A.%coreGivesNoEmail%1,    Kim%E.J.%coreGivesNoEmail%1,    Kozel%Z.M.%coreGivesNoEmail%1,    Marrast%L.M.%coreGivesNoEmail%1,    McGinn%T.%coreGivesNoEmail%1,    Mogavero%J.N.%coreGivesNoEmail%1,    Narasimhan%M.%coreGivesNoEmail%1,    Osorio%G.A.%coreGivesNoEmail%1,    Qiu%M.%coreGivesNoEmail%1,    Richardson%S.%coreGivesNoEmail%1,    Zanos%T.P.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,     Viet-Thi%Tran%NULL%4,     Viet-Thi%Tran%NULL%0,     Mathilde%Roumier%NULL%2,     Amélie%Chabrol%NULL%2,     Romain%Paule%NULL%2,     Constance%Guillaud%NULL%2,     Elena%Fois%NULL%2,     Raphael%Lepeule%NULL%2,     Tali-Anne%Szwebel%NULL%2,     François-Xavier%Lescure%NULL%2,     Frédéric%Schlemmer%NULL%2,     Marie%Matignon%NULL%2,     Mehdi%Khellaf%NULL%2,     Etienne%Crickx%NULL%2,     Benjamin%Terrier%NULL%2,     Caroline%Morbieu%NULL%2,     Paul%Legendre%NULL%2,     Julien%Dang%NULL%2,     Yoland%Schoindre%NULL%2,     Jean-Michel%Pawlotsky%NULL%2,     Marc%Michel%NULL%2,     Elodie%Perrodeau%NULL%2,     Nicolas%Carlier%NULL%2,     Nicolas%Roche%NULL%2,     Victoire%de Lastours%NULL%2,     Clément%Ourghanlian%NULL%2,     Solen%Kerneis%NULL%2,     Philippe%Ménager%NULL%2,     Luc%Mouthon%NULL%2,     Etienne%Audureau%NULL%2,     Philippe%Ravaud%NULL%2,     Bertrand%Godeau%NULL%2,     Sébastien%Gallien%NULL%2,     Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,   Yu%Zuo%NULL%1,   Srilakshmi%Yalavarthi%NULL%1,   Kelsey%Gockman%NULL%1,   Melanie%Zuo%NULL%1,   Jacqueline A%Madison%NULL%1,   Christopher%Blair%NULL%1,   Wrenn%Woodward%NULL%1,   Sean P%Lezak%NULL%1,   Njira L%Lugogo%NULL%1,   Robert J%Woods%NULL%1,   Christian%Lood%NULL%1,   Jason S%Knight%NULL%2,   Jason S%Knight%NULL%0,   Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,     Raef A.%Fadel%NULL%1,     Kelly M.%Malette%NULL%1,     Charles%Hammond%NULL%1,     Hafsa%Abdulla%NULL%1,     Abigail%Entz%NULL%1,     Zachary%Demertzis%NULL%1,     Zachary%Hanna%NULL%1,     Andrew%Failla%NULL%1,     Carina%Dagher%NULL%1,     Zohra%Chaudhry%NULL%2,     Amit%Vahia%NULL%2,     Odaliz%Abreu Lanfranco%NULL%1,     Mayur%Ramesh%NULL%1,     Marcus J.%Zervos%NULL%0,     George%Alangaden%NULL%2,     Joseph%Miller%NULL%2,     Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,       J.% Jiang%null%1,       X.% Xu%null%1,       Y.% Hu%null%2,       Y.% Hu%null%0,       Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,      Chenchen%Qian%NULL%1,      Zhibing%Luo%NULL%1,      Qiang%Li%liqressh@hotmail.com%0,      Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,      Chunlin%Cai%NULL%1,      Jinglei%Zang%NULL%1,      Jun%Xie%NULL%1,      Dan%Xu%NULL%0,      Fang%Zheng%NULL%1,      Tao%Zhan%NULL%1,      Kang%Huang%NULL%1,      Yikai%Wang%NULL%1,      Xiao%Wang%NULL%1,      Zhe-Yu%Hu%NULL%1,      Yapeng%Deng%NULL%1,      Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,      Naofumi%Bunya%NULL%1,      Tomoyuki%Endo%NULL%1,      Yuji%Fujino%NULL%1,      Kensuke%Fujita%NULL%1,      Kenji%Fujizuka%NULL%1,      Yoshihiro%Hagiwara%NULL%1,      Jun%Hamaguchi%NULL%1,      Yoshitaka%Hara%NULL%1,      Eiji%Hashiba%NULL%1,      Satoru%Hashimoto%NULL%1,      Noriyuki%Hattori%NULL%1,      Kota%Hoshino%NULL%1,      Shinichi%Ijuin%NULL%1,      Takanari%Ikeyama%NULL%1,      Shingo%Ichiba%NULL%1,      Wataru%Iwanaga%NULL%1,      Yoshiaki%Iwashita%NULL%1,      Masafumi%Kanamoto%NULL%1,      Hitoshi%Kaneko%NULL%1,      Kaneyuki%Kawamae%NULL%1,      Toru%Kotani%NULL%1,      Yasuaki%Koyama%NULL%1,      Keibun%Liu%NULL%1,      Tomohiko%Masuno%NULL%1,      Naoto%Morimura%NULL%1,      Tomoyuki%Nakamura%NULL%1,      Masaki%Nakane%NULL%1,      Michitaka%Nasu%NULL%1,      Osamu%Nishida%NULL%1,      Masaji%Nishimura%NULL%1,      Kanae%Ochiai%NULL%1,      Takayuki%Ogura%NULL%1,      Shinichiro%Ohshimo%NULL%1,      Keisuke%Oyama%NULL%1,      Junichi%Sasaki%NULL%1,      Ryutaro%Seo%NULL%1,      Takeshi%Shimazu%NULL%1,      Nobuaki%Shime%NULL%4,      Keiki%Shimizu%NULL%1,      Hiroyuki%Suzuki%NULL%1,      Shuhei%Takauji%NULL%1,      Shinhiro%Takeda%NULL%1,      Ichiro%Takeuchi%NULL%0,      Mumon%Takita%NULL%1,      Hayato%Taniguchi%NULL%1,      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,      Yi Xin%Tong%NULL%3,      Sheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,      Hong%Chen%NULL%1,      Zhen%Li%NULL%2,      Bo%Wang%NULL%0,      Zhong-Wei%Zhang%NULL%1,      Wei-Min%Li%NULL%1,      Zong-An%Liang%NULL%1,      Jin%Tang%NULL%1,      Jian%Wang%NULL%1,      Rui%Shi%NULL%1,      Xiao-Dong%Jin%NULL%1,      Yan%Kang%NULL%1,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,       S. F.% Mahmood%null%1,       K.% Habib%null%1,       I.% Khanum%null%1,       B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,      Chaisith%Sivakorn%NULL%1,      Tanuwong%Viarasilpa%NULL%1,      Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,      Mu%Qin%qinmuae@163.com%1,      Yuli%Cai%NULL%1,      Tao%Liu%NULL%1,      Bo%Shen%NULL%1,      Fan%Yang%NULL%0,      Sheng%Cao%NULL%1,      Xu%Liu%NULL%2,      Xu%Liu%NULL%0,      Yaozu%Xiang%NULL%1,      Qinyan%Zhao%NULL%1,      He%Huang%huanghe1977@whu.edu.cn%1,      Bo%Yang%yybb112@whu.edu.cn%0,      Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,      Win%Kulvichit%NULL%1,      Sunchai%Payungporn%NULL%1,      Trairak%Pisitkun%NULL%1,      Ariya%Chindamporn%NULL%1,      Sadudee%Peerapornratana%NULL%1,      Prapaporn%Pisitkun%NULL%1,      Suwalak%Chitcharoen%NULL%1,      Vorthon%Sawaswong%NULL%1,      Navaporn%Worasilchai%NULL%1,      Sarinya%Kampunya%NULL%1,      Opass%Putcharoen%NULL%1,      Thammasak%Thawitsri%NULL%1,      Nophol%Leelayuwatanakul%NULL%1,      Napplika%Kongpolprom%NULL%1,      Vorakamol%Phoophiboon%NULL%1,      Thitiwat%Sriprasart%NULL%1,      Rujipat%Samransamruajkit%NULL%1,      Somkanya%Tungsanga%NULL%1,      Kanitha%Tiankanon%NULL%1,      Nuttha%Lumlertgul%NULL%1,      Asada%Leelahavanichkul%NULL%1,      Tueboon%Sriphojanart%NULL%1,      Terapong%Tantawichien%NULL%1,      Usa%Thisyakorn%NULL%1,      Chintana%Chirathaworn%NULL%1,      Kearkiat%Praditpornsilpa%NULL%1,      Kriang%Tungsanga%NULL%1,      Somchai%Eiam-Ong%NULL%1,      Visith%Sitprija%NULL%1,      John A.%Kellum%NULL%1,      Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,      Min%Pan%NULL%0,      Xiumei%Zhang%NULL%0,      Mingfeng%Han%fyhmf@163.com%0,      Xiaoyun%Fan%13956988552@126.com%0,      Fengde%Zhao%NULL%0,      Manli%Miao%NULL%0,      Jing%Xu%NULL%0,      Minglong%Guan%NULL%0,      Xia%Deng%NULL%0,      Xu%Chen%NULL%0,      Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,      Chunli%Tang%NULL%1,      Ruchong%Chen%NULL%1,      Honglian%Ruan%NULL%1,      Wenhua%Liang%NULL%1,      Weijie%Guan%NULL%1,      Ling%Sang%NULL%0,      Ruidi%Tang%NULL%1,      Nanshan%Zhong%NULL%2,      Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,      Shanyan%Zhang%NULL%0,      Xiaoli%Zhang%NULL%1,      Huan%Cai%NULL%0,      Jueqing%Gu%NULL%0,      Jiangshan%Lian%NULL%0,      Yingfeng%Lu%NULL%0,      Hongyu%Jia%NULL%0,      Jianhua%Hu%NULL%0,      Ciliang%Jin%NULL%0,      Guodong%Yu%NULL%0,      Yimin%Zhang%NULL%0,      Jifang%Sheng%NULL%0,      Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%1,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%1,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%1,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%1,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%1,      Song%Hu%NULL%1,      Quan%Hu%NULL%1,      Daoyin%Ding%NULL%1,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%1,      Weijiang%Xu%NULL%1,      Jun%Guo%NULL%1,      Jinglong%Xu%NULL%1,      Haitao%Yuan%NULL%1,      Bin%Zhang%NULL%2,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%1,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,      Hao-Yu%Gao%NULL%1,      Zi-Yi%Feng%NULL%1,      Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,      Li-jun%Sun%NULL%1,      Mi%Xu%NULL%1,      Jian%Pan%NULL%1,      Yun-tao%Zhang%NULL%1,      Xue-ling%Fang%NULL%1,      Qiang%Fang%NULL%2,      Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,      Ziqiang%Du%NULL%1,      Yanfang%Zhu%NULL%1,      Wenfeng%Li%NULL%1,      Hongjun%Miao%NULL%1,      Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,      Sarah%Al-Youha%sarahalyouha@gmail.com%1,      Mohammad H.%Jamal%NULL%1,      Mohannad%Al-Haddad%NULL%1,      Ali%Al-Muhaini%NULL%1,      Fahad%Al-Ghimlas%NULL%1,      Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,      Mina%Akbari Rad%NULL%1,      Robert%Bergquist%NULL%1,      Abolghasem%Allahyari%NULL%1,      Kamila%Hashemzadeh%NULL%1,      Nasrin%Milani%NULL%1,      Mahdi%Gholian-Aval%NULL%1,      Fariba%Rezaeitalab%NULL%1,      Mohammad Jafar%Sadeghi Quchani%NULL%1,      Zahra%Nahbandani%NULL%1,      Mandana%Khodashahi%NULL%1,      Zahra%Javid%NULL%1,      Mahnaz%Mozdourian%NULL%1,      Mohammad Ali%Yaghoubi%NULL%1,      Zahra%Mozaheb%NULL%1,      Mohsen%Seddigh-Shamsi%NULL%1,      Mohammad%Moeini Nodeh%NULL%1,      Shima%Nabavi%NULL%1,      Hooman%Mosannen Mozaffari%NULL%1,      Mohammadreza%Farzanehfar%NULL%1,      Zahra%Lotfi%NULL%0,      Alireza%Shariati%NULL%1,      Shekoofe%Bonakdaran%NULL%1,      Zahra%Rezaieyazdi%NULL%1,      Zahra%Mirfeizi%NULL%1,      Maryam%Miri%NULL%1,      Reza%Bassiri%NULL%1,      Sajjad%Ataei Azimi%NULL%1,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,      Ibrahim%Al-Zakwani%NULL%1,      Hamed%Al Naamani%NULL%1,      Sultan%Al Lawati%NULL%1,      Nenad%Pandak%NULL%1,      Muna Ba%Omar%NULL%1,      Maher%Al Bahrani%NULL%1,      Zakaryia AL%Bulushi%NULL%1,      Huda%Al Khalili%NULL%1,      Issa%Al Salmi%NULL%1,      Ruwaida%Al Ismaili%NULL%1,      Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,      Zohre%Khodamoradi%NULL%1,      Amirhossein%Erfani%NULL%1,      Hamidreza%Hosseinpour%NULL%1,      Keivan%Ranjbar%NULL%1,      Yasaman%Emami%NULL%1,      Alireza%Mirahmadizadeh%NULL%1,      Mehrzad%Lotfi%NULL%1,      Babak%Shirazi Yeganeh%NULL%1,      Abolfazl%Dorrani Nejad%NULL%1,      Abdolrasool%Hemmati%NULL%1,      Mostafa%Ebrahimi%NULL%1,      Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,      Annachiara%Ferrari%NULL%2,      Annachiara%Ferrari%NULL%0,      Francesco%Fontana%NULL%1,      Giacomo%Mori%NULL%1,      Riccardo%Magistroni%NULL%1,      Marianna%Meschiari%NULL%1,      Erica%Franceschini%NULL%1,      Marianna%Menozzi%NULL%1,      Gianluca%Cuomo%NULL%1,      Gabriella%Orlando%NULL%1,      Antonella%Santoro%NULL%1,      Margherita%Digaetano%NULL%1,      Cinzia%Puzzolante%NULL%1,      Federica%Carli%NULL%1,      Andrea%Bedini%NULL%1,      Jovana%Milic%NULL%1,      Irene%Coloretti%NULL%1,      Paolo%Raggi%NULL%1,      Cristina%Mussini%NULL%1,      Massimo%Girardis%NULL%1,      Gianni%Cappelli%NULL%1,      Giovanni%Guaraldi%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,      Silvia%Bettini%NULL%2,      Silvia%Bettini%NULL%0,      Roberto%Fabris%NULL%1,      Roberto%Serra%NULL%2,      Chiara%Dal Pra%NULL%1,      Pietro%Maffei%NULL%1,      Marco%Rossato%NULL%1,      Paola%Fioretto%NULL%1,      Roberto%Vettor%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,      Marco%Roncador%NULL%2,      Marco%Roncador%NULL%0,      Andrea%Saporito%NULL%1,      Maira%Biggiogero%NULL%1,      Andrea%Glotta%NULL%1,      Pier Andrea%Maida%NULL%1,      Patrizia%Urso%NULL%1,      Giovanni%Bona%NULL%1,      Christian%Garzoni%NULL%1,      Romano%Mauri%NULL%1,      Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,      Anna Lisa%Ridolfo%NULL%4,      Laura%Milazzo%NULL%2,      Letizia%Oreni%NULL%4,      Dario%Bernacchia%NULL%4,      Matteo%Siano%NULL%4,      Cecilia%Bonazzetti%NULL%2,      Alice%Covizzi%NULL%2,      Marco%Schiuma%NULL%2,      Matteo%Passerini%NULL%2,      Marco%Piscaglia%NULL%2,      Massimo%Coen%NULL%2,      Guido%Gubertini%NULL%2,      Giuliano%Rizzardini%NULL%4,      Chiara%Cogliati%NULL%2,      Anna Maria%Brambilla%NULL%2,      Riccardo%Colombo%NULL%2,      Antonio%Castelli%NULL%2,      Roberto%Rech%NULL%2,      Agostino%Riva%NULL%2,      Alessandro%Torre%NULL%2,      Luca%Meroni%NULL%2,      Stefano%Rusconi%NULL%4,      Spinello%Antinori%NULL%4,      Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%1,     Castelli%Antonio%coreGivesNoEmail%1,     Cecconi%Maurizio%coreGivesNoEmail%1,     Cereda%Danilo%coreGivesNoEmail%1,     Coluccello%Antonio%coreGivesNoEmail%1,     Foti%Giuseppe%coreGivesNoEmail%1,     Fumagalli%Roberto%coreGivesNoEmail%1,     Grasselli%Giacomo%coreGivesNoEmail%1,     Iotti%Giorgio%coreGivesNoEmail%1,     Latronico%Nicola%coreGivesNoEmail%1,     Lorini%Luca%coreGivesNoEmail%1,     Merler%Stefano%coreGivesNoEmail%1,     Natalini%Giuseppe%coreGivesNoEmail%1,     Pesenti%Antonio%coreGivesNoEmail%1,     Piatti%Alessandra%coreGivesNoEmail%1,     Ranieri%Marco Vito%coreGivesNoEmail%1,     Scandroglio%Anna Mara%coreGivesNoEmail%1,     Storti%Enrico%coreGivesNoEmail%1,     Zanella%Alberto%coreGivesNoEmail%1,     Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,      Lara%Gianesello%gianesello.lara@libero.it%1,      Maddalena%Pazzi%NULL%2,      Maddalena%Pazzi%NULL%0,      Caterina%Stera%NULL%1,      Tommaso%Meconi%NULL%1,      Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,      Andrea%Dalbeni%NULL%2,      Andrea%Dalbeni%NULL%0,      Elia%Vettore%NULL%2,      Elia%Vettore%NULL%0,      Devis%Benfaremo%NULL%1,      Massimo%Mattioli%NULL%1,      Carmine G.%Gambino%NULL%1,      Viviana%Framba%NULL%2,      Viviana%Framba%NULL%0,      Lorenzo%Cerruti%NULL%1,      Anna%Mantovani%NULL%1,      Andrea%Martini%NULL%1,      Michele M.%Luchetti%NULL%1,      Roberto%Serra%NULL%0,      Annamaria%Cattelan%NULL%1,      Roberto%Vettor%NULL%0,      Paolo%Angeli%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,      Matthaios%Papadimitriou-Olivgeris%NULL%2,      Matthaios%Papadimitriou-Olivgeris%NULL%0,      Raphaël%Burger%NULL%1,      Marie-Annick%Le Pogam%NULL%1,      Tapio%Niemi%NULL%2,      Tapio%Niemi%NULL%0,      Paraskevas%Filippidis%NULL%1,      Jonathan%Tschopp%NULL%1,      Florian%Desgranges%NULL%1,      Benjamin%Viala%NULL%1,      Eleftheria%Kampouri%NULL%1,      Laurence%Rochat%NULL%2,      Laurence%Rochat%NULL%0,      David%Haefliger%NULL%1,      Mehdi%Belkoniene%NULL%1,      Carlos%Fidalgo%NULL%1,      Antonios%Kritikos%NULL%1,      Katia%Jaton%NULL%1,      Laurence%Senn%NULL%1,      Pierre-Alexandre%Bart%NULL%1,      Jean-Luc%Pagani%NULL%2,      Jean-Luc%Pagani%NULL%0,      Oriol%Manuel%NULL%1,      Loïc%Lhopitallier%NULL%1,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,      Ashwin%Subramaniam%NULL%2,      Ashwin%Subramaniam%NULL%0,      Mallikarjuna%Ponnapa Reddy%NULL%2,      Mallikarjuna%Ponnapa Reddy%NULL%0,      Gabriel%Blecher%NULL%1,      Umesh%Kadam%NULL%2,      Umesh%Kadam%NULL%0,      Afsana%Afroz%NULL%1,      Baki%Billah%NULL%1,      Sushma%Ashwin%NULL%1,      Mark%Kubicki%NULL%1,      Federico%Bilotta%NULL%1,      J. Randall%Curtis%NULL%2,      J. Randall%Curtis%NULL%0,      Francesca%Rubulotta%NULL%2,      Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,     Aggarwal%Saurabh%coreGivesNoEmail%2,     Garcia-Telles%Nelson%coreGivesNoEmail%2,     Henry%Brandon Michael%coreGivesNoEmail%2,     Lavie%Carl%coreGivesNoEmail%2,     Lippi%Giuseppe%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,      Samuel L%Bruce%NULL%0,      Cody L%Slater%NULL%0,      Jonathan R%Tiao%NULL%0,      Matthew R%Baldwin%NULL%0,      R Graham%Barr%NULL%0,      Bernard P%Chang%NULL%0,      Katherine H%Chau%NULL%0,      Justin J%Choi%NULL%0,      Nicholas%Gavin%NULL%0,      Parag%Goyal%NULL%0,      Angela M%Mills%NULL%0,      Ashmi A%Patel%NULL%0,      Marie-Laure S%Romney%NULL%0,      Monika M%Safford%NULL%0,      Neil W%Schluger%NULL%0,      Soumitra%Sengupta%NULL%0,      Magdalena E%Sobieszczyk%NULL%0,      Jason E%Zucker%NULL%0,      Paul A%Asadourian%NULL%0,      Fletcher M%Bell%NULL%0,      Rebekah%Boyd%NULL%0,      Matthew F%Cohen%NULL%0,      MacAlistair I%Colquhoun%NULL%0,      Lucy A%Colville%NULL%0,      Joseph H%de Jonge%NULL%0,      Lyle B%Dershowitz%NULL%0,      Shirin A%Dey%NULL%0,      Katherine A%Eiseman%NULL%0,      Zachary P%Girvin%NULL%0,      Daniella T%Goni%NULL%0,      Amro A%Harb%NULL%0,      Nicholas%Herzik%NULL%0,      Sarah%Householder%NULL%0,      Lara E%Karaaslan%NULL%0,      Heather%Lee%NULL%0,      Evan%Lieberman%NULL%0,      Andrew%Ling%NULL%0,      Ree%Lu%NULL%0,      Arthur Y%Shou%NULL%0,      Alexander C%Sisti%NULL%0,      Zachary E%Snow%NULL%0,      Colin P%Sperring%NULL%0,      Yuqing%Xiong%NULL%0,      Henry W%Zhou%NULL%0,      Karthik%Natarajan%NULL%0,      George%Hripcsak%NULL%0,      Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%0,      James M.%Blum%NULL%0,      Chad%Robichaux%NULL%0,      Colleen%Kraft%NULL%0,      Jesse T.%Jacob%NULL%0,      Craig S.%Jabaley%NULL%0,      David%Carpenter%NULL%0,      Roberta%Kaplow%NULL%0,      Alfonso C.%Hernandez-Romieu%NULL%0,      Max W.%Adelman%NULL%0,      Greg S.%Martin%NULL%0,      Craig M.%Coopersmith%NULL%0,      David J.%Murphy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%0,      Michelle%Nichols%NULL%0,      Richard%Kim%NULL%0,      Keith R.%Jerome%NULL%0,      Arun K.%Nalla%NULL%0,      Alexander L.%Greninger%NULL%0,      Sudhakar%Pipavath%NULL%0,      Mark M.%Wurfel%NULL%0,      Laura%Evans%NULL%0,      Patricia A.%Kritek%NULL%0,      T. Eoin%West%NULL%0,      Andrew%Luks%NULL%0,      Anthony%Gerbino%NULL%0,      Chris R.%Dale%NULL%0,      Jason D.%Goldman%NULL%0,      Shane%O’Mahony%NULL%0,      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,      Denise J%McCulloch%NULL%2,      Denise J%McCulloch%NULL%0,      Vidya%Atluri%NULL%1,      Michela%Blain%NULL%1,      Sarah A%McGuffin%NULL%1,      Arun K%Nalla%NULL%1,      Meei-Li%Huang%NULL%1,      Alex L%Greninger%NULL%1,      Keith R%Jerome%NULL%1,      Seth A%Cohen%NULL%1,      Santiago%Neme%NULL%0,      Margaret L%Green%NULL%1,      Helen Y%Chu%NULL%1,      H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,      Joelle I.%Rosser%NULL%1,      Orlando%Quintero%NULL%1,      Jake%Scott%NULL%1,      Aruna%Subramanian%NULL%1,      Mohammad%Gumma%NULL%1,      Angela%Rogers%NULL%1,      Shanthi%Kappagoda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,      Jacob%Fiksel%NULL%0,      Jacob%Fiksel%NULL%0,      John%Muschelli%NULL%0,      John%Muschelli%NULL%0,      Matthew L.%Robinson%NULL%0,      Matthew L.%Robinson%NULL%0,      Masoud%Rouhizadeh%NULL%0,      Masoud%Rouhizadeh%NULL%0,      Jamie%Perin%NULL%0,      Jamie%Perin%NULL%0,      Grant%Schumock%NULL%0,      Grant%Schumock%NULL%0,      Paul%Nagy%NULL%0,      Paul%Nagy%NULL%0,      Josh H.%Gray%NULL%0,      Josh H.%Gray%NULL%0,      Harsha%Malapati%NULL%0,      Harsha%Malapati%NULL%0,      Mariam%Ghobadi-Krueger%NULL%0,      Mariam%Ghobadi-Krueger%NULL%0,      Timothy M.%Niessen%NULL%0,      Bo Soo%Kim%NULL%0,      Peter M.%Hill%NULL%0,      M. Shafeeq%Ahmed%NULL%0,      Eric D.%Dobkin%NULL%0,      Renee%Blanding%NULL%0,      Jennifer%Abele%NULL%0,      Bonnie%Woods%NULL%0,      Kenneth%Harkness%NULL%0,      David R.%Thiemann%NULL%0,      Mary G.%Bowring%NULL%0,      Aalok B.%Shah%NULL%0,      Aalok B.%Shah%NULL%0,      Mei-Cheng%Wang%NULL%0,      Karen%Bandeen-Roche%NULL%0,      Antony%Rosen%NULL%0,      Scott L.%Zeger%NULL%0,      Scott L.%Zeger%NULL%0,      Amita%Gupta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,      Justin J.%Choi%NULL%2,      Laura C.%Pinheiro%NULL%2,      Edward J.%Schenck%NULL%2,      Ruijun%Chen%NULL%0,      Assem%Jabri%NULL%2,      Michael J.%Satlin%NULL%2,      Thomas R.%Campion%NULL%2,      Musarrat%Nahid%NULL%2,      Joanna B.%Ringel%NULL%2,      Katherine L.%Hoffman%NULL%2,      Mark N.%Alshak%NULL%2,      Han A.%Li%NULL%2,      Graham T.%Wehmeyer%NULL%4,      Graham T.%Wehmeyer%NULL%0,      Mangala%Rajan%NULL%2,      Evgeniya%Reshetnyak%NULL%2,      Nathaniel%Hupert%NULL%2,      Evelyn M.%Horn%NULL%2,      Fernando J.%Martinez%NULL%2,      Roy M.%Gulick%NULL%2,      Monika M.%Safford%NULL%4,      Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,      Simon A%Jones%NULL%0,      Jie%Yang%NULL%0,      Harish%Rajagopalan%NULL%0,      Luke%O’Donnell%NULL%0,      Yelena%Chernyak%NULL%0,      Katie A%Tobin%NULL%0,      Robert J%Cerfolio%NULL%0,      Fritz%Francois%NULL%0,      Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,      Anatoly%Mitrokhin%NULL%2,      Anatoly%Mitrokhin%NULL%0,      Ajai%Rajabalan%NULL%1,      Christian%Benjamin%NULL%1,      Sushma%Raviralla%NULL%1,      Vishnu R%Mani%vishnu.mani@duke.edu%2,      Vishnu R%Mani%vishnu.mani@duke.edu%0,      Aleksandr%Kalabin%NULL%2,      Aleksandr%Kalabin%NULL%0,      Sebastian C%Valdivieso%NULL%2,      Sebastian C%Valdivieso%NULL%0,      Max%Murray-Ramcharan%NULL%2,      Max%Murray-Ramcharan%NULL%0,      Brian%Donaldson%NULL%2,      Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,       Nicholas A.%Fergusson%null%1,       Elisa%Lloyd-Smith%null%1,       Andrew%Wormsbecker%null%1,       Denise%Foster%null%1,       Andrei%Karpov%null%1,       Sarah%Crowe%null%1,       Greg%Haljan%null%1,       Dean R.%Chittock%null%1,       Hussein D.%Kanji%null%1,       Mypinder S.%Sekhon%null%1,       Donald E.G.%Griesdale%null%1,     Anish R.%Mitra%null%2,     Nicholas A.%Fergusson%null%2,     Elisa%Lloyd-Smith%null%2,     Andrew%Wormsbecker%null%2,     Denise%Foster%null%2,     Andrei%Karpov%null%2,     Sarah%Crowe%null%2,     Greg%Haljan%null%2,     Dean R.%Chittock%null%2,     Hussein D.%Kanji%null%2,     Mypinder S.%Sekhon%null%2,     Donald E.G.%Griesdale%null%2]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,      Damianos G.%Kokkinidis%NULL%1,      Weijia%Li%NULL%1,      Dimitrios%Karamanis%NULL%1,      Jennifer%Ognibene%NULL%1,      Shitij%Arora%NULL%1,      William N.%Southern%NULL%1,      Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,      Jesus D.%Gonzalez-Lugo%NULL%1,      Shafia%Rahman%NULL%1,      Mohammad%Barouqa%NULL%1,      James%Szymanski%NULL%1,      Kenji%Ikemura%NULL%1,      Yungtai%Lo%NULL%1,      Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%1,     Chelico%J.D.%coreGivesNoEmail%1,     Cohen%S.L.%coreGivesNoEmail%1,     Cookingham%J.%coreGivesNoEmail%1,     Coppa%K.%coreGivesNoEmail%1,     Crawford%J.M.%coreGivesNoEmail%1,     Davidson%K.W.%coreGivesNoEmail%1,     Diefenbach%M.A.%coreGivesNoEmail%1,     Dominello%A.J.%coreGivesNoEmail%1,     Duer-Hefele%J.%coreGivesNoEmail%1,     Falzon%L.%coreGivesNoEmail%1,     Gitlin%J.%coreGivesNoEmail%1,     Hajizadeh%N.%coreGivesNoEmail%1,     Harvin%T.G.%coreGivesNoEmail%1,     Hirsch%J.S.%coreGivesNoEmail%1,     Hirschwerk%D.A.%coreGivesNoEmail%1,     Kim%E.J.%coreGivesNoEmail%1,     Kozel%Z.M.%coreGivesNoEmail%1,     Marrast%L.M.%coreGivesNoEmail%1,     McGinn%T.%coreGivesNoEmail%1,     Mogavero%J.N.%coreGivesNoEmail%1,     Narasimhan%M.%coreGivesNoEmail%1,     Osorio%G.A.%coreGivesNoEmail%1,     Qiu%M.%coreGivesNoEmail%1,     Richardson%S.%coreGivesNoEmail%1,     Zanos%T.P.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,      Viet-Thi%Tran%NULL%4,      Viet-Thi%Tran%NULL%0,      Mathilde%Roumier%NULL%2,      Amélie%Chabrol%NULL%2,      Romain%Paule%NULL%2,      Constance%Guillaud%NULL%2,      Elena%Fois%NULL%2,      Raphael%Lepeule%NULL%2,      Tali-Anne%Szwebel%NULL%2,      François-Xavier%Lescure%NULL%2,      Frédéric%Schlemmer%NULL%2,      Marie%Matignon%NULL%2,      Mehdi%Khellaf%NULL%2,      Etienne%Crickx%NULL%2,      Benjamin%Terrier%NULL%2,      Caroline%Morbieu%NULL%2,      Paul%Legendre%NULL%2,      Julien%Dang%NULL%2,      Yoland%Schoindre%NULL%2,      Jean-Michel%Pawlotsky%NULL%2,      Marc%Michel%NULL%2,      Elodie%Perrodeau%NULL%2,      Nicolas%Carlier%NULL%2,      Nicolas%Roche%NULL%2,      Victoire%de Lastours%NULL%2,      Clément%Ourghanlian%NULL%2,      Solen%Kerneis%NULL%2,      Philippe%Ménager%NULL%2,      Luc%Mouthon%NULL%2,      Etienne%Audureau%NULL%2,      Philippe%Ravaud%NULL%2,      Bertrand%Godeau%NULL%2,      Sébastien%Gallien%NULL%2,      Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,    Yu%Zuo%NULL%1,    Srilakshmi%Yalavarthi%NULL%1,    Kelsey%Gockman%NULL%1,    Melanie%Zuo%NULL%1,    Jacqueline A%Madison%NULL%1,    Christopher%Blair%NULL%1,    Wrenn%Woodward%NULL%1,    Sean P%Lezak%NULL%1,    Njira L%Lugogo%NULL%1,    Robert J%Woods%NULL%1,    Christian%Lood%NULL%1,    Jason S%Knight%NULL%2,    Jason S%Knight%NULL%0,    Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,      Raef A.%Fadel%NULL%1,      Kelly M.%Malette%NULL%1,      Charles%Hammond%NULL%1,      Hafsa%Abdulla%NULL%1,      Abigail%Entz%NULL%1,      Zachary%Demertzis%NULL%1,      Zachary%Hanna%NULL%1,      Andrew%Failla%NULL%1,      Carina%Dagher%NULL%1,      Zohra%Chaudhry%NULL%2,      Amit%Vahia%NULL%2,      Odaliz%Abreu Lanfranco%NULL%1,      Mayur%Ramesh%NULL%1,      Marcus J.%Zervos%NULL%0,      George%Alangaden%NULL%2,      Joseph%Miller%NULL%2,      Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,        J.% Jiang%null%1,        X.% Xu%null%1,        Y.% Hu%null%2,        Y.% Hu%null%0,        Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,       Chenchen%Qian%NULL%1,       Zhibing%Luo%NULL%1,       Qiang%Li%liqressh@hotmail.com%0,       Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,       Chunlin%Cai%NULL%1,       Jinglei%Zang%NULL%1,       Jun%Xie%NULL%1,       Dan%Xu%NULL%0,       Fang%Zheng%NULL%1,       Tao%Zhan%NULL%1,       Kang%Huang%NULL%1,       Yikai%Wang%NULL%1,       Xiao%Wang%NULL%1,       Zhe-Yu%Hu%NULL%1,       Yapeng%Deng%NULL%1,       Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,       Naofumi%Bunya%NULL%1,       Tomoyuki%Endo%NULL%1,       Yuji%Fujino%NULL%1,       Kensuke%Fujita%NULL%1,       Kenji%Fujizuka%NULL%1,       Yoshihiro%Hagiwara%NULL%1,       Jun%Hamaguchi%NULL%1,       Yoshitaka%Hara%NULL%1,       Eiji%Hashiba%NULL%1,       Satoru%Hashimoto%NULL%1,       Noriyuki%Hattori%NULL%1,       Kota%Hoshino%NULL%1,       Shinichi%Ijuin%NULL%1,       Takanari%Ikeyama%NULL%1,       Shingo%Ichiba%NULL%1,       Wataru%Iwanaga%NULL%1,       Yoshiaki%Iwashita%NULL%1,       Masafumi%Kanamoto%NULL%1,       Hitoshi%Kaneko%NULL%1,       Kaneyuki%Kawamae%NULL%1,       Toru%Kotani%NULL%1,       Yasuaki%Koyama%NULL%1,       Keibun%Liu%NULL%1,       Tomohiko%Masuno%NULL%1,       Naoto%Morimura%NULL%1,       Tomoyuki%Nakamura%NULL%1,       Masaki%Nakane%NULL%1,       Michitaka%Nasu%NULL%1,       Osamu%Nishida%NULL%1,       Masaji%Nishimura%NULL%1,       Kanae%Ochiai%NULL%1,       Takayuki%Ogura%NULL%1,       Shinichiro%Ohshimo%NULL%1,       Keisuke%Oyama%NULL%1,       Junichi%Sasaki%NULL%1,       Ryutaro%Seo%NULL%1,       Takeshi%Shimazu%NULL%1,       Nobuaki%Shime%NULL%4,       Keiki%Shimizu%NULL%1,       Hiroyuki%Suzuki%NULL%1,       Shuhei%Takauji%NULL%1,       Shinhiro%Takeda%NULL%1,       Ichiro%Takeuchi%NULL%0,       Mumon%Takita%NULL%1,       Hayato%Taniguchi%NULL%1,       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,       Yi Xin%Tong%NULL%3,       Sheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,       Hong%Chen%NULL%1,       Zhen%Li%NULL%2,       Bo%Wang%NULL%0,       Zhong-Wei%Zhang%NULL%1,       Wei-Min%Li%NULL%1,       Zong-An%Liang%NULL%1,       Jin%Tang%NULL%1,       Jian%Wang%NULL%1,       Rui%Shi%NULL%1,       Xiao-Dong%Jin%NULL%1,       Yan%Kang%NULL%1,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,        S. F.% Mahmood%null%1,        K.% Habib%null%1,        I.% Khanum%null%1,        B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,       Chaisith%Sivakorn%NULL%1,       Tanuwong%Viarasilpa%NULL%1,       Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,       Mu%Qin%qinmuae@163.com%1,       Yuli%Cai%NULL%1,       Tao%Liu%NULL%1,       Bo%Shen%NULL%1,       Fan%Yang%NULL%0,       Sheng%Cao%NULL%1,       Xu%Liu%NULL%2,       Xu%Liu%NULL%0,       Yaozu%Xiang%NULL%1,       Qinyan%Zhao%NULL%1,       He%Huang%huanghe1977@whu.edu.cn%1,       Bo%Yang%yybb112@whu.edu.cn%0,       Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,       Win%Kulvichit%NULL%1,       Sunchai%Payungporn%NULL%1,       Trairak%Pisitkun%NULL%1,       Ariya%Chindamporn%NULL%1,       Sadudee%Peerapornratana%NULL%1,       Prapaporn%Pisitkun%NULL%1,       Suwalak%Chitcharoen%NULL%1,       Vorthon%Sawaswong%NULL%1,       Navaporn%Worasilchai%NULL%1,       Sarinya%Kampunya%NULL%1,       Opass%Putcharoen%NULL%1,       Thammasak%Thawitsri%NULL%1,       Nophol%Leelayuwatanakul%NULL%1,       Napplika%Kongpolprom%NULL%1,       Vorakamol%Phoophiboon%NULL%1,       Thitiwat%Sriprasart%NULL%1,       Rujipat%Samransamruajkit%NULL%1,       Somkanya%Tungsanga%NULL%1,       Kanitha%Tiankanon%NULL%1,       Nuttha%Lumlertgul%NULL%1,       Asada%Leelahavanichkul%NULL%1,       Tueboon%Sriphojanart%NULL%1,       Terapong%Tantawichien%NULL%1,       Usa%Thisyakorn%NULL%1,       Chintana%Chirathaworn%NULL%1,       Kearkiat%Praditpornsilpa%NULL%1,       Kriang%Tungsanga%NULL%1,       Somchai%Eiam-Ong%NULL%1,       Visith%Sitprija%NULL%1,       John A.%Kellum%NULL%1,       Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,       Min%Pan%NULL%0,       Xiumei%Zhang%NULL%0,       Mingfeng%Han%fyhmf@163.com%0,       Xiaoyun%Fan%13956988552@126.com%0,       Fengde%Zhao%NULL%0,       Manli%Miao%NULL%0,       Jing%Xu%NULL%0,       Minglong%Guan%NULL%0,       Xia%Deng%NULL%0,       Xu%Chen%NULL%0,       Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,       Chunli%Tang%NULL%1,       Ruchong%Chen%NULL%1,       Honglian%Ruan%NULL%1,       Wenhua%Liang%NULL%1,       Weijie%Guan%NULL%1,       Ling%Sang%NULL%0,       Ruidi%Tang%NULL%1,       Nanshan%Zhong%NULL%2,       Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,       Shanyan%Zhang%NULL%0,       Xiaoli%Zhang%NULL%1,       Huan%Cai%NULL%0,       Jueqing%Gu%NULL%0,       Jiangshan%Lian%NULL%0,       Yingfeng%Lu%NULL%0,       Hongyu%Jia%NULL%0,       Jianhua%Hu%NULL%0,       Ciliang%Jin%NULL%0,       Guodong%Yu%NULL%0,       Yimin%Zhang%NULL%0,       Jifang%Sheng%NULL%0,       Yida%Yang%yidayang65@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%1,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%1,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%1,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%1,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%1,       Song%Hu%NULL%1,       Quan%Hu%NULL%1,       Daoyin%Ding%NULL%1,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%1,       Weijiang%Xu%NULL%1,       Jun%Guo%NULL%1,       Jinglong%Xu%NULL%1,       Haitao%Yuan%NULL%1,       Bin%Zhang%NULL%2,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%1,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,       Hao-Yu%Gao%NULL%1,       Zi-Yi%Feng%NULL%1,       Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,       Li-jun%Sun%NULL%1,       Mi%Xu%NULL%1,       Jian%Pan%NULL%1,       Yun-tao%Zhang%NULL%1,       Xue-ling%Fang%NULL%1,       Qiang%Fang%NULL%2,       Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,       Ziqiang%Du%NULL%1,       Yanfang%Zhu%NULL%1,       Wenfeng%Li%NULL%1,       Hongjun%Miao%NULL%1,       Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,       Sarah%Al-Youha%sarahalyouha@gmail.com%1,       Mohammad H.%Jamal%NULL%1,       Mohannad%Al-Haddad%NULL%1,       Ali%Al-Muhaini%NULL%1,       Fahad%Al-Ghimlas%NULL%1,       Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,       Mina%Akbari Rad%NULL%1,       Robert%Bergquist%NULL%1,       Abolghasem%Allahyari%NULL%1,       Kamila%Hashemzadeh%NULL%1,       Nasrin%Milani%NULL%1,       Mahdi%Gholian-Aval%NULL%1,       Fariba%Rezaeitalab%NULL%1,       Mohammad Jafar%Sadeghi Quchani%NULL%1,       Zahra%Nahbandani%NULL%1,       Mandana%Khodashahi%NULL%1,       Zahra%Javid%NULL%1,       Mahnaz%Mozdourian%NULL%1,       Mohammad Ali%Yaghoubi%NULL%1,       Zahra%Mozaheb%NULL%1,       Mohsen%Seddigh-Shamsi%NULL%1,       Mohammad%Moeini Nodeh%NULL%1,       Shima%Nabavi%NULL%1,       Hooman%Mosannen Mozaffari%NULL%1,       Mohammadreza%Farzanehfar%NULL%1,       Zahra%Lotfi%NULL%0,       Alireza%Shariati%NULL%1,       Shekoofe%Bonakdaran%NULL%1,       Zahra%Rezaieyazdi%NULL%1,       Zahra%Mirfeizi%NULL%1,       Maryam%Miri%NULL%1,       Reza%Bassiri%NULL%1,       Sajjad%Ataei Azimi%NULL%1,       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,       Ibrahim%Al-Zakwani%NULL%1,       Hamed%Al Naamani%NULL%1,       Sultan%Al Lawati%NULL%1,       Nenad%Pandak%NULL%1,       Muna Ba%Omar%NULL%1,       Maher%Al Bahrani%NULL%1,       Zakaryia AL%Bulushi%NULL%1,       Huda%Al Khalili%NULL%1,       Issa%Al Salmi%NULL%1,       Ruwaida%Al Ismaili%NULL%1,       Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,       Zohre%Khodamoradi%NULL%1,       Amirhossein%Erfani%NULL%1,       Hamidreza%Hosseinpour%NULL%1,       Keivan%Ranjbar%NULL%1,       Yasaman%Emami%NULL%1,       Alireza%Mirahmadizadeh%NULL%1,       Mehrzad%Lotfi%NULL%1,       Babak%Shirazi Yeganeh%NULL%1,       Abolfazl%Dorrani Nejad%NULL%1,       Abdolrasool%Hemmati%NULL%1,       Mostafa%Ebrahimi%NULL%1,       Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,       Annachiara%Ferrari%NULL%2,       Annachiara%Ferrari%NULL%0,       Francesco%Fontana%NULL%1,       Giacomo%Mori%NULL%1,       Riccardo%Magistroni%NULL%1,       Marianna%Meschiari%NULL%1,       Erica%Franceschini%NULL%1,       Marianna%Menozzi%NULL%1,       Gianluca%Cuomo%NULL%1,       Gabriella%Orlando%NULL%1,       Antonella%Santoro%NULL%1,       Margherita%Digaetano%NULL%1,       Cinzia%Puzzolante%NULL%1,       Federica%Carli%NULL%1,       Andrea%Bedini%NULL%1,       Jovana%Milic%NULL%1,       Irene%Coloretti%NULL%1,       Paolo%Raggi%NULL%1,       Cristina%Mussini%NULL%1,       Massimo%Girardis%NULL%1,       Gianni%Cappelli%NULL%1,       Giovanni%Guaraldi%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,       Silvia%Bettini%NULL%2,       Silvia%Bettini%NULL%0,       Roberto%Fabris%NULL%1,       Roberto%Serra%NULL%2,       Chiara%Dal Pra%NULL%1,       Pietro%Maffei%NULL%1,       Marco%Rossato%NULL%1,       Paola%Fioretto%NULL%1,       Roberto%Vettor%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,       Marco%Roncador%NULL%2,       Marco%Roncador%NULL%0,       Andrea%Saporito%NULL%1,       Maira%Biggiogero%NULL%1,       Andrea%Glotta%NULL%1,       Pier Andrea%Maida%NULL%1,       Patrizia%Urso%NULL%1,       Giovanni%Bona%NULL%1,       Christian%Garzoni%NULL%1,       Romano%Mauri%NULL%1,       Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,       Anna Lisa%Ridolfo%NULL%4,       Laura%Milazzo%NULL%2,       Letizia%Oreni%NULL%4,       Dario%Bernacchia%NULL%4,       Matteo%Siano%NULL%4,       Cecilia%Bonazzetti%NULL%2,       Alice%Covizzi%NULL%2,       Marco%Schiuma%NULL%2,       Matteo%Passerini%NULL%2,       Marco%Piscaglia%NULL%2,       Massimo%Coen%NULL%2,       Guido%Gubertini%NULL%2,       Giuliano%Rizzardini%NULL%4,       Chiara%Cogliati%NULL%2,       Anna Maria%Brambilla%NULL%2,       Riccardo%Colombo%NULL%2,       Antonio%Castelli%NULL%2,       Roberto%Rech%NULL%2,       Agostino%Riva%NULL%2,       Alessandro%Torre%NULL%2,       Luca%Meroni%NULL%2,       Stefano%Rusconi%NULL%4,       Spinello%Antinori%NULL%4,       Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%1,      Castelli%Antonio%coreGivesNoEmail%1,      Cecconi%Maurizio%coreGivesNoEmail%1,      Cereda%Danilo%coreGivesNoEmail%1,      Coluccello%Antonio%coreGivesNoEmail%1,      Foti%Giuseppe%coreGivesNoEmail%1,      Fumagalli%Roberto%coreGivesNoEmail%1,      Grasselli%Giacomo%coreGivesNoEmail%1,      Iotti%Giorgio%coreGivesNoEmail%1,      Latronico%Nicola%coreGivesNoEmail%1,      Lorini%Luca%coreGivesNoEmail%1,      Merler%Stefano%coreGivesNoEmail%1,      Natalini%Giuseppe%coreGivesNoEmail%1,      Pesenti%Antonio%coreGivesNoEmail%1,      Piatti%Alessandra%coreGivesNoEmail%1,      Ranieri%Marco Vito%coreGivesNoEmail%1,      Scandroglio%Anna Mara%coreGivesNoEmail%1,      Storti%Enrico%coreGivesNoEmail%1,      Zanella%Alberto%coreGivesNoEmail%1,      Zangrillo%Alberto%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,       Lara%Gianesello%gianesello.lara@libero.it%1,       Maddalena%Pazzi%NULL%2,       Maddalena%Pazzi%NULL%0,       Caterina%Stera%NULL%1,       Tommaso%Meconi%NULL%1,       Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,       Andrea%Dalbeni%NULL%2,       Andrea%Dalbeni%NULL%0,       Elia%Vettore%NULL%2,       Elia%Vettore%NULL%0,       Devis%Benfaremo%NULL%1,       Massimo%Mattioli%NULL%1,       Carmine G.%Gambino%NULL%1,       Viviana%Framba%NULL%2,       Viviana%Framba%NULL%0,       Lorenzo%Cerruti%NULL%1,       Anna%Mantovani%NULL%1,       Andrea%Martini%NULL%1,       Michele M.%Luchetti%NULL%1,       Roberto%Serra%NULL%0,       Annamaria%Cattelan%NULL%1,       Roberto%Vettor%NULL%0,       Paolo%Angeli%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,       Matthaios%Papadimitriou-Olivgeris%NULL%2,       Matthaios%Papadimitriou-Olivgeris%NULL%0,       Raphaël%Burger%NULL%1,       Marie-Annick%Le Pogam%NULL%1,       Tapio%Niemi%NULL%2,       Tapio%Niemi%NULL%0,       Paraskevas%Filippidis%NULL%1,       Jonathan%Tschopp%NULL%1,       Florian%Desgranges%NULL%1,       Benjamin%Viala%NULL%1,       Eleftheria%Kampouri%NULL%1,       Laurence%Rochat%NULL%2,       Laurence%Rochat%NULL%0,       David%Haefliger%NULL%1,       Mehdi%Belkoniene%NULL%1,       Carlos%Fidalgo%NULL%1,       Antonios%Kritikos%NULL%1,       Katia%Jaton%NULL%1,       Laurence%Senn%NULL%1,       Pierre-Alexandre%Bart%NULL%1,       Jean-Luc%Pagani%NULL%2,       Jean-Luc%Pagani%NULL%0,       Oriol%Manuel%NULL%1,       Loïc%Lhopitallier%NULL%1,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,       Ashwin%Subramaniam%NULL%2,       Ashwin%Subramaniam%NULL%0,       Mallikarjuna%Ponnapa Reddy%NULL%2,       Mallikarjuna%Ponnapa Reddy%NULL%0,       Gabriel%Blecher%NULL%1,       Umesh%Kadam%NULL%2,       Umesh%Kadam%NULL%0,       Afsana%Afroz%NULL%1,       Baki%Billah%NULL%1,       Sushma%Ashwin%NULL%1,       Mark%Kubicki%NULL%1,       Federico%Bilotta%NULL%1,       J. Randall%Curtis%NULL%2,       J. Randall%Curtis%NULL%0,       Francesca%Rubulotta%NULL%2,       Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,      Aggarwal%Saurabh%coreGivesNoEmail%2,      Garcia-Telles%Nelson%coreGivesNoEmail%2,      Henry%Brandon Michael%coreGivesNoEmail%2,      Lavie%Carl%coreGivesNoEmail%2,      Lippi%Giuseppe%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,       Samuel L%Bruce%NULL%0,       Cody L%Slater%NULL%0,       Jonathan R%Tiao%NULL%0,       Matthew R%Baldwin%NULL%0,       R Graham%Barr%NULL%0,       Bernard P%Chang%NULL%0,       Katherine H%Chau%NULL%0,       Justin J%Choi%NULL%0,       Nicholas%Gavin%NULL%0,       Parag%Goyal%NULL%0,       Angela M%Mills%NULL%0,       Ashmi A%Patel%NULL%0,       Marie-Laure S%Romney%NULL%0,       Monika M%Safford%NULL%0,       Neil W%Schluger%NULL%0,       Soumitra%Sengupta%NULL%0,       Magdalena E%Sobieszczyk%NULL%0,       Jason E%Zucker%NULL%0,       Paul A%Asadourian%NULL%0,       Fletcher M%Bell%NULL%0,       Rebekah%Boyd%NULL%0,       Matthew F%Cohen%NULL%0,       MacAlistair I%Colquhoun%NULL%0,       Lucy A%Colville%NULL%0,       Joseph H%de Jonge%NULL%0,       Lyle B%Dershowitz%NULL%0,       Shirin A%Dey%NULL%0,       Katherine A%Eiseman%NULL%0,       Zachary P%Girvin%NULL%0,       Daniella T%Goni%NULL%0,       Amro A%Harb%NULL%0,       Nicholas%Herzik%NULL%0,       Sarah%Householder%NULL%0,       Lara E%Karaaslan%NULL%0,       Heather%Lee%NULL%0,       Evan%Lieberman%NULL%0,       Andrew%Ling%NULL%0,       Ree%Lu%NULL%0,       Arthur Y%Shou%NULL%0,       Alexander C%Sisti%NULL%0,       Zachary E%Snow%NULL%0,       Colin P%Sperring%NULL%0,       Yuqing%Xiong%NULL%0,       Henry W%Zhou%NULL%0,       Karthik%Natarajan%NULL%0,       George%Hripcsak%NULL%0,       Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%0,       James M.%Blum%NULL%0,       Chad%Robichaux%NULL%0,       Colleen%Kraft%NULL%0,       Jesse T.%Jacob%NULL%0,       Craig S.%Jabaley%NULL%0,       David%Carpenter%NULL%0,       Roberta%Kaplow%NULL%0,       Alfonso C.%Hernandez-Romieu%NULL%0,       Max W.%Adelman%NULL%0,       Greg S.%Martin%NULL%0,       Craig M.%Coopersmith%NULL%0,       David J.%Murphy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%0,       Michelle%Nichols%NULL%0,       Richard%Kim%NULL%0,       Keith R.%Jerome%NULL%0,       Arun K.%Nalla%NULL%0,       Alexander L.%Greninger%NULL%0,       Sudhakar%Pipavath%NULL%0,       Mark M.%Wurfel%NULL%0,       Laura%Evans%NULL%0,       Patricia A.%Kritek%NULL%0,       T. Eoin%West%NULL%0,       Andrew%Luks%NULL%0,       Anthony%Gerbino%NULL%0,       Chris R.%Dale%NULL%0,       Jason D.%Goldman%NULL%0,       Shane%O’Mahony%NULL%0,       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,       Denise J%McCulloch%NULL%2,       Denise J%McCulloch%NULL%0,       Vidya%Atluri%NULL%1,       Michela%Blain%NULL%1,       Sarah A%McGuffin%NULL%1,       Arun K%Nalla%NULL%1,       Meei-Li%Huang%NULL%1,       Alex L%Greninger%NULL%1,       Keith R%Jerome%NULL%1,       Seth A%Cohen%NULL%1,       Santiago%Neme%NULL%0,       Margaret L%Green%NULL%1,       Helen Y%Chu%NULL%1,       H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,       Joelle I.%Rosser%NULL%1,       Orlando%Quintero%NULL%1,       Jake%Scott%NULL%1,       Aruna%Subramanian%NULL%1,       Mohammad%Gumma%NULL%1,       Angela%Rogers%NULL%1,       Shanthi%Kappagoda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,       Jacob%Fiksel%NULL%0,       Jacob%Fiksel%NULL%0,       John%Muschelli%NULL%0,       John%Muschelli%NULL%0,       Matthew L.%Robinson%NULL%0,       Matthew L.%Robinson%NULL%0,       Masoud%Rouhizadeh%NULL%0,       Masoud%Rouhizadeh%NULL%0,       Jamie%Perin%NULL%0,       Jamie%Perin%NULL%0,       Grant%Schumock%NULL%0,       Grant%Schumock%NULL%0,       Paul%Nagy%NULL%0,       Paul%Nagy%NULL%0,       Josh H.%Gray%NULL%0,       Josh H.%Gray%NULL%0,       Harsha%Malapati%NULL%0,       Harsha%Malapati%NULL%0,       Mariam%Ghobadi-Krueger%NULL%0,       Mariam%Ghobadi-Krueger%NULL%0,       Timothy M.%Niessen%NULL%0,       Bo Soo%Kim%NULL%0,       Peter M.%Hill%NULL%0,       M. Shafeeq%Ahmed%NULL%0,       Eric D.%Dobkin%NULL%0,       Renee%Blanding%NULL%0,       Jennifer%Abele%NULL%0,       Bonnie%Woods%NULL%0,       Kenneth%Harkness%NULL%0,       David R.%Thiemann%NULL%0,       Mary G.%Bowring%NULL%0,       Aalok B.%Shah%NULL%0,       Aalok B.%Shah%NULL%0,       Mei-Cheng%Wang%NULL%0,       Karen%Bandeen-Roche%NULL%0,       Antony%Rosen%NULL%0,       Scott L.%Zeger%NULL%0,       Scott L.%Zeger%NULL%0,       Amita%Gupta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,       Justin J.%Choi%NULL%2,       Laura C.%Pinheiro%NULL%2,       Edward J.%Schenck%NULL%2,       Ruijun%Chen%NULL%0,       Assem%Jabri%NULL%2,       Michael J.%Satlin%NULL%2,       Thomas R.%Campion%NULL%2,       Musarrat%Nahid%NULL%2,       Joanna B.%Ringel%NULL%2,       Katherine L.%Hoffman%NULL%2,       Mark N.%Alshak%NULL%2,       Han A.%Li%NULL%2,       Graham T.%Wehmeyer%NULL%4,       Graham T.%Wehmeyer%NULL%0,       Mangala%Rajan%NULL%2,       Evgeniya%Reshetnyak%NULL%2,       Nathaniel%Hupert%NULL%2,       Evelyn M.%Horn%NULL%2,       Fernando J.%Martinez%NULL%2,       Roy M.%Gulick%NULL%2,       Monika M.%Safford%NULL%4,       Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,       Simon A%Jones%NULL%0,       Jie%Yang%NULL%0,       Harish%Rajagopalan%NULL%0,       Luke%O’Donnell%NULL%0,       Yelena%Chernyak%NULL%0,       Katie A%Tobin%NULL%0,       Robert J%Cerfolio%NULL%0,       Fritz%Francois%NULL%0,       Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,       Anatoly%Mitrokhin%NULL%2,       Anatoly%Mitrokhin%NULL%0,       Ajai%Rajabalan%NULL%1,       Christian%Benjamin%NULL%1,       Sushma%Raviralla%NULL%1,       Vishnu R%Mani%vishnu.mani@duke.edu%2,       Vishnu R%Mani%vishnu.mani@duke.edu%0,       Aleksandr%Kalabin%NULL%2,       Aleksandr%Kalabin%NULL%0,       Sebastian C%Valdivieso%NULL%2,       Sebastian C%Valdivieso%NULL%0,       Max%Murray-Ramcharan%NULL%2,       Max%Murray-Ramcharan%NULL%0,       Brian%Donaldson%NULL%2,       Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,        Nicholas A.%Fergusson%null%1,        Elisa%Lloyd-Smith%null%1,        Andrew%Wormsbecker%null%1,        Denise%Foster%null%1,        Andrei%Karpov%null%1,        Sarah%Crowe%null%1,        Greg%Haljan%null%1,        Dean R.%Chittock%null%1,        Hussein D.%Kanji%null%1,        Mypinder S.%Sekhon%null%1,        Donald E.G.%Griesdale%null%1,      Anish R.%Mitra%null%2,      Nicholas A.%Fergusson%null%2,      Elisa%Lloyd-Smith%null%2,      Andrew%Wormsbecker%null%2,      Denise%Foster%null%2,      Andrei%Karpov%null%2,      Sarah%Crowe%null%2,      Greg%Haljan%null%2,      Dean R.%Chittock%null%2,      Hussein D.%Kanji%null%2,      Mypinder S.%Sekhon%null%2,      Donald E.G.%Griesdale%null%2]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,       Damianos G.%Kokkinidis%NULL%1,       Weijia%Li%NULL%1,       Dimitrios%Karamanis%NULL%1,       Jennifer%Ognibene%NULL%1,       Shitij%Arora%NULL%1,       William N.%Southern%NULL%1,       Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,       Jesus D.%Gonzalez-Lugo%NULL%1,       Shafia%Rahman%NULL%1,       Mohammad%Barouqa%NULL%1,       James%Szymanski%NULL%1,       Kenji%Ikemura%NULL%1,       Yungtai%Lo%NULL%1,       Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%1,      Chelico%J.D.%coreGivesNoEmail%1,      Cohen%S.L.%coreGivesNoEmail%1,      Cookingham%J.%coreGivesNoEmail%1,      Coppa%K.%coreGivesNoEmail%1,      Crawford%J.M.%coreGivesNoEmail%1,      Davidson%K.W.%coreGivesNoEmail%1,      Diefenbach%M.A.%coreGivesNoEmail%1,      Dominello%A.J.%coreGivesNoEmail%1,      Duer-Hefele%J.%coreGivesNoEmail%1,      Falzon%L.%coreGivesNoEmail%1,      Gitlin%J.%coreGivesNoEmail%1,      Hajizadeh%N.%coreGivesNoEmail%1,      Harvin%T.G.%coreGivesNoEmail%1,      Hirsch%J.S.%coreGivesNoEmail%1,      Hirschwerk%D.A.%coreGivesNoEmail%1,      Kim%E.J.%coreGivesNoEmail%1,      Kozel%Z.M.%coreGivesNoEmail%1,      Marrast%L.M.%coreGivesNoEmail%1,      McGinn%T.%coreGivesNoEmail%1,      Mogavero%J.N.%coreGivesNoEmail%1,      Narasimhan%M.%coreGivesNoEmail%1,      Osorio%G.A.%coreGivesNoEmail%1,      Qiu%M.%coreGivesNoEmail%1,      Richardson%S.%coreGivesNoEmail%1,      Zanos%T.P.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,       Viet-Thi%Tran%NULL%4,       Viet-Thi%Tran%NULL%0,       Mathilde%Roumier%NULL%2,       Amélie%Chabrol%NULL%2,       Romain%Paule%NULL%2,       Constance%Guillaud%NULL%2,       Elena%Fois%NULL%2,       Raphael%Lepeule%NULL%2,       Tali-Anne%Szwebel%NULL%2,       François-Xavier%Lescure%NULL%2,       Frédéric%Schlemmer%NULL%2,       Marie%Matignon%NULL%2,       Mehdi%Khellaf%NULL%2,       Etienne%Crickx%NULL%2,       Benjamin%Terrier%NULL%2,       Caroline%Morbieu%NULL%2,       Paul%Legendre%NULL%2,       Julien%Dang%NULL%2,       Yoland%Schoindre%NULL%2,       Jean-Michel%Pawlotsky%NULL%2,       Marc%Michel%NULL%2,       Elodie%Perrodeau%NULL%2,       Nicolas%Carlier%NULL%2,       Nicolas%Roche%NULL%2,       Victoire%de Lastours%NULL%2,       Clément%Ourghanlian%NULL%2,       Solen%Kerneis%NULL%2,       Philippe%Ménager%NULL%2,       Luc%Mouthon%NULL%2,       Etienne%Audureau%NULL%2,       Philippe%Ravaud%NULL%2,       Bertrand%Godeau%NULL%2,       Sébastien%Gallien%NULL%2,       Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,     Yu%Zuo%NULL%1,     Srilakshmi%Yalavarthi%NULL%1,     Kelsey%Gockman%NULL%1,     Melanie%Zuo%NULL%1,     Jacqueline A%Madison%NULL%1,     Christopher%Blair%NULL%1,     Wrenn%Woodward%NULL%1,     Sean P%Lezak%NULL%1,     Njira L%Lugogo%NULL%1,     Robert J%Woods%NULL%1,     Christian%Lood%NULL%1,     Jason S%Knight%NULL%2,     Jason S%Knight%NULL%0,     Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,       Raef A.%Fadel%NULL%1,       Kelly M.%Malette%NULL%1,       Charles%Hammond%NULL%1,       Hafsa%Abdulla%NULL%1,       Abigail%Entz%NULL%1,       Zachary%Demertzis%NULL%1,       Zachary%Hanna%NULL%1,       Andrew%Failla%NULL%1,       Carina%Dagher%NULL%1,       Zohra%Chaudhry%NULL%2,       Amit%Vahia%NULL%2,       Odaliz%Abreu Lanfranco%NULL%1,       Mayur%Ramesh%NULL%1,       Marcus J.%Zervos%NULL%0,       George%Alangaden%NULL%2,       Joseph%Miller%NULL%2,       Indira%Brar%NULL%2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="yyyy mmmm"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="166" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="168" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="169" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="170" formatCode="dd mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="168" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1865,7 +2032,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1881,86 +2048,69 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2150,20 +2300,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2189,10 +2344,10 @@
         <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2206,7 +2361,7 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -2215,18 +2370,18 @@
         <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -2244,129 +2399,129 @@
         <v>82</v>
       </c>
       <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>43998.0</v>
+        <v>43998</v>
       </c>
       <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>43999.0</v>
+        <v>43999</v>
       </c>
       <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
       <c r="I5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>43997.0</v>
+        <v>43997</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>43940.0</v>
+        <v>43940</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2374,28 +2529,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2403,13 +2558,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2418,71 +2573,71 @@
         <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="9">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="5">
-        <v>43989.0</v>
+        <v>43989</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2490,91 +2645,91 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="9">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5">
-        <v>43920.0</v>
+        <v>43920</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -2592,18 +2747,18 @@
         <v>82</v>
       </c>
       <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" t="s">
         <v>89</v>
       </c>
-      <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="9">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C16" t="s">
         <v>76</v>
@@ -2621,76 +2776,76 @@
         <v>82</v>
       </c>
       <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="7">
-        <v>43998.0</v>
+        <v>43998</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5">
-        <v>43942.0</v>
+        <v>43942</v>
       </c>
       <c r="C19" t="s">
         <v>76</v>
@@ -2708,129 +2863,129 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
         <v>89</v>
       </c>
-      <c r="I19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="10">
-        <v>43965.0</v>
+        <v>43965</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="5">
-        <v>43987.0</v>
+        <v>43987</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="11">
-        <v>44085.0</v>
+        <v>44085</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -2838,28 +2993,28 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
@@ -2867,86 +3022,86 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="9">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="5">
-        <v>44000.0</v>
+        <v>44000</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
@@ -2954,57 +3109,57 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="7">
-        <v>43979.0</v>
+        <v>43979</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="I29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -3012,57 +3167,57 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="9">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="I31" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -3070,149 +3225,149 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" t="s">
         <v>89</v>
       </c>
-      <c r="I32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="9">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="7">
-        <v>43993.0</v>
+        <v>43993</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="I34" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="13">
-        <v>44148.0</v>
+        <v>44148</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="15">
-        <v>44133.0</v>
+        <v>44133</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="I36" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="17">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -3230,47 +3385,47 @@
         <v>82</v>
       </c>
       <c r="H37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" t="s">
         <v>89</v>
       </c>
-      <c r="I37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="10">
-        <v>43977.0</v>
+        <v>43977</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="H38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" t="s">
         <v>89</v>
       </c>
-      <c r="I38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="5">
-        <v>43949.0</v>
+        <v>43949</v>
       </c>
       <c r="C39" t="s">
         <v>76</v>
@@ -3288,42 +3443,42 @@
         <v>82</v>
       </c>
       <c r="H39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" t="s">
         <v>89</v>
       </c>
-      <c r="I39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="10">
-        <v>43980.0</v>
+        <v>43980</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -3331,115 +3486,115 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>43972.0</v>
+        <v>43972</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="F42" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="7">
-        <v>43973.0</v>
+        <v>43973</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="9">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
@@ -3447,33 +3602,33 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="10">
-        <v>43959.0</v>
+        <v>43959</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
@@ -3491,187 +3646,187 @@
         <v>82</v>
       </c>
       <c r="H46" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" t="s">
         <v>89</v>
       </c>
-      <c r="I46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="5">
-        <v>43993.0</v>
+        <v>43993</v>
       </c>
       <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>441</v>
+      </c>
+      <c r="F47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" t="s">
         <v>252</v>
       </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" t="s">
-        <v>386</v>
-      </c>
-      <c r="F47" t="s">
-        <v>254</v>
-      </c>
-      <c r="G47" t="s">
-        <v>94</v>
-      </c>
-      <c r="H47" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="2">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I48" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="5">
-        <v>44092.0</v>
+        <v>44092</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="I49" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B50" s="5">
-        <v>44011.0</v>
+        <v>44011</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="H50" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B51" s="9">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="10">
-        <v>43973.0</v>
+        <v>43973</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I52" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
@@ -3679,57 +3834,57 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="F53" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="G53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="I53" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B54" s="10">
-        <v>43977.0</v>
+        <v>43977</v>
       </c>
       <c r="C54" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="H54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" t="s">
         <v>89</v>
       </c>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>66</v>
       </c>
@@ -3737,33 +3892,33 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="F55" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="I55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="18">
-        <v>43969.0</v>
+        <v>43969</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
@@ -3781,71 +3936,71 @@
         <v>82</v>
       </c>
       <c r="H56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" t="s">
         <v>89</v>
       </c>
-      <c r="I56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="19">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C57" t="s">
-        <v>394</v>
+        <v>254</v>
       </c>
       <c r="D57" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="F57" t="s">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
+        <v>257</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="5">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="F58" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>71</v>
       </c>
@@ -3868,70 +4023,70 @@
         <v>82</v>
       </c>
       <c r="H59" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
         <v>89</v>
-      </c>
-      <c r="I59" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="A8"/>
-    <hyperlink r:id="rId7" ref="A10"/>
-    <hyperlink r:id="rId8" ref="A11"/>
-    <hyperlink r:id="rId9" ref="A12"/>
-    <hyperlink r:id="rId10" ref="A13"/>
-    <hyperlink r:id="rId11" ref="A14"/>
-    <hyperlink r:id="rId12" ref="A15"/>
-    <hyperlink r:id="rId13" ref="A16"/>
-    <hyperlink r:id="rId14" ref="A17"/>
-    <hyperlink r:id="rId15" ref="A18"/>
-    <hyperlink r:id="rId16" ref="A19"/>
-    <hyperlink r:id="rId17" ref="A20"/>
-    <hyperlink r:id="rId18" ref="A21"/>
-    <hyperlink r:id="rId19" ref="A22"/>
-    <hyperlink r:id="rId20" ref="A23"/>
-    <hyperlink r:id="rId21" ref="A24"/>
-    <hyperlink r:id="rId22" ref="A25"/>
-    <hyperlink r:id="rId23" ref="A26"/>
-    <hyperlink r:id="rId24" ref="A27"/>
-    <hyperlink r:id="rId25" ref="A28"/>
-    <hyperlink r:id="rId26" ref="A29"/>
-    <hyperlink r:id="rId27" ref="A30"/>
-    <hyperlink r:id="rId28" ref="A31"/>
-    <hyperlink r:id="rId29" ref="A32"/>
-    <hyperlink r:id="rId30" ref="A33"/>
-    <hyperlink r:id="rId31" ref="A34"/>
-    <hyperlink r:id="rId32" ref="A35"/>
-    <hyperlink r:id="rId33" ref="A36"/>
-    <hyperlink r:id="rId34" ref="B37"/>
-    <hyperlink r:id="rId35" ref="A38"/>
-    <hyperlink r:id="rId36" ref="A39"/>
-    <hyperlink r:id="rId37" ref="A40"/>
-    <hyperlink r:id="rId38" ref="A41"/>
-    <hyperlink r:id="rId39" ref="A42"/>
-    <hyperlink r:id="rId40" ref="A43"/>
-    <hyperlink r:id="rId41" ref="A44"/>
-    <hyperlink r:id="rId42" ref="A45"/>
-    <hyperlink r:id="rId43" ref="A47"/>
-    <hyperlink r:id="rId44" ref="A48"/>
-    <hyperlink r:id="rId45" ref="A49"/>
-    <hyperlink r:id="rId46" ref="A50"/>
-    <hyperlink r:id="rId47" ref="A51"/>
-    <hyperlink r:id="rId48" ref="A52"/>
-    <hyperlink r:id="rId49" ref="A53"/>
-    <hyperlink r:id="rId50" ref="A54"/>
-    <hyperlink r:id="rId51" ref="A55"/>
-    <hyperlink r:id="rId52" ref="A56"/>
-    <hyperlink r:id="rId53" ref="A57"/>
-    <hyperlink r:id="rId54" ref="A58"/>
-    <hyperlink r:id="rId55" ref="A59"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B37" r:id="rId34" display="about:blank" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
   </hyperlinks>
-  <drawing r:id="rId56"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="568">
   <si>
     <t>Doi</t>
   </si>
@@ -1962,6 +1962,357 @@
   </si>
   <si>
     <t>[Geehan%Suleyman%NULL%1,       Raef A.%Fadel%NULL%1,       Kelly M.%Malette%NULL%1,       Charles%Hammond%NULL%1,       Hafsa%Abdulla%NULL%1,       Abigail%Entz%NULL%1,       Zachary%Demertzis%NULL%1,       Zachary%Hanna%NULL%1,       Andrew%Failla%NULL%1,       Carina%Dagher%NULL%1,       Zohra%Chaudhry%NULL%2,       Amit%Vahia%NULL%2,       Odaliz%Abreu Lanfranco%NULL%1,       Mayur%Ramesh%NULL%1,       Marcus J.%Zervos%NULL%0,       George%Alangaden%NULL%2,       Joseph%Miller%NULL%2,       Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,         J.% Jiang%null%1,         X.% Xu%null%1,         Y.% Hu%null%2,         Y.% Hu%null%0,         Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,        Chenchen%Qian%NULL%1,        Zhibing%Luo%NULL%1,        Qiang%Li%liqressh@hotmail.com%0,        Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,        Chunlin%Cai%NULL%1,        Jinglei%Zang%NULL%1,        Jun%Xie%NULL%1,        Dan%Xu%NULL%0,        Fang%Zheng%NULL%0,        Tao%Zhan%NULL%1,        Kang%Huang%NULL%1,        Yikai%Wang%NULL%1,        Xiao%Wang%NULL%1,        Zhe-Yu%Hu%NULL%1,        Yapeng%Deng%NULL%1,        Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,        Naofumi%Bunya%NULL%1,        Tomoyuki%Endo%NULL%1,        Yuji%Fujino%NULL%1,        Kensuke%Fujita%NULL%1,        Kenji%Fujizuka%NULL%1,        Yoshihiro%Hagiwara%NULL%1,        Jun%Hamaguchi%NULL%1,        Yoshitaka%Hara%NULL%1,        Eiji%Hashiba%NULL%1,        Satoru%Hashimoto%NULL%1,        Noriyuki%Hattori%NULL%1,        Kota%Hoshino%NULL%1,        Shinichi%Ijuin%NULL%1,        Takanari%Ikeyama%NULL%1,        Shingo%Ichiba%NULL%1,        Wataru%Iwanaga%NULL%1,        Yoshiaki%Iwashita%NULL%1,        Masafumi%Kanamoto%NULL%1,        Hitoshi%Kaneko%NULL%1,        Kaneyuki%Kawamae%NULL%1,        Toru%Kotani%NULL%1,        Yasuaki%Koyama%NULL%1,        Keibun%Liu%NULL%1,        Tomohiko%Masuno%NULL%1,        Naoto%Morimura%NULL%1,        Tomoyuki%Nakamura%NULL%1,        Masaki%Nakane%NULL%1,        Michitaka%Nasu%NULL%1,        Osamu%Nishida%NULL%1,        Masaji%Nishimura%NULL%1,        Kanae%Ochiai%NULL%1,        Takayuki%Ogura%NULL%1,        Shinichiro%Ohshimo%NULL%1,        Keisuke%Oyama%NULL%1,        Junichi%Sasaki%NULL%1,        Ryutaro%Seo%NULL%1,        Takeshi%Shimazu%NULL%1,        Nobuaki%Shime%NULL%4,        Keiki%Shimizu%NULL%1,        Hiroyuki%Suzuki%NULL%1,        Shuhei%Takauji%NULL%1,        Shinhiro%Takeda%NULL%1,        Ichiro%Takeuchi%NULL%2,        Mumon%Takita%NULL%1,        Hayato%Taniguchi%NULL%1,        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,        Yi Xin%Tong%NULL%3,        Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,        Hong%Chen%NULL%0,        Zhen%Li%NULL%2,        Bo%Wang%NULL%0,        Zhong-Wei%Zhang%NULL%1,        Wei-Min%Li%NULL%0,        Zong-An%Liang%NULL%0,        Jin%Tang%NULL%1,        Jian%Wang%NULL%1,        Rui%Shi%NULL%1,        Xiao-Dong%Jin%NULL%1,        Yan%Kang%NULL%0,        Pei-Fang%Wei%NULL%8,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,         S. F.% Mahmood%null%1,         K.% Habib%null%1,         I.% Khanum%null%1,         B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,        Chaisith%Sivakorn%NULL%1,        Tanuwong%Viarasilpa%NULL%1,        Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,        Mu%Qin%qinmuae@163.com%1,        Yuli%Cai%NULL%1,        Tao%Liu%NULL%0,        Bo%Shen%NULL%1,        Fan%Yang%NULL%2,        Sheng%Cao%NULL%1,        Xu%Liu%NULL%2,        Xu%Liu%NULL%0,        Yaozu%Xiang%NULL%1,        Qinyan%Zhao%NULL%1,        He%Huang%huanghe1977@whu.edu.cn%0,        Bo%Yang%yybb112@whu.edu.cn%0,        Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,        Win%Kulvichit%NULL%1,        Sunchai%Payungporn%NULL%1,        Trairak%Pisitkun%NULL%1,        Ariya%Chindamporn%NULL%1,        Sadudee%Peerapornratana%NULL%1,        Prapaporn%Pisitkun%NULL%1,        Suwalak%Chitcharoen%NULL%1,        Vorthon%Sawaswong%NULL%1,        Navaporn%Worasilchai%NULL%1,        Sarinya%Kampunya%NULL%1,        Opass%Putcharoen%NULL%1,        Thammasak%Thawitsri%NULL%1,        Nophol%Leelayuwatanakul%NULL%1,        Napplika%Kongpolprom%NULL%1,        Vorakamol%Phoophiboon%NULL%1,        Thitiwat%Sriprasart%NULL%1,        Rujipat%Samransamruajkit%NULL%1,        Somkanya%Tungsanga%NULL%1,        Kanitha%Tiankanon%NULL%1,        Nuttha%Lumlertgul%NULL%1,        Asada%Leelahavanichkul%NULL%1,        Tueboon%Sriphojanart%NULL%1,        Terapong%Tantawichien%NULL%1,        Usa%Thisyakorn%NULL%1,        Chintana%Chirathaworn%NULL%1,        Kearkiat%Praditpornsilpa%NULL%1,        Kriang%Tungsanga%NULL%1,        Somchai%Eiam-Ong%NULL%1,        Visith%Sitprija%NULL%1,        John A.%Kellum%NULL%1,        Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,        Min%Pan%NULL%3,        Xiumei%Zhang%NULL%3,        Mingfeng%Han%fyhmf@163.com%0,        Xiaoyun%Fan%13956988552@126.com%3,        Fengde%Zhao%NULL%3,        Manli%Miao%NULL%3,        Jing%Xu%NULL%0,        Minglong%Guan%NULL%3,        Xia%Deng%NULL%3,        Xu%Chen%NULL%4,        Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%5,        Chunli%Tang%NULL%0,        Ruchong%Chen%NULL%1,        Honglian%Ruan%NULL%1,        Wenhua%Liang%NULL%0,        Weijie%Guan%NULL%0,        Ling%Sang%NULL%0,        Ruidi%Tang%NULL%1,        Nanshan%Zhong%NULL%0,        Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Extracorporeal Membrane Oxygenation for Coronavirus Disease 2019-Induced Acute Respiratory Distress Syndrome: A Multicenter Descriptive Study*"</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1, Shuhan%Cai%xref no email%1, Yun%Luo%xref no email%1, Fangfang%Zhu%xref no email%1, Ming%Hu%xref no email%1, Yan%Zhao%xref no email%1, Ruiqiang%Zheng%xref no email%1, Xuyan%Li%xref no email%1, Bo%Hu%xref no email%0, Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%5,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%5,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%5,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%5,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%5,        Shangwen%Pan%NULL%5,        Xiaojing%Zou%NULL%7,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,        Shanyan%Zhang%NULL%2,        Xiaoli%Zhang%NULL%1,        Huan%Cai%NULL%2,        Jueqing%Gu%NULL%2,        Jiangshan%Lian%NULL%2,        Yingfeng%Lu%NULL%2,        Hongyu%Jia%NULL%2,        Jianhua%Hu%NULL%2,        Ciliang%Jin%NULL%2,        Guodong%Yu%NULL%2,        Yimin%Zhang%NULL%2,        Jifang%Sheng%NULL%4,        Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,        Hao-Yu%Gao%NULL%1,        Zi-Yi%Feng%NULL%1,        Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,        Li-jun%Sun%NULL%1,        Mi%Xu%NULL%1,        Jian%Pan%NULL%1,        Yun-tao%Zhang%NULL%1,        Xue-ling%Fang%NULL%1,        Qiang%Fang%NULL%2,        Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,        Ziqiang%Du%NULL%1,        Yanfang%Zhu%NULL%1,        Wenfeng%Li%NULL%1,        Hongjun%Miao%NULL%1,        Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,        Sarah%Al-Youha%sarahalyouha@gmail.com%1,        Mohammad H.%Jamal%NULL%1,        Mohannad%Al-Haddad%NULL%1,        Ali%Al-Muhaini%NULL%1,        Fahad%Al-Ghimlas%NULL%1,        Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,        Mina%Akbari Rad%NULL%1,        Robert%Bergquist%NULL%1,        Abolghasem%Allahyari%NULL%1,        Kamila%Hashemzadeh%NULL%1,        Nasrin%Milani%NULL%1,        Mahdi%Gholian-Aval%NULL%1,        Fariba%Rezaeitalab%NULL%1,        Mohammad Jafar%Sadeghi Quchani%NULL%1,        Zahra%Nahbandani%NULL%1,        Mandana%Khodashahi%NULL%1,        Zahra%Javid%NULL%1,        Mahnaz%Mozdourian%NULL%1,        Mohammad Ali%Yaghoubi%NULL%1,        Zahra%Mozaheb%NULL%1,        Mohsen%Seddigh-Shamsi%NULL%1,        Mohammad%Moeini Nodeh%NULL%1,        Shima%Nabavi%NULL%1,        Hooman%Mosannen Mozaffari%NULL%1,        Mohammadreza%Farzanehfar%NULL%1,        Zahra%Lotfi%NULL%1,        Alireza%Shariati%NULL%1,        Shekoofe%Bonakdaran%NULL%1,        Zahra%Rezaieyazdi%NULL%1,        Zahra%Mirfeizi%NULL%1,        Maryam%Miri%NULL%1,        Reza%Bassiri%NULL%1,        Sajjad%Ataei Azimi%NULL%1,        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,        Ibrahim%Al-Zakwani%NULL%1,        Hamed%Al Naamani%NULL%1,        Sultan%Al Lawati%NULL%1,        Nenad%Pandak%NULL%1,        Muna Ba%Omar%NULL%1,        Maher%Al Bahrani%NULL%1,        Zakaryia AL%Bulushi%NULL%1,        Huda%Al Khalili%NULL%1,        Issa%Al Salmi%NULL%1,        Ruwaida%Al Ismaili%NULL%1,        Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,        Zohre%Khodamoradi%NULL%1,        Amirhossein%Erfani%NULL%1,        Hamidreza%Hosseinpour%NULL%1,        Keivan%Ranjbar%NULL%1,        Yasaman%Emami%NULL%1,        Alireza%Mirahmadizadeh%NULL%1,        Mehrzad%Lotfi%NULL%1,        Babak%Shirazi Yeganeh%NULL%1,        Abolfazl%Dorrani Nejad%NULL%1,        Abdolrasool%Hemmati%NULL%1,        Mostafa%Ebrahimi%NULL%1,        Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,        Annachiara%Ferrari%NULL%2,        Annachiara%Ferrari%NULL%0,        Francesco%Fontana%NULL%1,        Giacomo%Mori%NULL%1,        Riccardo%Magistroni%NULL%1,        Marianna%Meschiari%NULL%1,        Erica%Franceschini%NULL%1,        Marianna%Menozzi%NULL%1,        Gianluca%Cuomo%NULL%1,        Gabriella%Orlando%NULL%1,        Antonella%Santoro%NULL%1,        Margherita%Digaetano%NULL%1,        Cinzia%Puzzolante%NULL%1,        Federica%Carli%NULL%1,        Andrea%Bedini%NULL%1,        Jovana%Milic%NULL%1,        Irene%Coloretti%NULL%1,        Paolo%Raggi%NULL%1,        Cristina%Mussini%NULL%1,        Massimo%Girardis%NULL%1,        Gianni%Cappelli%NULL%1,        Giovanni%Guaraldi%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,        Silvia%Bettini%NULL%2,        Silvia%Bettini%NULL%0,        Roberto%Fabris%NULL%1,        Roberto%Serra%NULL%2,        Chiara%Dal Pra%NULL%1,        Pietro%Maffei%NULL%1,        Marco%Rossato%NULL%1,        Paola%Fioretto%NULL%0,        Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,        Marco%Roncador%NULL%2,        Marco%Roncador%NULL%0,        Andrea%Saporito%NULL%1,        Maira%Biggiogero%NULL%1,        Andrea%Glotta%NULL%1,        Pier Andrea%Maida%NULL%1,        Patrizia%Urso%NULL%1,        Giovanni%Bona%NULL%1,        Christian%Garzoni%NULL%1,        Romano%Mauri%NULL%1,        Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,        Anna Lisa%Ridolfo%NULL%4,        Laura%Milazzo%NULL%2,        Letizia%Oreni%NULL%4,        Dario%Bernacchia%NULL%4,        Matteo%Siano%NULL%4,        Cecilia%Bonazzetti%NULL%2,        Alice%Covizzi%NULL%2,        Marco%Schiuma%NULL%2,        Matteo%Passerini%NULL%2,        Marco%Piscaglia%NULL%2,        Massimo%Coen%NULL%2,        Guido%Gubertini%NULL%2,        Giuliano%Rizzardini%NULL%4,        Chiara%Cogliati%NULL%2,        Anna Maria%Brambilla%NULL%2,        Riccardo%Colombo%NULL%2,        Antonio%Castelli%NULL%2,        Roberto%Rech%NULL%2,        Agostino%Riva%NULL%2,        Alessandro%Torre%NULL%2,        Luca%Meroni%NULL%2,        Stefano%Rusconi%NULL%4,        Spinello%Antinori%NULL%4,        Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%4,       Castelli%Antonio%coreGivesNoEmail%4,       Cecconi%Maurizio%coreGivesNoEmail%4,       Cereda%Danilo%coreGivesNoEmail%4,       Coluccello%Antonio%coreGivesNoEmail%4,       Foti%Giuseppe%coreGivesNoEmail%4,       Fumagalli%Roberto%coreGivesNoEmail%4,       Grasselli%Giacomo%coreGivesNoEmail%4,       Iotti%Giorgio%coreGivesNoEmail%4,       Latronico%Nicola%coreGivesNoEmail%4,       Lorini%Luca%coreGivesNoEmail%4,       Merler%Stefano%coreGivesNoEmail%4,       Natalini%Giuseppe%coreGivesNoEmail%4,       Pesenti%Antonio%coreGivesNoEmail%4,       Piatti%Alessandra%coreGivesNoEmail%4,       Ranieri%Marco Vito%coreGivesNoEmail%4,       Scandroglio%Anna Mara%coreGivesNoEmail%4,       Storti%Enrico%coreGivesNoEmail%4,       Zanella%Alberto%coreGivesNoEmail%4,       Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,        Lara%Gianesello%gianesello.lara@libero.it%1,        Maddalena%Pazzi%NULL%2,        Maddalena%Pazzi%NULL%0,        Caterina%Stera%NULL%1,        Tommaso%Meconi%NULL%1,        Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,        Andrea%Dalbeni%NULL%2,        Andrea%Dalbeni%NULL%0,        Elia%Vettore%NULL%2,        Elia%Vettore%NULL%0,        Devis%Benfaremo%NULL%1,        Massimo%Mattioli%NULL%1,        Carmine G.%Gambino%NULL%1,        Viviana%Framba%NULL%2,        Viviana%Framba%NULL%0,        Lorenzo%Cerruti%NULL%1,        Anna%Mantovani%NULL%1,        Andrea%Martini%NULL%1,        Michele M.%Luchetti%NULL%1,        Roberto%Serra%NULL%0,        Annamaria%Cattelan%NULL%1,        Roberto%Vettor%NULL%0,        Paolo%Angeli%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,        Matthaios%Papadimitriou-Olivgeris%NULL%2,        Matthaios%Papadimitriou-Olivgeris%NULL%0,        Raphaël%Burger%NULL%1,        Marie-Annick%Le Pogam%NULL%1,        Tapio%Niemi%NULL%2,        Tapio%Niemi%NULL%0,        Paraskevas%Filippidis%NULL%1,        Jonathan%Tschopp%NULL%1,        Florian%Desgranges%NULL%1,        Benjamin%Viala%NULL%1,        Eleftheria%Kampouri%NULL%1,        Laurence%Rochat%NULL%2,        Laurence%Rochat%NULL%0,        David%Haefliger%NULL%1,        Mehdi%Belkoniene%NULL%1,        Carlos%Fidalgo%NULL%1,        Antonios%Kritikos%NULL%1,        Katia%Jaton%NULL%1,        Laurence%Senn%NULL%1,        Pierre-Alexandre%Bart%NULL%1,        Jean-Luc%Pagani%NULL%2,        Jean-Luc%Pagani%NULL%0,        Oriol%Manuel%NULL%1,        Loïc%Lhopitallier%NULL%1,        Chiara%Lazzeri%NULL%2,        Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,        Ashwin%Subramaniam%NULL%2,        Ashwin%Subramaniam%NULL%0,        Mallikarjuna%Ponnapa Reddy%NULL%2,        Mallikarjuna%Ponnapa Reddy%NULL%0,        Gabriel%Blecher%NULL%1,        Umesh%Kadam%NULL%2,        Umesh%Kadam%NULL%0,        Afsana%Afroz%NULL%1,        Baki%Billah%NULL%1,        Sushma%Ashwin%NULL%1,        Mark%Kubicki%NULL%1,        Federico%Bilotta%NULL%1,        J. Randall%Curtis%NULL%2,        J. Randall%Curtis%NULL%0,        Francesca%Rubulotta%NULL%2,        Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,       Aggarwal%Saurabh%coreGivesNoEmail%3,       Garcia-Telles%Nelson%coreGivesNoEmail%3,       Henry%Brandon Michael%coreGivesNoEmail%3,       Lavie%Carl%coreGivesNoEmail%3,       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,        Samuel L%Bruce%NULL%2,        Cody L%Slater%NULL%2,        Jonathan R%Tiao%NULL%2,        Matthew R%Baldwin%NULL%3,        R Graham%Barr%NULL%2,        Bernard P%Chang%NULL%2,        Katherine H%Chau%NULL%2,        Justin J%Choi%NULL%2,        Nicholas%Gavin%NULL%2,        Parag%Goyal%NULL%2,        Angela M%Mills%NULL%2,        Ashmi A%Patel%NULL%2,        Marie-Laure S%Romney%NULL%2,        Monika M%Safford%NULL%2,        Neil W%Schluger%NULL%2,        Soumitra%Sengupta%NULL%2,        Magdalena E%Sobieszczyk%NULL%2,        Jason E%Zucker%NULL%2,        Paul A%Asadourian%NULL%2,        Fletcher M%Bell%NULL%2,        Rebekah%Boyd%NULL%2,        Matthew F%Cohen%NULL%2,        MacAlistair I%Colquhoun%NULL%2,        Lucy A%Colville%NULL%2,        Joseph H%de Jonge%NULL%2,        Lyle B%Dershowitz%NULL%2,        Shirin A%Dey%NULL%2,        Katherine A%Eiseman%NULL%2,        Zachary P%Girvin%NULL%2,        Daniella T%Goni%NULL%2,        Amro A%Harb%NULL%2,        Nicholas%Herzik%NULL%2,        Sarah%Householder%NULL%2,        Lara E%Karaaslan%NULL%2,        Heather%Lee%NULL%2,        Evan%Lieberman%NULL%2,        Andrew%Ling%NULL%2,        Ree%Lu%NULL%2,        Arthur Y%Shou%NULL%2,        Alexander C%Sisti%NULL%2,        Zachary E%Snow%NULL%2,        Colin P%Sperring%NULL%2,        Yuqing%Xiong%NULL%2,        Henry W%Zhou%NULL%2,        Karthik%Natarajan%NULL%2,        George%Hripcsak%NULL%2,        Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%3,        James M.%Blum%NULL%2,        Chad%Robichaux%NULL%2,        Colleen%Kraft%NULL%2,        Jesse T.%Jacob%NULL%2,        Craig S.%Jabaley%NULL%2,        David%Carpenter%NULL%2,        Roberta%Kaplow%NULL%2,        Alfonso C.%Hernandez-Romieu%NULL%2,        Max W.%Adelman%NULL%2,        Greg S.%Martin%NULL%2,        Craig M.%Coopersmith%NULL%2,        David J.%Murphy%NULL%2,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%0,        Michelle%Nichols%NULL%0,        Richard%Kim%NULL%0,        Keith R.%Jerome%NULL%0,        Arun K.%Nalla%NULL%0,        Alexander L.%Greninger%NULL%0,        Sudhakar%Pipavath%NULL%0,        Mark M.%Wurfel%NULL%0,        Laura%Evans%NULL%0,        Patricia A.%Kritek%NULL%0,        T. Eoin%West%NULL%0,        Andrew%Luks%NULL%0,        Anthony%Gerbino%NULL%0,        Chris R.%Dale%NULL%0,        Jason D.%Goldman%NULL%0,        Shane%O’Mahony%NULL%0,        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,        Denise J%McCulloch%NULL%0,        Denise J%McCulloch%NULL%0,        Vidya%Atluri%NULL%0,        Michela%Blain%NULL%0,        Sarah A%McGuffin%NULL%0,        Arun K%Nalla%NULL%0,        Meei-Li%Huang%NULL%0,        Alex L%Greninger%NULL%0,        Keith R%Jerome%NULL%0,        Seth A%Cohen%NULL%0,        Santiago%Neme%NULL%0,        Margaret L%Green%NULL%0,        Helen Y%Chu%NULL%0,        H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,        Joelle I.%Rosser%NULL%0,        Orlando%Quintero%NULL%0,        Jake%Scott%NULL%0,        Aruna%Subramanian%NULL%0,        Mohammad%Gumma%NULL%0,        Angela%Rogers%NULL%0,        Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,        Jacob%Fiksel%NULL%2,        Jacob%Fiksel%NULL%0,        John%Muschelli%NULL%2,        John%Muschelli%NULL%0,        Matthew L.%Robinson%NULL%2,        Matthew L.%Robinson%NULL%0,        Masoud%Rouhizadeh%NULL%2,        Masoud%Rouhizadeh%NULL%0,        Jamie%Perin%NULL%2,        Jamie%Perin%NULL%0,        Grant%Schumock%NULL%2,        Grant%Schumock%NULL%0,        Paul%Nagy%NULL%2,        Paul%Nagy%NULL%0,        Josh H.%Gray%NULL%2,        Josh H.%Gray%NULL%0,        Harsha%Malapati%NULL%2,        Harsha%Malapati%NULL%0,        Mariam%Ghobadi-Krueger%NULL%2,        Mariam%Ghobadi-Krueger%NULL%0,        Timothy M.%Niessen%NULL%1,        Bo Soo%Kim%NULL%1,        Peter M.%Hill%NULL%1,        M. Shafeeq%Ahmed%NULL%1,        Eric D.%Dobkin%NULL%1,        Renee%Blanding%NULL%1,        Jennifer%Abele%NULL%1,        Bonnie%Woods%NULL%1,        Kenneth%Harkness%NULL%1,        David R.%Thiemann%NULL%1,        Mary G.%Bowring%NULL%1,        Aalok B.%Shah%NULL%2,        Aalok B.%Shah%NULL%0,        Mei-Cheng%Wang%NULL%1,        Karen%Bandeen-Roche%NULL%1,        Antony%Rosen%NULL%1,        Scott L.%Zeger%NULL%2,        Scott L.%Zeger%NULL%0,        Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,        Justin J.%Choi%NULL%0,        Laura C.%Pinheiro%NULL%0,        Edward J.%Schenck%NULL%0,        Ruijun%Chen%NULL%0,        Assem%Jabri%NULL%0,        Michael J.%Satlin%NULL%0,        Thomas R.%Campion%NULL%0,        Musarrat%Nahid%NULL%0,        Joanna B.%Ringel%NULL%0,        Katherine L.%Hoffman%NULL%0,        Mark N.%Alshak%NULL%0,        Han A.%Li%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Mangala%Rajan%NULL%0,        Evgeniya%Reshetnyak%NULL%0,        Nathaniel%Hupert%NULL%0,        Evelyn M.%Horn%NULL%0,        Fernando J.%Martinez%NULL%0,        Roy M.%Gulick%NULL%0,        Monika M.%Safford%NULL%0,        Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,        Simon A%Jones%NULL%0,        Jie%Yang%NULL%0,        Harish%Rajagopalan%NULL%0,        Luke%O’Donnell%NULL%0,        Yelena%Chernyak%NULL%0,        Katie A%Tobin%NULL%0,        Robert J%Cerfolio%NULL%0,        Fritz%Francois%NULL%0,        Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,        Anatoly%Mitrokhin%NULL%2,        Anatoly%Mitrokhin%NULL%0,        Ajai%Rajabalan%NULL%1,        Christian%Benjamin%NULL%1,        Sushma%Raviralla%NULL%1,        Vishnu R%Mani%vishnu.mani@duke.edu%2,        Vishnu R%Mani%vishnu.mani@duke.edu%0,        Aleksandr%Kalabin%NULL%2,        Aleksandr%Kalabin%NULL%0,        Sebastian C%Valdivieso%NULL%2,        Sebastian C%Valdivieso%NULL%0,        Max%Murray-Ramcharan%NULL%2,        Max%Murray-Ramcharan%NULL%0,        Brian%Donaldson%NULL%2,        Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,         Nicholas A.%Fergusson%null%2,         Elisa%Lloyd-Smith%null%2,         Andrew%Wormsbecker%null%2,         Denise%Foster%null%2,         Andrei%Karpov%null%2,         Sarah%Crowe%null%2,         Greg%Haljan%null%2,         Dean R.%Chittock%null%2,         Hussein D.%Kanji%null%2,         Mypinder S.%Sekhon%null%2,         Donald E.G.%Griesdale%null%2,       Anish R.%Mitra%null%1,       Nicholas A.%Fergusson%null%1,       Elisa%Lloyd-Smith%null%1,       Andrew%Wormsbecker%null%1,       Denise%Foster%null%1,       Andrei%Karpov%null%1,       Sarah%Crowe%null%1,       Greg%Haljan%null%1,       Dean R.%Chittock%null%1,       Hussein D.%Kanji%null%1,       Mypinder S.%Sekhon%null%1,       Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,        Damianos G.%Kokkinidis%NULL%1,        Weijia%Li%NULL%1,        Dimitrios%Karamanis%NULL%1,        Jennifer%Ognibene%NULL%1,        Shitij%Arora%NULL%1,        William N.%Southern%NULL%1,        Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,        Jesus D.%Gonzalez-Lugo%NULL%1,        Shafia%Rahman%NULL%1,        Mohammad%Barouqa%NULL%1,        James%Szymanski%NULL%1,        Kenji%Ikemura%NULL%1,        Yungtai%Lo%NULL%1,        Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%4,       Chelico%J.D.%coreGivesNoEmail%4,       Cohen%S.L.%coreGivesNoEmail%4,       Cookingham%J.%coreGivesNoEmail%4,       Coppa%K.%coreGivesNoEmail%4,       Crawford%J.M.%coreGivesNoEmail%4,       Davidson%K.W.%coreGivesNoEmail%4,       Diefenbach%M.A.%coreGivesNoEmail%4,       Dominello%A.J.%coreGivesNoEmail%4,       Duer-Hefele%J.%coreGivesNoEmail%4,       Falzon%L.%coreGivesNoEmail%4,       Gitlin%J.%coreGivesNoEmail%4,       Hajizadeh%N.%coreGivesNoEmail%4,       Harvin%T.G.%coreGivesNoEmail%4,       Hirsch%J.S.%coreGivesNoEmail%4,       Hirschwerk%D.A.%coreGivesNoEmail%4,       Kim%E.J.%coreGivesNoEmail%4,       Kozel%Z.M.%coreGivesNoEmail%4,       Marrast%L.M.%coreGivesNoEmail%4,       McGinn%T.%coreGivesNoEmail%4,       Mogavero%J.N.%coreGivesNoEmail%4,       Narasimhan%M.%coreGivesNoEmail%4,       Osorio%G.A.%coreGivesNoEmail%4,       Qiu%M.%coreGivesNoEmail%4,       Richardson%S.%coreGivesNoEmail%4,       Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,        Viet-Thi%Tran%NULL%4,        Viet-Thi%Tran%NULL%0,        Mathilde%Roumier%NULL%2,        Amélie%Chabrol%NULL%2,        Romain%Paule%NULL%2,        Constance%Guillaud%NULL%2,        Elena%Fois%NULL%2,        Raphael%Lepeule%NULL%2,        Tali-Anne%Szwebel%NULL%2,        François-Xavier%Lescure%NULL%2,        Frédéric%Schlemmer%NULL%2,        Marie%Matignon%NULL%2,        Mehdi%Khellaf%NULL%2,        Etienne%Crickx%NULL%2,        Benjamin%Terrier%NULL%2,        Caroline%Morbieu%NULL%2,        Paul%Legendre%NULL%2,        Julien%Dang%NULL%2,        Yoland%Schoindre%NULL%2,        Jean-Michel%Pawlotsky%NULL%2,        Marc%Michel%NULL%2,        Elodie%Perrodeau%NULL%2,        Nicolas%Carlier%NULL%2,        Nicolas%Roche%NULL%2,        Victoire%de Lastours%NULL%2,        Clément%Ourghanlian%NULL%2,        Solen%Kerneis%NULL%2,        Philippe%Ménager%NULL%2,        Luc%Mouthon%NULL%2,        Etienne%Audureau%NULL%2,        Philippe%Ravaud%NULL%2,        Bertrand%Godeau%NULL%2,        Sébastien%Gallien%NULL%2,        Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>"Early experience with COVID-19 patients at academic hospital in Southwestern United States"</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1, Abu Baker%Sheikh%xref no email%1, Shubhra%Upadhyay%xref no email%1, Jeanette%Atencio%xref no email%1, Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,      Yu%Zuo%NULL%1,      Srilakshmi%Yalavarthi%NULL%1,      Kelsey%Gockman%NULL%1,      Melanie%Zuo%NULL%1,      Jacqueline A%Madison%NULL%1,      Christopher%Blair%NULL%1,      Wrenn%Woodward%NULL%1,      Sean P%Lezak%NULL%1,      Njira L%Lugogo%NULL%1,      Robert J%Woods%NULL%1,      Christian%Lood%NULL%1,      Jason S%Knight%NULL%2,      Jason S%Knight%NULL%0,      Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,        Raef A.%Fadel%NULL%1,        Kelly M.%Malette%NULL%1,        Charles%Hammond%NULL%1,        Hafsa%Abdulla%NULL%1,        Abigail%Entz%NULL%1,        Zachary%Demertzis%NULL%1,        Zachary%Hanna%NULL%1,        Andrew%Failla%NULL%1,        Carina%Dagher%NULL%0,        Zohra%Chaudhry%NULL%2,        Amit%Vahia%NULL%2,        Odaliz%Abreu Lanfranco%NULL%1,        Mayur%Ramesh%NULL%1,        Marcus J.%Zervos%NULL%1,        George%Alangaden%NULL%2,        Joseph%Miller%NULL%2,        Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>"Clinical features of 47 patients infected with COVID-19 admitted to a Regional Reference Center"</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1, Daniel%Mu\u00f1oz%xref no email%1, Alberto%Fica%xref no email%1, Ignacio%Delama%xref no email%1, Ignacia%Alvarez%xref no email%1, Maritza%Navarrete%xref no email%1, Eileen%Blackburn%xref no email%1, Pamela%Garrido%xref no email%1, Ricardo%Wenger%xref no email%1, Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,          J.% Jiang%null%1,          X.% Xu%null%1,          Y.% Hu%null%2,          Y.% Hu%null%0,          Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,         Chenchen%Qian%NULL%1,         Zhibing%Luo%NULL%1,         Qiang%Li%liqressh@hotmail.com%0,         Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,         Chunlin%Cai%NULL%1,         Jinglei%Zang%NULL%1,         Jun%Xie%NULL%1,         Dan%Xu%NULL%0,         Fang%Zheng%NULL%0,         Tao%Zhan%NULL%1,         Kang%Huang%NULL%1,         Yikai%Wang%NULL%1,         Xiao%Wang%NULL%1,         Zhe-Yu%Hu%NULL%1,         Yapeng%Deng%NULL%1,         Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,         Naofumi%Bunya%NULL%1,         Tomoyuki%Endo%NULL%1,         Yuji%Fujino%NULL%1,         Kensuke%Fujita%NULL%1,         Kenji%Fujizuka%NULL%1,         Yoshihiro%Hagiwara%NULL%1,         Jun%Hamaguchi%NULL%1,         Yoshitaka%Hara%NULL%1,         Eiji%Hashiba%NULL%1,         Satoru%Hashimoto%NULL%1,         Noriyuki%Hattori%NULL%1,         Kota%Hoshino%NULL%1,         Shinichi%Ijuin%NULL%1,         Takanari%Ikeyama%NULL%1,         Shingo%Ichiba%NULL%1,         Wataru%Iwanaga%NULL%1,         Yoshiaki%Iwashita%NULL%1,         Masafumi%Kanamoto%NULL%1,         Hitoshi%Kaneko%NULL%1,         Kaneyuki%Kawamae%NULL%1,         Toru%Kotani%NULL%1,         Yasuaki%Koyama%NULL%1,         Keibun%Liu%NULL%1,         Tomohiko%Masuno%NULL%1,         Naoto%Morimura%NULL%1,         Tomoyuki%Nakamura%NULL%1,         Masaki%Nakane%NULL%1,         Michitaka%Nasu%NULL%1,         Osamu%Nishida%NULL%1,         Masaji%Nishimura%NULL%1,         Kanae%Ochiai%NULL%1,         Takayuki%Ogura%NULL%1,         Shinichiro%Ohshimo%NULL%1,         Keisuke%Oyama%NULL%1,         Junichi%Sasaki%NULL%1,         Ryutaro%Seo%NULL%1,         Takeshi%Shimazu%NULL%1,         Nobuaki%Shime%NULL%4,         Keiki%Shimizu%NULL%1,         Hiroyuki%Suzuki%NULL%1,         Shuhei%Takauji%NULL%1,         Shinhiro%Takeda%NULL%1,         Ichiro%Takeuchi%NULL%2,         Mumon%Takita%NULL%1,         Hayato%Taniguchi%NULL%1,         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,         Yi Xin%Tong%NULL%3,         Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,         Hong%Chen%NULL%0,         Zhen%Li%NULL%2,         Bo%Wang%NULL%0,         Zhong-Wei%Zhang%NULL%1,         Wei-Min%Li%NULL%0,         Zong-An%Liang%NULL%0,         Jin%Tang%NULL%1,         Jian%Wang%NULL%1,         Rui%Shi%NULL%1,         Xiao-Dong%Jin%NULL%1,         Yan%Kang%NULL%0,         Pei-Fang%Wei%NULL%8,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,          S. F.% Mahmood%null%1,          K.% Habib%null%1,          I.% Khanum%null%1,          B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,         Chaisith%Sivakorn%NULL%1,         Tanuwong%Viarasilpa%NULL%1,         Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,         Mu%Qin%qinmuae@163.com%1,         Yuli%Cai%NULL%1,         Tao%Liu%NULL%0,         Bo%Shen%NULL%1,         Fan%Yang%NULL%2,         Sheng%Cao%NULL%1,         Xu%Liu%NULL%2,         Xu%Liu%NULL%0,         Yaozu%Xiang%NULL%1,         Qinyan%Zhao%NULL%1,         He%Huang%huanghe1977@whu.edu.cn%0,         Bo%Yang%yybb112@whu.edu.cn%0,         Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,         Win%Kulvichit%NULL%1,         Sunchai%Payungporn%NULL%1,         Trairak%Pisitkun%NULL%1,         Ariya%Chindamporn%NULL%1,         Sadudee%Peerapornratana%NULL%1,         Prapaporn%Pisitkun%NULL%1,         Suwalak%Chitcharoen%NULL%1,         Vorthon%Sawaswong%NULL%1,         Navaporn%Worasilchai%NULL%1,         Sarinya%Kampunya%NULL%1,         Opass%Putcharoen%NULL%1,         Thammasak%Thawitsri%NULL%1,         Nophol%Leelayuwatanakul%NULL%1,         Napplika%Kongpolprom%NULL%1,         Vorakamol%Phoophiboon%NULL%1,         Thitiwat%Sriprasart%NULL%1,         Rujipat%Samransamruajkit%NULL%1,         Somkanya%Tungsanga%NULL%1,         Kanitha%Tiankanon%NULL%1,         Nuttha%Lumlertgul%NULL%1,         Asada%Leelahavanichkul%NULL%1,         Tueboon%Sriphojanart%NULL%1,         Terapong%Tantawichien%NULL%1,         Usa%Thisyakorn%NULL%1,         Chintana%Chirathaworn%NULL%1,         Kearkiat%Praditpornsilpa%NULL%1,         Kriang%Tungsanga%NULL%1,         Somchai%Eiam-Ong%NULL%1,         Visith%Sitprija%NULL%1,         John A.%Kellum%NULL%1,         Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,         Min%Pan%NULL%3,         Xiumei%Zhang%NULL%3,         Mingfeng%Han%fyhmf@163.com%0,         Xiaoyun%Fan%13956988552@126.com%3,         Fengde%Zhao%NULL%3,         Manli%Miao%NULL%3,         Jing%Xu%NULL%0,         Minglong%Guan%NULL%3,         Xia%Deng%NULL%3,         Xu%Chen%NULL%4,         Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,         Chunli%Tang%NULL%0,         Ruchong%Chen%NULL%1,         Honglian%Ruan%NULL%1,         Wenhua%Liang%NULL%0,         Weijie%Guan%NULL%0,         Ling%Sang%NULL%0,         Ruidi%Tang%NULL%1,         Nanshan%Zhong%NULL%0,         Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,  Shuhan%Cai%xref no email%1,  Yun%Luo%xref no email%1,  Fangfang%Zhu%xref no email%1,  Ming%Hu%xref no email%1,  Yan%Zhao%xref no email%1,  Ruiqiang%Zheng%xref no email%1,  Xuyan%Li%xref no email%1,  Bo%Hu%xref no email%0,  Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%5,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%5,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%5,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%5,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%5,         Shangwen%Pan%NULL%5,         Xiaojing%Zou%NULL%7,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,         Shanyan%Zhang%NULL%2,         Xiaoli%Zhang%NULL%1,         Huan%Cai%NULL%2,         Jueqing%Gu%NULL%2,         Jiangshan%Lian%NULL%2,         Yingfeng%Lu%NULL%2,         Hongyu%Jia%NULL%2,         Jianhua%Hu%NULL%2,         Ciliang%Jin%NULL%2,         Guodong%Yu%NULL%2,         Yimin%Zhang%NULL%2,         Jifang%Sheng%NULL%4,         Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,         Dan%Xu%NULL%0,         Shouzhi%Fu%NULL%0,         Jun%Zhang%NULL%0,         Xiaobo%Yang%NULL%0,         Liang%Xu%NULL%0,         Jiqian%Xu%NULL%0,         Yongran%Wu%NULL%0,         Chaolin%Huang%NULL%0,         Yaqi%Ouyang%NULL%0,         Luyu%Yang%NULL%0,         Minghao%Fang%NULL%0,         Hongwen%Xiao%NULL%0,         Jing%Ma%NULL%0,         Wei%Zhu%NULL%0,         Song%Hu%NULL%0,         Quan%Hu%NULL%0,         Daoyin%Ding%NULL%0,         Ming%Hu%NULL%0,         Guochao%Zhu%NULL%0,         Weijiang%Xu%NULL%0,         Jun%Guo%NULL%0,         Jinglong%Xu%NULL%0,         Haitao%Yuan%NULL%0,         Bin%Zhang%NULL%0,         Zhui%Yu%yuzhui@whu.edu.cn%0,         Dechang%Chen%icudechangchen@163.com%0,         Shiying%Yuan%yuan_shiying@163.com%0,         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,         Hao-Yu%Gao%NULL%1,         Zi-Yi%Feng%NULL%1,         Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,         Li-jun%Sun%NULL%1,         Mi%Xu%NULL%1,         Jian%Pan%NULL%1,         Yun-tao%Zhang%NULL%1,         Xue-ling%Fang%NULL%1,         Qiang%Fang%NULL%2,         Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,         Ziqiang%Du%NULL%1,         Yanfang%Zhu%NULL%1,         Wenfeng%Li%NULL%1,         Hongjun%Miao%NULL%1,         Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,         Sarah%Al-Youha%sarahalyouha@gmail.com%1,         Mohammad H.%Jamal%NULL%1,         Mohannad%Al-Haddad%NULL%1,         Ali%Al-Muhaini%NULL%1,         Fahad%Al-Ghimlas%NULL%1,         Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,         Mina%Akbari Rad%NULL%1,         Robert%Bergquist%NULL%1,         Abolghasem%Allahyari%NULL%1,         Kamila%Hashemzadeh%NULL%1,         Nasrin%Milani%NULL%1,         Mahdi%Gholian-Aval%NULL%1,         Fariba%Rezaeitalab%NULL%1,         Mohammad Jafar%Sadeghi Quchani%NULL%1,         Zahra%Nahbandani%NULL%1,         Mandana%Khodashahi%NULL%1,         Zahra%Javid%NULL%1,         Mahnaz%Mozdourian%NULL%1,         Mohammad Ali%Yaghoubi%NULL%1,         Zahra%Mozaheb%NULL%1,         Mohsen%Seddigh-Shamsi%NULL%1,         Mohammad%Moeini Nodeh%NULL%1,         Shima%Nabavi%NULL%1,         Hooman%Mosannen Mozaffari%NULL%1,         Mohammadreza%Farzanehfar%NULL%1,         Zahra%Lotfi%NULL%1,         Alireza%Shariati%NULL%1,         Shekoofe%Bonakdaran%NULL%1,         Zahra%Rezaieyazdi%NULL%1,         Zahra%Mirfeizi%NULL%1,         Maryam%Miri%NULL%1,         Reza%Bassiri%NULL%1,         Sajjad%Ataei Azimi%NULL%1,         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,         Ibrahim%Al-Zakwani%NULL%1,         Hamed%Al Naamani%NULL%1,         Sultan%Al Lawati%NULL%1,         Nenad%Pandak%NULL%1,         Muna Ba%Omar%NULL%1,         Maher%Al Bahrani%NULL%1,         Zakaryia AL%Bulushi%NULL%1,         Huda%Al Khalili%NULL%1,         Issa%Al Salmi%NULL%1,         Ruwaida%Al Ismaili%NULL%1,         Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,         Zohre%Khodamoradi%NULL%1,         Amirhossein%Erfani%NULL%1,         Hamidreza%Hosseinpour%NULL%1,         Keivan%Ranjbar%NULL%1,         Yasaman%Emami%NULL%1,         Alireza%Mirahmadizadeh%NULL%1,         Mehrzad%Lotfi%NULL%1,         Babak%Shirazi Yeganeh%NULL%1,         Abolfazl%Dorrani Nejad%NULL%1,         Abdolrasool%Hemmati%NULL%1,         Mostafa%Ebrahimi%NULL%1,         Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,         Annachiara%Ferrari%NULL%2,         Annachiara%Ferrari%NULL%0,         Francesco%Fontana%NULL%1,         Giacomo%Mori%NULL%1,         Riccardo%Magistroni%NULL%1,         Marianna%Meschiari%NULL%1,         Erica%Franceschini%NULL%1,         Marianna%Menozzi%NULL%1,         Gianluca%Cuomo%NULL%1,         Gabriella%Orlando%NULL%1,         Antonella%Santoro%NULL%1,         Margherita%Digaetano%NULL%1,         Cinzia%Puzzolante%NULL%1,         Federica%Carli%NULL%1,         Andrea%Bedini%NULL%1,         Jovana%Milic%NULL%1,         Irene%Coloretti%NULL%1,         Paolo%Raggi%NULL%1,         Cristina%Mussini%NULL%1,         Massimo%Girardis%NULL%1,         Gianni%Cappelli%NULL%1,         Giovanni%Guaraldi%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,         Silvia%Bettini%NULL%2,         Silvia%Bettini%NULL%0,         Roberto%Fabris%NULL%1,         Roberto%Serra%NULL%2,         Chiara%Dal Pra%NULL%1,         Pietro%Maffei%NULL%1,         Marco%Rossato%NULL%1,         Paola%Fioretto%NULL%0,         Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,         Marco%Roncador%NULL%2,         Marco%Roncador%NULL%0,         Andrea%Saporito%NULL%1,         Maira%Biggiogero%NULL%1,         Andrea%Glotta%NULL%1,         Pier Andrea%Maida%NULL%1,         Patrizia%Urso%NULL%1,         Giovanni%Bona%NULL%1,         Christian%Garzoni%NULL%1,         Romano%Mauri%NULL%1,         Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,         Anna Lisa%Ridolfo%NULL%4,         Laura%Milazzo%NULL%2,         Letizia%Oreni%NULL%4,         Dario%Bernacchia%NULL%4,         Matteo%Siano%NULL%4,         Cecilia%Bonazzetti%NULL%2,         Alice%Covizzi%NULL%2,         Marco%Schiuma%NULL%2,         Matteo%Passerini%NULL%2,         Marco%Piscaglia%NULL%2,         Massimo%Coen%NULL%2,         Guido%Gubertini%NULL%2,         Giuliano%Rizzardini%NULL%4,         Chiara%Cogliati%NULL%2,         Anna Maria%Brambilla%NULL%2,         Riccardo%Colombo%NULL%2,         Antonio%Castelli%NULL%2,         Roberto%Rech%NULL%2,         Agostino%Riva%NULL%2,         Alessandro%Torre%NULL%2,         Luca%Meroni%NULL%2,         Stefano%Rusconi%NULL%4,         Spinello%Antinori%NULL%4,         Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%4,        Castelli%Antonio%coreGivesNoEmail%4,        Cecconi%Maurizio%coreGivesNoEmail%4,        Cereda%Danilo%coreGivesNoEmail%4,        Coluccello%Antonio%coreGivesNoEmail%4,        Foti%Giuseppe%coreGivesNoEmail%4,        Fumagalli%Roberto%coreGivesNoEmail%4,        Grasselli%Giacomo%coreGivesNoEmail%4,        Iotti%Giorgio%coreGivesNoEmail%4,        Latronico%Nicola%coreGivesNoEmail%4,        Lorini%Luca%coreGivesNoEmail%4,        Merler%Stefano%coreGivesNoEmail%4,        Natalini%Giuseppe%coreGivesNoEmail%4,        Pesenti%Antonio%coreGivesNoEmail%4,        Piatti%Alessandra%coreGivesNoEmail%4,        Ranieri%Marco Vito%coreGivesNoEmail%4,        Scandroglio%Anna Mara%coreGivesNoEmail%4,        Storti%Enrico%coreGivesNoEmail%4,        Zanella%Alberto%coreGivesNoEmail%4,        Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,         Lara%Gianesello%gianesello.lara@libero.it%1,         Maddalena%Pazzi%NULL%2,         Maddalena%Pazzi%NULL%0,         Caterina%Stera%NULL%1,         Tommaso%Meconi%NULL%1,         Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,         Andrea%Dalbeni%NULL%2,         Andrea%Dalbeni%NULL%0,         Elia%Vettore%NULL%2,         Elia%Vettore%NULL%0,         Devis%Benfaremo%NULL%1,         Massimo%Mattioli%NULL%1,         Carmine G.%Gambino%NULL%1,         Viviana%Framba%NULL%2,         Viviana%Framba%NULL%0,         Lorenzo%Cerruti%NULL%1,         Anna%Mantovani%NULL%1,         Andrea%Martini%NULL%1,         Michele M.%Luchetti%NULL%1,         Roberto%Serra%NULL%0,         Annamaria%Cattelan%NULL%1,         Roberto%Vettor%NULL%0,         Paolo%Angeli%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,         Matthaios%Papadimitriou-Olivgeris%NULL%2,         Matthaios%Papadimitriou-Olivgeris%NULL%0,         Raphaël%Burger%NULL%1,         Marie-Annick%Le Pogam%NULL%1,         Tapio%Niemi%NULL%2,         Tapio%Niemi%NULL%0,         Paraskevas%Filippidis%NULL%1,         Jonathan%Tschopp%NULL%1,         Florian%Desgranges%NULL%1,         Benjamin%Viala%NULL%1,         Eleftheria%Kampouri%NULL%1,         Laurence%Rochat%NULL%2,         Laurence%Rochat%NULL%0,         David%Haefliger%NULL%1,         Mehdi%Belkoniene%NULL%1,         Carlos%Fidalgo%NULL%1,         Antonios%Kritikos%NULL%1,         Katia%Jaton%NULL%1,         Laurence%Senn%NULL%1,         Pierre-Alexandre%Bart%NULL%1,         Jean-Luc%Pagani%NULL%2,         Jean-Luc%Pagani%NULL%0,         Oriol%Manuel%NULL%1,         Loïc%Lhopitallier%NULL%1,         Chiara%Lazzeri%NULL%2,         Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,         Ashwin%Subramaniam%NULL%2,         Ashwin%Subramaniam%NULL%0,         Mallikarjuna%Ponnapa Reddy%NULL%2,         Mallikarjuna%Ponnapa Reddy%NULL%0,         Gabriel%Blecher%NULL%1,         Umesh%Kadam%NULL%2,         Umesh%Kadam%NULL%0,         Afsana%Afroz%NULL%1,         Baki%Billah%NULL%1,         Sushma%Ashwin%NULL%1,         Mark%Kubicki%NULL%1,         Federico%Bilotta%NULL%1,         J. Randall%Curtis%NULL%2,         J. Randall%Curtis%NULL%0,         Francesca%Rubulotta%NULL%2,         Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,        Aggarwal%Saurabh%coreGivesNoEmail%3,        Garcia-Telles%Nelson%coreGivesNoEmail%3,        Henry%Brandon Michael%coreGivesNoEmail%3,        Lavie%Carl%coreGivesNoEmail%3,        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,         Samuel L%Bruce%NULL%2,         Cody L%Slater%NULL%2,         Jonathan R%Tiao%NULL%2,         Matthew R%Baldwin%NULL%3,         R Graham%Barr%NULL%2,         Bernard P%Chang%NULL%2,         Katherine H%Chau%NULL%2,         Justin J%Choi%NULL%2,         Nicholas%Gavin%NULL%2,         Parag%Goyal%NULL%2,         Angela M%Mills%NULL%2,         Ashmi A%Patel%NULL%2,         Marie-Laure S%Romney%NULL%2,         Monika M%Safford%NULL%2,         Neil W%Schluger%NULL%2,         Soumitra%Sengupta%NULL%2,         Magdalena E%Sobieszczyk%NULL%2,         Jason E%Zucker%NULL%2,         Paul A%Asadourian%NULL%2,         Fletcher M%Bell%NULL%2,         Rebekah%Boyd%NULL%2,         Matthew F%Cohen%NULL%2,         MacAlistair I%Colquhoun%NULL%2,         Lucy A%Colville%NULL%2,         Joseph H%de Jonge%NULL%2,         Lyle B%Dershowitz%NULL%2,         Shirin A%Dey%NULL%2,         Katherine A%Eiseman%NULL%2,         Zachary P%Girvin%NULL%2,         Daniella T%Goni%NULL%2,         Amro A%Harb%NULL%2,         Nicholas%Herzik%NULL%2,         Sarah%Householder%NULL%2,         Lara E%Karaaslan%NULL%2,         Heather%Lee%NULL%2,         Evan%Lieberman%NULL%2,         Andrew%Ling%NULL%2,         Ree%Lu%NULL%2,         Arthur Y%Shou%NULL%2,         Alexander C%Sisti%NULL%2,         Zachary E%Snow%NULL%2,         Colin P%Sperring%NULL%2,         Yuqing%Xiong%NULL%2,         Henry W%Zhou%NULL%2,         Karthik%Natarajan%NULL%2,         George%Hripcsak%NULL%2,         Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%3,         James M.%Blum%NULL%2,         Chad%Robichaux%NULL%2,         Colleen%Kraft%NULL%2,         Jesse T.%Jacob%NULL%2,         Craig S.%Jabaley%NULL%2,         David%Carpenter%NULL%2,         Roberta%Kaplow%NULL%2,         Alfonso C.%Hernandez-Romieu%NULL%2,         Max W.%Adelman%NULL%2,         Greg S.%Martin%NULL%2,         Craig M.%Coopersmith%NULL%2,         David J.%Murphy%NULL%2,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%0,         Michelle%Nichols%NULL%0,         Richard%Kim%NULL%0,         Keith R.%Jerome%NULL%0,         Arun K.%Nalla%NULL%0,         Alexander L.%Greninger%NULL%0,         Sudhakar%Pipavath%NULL%0,         Mark M.%Wurfel%NULL%0,         Laura%Evans%NULL%0,         Patricia A.%Kritek%NULL%0,         T. Eoin%West%NULL%0,         Andrew%Luks%NULL%0,         Anthony%Gerbino%NULL%0,         Chris R.%Dale%NULL%0,         Jason D.%Goldman%NULL%0,         Shane%O’Mahony%NULL%0,         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,         Denise J%McCulloch%NULL%0,         Denise J%McCulloch%NULL%0,         Vidya%Atluri%NULL%0,         Michela%Blain%NULL%0,         Sarah A%McGuffin%NULL%0,         Arun K%Nalla%NULL%0,         Meei-Li%Huang%NULL%0,         Alex L%Greninger%NULL%0,         Keith R%Jerome%NULL%0,         Seth A%Cohen%NULL%0,         Santiago%Neme%NULL%0,         Margaret L%Green%NULL%0,         Helen Y%Chu%NULL%0,         H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,         Joelle I.%Rosser%NULL%0,         Orlando%Quintero%NULL%0,         Jake%Scott%NULL%0,         Aruna%Subramanian%NULL%0,         Mohammad%Gumma%NULL%0,         Angela%Rogers%NULL%0,         Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,         Jacob%Fiksel%NULL%2,         Jacob%Fiksel%NULL%0,         John%Muschelli%NULL%2,         John%Muschelli%NULL%0,         Matthew L.%Robinson%NULL%2,         Matthew L.%Robinson%NULL%0,         Masoud%Rouhizadeh%NULL%2,         Masoud%Rouhizadeh%NULL%0,         Jamie%Perin%NULL%2,         Jamie%Perin%NULL%0,         Grant%Schumock%NULL%2,         Grant%Schumock%NULL%0,         Paul%Nagy%NULL%2,         Paul%Nagy%NULL%0,         Josh H.%Gray%NULL%2,         Josh H.%Gray%NULL%0,         Harsha%Malapati%NULL%2,         Harsha%Malapati%NULL%0,         Mariam%Ghobadi-Krueger%NULL%2,         Mariam%Ghobadi-Krueger%NULL%0,         Timothy M.%Niessen%NULL%1,         Bo Soo%Kim%NULL%1,         Peter M.%Hill%NULL%1,         M. Shafeeq%Ahmed%NULL%1,         Eric D.%Dobkin%NULL%1,         Renee%Blanding%NULL%1,         Jennifer%Abele%NULL%1,         Bonnie%Woods%NULL%1,         Kenneth%Harkness%NULL%1,         David R.%Thiemann%NULL%1,         Mary G.%Bowring%NULL%1,         Aalok B.%Shah%NULL%2,         Aalok B.%Shah%NULL%0,         Mei-Cheng%Wang%NULL%1,         Karen%Bandeen-Roche%NULL%1,         Antony%Rosen%NULL%1,         Scott L.%Zeger%NULL%2,         Scott L.%Zeger%NULL%0,         Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,         Justin J.%Choi%NULL%0,         Laura C.%Pinheiro%NULL%0,         Edward J.%Schenck%NULL%0,         Ruijun%Chen%NULL%0,         Assem%Jabri%NULL%0,         Michael J.%Satlin%NULL%0,         Thomas R.%Campion%NULL%0,         Musarrat%Nahid%NULL%0,         Joanna B.%Ringel%NULL%0,         Katherine L.%Hoffman%NULL%0,         Mark N.%Alshak%NULL%0,         Han A.%Li%NULL%0,         Graham T.%Wehmeyer%NULL%0,         Graham T.%Wehmeyer%NULL%0,         Mangala%Rajan%NULL%0,         Evgeniya%Reshetnyak%NULL%0,         Nathaniel%Hupert%NULL%0,         Evelyn M.%Horn%NULL%0,         Fernando J.%Martinez%NULL%0,         Roy M.%Gulick%NULL%0,         Monika M.%Safford%NULL%0,         Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,         Simon A%Jones%NULL%0,         Jie%Yang%NULL%0,         Harish%Rajagopalan%NULL%0,         Luke%O’Donnell%NULL%0,         Yelena%Chernyak%NULL%0,         Katie A%Tobin%NULL%0,         Robert J%Cerfolio%NULL%0,         Fritz%Francois%NULL%0,         Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,         Anatoly%Mitrokhin%NULL%2,         Anatoly%Mitrokhin%NULL%0,         Ajai%Rajabalan%NULL%1,         Christian%Benjamin%NULL%1,         Sushma%Raviralla%NULL%1,         Vishnu R%Mani%vishnu.mani@duke.edu%2,         Vishnu R%Mani%vishnu.mani@duke.edu%0,         Aleksandr%Kalabin%NULL%2,         Aleksandr%Kalabin%NULL%0,         Sebastian C%Valdivieso%NULL%2,         Sebastian C%Valdivieso%NULL%0,         Max%Murray-Ramcharan%NULL%2,         Max%Murray-Ramcharan%NULL%0,         Brian%Donaldson%NULL%2,         Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,          Nicholas A.%Fergusson%null%2,          Elisa%Lloyd-Smith%null%2,          Andrew%Wormsbecker%null%2,          Denise%Foster%null%2,          Andrei%Karpov%null%2,          Sarah%Crowe%null%2,          Greg%Haljan%null%2,          Dean R.%Chittock%null%2,          Hussein D.%Kanji%null%2,          Mypinder S.%Sekhon%null%2,          Donald E.G.%Griesdale%null%2,        Anish R.%Mitra%null%1,        Nicholas A.%Fergusson%null%1,        Elisa%Lloyd-Smith%null%1,        Andrew%Wormsbecker%null%1,        Denise%Foster%null%1,        Andrei%Karpov%null%1,        Sarah%Crowe%null%1,        Greg%Haljan%null%1,        Dean R.%Chittock%null%1,        Hussein D.%Kanji%null%1,        Mypinder S.%Sekhon%null%1,        Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,         Damianos G.%Kokkinidis%NULL%1,         Weijia%Li%NULL%1,         Dimitrios%Karamanis%NULL%1,         Jennifer%Ognibene%NULL%1,         Shitij%Arora%NULL%1,         William N.%Southern%NULL%1,         Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,         Jesus D.%Gonzalez-Lugo%NULL%1,         Shafia%Rahman%NULL%1,         Mohammad%Barouqa%NULL%1,         James%Szymanski%NULL%1,         Kenji%Ikemura%NULL%1,         Yungtai%Lo%NULL%1,         Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%4,        Chelico%J.D.%coreGivesNoEmail%4,        Cohen%S.L.%coreGivesNoEmail%4,        Cookingham%J.%coreGivesNoEmail%4,        Coppa%K.%coreGivesNoEmail%4,        Crawford%J.M.%coreGivesNoEmail%4,        Davidson%K.W.%coreGivesNoEmail%4,        Diefenbach%M.A.%coreGivesNoEmail%4,        Dominello%A.J.%coreGivesNoEmail%4,        Duer-Hefele%J.%coreGivesNoEmail%4,        Falzon%L.%coreGivesNoEmail%4,        Gitlin%J.%coreGivesNoEmail%4,        Hajizadeh%N.%coreGivesNoEmail%4,        Harvin%T.G.%coreGivesNoEmail%4,        Hirsch%J.S.%coreGivesNoEmail%4,        Hirschwerk%D.A.%coreGivesNoEmail%4,        Kim%E.J.%coreGivesNoEmail%4,        Kozel%Z.M.%coreGivesNoEmail%4,        Marrast%L.M.%coreGivesNoEmail%4,        McGinn%T.%coreGivesNoEmail%4,        Mogavero%J.N.%coreGivesNoEmail%4,        Narasimhan%M.%coreGivesNoEmail%4,        Osorio%G.A.%coreGivesNoEmail%4,        Qiu%M.%coreGivesNoEmail%4,        Richardson%S.%coreGivesNoEmail%4,        Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,         Viet-Thi%Tran%NULL%4,         Viet-Thi%Tran%NULL%0,         Mathilde%Roumier%NULL%2,         Amélie%Chabrol%NULL%2,         Romain%Paule%NULL%2,         Constance%Guillaud%NULL%2,         Elena%Fois%NULL%2,         Raphael%Lepeule%NULL%2,         Tali-Anne%Szwebel%NULL%2,         François-Xavier%Lescure%NULL%2,         Frédéric%Schlemmer%NULL%2,         Marie%Matignon%NULL%2,         Mehdi%Khellaf%NULL%2,         Etienne%Crickx%NULL%2,         Benjamin%Terrier%NULL%2,         Caroline%Morbieu%NULL%2,         Paul%Legendre%NULL%2,         Julien%Dang%NULL%2,         Yoland%Schoindre%NULL%2,         Jean-Michel%Pawlotsky%NULL%2,         Marc%Michel%NULL%2,         Elodie%Perrodeau%NULL%2,         Nicolas%Carlier%NULL%2,         Nicolas%Roche%NULL%2,         Victoire%de Lastours%NULL%2,         Clément%Ourghanlian%NULL%2,         Solen%Kerneis%NULL%2,         Philippe%Ménager%NULL%2,         Luc%Mouthon%NULL%2,         Etienne%Audureau%NULL%2,         Philippe%Ravaud%NULL%2,         Bertrand%Godeau%NULL%2,         Sébastien%Gallien%NULL%2,         Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,  Abu Baker%Sheikh%xref no email%1,  Shubhra%Upadhyay%xref no email%1,  Jeanette%Atencio%xref no email%1,  Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,       Yu%Zuo%NULL%1,       Srilakshmi%Yalavarthi%NULL%1,       Kelsey%Gockman%NULL%1,       Melanie%Zuo%NULL%1,       Jacqueline A%Madison%NULL%1,       Christopher%Blair%NULL%1,       Wrenn%Woodward%NULL%1,       Sean P%Lezak%NULL%1,       Njira L%Lugogo%NULL%1,       Robert J%Woods%NULL%1,       Christian%Lood%NULL%1,       Jason S%Knight%NULL%2,       Jason S%Knight%NULL%0,       Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,         Raef A.%Fadel%NULL%1,         Kelly M.%Malette%NULL%1,         Charles%Hammond%NULL%1,         Hafsa%Abdulla%NULL%1,         Abigail%Entz%NULL%1,         Zachary%Demertzis%NULL%1,         Zachary%Hanna%NULL%1,         Andrew%Failla%NULL%1,         Carina%Dagher%NULL%0,         Zohra%Chaudhry%NULL%2,         Amit%Vahia%NULL%2,         Odaliz%Abreu Lanfranco%NULL%1,         Mayur%Ramesh%NULL%1,         Marcus J.%Zervos%NULL%1,         George%Alangaden%NULL%2,         Joseph%Miller%NULL%2,         Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,  Daniel%Mu\u00f1oz%xref no email%1,  Alberto%Fica%xref no email%1,  Ignacio%Delama%xref no email%1,  Ignacia%Alvarez%xref no email%1,  Maritza%Navarrete%xref no email%1,  Eileen%Blackburn%xref no email%1,  Pamela%Garrido%xref no email%1,  Ricardo%Wenger%xref no email%1,  Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2712,7 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -2419,7 +2770,7 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>516</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -2448,7 +2799,7 @@
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>517</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -2477,7 +2828,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
+        <v>518</v>
       </c>
       <c r="F6" t="s">
         <v>99</v>
@@ -2506,7 +2857,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -2535,7 +2886,7 @@
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>520</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -2564,7 +2915,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2593,7 +2944,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
         <v>112</v>
@@ -2622,7 +2973,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="F11" t="s">
         <v>116</v>
@@ -2651,7 +3002,7 @@
         <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>524</v>
       </c>
       <c r="F12" t="s">
         <v>120</v>
@@ -2680,7 +3031,7 @@
         <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>413</v>
+        <v>525</v>
       </c>
       <c r="F13" t="s">
         <v>124</v>
@@ -2709,7 +3060,7 @@
         <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>526</v>
       </c>
       <c r="F14" t="s">
         <v>128</v>
@@ -2761,22 +3112,22 @@
         <v>44075</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>466</v>
       </c>
       <c r="I16" t="s">
         <v>89</v>
@@ -2796,7 +3147,7 @@
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>415</v>
+        <v>528</v>
       </c>
       <c r="F17" t="s">
         <v>131</v>
@@ -2825,7 +3176,7 @@
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
       <c r="F18" t="s">
         <v>134</v>
@@ -2848,22 +3199,22 @@
         <v>43942</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>471</v>
       </c>
       <c r="I19" t="s">
         <v>89</v>
@@ -2883,7 +3234,7 @@
         <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
@@ -2912,7 +3263,7 @@
         <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2941,7 +3292,7 @@
         <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="F22" t="s">
         <v>146</v>
@@ -2970,7 +3321,7 @@
         <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>420</v>
+        <v>534</v>
       </c>
       <c r="F23" t="s">
         <v>150</v>
@@ -2999,7 +3350,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>421</v>
+        <v>535</v>
       </c>
       <c r="F24" t="s">
         <v>153</v>
@@ -3028,7 +3379,7 @@
         <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>422</v>
+        <v>536</v>
       </c>
       <c r="F25" t="s">
         <v>157</v>
@@ -3057,7 +3408,7 @@
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>423</v>
+        <v>537</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -3086,7 +3437,7 @@
         <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="F27" t="s">
         <v>165</v>
@@ -3115,7 +3466,7 @@
         <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>425</v>
+        <v>539</v>
       </c>
       <c r="F28" t="s">
         <v>168</v>
@@ -3144,7 +3495,7 @@
         <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="F29" t="s">
         <v>172</v>
@@ -3173,7 +3524,7 @@
         <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>427</v>
+        <v>541</v>
       </c>
       <c r="F30" t="s">
         <v>176</v>
@@ -3202,7 +3553,7 @@
         <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>428</v>
+        <v>542</v>
       </c>
       <c r="F31" t="s">
         <v>179</v>
@@ -3231,7 +3582,7 @@
         <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>429</v>
+        <v>543</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3260,7 +3611,7 @@
         <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>430</v>
+        <v>544</v>
       </c>
       <c r="F33" t="s">
         <v>183</v>
@@ -3289,7 +3640,7 @@
         <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>545</v>
       </c>
       <c r="F34" t="s">
         <v>186</v>
@@ -3318,7 +3669,7 @@
         <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="F35" t="s">
         <v>190</v>
@@ -3347,7 +3698,7 @@
         <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>433</v>
+        <v>547</v>
       </c>
       <c r="F36" t="s">
         <v>194</v>
@@ -3405,7 +3756,7 @@
         <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3428,22 +3779,22 @@
         <v>43949</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="D39" t="s">
         <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>549</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>492</v>
       </c>
       <c r="I39" t="s">
         <v>89</v>
@@ -3463,7 +3814,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>435</v>
+        <v>550</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -3492,7 +3843,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>436</v>
+        <v>551</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -3521,7 +3872,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -3550,7 +3901,7 @@
         <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>438</v>
+        <v>553</v>
       </c>
       <c r="F43" t="s">
         <v>208</v>
@@ -3579,7 +3930,7 @@
         <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>439</v>
+        <v>554</v>
       </c>
       <c r="F44" t="s">
         <v>211</v>
@@ -3608,7 +3959,7 @@
         <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>440</v>
+        <v>555</v>
       </c>
       <c r="F45" t="s">
         <v>214</v>
@@ -3666,7 +4017,7 @@
         <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>441</v>
+        <v>556</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
@@ -3695,7 +4046,7 @@
         <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="F48" t="s">
         <v>219</v>
@@ -3724,7 +4075,7 @@
         <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="F49" t="s">
         <v>222</v>
@@ -3753,7 +4104,7 @@
         <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>444</v>
+        <v>559</v>
       </c>
       <c r="F50" t="s">
         <v>226</v>
@@ -3782,7 +4133,7 @@
         <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>560</v>
       </c>
       <c r="F51" t="s">
         <v>231</v>
@@ -3811,7 +4162,7 @@
         <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="F52" t="s">
         <v>219</v>
@@ -3840,7 +4191,7 @@
         <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>446</v>
+        <v>561</v>
       </c>
       <c r="F53" t="s">
         <v>234</v>
@@ -3869,7 +4220,7 @@
         <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>562</v>
       </c>
       <c r="F54" t="s">
         <v>65</v>
@@ -3898,7 +4249,7 @@
         <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>563</v>
       </c>
       <c r="F55" t="s">
         <v>238</v>
@@ -3921,22 +4272,22 @@
         <v>43969</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="D56" t="s">
         <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>509</v>
       </c>
       <c r="I56" t="s">
         <v>89</v>
@@ -3956,7 +4307,7 @@
         <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="F57" t="s">
         <v>256</v>
@@ -3985,7 +4336,7 @@
         <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="F58" t="s">
         <v>242</v>
@@ -4008,22 +4359,22 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="D59" t="s">
         <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>514</v>
       </c>
       <c r="I59" t="s">
         <v>89</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="674">
   <si>
     <t>Doi</t>
   </si>
@@ -2313,6 +2313,324 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,  Daniel%Mu\u00f1oz%xref no email%1,  Alberto%Fica%xref no email%1,  Ignacio%Delama%xref no email%1,  Ignacia%Alvarez%xref no email%1,  Maritza%Navarrete%xref no email%1,  Eileen%Blackburn%xref no email%1,  Pamela%Garrido%xref no email%1,  Ricardo%Wenger%xref no email%1,  Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,           J.% Jiang%null%1,           X.% Xu%null%1,           Y.% Hu%null%2,           Y.% Hu%null%0,           Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,          Chenchen%Qian%NULL%1,          Zhibing%Luo%NULL%1,          Qiang%Li%liqressh@hotmail.com%0,          Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,          Chunlin%Cai%NULL%1,          Jinglei%Zang%NULL%1,          Jun%Xie%NULL%1,          Dan%Xu%NULL%0,          Fang%Zheng%NULL%0,          Tao%Zhan%NULL%1,          Kang%Huang%NULL%1,          Yikai%Wang%NULL%1,          Xiao%Wang%NULL%1,          Zhe-Yu%Hu%NULL%1,          Yapeng%Deng%NULL%1,          Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,          Naofumi%Bunya%NULL%1,          Tomoyuki%Endo%NULL%1,          Yuji%Fujino%NULL%1,          Kensuke%Fujita%NULL%1,          Kenji%Fujizuka%NULL%1,          Yoshihiro%Hagiwara%NULL%1,          Jun%Hamaguchi%NULL%1,          Yoshitaka%Hara%NULL%1,          Eiji%Hashiba%NULL%1,          Satoru%Hashimoto%NULL%1,          Noriyuki%Hattori%NULL%1,          Kota%Hoshino%NULL%1,          Shinichi%Ijuin%NULL%1,          Takanari%Ikeyama%NULL%1,          Shingo%Ichiba%NULL%1,          Wataru%Iwanaga%NULL%1,          Yoshiaki%Iwashita%NULL%1,          Masafumi%Kanamoto%NULL%1,          Hitoshi%Kaneko%NULL%1,          Kaneyuki%Kawamae%NULL%1,          Toru%Kotani%NULL%1,          Yasuaki%Koyama%NULL%1,          Keibun%Liu%NULL%1,          Tomohiko%Masuno%NULL%1,          Naoto%Morimura%NULL%1,          Tomoyuki%Nakamura%NULL%1,          Masaki%Nakane%NULL%1,          Michitaka%Nasu%NULL%1,          Osamu%Nishida%NULL%1,          Masaji%Nishimura%NULL%1,          Kanae%Ochiai%NULL%1,          Takayuki%Ogura%NULL%1,          Shinichiro%Ohshimo%NULL%1,          Keisuke%Oyama%NULL%1,          Junichi%Sasaki%NULL%1,          Ryutaro%Seo%NULL%1,          Takeshi%Shimazu%NULL%1,          Nobuaki%Shime%NULL%4,          Keiki%Shimizu%NULL%1,          Hiroyuki%Suzuki%NULL%1,          Shuhei%Takauji%NULL%1,          Shinhiro%Takeda%NULL%1,          Ichiro%Takeuchi%NULL%2,          Mumon%Takita%NULL%1,          Hayato%Taniguchi%NULL%1,          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,          Yi Xin%Tong%NULL%3,          Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,          Hong%Chen%NULL%0,          Zhen%Li%NULL%2,          Bo%Wang%NULL%0,          Zhong-Wei%Zhang%NULL%1,          Wei-Min%Li%NULL%0,          Zong-An%Liang%NULL%0,          Jin%Tang%NULL%1,          Jian%Wang%NULL%1,          Rui%Shi%NULL%1,          Xiao-Dong%Jin%NULL%1,          Yan%Kang%NULL%0,          Pei-Fang%Wei%NULL%8,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,           S. F.% Mahmood%null%1,           K.% Habib%null%1,           I.% Khanum%null%1,           B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,          Chaisith%Sivakorn%NULL%1,          Tanuwong%Viarasilpa%NULL%1,          Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,          Mu%Qin%qinmuae@163.com%1,          Yuli%Cai%NULL%1,          Tao%Liu%NULL%0,          Bo%Shen%NULL%1,          Fan%Yang%NULL%2,          Sheng%Cao%NULL%1,          Xu%Liu%NULL%2,          Xu%Liu%NULL%0,          Yaozu%Xiang%NULL%1,          Qinyan%Zhao%NULL%1,          He%Huang%huanghe1977@whu.edu.cn%0,          Bo%Yang%yybb112@whu.edu.cn%0,          Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,          Win%Kulvichit%NULL%1,          Sunchai%Payungporn%NULL%1,          Trairak%Pisitkun%NULL%1,          Ariya%Chindamporn%NULL%1,          Sadudee%Peerapornratana%NULL%1,          Prapaporn%Pisitkun%NULL%1,          Suwalak%Chitcharoen%NULL%1,          Vorthon%Sawaswong%NULL%1,          Navaporn%Worasilchai%NULL%1,          Sarinya%Kampunya%NULL%1,          Opass%Putcharoen%NULL%1,          Thammasak%Thawitsri%NULL%1,          Nophol%Leelayuwatanakul%NULL%1,          Napplika%Kongpolprom%NULL%1,          Vorakamol%Phoophiboon%NULL%1,          Thitiwat%Sriprasart%NULL%1,          Rujipat%Samransamruajkit%NULL%1,          Somkanya%Tungsanga%NULL%1,          Kanitha%Tiankanon%NULL%1,          Nuttha%Lumlertgul%NULL%1,          Asada%Leelahavanichkul%NULL%1,          Tueboon%Sriphojanart%NULL%1,          Terapong%Tantawichien%NULL%1,          Usa%Thisyakorn%NULL%1,          Chintana%Chirathaworn%NULL%1,          Kearkiat%Praditpornsilpa%NULL%1,          Kriang%Tungsanga%NULL%1,          Somchai%Eiam-Ong%NULL%1,          Visith%Sitprija%NULL%1,          John A.%Kellum%NULL%1,          Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,          Min%Pan%NULL%3,          Xiumei%Zhang%NULL%3,          Mingfeng%Han%fyhmf@163.com%0,          Xiaoyun%Fan%13956988552@126.com%3,          Fengde%Zhao%NULL%3,          Manli%Miao%NULL%3,          Jing%Xu%NULL%0,          Minglong%Guan%NULL%3,          Xia%Deng%NULL%3,          Xu%Chen%NULL%4,          Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,          Chunli%Tang%NULL%0,          Ruchong%Chen%NULL%1,          Honglian%Ruan%NULL%1,          Wenhua%Liang%NULL%0,          Weijie%Guan%NULL%0,          Ling%Sang%NULL%0,          Ruidi%Tang%NULL%1,          Nanshan%Zhong%NULL%0,          Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,   Shuhan%Cai%xref no email%1,   Yun%Luo%xref no email%1,   Fangfang%Zhu%xref no email%1,   Ming%Hu%xref no email%1,   Yan%Zhao%xref no email%1,   Ruiqiang%Zheng%xref no email%1,   Xuyan%Li%xref no email%1,   Bo%Hu%xref no email%0,   Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%5,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%5,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%5,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%5,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%5,          Shangwen%Pan%NULL%5,          Xiaojing%Zou%NULL%7,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,          Shanyan%Zhang%NULL%2,          Xiaoli%Zhang%NULL%1,          Huan%Cai%NULL%2,          Jueqing%Gu%NULL%2,          Jiangshan%Lian%NULL%2,          Yingfeng%Lu%NULL%2,          Hongyu%Jia%NULL%2,          Jianhua%Hu%NULL%2,          Ciliang%Jin%NULL%2,          Guodong%Yu%NULL%2,          Yimin%Zhang%NULL%2,          Jifang%Sheng%NULL%4,          Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,          Dan%Xu%NULL%0,          Shouzhi%Fu%NULL%0,          Jun%Zhang%NULL%0,          Xiaobo%Yang%NULL%0,          Liang%Xu%NULL%0,          Jiqian%Xu%NULL%0,          Yongran%Wu%NULL%0,          Chaolin%Huang%NULL%0,          Yaqi%Ouyang%NULL%0,          Luyu%Yang%NULL%0,          Minghao%Fang%NULL%0,          Hongwen%Xiao%NULL%0,          Jing%Ma%NULL%0,          Wei%Zhu%NULL%0,          Song%Hu%NULL%0,          Quan%Hu%NULL%0,          Daoyin%Ding%NULL%0,          Ming%Hu%NULL%0,          Guochao%Zhu%NULL%0,          Weijiang%Xu%NULL%0,          Jun%Guo%NULL%0,          Jinglong%Xu%NULL%0,          Haitao%Yuan%NULL%0,          Bin%Zhang%NULL%0,          Zhui%Yu%yuzhui@whu.edu.cn%0,          Dechang%Chen%icudechangchen@163.com%0,          Shiying%Yuan%yuan_shiying@163.com%0,          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,          Hao-Yu%Gao%NULL%1,          Zi-Yi%Feng%NULL%1,          Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,          Li-jun%Sun%NULL%1,          Mi%Xu%NULL%1,          Jian%Pan%NULL%1,          Yun-tao%Zhang%NULL%1,          Xue-ling%Fang%NULL%1,          Qiang%Fang%NULL%2,          Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,          Ziqiang%Du%NULL%1,          Yanfang%Zhu%NULL%1,          Wenfeng%Li%NULL%1,          Hongjun%Miao%NULL%1,          Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,          Sarah%Al-Youha%sarahalyouha@gmail.com%1,          Mohammad H.%Jamal%NULL%1,          Mohannad%Al-Haddad%NULL%1,          Ali%Al-Muhaini%NULL%1,          Fahad%Al-Ghimlas%NULL%1,          Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,          Mina%Akbari Rad%NULL%1,          Robert%Bergquist%NULL%1,          Abolghasem%Allahyari%NULL%1,          Kamila%Hashemzadeh%NULL%1,          Nasrin%Milani%NULL%1,          Mahdi%Gholian-Aval%NULL%1,          Fariba%Rezaeitalab%NULL%1,          Mohammad Jafar%Sadeghi Quchani%NULL%1,          Zahra%Nahbandani%NULL%1,          Mandana%Khodashahi%NULL%1,          Zahra%Javid%NULL%1,          Mahnaz%Mozdourian%NULL%1,          Mohammad Ali%Yaghoubi%NULL%1,          Zahra%Mozaheb%NULL%1,          Mohsen%Seddigh-Shamsi%NULL%1,          Mohammad%Moeini Nodeh%NULL%1,          Shima%Nabavi%NULL%1,          Hooman%Mosannen Mozaffari%NULL%1,          Mohammadreza%Farzanehfar%NULL%1,          Zahra%Lotfi%NULL%1,          Alireza%Shariati%NULL%1,          Shekoofe%Bonakdaran%NULL%1,          Zahra%Rezaieyazdi%NULL%1,          Zahra%Mirfeizi%NULL%1,          Maryam%Miri%NULL%1,          Reza%Bassiri%NULL%1,          Sajjad%Ataei Azimi%NULL%1,          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,          Ibrahim%Al-Zakwani%NULL%1,          Hamed%Al Naamani%NULL%1,          Sultan%Al Lawati%NULL%1,          Nenad%Pandak%NULL%1,          Muna Ba%Omar%NULL%1,          Maher%Al Bahrani%NULL%1,          Zakaryia AL%Bulushi%NULL%1,          Huda%Al Khalili%NULL%1,          Issa%Al Salmi%NULL%1,          Ruwaida%Al Ismaili%NULL%1,          Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,          Zohre%Khodamoradi%NULL%1,          Amirhossein%Erfani%NULL%1,          Hamidreza%Hosseinpour%NULL%1,          Keivan%Ranjbar%NULL%1,          Yasaman%Emami%NULL%1,          Alireza%Mirahmadizadeh%NULL%1,          Mehrzad%Lotfi%NULL%1,          Babak%Shirazi Yeganeh%NULL%1,          Abolfazl%Dorrani Nejad%NULL%1,          Abdolrasool%Hemmati%NULL%1,          Mostafa%Ebrahimi%NULL%1,          Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,          Annachiara%Ferrari%NULL%2,          Annachiara%Ferrari%NULL%0,          Francesco%Fontana%NULL%1,          Giacomo%Mori%NULL%1,          Riccardo%Magistroni%NULL%1,          Marianna%Meschiari%NULL%1,          Erica%Franceschini%NULL%1,          Marianna%Menozzi%NULL%1,          Gianluca%Cuomo%NULL%1,          Gabriella%Orlando%NULL%1,          Antonella%Santoro%NULL%1,          Margherita%Digaetano%NULL%1,          Cinzia%Puzzolante%NULL%1,          Federica%Carli%NULL%1,          Andrea%Bedini%NULL%1,          Jovana%Milic%NULL%1,          Irene%Coloretti%NULL%1,          Paolo%Raggi%NULL%1,          Cristina%Mussini%NULL%1,          Massimo%Girardis%NULL%1,          Gianni%Cappelli%NULL%1,          Giovanni%Guaraldi%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,          Silvia%Bettini%NULL%2,          Silvia%Bettini%NULL%0,          Roberto%Fabris%NULL%1,          Roberto%Serra%NULL%2,          Chiara%Dal Pra%NULL%1,          Pietro%Maffei%NULL%1,          Marco%Rossato%NULL%1,          Paola%Fioretto%NULL%0,          Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,          Marco%Roncador%NULL%2,          Marco%Roncador%NULL%0,          Andrea%Saporito%NULL%1,          Maira%Biggiogero%NULL%1,          Andrea%Glotta%NULL%1,          Pier Andrea%Maida%NULL%1,          Patrizia%Urso%NULL%1,          Giovanni%Bona%NULL%1,          Christian%Garzoni%NULL%1,          Romano%Mauri%NULL%1,          Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,          Anna Lisa%Ridolfo%NULL%4,          Laura%Milazzo%NULL%2,          Letizia%Oreni%NULL%4,          Dario%Bernacchia%NULL%4,          Matteo%Siano%NULL%4,          Cecilia%Bonazzetti%NULL%2,          Alice%Covizzi%NULL%2,          Marco%Schiuma%NULL%2,          Matteo%Passerini%NULL%2,          Marco%Piscaglia%NULL%2,          Massimo%Coen%NULL%2,          Guido%Gubertini%NULL%2,          Giuliano%Rizzardini%NULL%4,          Chiara%Cogliati%NULL%2,          Anna Maria%Brambilla%NULL%2,          Riccardo%Colombo%NULL%2,          Antonio%Castelli%NULL%2,          Roberto%Rech%NULL%2,          Agostino%Riva%NULL%2,          Alessandro%Torre%NULL%2,          Luca%Meroni%NULL%2,          Stefano%Rusconi%NULL%4,          Spinello%Antinori%NULL%4,          Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%4,         Castelli%Antonio%coreGivesNoEmail%4,         Cecconi%Maurizio%coreGivesNoEmail%4,         Cereda%Danilo%coreGivesNoEmail%4,         Coluccello%Antonio%coreGivesNoEmail%4,         Foti%Giuseppe%coreGivesNoEmail%4,         Fumagalli%Roberto%coreGivesNoEmail%4,         Grasselli%Giacomo%coreGivesNoEmail%4,         Iotti%Giorgio%coreGivesNoEmail%4,         Latronico%Nicola%coreGivesNoEmail%4,         Lorini%Luca%coreGivesNoEmail%4,         Merler%Stefano%coreGivesNoEmail%4,         Natalini%Giuseppe%coreGivesNoEmail%4,         Pesenti%Antonio%coreGivesNoEmail%4,         Piatti%Alessandra%coreGivesNoEmail%4,         Ranieri%Marco Vito%coreGivesNoEmail%4,         Scandroglio%Anna Mara%coreGivesNoEmail%4,         Storti%Enrico%coreGivesNoEmail%4,         Zanella%Alberto%coreGivesNoEmail%4,         Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,          Lara%Gianesello%gianesello.lara@libero.it%1,          Maddalena%Pazzi%NULL%2,          Maddalena%Pazzi%NULL%0,          Caterina%Stera%NULL%1,          Tommaso%Meconi%NULL%1,          Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,          Andrea%Dalbeni%NULL%2,          Andrea%Dalbeni%NULL%0,          Elia%Vettore%NULL%2,          Elia%Vettore%NULL%0,          Devis%Benfaremo%NULL%1,          Massimo%Mattioli%NULL%1,          Carmine G.%Gambino%NULL%1,          Viviana%Framba%NULL%2,          Viviana%Framba%NULL%0,          Lorenzo%Cerruti%NULL%1,          Anna%Mantovani%NULL%1,          Andrea%Martini%NULL%1,          Michele M.%Luchetti%NULL%1,          Roberto%Serra%NULL%0,          Annamaria%Cattelan%NULL%1,          Roberto%Vettor%NULL%0,          Paolo%Angeli%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,          Matthaios%Papadimitriou-Olivgeris%NULL%2,          Matthaios%Papadimitriou-Olivgeris%NULL%0,          Raphaël%Burger%NULL%1,          Marie-Annick%Le Pogam%NULL%1,          Tapio%Niemi%NULL%2,          Tapio%Niemi%NULL%0,          Paraskevas%Filippidis%NULL%1,          Jonathan%Tschopp%NULL%1,          Florian%Desgranges%NULL%1,          Benjamin%Viala%NULL%1,          Eleftheria%Kampouri%NULL%1,          Laurence%Rochat%NULL%2,          Laurence%Rochat%NULL%0,          David%Haefliger%NULL%1,          Mehdi%Belkoniene%NULL%1,          Carlos%Fidalgo%NULL%1,          Antonios%Kritikos%NULL%1,          Katia%Jaton%NULL%1,          Laurence%Senn%NULL%1,          Pierre-Alexandre%Bart%NULL%1,          Jean-Luc%Pagani%NULL%2,          Jean-Luc%Pagani%NULL%0,          Oriol%Manuel%NULL%1,          Loïc%Lhopitallier%NULL%1,          Chiara%Lazzeri%NULL%2,          Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,          Ashwin%Subramaniam%NULL%2,          Ashwin%Subramaniam%NULL%0,          Mallikarjuna%Ponnapa Reddy%NULL%2,          Mallikarjuna%Ponnapa Reddy%NULL%0,          Gabriel%Blecher%NULL%1,          Umesh%Kadam%NULL%2,          Umesh%Kadam%NULL%0,          Afsana%Afroz%NULL%1,          Baki%Billah%NULL%1,          Sushma%Ashwin%NULL%1,          Mark%Kubicki%NULL%1,          Federico%Bilotta%NULL%1,          J. Randall%Curtis%NULL%2,          J. Randall%Curtis%NULL%0,          Francesca%Rubulotta%NULL%2,          Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,         Aggarwal%Saurabh%coreGivesNoEmail%3,         Garcia-Telles%Nelson%coreGivesNoEmail%3,         Henry%Brandon Michael%coreGivesNoEmail%3,         Lavie%Carl%coreGivesNoEmail%3,         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,          Samuel L%Bruce%NULL%2,          Cody L%Slater%NULL%2,          Jonathan R%Tiao%NULL%2,          Matthew R%Baldwin%NULL%3,          R Graham%Barr%NULL%2,          Bernard P%Chang%NULL%2,          Katherine H%Chau%NULL%2,          Justin J%Choi%NULL%2,          Nicholas%Gavin%NULL%2,          Parag%Goyal%NULL%2,          Angela M%Mills%NULL%2,          Ashmi A%Patel%NULL%2,          Marie-Laure S%Romney%NULL%2,          Monika M%Safford%NULL%2,          Neil W%Schluger%NULL%2,          Soumitra%Sengupta%NULL%2,          Magdalena E%Sobieszczyk%NULL%2,          Jason E%Zucker%NULL%2,          Paul A%Asadourian%NULL%2,          Fletcher M%Bell%NULL%2,          Rebekah%Boyd%NULL%2,          Matthew F%Cohen%NULL%2,          MacAlistair I%Colquhoun%NULL%2,          Lucy A%Colville%NULL%2,          Joseph H%de Jonge%NULL%2,          Lyle B%Dershowitz%NULL%2,          Shirin A%Dey%NULL%2,          Katherine A%Eiseman%NULL%2,          Zachary P%Girvin%NULL%2,          Daniella T%Goni%NULL%2,          Amro A%Harb%NULL%2,          Nicholas%Herzik%NULL%2,          Sarah%Householder%NULL%2,          Lara E%Karaaslan%NULL%2,          Heather%Lee%NULL%2,          Evan%Lieberman%NULL%2,          Andrew%Ling%NULL%2,          Ree%Lu%NULL%2,          Arthur Y%Shou%NULL%2,          Alexander C%Sisti%NULL%2,          Zachary E%Snow%NULL%2,          Colin P%Sperring%NULL%2,          Yuqing%Xiong%NULL%2,          Henry W%Zhou%NULL%2,          Karthik%Natarajan%NULL%2,          George%Hripcsak%NULL%2,          Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,          Mark%Caridi-Scheible%NULL%3,          James M.%Blum%NULL%2,          Chad%Robichaux%NULL%2,          Colleen%Kraft%NULL%2,          Jesse T.%Jacob%NULL%2,          Craig S.%Jabaley%NULL%2,          David%Carpenter%NULL%2,          Roberta%Kaplow%NULL%2,          Alfonso C.%Hernandez-Romieu%NULL%2,          Max W.%Adelman%NULL%2,          Greg S.%Martin%NULL%2,          Craig M.%Coopersmith%NULL%2,          David J.%Murphy%NULL%2,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%0,          Michelle%Nichols%NULL%0,          Richard%Kim%NULL%0,          Keith R.%Jerome%NULL%0,          Arun K.%Nalla%NULL%0,          Alexander L.%Greninger%NULL%0,          Sudhakar%Pipavath%NULL%0,          Mark M.%Wurfel%NULL%0,          Laura%Evans%NULL%0,          Patricia A.%Kritek%NULL%0,          T. Eoin%West%NULL%0,          Andrew%Luks%NULL%0,          Anthony%Gerbino%NULL%0,          Chris R.%Dale%NULL%0,          Jason D.%Goldman%NULL%0,          Shane%O’Mahony%NULL%0,          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,          Denise J%McCulloch%NULL%0,          Denise J%McCulloch%NULL%0,          Vidya%Atluri%NULL%0,          Michela%Blain%NULL%0,          Sarah A%McGuffin%NULL%0,          Arun K%Nalla%NULL%0,          Meei-Li%Huang%NULL%0,          Alex L%Greninger%NULL%0,          Keith R%Jerome%NULL%0,          Seth A%Cohen%NULL%0,          Santiago%Neme%NULL%0,          Margaret L%Green%NULL%0,          Helen Y%Chu%NULL%0,          H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,          Joelle I.%Rosser%NULL%0,          Orlando%Quintero%NULL%0,          Jake%Scott%NULL%0,          Aruna%Subramanian%NULL%0,          Mohammad%Gumma%NULL%0,          Angela%Rogers%NULL%0,          Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,          Jacob%Fiksel%NULL%2,          Jacob%Fiksel%NULL%0,          John%Muschelli%NULL%2,          John%Muschelli%NULL%0,          Matthew L.%Robinson%NULL%2,          Matthew L.%Robinson%NULL%0,          Masoud%Rouhizadeh%NULL%2,          Masoud%Rouhizadeh%NULL%0,          Jamie%Perin%NULL%2,          Jamie%Perin%NULL%0,          Grant%Schumock%NULL%2,          Grant%Schumock%NULL%0,          Paul%Nagy%NULL%2,          Paul%Nagy%NULL%0,          Josh H.%Gray%NULL%2,          Josh H.%Gray%NULL%0,          Harsha%Malapati%NULL%2,          Harsha%Malapati%NULL%0,          Mariam%Ghobadi-Krueger%NULL%2,          Mariam%Ghobadi-Krueger%NULL%0,          Timothy M.%Niessen%NULL%1,          Bo Soo%Kim%NULL%1,          Peter M.%Hill%NULL%1,          M. Shafeeq%Ahmed%NULL%1,          Eric D.%Dobkin%NULL%1,          Renee%Blanding%NULL%1,          Jennifer%Abele%NULL%1,          Bonnie%Woods%NULL%1,          Kenneth%Harkness%NULL%1,          David R.%Thiemann%NULL%1,          Mary G.%Bowring%NULL%1,          Aalok B.%Shah%NULL%2,          Aalok B.%Shah%NULL%0,          Mei-Cheng%Wang%NULL%1,          Karen%Bandeen-Roche%NULL%1,          Antony%Rosen%NULL%1,          Scott L.%Zeger%NULL%2,          Scott L.%Zeger%NULL%0,          Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,          Justin J.%Choi%NULL%0,          Laura C.%Pinheiro%NULL%0,          Edward J.%Schenck%NULL%0,          Ruijun%Chen%NULL%0,          Assem%Jabri%NULL%0,          Michael J.%Satlin%NULL%0,          Thomas R.%Campion%NULL%0,          Musarrat%Nahid%NULL%0,          Joanna B.%Ringel%NULL%0,          Katherine L.%Hoffman%NULL%0,          Mark N.%Alshak%NULL%0,          Han A.%Li%NULL%0,          Graham T.%Wehmeyer%NULL%0,          Graham T.%Wehmeyer%NULL%0,          Mangala%Rajan%NULL%0,          Evgeniya%Reshetnyak%NULL%0,          Nathaniel%Hupert%NULL%0,          Evelyn M.%Horn%NULL%0,          Fernando J.%Martinez%NULL%0,          Roy M.%Gulick%NULL%0,          Monika M.%Safford%NULL%0,          Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,          Simon A%Jones%NULL%0,          Jie%Yang%NULL%0,          Harish%Rajagopalan%NULL%0,          Luke%O’Donnell%NULL%0,          Yelena%Chernyak%NULL%0,          Katie A%Tobin%NULL%0,          Robert J%Cerfolio%NULL%0,          Fritz%Francois%NULL%0,          Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,          Anatoly%Mitrokhin%NULL%2,          Anatoly%Mitrokhin%NULL%0,          Ajai%Rajabalan%NULL%1,          Christian%Benjamin%NULL%1,          Sushma%Raviralla%NULL%1,          Vishnu R%Mani%vishnu.mani@duke.edu%2,          Vishnu R%Mani%vishnu.mani@duke.edu%0,          Aleksandr%Kalabin%NULL%2,          Aleksandr%Kalabin%NULL%0,          Sebastian C%Valdivieso%NULL%2,          Sebastian C%Valdivieso%NULL%0,          Max%Murray-Ramcharan%NULL%2,          Max%Murray-Ramcharan%NULL%0,          Brian%Donaldson%NULL%2,          Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,           Nicholas A.%Fergusson%null%2,           Elisa%Lloyd-Smith%null%2,           Andrew%Wormsbecker%null%2,           Denise%Foster%null%2,           Andrei%Karpov%null%2,           Sarah%Crowe%null%2,           Greg%Haljan%null%2,           Dean R.%Chittock%null%2,           Hussein D.%Kanji%null%2,           Mypinder S.%Sekhon%null%2,           Donald E.G.%Griesdale%null%2,         Anish R.%Mitra%null%1,         Nicholas A.%Fergusson%null%1,         Elisa%Lloyd-Smith%null%1,         Andrew%Wormsbecker%null%1,         Denise%Foster%null%1,         Andrei%Karpov%null%1,         Sarah%Crowe%null%1,         Greg%Haljan%null%1,         Dean R.%Chittock%null%1,         Hussein D.%Kanji%null%1,         Mypinder S.%Sekhon%null%1,         Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,          Damianos G.%Kokkinidis%NULL%1,          Weijia%Li%NULL%1,          Dimitrios%Karamanis%NULL%1,          Jennifer%Ognibene%NULL%1,          Shitij%Arora%NULL%1,          William N.%Southern%NULL%1,          Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,          Jesus D.%Gonzalez-Lugo%NULL%1,          Shafia%Rahman%NULL%1,          Mohammad%Barouqa%NULL%1,          James%Szymanski%NULL%1,          Kenji%Ikemura%NULL%1,          Yungtai%Lo%NULL%1,          Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%4,         Chelico%J.D.%coreGivesNoEmail%4,         Cohen%S.L.%coreGivesNoEmail%4,         Cookingham%J.%coreGivesNoEmail%4,         Coppa%K.%coreGivesNoEmail%4,         Crawford%J.M.%coreGivesNoEmail%4,         Davidson%K.W.%coreGivesNoEmail%4,         Diefenbach%M.A.%coreGivesNoEmail%4,         Dominello%A.J.%coreGivesNoEmail%4,         Duer-Hefele%J.%coreGivesNoEmail%4,         Falzon%L.%coreGivesNoEmail%4,         Gitlin%J.%coreGivesNoEmail%4,         Hajizadeh%N.%coreGivesNoEmail%4,         Harvin%T.G.%coreGivesNoEmail%4,         Hirsch%J.S.%coreGivesNoEmail%4,         Hirschwerk%D.A.%coreGivesNoEmail%4,         Kim%E.J.%coreGivesNoEmail%4,         Kozel%Z.M.%coreGivesNoEmail%4,         Marrast%L.M.%coreGivesNoEmail%4,         McGinn%T.%coreGivesNoEmail%4,         Mogavero%J.N.%coreGivesNoEmail%4,         Narasimhan%M.%coreGivesNoEmail%4,         Osorio%G.A.%coreGivesNoEmail%4,         Qiu%M.%coreGivesNoEmail%4,         Richardson%S.%coreGivesNoEmail%4,         Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,          Viet-Thi%Tran%NULL%4,          Viet-Thi%Tran%NULL%0,          Mathilde%Roumier%NULL%2,          Amélie%Chabrol%NULL%2,          Romain%Paule%NULL%2,          Constance%Guillaud%NULL%2,          Elena%Fois%NULL%2,          Raphael%Lepeule%NULL%2,          Tali-Anne%Szwebel%NULL%2,          François-Xavier%Lescure%NULL%2,          Frédéric%Schlemmer%NULL%2,          Marie%Matignon%NULL%2,          Mehdi%Khellaf%NULL%2,          Etienne%Crickx%NULL%2,          Benjamin%Terrier%NULL%2,          Caroline%Morbieu%NULL%2,          Paul%Legendre%NULL%2,          Julien%Dang%NULL%2,          Yoland%Schoindre%NULL%2,          Jean-Michel%Pawlotsky%NULL%2,          Marc%Michel%NULL%2,          Elodie%Perrodeau%NULL%2,          Nicolas%Carlier%NULL%2,          Nicolas%Roche%NULL%2,          Victoire%de Lastours%NULL%2,          Clément%Ourghanlian%NULL%2,          Solen%Kerneis%NULL%2,          Philippe%Ménager%NULL%2,          Luc%Mouthon%NULL%2,          Etienne%Audureau%NULL%2,          Philippe%Ravaud%NULL%2,          Bertrand%Godeau%NULL%2,          Sébastien%Gallien%NULL%2,          Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,   Abu Baker%Sheikh%xref no email%1,   Shubhra%Upadhyay%xref no email%1,   Jeanette%Atencio%xref no email%1,   Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,        Yu%Zuo%NULL%1,        Srilakshmi%Yalavarthi%NULL%1,        Kelsey%Gockman%NULL%1,        Melanie%Zuo%NULL%1,        Jacqueline A%Madison%NULL%1,        Christopher%Blair%NULL%1,        Wrenn%Woodward%NULL%1,        Sean P%Lezak%NULL%1,        Njira L%Lugogo%NULL%1,        Robert J%Woods%NULL%1,        Christian%Lood%NULL%1,        Jason S%Knight%NULL%2,        Jason S%Knight%NULL%0,        Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,          Raef A.%Fadel%NULL%1,          Kelly M.%Malette%NULL%1,          Charles%Hammond%NULL%1,          Hafsa%Abdulla%NULL%1,          Abigail%Entz%NULL%1,          Zachary%Demertzis%NULL%1,          Zachary%Hanna%NULL%1,          Andrew%Failla%NULL%1,          Carina%Dagher%NULL%0,          Zohra%Chaudhry%NULL%2,          Amit%Vahia%NULL%2,          Odaliz%Abreu Lanfranco%NULL%1,          Mayur%Ramesh%NULL%1,          Marcus J.%Zervos%NULL%1,          George%Alangaden%NULL%2,          Joseph%Miller%NULL%2,          Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,   Daniel%Mu\u00f1oz%xref no email%1,   Alberto%Fica%xref no email%1,   Ignacio%Delama%xref no email%1,   Ignacia%Alvarez%xref no email%1,   Maritza%Navarrete%xref no email%1,   Eileen%Blackburn%xref no email%1,   Pamela%Garrido%xref no email%1,   Ricardo%Wenger%xref no email%1,   Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,            J.% Jiang%null%1,            X.% Xu%null%1,            Y.% Hu%null%2,            Y.% Hu%null%0,            Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,           Chenchen%Qian%NULL%1,           Zhibing%Luo%NULL%1,           Qiang%Li%liqressh@hotmail.com%0,           Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,           Chunlin%Cai%NULL%1,           Jinglei%Zang%NULL%1,           Jun%Xie%NULL%1,           Dan%Xu%NULL%0,           Fang%Zheng%NULL%0,           Tao%Zhan%NULL%1,           Kang%Huang%NULL%1,           Yikai%Wang%NULL%1,           Xiao%Wang%NULL%0,           Zhe-Yu%Hu%NULL%1,           Yapeng%Deng%NULL%1,           Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,           Naofumi%Bunya%NULL%1,           Tomoyuki%Endo%NULL%1,           Yuji%Fujino%NULL%1,           Kensuke%Fujita%NULL%1,           Kenji%Fujizuka%NULL%1,           Yoshihiro%Hagiwara%NULL%1,           Jun%Hamaguchi%NULL%1,           Yoshitaka%Hara%NULL%1,           Eiji%Hashiba%NULL%1,           Satoru%Hashimoto%NULL%1,           Noriyuki%Hattori%NULL%1,           Kota%Hoshino%NULL%1,           Shinichi%Ijuin%NULL%1,           Takanari%Ikeyama%NULL%1,           Shingo%Ichiba%NULL%1,           Wataru%Iwanaga%NULL%1,           Yoshiaki%Iwashita%NULL%1,           Masafumi%Kanamoto%NULL%1,           Hitoshi%Kaneko%NULL%1,           Kaneyuki%Kawamae%NULL%1,           Toru%Kotani%NULL%1,           Yasuaki%Koyama%NULL%1,           Keibun%Liu%NULL%1,           Tomohiko%Masuno%NULL%1,           Naoto%Morimura%NULL%1,           Tomoyuki%Nakamura%NULL%1,           Masaki%Nakane%NULL%1,           Michitaka%Nasu%NULL%1,           Osamu%Nishida%NULL%1,           Masaji%Nishimura%NULL%1,           Kanae%Ochiai%NULL%1,           Takayuki%Ogura%NULL%1,           Shinichiro%Ohshimo%NULL%1,           Keisuke%Oyama%NULL%1,           Junichi%Sasaki%NULL%1,           Ryutaro%Seo%NULL%1,           Takeshi%Shimazu%NULL%1,           Nobuaki%Shime%NULL%4,           Keiki%Shimizu%NULL%1,           Hiroyuki%Suzuki%NULL%1,           Shuhei%Takauji%NULL%1,           Shinhiro%Takeda%NULL%1,           Ichiro%Takeuchi%NULL%2,           Mumon%Takita%NULL%1,           Hayato%Taniguchi%NULL%1,           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,           Yi Xin%Tong%NULL%3,           Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,           Hong%Chen%NULL%0,           Zhen%Li%NULL%2,           Bo%Wang%NULL%0,           Zhong-Wei%Zhang%NULL%1,           Wei-Min%Li%NULL%0,           Zong-An%Liang%NULL%0,           Jin%Tang%NULL%1,           Jian%Wang%NULL%1,           Rui%Shi%NULL%1,           Xiao-Dong%Jin%NULL%1,           Yan%Kang%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,            S. F.% Mahmood%null%1,            K.% Habib%null%1,            I.% Khanum%null%1,            B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,           Chaisith%Sivakorn%NULL%1,           Tanuwong%Viarasilpa%NULL%1,           Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,           Mu%Qin%qinmuae@163.com%0,           Yuli%Cai%NULL%0,           Tao%Liu%NULL%0,           Bo%Shen%NULL%0,           Fan%Yang%NULL%0,           Sheng%Cao%NULL%0,           Xu%Liu%NULL%0,           Xu%Liu%NULL%0,           Yaozu%Xiang%NULL%0,           Qinyan%Zhao%NULL%0,           He%Huang%huanghe1977@whu.edu.cn%0,           Bo%Yang%yybb112@whu.edu.cn%0,           Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,           Win%Kulvichit%NULL%1,           Sunchai%Payungporn%NULL%1,           Trairak%Pisitkun%NULL%1,           Ariya%Chindamporn%NULL%1,           Sadudee%Peerapornratana%NULL%1,           Prapaporn%Pisitkun%NULL%1,           Suwalak%Chitcharoen%NULL%1,           Vorthon%Sawaswong%NULL%1,           Navaporn%Worasilchai%NULL%1,           Sarinya%Kampunya%NULL%1,           Opass%Putcharoen%NULL%1,           Thammasak%Thawitsri%NULL%1,           Nophol%Leelayuwatanakul%NULL%1,           Napplika%Kongpolprom%NULL%1,           Vorakamol%Phoophiboon%NULL%1,           Thitiwat%Sriprasart%NULL%1,           Rujipat%Samransamruajkit%NULL%1,           Somkanya%Tungsanga%NULL%1,           Kanitha%Tiankanon%NULL%1,           Nuttha%Lumlertgul%NULL%1,           Asada%Leelahavanichkul%NULL%1,           Tueboon%Sriphojanart%NULL%1,           Terapong%Tantawichien%NULL%1,           Usa%Thisyakorn%NULL%1,           Chintana%Chirathaworn%NULL%1,           Kearkiat%Praditpornsilpa%NULL%1,           Kriang%Tungsanga%NULL%1,           Somchai%Eiam-Ong%NULL%1,           Visith%Sitprija%NULL%1,           John A.%Kellum%NULL%1,           Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,           Min%Pan%NULL%3,           Xiumei%Zhang%NULL%3,           Mingfeng%Han%fyhmf@163.com%0,           Xiaoyun%Fan%13956988552@126.com%3,           Fengde%Zhao%NULL%3,           Manli%Miao%NULL%3,           Jing%Xu%NULL%0,           Minglong%Guan%NULL%3,           Xia%Deng%NULL%3,           Xu%Chen%NULL%4,           Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,           Chunli%Tang%NULL%0,           Ruchong%Chen%NULL%1,           Honglian%Ruan%NULL%1,           Wenhua%Liang%NULL%0,           Weijie%Guan%NULL%0,           Ling%Sang%NULL%0,           Ruidi%Tang%NULL%1,           Nanshan%Zhong%NULL%0,           Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,    Shuhan%Cai%xref no email%1,    Yun%Luo%xref no email%1,    Fangfang%Zhu%xref no email%1,    Ming%Hu%xref no email%1,    Yan%Zhao%xref no email%1,    Ruiqiang%Zheng%xref no email%1,    Xuyan%Li%xref no email%1,    Bo%Hu%xref no email%0,    Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,           Shanyan%Zhang%NULL%2,           Xiaoli%Zhang%NULL%1,           Huan%Cai%NULL%2,           Jueqing%Gu%NULL%2,           Jiangshan%Lian%NULL%2,           Yingfeng%Lu%NULL%2,           Hongyu%Jia%NULL%2,           Jianhua%Hu%NULL%2,           Ciliang%Jin%NULL%2,           Guodong%Yu%NULL%2,           Yimin%Zhang%NULL%2,           Jifang%Sheng%NULL%4,           Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,           Dan%Xu%NULL%0,           Shouzhi%Fu%NULL%0,           Jun%Zhang%NULL%0,           Xiaobo%Yang%NULL%0,           Liang%Xu%NULL%0,           Jiqian%Xu%NULL%0,           Yongran%Wu%NULL%0,           Chaolin%Huang%NULL%0,           Yaqi%Ouyang%NULL%0,           Luyu%Yang%NULL%0,           Minghao%Fang%NULL%0,           Hongwen%Xiao%NULL%0,           Jing%Ma%NULL%0,           Wei%Zhu%NULL%0,           Song%Hu%NULL%0,           Quan%Hu%NULL%0,           Daoyin%Ding%NULL%0,           Ming%Hu%NULL%0,           Guochao%Zhu%NULL%0,           Weijiang%Xu%NULL%0,           Jun%Guo%NULL%0,           Jinglong%Xu%NULL%0,           Haitao%Yuan%NULL%0,           Bin%Zhang%NULL%0,           Zhui%Yu%yuzhui@whu.edu.cn%0,           Dechang%Chen%icudechangchen@163.com%0,           Shiying%Yuan%yuan_shiying@163.com%0,           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,           Hao-Yu%Gao%NULL%1,           Zi-Yi%Feng%NULL%1,           Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,           Li-jun%Sun%NULL%1,           Mi%Xu%NULL%1,           Jian%Pan%NULL%1,           Yun-tao%Zhang%NULL%1,           Xue-ling%Fang%NULL%1,           Qiang%Fang%NULL%2,           Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,           Ziqiang%Du%NULL%1,           Yanfang%Zhu%NULL%1,           Wenfeng%Li%NULL%1,           Hongjun%Miao%NULL%1,           Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,           Sarah%Al-Youha%sarahalyouha@gmail.com%0,           Mohammad H.%Jamal%NULL%0,           Mohannad%Al-Haddad%NULL%0,           Ali%Al-Muhaini%NULL%0,           Fahad%Al-Ghimlas%NULL%0,           Salman%Al-Sabah%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,           Mina%Akbari Rad%NULL%1,           Robert%Bergquist%NULL%1,           Abolghasem%Allahyari%NULL%1,           Kamila%Hashemzadeh%NULL%1,           Nasrin%Milani%NULL%1,           Mahdi%Gholian-Aval%NULL%1,           Fariba%Rezaeitalab%NULL%1,           Mohammad Jafar%Sadeghi Quchani%NULL%1,           Zahra%Nahbandani%NULL%1,           Mandana%Khodashahi%NULL%1,           Zahra%Javid%NULL%1,           Mahnaz%Mozdourian%NULL%1,           Mohammad Ali%Yaghoubi%NULL%1,           Zahra%Mozaheb%NULL%1,           Mohsen%Seddigh-Shamsi%NULL%1,           Mohammad%Moeini Nodeh%NULL%1,           Shima%Nabavi%NULL%1,           Hooman%Mosannen Mozaffari%NULL%1,           Mohammadreza%Farzanehfar%NULL%1,           Zahra%Lotfi%NULL%1,           Alireza%Shariati%NULL%1,           Shekoofe%Bonakdaran%NULL%1,           Zahra%Rezaieyazdi%NULL%1,           Zahra%Mirfeizi%NULL%1,           Maryam%Miri%NULL%1,           Reza%Bassiri%NULL%1,           Sajjad%Ataei Azimi%NULL%1,           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,           Ibrahim%Al-Zakwani%NULL%1,           Hamed%Al Naamani%NULL%1,           Sultan%Al Lawati%NULL%1,           Nenad%Pandak%NULL%1,           Muna Ba%Omar%NULL%1,           Maher%Al Bahrani%NULL%1,           Zakaryia AL%Bulushi%NULL%1,           Huda%Al Khalili%NULL%1,           Issa%Al Salmi%NULL%1,           Ruwaida%Al Ismaili%NULL%1,           Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,           Zohre%Khodamoradi%NULL%1,           Amirhossein%Erfani%NULL%1,           Hamidreza%Hosseinpour%NULL%1,           Keivan%Ranjbar%NULL%1,           Yasaman%Emami%NULL%1,           Alireza%Mirahmadizadeh%NULL%1,           Mehrzad%Lotfi%NULL%1,           Babak%Shirazi Yeganeh%NULL%1,           Abolfazl%Dorrani Nejad%NULL%1,           Abdolrasool%Hemmati%NULL%1,           Mostafa%Ebrahimi%NULL%1,           Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,           Annachiara%Ferrari%NULL%2,           Annachiara%Ferrari%NULL%0,           Francesco%Fontana%NULL%1,           Giacomo%Mori%NULL%1,           Riccardo%Magistroni%NULL%1,           Marianna%Meschiari%NULL%1,           Erica%Franceschini%NULL%1,           Marianna%Menozzi%NULL%1,           Gianluca%Cuomo%NULL%1,           Gabriella%Orlando%NULL%1,           Antonella%Santoro%NULL%1,           Margherita%Digaetano%NULL%1,           Cinzia%Puzzolante%NULL%1,           Federica%Carli%NULL%1,           Andrea%Bedini%NULL%1,           Jovana%Milic%NULL%1,           Irene%Coloretti%NULL%1,           Paolo%Raggi%NULL%1,           Cristina%Mussini%NULL%1,           Massimo%Girardis%NULL%1,           Gianni%Cappelli%NULL%1,           Giovanni%Guaraldi%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,           Silvia%Bettini%NULL%2,           Silvia%Bettini%NULL%0,           Roberto%Fabris%NULL%1,           Roberto%Serra%NULL%2,           Chiara%Dal Pra%NULL%1,           Pietro%Maffei%NULL%1,           Marco%Rossato%NULL%1,           Paola%Fioretto%NULL%0,           Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,           Marco%Roncador%NULL%2,           Marco%Roncador%NULL%0,           Andrea%Saporito%NULL%1,           Maira%Biggiogero%NULL%1,           Andrea%Glotta%NULL%1,           Pier Andrea%Maida%NULL%1,           Patrizia%Urso%NULL%1,           Giovanni%Bona%NULL%1,           Christian%Garzoni%NULL%1,           Romano%Mauri%NULL%1,           Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,           Anna Lisa%Ridolfo%NULL%4,           Laura%Milazzo%NULL%2,           Letizia%Oreni%NULL%4,           Dario%Bernacchia%NULL%4,           Matteo%Siano%NULL%4,           Cecilia%Bonazzetti%NULL%2,           Alice%Covizzi%NULL%2,           Marco%Schiuma%NULL%2,           Matteo%Passerini%NULL%2,           Marco%Piscaglia%NULL%2,           Massimo%Coen%NULL%2,           Guido%Gubertini%NULL%2,           Giuliano%Rizzardini%NULL%4,           Chiara%Cogliati%NULL%2,           Anna Maria%Brambilla%NULL%2,           Riccardo%Colombo%NULL%2,           Antonio%Castelli%NULL%2,           Roberto%Rech%NULL%2,           Agostino%Riva%NULL%2,           Alessandro%Torre%NULL%2,           Luca%Meroni%NULL%2,           Stefano%Rusconi%NULL%4,           Spinello%Antinori%NULL%4,           Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%4,          Castelli%Antonio%coreGivesNoEmail%4,          Cecconi%Maurizio%coreGivesNoEmail%4,          Cereda%Danilo%coreGivesNoEmail%4,          Coluccello%Antonio%coreGivesNoEmail%4,          Foti%Giuseppe%coreGivesNoEmail%4,          Fumagalli%Roberto%coreGivesNoEmail%4,          Grasselli%Giacomo%coreGivesNoEmail%4,          Iotti%Giorgio%coreGivesNoEmail%4,          Latronico%Nicola%coreGivesNoEmail%4,          Lorini%Luca%coreGivesNoEmail%4,          Merler%Stefano%coreGivesNoEmail%4,          Natalini%Giuseppe%coreGivesNoEmail%4,          Pesenti%Antonio%coreGivesNoEmail%4,          Piatti%Alessandra%coreGivesNoEmail%4,          Ranieri%Marco Vito%coreGivesNoEmail%4,          Scandroglio%Anna Mara%coreGivesNoEmail%4,          Storti%Enrico%coreGivesNoEmail%4,          Zanella%Alberto%coreGivesNoEmail%4,          Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,           Lara%Gianesello%gianesello.lara@libero.it%1,           Maddalena%Pazzi%NULL%2,           Maddalena%Pazzi%NULL%0,           Caterina%Stera%NULL%1,           Tommaso%Meconi%NULL%1,           Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,           Andrea%Dalbeni%NULL%2,           Andrea%Dalbeni%NULL%0,           Elia%Vettore%NULL%2,           Elia%Vettore%NULL%0,           Devis%Benfaremo%NULL%1,           Massimo%Mattioli%NULL%1,           Carmine G.%Gambino%NULL%1,           Viviana%Framba%NULL%2,           Viviana%Framba%NULL%0,           Lorenzo%Cerruti%NULL%1,           Anna%Mantovani%NULL%1,           Andrea%Martini%NULL%1,           Michele M.%Luchetti%NULL%1,           Roberto%Serra%NULL%0,           Annamaria%Cattelan%NULL%1,           Roberto%Vettor%NULL%0,           Paolo%Angeli%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,           Matthaios%Papadimitriou-Olivgeris%NULL%2,           Matthaios%Papadimitriou-Olivgeris%NULL%0,           Raphaël%Burger%NULL%1,           Marie-Annick%Le Pogam%NULL%1,           Tapio%Niemi%NULL%2,           Tapio%Niemi%NULL%0,           Paraskevas%Filippidis%NULL%1,           Jonathan%Tschopp%NULL%1,           Florian%Desgranges%NULL%1,           Benjamin%Viala%NULL%1,           Eleftheria%Kampouri%NULL%1,           Laurence%Rochat%NULL%2,           Laurence%Rochat%NULL%0,           David%Haefliger%NULL%1,           Mehdi%Belkoniene%NULL%1,           Carlos%Fidalgo%NULL%1,           Antonios%Kritikos%NULL%1,           Katia%Jaton%NULL%1,           Laurence%Senn%NULL%1,           Pierre-Alexandre%Bart%NULL%1,           Jean-Luc%Pagani%NULL%2,           Jean-Luc%Pagani%NULL%0,           Oriol%Manuel%NULL%1,           Loïc%Lhopitallier%NULL%1,           Chiara%Lazzeri%NULL%2,           Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,           Ashwin%Subramaniam%NULL%2,           Ashwin%Subramaniam%NULL%0,           Mallikarjuna%Ponnapa Reddy%NULL%2,           Mallikarjuna%Ponnapa Reddy%NULL%0,           Gabriel%Blecher%NULL%1,           Umesh%Kadam%NULL%2,           Umesh%Kadam%NULL%0,           Afsana%Afroz%NULL%1,           Baki%Billah%NULL%1,           Sushma%Ashwin%NULL%1,           Mark%Kubicki%NULL%1,           Federico%Bilotta%NULL%1,           J. Randall%Curtis%NULL%2,           J. Randall%Curtis%NULL%0,           Francesca%Rubulotta%NULL%2,           Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,          Aggarwal%Saurabh%coreGivesNoEmail%3,          Garcia-Telles%Nelson%coreGivesNoEmail%3,          Henry%Brandon Michael%coreGivesNoEmail%3,          Lavie%Carl%coreGivesNoEmail%3,          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,           Samuel L%Bruce%NULL%0,           Cody L%Slater%NULL%0,           Jonathan R%Tiao%NULL%0,           Matthew R%Baldwin%NULL%0,           R Graham%Barr%NULL%0,           Bernard P%Chang%NULL%0,           Katherine H%Chau%NULL%0,           Justin J%Choi%NULL%0,           Nicholas%Gavin%NULL%0,           Parag%Goyal%NULL%0,           Angela M%Mills%NULL%0,           Ashmi A%Patel%NULL%0,           Marie-Laure S%Romney%NULL%0,           Monika M%Safford%NULL%0,           Neil W%Schluger%NULL%0,           Soumitra%Sengupta%NULL%0,           Magdalena E%Sobieszczyk%NULL%0,           Jason E%Zucker%NULL%0,           Paul A%Asadourian%NULL%0,           Fletcher M%Bell%NULL%0,           Rebekah%Boyd%NULL%0,           Matthew F%Cohen%NULL%0,           MacAlistair I%Colquhoun%NULL%0,           Lucy A%Colville%NULL%0,           Joseph H%de Jonge%NULL%0,           Lyle B%Dershowitz%NULL%0,           Shirin A%Dey%NULL%0,           Katherine A%Eiseman%NULL%0,           Zachary P%Girvin%NULL%0,           Daniella T%Goni%NULL%0,           Amro A%Harb%NULL%0,           Nicholas%Herzik%NULL%0,           Sarah%Householder%NULL%0,           Lara E%Karaaslan%NULL%0,           Heather%Lee%NULL%0,           Evan%Lieberman%NULL%0,           Andrew%Ling%NULL%0,           Ree%Lu%NULL%0,           Arthur Y%Shou%NULL%0,           Alexander C%Sisti%NULL%0,           Zachary E%Snow%NULL%0,           Colin P%Sperring%NULL%0,           Yuqing%Xiong%NULL%0,           Henry W%Zhou%NULL%0,           Karthik%Natarajan%NULL%0,           George%Hripcsak%NULL%0,           Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,           Mark%Caridi-Scheible%NULL%0,           James M.%Blum%NULL%0,           Chad%Robichaux%NULL%0,           Colleen%Kraft%NULL%0,           Jesse T.%Jacob%NULL%0,           Craig S.%Jabaley%NULL%0,           David%Carpenter%NULL%0,           Roberta%Kaplow%NULL%0,           Alfonso C.%Hernandez-Romieu%NULL%0,           Max W.%Adelman%NULL%0,           Greg S.%Martin%NULL%0,           Craig M.%Coopersmith%NULL%0,           David J.%Murphy%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%0,           Michelle%Nichols%NULL%0,           Richard%Kim%NULL%0,           Keith R.%Jerome%NULL%0,           Arun K.%Nalla%NULL%0,           Alexander L.%Greninger%NULL%0,           Sudhakar%Pipavath%NULL%0,           Mark M.%Wurfel%NULL%0,           Laura%Evans%NULL%0,           Patricia A.%Kritek%NULL%0,           T. Eoin%West%NULL%0,           Andrew%Luks%NULL%0,           Anthony%Gerbino%NULL%0,           Chris R.%Dale%NULL%0,           Jason D.%Goldman%NULL%0,           Shane%O’Mahony%NULL%0,           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,           Denise J%McCulloch%NULL%0,           Denise J%McCulloch%NULL%0,           Vidya%Atluri%NULL%0,           Michela%Blain%NULL%0,           Sarah A%McGuffin%NULL%0,           Arun K%Nalla%NULL%0,           Meei-Li%Huang%NULL%0,           Alex L%Greninger%NULL%0,           Keith R%Jerome%NULL%0,           Seth A%Cohen%NULL%0,           Santiago%Neme%NULL%0,           Margaret L%Green%NULL%0,           Helen Y%Chu%NULL%0,           H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,           Joelle I.%Rosser%NULL%0,           Orlando%Quintero%NULL%0,           Jake%Scott%NULL%0,           Aruna%Subramanian%NULL%0,           Mohammad%Gumma%NULL%0,           Angela%Rogers%NULL%0,           Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,           Jacob%Fiksel%NULL%2,           Jacob%Fiksel%NULL%0,           John%Muschelli%NULL%2,           John%Muschelli%NULL%0,           Matthew L.%Robinson%NULL%2,           Matthew L.%Robinson%NULL%0,           Masoud%Rouhizadeh%NULL%2,           Masoud%Rouhizadeh%NULL%0,           Jamie%Perin%NULL%2,           Jamie%Perin%NULL%0,           Grant%Schumock%NULL%2,           Grant%Schumock%NULL%0,           Paul%Nagy%NULL%2,           Paul%Nagy%NULL%0,           Josh H.%Gray%NULL%2,           Josh H.%Gray%NULL%0,           Harsha%Malapati%NULL%2,           Harsha%Malapati%NULL%0,           Mariam%Ghobadi-Krueger%NULL%2,           Mariam%Ghobadi-Krueger%NULL%0,           Timothy M.%Niessen%NULL%1,           Bo Soo%Kim%NULL%1,           Peter M.%Hill%NULL%1,           M. Shafeeq%Ahmed%NULL%1,           Eric D.%Dobkin%NULL%1,           Renee%Blanding%NULL%1,           Jennifer%Abele%NULL%1,           Bonnie%Woods%NULL%1,           Kenneth%Harkness%NULL%1,           David R.%Thiemann%NULL%1,           Mary G.%Bowring%NULL%1,           Aalok B.%Shah%NULL%2,           Aalok B.%Shah%NULL%0,           Mei-Cheng%Wang%NULL%1,           Karen%Bandeen-Roche%NULL%1,           Antony%Rosen%NULL%1,           Scott L.%Zeger%NULL%2,           Scott L.%Zeger%NULL%0,           Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,           Justin J.%Choi%NULL%0,           Laura C.%Pinheiro%NULL%0,           Edward J.%Schenck%NULL%0,           Ruijun%Chen%NULL%0,           Assem%Jabri%NULL%0,           Michael J.%Satlin%NULL%0,           Thomas R.%Campion%NULL%0,           Musarrat%Nahid%NULL%0,           Joanna B.%Ringel%NULL%0,           Katherine L.%Hoffman%NULL%0,           Mark N.%Alshak%NULL%0,           Han A.%Li%NULL%0,           Graham T.%Wehmeyer%NULL%0,           Graham T.%Wehmeyer%NULL%0,           Mangala%Rajan%NULL%0,           Evgeniya%Reshetnyak%NULL%0,           Nathaniel%Hupert%NULL%0,           Evelyn M.%Horn%NULL%0,           Fernando J.%Martinez%NULL%0,           Roy M.%Gulick%NULL%0,           Monika M.%Safford%NULL%0,           Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,           Simon A%Jones%NULL%0,           Jie%Yang%NULL%0,           Harish%Rajagopalan%NULL%0,           Luke%O’Donnell%NULL%0,           Yelena%Chernyak%NULL%0,           Katie A%Tobin%NULL%0,           Robert J%Cerfolio%NULL%0,           Fritz%Francois%NULL%0,           Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,           Anatoly%Mitrokhin%NULL%2,           Anatoly%Mitrokhin%NULL%0,           Ajai%Rajabalan%NULL%1,           Christian%Benjamin%NULL%1,           Sushma%Raviralla%NULL%1,           Vishnu R%Mani%vishnu.mani@duke.edu%2,           Vishnu R%Mani%vishnu.mani@duke.edu%0,           Aleksandr%Kalabin%NULL%2,           Aleksandr%Kalabin%NULL%0,           Sebastian C%Valdivieso%NULL%2,           Sebastian C%Valdivieso%NULL%0,           Max%Murray-Ramcharan%NULL%2,           Max%Murray-Ramcharan%NULL%0,           Brian%Donaldson%NULL%2,           Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,            Nicholas A.%Fergusson%null%2,            Elisa%Lloyd-Smith%null%2,            Andrew%Wormsbecker%null%2,            Denise%Foster%null%2,            Andrei%Karpov%null%2,            Sarah%Crowe%null%2,            Greg%Haljan%null%2,            Dean R.%Chittock%null%2,            Hussein D.%Kanji%null%2,            Mypinder S.%Sekhon%null%2,            Donald E.G.%Griesdale%null%2,          Anish R.%Mitra%null%1,          Nicholas A.%Fergusson%null%1,          Elisa%Lloyd-Smith%null%1,          Andrew%Wormsbecker%null%1,          Denise%Foster%null%1,          Andrei%Karpov%null%1,          Sarah%Crowe%null%1,          Greg%Haljan%null%1,          Dean R.%Chittock%null%1,          Hussein D.%Kanji%null%1,          Mypinder S.%Sekhon%null%1,          Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,           Damianos G.%Kokkinidis%NULL%1,           Weijia%Li%NULL%1,           Dimitrios%Karamanis%NULL%1,           Jennifer%Ognibene%NULL%1,           Shitij%Arora%NULL%1,           William N.%Southern%NULL%1,           Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,           Jesus D.%Gonzalez-Lugo%NULL%1,           Shafia%Rahman%NULL%1,           Mohammad%Barouqa%NULL%1,           James%Szymanski%NULL%1,           Kenji%Ikemura%NULL%1,           Yungtai%Lo%NULL%1,           Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%4,          Chelico%J.D.%coreGivesNoEmail%4,          Cohen%S.L.%coreGivesNoEmail%4,          Cookingham%J.%coreGivesNoEmail%4,          Coppa%K.%coreGivesNoEmail%4,          Crawford%J.M.%coreGivesNoEmail%4,          Davidson%K.W.%coreGivesNoEmail%4,          Diefenbach%M.A.%coreGivesNoEmail%4,          Dominello%A.J.%coreGivesNoEmail%4,          Duer-Hefele%J.%coreGivesNoEmail%4,          Falzon%L.%coreGivesNoEmail%4,          Gitlin%J.%coreGivesNoEmail%4,          Hajizadeh%N.%coreGivesNoEmail%4,          Harvin%T.G.%coreGivesNoEmail%4,          Hirsch%J.S.%coreGivesNoEmail%4,          Hirschwerk%D.A.%coreGivesNoEmail%4,          Kim%E.J.%coreGivesNoEmail%4,          Kozel%Z.M.%coreGivesNoEmail%4,          Marrast%L.M.%coreGivesNoEmail%4,          McGinn%T.%coreGivesNoEmail%4,          Mogavero%J.N.%coreGivesNoEmail%4,          Narasimhan%M.%coreGivesNoEmail%4,          Osorio%G.A.%coreGivesNoEmail%4,          Qiu%M.%coreGivesNoEmail%4,          Richardson%S.%coreGivesNoEmail%4,          Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,           Viet-Thi%Tran%NULL%4,           Viet-Thi%Tran%NULL%0,           Mathilde%Roumier%NULL%2,           Amélie%Chabrol%NULL%2,           Romain%Paule%NULL%2,           Constance%Guillaud%NULL%2,           Elena%Fois%NULL%2,           Raphael%Lepeule%NULL%2,           Tali-Anne%Szwebel%NULL%2,           François-Xavier%Lescure%NULL%0,           Frédéric%Schlemmer%NULL%2,           Marie%Matignon%NULL%2,           Mehdi%Khellaf%NULL%2,           Etienne%Crickx%NULL%2,           Benjamin%Terrier%NULL%2,           Caroline%Morbieu%NULL%2,           Paul%Legendre%NULL%2,           Julien%Dang%NULL%2,           Yoland%Schoindre%NULL%2,           Jean-Michel%Pawlotsky%NULL%2,           Marc%Michel%NULL%2,           Elodie%Perrodeau%NULL%2,           Nicolas%Carlier%NULL%2,           Nicolas%Roche%NULL%2,           Victoire%de Lastours%NULL%2,           Clément%Ourghanlian%NULL%2,           Solen%Kerneis%NULL%2,           Philippe%Ménager%NULL%2,           Luc%Mouthon%NULL%2,           Etienne%Audureau%NULL%2,           Philippe%Ravaud%NULL%2,           Bertrand%Godeau%NULL%2,           Sébastien%Gallien%NULL%2,           Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,    Abu Baker%Sheikh%xref no email%1,    Shubhra%Upadhyay%xref no email%1,    Jeanette%Atencio%xref no email%1,    Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,         Yu%Zuo%NULL%1,         Srilakshmi%Yalavarthi%NULL%1,         Kelsey%Gockman%NULL%1,         Melanie%Zuo%NULL%1,         Jacqueline A%Madison%NULL%1,         Christopher%Blair%NULL%1,         Wrenn%Woodward%NULL%1,         Sean P%Lezak%NULL%1,         Njira L%Lugogo%NULL%1,         Robert J%Woods%NULL%1,         Christian%Lood%NULL%1,         Jason S%Knight%NULL%2,         Jason S%Knight%NULL%0,         Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,           Raef A.%Fadel%NULL%1,           Kelly M.%Malette%NULL%1,           Charles%Hammond%NULL%1,           Hafsa%Abdulla%NULL%1,           Abigail%Entz%NULL%1,           Zachary%Demertzis%NULL%1,           Zachary%Hanna%NULL%1,           Andrew%Failla%NULL%1,           Carina%Dagher%NULL%0,           Zohra%Chaudhry%NULL%2,           Amit%Vahia%NULL%2,           Odaliz%Abreu Lanfranco%NULL%1,           Mayur%Ramesh%NULL%1,           Marcus J.%Zervos%NULL%1,           George%Alangaden%NULL%2,           Joseph%Miller%NULL%2,           Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,    Daniel%Mu\u00f1oz%xref no email%1,    Alberto%Fica%xref no email%1,    Ignacio%Delama%xref no email%1,    Ignacia%Alvarez%xref no email%1,    Maritza%Navarrete%xref no email%1,    Eileen%Blackburn%xref no email%1,    Pamela%Garrido%xref no email%1,    Ricardo%Wenger%xref no email%1,    Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +3030,7 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>515</v>
+        <v>621</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -2770,7 +3088,7 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>516</v>
+        <v>622</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -2799,7 +3117,7 @@
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>517</v>
+        <v>623</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -2828,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>518</v>
+        <v>624</v>
       </c>
       <c r="F6" t="s">
         <v>99</v>
@@ -2857,7 +3175,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>519</v>
+        <v>625</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -2886,7 +3204,7 @@
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>520</v>
+        <v>626</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -2915,7 +3233,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>521</v>
+        <v>627</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -2944,7 +3262,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>522</v>
+        <v>628</v>
       </c>
       <c r="F10" t="s">
         <v>112</v>
@@ -2973,7 +3291,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
       <c r="F11" t="s">
         <v>116</v>
@@ -3002,7 +3320,7 @@
         <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>524</v>
+        <v>630</v>
       </c>
       <c r="F12" t="s">
         <v>120</v>
@@ -3031,7 +3349,7 @@
         <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>525</v>
+        <v>631</v>
       </c>
       <c r="F13" t="s">
         <v>124</v>
@@ -3060,7 +3378,7 @@
         <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>632</v>
       </c>
       <c r="F14" t="s">
         <v>128</v>
@@ -3118,7 +3436,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>527</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -3147,7 +3465,7 @@
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>634</v>
       </c>
       <c r="F17" t="s">
         <v>131</v>
@@ -3176,7 +3494,7 @@
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>635</v>
       </c>
       <c r="F18" t="s">
         <v>134</v>
@@ -3205,7 +3523,7 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -3234,7 +3552,7 @@
         <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>531</v>
+        <v>637</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
@@ -3263,7 +3581,7 @@
         <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>532</v>
+        <v>638</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -3292,7 +3610,7 @@
         <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="F22" t="s">
         <v>146</v>
@@ -3321,7 +3639,7 @@
         <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="F23" t="s">
         <v>150</v>
@@ -3350,7 +3668,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>535</v>
+        <v>641</v>
       </c>
       <c r="F24" t="s">
         <v>153</v>
@@ -3379,7 +3697,7 @@
         <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>536</v>
+        <v>642</v>
       </c>
       <c r="F25" t="s">
         <v>157</v>
@@ -3408,7 +3726,7 @@
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>537</v>
+        <v>643</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -3437,7 +3755,7 @@
         <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>538</v>
+        <v>644</v>
       </c>
       <c r="F27" t="s">
         <v>165</v>
@@ -3466,7 +3784,7 @@
         <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>539</v>
+        <v>645</v>
       </c>
       <c r="F28" t="s">
         <v>168</v>
@@ -3495,7 +3813,7 @@
         <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>540</v>
+        <v>646</v>
       </c>
       <c r="F29" t="s">
         <v>172</v>
@@ -3524,7 +3842,7 @@
         <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>541</v>
+        <v>647</v>
       </c>
       <c r="F30" t="s">
         <v>176</v>
@@ -3553,7 +3871,7 @@
         <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>542</v>
+        <v>648</v>
       </c>
       <c r="F31" t="s">
         <v>179</v>
@@ -3582,7 +3900,7 @@
         <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>543</v>
+        <v>649</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3611,7 +3929,7 @@
         <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>544</v>
+        <v>650</v>
       </c>
       <c r="F33" t="s">
         <v>183</v>
@@ -3640,7 +3958,7 @@
         <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>545</v>
+        <v>651</v>
       </c>
       <c r="F34" t="s">
         <v>186</v>
@@ -3669,7 +3987,7 @@
         <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="F35" t="s">
         <v>190</v>
@@ -3698,7 +4016,7 @@
         <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>547</v>
+        <v>653</v>
       </c>
       <c r="F36" t="s">
         <v>194</v>
@@ -3756,7 +4074,7 @@
         <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>548</v>
+        <v>654</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3785,7 +4103,7 @@
         <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -3814,7 +4132,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -3843,7 +4161,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -3872,7 +4190,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -3901,7 +4219,7 @@
         <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="F43" t="s">
         <v>208</v>
@@ -3930,7 +4248,7 @@
         <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="F44" t="s">
         <v>211</v>
@@ -3959,7 +4277,7 @@
         <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>555</v>
+        <v>661</v>
       </c>
       <c r="F45" t="s">
         <v>214</v>
@@ -4017,7 +4335,7 @@
         <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
@@ -4046,7 +4364,7 @@
         <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="F48" t="s">
         <v>219</v>
@@ -4075,7 +4393,7 @@
         <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="F49" t="s">
         <v>222</v>
@@ -4104,7 +4422,7 @@
         <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>559</v>
+        <v>665</v>
       </c>
       <c r="F50" t="s">
         <v>226</v>
@@ -4133,7 +4451,7 @@
         <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="F51" t="s">
         <v>231</v>
@@ -4162,7 +4480,7 @@
         <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="F52" t="s">
         <v>219</v>
@@ -4191,7 +4509,7 @@
         <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>561</v>
+        <v>667</v>
       </c>
       <c r="F53" t="s">
         <v>234</v>
@@ -4220,7 +4538,7 @@
         <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>562</v>
+        <v>668</v>
       </c>
       <c r="F54" t="s">
         <v>65</v>
@@ -4249,7 +4567,7 @@
         <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>563</v>
+        <v>669</v>
       </c>
       <c r="F55" t="s">
         <v>238</v>
@@ -4278,7 +4596,7 @@
         <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>564</v>
+        <v>670</v>
       </c>
       <c r="F56" t="s">
         <v>68</v>
@@ -4307,7 +4625,7 @@
         <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>565</v>
+        <v>671</v>
       </c>
       <c r="F57" t="s">
         <v>256</v>
@@ -4336,7 +4654,7 @@
         <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>566</v>
+        <v>672</v>
       </c>
       <c r="F58" t="s">
         <v>242</v>
@@ -4365,7 +4683,7 @@
         <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>567</v>
+        <v>673</v>
       </c>
       <c r="F59" t="s">
         <v>71</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="788">
   <si>
     <t>Doi</t>
   </si>
@@ -2631,6 +2631,470 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,    Daniel%Mu\u00f1oz%xref no email%1,    Alberto%Fica%xref no email%1,    Ignacio%Delama%xref no email%1,    Ignacia%Alvarez%xref no email%1,    Maritza%Navarrete%xref no email%1,    Eileen%Blackburn%xref no email%1,    Pamela%Garrido%xref no email%1,    Ricardo%Wenger%xref no email%1,    Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,             J.% Jiang%null%1,             X.% Xu%null%1,             Y.% Hu%null%2,             Y.% Hu%null%0,             Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,            Chenchen%Qian%NULL%1,            Zhibing%Luo%NULL%1,            Qiang%Li%liqressh@hotmail.com%0,            Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,            Chunlin%Cai%NULL%1,            Jinglei%Zang%NULL%1,            Jun%Xie%NULL%1,            Dan%Xu%NULL%0,            Fang%Zheng%NULL%0,            Tao%Zhan%NULL%1,            Kang%Huang%NULL%1,            Yikai%Wang%NULL%1,            Xiao%Wang%NULL%1,            Zhe-Yu%Hu%NULL%1,            Yapeng%Deng%NULL%1,            Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appropriate critical care delivery for Coronavirus disease 2019 (COVID-19) is a cornerstone in saving lives.
+ Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
+ In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,            Naofumi%Bunya%NULL%1,            Tomoyuki%Endo%NULL%1,            Yuji%Fujino%NULL%1,            Kensuke%Fujita%NULL%1,            Kenji%Fujizuka%NULL%1,            Yoshihiro%Hagiwara%NULL%1,            Jun%Hamaguchi%NULL%1,            Yoshitaka%Hara%NULL%1,            Eiji%Hashiba%NULL%1,            Satoru%Hashimoto%NULL%1,            Noriyuki%Hattori%NULL%1,            Kota%Hoshino%NULL%1,            Shinichi%Ijuin%NULL%1,            Takanari%Ikeyama%NULL%1,            Shingo%Ichiba%NULL%1,            Wataru%Iwanaga%NULL%1,            Yoshiaki%Iwashita%NULL%1,            Masafumi%Kanamoto%NULL%1,            Hitoshi%Kaneko%NULL%1,            Kaneyuki%Kawamae%NULL%1,            Toru%Kotani%NULL%1,            Yasuaki%Koyama%NULL%1,            Keibun%Liu%NULL%1,            Tomohiko%Masuno%NULL%1,            Naoto%Morimura%NULL%1,            Tomoyuki%Nakamura%NULL%1,            Masaki%Nakane%NULL%1,            Michitaka%Nasu%NULL%1,            Osamu%Nishida%NULL%1,            Masaji%Nishimura%NULL%1,            Kanae%Ochiai%NULL%1,            Takayuki%Ogura%NULL%1,            Shinichiro%Ohshimo%NULL%1,            Keisuke%Oyama%NULL%1,            Junichi%Sasaki%NULL%1,            Ryutaro%Seo%NULL%1,            Takeshi%Shimazu%NULL%1,            Nobuaki%Shime%NULL%4,            Keiki%Shimizu%NULL%1,            Hiroyuki%Suzuki%NULL%1,            Shuhei%Takauji%NULL%1,            Shinhiro%Takeda%NULL%1,            Ichiro%Takeuchi%NULL%2,            Mumon%Takita%NULL%1,            Hayato%Taniguchi%NULL%1,            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,            Yi Xin%Tong%NULL%3,            Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,            Hong%Chen%NULL%0,            Zhen%Li%NULL%2,            Bo%Wang%NULL%0,            Zhong-Wei%Zhang%NULL%1,            Wei-Min%Li%NULL%0,            Zong-An%Liang%NULL%0,            Jin%Tang%NULL%1,            Jian%Wang%NULL%1,            Rui%Shi%NULL%1,            Xiao-Dong%Jin%NULL%1,            Yan%Kang%NULL%0,            Pei-Fang%Wei%NULL%8,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,             S. F.% Mahmood%null%1,             K.% Habib%null%1,             I.% Khanum%null%1,             B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,            Chaisith%Sivakorn%NULL%1,            Tanuwong%Viarasilpa%NULL%1,            Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,            Mu%Qin%qinmuae@163.com%1,            Yuli%Cai%NULL%1,            Tao%Liu%NULL%0,            Bo%Shen%NULL%1,            Fan%Yang%NULL%2,            Sheng%Cao%NULL%1,            Xu%Liu%NULL%2,            Xu%Liu%NULL%0,            Yaozu%Xiang%NULL%1,            Qinyan%Zhao%NULL%1,            He%Huang%huanghe1977@whu.edu.cn%0,            Bo%Yang%yybb112@whu.edu.cn%0,            Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+When severe, COVID-19 shares many clinical features with bacterial sepsis.
+ Yet, secondary bacterial infection is uncommon.
+ However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
+Methods
+We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
+Results
+Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
+ We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
+ Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
+ Proteobacteria was the most abundant phylum.
+ The diversity of bacterial genera was decreased overtime.
+Conclusions
+Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
+ This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
+</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,            Win%Kulvichit%NULL%1,            Sunchai%Payungporn%NULL%1,            Trairak%Pisitkun%NULL%1,            Ariya%Chindamporn%NULL%1,            Sadudee%Peerapornratana%NULL%1,            Prapaporn%Pisitkun%NULL%1,            Suwalak%Chitcharoen%NULL%1,            Vorthon%Sawaswong%NULL%1,            Navaporn%Worasilchai%NULL%1,            Sarinya%Kampunya%NULL%1,            Opass%Putcharoen%NULL%1,            Thammasak%Thawitsri%NULL%1,            Nophol%Leelayuwatanakul%NULL%1,            Napplika%Kongpolprom%NULL%1,            Vorakamol%Phoophiboon%NULL%1,            Thitiwat%Sriprasart%NULL%1,            Rujipat%Samransamruajkit%NULL%1,            Somkanya%Tungsanga%NULL%1,            Kanitha%Tiankanon%NULL%1,            Nuttha%Lumlertgul%NULL%1,            Asada%Leelahavanichkul%NULL%1,            Tueboon%Sriphojanart%NULL%1,            Terapong%Tantawichien%NULL%1,            Usa%Thisyakorn%NULL%1,            Chintana%Chirathaworn%NULL%1,            Kearkiat%Praditpornsilpa%NULL%1,            Kriang%Tungsanga%NULL%1,            Somchai%Eiam-Ong%NULL%1,            Visith%Sitprija%NULL%1,            John A.%Kellum%NULL%1,            Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,            Min%Pan%NULL%3,            Xiumei%Zhang%NULL%3,            Mingfeng%Han%fyhmf@163.com%0,            Xiaoyun%Fan%13956988552@126.com%3,            Fengde%Zhao%NULL%3,            Manli%Miao%NULL%3,            Jing%Xu%NULL%0,            Minglong%Guan%NULL%3,            Xia%Deng%NULL%3,            Xu%Chen%NULL%4,            Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,            Chunli%Tang%NULL%0,            Ruchong%Chen%NULL%1,            Honglian%Ruan%NULL%1,            Wenhua%Liang%NULL%0,            Weijie%Guan%NULL%0,            Ling%Sang%NULL%0,            Ruidi%Tang%NULL%1,            Nanshan%Zhong%NULL%0,            Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,     Shuhan%Cai%xref no email%1,     Yun%Luo%xref no email%1,     Fangfang%Zhu%xref no email%1,     Ming%Hu%xref no email%1,     Yan%Zhao%xref no email%1,     Ruiqiang%Zheng%xref no email%1,     Xuyan%Li%xref no email%1,     Bo%Hu%xref no email%0,     Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%5,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%5,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%5,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%5,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%5,            Shangwen%Pan%NULL%5,            Xiaojing%Zou%NULL%7,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,            Shanyan%Zhang%NULL%2,            Xiaoli%Zhang%NULL%1,            Huan%Cai%NULL%2,            Jueqing%Gu%NULL%2,            Jiangshan%Lian%NULL%2,            Yingfeng%Lu%NULL%2,            Hongyu%Jia%NULL%2,            Jianhua%Hu%NULL%2,            Ciliang%Jin%NULL%2,            Guodong%Yu%NULL%2,            Yimin%Zhang%NULL%2,            Jifang%Sheng%NULL%4,            Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
+ The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
+Methods
+A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
+Results
+A total of 226 patients were included.
+ Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
+ The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
+ Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
+ Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
+ Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
+ By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
+Conclusions
+Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
+ COVID-19 poses a great strain on critical care resources in hospitals.
+Trial registration
+Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
+chictr.
+org.
+cn/edit.
+aspx?pid=49983&amp;amp;htm=4
+</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,            Dan%Xu%NULL%0,            Shouzhi%Fu%NULL%0,            Jun%Zhang%NULL%0,            Xiaobo%Yang%NULL%0,            Liang%Xu%NULL%0,            Jiqian%Xu%NULL%0,            Yongran%Wu%NULL%0,            Chaolin%Huang%NULL%0,            Yaqi%Ouyang%NULL%0,            Luyu%Yang%NULL%0,            Minghao%Fang%NULL%0,            Hongwen%Xiao%NULL%0,            Jing%Ma%NULL%0,            Wei%Zhu%NULL%0,            Song%Hu%NULL%0,            Quan%Hu%NULL%0,            Daoyin%Ding%NULL%0,            Ming%Hu%NULL%0,            Guochao%Zhu%NULL%0,            Weijiang%Xu%NULL%0,            Jun%Guo%NULL%0,            Jinglong%Xu%NULL%0,            Haitao%Yuan%NULL%0,            Bin%Zhang%NULL%0,            Zhui%Yu%yuzhui@whu.edu.cn%0,            Dechang%Chen%icudechangchen@163.com%0,            Shiying%Yuan%yuan_shiying@163.com%0,            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,            Hao-Yu%Gao%NULL%1,            Zi-Yi%Feng%NULL%1,            Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,            Li-jun%Sun%NULL%1,            Mi%Xu%NULL%1,            Jian%Pan%NULL%1,            Yun-tao%Zhang%NULL%1,            Xue-ling%Fang%NULL%1,            Qiang%Fang%NULL%2,            Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,            Ziqiang%Du%NULL%1,            Yanfang%Zhu%NULL%1,            Wenfeng%Li%NULL%1,            Hongjun%Miao%NULL%1,            Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,            Sarah%Al-Youha%sarahalyouha@gmail.com%1,            Mohammad H.%Jamal%NULL%1,            Mohannad%Al-Haddad%NULL%1,            Ali%Al-Muhaini%NULL%1,            Fahad%Al-Ghimlas%NULL%1,            Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
+ The characteristics of this infection in patients varies from country to country.
+ To move forward, clinical data on infected patients are needed.
+ Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
+Methods
+Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
+ We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
+Results
+Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
+ Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
+ Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
+ The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
+ The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
+ Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
+ Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
+ Combination antiviral and antibiotic therapy was used in 43.0% of cases.
+Conclusions
+The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
+ In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
+</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,            Mina%Akbari Rad%NULL%1,            Robert%Bergquist%NULL%1,            Abolghasem%Allahyari%NULL%1,            Kamila%Hashemzadeh%NULL%1,            Nasrin%Milani%NULL%1,            Mahdi%Gholian-Aval%NULL%1,            Fariba%Rezaeitalab%NULL%1,            Mohammad Jafar%Sadeghi Quchani%NULL%1,            Zahra%Nahbandani%NULL%1,            Mandana%Khodashahi%NULL%1,            Zahra%Javid%NULL%1,            Mahnaz%Mozdourian%NULL%1,            Mohammad Ali%Yaghoubi%NULL%1,            Zahra%Mozaheb%NULL%1,            Mohsen%Seddigh-Shamsi%NULL%1,            Mohammad%Moeini Nodeh%NULL%1,            Shima%Nabavi%NULL%1,            Hooman%Mosannen Mozaffari%NULL%1,            Mohammadreza%Farzanehfar%NULL%1,            Zahra%Lotfi%NULL%1,            Alireza%Shariati%NULL%1,            Shekoofe%Bonakdaran%NULL%1,            Zahra%Rezaieyazdi%NULL%1,            Zahra%Mirfeizi%NULL%1,            Maryam%Miri%NULL%1,            Reza%Bassiri%NULL%1,            Sajjad%Ataei Azimi%NULL%1,            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,            Ibrahim%Al-Zakwani%NULL%1,            Hamed%Al Naamani%NULL%1,            Sultan%Al Lawati%NULL%1,            Nenad%Pandak%NULL%1,            Muna Ba%Omar%NULL%1,            Maher%Al Bahrani%NULL%1,            Zakaryia AL%Bulushi%NULL%1,            Huda%Al Khalili%NULL%1,            Issa%Al Salmi%NULL%1,            Ruwaida%Al Ismaili%NULL%1,            Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
+ Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
+ To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
+Methods
+In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
+Results
+The mean age was 53.75 years and 71 (62.8%) were males.
+ The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
+ Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
+ The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
+ Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
+Conclusion
+Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,            Zohre%Khodamoradi%NULL%1,            Amirhossein%Erfani%NULL%1,            Hamidreza%Hosseinpour%NULL%1,            Keivan%Ranjbar%NULL%1,            Yasaman%Emami%NULL%1,            Alireza%Mirahmadizadeh%NULL%1,            Mehrzad%Lotfi%NULL%1,            Babak%Shirazi Yeganeh%NULL%1,            Abolfazl%Dorrani Nejad%NULL%1,            Abdolrasool%Hemmati%NULL%1,            Mostafa%Ebrahimi%NULL%1,            Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
+ This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
+Methods
+We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
+Results
+AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
+ Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
+ AKI patients had a mean age of 74.7 ± 9.9 years.
+ These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
+ Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
+ Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
+ Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
+ Patients with AKI had a mortality rate of 56.5%.
+ Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
+Conclusion
+AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
+ Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
+</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,            Annachiara%Ferrari%NULL%2,            Annachiara%Ferrari%NULL%0,            Francesco%Fontana%NULL%1,            Giacomo%Mori%NULL%1,            Riccardo%Magistroni%NULL%1,            Marianna%Meschiari%NULL%1,            Erica%Franceschini%NULL%1,            Marianna%Menozzi%NULL%1,            Gianluca%Cuomo%NULL%1,            Gabriella%Orlando%NULL%1,            Antonella%Santoro%NULL%1,            Margherita%Digaetano%NULL%1,            Cinzia%Puzzolante%NULL%1,            Federica%Carli%NULL%1,            Andrea%Bedini%NULL%1,            Jovana%Milic%NULL%1,            Irene%Coloretti%NULL%1,            Paolo%Raggi%NULL%1,            Cristina%Mussini%NULL%1,            Massimo%Girardis%NULL%1,            Gianni%Cappelli%NULL%1,            Giovanni%Guaraldi%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,            Silvia%Bettini%NULL%2,            Silvia%Bettini%NULL%0,            Roberto%Fabris%NULL%1,            Roberto%Serra%NULL%2,            Chiara%Dal Pra%NULL%1,            Pietro%Maffei%NULL%1,            Marco%Rossato%NULL%1,            Paola%Fioretto%NULL%0,            Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invasive mechanical ventilation (IMV) is the standard treatment in critically ill COVID-19 patients with acute severe respiratory distress syndrome (ARDS).
+ When IMV setting is extremely aggressive, especially through the application of high positive-end-expiratory respiration (PEEP) values, lung damage can occur.
+ Until today, in COVID-19 patients, two types of ARDS were identified (L- and H-type); for the L-type, a lower PEEP strategy was supposed to be preferred, but data are still missing.
+ The aim of this study was to evaluate if a clinical management with lower PEEP values in critically ill L-type COVID-19 patients was safe and efficient in comparison to usual standard of care.
+ A retrospective analysis was conducted on consecutive patients with COVID-19 ARDS admitted to the ICU and treated with IMV.
+ Patients were treated with a lower PEEP strategy adapted to BMI: PEEP 10 cmH2O if BMI &amp;lt; 30 kg m−2, PEEP 12 cmH2O if BMI 30–50 kg m−2, PEEP 15 cmH2O if BMI &amp;gt; 50 kg m−2.
+ Primary endpoint was the PaO2/FiO2 ratio evolution during the first 3 IMV days; secondary endpoints were to analyze ICU length of stay (LOS) and IMV length.
+ From March 2 to January 15, 2021, 79 patients underwent IMV.
+ Average applied PEEP was 11 ± 2.9 cmH2O for BMI &amp;lt; 30 kg m−2 and 16 ± 3.18 cmH2O for BMI &amp;gt; 30 kg m−2.
+ During the first 24 h of IMV, patients’ PaO2/FiO2 ratio presented an improvement (p&amp;lt;0.001; CI 99%) that continued daily up to 72 h (p&amp;lt;0.001; CI 99%).
+ Median ICU LOS was 15 days (10–28); median duration of IMV was 12 days (8–26).
+ The ICU mortality rate was 31.6%.
+ Lower PEEP strategy treatment in L-type COVID-19 ARDS resulted in a PaO2/FiO2 ratio persistent daily improvement during the first 72 h of IMV.
+ A lower PEEP strategy could be beneficial in the first phase of ARDS in critically ill COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,            Marco%Roncador%NULL%2,            Marco%Roncador%NULL%0,            Andrea%Saporito%NULL%1,            Maira%Biggiogero%NULL%1,            Andrea%Glotta%NULL%1,            Pier Andrea%Maida%NULL%1,            Patrizia%Urso%NULL%1,            Giovanni%Bona%NULL%1,            Christian%Garzoni%NULL%1,            Romano%Mauri%NULL%1,            Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,            Anna Lisa%Ridolfo%NULL%4,            Laura%Milazzo%NULL%2,            Letizia%Oreni%NULL%4,            Dario%Bernacchia%NULL%4,            Matteo%Siano%NULL%4,            Cecilia%Bonazzetti%NULL%2,            Alice%Covizzi%NULL%2,            Marco%Schiuma%NULL%2,            Matteo%Passerini%NULL%2,            Marco%Piscaglia%NULL%2,            Massimo%Coen%NULL%2,            Guido%Gubertini%NULL%2,            Giuliano%Rizzardini%NULL%4,            Chiara%Cogliati%NULL%2,            Anna Maria%Brambilla%NULL%2,            Riccardo%Colombo%NULL%2,            Antonio%Castelli%NULL%2,            Roberto%Rech%NULL%2,            Agostino%Riva%NULL%2,            Alessandro%Torre%NULL%2,            Luca%Meroni%NULL%2,            Stefano%Rusconi%NULL%4,            Spinello%Antinori%NULL%4,            Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%4,           Castelli%Antonio%coreGivesNoEmail%4,           Cecconi%Maurizio%coreGivesNoEmail%4,           Cereda%Danilo%coreGivesNoEmail%4,           Coluccello%Antonio%coreGivesNoEmail%4,           Foti%Giuseppe%coreGivesNoEmail%4,           Fumagalli%Roberto%coreGivesNoEmail%4,           Grasselli%Giacomo%coreGivesNoEmail%4,           Iotti%Giorgio%coreGivesNoEmail%4,           Latronico%Nicola%coreGivesNoEmail%4,           Lorini%Luca%coreGivesNoEmail%4,           Merler%Stefano%coreGivesNoEmail%4,           Natalini%Giuseppe%coreGivesNoEmail%4,           Pesenti%Antonio%coreGivesNoEmail%4,           Piatti%Alessandra%coreGivesNoEmail%4,           Ranieri%Marco Vito%coreGivesNoEmail%4,           Scandroglio%Anna Mara%coreGivesNoEmail%4,           Storti%Enrico%coreGivesNoEmail%4,           Zanella%Alberto%coreGivesNoEmail%4,           Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critically ill patients with COVID-19 pneumonia suffered both high thrombotic and bleeding risk.
+ The effect of SARS-CoV-2 on coagulation and fibrinolysis is not well known.
+ We conducted a retrospective study of critically ill patients admitted to an intensive care unit (ICU) a cause of severe COVID-19 pneumonia and we evaluated coagulation function using rotational thromboelastometry (ROTEM) on day of admission (T0) and 5 (T5) and 10 (T10) days after admission to ICU.
+ Coagulation standard parameters were also evaluated.
+ Forty patients were enrolled into the study.
+ The ICU and the hospital mortality were 10% and 12.5%, respectively.
+ On ICU admission, prothrombin time was slightly reduced and it increased significantly at T10 (T0 = 65.1 ± 9.8 vs T10 = 85.7 ± 1.5, p = 0.002), while activated partial thromboplastin time and fibrinogen values were higher at T0 than T10 (32.2 ± 2.9 vs 27.2 ± 2.1, p = 0.017 and 895.1 ± 110 vs 332.5 ± 50, p = 0.002, respectively); moreover, whole blood thromboelastometry profiles were consistent with hypercoagulability characterized by an acceleration of the propagation phase of blood clot formation [i.
+e.
+, CFT below the lower limit in INTEM 16/40 patients (40%) and EXTEM 20/40 patients (50%)] and significant higher clot strength [MCF above the upper limit in INTEM 20/40 patients (50%), in EXTEM 28/40 patients (70%) and in FIBTEM 29/40 patients (72.5%)]; however, this hypercoagulable state persists in the first five days, but it decreases ten day after, without returning to normal values.
+ No sign of secondary hyperfibrinolysis or sepsis induced coagulopathy (SIC) were found during the study period.
+ In six patients (15%) a deep vein thrombosis and in 2 patients (5%) a thromboembolic event, were found; 12 patients (30%) had a catheter-related thrombosis.
+ ROTEM analysis confirms that patients with severe COVID-19 pneumonia had a hypercoagulation state that persisted over time.
+</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,            Lara%Gianesello%gianesello.lara@libero.it%1,            Maddalena%Pazzi%NULL%2,            Maddalena%Pazzi%NULL%0,            Caterina%Stera%NULL%1,            Tommaso%Meconi%NULL%1,            Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,            Andrea%Dalbeni%NULL%2,            Andrea%Dalbeni%NULL%0,            Elia%Vettore%NULL%2,            Elia%Vettore%NULL%0,            Devis%Benfaremo%NULL%1,            Massimo%Mattioli%NULL%1,            Carmine G.%Gambino%NULL%1,            Viviana%Framba%NULL%2,            Viviana%Framba%NULL%0,            Lorenzo%Cerruti%NULL%1,            Anna%Mantovani%NULL%1,            Andrea%Martini%NULL%1,            Michele M.%Luchetti%NULL%1,            Roberto%Serra%NULL%0,            Annamaria%Cattelan%NULL%1,            Roberto%Vettor%NULL%0,            Paolo%Angeli%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,            Matthaios%Papadimitriou-Olivgeris%NULL%2,            Matthaios%Papadimitriou-Olivgeris%NULL%0,            Raphaël%Burger%NULL%1,            Marie-Annick%Le Pogam%NULL%1,            Tapio%Niemi%NULL%2,            Tapio%Niemi%NULL%0,            Paraskevas%Filippidis%NULL%1,            Jonathan%Tschopp%NULL%1,            Florian%Desgranges%NULL%1,            Benjamin%Viala%NULL%1,            Eleftheria%Kampouri%NULL%1,            Laurence%Rochat%NULL%2,            Laurence%Rochat%NULL%0,            David%Haefliger%NULL%1,            Mehdi%Belkoniene%NULL%1,            Carlos%Fidalgo%NULL%1,            Antonios%Kritikos%NULL%1,            Katia%Jaton%NULL%1,            Laurence%Senn%NULL%1,            Pierre-Alexandre%Bart%NULL%1,            Jean-Luc%Pagani%NULL%2,            Jean-Luc%Pagani%NULL%0,            Oriol%Manuel%NULL%1,            Loïc%Lhopitallier%NULL%1,            Chiara%Lazzeri%NULL%2,            Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,            Ashwin%Subramaniam%NULL%2,            Ashwin%Subramaniam%NULL%0,            Mallikarjuna%Ponnapa Reddy%NULL%2,            Mallikarjuna%Ponnapa Reddy%NULL%0,            Gabriel%Blecher%NULL%1,            Umesh%Kadam%NULL%2,            Umesh%Kadam%NULL%0,            Afsana%Afroz%NULL%1,            Baki%Billah%NULL%1,            Sushma%Ashwin%NULL%1,            Mark%Kubicki%NULL%1,            Federico%Bilotta%NULL%1,            J. Randall%Curtis%NULL%2,            J. Randall%Curtis%NULL%0,            Francesca%Rubulotta%NULL%2,            Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,           Aggarwal%Saurabh%coreGivesNoEmail%3,           Garcia-Telles%Nelson%coreGivesNoEmail%3,           Henry%Brandon Michael%coreGivesNoEmail%3,           Lavie%Carl%coreGivesNoEmail%3,           Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,            Samuel L%Bruce%NULL%2,            Cody L%Slater%NULL%2,            Jonathan R%Tiao%NULL%2,            Matthew R%Baldwin%NULL%3,            R Graham%Barr%NULL%2,            Bernard P%Chang%NULL%2,            Katherine H%Chau%NULL%2,            Justin J%Choi%NULL%2,            Nicholas%Gavin%NULL%2,            Parag%Goyal%NULL%2,            Angela M%Mills%NULL%2,            Ashmi A%Patel%NULL%2,            Marie-Laure S%Romney%NULL%2,            Monika M%Safford%NULL%2,            Neil W%Schluger%NULL%2,            Soumitra%Sengupta%NULL%2,            Magdalena E%Sobieszczyk%NULL%2,            Jason E%Zucker%NULL%2,            Paul A%Asadourian%NULL%2,            Fletcher M%Bell%NULL%2,            Rebekah%Boyd%NULL%2,            Matthew F%Cohen%NULL%2,            MacAlistair I%Colquhoun%NULL%2,            Lucy A%Colville%NULL%2,            Joseph H%de Jonge%NULL%2,            Lyle B%Dershowitz%NULL%2,            Shirin A%Dey%NULL%2,            Katherine A%Eiseman%NULL%2,            Zachary P%Girvin%NULL%2,            Daniella T%Goni%NULL%2,            Amro A%Harb%NULL%2,            Nicholas%Herzik%NULL%2,            Sarah%Householder%NULL%2,            Lara E%Karaaslan%NULL%2,            Heather%Lee%NULL%2,            Evan%Lieberman%NULL%2,            Andrew%Ling%NULL%2,            Ree%Lu%NULL%2,            Arthur Y%Shou%NULL%2,            Alexander C%Sisti%NULL%2,            Zachary E%Snow%NULL%2,            Colin P%Sperring%NULL%2,            Yuqing%Xiong%NULL%2,            Henry W%Zhou%NULL%2,            Karthik%Natarajan%NULL%2,            George%Hripcsak%NULL%2,            Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,            Mark%Caridi-Scheible%NULL%3,            James M.%Blum%NULL%2,            Chad%Robichaux%NULL%2,            Colleen%Kraft%NULL%2,            Jesse T.%Jacob%NULL%2,            Craig S.%Jabaley%NULL%2,            David%Carpenter%NULL%2,            Roberta%Kaplow%NULL%2,            Alfonso C.%Hernandez-Romieu%NULL%2,            Max W.%Adelman%NULL%2,            Greg S.%Martin%NULL%2,            Craig M.%Coopersmith%NULL%2,            David J.%Murphy%NULL%2,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%0,            Michelle%Nichols%NULL%0,            Richard%Kim%NULL%0,            Keith R.%Jerome%NULL%0,            Arun K.%Nalla%NULL%0,            Alexander L.%Greninger%NULL%0,            Sudhakar%Pipavath%NULL%0,            Mark M.%Wurfel%NULL%0,            Laura%Evans%NULL%0,            Patricia A.%Kritek%NULL%0,            T. Eoin%West%NULL%0,            Andrew%Luks%NULL%0,            Anthony%Gerbino%NULL%0,            Chris R.%Dale%NULL%0,            Jason D.%Goldman%NULL%0,            Shane%O’Mahony%NULL%0,            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,            Denise J%McCulloch%NULL%0,            Denise J%McCulloch%NULL%0,            Vidya%Atluri%NULL%0,            Michela%Blain%NULL%0,            Sarah A%McGuffin%NULL%0,            Arun K%Nalla%NULL%0,            Meei-Li%Huang%NULL%0,            Alex L%Greninger%NULL%0,            Keith R%Jerome%NULL%0,            Seth A%Cohen%NULL%0,            Santiago%Neme%NULL%0,            Margaret L%Green%NULL%0,            Helen Y%Chu%NULL%0,            H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,            Joelle I.%Rosser%NULL%0,            Orlando%Quintero%NULL%0,            Jake%Scott%NULL%0,            Aruna%Subramanian%NULL%0,            Mohammad%Gumma%NULL%0,            Angela%Rogers%NULL%0,            Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,            Jacob%Fiksel%NULL%2,            Jacob%Fiksel%NULL%0,            John%Muschelli%NULL%2,            John%Muschelli%NULL%0,            Matthew L.%Robinson%NULL%2,            Matthew L.%Robinson%NULL%0,            Masoud%Rouhizadeh%NULL%2,            Masoud%Rouhizadeh%NULL%0,            Jamie%Perin%NULL%2,            Jamie%Perin%NULL%0,            Grant%Schumock%NULL%2,            Grant%Schumock%NULL%0,            Paul%Nagy%NULL%2,            Paul%Nagy%NULL%0,            Josh H.%Gray%NULL%2,            Josh H.%Gray%NULL%0,            Harsha%Malapati%NULL%2,            Harsha%Malapati%NULL%0,            Mariam%Ghobadi-Krueger%NULL%2,            Mariam%Ghobadi-Krueger%NULL%0,            Timothy M.%Niessen%NULL%1,            Bo Soo%Kim%NULL%1,            Peter M.%Hill%NULL%1,            M. Shafeeq%Ahmed%NULL%1,            Eric D.%Dobkin%NULL%1,            Renee%Blanding%NULL%1,            Jennifer%Abele%NULL%1,            Bonnie%Woods%NULL%1,            Kenneth%Harkness%NULL%1,            David R.%Thiemann%NULL%1,            Mary G.%Bowring%NULL%1,            Aalok B.%Shah%NULL%2,            Aalok B.%Shah%NULL%0,            Mei-Cheng%Wang%NULL%1,            Karen%Bandeen-Roche%NULL%1,            Antony%Rosen%NULL%1,            Scott L.%Zeger%NULL%2,            Scott L.%Zeger%NULL%0,            Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,            Justin J.%Choi%NULL%0,            Laura C.%Pinheiro%NULL%0,            Edward J.%Schenck%NULL%0,            Ruijun%Chen%NULL%0,            Assem%Jabri%NULL%0,            Michael J.%Satlin%NULL%0,            Thomas R.%Campion%NULL%0,            Musarrat%Nahid%NULL%0,            Joanna B.%Ringel%NULL%0,            Katherine L.%Hoffman%NULL%0,            Mark N.%Alshak%NULL%0,            Han A.%Li%NULL%0,            Graham T.%Wehmeyer%NULL%0,            Graham T.%Wehmeyer%NULL%0,            Mangala%Rajan%NULL%0,            Evgeniya%Reshetnyak%NULL%0,            Nathaniel%Hupert%NULL%0,            Evelyn M.%Horn%NULL%0,            Fernando J.%Martinez%NULL%0,            Roy M.%Gulick%NULL%0,            Monika M.%Safford%NULL%0,            Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,            Simon A%Jones%NULL%0,            Jie%Yang%NULL%0,            Harish%Rajagopalan%NULL%0,            Luke%O’Donnell%NULL%0,            Yelena%Chernyak%NULL%0,            Katie A%Tobin%NULL%0,            Robert J%Cerfolio%NULL%0,            Fritz%Francois%NULL%0,            Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,            Anatoly%Mitrokhin%NULL%2,            Anatoly%Mitrokhin%NULL%0,            Ajai%Rajabalan%NULL%1,            Christian%Benjamin%NULL%1,            Sushma%Raviralla%NULL%1,            Vishnu R%Mani%vishnu.mani@duke.edu%2,            Vishnu R%Mani%vishnu.mani@duke.edu%0,            Aleksandr%Kalabin%NULL%2,            Aleksandr%Kalabin%NULL%0,            Sebastian C%Valdivieso%NULL%2,            Sebastian C%Valdivieso%NULL%0,            Max%Murray-Ramcharan%NULL%2,            Max%Murray-Ramcharan%NULL%0,            Brian%Donaldson%NULL%2,            Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,             Nicholas A.%Fergusson%null%2,             Elisa%Lloyd-Smith%null%2,             Andrew%Wormsbecker%null%2,             Denise%Foster%null%2,             Andrei%Karpov%null%2,             Sarah%Crowe%null%2,             Greg%Haljan%null%2,             Dean R.%Chittock%null%2,             Hussein D.%Kanji%null%2,             Mypinder S.%Sekhon%null%2,             Donald E.G.%Griesdale%null%2,           Anish R.%Mitra%null%1,           Nicholas A.%Fergusson%null%1,           Elisa%Lloyd-Smith%null%1,           Andrew%Wormsbecker%null%1,           Denise%Foster%null%1,           Andrei%Karpov%null%1,           Sarah%Crowe%null%1,           Greg%Haljan%null%1,           Dean R.%Chittock%null%1,           Hussein D.%Kanji%null%1,           Mypinder S.%Sekhon%null%1,           Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,            Damianos G.%Kokkinidis%NULL%1,            Weijia%Li%NULL%1,            Dimitrios%Karamanis%NULL%1,            Jennifer%Ognibene%NULL%1,            Shitij%Arora%NULL%1,            William N.%Southern%NULL%1,            Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,            Jesus D.%Gonzalez-Lugo%NULL%1,            Shafia%Rahman%NULL%1,            Mohammad%Barouqa%NULL%1,            James%Szymanski%NULL%1,            Kenji%Ikemura%NULL%1,            Yungtai%Lo%NULL%1,            Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%4,           Chelico%J.D.%coreGivesNoEmail%4,           Cohen%S.L.%coreGivesNoEmail%4,           Cookingham%J.%coreGivesNoEmail%4,           Coppa%K.%coreGivesNoEmail%4,           Crawford%J.M.%coreGivesNoEmail%4,           Davidson%K.W.%coreGivesNoEmail%4,           Diefenbach%M.A.%coreGivesNoEmail%4,           Dominello%A.J.%coreGivesNoEmail%4,           Duer-Hefele%J.%coreGivesNoEmail%4,           Falzon%L.%coreGivesNoEmail%4,           Gitlin%J.%coreGivesNoEmail%4,           Hajizadeh%N.%coreGivesNoEmail%4,           Harvin%T.G.%coreGivesNoEmail%4,           Hirsch%J.S.%coreGivesNoEmail%4,           Hirschwerk%D.A.%coreGivesNoEmail%4,           Kim%E.J.%coreGivesNoEmail%4,           Kozel%Z.M.%coreGivesNoEmail%4,           Marrast%L.M.%coreGivesNoEmail%4,           McGinn%T.%coreGivesNoEmail%4,           Mogavero%J.N.%coreGivesNoEmail%4,           Narasimhan%M.%coreGivesNoEmail%4,           Osorio%G.A.%coreGivesNoEmail%4,           Qiu%M.%coreGivesNoEmail%4,           Richardson%S.%coreGivesNoEmail%4,           Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,            Viet-Thi%Tran%NULL%4,            Viet-Thi%Tran%NULL%0,            Mathilde%Roumier%NULL%2,            Amélie%Chabrol%NULL%2,            Romain%Paule%NULL%2,            Constance%Guillaud%NULL%2,            Elena%Fois%NULL%2,            Raphael%Lepeule%NULL%2,            Tali-Anne%Szwebel%NULL%2,            François-Xavier%Lescure%NULL%2,            Frédéric%Schlemmer%NULL%2,            Marie%Matignon%NULL%2,            Mehdi%Khellaf%NULL%2,            Etienne%Crickx%NULL%2,            Benjamin%Terrier%NULL%2,            Caroline%Morbieu%NULL%2,            Paul%Legendre%NULL%2,            Julien%Dang%NULL%2,            Yoland%Schoindre%NULL%2,            Jean-Michel%Pawlotsky%NULL%2,            Marc%Michel%NULL%2,            Elodie%Perrodeau%NULL%2,            Nicolas%Carlier%NULL%2,            Nicolas%Roche%NULL%2,            Victoire%de Lastours%NULL%2,            Clément%Ourghanlian%NULL%2,            Solen%Kerneis%NULL%2,            Philippe%Ménager%NULL%2,            Luc%Mouthon%NULL%2,            Etienne%Audureau%NULL%2,            Philippe%Ravaud%NULL%2,            Bertrand%Godeau%NULL%2,            Sébastien%Gallien%NULL%2,            Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,     Abu Baker%Sheikh%xref no email%1,     Shubhra%Upadhyay%xref no email%1,     Jeanette%Atencio%xref no email%1,     Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,          Yu%Zuo%NULL%1,          Srilakshmi%Yalavarthi%NULL%1,          Kelsey%Gockman%NULL%1,          Melanie%Zuo%NULL%1,          Jacqueline A%Madison%NULL%1,          Christopher%Blair%NULL%1,          Wrenn%Woodward%NULL%1,          Sean P%Lezak%NULL%1,          Njira L%Lugogo%NULL%1,          Robert J%Woods%NULL%1,          Christian%Lood%NULL%1,          Jason S%Knight%NULL%2,          Jason S%Knight%NULL%0,          Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,            Raef A.%Fadel%NULL%1,            Kelly M.%Malette%NULL%1,            Charles%Hammond%NULL%1,            Hafsa%Abdulla%NULL%1,            Abigail%Entz%NULL%1,            Zachary%Demertzis%NULL%1,            Zachary%Hanna%NULL%1,            Andrew%Failla%NULL%1,            Carina%Dagher%NULL%0,            Zohra%Chaudhry%NULL%2,            Amit%Vahia%NULL%2,            Odaliz%Abreu Lanfranco%NULL%1,            Mayur%Ramesh%NULL%1,            Marcus J.%Zervos%NULL%1,            George%Alangaden%NULL%2,            Joseph%Miller%NULL%2,            Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,     Daniel%Mu\u00f1oz%xref no email%1,     Alberto%Fica%xref no email%1,     Ignacio%Delama%xref no email%1,     Ignacia%Alvarez%xref no email%1,     Maritza%Navarrete%xref no email%1,     Eileen%Blackburn%xref no email%1,     Pamela%Garrido%xref no email%1,     Ricardo%Wenger%xref no email%1,     Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,              J.% Jiang%null%1,              X.% Xu%null%1,              Y.% Hu%null%2,              Y.% Hu%null%0,              Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,             Chenchen%Qian%NULL%1,             Zhibing%Luo%NULL%1,             Qiang%Li%liqressh@hotmail.com%0,             Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,             Chunlin%Cai%NULL%1,             Jinglei%Zang%NULL%1,             Jun%Xie%NULL%1,             Dan%Xu%NULL%0,             Fang%Zheng%NULL%0,             Tao%Zhan%NULL%1,             Kang%Huang%NULL%1,             Yikai%Wang%NULL%1,             Xiao%Wang%NULL%1,             Zhe-Yu%Hu%NULL%1,             Yapeng%Deng%NULL%1,             Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,             Naofumi%Bunya%NULL%1,             Tomoyuki%Endo%NULL%1,             Yuji%Fujino%NULL%1,             Kensuke%Fujita%NULL%1,             Kenji%Fujizuka%NULL%1,             Yoshihiro%Hagiwara%NULL%1,             Jun%Hamaguchi%NULL%1,             Yoshitaka%Hara%NULL%1,             Eiji%Hashiba%NULL%1,             Satoru%Hashimoto%NULL%1,             Noriyuki%Hattori%NULL%1,             Kota%Hoshino%NULL%1,             Shinichi%Ijuin%NULL%1,             Takanari%Ikeyama%NULL%1,             Shingo%Ichiba%NULL%1,             Wataru%Iwanaga%NULL%1,             Yoshiaki%Iwashita%NULL%1,             Masafumi%Kanamoto%NULL%1,             Hitoshi%Kaneko%NULL%1,             Kaneyuki%Kawamae%NULL%1,             Toru%Kotani%NULL%1,             Yasuaki%Koyama%NULL%1,             Keibun%Liu%NULL%1,             Tomohiko%Masuno%NULL%1,             Naoto%Morimura%NULL%1,             Tomoyuki%Nakamura%NULL%1,             Masaki%Nakane%NULL%1,             Michitaka%Nasu%NULL%1,             Osamu%Nishida%NULL%1,             Masaji%Nishimura%NULL%1,             Kanae%Ochiai%NULL%1,             Takayuki%Ogura%NULL%1,             Shinichiro%Ohshimo%NULL%1,             Keisuke%Oyama%NULL%1,             Junichi%Sasaki%NULL%1,             Ryutaro%Seo%NULL%1,             Takeshi%Shimazu%NULL%1,             Nobuaki%Shime%NULL%4,             Keiki%Shimizu%NULL%1,             Hiroyuki%Suzuki%NULL%1,             Shuhei%Takauji%NULL%1,             Shinhiro%Takeda%NULL%1,             Ichiro%Takeuchi%NULL%2,             Mumon%Takita%NULL%1,             Hayato%Taniguchi%NULL%1,             Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,             Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,             Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,             Yi Xin%Tong%NULL%3,             Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,             Hong%Chen%NULL%0,             Zhen%Li%NULL%2,             Bo%Wang%NULL%0,             Zhong-Wei%Zhang%NULL%1,             Wei-Min%Li%NULL%0,             Zong-An%Liang%NULL%0,             Jin%Tang%NULL%1,             Jian%Wang%NULL%1,             Rui%Shi%NULL%1,             Xiao-Dong%Jin%NULL%1,             Yan%Kang%NULL%0,             Pei-Fang%Wei%NULL%8,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,              S. F.% Mahmood%null%1,              K.% Habib%null%1,              I.% Khanum%null%1,              B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,             Chaisith%Sivakorn%NULL%1,             Tanuwong%Viarasilpa%NULL%1,             Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,             Mu%Qin%qinmuae@163.com%1,             Yuli%Cai%NULL%1,             Tao%Liu%NULL%0,             Bo%Shen%NULL%1,             Fan%Yang%NULL%2,             Sheng%Cao%NULL%1,             Xu%Liu%NULL%2,             Xu%Liu%NULL%0,             Yaozu%Xiang%NULL%1,             Qinyan%Zhao%NULL%1,             He%Huang%huanghe1977@whu.edu.cn%0,             Bo%Yang%yybb112@whu.edu.cn%0,             Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,             Win%Kulvichit%NULL%1,             Sunchai%Payungporn%NULL%1,             Trairak%Pisitkun%NULL%1,             Ariya%Chindamporn%NULL%1,             Sadudee%Peerapornratana%NULL%1,             Prapaporn%Pisitkun%NULL%1,             Suwalak%Chitcharoen%NULL%1,             Vorthon%Sawaswong%NULL%1,             Navaporn%Worasilchai%NULL%1,             Sarinya%Kampunya%NULL%1,             Opass%Putcharoen%NULL%1,             Thammasak%Thawitsri%NULL%1,             Nophol%Leelayuwatanakul%NULL%1,             Napplika%Kongpolprom%NULL%1,             Vorakamol%Phoophiboon%NULL%1,             Thitiwat%Sriprasart%NULL%1,             Rujipat%Samransamruajkit%NULL%1,             Somkanya%Tungsanga%NULL%1,             Kanitha%Tiankanon%NULL%1,             Nuttha%Lumlertgul%NULL%1,             Asada%Leelahavanichkul%NULL%1,             Tueboon%Sriphojanart%NULL%1,             Terapong%Tantawichien%NULL%1,             Usa%Thisyakorn%NULL%1,             Chintana%Chirathaworn%NULL%1,             Kearkiat%Praditpornsilpa%NULL%1,             Kriang%Tungsanga%NULL%1,             Somchai%Eiam-Ong%NULL%1,             Visith%Sitprija%NULL%1,             John A.%Kellum%NULL%1,             Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,             Min%Pan%NULL%3,             Xiumei%Zhang%NULL%3,             Mingfeng%Han%fyhmf@163.com%0,             Xiaoyun%Fan%13956988552@126.com%3,             Fengde%Zhao%NULL%3,             Manli%Miao%NULL%3,             Jing%Xu%NULL%0,             Minglong%Guan%NULL%3,             Xia%Deng%NULL%3,             Xu%Chen%NULL%4,             Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,             Chunli%Tang%NULL%0,             Ruchong%Chen%NULL%1,             Honglian%Ruan%NULL%1,             Wenhua%Liang%NULL%0,             Weijie%Guan%NULL%0,             Ling%Sang%NULL%0,             Ruidi%Tang%NULL%1,             Nanshan%Zhong%NULL%0,             Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,      Shuhan%Cai%xref no email%1,      Yun%Luo%xref no email%1,      Fangfang%Zhu%xref no email%1,      Ming%Hu%xref no email%1,      Yan%Zhao%xref no email%1,      Ruiqiang%Zheng%xref no email%1,      Xuyan%Li%xref no email%1,      Bo%Hu%xref no email%0,      Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%5,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%5,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%5,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%5,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%5,             Shangwen%Pan%NULL%5,             Xiaojing%Zou%NULL%7,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,             Shanyan%Zhang%NULL%2,             Xiaoli%Zhang%NULL%1,             Huan%Cai%NULL%2,             Jueqing%Gu%NULL%2,             Jiangshan%Lian%NULL%2,             Yingfeng%Lu%NULL%2,             Hongyu%Jia%NULL%2,             Jianhua%Hu%NULL%2,             Ciliang%Jin%NULL%2,             Guodong%Yu%NULL%2,             Yimin%Zhang%NULL%2,             Jifang%Sheng%NULL%4,             Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,      Sean Wei Xiang%Ong%xref no email%0,      Shirin%Kalimuddin%xref no email%0,      Jenny G.%Low%xref no email%0,      Seow Yen%Tan%xref no email%0,      Jiashen%Loh%xref no email%0,      Oon-Tek%Ng%xref no email%0,      Kalisvar%Marimuthu%xref no email%0,      Li Wei%Ang%xref no email%0,      Tze Minn%Mak%xref no email%0,      Sok Kiang%Lau%xref no email%0,      Danielle E.%Anderson%xref no email%0,      Kian Sing%Chan%xref no email%0,      Thean Yen%Tan%xref no email%0,      Tong Yong%Ng%xref no email%0,      Lin%Cui%xref no email%0,      Zubaidah%Said%xref no email%0,      Lalitha%Kurupatham%xref no email%0,      Mark I-Cheng%Chen%xref no email%0,      Monica%Chan%xref no email%0,      Shawn%Vasoo%xref no email%0,      Lin-Fa%Wang%xref no email%0,      Boon Huan%Tan%xref no email%0,      Raymond Tzer Pin%Lin%xref no email%0,      Vernon Jian Ming%Lee%xref no email%0,      Yee-Sin%Leo%xref no email%0,      David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,             Dan%Xu%NULL%0,             Shouzhi%Fu%NULL%0,             Jun%Zhang%NULL%0,             Xiaobo%Yang%NULL%0,             Liang%Xu%NULL%0,             Jiqian%Xu%NULL%0,             Yongran%Wu%NULL%0,             Chaolin%Huang%NULL%0,             Yaqi%Ouyang%NULL%0,             Luyu%Yang%NULL%0,             Minghao%Fang%NULL%0,             Hongwen%Xiao%NULL%0,             Jing%Ma%NULL%0,             Wei%Zhu%NULL%0,             Song%Hu%NULL%0,             Quan%Hu%NULL%0,             Daoyin%Ding%NULL%0,             Ming%Hu%NULL%0,             Guochao%Zhu%NULL%0,             Weijiang%Xu%NULL%0,             Jun%Guo%NULL%0,             Jinglong%Xu%NULL%0,             Haitao%Yuan%NULL%0,             Bin%Zhang%NULL%0,             Zhui%Yu%yuzhui@whu.edu.cn%0,             Dechang%Chen%icudechangchen@163.com%0,             Shiying%Yuan%yuan_shiying@163.com%0,             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,             Hao-Yu%Gao%NULL%1,             Zi-Yi%Feng%NULL%1,             Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,             Li-jun%Sun%NULL%1,             Mi%Xu%NULL%1,             Jian%Pan%NULL%1,             Yun-tao%Zhang%NULL%1,             Xue-ling%Fang%NULL%1,             Qiang%Fang%NULL%2,             Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,             Ziqiang%Du%NULL%1,             Yanfang%Zhu%NULL%1,             Wenfeng%Li%NULL%1,             Hongjun%Miao%NULL%1,             Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,             Sarah%Al-Youha%sarahalyouha@gmail.com%1,             Mohammad H.%Jamal%NULL%1,             Mohannad%Al-Haddad%NULL%1,             Ali%Al-Muhaini%NULL%1,             Fahad%Al-Ghimlas%NULL%1,             Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,             Mina%Akbari Rad%NULL%1,             Robert%Bergquist%NULL%1,             Abolghasem%Allahyari%NULL%1,             Kamila%Hashemzadeh%NULL%1,             Nasrin%Milani%NULL%1,             Mahdi%Gholian-Aval%NULL%1,             Fariba%Rezaeitalab%NULL%1,             Mohammad Jafar%Sadeghi Quchani%NULL%1,             Zahra%Nahbandani%NULL%1,             Mandana%Khodashahi%NULL%1,             Zahra%Javid%NULL%1,             Mahnaz%Mozdourian%NULL%1,             Mohammad Ali%Yaghoubi%NULL%1,             Zahra%Mozaheb%NULL%1,             Mohsen%Seddigh-Shamsi%NULL%1,             Mohammad%Moeini Nodeh%NULL%1,             Shima%Nabavi%NULL%1,             Hooman%Mosannen Mozaffari%NULL%1,             Mohammadreza%Farzanehfar%NULL%1,             Zahra%Lotfi%NULL%1,             Alireza%Shariati%NULL%1,             Shekoofe%Bonakdaran%NULL%1,             Zahra%Rezaieyazdi%NULL%1,             Zahra%Mirfeizi%NULL%1,             Maryam%Miri%NULL%1,             Reza%Bassiri%NULL%1,             Sajjad%Ataei Azimi%NULL%1,             Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,             Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,             Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,             Ibrahim%Al-Zakwani%NULL%1,             Hamed%Al Naamani%NULL%1,             Sultan%Al Lawati%NULL%1,             Nenad%Pandak%NULL%1,             Muna Ba%Omar%NULL%1,             Maher%Al Bahrani%NULL%1,             Zakaryia AL%Bulushi%NULL%1,             Huda%Al Khalili%NULL%1,             Issa%Al Salmi%NULL%1,             Ruwaida%Al Ismaili%NULL%1,             Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,             Zohre%Khodamoradi%NULL%1,             Amirhossein%Erfani%NULL%1,             Hamidreza%Hosseinpour%NULL%1,             Keivan%Ranjbar%NULL%1,             Yasaman%Emami%NULL%1,             Alireza%Mirahmadizadeh%NULL%1,             Mehrzad%Lotfi%NULL%1,             Babak%Shirazi Yeganeh%NULL%1,             Abolfazl%Dorrani Nejad%NULL%1,             Abdolrasool%Hemmati%NULL%1,             Mostafa%Ebrahimi%NULL%1,             Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,             Annachiara%Ferrari%NULL%2,             Annachiara%Ferrari%NULL%0,             Francesco%Fontana%NULL%1,             Giacomo%Mori%NULL%1,             Riccardo%Magistroni%NULL%1,             Marianna%Meschiari%NULL%1,             Erica%Franceschini%NULL%1,             Marianna%Menozzi%NULL%1,             Gianluca%Cuomo%NULL%1,             Gabriella%Orlando%NULL%1,             Antonella%Santoro%NULL%1,             Margherita%Digaetano%NULL%1,             Cinzia%Puzzolante%NULL%1,             Federica%Carli%NULL%1,             Andrea%Bedini%NULL%1,             Jovana%Milic%NULL%1,             Irene%Coloretti%NULL%1,             Paolo%Raggi%NULL%1,             Cristina%Mussini%NULL%1,             Massimo%Girardis%NULL%1,             Gianni%Cappelli%NULL%1,             Giovanni%Guaraldi%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,             Silvia%Bettini%NULL%2,             Silvia%Bettini%NULL%0,             Roberto%Fabris%NULL%1,             Roberto%Serra%NULL%2,             Chiara%Dal Pra%NULL%1,             Pietro%Maffei%NULL%1,             Marco%Rossato%NULL%1,             Paola%Fioretto%NULL%0,             Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,             Marco%Roncador%NULL%2,             Marco%Roncador%NULL%0,             Andrea%Saporito%NULL%1,             Maira%Biggiogero%NULL%1,             Andrea%Glotta%NULL%1,             Pier Andrea%Maida%NULL%1,             Patrizia%Urso%NULL%1,             Giovanni%Bona%NULL%1,             Christian%Garzoni%NULL%1,             Romano%Mauri%NULL%1,             Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,             Anna Lisa%Ridolfo%NULL%4,             Laura%Milazzo%NULL%2,             Letizia%Oreni%NULL%4,             Dario%Bernacchia%NULL%4,             Matteo%Siano%NULL%4,             Cecilia%Bonazzetti%NULL%2,             Alice%Covizzi%NULL%2,             Marco%Schiuma%NULL%2,             Matteo%Passerini%NULL%2,             Marco%Piscaglia%NULL%2,             Massimo%Coen%NULL%2,             Guido%Gubertini%NULL%2,             Giuliano%Rizzardini%NULL%4,             Chiara%Cogliati%NULL%2,             Anna Maria%Brambilla%NULL%2,             Riccardo%Colombo%NULL%2,             Antonio%Castelli%NULL%2,             Roberto%Rech%NULL%2,             Agostino%Riva%NULL%2,             Alessandro%Torre%NULL%2,             Luca%Meroni%NULL%2,             Stefano%Rusconi%NULL%4,             Spinello%Antinori%NULL%4,             Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,            Cabrini%Luca%coreGivesNoEmail%4,            Castelli%Antonio%coreGivesNoEmail%4,            Cecconi%Maurizio%coreGivesNoEmail%4,            Cereda%Danilo%coreGivesNoEmail%4,            Coluccello%Antonio%coreGivesNoEmail%4,            Foti%Giuseppe%coreGivesNoEmail%4,            Fumagalli%Roberto%coreGivesNoEmail%4,            Grasselli%Giacomo%coreGivesNoEmail%4,            Iotti%Giorgio%coreGivesNoEmail%4,            Latronico%Nicola%coreGivesNoEmail%4,            Lorini%Luca%coreGivesNoEmail%4,            Merler%Stefano%coreGivesNoEmail%4,            Natalini%Giuseppe%coreGivesNoEmail%4,            Pesenti%Antonio%coreGivesNoEmail%4,            Piatti%Alessandra%coreGivesNoEmail%4,            Ranieri%Marco Vito%coreGivesNoEmail%4,            Scandroglio%Anna Mara%coreGivesNoEmail%4,            Storti%Enrico%coreGivesNoEmail%4,            Zanella%Alberto%coreGivesNoEmail%4,            Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,             Lara%Gianesello%gianesello.lara@libero.it%1,             Maddalena%Pazzi%NULL%2,             Maddalena%Pazzi%NULL%0,             Caterina%Stera%NULL%1,             Tommaso%Meconi%NULL%1,             Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,             Andrea%Dalbeni%NULL%2,             Andrea%Dalbeni%NULL%0,             Elia%Vettore%NULL%2,             Elia%Vettore%NULL%0,             Devis%Benfaremo%NULL%1,             Massimo%Mattioli%NULL%1,             Carmine G.%Gambino%NULL%1,             Viviana%Framba%NULL%2,             Viviana%Framba%NULL%0,             Lorenzo%Cerruti%NULL%1,             Anna%Mantovani%NULL%1,             Andrea%Martini%NULL%1,             Michele M.%Luchetti%NULL%1,             Roberto%Serra%NULL%0,             Annamaria%Cattelan%NULL%1,             Roberto%Vettor%NULL%0,             Paolo%Angeli%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,             Matthaios%Papadimitriou-Olivgeris%NULL%2,             Matthaios%Papadimitriou-Olivgeris%NULL%0,             Raphaël%Burger%NULL%1,             Marie-Annick%Le Pogam%NULL%1,             Tapio%Niemi%NULL%2,             Tapio%Niemi%NULL%0,             Paraskevas%Filippidis%NULL%1,             Jonathan%Tschopp%NULL%1,             Florian%Desgranges%NULL%1,             Benjamin%Viala%NULL%1,             Eleftheria%Kampouri%NULL%1,             Laurence%Rochat%NULL%2,             Laurence%Rochat%NULL%0,             David%Haefliger%NULL%1,             Mehdi%Belkoniene%NULL%1,             Carlos%Fidalgo%NULL%1,             Antonios%Kritikos%NULL%1,             Katia%Jaton%NULL%1,             Laurence%Senn%NULL%1,             Pierre-Alexandre%Bart%NULL%1,             Jean-Luc%Pagani%NULL%2,             Jean-Luc%Pagani%NULL%0,             Oriol%Manuel%NULL%1,             Loïc%Lhopitallier%NULL%1,             Chiara%Lazzeri%NULL%2,             Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,             Ashwin%Subramaniam%NULL%2,             Ashwin%Subramaniam%NULL%0,             Mallikarjuna%Ponnapa Reddy%NULL%2,             Mallikarjuna%Ponnapa Reddy%NULL%0,             Gabriel%Blecher%NULL%1,             Umesh%Kadam%NULL%2,             Umesh%Kadam%NULL%0,             Afsana%Afroz%NULL%1,             Baki%Billah%NULL%1,             Sushma%Ashwin%NULL%1,             Mark%Kubicki%NULL%1,             Federico%Bilotta%NULL%1,             J. Randall%Curtis%NULL%2,             J. Randall%Curtis%NULL%0,             Francesca%Rubulotta%NULL%2,             Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,            Aggarwal%Saurabh%coreGivesNoEmail%3,            Garcia-Telles%Nelson%coreGivesNoEmail%3,            Henry%Brandon Michael%coreGivesNoEmail%3,            Lavie%Carl%coreGivesNoEmail%3,            Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,      Eric%Yim%xref no email%0,      Lindy%Klaff%xref no email%0,      Sharukh%Lokhandwala%xref no email%0,      Francis X.%Riedo%xref no email%0,      Maria%Chong%xref no email%0,      Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,             Samuel L%Bruce%NULL%2,             Cody L%Slater%NULL%2,             Jonathan R%Tiao%NULL%2,             Matthew R%Baldwin%NULL%3,             R Graham%Barr%NULL%2,             Bernard P%Chang%NULL%2,             Katherine H%Chau%NULL%2,             Justin J%Choi%NULL%2,             Nicholas%Gavin%NULL%2,             Parag%Goyal%NULL%2,             Angela M%Mills%NULL%2,             Ashmi A%Patel%NULL%2,             Marie-Laure S%Romney%NULL%2,             Monika M%Safford%NULL%2,             Neil W%Schluger%NULL%2,             Soumitra%Sengupta%NULL%2,             Magdalena E%Sobieszczyk%NULL%2,             Jason E%Zucker%NULL%2,             Paul A%Asadourian%NULL%2,             Fletcher M%Bell%NULL%2,             Rebekah%Boyd%NULL%2,             Matthew F%Cohen%NULL%2,             MacAlistair I%Colquhoun%NULL%2,             Lucy A%Colville%NULL%2,             Joseph H%de Jonge%NULL%2,             Lyle B%Dershowitz%NULL%2,             Shirin A%Dey%NULL%2,             Katherine A%Eiseman%NULL%2,             Zachary P%Girvin%NULL%2,             Daniella T%Goni%NULL%2,             Amro A%Harb%NULL%2,             Nicholas%Herzik%NULL%2,             Sarah%Householder%NULL%2,             Lara E%Karaaslan%NULL%2,             Heather%Lee%NULL%2,             Evan%Lieberman%NULL%2,             Andrew%Ling%NULL%2,             Ree%Lu%NULL%2,             Arthur Y%Shou%NULL%2,             Alexander C%Sisti%NULL%2,             Zachary E%Snow%NULL%2,             Colin P%Sperring%NULL%2,             Yuqing%Xiong%NULL%2,             Henry W%Zhou%NULL%2,             Karthik%Natarajan%NULL%2,             George%Hripcsak%NULL%2,             Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,             Mark%Caridi-Scheible%NULL%3,             James M.%Blum%NULL%2,             Chad%Robichaux%NULL%2,             Colleen%Kraft%NULL%2,             Jesse T.%Jacob%NULL%2,             Craig S.%Jabaley%NULL%2,             David%Carpenter%NULL%2,             Roberta%Kaplow%NULL%2,             Alfonso C.%Hernandez-Romieu%NULL%2,             Max W.%Adelman%NULL%2,             Greg S.%Martin%NULL%2,             Craig M.%Coopersmith%NULL%2,             David J.%Murphy%NULL%2,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,             Bijan J.%Ghassemieh%NULL%0,             Michelle%Nichols%NULL%0,             Richard%Kim%NULL%0,             Keith R.%Jerome%NULL%0,             Arun K.%Nalla%NULL%0,             Alexander L.%Greninger%NULL%0,             Sudhakar%Pipavath%NULL%0,             Mark M.%Wurfel%NULL%0,             Laura%Evans%NULL%0,             Patricia A.%Kritek%NULL%0,             T. Eoin%West%NULL%0,             Andrew%Luks%NULL%0,             Anthony%Gerbino%NULL%0,             Chris R.%Dale%NULL%0,             Jason D.%Goldman%NULL%0,             Shane%O’Mahony%NULL%0,             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,             Denise J%McCulloch%NULL%0,             Denise J%McCulloch%NULL%0,             Vidya%Atluri%NULL%0,             Michela%Blain%NULL%0,             Sarah A%McGuffin%NULL%0,             Arun K%Nalla%NULL%0,             Meei-Li%Huang%NULL%0,             Alex L%Greninger%NULL%0,             Keith R%Jerome%NULL%0,             Seth A%Cohen%NULL%0,             Santiago%Neme%NULL%0,             Margaret L%Green%NULL%0,             Helen Y%Chu%NULL%0,             H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,             Joelle I.%Rosser%NULL%0,             Orlando%Quintero%NULL%0,             Jake%Scott%NULL%0,             Aruna%Subramanian%NULL%0,             Mohammad%Gumma%NULL%0,             Angela%Rogers%NULL%0,             Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,             Jacob%Fiksel%NULL%2,             Jacob%Fiksel%NULL%0,             John%Muschelli%NULL%2,             John%Muschelli%NULL%0,             Matthew L.%Robinson%NULL%2,             Matthew L.%Robinson%NULL%0,             Masoud%Rouhizadeh%NULL%2,             Masoud%Rouhizadeh%NULL%0,             Jamie%Perin%NULL%2,             Jamie%Perin%NULL%0,             Grant%Schumock%NULL%2,             Grant%Schumock%NULL%0,             Paul%Nagy%NULL%2,             Paul%Nagy%NULL%0,             Josh H.%Gray%NULL%2,             Josh H.%Gray%NULL%0,             Harsha%Malapati%NULL%2,             Harsha%Malapati%NULL%0,             Mariam%Ghobadi-Krueger%NULL%2,             Mariam%Ghobadi-Krueger%NULL%0,             Timothy M.%Niessen%NULL%1,             Bo Soo%Kim%NULL%1,             Peter M.%Hill%NULL%1,             M. Shafeeq%Ahmed%NULL%1,             Eric D.%Dobkin%NULL%1,             Renee%Blanding%NULL%1,             Jennifer%Abele%NULL%1,             Bonnie%Woods%NULL%1,             Kenneth%Harkness%NULL%1,             David R.%Thiemann%NULL%1,             Mary G.%Bowring%NULL%1,             Aalok B.%Shah%NULL%2,             Aalok B.%Shah%NULL%0,             Mei-Cheng%Wang%NULL%1,             Karen%Bandeen-Roche%NULL%1,             Antony%Rosen%NULL%1,             Scott L.%Zeger%NULL%2,             Scott L.%Zeger%NULL%0,             Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,             Justin J.%Choi%NULL%0,             Laura C.%Pinheiro%NULL%0,             Edward J.%Schenck%NULL%0,             Ruijun%Chen%NULL%0,             Assem%Jabri%NULL%0,             Michael J.%Satlin%NULL%0,             Thomas R.%Campion%NULL%0,             Musarrat%Nahid%NULL%0,             Joanna B.%Ringel%NULL%0,             Katherine L.%Hoffman%NULL%0,             Mark N.%Alshak%NULL%0,             Han A.%Li%NULL%0,             Graham T.%Wehmeyer%NULL%0,             Graham T.%Wehmeyer%NULL%0,             Mangala%Rajan%NULL%0,             Evgeniya%Reshetnyak%NULL%0,             Nathaniel%Hupert%NULL%0,             Evelyn M.%Horn%NULL%0,             Fernando J.%Martinez%NULL%0,             Roy M.%Gulick%NULL%0,             Monika M.%Safford%NULL%0,             Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,             Simon A%Jones%NULL%0,             Jie%Yang%NULL%0,             Harish%Rajagopalan%NULL%0,             Luke%O’Donnell%NULL%0,             Yelena%Chernyak%NULL%0,             Katie A%Tobin%NULL%0,             Robert J%Cerfolio%NULL%0,             Fritz%Francois%NULL%0,             Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,             Anatoly%Mitrokhin%NULL%2,             Anatoly%Mitrokhin%NULL%0,             Ajai%Rajabalan%NULL%1,             Christian%Benjamin%NULL%1,             Sushma%Raviralla%NULL%1,             Vishnu R%Mani%vishnu.mani@duke.edu%2,             Vishnu R%Mani%vishnu.mani@duke.edu%0,             Aleksandr%Kalabin%NULL%2,             Aleksandr%Kalabin%NULL%0,             Sebastian C%Valdivieso%NULL%2,             Sebastian C%Valdivieso%NULL%0,             Max%Murray-Ramcharan%NULL%2,             Max%Murray-Ramcharan%NULL%0,             Brian%Donaldson%NULL%2,             Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,              Nicholas A.%Fergusson%null%2,              Elisa%Lloyd-Smith%null%2,              Andrew%Wormsbecker%null%2,              Denise%Foster%null%2,              Andrei%Karpov%null%2,              Sarah%Crowe%null%2,              Greg%Haljan%null%2,              Dean R.%Chittock%null%2,              Hussein D.%Kanji%null%2,              Mypinder S.%Sekhon%null%2,              Donald E.G.%Griesdale%null%2,            Anish R.%Mitra%null%1,            Nicholas A.%Fergusson%null%1,            Elisa%Lloyd-Smith%null%1,            Andrew%Wormsbecker%null%1,            Denise%Foster%null%1,            Andrei%Karpov%null%1,            Sarah%Crowe%null%1,            Greg%Haljan%null%1,            Dean R.%Chittock%null%1,            Hussein D.%Kanji%null%1,            Mypinder S.%Sekhon%null%1,            Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,             Damianos G.%Kokkinidis%NULL%1,             Weijia%Li%NULL%1,             Dimitrios%Karamanis%NULL%1,             Jennifer%Ognibene%NULL%1,             Shitij%Arora%NULL%1,             William N.%Southern%NULL%1,             Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,             Jesus D.%Gonzalez-Lugo%NULL%1,             Shafia%Rahman%NULL%1,             Mohammad%Barouqa%NULL%1,             James%Szymanski%NULL%1,             Kenji%Ikemura%NULL%1,             Yungtai%Lo%NULL%1,             Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%4,            Chelico%J.D.%coreGivesNoEmail%4,            Cohen%S.L.%coreGivesNoEmail%4,            Cookingham%J.%coreGivesNoEmail%4,            Coppa%K.%coreGivesNoEmail%4,            Crawford%J.M.%coreGivesNoEmail%4,            Davidson%K.W.%coreGivesNoEmail%4,            Diefenbach%M.A.%coreGivesNoEmail%4,            Dominello%A.J.%coreGivesNoEmail%4,            Duer-Hefele%J.%coreGivesNoEmail%4,            Falzon%L.%coreGivesNoEmail%4,            Gitlin%J.%coreGivesNoEmail%4,            Hajizadeh%N.%coreGivesNoEmail%4,            Harvin%T.G.%coreGivesNoEmail%4,            Hirsch%J.S.%coreGivesNoEmail%4,            Hirschwerk%D.A.%coreGivesNoEmail%4,            Kim%E.J.%coreGivesNoEmail%4,            Kozel%Z.M.%coreGivesNoEmail%4,            Marrast%L.M.%coreGivesNoEmail%4,            McGinn%T.%coreGivesNoEmail%4,            Mogavero%J.N.%coreGivesNoEmail%4,            Narasimhan%M.%coreGivesNoEmail%4,            Osorio%G.A.%coreGivesNoEmail%4,            Qiu%M.%coreGivesNoEmail%4,            Richardson%S.%coreGivesNoEmail%4,            Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,             Viet-Thi%Tran%NULL%4,             Viet-Thi%Tran%NULL%0,             Mathilde%Roumier%NULL%2,             Amélie%Chabrol%NULL%2,             Romain%Paule%NULL%2,             Constance%Guillaud%NULL%2,             Elena%Fois%NULL%2,             Raphael%Lepeule%NULL%2,             Tali-Anne%Szwebel%NULL%2,             François-Xavier%Lescure%NULL%2,             Frédéric%Schlemmer%NULL%2,             Marie%Matignon%NULL%2,             Mehdi%Khellaf%NULL%2,             Etienne%Crickx%NULL%2,             Benjamin%Terrier%NULL%2,             Caroline%Morbieu%NULL%2,             Paul%Legendre%NULL%2,             Julien%Dang%NULL%2,             Yoland%Schoindre%NULL%2,             Jean-Michel%Pawlotsky%NULL%2,             Marc%Michel%NULL%2,             Elodie%Perrodeau%NULL%2,             Nicolas%Carlier%NULL%2,             Nicolas%Roche%NULL%2,             Victoire%de Lastours%NULL%2,             Clément%Ourghanlian%NULL%2,             Solen%Kerneis%NULL%2,             Philippe%Ménager%NULL%2,             Luc%Mouthon%NULL%2,             Etienne%Audureau%NULL%2,             Philippe%Ravaud%NULL%2,             Bertrand%Godeau%NULL%2,             Sébastien%Gallien%NULL%2,             Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,      Abu Baker%Sheikh%xref no email%1,      Shubhra%Upadhyay%xref no email%1,      Jeanette%Atencio%xref no email%1,      Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,           Yu%Zuo%NULL%1,           Srilakshmi%Yalavarthi%NULL%1,           Kelsey%Gockman%NULL%1,           Melanie%Zuo%NULL%1,           Jacqueline A%Madison%NULL%1,           Christopher%Blair%NULL%1,           Wrenn%Woodward%NULL%1,           Sean P%Lezak%NULL%1,           Njira L%Lugogo%NULL%1,           Robert J%Woods%NULL%1,           Christian%Lood%NULL%1,           Jason S%Knight%NULL%2,           Jason S%Knight%NULL%0,           Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,             Raef A.%Fadel%NULL%1,             Kelly M.%Malette%NULL%1,             Charles%Hammond%NULL%1,             Hafsa%Abdulla%NULL%1,             Abigail%Entz%NULL%1,             Zachary%Demertzis%NULL%1,             Zachary%Hanna%NULL%1,             Andrew%Failla%NULL%1,             Carina%Dagher%NULL%0,             Zohra%Chaudhry%NULL%2,             Amit%Vahia%NULL%2,             Odaliz%Abreu Lanfranco%NULL%1,             Mayur%Ramesh%NULL%1,             Marcus J.%Zervos%NULL%1,             George%Alangaden%NULL%2,             Joseph%Miller%NULL%2,             Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,      Daniel%Mu\u00f1oz%xref no email%1,      Alberto%Fica%xref no email%1,      Ignacio%Delama%xref no email%1,      Ignacia%Alvarez%xref no email%1,      Maritza%Navarrete%xref no email%1,      Eileen%Blackburn%xref no email%1,      Pamela%Garrido%xref no email%1,      Ricardo%Wenger%xref no email%1,      Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -3030,7 +3494,7 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>621</v>
+        <v>735</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
@@ -3088,7 +3552,7 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>622</v>
+        <v>736</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -3117,7 +3581,7 @@
         <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="F5" t="s">
         <v>95</v>
@@ -3143,10 +3607,10 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>677</v>
       </c>
       <c r="E6" t="s">
-        <v>624</v>
+        <v>738</v>
       </c>
       <c r="F6" t="s">
         <v>99</v>
@@ -3175,7 +3639,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>625</v>
+        <v>739</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -3204,7 +3668,7 @@
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="F8" t="s">
         <v>106</v>
@@ -3233,7 +3697,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>627</v>
+        <v>741</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
@@ -3262,7 +3726,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>628</v>
+        <v>742</v>
       </c>
       <c r="F10" t="s">
         <v>112</v>
@@ -3291,7 +3755,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>629</v>
+        <v>743</v>
       </c>
       <c r="F11" t="s">
         <v>116</v>
@@ -3317,10 +3781,10 @@
         <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>684</v>
       </c>
       <c r="E12" t="s">
-        <v>630</v>
+        <v>744</v>
       </c>
       <c r="F12" t="s">
         <v>120</v>
@@ -3349,7 +3813,7 @@
         <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>631</v>
+        <v>745</v>
       </c>
       <c r="F13" t="s">
         <v>124</v>
@@ -3378,7 +3842,7 @@
         <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>632</v>
+        <v>746</v>
       </c>
       <c r="F14" t="s">
         <v>128</v>
@@ -3436,7 +3900,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>747</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -3465,7 +3929,7 @@
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>634</v>
+        <v>748</v>
       </c>
       <c r="F17" t="s">
         <v>131</v>
@@ -3494,7 +3958,7 @@
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>635</v>
+        <v>749</v>
       </c>
       <c r="F18" t="s">
         <v>134</v>
@@ -3523,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>750</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -3549,10 +4013,10 @@
         <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>692</v>
       </c>
       <c r="E20" t="s">
-        <v>637</v>
+        <v>751</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
@@ -3581,7 +4045,7 @@
         <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>638</v>
+        <v>752</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -3610,7 +4074,7 @@
         <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>639</v>
+        <v>753</v>
       </c>
       <c r="F22" t="s">
         <v>146</v>
@@ -3639,7 +4103,7 @@
         <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>640</v>
+        <v>754</v>
       </c>
       <c r="F23" t="s">
         <v>150</v>
@@ -3668,7 +4132,7 @@
         <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>641</v>
+        <v>755</v>
       </c>
       <c r="F24" t="s">
         <v>153</v>
@@ -3694,10 +4158,10 @@
         <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>698</v>
       </c>
       <c r="E25" t="s">
-        <v>642</v>
+        <v>756</v>
       </c>
       <c r="F25" t="s">
         <v>157</v>
@@ -3726,7 +4190,7 @@
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>643</v>
+        <v>757</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -3752,10 +4216,10 @@
         <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>701</v>
       </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>758</v>
       </c>
       <c r="F27" t="s">
         <v>165</v>
@@ -3781,10 +4245,10 @@
         <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>703</v>
       </c>
       <c r="E28" t="s">
-        <v>645</v>
+        <v>759</v>
       </c>
       <c r="F28" t="s">
         <v>168</v>
@@ -3813,7 +4277,7 @@
         <v>171</v>
       </c>
       <c r="E29" t="s">
-        <v>646</v>
+        <v>760</v>
       </c>
       <c r="F29" t="s">
         <v>172</v>
@@ -3839,10 +4303,10 @@
         <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>706</v>
       </c>
       <c r="E30" t="s">
-        <v>647</v>
+        <v>761</v>
       </c>
       <c r="F30" t="s">
         <v>176</v>
@@ -3871,7 +4335,7 @@
         <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>648</v>
+        <v>762</v>
       </c>
       <c r="F31" t="s">
         <v>179</v>
@@ -3900,7 +4364,7 @@
         <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>649</v>
+        <v>763</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3926,10 +4390,10 @@
         <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>710</v>
       </c>
       <c r="E33" t="s">
-        <v>650</v>
+        <v>764</v>
       </c>
       <c r="F33" t="s">
         <v>183</v>
@@ -3958,7 +4422,7 @@
         <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>651</v>
+        <v>765</v>
       </c>
       <c r="F34" t="s">
         <v>186</v>
@@ -3987,7 +4451,7 @@
         <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>652</v>
+        <v>766</v>
       </c>
       <c r="F35" t="s">
         <v>190</v>
@@ -4016,7 +4480,7 @@
         <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>653</v>
+        <v>767</v>
       </c>
       <c r="F36" t="s">
         <v>194</v>
@@ -4074,7 +4538,7 @@
         <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -4103,7 +4567,7 @@
         <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>655</v>
+        <v>769</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -4132,7 +4596,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>656</v>
+        <v>770</v>
       </c>
       <c r="F40" t="s">
         <v>198</v>
@@ -4161,7 +4625,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>657</v>
+        <v>771</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -4190,7 +4654,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>658</v>
+        <v>772</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -4219,7 +4683,7 @@
         <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>659</v>
+        <v>773</v>
       </c>
       <c r="F43" t="s">
         <v>208</v>
@@ -4248,7 +4712,7 @@
         <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>660</v>
+        <v>774</v>
       </c>
       <c r="F44" t="s">
         <v>211</v>
@@ -4277,7 +4741,7 @@
         <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>661</v>
+        <v>775</v>
       </c>
       <c r="F45" t="s">
         <v>214</v>
@@ -4335,7 +4799,7 @@
         <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>662</v>
+        <v>776</v>
       </c>
       <c r="F47" t="s">
         <v>216</v>
@@ -4364,7 +4828,7 @@
         <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>663</v>
+        <v>777</v>
       </c>
       <c r="F48" t="s">
         <v>219</v>
@@ -4393,7 +4857,7 @@
         <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="F49" t="s">
         <v>222</v>
@@ -4422,7 +4886,7 @@
         <v>225</v>
       </c>
       <c r="E50" t="s">
-        <v>665</v>
+        <v>779</v>
       </c>
       <c r="F50" t="s">
         <v>226</v>
@@ -4451,7 +4915,7 @@
         <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>666</v>
+        <v>780</v>
       </c>
       <c r="F51" t="s">
         <v>231</v>
@@ -4480,7 +4944,7 @@
         <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>663</v>
+        <v>777</v>
       </c>
       <c r="F52" t="s">
         <v>219</v>
@@ -4509,7 +4973,7 @@
         <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>667</v>
+        <v>781</v>
       </c>
       <c r="F53" t="s">
         <v>234</v>
@@ -4538,7 +5002,7 @@
         <v>248</v>
       </c>
       <c r="E54" t="s">
-        <v>668</v>
+        <v>782</v>
       </c>
       <c r="F54" t="s">
         <v>65</v>
@@ -4567,7 +5031,7 @@
         <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>669</v>
+        <v>783</v>
       </c>
       <c r="F55" t="s">
         <v>238</v>
@@ -4596,7 +5060,7 @@
         <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>670</v>
+        <v>784</v>
       </c>
       <c r="F56" t="s">
         <v>68</v>
@@ -4625,7 +5089,7 @@
         <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>671</v>
+        <v>785</v>
       </c>
       <c r="F57" t="s">
         <v>256</v>
@@ -4654,7 +5118,7 @@
         <v>241</v>
       </c>
       <c r="E58" t="s">
-        <v>672</v>
+        <v>786</v>
       </c>
       <c r="F58" t="s">
         <v>242</v>
@@ -4683,7 +5147,7 @@
         <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>673</v>
+        <v>787</v>
       </c>
       <c r="F59" t="s">
         <v>71</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6F90C0-F108-4E71-9A5C-82DCCE7962AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C0101-88CD-4A71-B1D1-F27D1220CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4204" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="323">
   <si>
     <t>Doi</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>May 26, 2020.</t>
-  </si>
-  <si>
-    <t>10.15585/mmwr.mm6918e1.</t>
   </si>
   <si>
     <t>10.1056/NEJMc2010419</t>
@@ -329,12 +326,6 @@
   </si>
   <si>
     <t>Save the ICU and save lives during the COVID-19 pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id="Par1"&gt;Appropriate critical care delivery for Coronavirus disease 2019 (COVID-19) is a cornerstone in saving lives.
- Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
- In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
-</t>
   </si>
   <si>
     <t>PMC7294761</t>
@@ -421,24 +412,6 @@
   </si>
   <si>
     <t>Endotoxemia and circulating bacteriome in severe COVID-19 patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-id="Par1"&gt;When severe, COVID-19 shares many clinical features with bacterial sepsis.
- Yet, secondary bacterial infection is uncommon.
- However, as epithelium is injured and barrier function is lost, bacterial products entering the circulation might contribute to the pathophysiology of COVID-19.
-Methods
-id="Par2"&gt;We studied 19 adults, severely ill patients with COVID-19 infection, who were admitted to King Chulalongkorn Memorial Hospital, Bangkok, Thailand, between 13th March and 17th April 2020. Blood samples on days 1, 3, and 7 of enrollment were analyzed for endotoxin activity assay (EAA), (1 → 3)-β-d-glucan (BG), and 16S rRNA gene sequencing to determine the circulating bacteriome.
-Results
-id="Par3"&gt;Of the 19 patients, 13 were in intensive care and 10 patients received mechanical ventilation.
- We found 8 patients with high EAA (≥ 0.6) and about half of the patients had high serum BG levels which tended to be higher in later in the illness.
- Although only 1 patient had a positive blood culture, 18 of 19 patients were positive for 16S rRNA gene amplification.
- Proteobacteria was the most abundant phylum.
- The diversity of bacterial genera was decreased overtime.
-Conclusions
-id="Par4"&gt;Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
- This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
-</t>
   </si>
   <si>
     <t>PMC7719737</t>
@@ -531,31 +504,6 @@
     <t>Patients with COVID-19 in 19 ICUs in Wuhan, China: a cross-sectional study</t>
   </si>
   <si>
-    <t xml:space="preserve">Background
-id="Par1"&gt;A COVID-19 outbreak started in Wuhan, China, last December and now has become a global pandemic.
- The clinical information in caring of critically ill patients with COVID-19 needs to be shared timely, especially under the situations that there is still a largely ongoing spread of COVID-19 in many countries.
-Methods
-id="Par2"&gt;A multicenter prospective observational study investigated all the COVID-19 patients received in 19 ICUs of 16 hospitals in Wuhan, China, over 24 h between 8 AM February 2h and 8 AM February 27, 2020. The demographic information, clinical characteristics, vital signs, complications, laboratory values, and clinical managements of the patients were studied.
-Results
-id="Par3"&gt;A total of 226 patients were included.
- Their median (interquartile range, IQR) age was 64 (57–70) years, and 139 (61.5%) patients were male.
- The duration from the date of ICU admission to the study date was 11 (5–17) days, and the duration from onset of symptoms to the study date was 31 (24–36) days.
- Among all the patients, 155 (68.6%) had at least one coexisting disease, and their sequential organ failure assessment score was 4 (2–8).
- Organ function damages were found in most of the patients: ARDS in 161 (71.2%) patients, septic shock in 34 (15.0%) patients, acute kidney injury occurred in 57 (25.2%) patients, cardiac injury in 61 (27.0%) patients, and lymphocytopenia in 160 (70.8%) patients.
- Of all the studied patients, 85 (37.6%) received invasive mechanical ventilation, including 14 (6.2%) treated with extracorporeal membrane oxygenation (ECMO) at the same time, 20 (8.8%) received noninvasive mechanical ventilation, and 24 (10.6%) received continuous renal replacement therapy.
- By April 9, 2020, 87 (38.5%) patients were deceased and 15 (6.7%) were still in the hospital.
-Conclusions
-id="Par4"&gt;Critically ill patients with COVID-19 are associated with a higher risk of severe complications and need to receive an intensive level of treatments.
- COVID-19 poses a great strain on critical care resources in hospitals.
-Trial registration
-id="Par5"&gt;Chinese Clinical Trial Registry, ChiCTR2000030164. Registered on February 24, 2020, http://www.
-chictr.
-org.
-cn/edit.
-aspx?pid=49983&amp;amp;htm=4
-</t>
-  </si>
-  <si>
     <t>PMC7223395</t>
   </si>
   <si>
@@ -647,31 +595,6 @@
   </si>
   <si>
     <t>Demographic and clinical characteristics of severe Covid-19 infections: a cross-sectional study from Mashhad University of Medical Sciences, Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-id="Par1"&gt;Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
- The characteristics of this infection in patients varies from country to country.
- To move forward, clinical data on infected patients are needed.
- Here, we report a comparison between fatalities and recovery of patients with severe Covid-19, based on demographic and clinical characteristics.
-Methods
-id="Par2"&gt;Between 5 March and 12 May 2020 in Mashhad, Iran, 1278 of 4000 suspected Covid-19 patients were confirmed positive by real-time reverse-transcriptase–polymerase-chain-reaction assay of upper respiratory specimens.
- We compared the demographic, exposure history and clinical symptoms of 925 survivors and 353 fatal cases with confirmed disease.
-Results
-id="Par3"&gt;Mean (SD) age for all confirmed patients was 56.9 (18.7) years, 67.1 (15.9) years in fatal cases and 53.0 (18.3) years in survivors.
- Multivariate logistic regression analysis showed that the outcome of patients was associated with age (odds ratio = 1.049, P = 0.0001, 95% CI = 1.040–1.057).
- Despite a high burden of Covid-19 infections in the 30–39 and 40–49 year age groups, most of these (89.6 and 87.2%, respectively) recovered.
- The median (IQR) duration of hospitalization was 9.0 (6.0–14.0) days.
- The most prevalent co-morbidities were cardiovascular disorders (21%) and diabetes (16.3%).
- Dyspnoea (72.7%), cough (68.1%) and fever (63.8%) were the most frequent clinical symptoms.
- Healthcare workers, of whom two (3%) died, comprised 5.2% of infected cases.
- Combination antiviral and antibiotic therapy was used in 43.0% of cases.
-Conclusions
-id="Par4"&gt;The characteristics of severe Covid-19 varied substantially between fatal cases and survivors, with diabetes and cardiovascular disorders the most prevalent co-morbidities.
- In contrast to other studies, there were a higher number of fatalities in younger patients in our setting.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s12879-021-06363-6.
-</t>
   </si>
   <si>
     <t>PMC8261035</t>
@@ -711,50 +634,10 @@
     <t>Epidemiological and clinical features of 2019 novel coronavirus diseases (COVID-19) in the South of Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">Background
-id="Par1"&gt;In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
- Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
- To date, there is no available literature on the clinical data on COVID-19 patients in Iran.
-Methods
-id="Par2"&gt;In this multicenter retrospective study, 113 hospitalized confirmed cases of COVID-19 admitted to university affiliated hospitals in Shiraz, Iran from February 20 to March 20 were entered in the study.
-Results
-id="Par3"&gt;The mean age was 53.75 years and 71 (62.8%) were males.
- The most common symptoms at onset were fatigue (75: 66.4%), cough (73: 64.6%), and fever (67: 59.3%).
- Laboratory data revealed significant correlation between lymphocyte count (P value = 0.003), partial thromboplastin time (P value = 0.000), international normalized ratio (P value = 0.000) with the severity of the disease.
- The most common abnormality in chest CT scans was ground-glass opacity (77: 93.9%), followed by consolidation (48: 58.5%).
- Our results revealed an overall 8% (9 out of 113 cases) mortality rate among patients, in which the majority was among patients admitted to the ICU (5: 55.6%).
-Conclusion
-id="Par4"&gt;Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
-</t>
-  </si>
-  <si>
     <t>PMC7301075</t>
   </si>
   <si>
     <t>Incidence, risk factors and outcome of acute kidney injury (AKI) in patients with COVID-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-id="Par1"&gt;Acute kidney injury (AKI) is a severe complication of coronavirus disease-2019 (COVID-19).
- This study aims to evaluate incidence, risk factors and case-fatality rate of AKI in patients with COVID-19.
-Methods
-id="Par2"&gt;We reviewed the health medical records of 307 consecutive patients with COVID-19 hospitalized at the University Hospital of Modena, Italy.
-Results
-id="Par3"&gt;AKI was diagnosed in 69 out of 307 (22.4%) COVID-19 patients.
- Stages 1, 2, or 3 AKI accounted for 57.9%, 24.6% and 17.3%, respectively.
- AKI patients had a mean age of 74.7 ± 9.9 years.
- These patients showed higher serum levels of the main markers of inflammation and higher rate of severe pneumonia than non-AKI patients.
- Kidney injury was associated with a higher rate of urinary abnormalities including proteinuria (0.44 ± 0.85 vs 0.18 ± 0.29 mg/mg; P =  &amp;lt; 0.0001) and microscopic hematuria (P = 0.032) compared to non-AKI patients.
- Hemodialysis was performed in 7.2% of the subjects and 33.3% of the survivors did not recover kidney function after AKI.
- Risk factors for kidney injury were age, male sex, CKD and higher non-renal SOFA score.
- Patients with AKI had a mortality rate of 56.5%.
- Adjusted Cox regression analysis revealed that COVID-19-associated AKI was independently associated with in-hospital death (hazard ratio [HR] = 4.82; CI 95%, 1.36–17.08) compared to non-AKI patients.
-Conclusion
-id="Par4"&gt;AKI was a common and harmful consequence of COVID-19. It manifested with urinary abnormalities (proteinuria, microscopic hematuria) and conferred an increased risk for death.
- Given the well-known short-term sequelae of AKI, prevention of kidney injury is imperative in this vulnerable cohort of patients.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s10157-021-02092-x.
-</t>
   </si>
   <si>
     <t>PMC8245663</t>
@@ -792,23 +675,6 @@
     <t>Low PEEP Mechanical Ventilation and PaO&lt;sub&gt;2&lt;/sub&gt;/FiO&lt;sub&gt;2&lt;/sub&gt; Ratio Evolution in COVID-19 Patients</t>
   </si>
   <si>
-    <t xml:space="preserve">id="Par1"&gt;Invasive mechanical ventilation (IMV) is the standard treatment in critically ill COVID-19 patients with acute severe respiratory distress syndrome (ARDS).
- When IMV setting is extremely aggressive, especially through the application of high positive-end-expiratory respiration (PEEP) values, lung damage can occur.
- Until today, in COVID-19 patients, two types of ARDS were identified (L- and H-type); for the L-type, a lower PEEP strategy was supposed to be preferred, but data are still missing.
- The aim of this study was to evaluate if a clinical management with lower PEEP values in critically ill L-type COVID-19 patients was safe and efficient in comparison to usual standard of care.
- A retrospective analysis was conducted on consecutive patients with COVID-19 ARDS admitted to the ICU and treated with IMV.
- Patients were treated with a lower PEEP strategy adapted to BMI: PEEP 10 cmH2O if BMI &amp;lt; 30 kg m−2, PEEP 12 cmH2O if BMI 30–50 kg m−2, PEEP 15 cmH2O if BMI &amp;gt; 50 kg m−2.
- Primary endpoint was the PaO2/FiO2 ratio evolution during the first 3 IMV days; secondary endpoints were to analyze ICU length of stay (LOS) and IMV length.
- From March 2 to January 15, 2021, 79 patients underwent IMV.
- Average applied PEEP was 11 ± 2.9 cmH2O for BMI &amp;lt; 30 kg m−2 and 16 ± 3.18 cmH2O for BMI &amp;gt; 30 kg m−2.
- During the first 24 h of IMV, patients’ PaO2/FiO2 ratio presented an improvement (p&amp;lt;0.001; CI 99%) that continued daily up to 72 h (p&amp;lt;0.001; CI 99%).
- Median ICU LOS was 15 days (10–28); median duration of IMV was 12 days (8–26).
- The ICU mortality rate was 31.6%.
- Lower PEEP strategy treatment in L-type COVID-19 ARDS resulted in a PaO2/FiO2 ratio persistent daily improvement during the first 72 h of IMV.
- A lower PEEP strategy could be beneficial in the first phase of ARDS in critically ill COVID-19 patients.
-</t>
-  </si>
-  <si>
     <t>PMC8310399</t>
   </si>
   <si>
@@ -825,21 +691,6 @@
   </si>
   <si>
     <t>Evaluation of coagulation function by rotation thromboelastometry in critically ill patients with severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id="Par1"&gt;Critically ill patients with COVID-19 pneumonia suffered both high thrombotic and bleeding risk.
- The effect of SARS-CoV-2 on coagulation and fibrinolysis is not well known.
- We conducted a retrospective study of critically ill patients admitted to an intensive care unit (ICU) a cause of severe COVID-19 pneumonia and we evaluated coagulation function using rotational thromboelastometry (ROTEM) on day of admission (T0) and 5 (T5) and 10 (T10) days after admission to ICU.
- Coagulation standard parameters were also evaluated.
- Forty patients were enrolled into the study.
- The ICU and the hospital mortality were 10% and 12.5%, respectively.
- On ICU admission, prothrombin time was slightly reduced and it increased significantly at T10 (T0 = 65.1 ± 9.8 vs T10 = 85.7 ± 1.5, p = 0.002), while activated partial thromboplastin time and fibrinogen values were higher at T0 than T10 (32.2 ± 2.9 vs 27.2 ± 2.1, p = 0.017 and 895.1 ± 110 vs 332.5 ± 50, p = 0.002, respectively); moreover, whole blood thromboelastometry profiles were consistent with hypercoagulability characterized by an acceleration of the propagation phase of blood clot formation [i.
-e.
-, CFT below the lower limit in INTEM 16/40 patients (40%) and EXTEM 20/40 patients (50%)] and significant higher clot strength [MCF above the upper limit in INTEM 20/40 patients (50%), in EXTEM 28/40 patients (70%) and in FIBTEM 29/40 patients (72.5%)]; however, this hypercoagulable state persists in the first five days, but it decreases ten day after, without returning to normal values.
- No sign of secondary hyperfibrinolysis or sepsis induced coagulopathy (SIC) were found during the study period.
- In six patients (15%) a deep vein thrombosis and in 2 patients (5%) a thromboembolic event, were found; 12 patients (30%) had a catheter-related thrombosis.
- ROTEM analysis confirms that patients with severe COVID-19 pneumonia had a hypercoagulation state that persisted over time.
-</t>
   </si>
   <si>
     <t>PMC7211560</t>
@@ -1385,1285 +1236,46 @@
     <t>2020-07-30</t>
   </si>
   <si>
-    <t>[ C.%Chen%null%1,     J.% Jiang%null%1,     X.% Xu%null%1,     Y.% Hu%null%2,     Y.% Hu%null%0,     Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,    Chenchen%Qian%NULL%1,    Zhibing%Luo%NULL%1,    Qiang%Li%liqressh@hotmail.com%0,    Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,    Chunlin%Cai%NULL%1,    Jinglei%Zang%NULL%1,    Jun%Xie%NULL%1,    Dan%Xu%NULL%0,    Fang%Zheng%NULL%0,    Tao%Zhan%NULL%1,    Kang%Huang%NULL%1,    Yikai%Wang%NULL%1,    Xiao%Wang%NULL%0,    Zhe-Yu%Hu%NULL%1,    Yapeng%Deng%NULL%1,    Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,    Naofumi%Bunya%NULL%1,    Tomoyuki%Endo%NULL%1,    Yuji%Fujino%NULL%1,    Kensuke%Fujita%NULL%1,    Kenji%Fujizuka%NULL%1,    Yoshihiro%Hagiwara%NULL%1,    Jun%Hamaguchi%NULL%1,    Yoshitaka%Hara%NULL%1,    Eiji%Hashiba%NULL%1,    Satoru%Hashimoto%NULL%1,    Noriyuki%Hattori%NULL%1,    Kota%Hoshino%NULL%1,    Shinichi%Ijuin%NULL%1,    Takanari%Ikeyama%NULL%1,    Shingo%Ichiba%NULL%1,    Wataru%Iwanaga%NULL%1,    Yoshiaki%Iwashita%NULL%1,    Masafumi%Kanamoto%NULL%1,    Hitoshi%Kaneko%NULL%1,    Kaneyuki%Kawamae%NULL%1,    Toru%Kotani%NULL%1,    Yasuaki%Koyama%NULL%1,    Keibun%Liu%NULL%1,    Tomohiko%Masuno%NULL%1,    Naoto%Morimura%NULL%1,    Tomoyuki%Nakamura%NULL%1,    Masaki%Nakane%NULL%1,    Michitaka%Nasu%NULL%1,    Osamu%Nishida%NULL%1,    Masaji%Nishimura%NULL%1,    Kanae%Ochiai%NULL%1,    Takayuki%Ogura%NULL%1,    Shinichiro%Ohshimo%NULL%1,    Keisuke%Oyama%NULL%1,    Junichi%Sasaki%NULL%1,    Ryutaro%Seo%NULL%1,    Takeshi%Shimazu%NULL%1,    Nobuaki%Shime%NULL%4,    Keiki%Shimizu%NULL%1,    Hiroyuki%Suzuki%NULL%1,    Shuhei%Takauji%NULL%1,    Shinhiro%Takeda%NULL%1,    Ichiro%Takeuchi%NULL%1,    Mumon%Takita%NULL%1,    Hayato%Taniguchi%NULL%1,    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,    Yi Xin%Tong%NULL%3,    Sheng%Zhang%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,    Hong%Chen%NULL%0,    Zhen%Li%NULL%2,    Bo%Wang%NULL%0,    Zhong-Wei%Zhang%NULL%1,    Wei-Min%Li%NULL%0,    Zong-An%Liang%NULL%0,    Jin%Tang%NULL%1,    Jian%Wang%NULL%2,    Rui%Shi%NULL%1,    Xiao-Dong%Jin%NULL%1,    Yan%Kang%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,     S. F.% Mahmood%null%1,     K.% Habib%null%1,     I.% Khanum%null%1,     B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,    Chaisith%Sivakorn%NULL%1,    Tanuwong%Viarasilpa%NULL%1,    Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,    Mu%Qin%qinmuae@163.com%0,    Yuli%Cai%NULL%0,    Tao%Liu%NULL%0,    Bo%Shen%NULL%0,    Fan%Yang%NULL%0,    Sheng%Cao%NULL%0,    Xu%Liu%NULL%0,    Xu%Liu%NULL%0,    Yaozu%Xiang%NULL%0,    Qinyan%Zhao%NULL%0,    He%Huang%huanghe1977@whu.edu.cn%0,    Bo%Yang%yybb112@whu.edu.cn%0,    Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,    Win%Kulvichit%NULL%1,    Sunchai%Payungporn%NULL%1,    Trairak%Pisitkun%NULL%1,    Ariya%Chindamporn%NULL%1,    Sadudee%Peerapornratana%NULL%1,    Prapaporn%Pisitkun%NULL%1,    Suwalak%Chitcharoen%NULL%1,    Vorthon%Sawaswong%NULL%1,    Navaporn%Worasilchai%NULL%1,    Sarinya%Kampunya%NULL%1,    Opass%Putcharoen%NULL%1,    Thammasak%Thawitsri%NULL%1,    Nophol%Leelayuwatanakul%NULL%1,    Napplika%Kongpolprom%NULL%1,    Vorakamol%Phoophiboon%NULL%1,    Thitiwat%Sriprasart%NULL%1,    Rujipat%Samransamruajkit%NULL%1,    Somkanya%Tungsanga%NULL%1,    Kanitha%Tiankanon%NULL%1,    Nuttha%Lumlertgul%NULL%1,    Asada%Leelahavanichkul%NULL%1,    Tueboon%Sriphojanart%NULL%1,    Terapong%Tantawichien%NULL%1,    Usa%Thisyakorn%NULL%1,    Chintana%Chirathaworn%NULL%1,    Kearkiat%Praditpornsilpa%NULL%1,    Kriang%Tungsanga%NULL%1,    Somchai%Eiam-Ong%NULL%1,    Visith%Sitprija%NULL%1,    John A.%Kellum%NULL%1,    Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,    Min%Pan%NULL%2,    Xiumei%Zhang%NULL%2,    Mingfeng%Han%fyhmf@163.com%0,    Xiaoyun%Fan%13956988552@126.com%2,    Fengde%Zhao%NULL%2,    Manli%Miao%NULL%2,    Jing%Xu%NULL%0,    Minglong%Guan%NULL%2,    Xia%Deng%NULL%2,    Xu%Chen%NULL%3,    Leilei%Shen%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,    Chunli%Tang%NULL%0,    Ruchong%Chen%NULL%1,    Honglian%Ruan%NULL%1,    Wenhua%Liang%NULL%0,    Weijie%Guan%NULL%0,    Ling%Sang%NULL%0,    Ruidi%Tang%NULL%1,    Nanshan%Zhong%NULL%0,    Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,    Shanyan%Zhang%NULL%2,    Xiaoli%Zhang%NULL%0,    Huan%Cai%NULL%2,    Jueqing%Gu%NULL%2,    Jiangshan%Lian%NULL%2,    Yingfeng%Lu%NULL%2,    Hongyu%Jia%NULL%2,    Jianhua%Hu%NULL%2,    Ciliang%Jin%NULL%2,    Guodong%Yu%NULL%2,    Yimin%Zhang%NULL%2,    Jifang%Sheng%NULL%4,    Yida%Yang%yidayang65@zju.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,    Dan%Xu%NULL%0,    Shouzhi%Fu%NULL%0,    Jun%Zhang%NULL%0,    Xiaobo%Yang%NULL%0,    Liang%Xu%NULL%0,    Jiqian%Xu%NULL%0,    Yongran%Wu%NULL%0,    Chaolin%Huang%NULL%0,    Yaqi%Ouyang%NULL%0,    Luyu%Yang%NULL%0,    Minghao%Fang%NULL%0,    Hongwen%Xiao%NULL%0,    Jing%Ma%NULL%0,    Wei%Zhu%NULL%0,    Song%Hu%NULL%0,    Quan%Hu%NULL%0,    Daoyin%Ding%NULL%0,    Ming%Hu%NULL%0,    Guochao%Zhu%NULL%0,    Weijiang%Xu%NULL%0,    Jun%Guo%NULL%0,    Jinglong%Xu%NULL%0,    Haitao%Yuan%NULL%0,    Bin%Zhang%NULL%0,    Zhui%Yu%yuzhui@whu.edu.cn%0,    Dechang%Chen%icudechangchen@163.com%0,    Shiying%Yuan%yuan_shiying@163.com%0,    You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,    Hao-Yu%Gao%NULL%1,    Zi-Yi%Feng%NULL%1,    Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,    Li-jun%Sun%NULL%1,    Mi%Xu%NULL%1,    Jian%Pan%NULL%1,    Yun-tao%Zhang%NULL%1,    Xue-ling%Fang%NULL%1,    Qiang%Fang%NULL%2,    Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,    Ziqiang%Du%NULL%1,    Yanfang%Zhu%NULL%1,    Wenfeng%Li%NULL%1,    Hongjun%Miao%NULL%1,    Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,    Sarah%Al-Youha%sarahalyouha@gmail.com%0,    Mohammad H.%Jamal%NULL%0,    Mohannad%Al-Haddad%NULL%0,    Ali%Al-Muhaini%NULL%0,    Fahad%Al-Ghimlas%NULL%0,    Salman%Al-Sabah%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,    Mina%Akbari Rad%NULL%1,    Robert%Bergquist%NULL%1,    Abolghasem%Allahyari%NULL%1,    Kamila%Hashemzadeh%NULL%1,    Nasrin%Milani%NULL%1,    Mahdi%Gholian-Aval%NULL%1,    Fariba%Rezaeitalab%NULL%1,    Mohammad Jafar%Sadeghi Quchani%NULL%1,    Zahra%Nahbandani%NULL%1,    Mandana%Khodashahi%NULL%1,    Zahra%Javid%NULL%1,    Mahnaz%Mozdourian%NULL%1,    Mohammad Ali%Yaghoubi%NULL%1,    Zahra%Mozaheb%NULL%1,    Mohsen%Seddigh-Shamsi%NULL%1,    Mohammad%Moeini Nodeh%NULL%1,    Shima%Nabavi%NULL%1,    Hooman%Mosannen Mozaffari%NULL%1,    Mohammadreza%Farzanehfar%NULL%1,    Zahra%Lotfi%NULL%1,    Alireza%Shariati%NULL%1,    Shekoofe%Bonakdaran%NULL%1,    Zahra%Rezaieyazdi%NULL%1,    Zahra%Mirfeizi%NULL%1,    Maryam%Miri%NULL%1,    Reza%Bassiri%NULL%1,    Sajjad%Ataei Azimi%NULL%1,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,    Ibrahim%Al-Zakwani%NULL%1,    Hamed%Al Naamani%NULL%1,    Sultan%Al Lawati%NULL%1,    Nenad%Pandak%NULL%1,    Muna Ba%Omar%NULL%1,    Maher%Al Bahrani%NULL%1,    Zakaryia AL%Bulushi%NULL%1,    Huda%Al Khalili%NULL%1,    Issa%Al Salmi%NULL%1,    Ruwaida%Al Ismaili%NULL%1,    Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,    Zohre%Khodamoradi%NULL%1,    Amirhossein%Erfani%NULL%1,    Hamidreza%Hosseinpour%NULL%1,    Keivan%Ranjbar%NULL%1,    Yasaman%Emami%NULL%1,    Alireza%Mirahmadizadeh%NULL%1,    Mehrzad%Lotfi%NULL%1,    Babak%Shirazi Yeganeh%NULL%1,    Abolfazl%Dorrani Nejad%NULL%1,    Abdolrasool%Hemmati%NULL%1,    Mostafa%Ebrahimi%NULL%1,    Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,    Annachiara%Ferrari%NULL%2,    Annachiara%Ferrari%NULL%0,    Francesco%Fontana%NULL%1,    Giacomo%Mori%NULL%1,    Riccardo%Magistroni%NULL%1,    Marianna%Meschiari%NULL%1,    Erica%Franceschini%NULL%1,    Marianna%Menozzi%NULL%1,    Gianluca%Cuomo%NULL%1,    Gabriella%Orlando%NULL%1,    Antonella%Santoro%NULL%1,    Margherita%Digaetano%NULL%1,    Cinzia%Puzzolante%NULL%1,    Federica%Carli%NULL%1,    Andrea%Bedini%NULL%1,    Jovana%Milic%NULL%1,    Irene%Coloretti%NULL%1,    Paolo%Raggi%NULL%1,    Cristina%Mussini%NULL%1,    Massimo%Girardis%NULL%1,    Gianni%Cappelli%NULL%1,    Giovanni%Guaraldi%NULL%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,    Silvia%Bettini%NULL%2,    Silvia%Bettini%NULL%0,    Roberto%Fabris%NULL%1,    Roberto%Serra%NULL%2,    Chiara%Dal Pra%NULL%1,    Pietro%Maffei%NULL%1,    Marco%Rossato%NULL%1,    Paola%Fioretto%NULL%0,    Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,    Marco%Roncador%NULL%2,    Marco%Roncador%NULL%0,    Andrea%Saporito%NULL%1,    Maira%Biggiogero%NULL%1,    Andrea%Glotta%NULL%1,    Pier Andrea%Maida%NULL%1,    Patrizia%Urso%NULL%1,    Giovanni%Bona%NULL%1,    Christian%Garzoni%NULL%1,    Romano%Mauri%NULL%0,    Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,    Anna Lisa%Ridolfo%NULL%4,    Laura%Milazzo%NULL%2,    Letizia%Oreni%NULL%4,    Dario%Bernacchia%NULL%4,    Matteo%Siano%NULL%4,    Cecilia%Bonazzetti%NULL%2,    Alice%Covizzi%NULL%2,    Marco%Schiuma%NULL%2,    Matteo%Passerini%NULL%2,    Marco%Piscaglia%NULL%2,    Massimo%Coen%NULL%2,    Guido%Gubertini%NULL%2,    Giuliano%Rizzardini%NULL%4,    Chiara%Cogliati%NULL%0,    Anna Maria%Brambilla%NULL%2,    Riccardo%Colombo%NULL%0,    Antonio%Castelli%NULL%2,    Roberto%Rech%NULL%2,    Agostino%Riva%NULL%2,    Alessandro%Torre%NULL%2,    Luca%Meroni%NULL%2,    Stefano%Rusconi%NULL%4,    Spinello%Antinori%NULL%4,    Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%7,   Cabrini%Luca%coreGivesNoEmail%2,   Castelli%Antonio%coreGivesNoEmail%2,   Cecconi%Maurizio%coreGivesNoEmail%2,   Cereda%Danilo%coreGivesNoEmail%2,   Coluccello%Antonio%coreGivesNoEmail%2,   Foti%Giuseppe%coreGivesNoEmail%2,   Fumagalli%Roberto%coreGivesNoEmail%2,   Grasselli%Giacomo%coreGivesNoEmail%2,   Iotti%Giorgio%coreGivesNoEmail%2,   Latronico%Nicola%coreGivesNoEmail%2,   Lorini%Luca%coreGivesNoEmail%2,   Merler%Stefano%coreGivesNoEmail%2,   Natalini%Giuseppe%coreGivesNoEmail%2,   Pesenti%Antonio%coreGivesNoEmail%2,   Piatti%Alessandra%coreGivesNoEmail%2,   Ranieri%Marco Vito%coreGivesNoEmail%2,   Scandroglio%Anna Mara%coreGivesNoEmail%2,   Storti%Enrico%coreGivesNoEmail%2,   Zanella%Alberto%coreGivesNoEmail%2,   Zangrillo%Alberto%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,    Lara%Gianesello%gianesello.lara@libero.it%1,    Maddalena%Pazzi%NULL%2,    Maddalena%Pazzi%NULL%0,    Caterina%Stera%NULL%1,    Tommaso%Meconi%NULL%1,    Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,    Andrea%Dalbeni%NULL%2,    Andrea%Dalbeni%NULL%0,    Elia%Vettore%NULL%2,    Elia%Vettore%NULL%0,    Devis%Benfaremo%NULL%1,    Massimo%Mattioli%NULL%1,    Carmine G.%Gambino%NULL%1,    Viviana%Framba%NULL%2,    Viviana%Framba%NULL%0,    Lorenzo%Cerruti%NULL%1,    Anna%Mantovani%NULL%1,    Andrea%Martini%NULL%1,    Michele M.%Luchetti%NULL%1,    Roberto%Serra%NULL%0,    Annamaria%Cattelan%NULL%1,    Roberto%Vettor%NULL%0,    Paolo%Angeli%NULL%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,    Matthaios%Papadimitriou-Olivgeris%NULL%2,    Matthaios%Papadimitriou-Olivgeris%NULL%0,    Raphaël%Burger%NULL%1,    Marie-Annick%Le Pogam%NULL%1,    Tapio%Niemi%NULL%2,    Tapio%Niemi%NULL%0,    Paraskevas%Filippidis%NULL%1,    Jonathan%Tschopp%NULL%1,    Florian%Desgranges%NULL%1,    Benjamin%Viala%NULL%1,    Eleftheria%Kampouri%NULL%1,    Laurence%Rochat%NULL%2,    Laurence%Rochat%NULL%0,    David%Haefliger%NULL%1,    Mehdi%Belkoniene%NULL%1,    Carlos%Fidalgo%NULL%1,    Antonios%Kritikos%NULL%1,    Katia%Jaton%NULL%1,    Laurence%Senn%NULL%1,    Pierre-Alexandre%Bart%NULL%1,    Jean-Luc%Pagani%NULL%2,    Jean-Luc%Pagani%NULL%0,    Oriol%Manuel%NULL%1,    Loïc%Lhopitallier%NULL%1,    Chiara%Lazzeri%NULL%2,    Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,    Ashwin%Subramaniam%NULL%2,    Ashwin%Subramaniam%NULL%0,    Mallikarjuna%Ponnapa Reddy%NULL%2,    Mallikarjuna%Ponnapa Reddy%NULL%0,    Gabriel%Blecher%NULL%1,    Umesh%Kadam%NULL%2,    Umesh%Kadam%NULL%0,    Afsana%Afroz%NULL%1,    Baki%Billah%NULL%1,    Sushma%Ashwin%NULL%1,    Mark%Kubicki%NULL%1,    Federico%Bilotta%NULL%1,    J. Randall%Curtis%NULL%2,    J. Randall%Curtis%NULL%0,    Francesca%Rubulotta%NULL%2,    Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,   Aggarwal%Saurabh%coreGivesNoEmail%2,   Garcia-Telles%Nelson%coreGivesNoEmail%2,   Henry%Brandon Michael%coreGivesNoEmail%2,   Lavie%Carl%coreGivesNoEmail%2,   Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,    Samuel L%Bruce%NULL%0,    Cody L%Slater%NULL%0,    Jonathan R%Tiao%NULL%0,    Matthew R%Baldwin%NULL%0,    R Graham%Barr%NULL%0,    Bernard P%Chang%NULL%0,    Katherine H%Chau%NULL%0,    Justin J%Choi%NULL%0,    Nicholas%Gavin%NULL%0,    Parag%Goyal%NULL%0,    Angela M%Mills%NULL%0,    Ashmi A%Patel%NULL%0,    Marie-Laure S%Romney%NULL%0,    Monika M%Safford%NULL%0,    Neil W%Schluger%NULL%0,    Soumitra%Sengupta%NULL%0,    Magdalena E%Sobieszczyk%NULL%0,    Jason E%Zucker%NULL%0,    Paul A%Asadourian%NULL%0,    Fletcher M%Bell%NULL%0,    Rebekah%Boyd%NULL%0,    Matthew F%Cohen%NULL%0,    MacAlistair I%Colquhoun%NULL%0,    Lucy A%Colville%NULL%0,    Joseph H%de Jonge%NULL%0,    Lyle B%Dershowitz%NULL%0,    Shirin A%Dey%NULL%0,    Katherine A%Eiseman%NULL%0,    Zachary P%Girvin%NULL%0,    Daniella T%Goni%NULL%0,    Amro A%Harb%NULL%0,    Nicholas%Herzik%NULL%0,    Sarah%Householder%NULL%0,    Lara E%Karaaslan%NULL%0,    Heather%Lee%NULL%0,    Evan%Lieberman%NULL%0,    Andrew%Ling%NULL%0,    Ree%Lu%NULL%0,    Arthur Y%Shou%NULL%0,    Alexander C%Sisti%NULL%0,    Zachary E%Snow%NULL%0,    Colin P%Sperring%NULL%0,    Yuqing%Xiong%NULL%0,    Henry W%Zhou%NULL%0,    Karthik%Natarajan%NULL%0,    George%Hripcsak%NULL%0,    Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,    Mark%Caridi-Scheible%NULL%0,    James M.%Blum%NULL%0,    Chad%Robichaux%NULL%0,    Colleen%Kraft%NULL%0,    Jesse T.%Jacob%NULL%0,    Craig S.%Jabaley%NULL%0,    David%Carpenter%NULL%0,    Roberta%Kaplow%NULL%0,    Alfonso C.%Hernandez-Romieu%NULL%0,    Max W.%Adelman%NULL%0,    Greg S.%Martin%NULL%0,    Craig M.%Coopersmith%NULL%0,    David J.%Murphy%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,    Bijan J.%Ghassemieh%NULL%0,    Michelle%Nichols%NULL%0,    Richard%Kim%NULL%0,    Keith R.%Jerome%NULL%0,    Arun K.%Nalla%NULL%0,    Alexander L.%Greninger%NULL%0,    Sudhakar%Pipavath%NULL%0,    Mark M.%Wurfel%NULL%0,    Laura%Evans%NULL%0,    Patricia A.%Kritek%NULL%0,    T. Eoin%West%NULL%0,    Andrew%Luks%NULL%0,    Anthony%Gerbino%NULL%0,    Chris R.%Dale%NULL%0,    Jason D.%Goldman%NULL%0,    Shane%O’Mahony%NULL%0,    Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,    Denise J%McCulloch%NULL%0,    Denise J%McCulloch%NULL%0,    Vidya%Atluri%NULL%0,    Michela%Blain%NULL%0,    Sarah A%McGuffin%NULL%0,    Arun K%Nalla%NULL%0,    Meei-Li%Huang%NULL%0,    Alex L%Greninger%NULL%0,    Keith R%Jerome%NULL%0,    Seth A%Cohen%NULL%0,    Santiago%Neme%NULL%0,    Margaret L%Green%NULL%0,    Helen Y%Chu%NULL%0,    H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,    Joelle I.%Rosser%NULL%0,    Orlando%Quintero%NULL%0,    Jake%Scott%NULL%0,    Aruna%Subramanian%NULL%0,    Mohammad%Gumma%NULL%0,    Angela%Rogers%NULL%0,    Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,    Jacob%Fiksel%NULL%2,    Jacob%Fiksel%NULL%0,    John%Muschelli%NULL%2,    John%Muschelli%NULL%0,    Matthew L.%Robinson%NULL%2,    Matthew L.%Robinson%NULL%0,    Masoud%Rouhizadeh%NULL%2,    Masoud%Rouhizadeh%NULL%0,    Jamie%Perin%NULL%2,    Jamie%Perin%NULL%0,    Grant%Schumock%NULL%2,    Grant%Schumock%NULL%0,    Paul%Nagy%NULL%2,    Paul%Nagy%NULL%0,    Josh H.%Gray%NULL%2,    Josh H.%Gray%NULL%0,    Harsha%Malapati%NULL%2,    Harsha%Malapati%NULL%0,    Mariam%Ghobadi-Krueger%NULL%2,    Mariam%Ghobadi-Krueger%NULL%0,    Timothy M.%Niessen%NULL%1,    Bo Soo%Kim%NULL%1,    Peter M.%Hill%NULL%1,    M. Shafeeq%Ahmed%NULL%1,    Eric D.%Dobkin%NULL%1,    Renee%Blanding%NULL%1,    Jennifer%Abele%NULL%1,    Bonnie%Woods%NULL%1,    Kenneth%Harkness%NULL%1,    David R.%Thiemann%NULL%1,    Mary G.%Bowring%NULL%1,    Aalok B.%Shah%NULL%2,    Aalok B.%Shah%NULL%0,    Mei-Cheng%Wang%NULL%1,    Karen%Bandeen-Roche%NULL%1,    Antony%Rosen%NULL%1,    Scott L.%Zeger%NULL%2,    Scott L.%Zeger%NULL%0,    Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,    Justin J.%Choi%NULL%0,    Laura C.%Pinheiro%NULL%0,    Edward J.%Schenck%NULL%0,    Ruijun%Chen%NULL%0,    Assem%Jabri%NULL%0,    Michael J.%Satlin%NULL%0,    Thomas R.%Campion%NULL%0,    Musarrat%Nahid%NULL%0,    Joanna B.%Ringel%NULL%0,    Katherine L.%Hoffman%NULL%0,    Mark N.%Alshak%NULL%0,    Han A.%Li%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Mangala%Rajan%NULL%0,    Evgeniya%Reshetnyak%NULL%0,    Nathaniel%Hupert%NULL%0,    Evelyn M.%Horn%NULL%0,    Fernando J.%Martinez%NULL%0,    Roy M.%Gulick%NULL%0,    Monika M.%Safford%NULL%0,    Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,    Simon A%Jones%NULL%0,    Jie%Yang%NULL%0,    Harish%Rajagopalan%NULL%0,    Luke%O’Donnell%NULL%0,    Yelena%Chernyak%NULL%0,    Katie A%Tobin%NULL%0,    Robert J%Cerfolio%NULL%0,    Fritz%Francois%NULL%0,    Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,    Anatoly%Mitrokhin%NULL%2,    Anatoly%Mitrokhin%NULL%0,    Ajai%Rajabalan%NULL%1,    Christian%Benjamin%NULL%1,    Sushma%Raviralla%NULL%1,    Vishnu R%Mani%vishnu.mani@duke.edu%2,    Vishnu R%Mani%vishnu.mani@duke.edu%0,    Aleksandr%Kalabin%NULL%2,    Aleksandr%Kalabin%NULL%0,    Sebastian C%Valdivieso%NULL%2,    Sebastian C%Valdivieso%NULL%0,    Max%Murray-Ramcharan%NULL%2,    Max%Murray-Ramcharan%NULL%0,    Brian%Donaldson%NULL%2,    Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,     Nicholas A.%Fergusson%null%1,     Elisa%Lloyd-Smith%null%1,     Andrew%Wormsbecker%null%1,     Denise%Foster%null%1,     Andrei%Karpov%null%1,     Sarah%Crowe%null%1,     Greg%Haljan%null%1,     Dean R.%Chittock%null%1,     Hussein D.%Kanji%null%1,     Mypinder S.%Sekhon%null%1,     Donald E.G.%Griesdale%null%1,   Anish R.%Mitra%null%2,   Nicholas A.%Fergusson%null%2,   Elisa%Lloyd-Smith%null%2,   Andrew%Wormsbecker%null%2,   Denise%Foster%null%2,   Andrei%Karpov%null%2,   Sarah%Crowe%null%2,   Greg%Haljan%null%2,   Dean R.%Chittock%null%2,   Hussein D.%Kanji%null%2,   Mypinder S.%Sekhon%null%2,   Donald E.G.%Griesdale%null%2]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,    Damianos G.%Kokkinidis%NULL%1,    Weijia%Li%NULL%1,    Dimitrios%Karamanis%NULL%1,    Jennifer%Ognibene%NULL%1,    Shitij%Arora%NULL%1,    William N.%Southern%NULL%1,    Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,    Jesus D.%Gonzalez-Lugo%NULL%1,    Shafia%Rahman%NULL%1,    Mohammad%Barouqa%NULL%1,    James%Szymanski%NULL%1,    Kenji%Ikemura%NULL%1,    Yungtai%Lo%NULL%1,    Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,    Viet-Thi%Tran%NULL%4,    Viet-Thi%Tran%NULL%0,    Mathilde%Roumier%NULL%2,    Amélie%Chabrol%NULL%2,    Romain%Paule%NULL%2,    Constance%Guillaud%NULL%2,    Elena%Fois%NULL%2,    Raphael%Lepeule%NULL%2,    Tali-Anne%Szwebel%NULL%2,    François-Xavier%Lescure%NULL%0,    Frédéric%Schlemmer%NULL%2,    Marie%Matignon%NULL%2,    Mehdi%Khellaf%NULL%2,    Etienne%Crickx%NULL%2,    Benjamin%Terrier%NULL%2,    Caroline%Morbieu%NULL%2,    Paul%Legendre%NULL%2,    Julien%Dang%NULL%2,    Yoland%Schoindre%NULL%2,    Jean-Michel%Pawlotsky%NULL%2,    Marc%Michel%NULL%2,    Elodie%Perrodeau%NULL%2,    Nicolas%Carlier%NULL%2,    Nicolas%Roche%NULL%2,    Victoire%de Lastours%NULL%2,    Clément%Ourghanlian%NULL%2,    Solen%Kerneis%NULL%2,    Philippe%Ménager%NULL%2,    Luc%Mouthon%NULL%2,    Etienne%Audureau%NULL%2,    Philippe%Ravaud%NULL%2,    Bertrand%Godeau%NULL%2,    Sébastien%Gallien%NULL%2,    Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,  Yu%Zuo%NULL%1,  Srilakshmi%Yalavarthi%NULL%1,  Kelsey%Gockman%NULL%1,  Melanie%Zuo%NULL%1,  Jacqueline A%Madison%NULL%1,  Christopher%Blair%NULL%1,  Wrenn%Woodward%NULL%1,  Sean P%Lezak%NULL%1,  Njira L%Lugogo%NULL%1,  Robert J%Woods%NULL%1,  Christian%Lood%NULL%1,  Jason S%Knight%NULL%2,  Jason S%Knight%NULL%0,  Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,    Raef A.%Fadel%NULL%1,    Kelly M.%Malette%NULL%1,    Charles%Hammond%NULL%1,    Hafsa%Abdulla%NULL%1,    Abigail%Entz%NULL%1,    Zachary%Demertzis%NULL%1,    Zachary%Hanna%NULL%1,    Andrew%Failla%NULL%1,    Carina%Dagher%NULL%0,    Zohra%Chaudhry%NULL%2,    Amit%Vahia%NULL%2,    Odaliz%Abreu Lanfranco%NULL%1,    Mayur%Ramesh%NULL%1,    Marcus J.%Zervos%NULL%1,    George%Alangaden%NULL%2,    Joseph%Miller%NULL%2,    Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,      J.% Jiang%null%1,      X.% Xu%null%1,      Y.% Hu%null%2,      Y.% Hu%null%0,      Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,     Chenchen%Qian%NULL%1,     Zhibing%Luo%NULL%1,     Qiang%Li%liqressh@hotmail.com%0,     Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,     Chunlin%Cai%NULL%1,     Jinglei%Zang%NULL%1,     Jun%Xie%NULL%1,     Dan%Xu%NULL%0,     Fang%Zheng%NULL%1,     Tao%Zhan%NULL%1,     Kang%Huang%NULL%1,     Yikai%Wang%NULL%1,     Xiao%Wang%NULL%1,     Zhe-Yu%Hu%NULL%1,     Yapeng%Deng%NULL%1,     Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,     Naofumi%Bunya%NULL%1,     Tomoyuki%Endo%NULL%1,     Yuji%Fujino%NULL%1,     Kensuke%Fujita%NULL%1,     Kenji%Fujizuka%NULL%1,     Yoshihiro%Hagiwara%NULL%1,     Jun%Hamaguchi%NULL%1,     Yoshitaka%Hara%NULL%1,     Eiji%Hashiba%NULL%1,     Satoru%Hashimoto%NULL%1,     Noriyuki%Hattori%NULL%1,     Kota%Hoshino%NULL%1,     Shinichi%Ijuin%NULL%1,     Takanari%Ikeyama%NULL%1,     Shingo%Ichiba%NULL%1,     Wataru%Iwanaga%NULL%1,     Yoshiaki%Iwashita%NULL%1,     Masafumi%Kanamoto%NULL%1,     Hitoshi%Kaneko%NULL%1,     Kaneyuki%Kawamae%NULL%1,     Toru%Kotani%NULL%1,     Yasuaki%Koyama%NULL%1,     Keibun%Liu%NULL%1,     Tomohiko%Masuno%NULL%1,     Naoto%Morimura%NULL%1,     Tomoyuki%Nakamura%NULL%1,     Masaki%Nakane%NULL%1,     Michitaka%Nasu%NULL%1,     Osamu%Nishida%NULL%1,     Masaji%Nishimura%NULL%1,     Kanae%Ochiai%NULL%1,     Takayuki%Ogura%NULL%1,     Shinichiro%Ohshimo%NULL%1,     Keisuke%Oyama%NULL%1,     Junichi%Sasaki%NULL%1,     Ryutaro%Seo%NULL%1,     Takeshi%Shimazu%NULL%1,     Nobuaki%Shime%NULL%4,     Keiki%Shimizu%NULL%1,     Hiroyuki%Suzuki%NULL%1,     Shuhei%Takauji%NULL%1,     Shinhiro%Takeda%NULL%1,     Ichiro%Takeuchi%NULL%0,     Mumon%Takita%NULL%1,     Hayato%Taniguchi%NULL%1,     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,     Yi Xin%Tong%NULL%3,     Sheng%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,     Hong%Chen%NULL%1,     Zhen%Li%NULL%2,     Bo%Wang%NULL%0,     Zhong-Wei%Zhang%NULL%1,     Wei-Min%Li%NULL%1,     Zong-An%Liang%NULL%1,     Jin%Tang%NULL%1,     Jian%Wang%NULL%1,     Rui%Shi%NULL%1,     Xiao-Dong%Jin%NULL%1,     Yan%Kang%NULL%1,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,      S. F.% Mahmood%null%1,      K.% Habib%null%1,      I.% Khanum%null%1,      B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,     Chaisith%Sivakorn%NULL%1,     Tanuwong%Viarasilpa%NULL%1,     Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,     Mu%Qin%qinmuae@163.com%1,     Yuli%Cai%NULL%1,     Tao%Liu%NULL%1,     Bo%Shen%NULL%1,     Fan%Yang%NULL%0,     Sheng%Cao%NULL%1,     Xu%Liu%NULL%2,     Xu%Liu%NULL%0,     Yaozu%Xiang%NULL%1,     Qinyan%Zhao%NULL%1,     He%Huang%huanghe1977@whu.edu.cn%1,     Bo%Yang%yybb112@whu.edu.cn%0,     Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,     Win%Kulvichit%NULL%1,     Sunchai%Payungporn%NULL%1,     Trairak%Pisitkun%NULL%1,     Ariya%Chindamporn%NULL%1,     Sadudee%Peerapornratana%NULL%1,     Prapaporn%Pisitkun%NULL%1,     Suwalak%Chitcharoen%NULL%1,     Vorthon%Sawaswong%NULL%1,     Navaporn%Worasilchai%NULL%1,     Sarinya%Kampunya%NULL%1,     Opass%Putcharoen%NULL%1,     Thammasak%Thawitsri%NULL%1,     Nophol%Leelayuwatanakul%NULL%1,     Napplika%Kongpolprom%NULL%1,     Vorakamol%Phoophiboon%NULL%1,     Thitiwat%Sriprasart%NULL%1,     Rujipat%Samransamruajkit%NULL%1,     Somkanya%Tungsanga%NULL%1,     Kanitha%Tiankanon%NULL%1,     Nuttha%Lumlertgul%NULL%1,     Asada%Leelahavanichkul%NULL%1,     Tueboon%Sriphojanart%NULL%1,     Terapong%Tantawichien%NULL%1,     Usa%Thisyakorn%NULL%1,     Chintana%Chirathaworn%NULL%1,     Kearkiat%Praditpornsilpa%NULL%1,     Kriang%Tungsanga%NULL%1,     Somchai%Eiam-Ong%NULL%1,     Visith%Sitprija%NULL%1,     John A.%Kellum%NULL%1,     Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,     Min%Pan%NULL%0,     Xiumei%Zhang%NULL%0,     Mingfeng%Han%fyhmf@163.com%0,     Xiaoyun%Fan%13956988552@126.com%0,     Fengde%Zhao%NULL%0,     Manli%Miao%NULL%0,     Jing%Xu%NULL%0,     Minglong%Guan%NULL%0,     Xia%Deng%NULL%0,     Xu%Chen%NULL%0,     Leilei%Shen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,     Chunli%Tang%NULL%1,     Ruchong%Chen%NULL%1,     Honglian%Ruan%NULL%1,     Wenhua%Liang%NULL%1,     Weijie%Guan%NULL%1,     Ling%Sang%NULL%0,     Ruidi%Tang%NULL%1,     Nanshan%Zhong%NULL%2,     Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,     Shanyan%Zhang%NULL%0,     Xiaoli%Zhang%NULL%1,     Huan%Cai%NULL%0,     Jueqing%Gu%NULL%0,     Jiangshan%Lian%NULL%0,     Yingfeng%Lu%NULL%0,     Hongyu%Jia%NULL%0,     Jianhua%Hu%NULL%0,     Ciliang%Jin%NULL%0,     Guodong%Yu%NULL%0,     Yimin%Zhang%NULL%0,     Jifang%Sheng%NULL%0,     Yida%Yang%yidayang65@zju.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,     Dan%Xu%NULL%0,     Shouzhi%Fu%NULL%0,     Jun%Zhang%NULL%1,     Xiaobo%Yang%NULL%0,     Liang%Xu%NULL%1,     Jiqian%Xu%NULL%0,     Yongran%Wu%NULL%0,     Chaolin%Huang%NULL%1,     Yaqi%Ouyang%NULL%0,     Luyu%Yang%NULL%0,     Minghao%Fang%NULL%0,     Hongwen%Xiao%NULL%1,     Jing%Ma%NULL%0,     Wei%Zhu%NULL%1,     Song%Hu%NULL%1,     Quan%Hu%NULL%1,     Daoyin%Ding%NULL%1,     Ming%Hu%NULL%0,     Guochao%Zhu%NULL%1,     Weijiang%Xu%NULL%1,     Jun%Guo%NULL%1,     Jinglong%Xu%NULL%1,     Haitao%Yuan%NULL%1,     Bin%Zhang%NULL%2,     Zhui%Yu%yuzhui@whu.edu.cn%0,     Dechang%Chen%icudechangchen@163.com%1,     Shiying%Yuan%yuan_shiying@163.com%0,     You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,     Hao-Yu%Gao%NULL%1,     Zi-Yi%Feng%NULL%1,     Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,     Li-jun%Sun%NULL%1,     Mi%Xu%NULL%1,     Jian%Pan%NULL%1,     Yun-tao%Zhang%NULL%1,     Xue-ling%Fang%NULL%1,     Qiang%Fang%NULL%2,     Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,     Ziqiang%Du%NULL%1,     Yanfang%Zhu%NULL%1,     Wenfeng%Li%NULL%1,     Hongjun%Miao%NULL%1,     Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,     Sarah%Al-Youha%sarahalyouha@gmail.com%1,     Mohammad H.%Jamal%NULL%1,     Mohannad%Al-Haddad%NULL%1,     Ali%Al-Muhaini%NULL%1,     Fahad%Al-Ghimlas%NULL%1,     Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,     Mina%Akbari Rad%NULL%1,     Robert%Bergquist%NULL%1,     Abolghasem%Allahyari%NULL%1,     Kamila%Hashemzadeh%NULL%1,     Nasrin%Milani%NULL%1,     Mahdi%Gholian-Aval%NULL%1,     Fariba%Rezaeitalab%NULL%1,     Mohammad Jafar%Sadeghi Quchani%NULL%1,     Zahra%Nahbandani%NULL%1,     Mandana%Khodashahi%NULL%1,     Zahra%Javid%NULL%1,     Mahnaz%Mozdourian%NULL%1,     Mohammad Ali%Yaghoubi%NULL%1,     Zahra%Mozaheb%NULL%1,     Mohsen%Seddigh-Shamsi%NULL%1,     Mohammad%Moeini Nodeh%NULL%1,     Shima%Nabavi%NULL%1,     Hooman%Mosannen Mozaffari%NULL%1,     Mohammadreza%Farzanehfar%NULL%1,     Zahra%Lotfi%NULL%0,     Alireza%Shariati%NULL%1,     Shekoofe%Bonakdaran%NULL%1,     Zahra%Rezaieyazdi%NULL%1,     Zahra%Mirfeizi%NULL%1,     Maryam%Miri%NULL%1,     Reza%Bassiri%NULL%1,     Sajjad%Ataei Azimi%NULL%1,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,     Ibrahim%Al-Zakwani%NULL%1,     Hamed%Al Naamani%NULL%1,     Sultan%Al Lawati%NULL%1,     Nenad%Pandak%NULL%1,     Muna Ba%Omar%NULL%1,     Maher%Al Bahrani%NULL%1,     Zakaryia AL%Bulushi%NULL%1,     Huda%Al Khalili%NULL%1,     Issa%Al Salmi%NULL%1,     Ruwaida%Al Ismaili%NULL%1,     Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,     Zohre%Khodamoradi%NULL%1,     Amirhossein%Erfani%NULL%1,     Hamidreza%Hosseinpour%NULL%1,     Keivan%Ranjbar%NULL%1,     Yasaman%Emami%NULL%1,     Alireza%Mirahmadizadeh%NULL%1,     Mehrzad%Lotfi%NULL%1,     Babak%Shirazi Yeganeh%NULL%1,     Abolfazl%Dorrani Nejad%NULL%1,     Abdolrasool%Hemmati%NULL%1,     Mostafa%Ebrahimi%NULL%1,     Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,     Annachiara%Ferrari%NULL%2,     Annachiara%Ferrari%NULL%0,     Francesco%Fontana%NULL%1,     Giacomo%Mori%NULL%1,     Riccardo%Magistroni%NULL%1,     Marianna%Meschiari%NULL%1,     Erica%Franceschini%NULL%1,     Marianna%Menozzi%NULL%1,     Gianluca%Cuomo%NULL%1,     Gabriella%Orlando%NULL%1,     Antonella%Santoro%NULL%1,     Margherita%Digaetano%NULL%1,     Cinzia%Puzzolante%NULL%1,     Federica%Carli%NULL%1,     Andrea%Bedini%NULL%1,     Jovana%Milic%NULL%1,     Irene%Coloretti%NULL%1,     Paolo%Raggi%NULL%1,     Cristina%Mussini%NULL%1,     Massimo%Girardis%NULL%1,     Gianni%Cappelli%NULL%1,     Giovanni%Guaraldi%NULL%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,     Silvia%Bettini%NULL%2,     Silvia%Bettini%NULL%0,     Roberto%Fabris%NULL%1,     Roberto%Serra%NULL%2,     Chiara%Dal Pra%NULL%1,     Pietro%Maffei%NULL%1,     Marco%Rossato%NULL%1,     Paola%Fioretto%NULL%1,     Roberto%Vettor%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,     Marco%Roncador%NULL%2,     Marco%Roncador%NULL%0,     Andrea%Saporito%NULL%1,     Maira%Biggiogero%NULL%1,     Andrea%Glotta%NULL%1,     Pier Andrea%Maida%NULL%1,     Patrizia%Urso%NULL%1,     Giovanni%Bona%NULL%1,     Christian%Garzoni%NULL%1,     Romano%Mauri%NULL%1,     Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,     Anna Lisa%Ridolfo%NULL%4,     Laura%Milazzo%NULL%2,     Letizia%Oreni%NULL%4,     Dario%Bernacchia%NULL%4,     Matteo%Siano%NULL%4,     Cecilia%Bonazzetti%NULL%2,     Alice%Covizzi%NULL%2,     Marco%Schiuma%NULL%2,     Matteo%Passerini%NULL%2,     Marco%Piscaglia%NULL%2,     Massimo%Coen%NULL%2,     Guido%Gubertini%NULL%2,     Giuliano%Rizzardini%NULL%4,     Chiara%Cogliati%NULL%2,     Anna Maria%Brambilla%NULL%2,     Riccardo%Colombo%NULL%2,     Antonio%Castelli%NULL%2,     Roberto%Rech%NULL%2,     Agostino%Riva%NULL%2,     Alessandro%Torre%NULL%2,     Luca%Meroni%NULL%2,     Stefano%Rusconi%NULL%4,     Spinello%Antinori%NULL%4,     Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%1,    Castelli%Antonio%coreGivesNoEmail%1,    Cecconi%Maurizio%coreGivesNoEmail%1,    Cereda%Danilo%coreGivesNoEmail%1,    Coluccello%Antonio%coreGivesNoEmail%1,    Foti%Giuseppe%coreGivesNoEmail%1,    Fumagalli%Roberto%coreGivesNoEmail%1,    Grasselli%Giacomo%coreGivesNoEmail%1,    Iotti%Giorgio%coreGivesNoEmail%1,    Latronico%Nicola%coreGivesNoEmail%1,    Lorini%Luca%coreGivesNoEmail%1,    Merler%Stefano%coreGivesNoEmail%1,    Natalini%Giuseppe%coreGivesNoEmail%1,    Pesenti%Antonio%coreGivesNoEmail%1,    Piatti%Alessandra%coreGivesNoEmail%1,    Ranieri%Marco Vito%coreGivesNoEmail%1,    Scandroglio%Anna Mara%coreGivesNoEmail%1,    Storti%Enrico%coreGivesNoEmail%1,    Zanella%Alberto%coreGivesNoEmail%1,    Zangrillo%Alberto%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,     Lara%Gianesello%gianesello.lara@libero.it%1,     Maddalena%Pazzi%NULL%2,     Maddalena%Pazzi%NULL%0,     Caterina%Stera%NULL%1,     Tommaso%Meconi%NULL%1,     Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,     Andrea%Dalbeni%NULL%2,     Andrea%Dalbeni%NULL%0,     Elia%Vettore%NULL%2,     Elia%Vettore%NULL%0,     Devis%Benfaremo%NULL%1,     Massimo%Mattioli%NULL%1,     Carmine G.%Gambino%NULL%1,     Viviana%Framba%NULL%2,     Viviana%Framba%NULL%0,     Lorenzo%Cerruti%NULL%1,     Anna%Mantovani%NULL%1,     Andrea%Martini%NULL%1,     Michele M.%Luchetti%NULL%1,     Roberto%Serra%NULL%0,     Annamaria%Cattelan%NULL%1,     Roberto%Vettor%NULL%0,     Paolo%Angeli%NULL%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,     Matthaios%Papadimitriou-Olivgeris%NULL%2,     Matthaios%Papadimitriou-Olivgeris%NULL%0,     Raphaël%Burger%NULL%1,     Marie-Annick%Le Pogam%NULL%1,     Tapio%Niemi%NULL%2,     Tapio%Niemi%NULL%0,     Paraskevas%Filippidis%NULL%1,     Jonathan%Tschopp%NULL%1,     Florian%Desgranges%NULL%1,     Benjamin%Viala%NULL%1,     Eleftheria%Kampouri%NULL%1,     Laurence%Rochat%NULL%2,     Laurence%Rochat%NULL%0,     David%Haefliger%NULL%1,     Mehdi%Belkoniene%NULL%1,     Carlos%Fidalgo%NULL%1,     Antonios%Kritikos%NULL%1,     Katia%Jaton%NULL%1,     Laurence%Senn%NULL%1,     Pierre-Alexandre%Bart%NULL%1,     Jean-Luc%Pagani%NULL%2,     Jean-Luc%Pagani%NULL%0,     Oriol%Manuel%NULL%1,     Loïc%Lhopitallier%NULL%1,     Chiara%Lazzeri%NULL%0,     Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,     Ashwin%Subramaniam%NULL%2,     Ashwin%Subramaniam%NULL%0,     Mallikarjuna%Ponnapa Reddy%NULL%2,     Mallikarjuna%Ponnapa Reddy%NULL%0,     Gabriel%Blecher%NULL%1,     Umesh%Kadam%NULL%2,     Umesh%Kadam%NULL%0,     Afsana%Afroz%NULL%1,     Baki%Billah%NULL%1,     Sushma%Ashwin%NULL%1,     Mark%Kubicki%NULL%1,     Federico%Bilotta%NULL%1,     J. Randall%Curtis%NULL%2,     J. Randall%Curtis%NULL%0,     Francesca%Rubulotta%NULL%2,     Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,    Aggarwal%Saurabh%coreGivesNoEmail%2,    Garcia-Telles%Nelson%coreGivesNoEmail%2,    Henry%Brandon Michael%coreGivesNoEmail%2,    Lavie%Carl%coreGivesNoEmail%2,    Lippi%Giuseppe%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,     Samuel L%Bruce%NULL%0,     Cody L%Slater%NULL%0,     Jonathan R%Tiao%NULL%0,     Matthew R%Baldwin%NULL%0,     R Graham%Barr%NULL%0,     Bernard P%Chang%NULL%0,     Katherine H%Chau%NULL%0,     Justin J%Choi%NULL%0,     Nicholas%Gavin%NULL%0,     Parag%Goyal%NULL%0,     Angela M%Mills%NULL%0,     Ashmi A%Patel%NULL%0,     Marie-Laure S%Romney%NULL%0,     Monika M%Safford%NULL%0,     Neil W%Schluger%NULL%0,     Soumitra%Sengupta%NULL%0,     Magdalena E%Sobieszczyk%NULL%0,     Jason E%Zucker%NULL%0,     Paul A%Asadourian%NULL%0,     Fletcher M%Bell%NULL%0,     Rebekah%Boyd%NULL%0,     Matthew F%Cohen%NULL%0,     MacAlistair I%Colquhoun%NULL%0,     Lucy A%Colville%NULL%0,     Joseph H%de Jonge%NULL%0,     Lyle B%Dershowitz%NULL%0,     Shirin A%Dey%NULL%0,     Katherine A%Eiseman%NULL%0,     Zachary P%Girvin%NULL%0,     Daniella T%Goni%NULL%0,     Amro A%Harb%NULL%0,     Nicholas%Herzik%NULL%0,     Sarah%Householder%NULL%0,     Lara E%Karaaslan%NULL%0,     Heather%Lee%NULL%0,     Evan%Lieberman%NULL%0,     Andrew%Ling%NULL%0,     Ree%Lu%NULL%0,     Arthur Y%Shou%NULL%0,     Alexander C%Sisti%NULL%0,     Zachary E%Snow%NULL%0,     Colin P%Sperring%NULL%0,     Yuqing%Xiong%NULL%0,     Henry W%Zhou%NULL%0,     Karthik%Natarajan%NULL%0,     George%Hripcsak%NULL%0,     Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%0,     James M.%Blum%NULL%0,     Chad%Robichaux%NULL%0,     Colleen%Kraft%NULL%0,     Jesse T.%Jacob%NULL%0,     Craig S.%Jabaley%NULL%0,     David%Carpenter%NULL%0,     Roberta%Kaplow%NULL%0,     Alfonso C.%Hernandez-Romieu%NULL%0,     Max W.%Adelman%NULL%0,     Greg S.%Martin%NULL%0,     Craig M.%Coopersmith%NULL%0,     David J.%Murphy%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%0,     Michelle%Nichols%NULL%0,     Richard%Kim%NULL%0,     Keith R.%Jerome%NULL%0,     Arun K.%Nalla%NULL%0,     Alexander L.%Greninger%NULL%0,     Sudhakar%Pipavath%NULL%0,     Mark M.%Wurfel%NULL%0,     Laura%Evans%NULL%0,     Patricia A.%Kritek%NULL%0,     T. Eoin%West%NULL%0,     Andrew%Luks%NULL%0,     Anthony%Gerbino%NULL%0,     Chris R.%Dale%NULL%0,     Jason D.%Goldman%NULL%0,     Shane%O’Mahony%NULL%0,     Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,     Denise J%McCulloch%NULL%2,     Denise J%McCulloch%NULL%0,     Vidya%Atluri%NULL%1,     Michela%Blain%NULL%1,     Sarah A%McGuffin%NULL%1,     Arun K%Nalla%NULL%1,     Meei-Li%Huang%NULL%1,     Alex L%Greninger%NULL%1,     Keith R%Jerome%NULL%1,     Seth A%Cohen%NULL%1,     Santiago%Neme%NULL%0,     Margaret L%Green%NULL%1,     Helen Y%Chu%NULL%1,     H Nina%Kim%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,     Joelle I.%Rosser%NULL%1,     Orlando%Quintero%NULL%1,     Jake%Scott%NULL%1,     Aruna%Subramanian%NULL%1,     Mohammad%Gumma%NULL%1,     Angela%Rogers%NULL%1,     Shanthi%Kappagoda%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,     Jacob%Fiksel%NULL%0,     Jacob%Fiksel%NULL%0,     John%Muschelli%NULL%0,     John%Muschelli%NULL%0,     Matthew L.%Robinson%NULL%0,     Matthew L.%Robinson%NULL%0,     Masoud%Rouhizadeh%NULL%0,     Masoud%Rouhizadeh%NULL%0,     Jamie%Perin%NULL%0,     Jamie%Perin%NULL%0,     Grant%Schumock%NULL%0,     Grant%Schumock%NULL%0,     Paul%Nagy%NULL%0,     Paul%Nagy%NULL%0,     Josh H.%Gray%NULL%0,     Josh H.%Gray%NULL%0,     Harsha%Malapati%NULL%0,     Harsha%Malapati%NULL%0,     Mariam%Ghobadi-Krueger%NULL%0,     Mariam%Ghobadi-Krueger%NULL%0,     Timothy M.%Niessen%NULL%0,     Bo Soo%Kim%NULL%0,     Peter M.%Hill%NULL%0,     M. Shafeeq%Ahmed%NULL%0,     Eric D.%Dobkin%NULL%0,     Renee%Blanding%NULL%0,     Jennifer%Abele%NULL%0,     Bonnie%Woods%NULL%0,     Kenneth%Harkness%NULL%0,     David R.%Thiemann%NULL%0,     Mary G.%Bowring%NULL%0,     Aalok B.%Shah%NULL%0,     Aalok B.%Shah%NULL%0,     Mei-Cheng%Wang%NULL%0,     Karen%Bandeen-Roche%NULL%0,     Antony%Rosen%NULL%0,     Scott L.%Zeger%NULL%0,     Scott L.%Zeger%NULL%0,     Amita%Gupta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,     Justin J.%Choi%NULL%2,     Laura C.%Pinheiro%NULL%2,     Edward J.%Schenck%NULL%2,     Ruijun%Chen%NULL%0,     Assem%Jabri%NULL%2,     Michael J.%Satlin%NULL%2,     Thomas R.%Campion%NULL%2,     Musarrat%Nahid%NULL%2,     Joanna B.%Ringel%NULL%2,     Katherine L.%Hoffman%NULL%2,     Mark N.%Alshak%NULL%2,     Han A.%Li%NULL%2,     Graham T.%Wehmeyer%NULL%4,     Graham T.%Wehmeyer%NULL%0,     Mangala%Rajan%NULL%2,     Evgeniya%Reshetnyak%NULL%2,     Nathaniel%Hupert%NULL%2,     Evelyn M.%Horn%NULL%2,     Fernando J.%Martinez%NULL%2,     Roy M.%Gulick%NULL%2,     Monika M.%Safford%NULL%4,     Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,     Simon A%Jones%NULL%0,     Jie%Yang%NULL%0,     Harish%Rajagopalan%NULL%0,     Luke%O’Donnell%NULL%0,     Yelena%Chernyak%NULL%0,     Katie A%Tobin%NULL%0,     Robert J%Cerfolio%NULL%0,     Fritz%Francois%NULL%0,     Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,     Anatoly%Mitrokhin%NULL%2,     Anatoly%Mitrokhin%NULL%0,     Ajai%Rajabalan%NULL%1,     Christian%Benjamin%NULL%1,     Sushma%Raviralla%NULL%1,     Vishnu R%Mani%vishnu.mani@duke.edu%2,     Vishnu R%Mani%vishnu.mani@duke.edu%0,     Aleksandr%Kalabin%NULL%2,     Aleksandr%Kalabin%NULL%0,     Sebastian C%Valdivieso%NULL%2,     Sebastian C%Valdivieso%NULL%0,     Max%Murray-Ramcharan%NULL%2,     Max%Murray-Ramcharan%NULL%0,     Brian%Donaldson%NULL%2,     Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,      Nicholas A.%Fergusson%null%1,      Elisa%Lloyd-Smith%null%1,      Andrew%Wormsbecker%null%1,      Denise%Foster%null%1,      Andrei%Karpov%null%1,      Sarah%Crowe%null%1,      Greg%Haljan%null%1,      Dean R.%Chittock%null%1,      Hussein D.%Kanji%null%1,      Mypinder S.%Sekhon%null%1,      Donald E.G.%Griesdale%null%1,    Anish R.%Mitra%null%2,    Nicholas A.%Fergusson%null%2,    Elisa%Lloyd-Smith%null%2,    Andrew%Wormsbecker%null%2,    Denise%Foster%null%2,    Andrei%Karpov%null%2,    Sarah%Crowe%null%2,    Greg%Haljan%null%2,    Dean R.%Chittock%null%2,    Hussein D.%Kanji%null%2,    Mypinder S.%Sekhon%null%2,    Donald E.G.%Griesdale%null%2]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,     Damianos G.%Kokkinidis%NULL%1,     Weijia%Li%NULL%1,     Dimitrios%Karamanis%NULL%1,     Jennifer%Ognibene%NULL%1,     Shitij%Arora%NULL%1,     William N.%Southern%NULL%1,     Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,     Jesus D.%Gonzalez-Lugo%NULL%1,     Shafia%Rahman%NULL%1,     Mohammad%Barouqa%NULL%1,     James%Szymanski%NULL%1,     Kenji%Ikemura%NULL%1,     Yungtai%Lo%NULL%1,     Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%1,    Chelico%J.D.%coreGivesNoEmail%1,    Cohen%S.L.%coreGivesNoEmail%1,    Cookingham%J.%coreGivesNoEmail%1,    Coppa%K.%coreGivesNoEmail%1,    Crawford%J.M.%coreGivesNoEmail%1,    Davidson%K.W.%coreGivesNoEmail%1,    Diefenbach%M.A.%coreGivesNoEmail%1,    Dominello%A.J.%coreGivesNoEmail%1,    Duer-Hefele%J.%coreGivesNoEmail%1,    Falzon%L.%coreGivesNoEmail%1,    Gitlin%J.%coreGivesNoEmail%1,    Hajizadeh%N.%coreGivesNoEmail%1,    Harvin%T.G.%coreGivesNoEmail%1,    Hirsch%J.S.%coreGivesNoEmail%1,    Hirschwerk%D.A.%coreGivesNoEmail%1,    Kim%E.J.%coreGivesNoEmail%1,    Kozel%Z.M.%coreGivesNoEmail%1,    Marrast%L.M.%coreGivesNoEmail%1,    McGinn%T.%coreGivesNoEmail%1,    Mogavero%J.N.%coreGivesNoEmail%1,    Narasimhan%M.%coreGivesNoEmail%1,    Osorio%G.A.%coreGivesNoEmail%1,    Qiu%M.%coreGivesNoEmail%1,    Richardson%S.%coreGivesNoEmail%1,    Zanos%T.P.%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,     Viet-Thi%Tran%NULL%4,     Viet-Thi%Tran%NULL%0,     Mathilde%Roumier%NULL%2,     Amélie%Chabrol%NULL%2,     Romain%Paule%NULL%2,     Constance%Guillaud%NULL%2,     Elena%Fois%NULL%2,     Raphael%Lepeule%NULL%2,     Tali-Anne%Szwebel%NULL%2,     François-Xavier%Lescure%NULL%2,     Frédéric%Schlemmer%NULL%2,     Marie%Matignon%NULL%2,     Mehdi%Khellaf%NULL%2,     Etienne%Crickx%NULL%2,     Benjamin%Terrier%NULL%2,     Caroline%Morbieu%NULL%2,     Paul%Legendre%NULL%2,     Julien%Dang%NULL%2,     Yoland%Schoindre%NULL%2,     Jean-Michel%Pawlotsky%NULL%2,     Marc%Michel%NULL%2,     Elodie%Perrodeau%NULL%2,     Nicolas%Carlier%NULL%2,     Nicolas%Roche%NULL%2,     Victoire%de Lastours%NULL%2,     Clément%Ourghanlian%NULL%2,     Solen%Kerneis%NULL%2,     Philippe%Ménager%NULL%2,     Luc%Mouthon%NULL%2,     Etienne%Audureau%NULL%2,     Philippe%Ravaud%NULL%2,     Bertrand%Godeau%NULL%2,     Sébastien%Gallien%NULL%2,     Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,   Yu%Zuo%NULL%1,   Srilakshmi%Yalavarthi%NULL%1,   Kelsey%Gockman%NULL%1,   Melanie%Zuo%NULL%1,   Jacqueline A%Madison%NULL%1,   Christopher%Blair%NULL%1,   Wrenn%Woodward%NULL%1,   Sean P%Lezak%NULL%1,   Njira L%Lugogo%NULL%1,   Robert J%Woods%NULL%1,   Christian%Lood%NULL%1,   Jason S%Knight%NULL%2,   Jason S%Knight%NULL%0,   Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,     Raef A.%Fadel%NULL%1,     Kelly M.%Malette%NULL%1,     Charles%Hammond%NULL%1,     Hafsa%Abdulla%NULL%1,     Abigail%Entz%NULL%1,     Zachary%Demertzis%NULL%1,     Zachary%Hanna%NULL%1,     Andrew%Failla%NULL%1,     Carina%Dagher%NULL%1,     Zohra%Chaudhry%NULL%2,     Amit%Vahia%NULL%2,     Odaliz%Abreu Lanfranco%NULL%1,     Mayur%Ramesh%NULL%1,     Marcus J.%Zervos%NULL%0,     George%Alangaden%NULL%2,     Joseph%Miller%NULL%2,     Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,       J.% Jiang%null%1,       X.% Xu%null%1,       Y.% Hu%null%2,       Y.% Hu%null%0,       Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,      Chenchen%Qian%NULL%1,      Zhibing%Luo%NULL%1,      Qiang%Li%liqressh@hotmail.com%0,      Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,      Chunlin%Cai%NULL%1,      Jinglei%Zang%NULL%1,      Jun%Xie%NULL%1,      Dan%Xu%NULL%0,      Fang%Zheng%NULL%1,      Tao%Zhan%NULL%1,      Kang%Huang%NULL%1,      Yikai%Wang%NULL%1,      Xiao%Wang%NULL%1,      Zhe-Yu%Hu%NULL%1,      Yapeng%Deng%NULL%1,      Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,      Naofumi%Bunya%NULL%1,      Tomoyuki%Endo%NULL%1,      Yuji%Fujino%NULL%1,      Kensuke%Fujita%NULL%1,      Kenji%Fujizuka%NULL%1,      Yoshihiro%Hagiwara%NULL%1,      Jun%Hamaguchi%NULL%1,      Yoshitaka%Hara%NULL%1,      Eiji%Hashiba%NULL%1,      Satoru%Hashimoto%NULL%1,      Noriyuki%Hattori%NULL%1,      Kota%Hoshino%NULL%1,      Shinichi%Ijuin%NULL%1,      Takanari%Ikeyama%NULL%1,      Shingo%Ichiba%NULL%1,      Wataru%Iwanaga%NULL%1,      Yoshiaki%Iwashita%NULL%1,      Masafumi%Kanamoto%NULL%1,      Hitoshi%Kaneko%NULL%1,      Kaneyuki%Kawamae%NULL%1,      Toru%Kotani%NULL%1,      Yasuaki%Koyama%NULL%1,      Keibun%Liu%NULL%1,      Tomohiko%Masuno%NULL%1,      Naoto%Morimura%NULL%1,      Tomoyuki%Nakamura%NULL%1,      Masaki%Nakane%NULL%1,      Michitaka%Nasu%NULL%1,      Osamu%Nishida%NULL%1,      Masaji%Nishimura%NULL%1,      Kanae%Ochiai%NULL%1,      Takayuki%Ogura%NULL%1,      Shinichiro%Ohshimo%NULL%1,      Keisuke%Oyama%NULL%1,      Junichi%Sasaki%NULL%1,      Ryutaro%Seo%NULL%1,      Takeshi%Shimazu%NULL%1,      Nobuaki%Shime%NULL%4,      Keiki%Shimizu%NULL%1,      Hiroyuki%Suzuki%NULL%1,      Shuhei%Takauji%NULL%1,      Shinhiro%Takeda%NULL%1,      Ichiro%Takeuchi%NULL%0,      Mumon%Takita%NULL%1,      Hayato%Taniguchi%NULL%1,      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,      Yi Xin%Tong%NULL%3,      Sheng%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,      Hong%Chen%NULL%1,      Zhen%Li%NULL%2,      Bo%Wang%NULL%0,      Zhong-Wei%Zhang%NULL%1,      Wei-Min%Li%NULL%1,      Zong-An%Liang%NULL%1,      Jin%Tang%NULL%1,      Jian%Wang%NULL%1,      Rui%Shi%NULL%1,      Xiao-Dong%Jin%NULL%1,      Yan%Kang%NULL%1,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,       S. F.% Mahmood%null%1,       K.% Habib%null%1,       I.% Khanum%null%1,       B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,      Chaisith%Sivakorn%NULL%1,      Tanuwong%Viarasilpa%NULL%1,      Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,      Mu%Qin%qinmuae@163.com%1,      Yuli%Cai%NULL%1,      Tao%Liu%NULL%1,      Bo%Shen%NULL%1,      Fan%Yang%NULL%0,      Sheng%Cao%NULL%1,      Xu%Liu%NULL%2,      Xu%Liu%NULL%0,      Yaozu%Xiang%NULL%1,      Qinyan%Zhao%NULL%1,      He%Huang%huanghe1977@whu.edu.cn%1,      Bo%Yang%yybb112@whu.edu.cn%0,      Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,      Win%Kulvichit%NULL%1,      Sunchai%Payungporn%NULL%1,      Trairak%Pisitkun%NULL%1,      Ariya%Chindamporn%NULL%1,      Sadudee%Peerapornratana%NULL%1,      Prapaporn%Pisitkun%NULL%1,      Suwalak%Chitcharoen%NULL%1,      Vorthon%Sawaswong%NULL%1,      Navaporn%Worasilchai%NULL%1,      Sarinya%Kampunya%NULL%1,      Opass%Putcharoen%NULL%1,      Thammasak%Thawitsri%NULL%1,      Nophol%Leelayuwatanakul%NULL%1,      Napplika%Kongpolprom%NULL%1,      Vorakamol%Phoophiboon%NULL%1,      Thitiwat%Sriprasart%NULL%1,      Rujipat%Samransamruajkit%NULL%1,      Somkanya%Tungsanga%NULL%1,      Kanitha%Tiankanon%NULL%1,      Nuttha%Lumlertgul%NULL%1,      Asada%Leelahavanichkul%NULL%1,      Tueboon%Sriphojanart%NULL%1,      Terapong%Tantawichien%NULL%1,      Usa%Thisyakorn%NULL%1,      Chintana%Chirathaworn%NULL%1,      Kearkiat%Praditpornsilpa%NULL%1,      Kriang%Tungsanga%NULL%1,      Somchai%Eiam-Ong%NULL%1,      Visith%Sitprija%NULL%1,      John A.%Kellum%NULL%1,      Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,      Min%Pan%NULL%0,      Xiumei%Zhang%NULL%0,      Mingfeng%Han%fyhmf@163.com%0,      Xiaoyun%Fan%13956988552@126.com%0,      Fengde%Zhao%NULL%0,      Manli%Miao%NULL%0,      Jing%Xu%NULL%0,      Minglong%Guan%NULL%0,      Xia%Deng%NULL%0,      Xu%Chen%NULL%0,      Leilei%Shen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,      Chunli%Tang%NULL%1,      Ruchong%Chen%NULL%1,      Honglian%Ruan%NULL%1,      Wenhua%Liang%NULL%1,      Weijie%Guan%NULL%1,      Ling%Sang%NULL%0,      Ruidi%Tang%NULL%1,      Nanshan%Zhong%NULL%2,      Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,      Shanyan%Zhang%NULL%0,      Xiaoli%Zhang%NULL%1,      Huan%Cai%NULL%0,      Jueqing%Gu%NULL%0,      Jiangshan%Lian%NULL%0,      Yingfeng%Lu%NULL%0,      Hongyu%Jia%NULL%0,      Jianhua%Hu%NULL%0,      Ciliang%Jin%NULL%0,      Guodong%Yu%NULL%0,      Yimin%Zhang%NULL%0,      Jifang%Sheng%NULL%0,      Yida%Yang%yidayang65@zju.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,      Dan%Xu%NULL%0,      Shouzhi%Fu%NULL%0,      Jun%Zhang%NULL%1,      Xiaobo%Yang%NULL%0,      Liang%Xu%NULL%1,      Jiqian%Xu%NULL%0,      Yongran%Wu%NULL%0,      Chaolin%Huang%NULL%1,      Yaqi%Ouyang%NULL%0,      Luyu%Yang%NULL%0,      Minghao%Fang%NULL%0,      Hongwen%Xiao%NULL%1,      Jing%Ma%NULL%0,      Wei%Zhu%NULL%1,      Song%Hu%NULL%1,      Quan%Hu%NULL%1,      Daoyin%Ding%NULL%1,      Ming%Hu%NULL%0,      Guochao%Zhu%NULL%1,      Weijiang%Xu%NULL%1,      Jun%Guo%NULL%1,      Jinglong%Xu%NULL%1,      Haitao%Yuan%NULL%1,      Bin%Zhang%NULL%2,      Zhui%Yu%yuzhui@whu.edu.cn%0,      Dechang%Chen%icudechangchen@163.com%1,      Shiying%Yuan%yuan_shiying@163.com%0,      You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,      Hao-Yu%Gao%NULL%1,      Zi-Yi%Feng%NULL%1,      Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,      Li-jun%Sun%NULL%1,      Mi%Xu%NULL%1,      Jian%Pan%NULL%1,      Yun-tao%Zhang%NULL%1,      Xue-ling%Fang%NULL%1,      Qiang%Fang%NULL%2,      Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,      Ziqiang%Du%NULL%1,      Yanfang%Zhu%NULL%1,      Wenfeng%Li%NULL%1,      Hongjun%Miao%NULL%1,      Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,      Sarah%Al-Youha%sarahalyouha@gmail.com%1,      Mohammad H.%Jamal%NULL%1,      Mohannad%Al-Haddad%NULL%1,      Ali%Al-Muhaini%NULL%1,      Fahad%Al-Ghimlas%NULL%1,      Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,      Mina%Akbari Rad%NULL%1,      Robert%Bergquist%NULL%1,      Abolghasem%Allahyari%NULL%1,      Kamila%Hashemzadeh%NULL%1,      Nasrin%Milani%NULL%1,      Mahdi%Gholian-Aval%NULL%1,      Fariba%Rezaeitalab%NULL%1,      Mohammad Jafar%Sadeghi Quchani%NULL%1,      Zahra%Nahbandani%NULL%1,      Mandana%Khodashahi%NULL%1,      Zahra%Javid%NULL%1,      Mahnaz%Mozdourian%NULL%1,      Mohammad Ali%Yaghoubi%NULL%1,      Zahra%Mozaheb%NULL%1,      Mohsen%Seddigh-Shamsi%NULL%1,      Mohammad%Moeini Nodeh%NULL%1,      Shima%Nabavi%NULL%1,      Hooman%Mosannen Mozaffari%NULL%1,      Mohammadreza%Farzanehfar%NULL%1,      Zahra%Lotfi%NULL%0,      Alireza%Shariati%NULL%1,      Shekoofe%Bonakdaran%NULL%1,      Zahra%Rezaieyazdi%NULL%1,      Zahra%Mirfeizi%NULL%1,      Maryam%Miri%NULL%1,      Reza%Bassiri%NULL%1,      Sajjad%Ataei Azimi%NULL%1,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,      Ibrahim%Al-Zakwani%NULL%1,      Hamed%Al Naamani%NULL%1,      Sultan%Al Lawati%NULL%1,      Nenad%Pandak%NULL%1,      Muna Ba%Omar%NULL%1,      Maher%Al Bahrani%NULL%1,      Zakaryia AL%Bulushi%NULL%1,      Huda%Al Khalili%NULL%1,      Issa%Al Salmi%NULL%1,      Ruwaida%Al Ismaili%NULL%1,      Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,      Zohre%Khodamoradi%NULL%1,      Amirhossein%Erfani%NULL%1,      Hamidreza%Hosseinpour%NULL%1,      Keivan%Ranjbar%NULL%1,      Yasaman%Emami%NULL%1,      Alireza%Mirahmadizadeh%NULL%1,      Mehrzad%Lotfi%NULL%1,      Babak%Shirazi Yeganeh%NULL%1,      Abolfazl%Dorrani Nejad%NULL%1,      Abdolrasool%Hemmati%NULL%1,      Mostafa%Ebrahimi%NULL%1,      Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,      Annachiara%Ferrari%NULL%2,      Annachiara%Ferrari%NULL%0,      Francesco%Fontana%NULL%1,      Giacomo%Mori%NULL%1,      Riccardo%Magistroni%NULL%1,      Marianna%Meschiari%NULL%1,      Erica%Franceschini%NULL%1,      Marianna%Menozzi%NULL%1,      Gianluca%Cuomo%NULL%1,      Gabriella%Orlando%NULL%1,      Antonella%Santoro%NULL%1,      Margherita%Digaetano%NULL%1,      Cinzia%Puzzolante%NULL%1,      Federica%Carli%NULL%1,      Andrea%Bedini%NULL%1,      Jovana%Milic%NULL%1,      Irene%Coloretti%NULL%1,      Paolo%Raggi%NULL%1,      Cristina%Mussini%NULL%1,      Massimo%Girardis%NULL%1,      Gianni%Cappelli%NULL%1,      Giovanni%Guaraldi%NULL%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,      Silvia%Bettini%NULL%2,      Silvia%Bettini%NULL%0,      Roberto%Fabris%NULL%1,      Roberto%Serra%NULL%2,      Chiara%Dal Pra%NULL%1,      Pietro%Maffei%NULL%1,      Marco%Rossato%NULL%1,      Paola%Fioretto%NULL%1,      Roberto%Vettor%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,      Marco%Roncador%NULL%2,      Marco%Roncador%NULL%0,      Andrea%Saporito%NULL%1,      Maira%Biggiogero%NULL%1,      Andrea%Glotta%NULL%1,      Pier Andrea%Maida%NULL%1,      Patrizia%Urso%NULL%1,      Giovanni%Bona%NULL%1,      Christian%Garzoni%NULL%1,      Romano%Mauri%NULL%1,      Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,      Anna Lisa%Ridolfo%NULL%4,      Laura%Milazzo%NULL%2,      Letizia%Oreni%NULL%4,      Dario%Bernacchia%NULL%4,      Matteo%Siano%NULL%4,      Cecilia%Bonazzetti%NULL%2,      Alice%Covizzi%NULL%2,      Marco%Schiuma%NULL%2,      Matteo%Passerini%NULL%2,      Marco%Piscaglia%NULL%2,      Massimo%Coen%NULL%2,      Guido%Gubertini%NULL%2,      Giuliano%Rizzardini%NULL%4,      Chiara%Cogliati%NULL%2,      Anna Maria%Brambilla%NULL%2,      Riccardo%Colombo%NULL%2,      Antonio%Castelli%NULL%2,      Roberto%Rech%NULL%2,      Agostino%Riva%NULL%2,      Alessandro%Torre%NULL%2,      Luca%Meroni%NULL%2,      Stefano%Rusconi%NULL%4,      Spinello%Antinori%NULL%4,      Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%1,     Castelli%Antonio%coreGivesNoEmail%1,     Cecconi%Maurizio%coreGivesNoEmail%1,     Cereda%Danilo%coreGivesNoEmail%1,     Coluccello%Antonio%coreGivesNoEmail%1,     Foti%Giuseppe%coreGivesNoEmail%1,     Fumagalli%Roberto%coreGivesNoEmail%1,     Grasselli%Giacomo%coreGivesNoEmail%1,     Iotti%Giorgio%coreGivesNoEmail%1,     Latronico%Nicola%coreGivesNoEmail%1,     Lorini%Luca%coreGivesNoEmail%1,     Merler%Stefano%coreGivesNoEmail%1,     Natalini%Giuseppe%coreGivesNoEmail%1,     Pesenti%Antonio%coreGivesNoEmail%1,     Piatti%Alessandra%coreGivesNoEmail%1,     Ranieri%Marco Vito%coreGivesNoEmail%1,     Scandroglio%Anna Mara%coreGivesNoEmail%1,     Storti%Enrico%coreGivesNoEmail%1,     Zanella%Alberto%coreGivesNoEmail%1,     Zangrillo%Alberto%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
     <t>CORE</t>
   </si>
   <si>
-    <t>[Vittorio%Pavoni%NULL%1,      Lara%Gianesello%gianesello.lara@libero.it%1,      Maddalena%Pazzi%NULL%2,      Maddalena%Pazzi%NULL%0,      Caterina%Stera%NULL%1,      Tommaso%Meconi%NULL%1,      Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,      Andrea%Dalbeni%NULL%2,      Andrea%Dalbeni%NULL%0,      Elia%Vettore%NULL%2,      Elia%Vettore%NULL%0,      Devis%Benfaremo%NULL%1,      Massimo%Mattioli%NULL%1,      Carmine G.%Gambino%NULL%1,      Viviana%Framba%NULL%2,      Viviana%Framba%NULL%0,      Lorenzo%Cerruti%NULL%1,      Anna%Mantovani%NULL%1,      Andrea%Martini%NULL%1,      Michele M.%Luchetti%NULL%1,      Roberto%Serra%NULL%0,      Annamaria%Cattelan%NULL%1,      Roberto%Vettor%NULL%0,      Paolo%Angeli%NULL%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,      Matthaios%Papadimitriou-Olivgeris%NULL%2,      Matthaios%Papadimitriou-Olivgeris%NULL%0,      Raphaël%Burger%NULL%1,      Marie-Annick%Le Pogam%NULL%1,      Tapio%Niemi%NULL%2,      Tapio%Niemi%NULL%0,      Paraskevas%Filippidis%NULL%1,      Jonathan%Tschopp%NULL%1,      Florian%Desgranges%NULL%1,      Benjamin%Viala%NULL%1,      Eleftheria%Kampouri%NULL%1,      Laurence%Rochat%NULL%2,      Laurence%Rochat%NULL%0,      David%Haefliger%NULL%1,      Mehdi%Belkoniene%NULL%1,      Carlos%Fidalgo%NULL%1,      Antonios%Kritikos%NULL%1,      Katia%Jaton%NULL%1,      Laurence%Senn%NULL%1,      Pierre-Alexandre%Bart%NULL%1,      Jean-Luc%Pagani%NULL%2,      Jean-Luc%Pagani%NULL%0,      Oriol%Manuel%NULL%1,      Loïc%Lhopitallier%NULL%1,      Chiara%Lazzeri%NULL%0,      Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,      Ashwin%Subramaniam%NULL%2,      Ashwin%Subramaniam%NULL%0,      Mallikarjuna%Ponnapa Reddy%NULL%2,      Mallikarjuna%Ponnapa Reddy%NULL%0,      Gabriel%Blecher%NULL%1,      Umesh%Kadam%NULL%2,      Umesh%Kadam%NULL%0,      Afsana%Afroz%NULL%1,      Baki%Billah%NULL%1,      Sushma%Ashwin%NULL%1,      Mark%Kubicki%NULL%1,      Federico%Bilotta%NULL%1,      J. Randall%Curtis%NULL%2,      J. Randall%Curtis%NULL%0,      Francesca%Rubulotta%NULL%2,      Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,     Aggarwal%Saurabh%coreGivesNoEmail%2,     Garcia-Telles%Nelson%coreGivesNoEmail%2,     Henry%Brandon Michael%coreGivesNoEmail%2,     Lavie%Carl%coreGivesNoEmail%2,     Lippi%Giuseppe%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,      Samuel L%Bruce%NULL%0,      Cody L%Slater%NULL%0,      Jonathan R%Tiao%NULL%0,      Matthew R%Baldwin%NULL%0,      R Graham%Barr%NULL%0,      Bernard P%Chang%NULL%0,      Katherine H%Chau%NULL%0,      Justin J%Choi%NULL%0,      Nicholas%Gavin%NULL%0,      Parag%Goyal%NULL%0,      Angela M%Mills%NULL%0,      Ashmi A%Patel%NULL%0,      Marie-Laure S%Romney%NULL%0,      Monika M%Safford%NULL%0,      Neil W%Schluger%NULL%0,      Soumitra%Sengupta%NULL%0,      Magdalena E%Sobieszczyk%NULL%0,      Jason E%Zucker%NULL%0,      Paul A%Asadourian%NULL%0,      Fletcher M%Bell%NULL%0,      Rebekah%Boyd%NULL%0,      Matthew F%Cohen%NULL%0,      MacAlistair I%Colquhoun%NULL%0,      Lucy A%Colville%NULL%0,      Joseph H%de Jonge%NULL%0,      Lyle B%Dershowitz%NULL%0,      Shirin A%Dey%NULL%0,      Katherine A%Eiseman%NULL%0,      Zachary P%Girvin%NULL%0,      Daniella T%Goni%NULL%0,      Amro A%Harb%NULL%0,      Nicholas%Herzik%NULL%0,      Sarah%Householder%NULL%0,      Lara E%Karaaslan%NULL%0,      Heather%Lee%NULL%0,      Evan%Lieberman%NULL%0,      Andrew%Ling%NULL%0,      Ree%Lu%NULL%0,      Arthur Y%Shou%NULL%0,      Alexander C%Sisti%NULL%0,      Zachary E%Snow%NULL%0,      Colin P%Sperring%NULL%0,      Yuqing%Xiong%NULL%0,      Henry W%Zhou%NULL%0,      Karthik%Natarajan%NULL%0,      George%Hripcsak%NULL%0,      Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%0,      James M.%Blum%NULL%0,      Chad%Robichaux%NULL%0,      Colleen%Kraft%NULL%0,      Jesse T.%Jacob%NULL%0,      Craig S.%Jabaley%NULL%0,      David%Carpenter%NULL%0,      Roberta%Kaplow%NULL%0,      Alfonso C.%Hernandez-Romieu%NULL%0,      Max W.%Adelman%NULL%0,      Greg S.%Martin%NULL%0,      Craig M.%Coopersmith%NULL%0,      David J.%Murphy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%0,      Michelle%Nichols%NULL%0,      Richard%Kim%NULL%0,      Keith R.%Jerome%NULL%0,      Arun K.%Nalla%NULL%0,      Alexander L.%Greninger%NULL%0,      Sudhakar%Pipavath%NULL%0,      Mark M.%Wurfel%NULL%0,      Laura%Evans%NULL%0,      Patricia A.%Kritek%NULL%0,      T. Eoin%West%NULL%0,      Andrew%Luks%NULL%0,      Anthony%Gerbino%NULL%0,      Chris R.%Dale%NULL%0,      Jason D.%Goldman%NULL%0,      Shane%O’Mahony%NULL%0,      Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,      Denise J%McCulloch%NULL%2,      Denise J%McCulloch%NULL%0,      Vidya%Atluri%NULL%1,      Michela%Blain%NULL%1,      Sarah A%McGuffin%NULL%1,      Arun K%Nalla%NULL%1,      Meei-Li%Huang%NULL%1,      Alex L%Greninger%NULL%1,      Keith R%Jerome%NULL%1,      Seth A%Cohen%NULL%1,      Santiago%Neme%NULL%0,      Margaret L%Green%NULL%1,      Helen Y%Chu%NULL%1,      H Nina%Kim%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,      Joelle I.%Rosser%NULL%1,      Orlando%Quintero%NULL%1,      Jake%Scott%NULL%1,      Aruna%Subramanian%NULL%1,      Mohammad%Gumma%NULL%1,      Angela%Rogers%NULL%1,      Shanthi%Kappagoda%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,      Jacob%Fiksel%NULL%0,      Jacob%Fiksel%NULL%0,      John%Muschelli%NULL%0,      John%Muschelli%NULL%0,      Matthew L.%Robinson%NULL%0,      Matthew L.%Robinson%NULL%0,      Masoud%Rouhizadeh%NULL%0,      Masoud%Rouhizadeh%NULL%0,      Jamie%Perin%NULL%0,      Jamie%Perin%NULL%0,      Grant%Schumock%NULL%0,      Grant%Schumock%NULL%0,      Paul%Nagy%NULL%0,      Paul%Nagy%NULL%0,      Josh H.%Gray%NULL%0,      Josh H.%Gray%NULL%0,      Harsha%Malapati%NULL%0,      Harsha%Malapati%NULL%0,      Mariam%Ghobadi-Krueger%NULL%0,      Mariam%Ghobadi-Krueger%NULL%0,      Timothy M.%Niessen%NULL%0,      Bo Soo%Kim%NULL%0,      Peter M.%Hill%NULL%0,      M. Shafeeq%Ahmed%NULL%0,      Eric D.%Dobkin%NULL%0,      Renee%Blanding%NULL%0,      Jennifer%Abele%NULL%0,      Bonnie%Woods%NULL%0,      Kenneth%Harkness%NULL%0,      David R.%Thiemann%NULL%0,      Mary G.%Bowring%NULL%0,      Aalok B.%Shah%NULL%0,      Aalok B.%Shah%NULL%0,      Mei-Cheng%Wang%NULL%0,      Karen%Bandeen-Roche%NULL%0,      Antony%Rosen%NULL%0,      Scott L.%Zeger%NULL%0,      Scott L.%Zeger%NULL%0,      Amita%Gupta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,      Justin J.%Choi%NULL%2,      Laura C.%Pinheiro%NULL%2,      Edward J.%Schenck%NULL%2,      Ruijun%Chen%NULL%0,      Assem%Jabri%NULL%2,      Michael J.%Satlin%NULL%2,      Thomas R.%Campion%NULL%2,      Musarrat%Nahid%NULL%2,      Joanna B.%Ringel%NULL%2,      Katherine L.%Hoffman%NULL%2,      Mark N.%Alshak%NULL%2,      Han A.%Li%NULL%2,      Graham T.%Wehmeyer%NULL%4,      Graham T.%Wehmeyer%NULL%0,      Mangala%Rajan%NULL%2,      Evgeniya%Reshetnyak%NULL%2,      Nathaniel%Hupert%NULL%2,      Evelyn M.%Horn%NULL%2,      Fernando J.%Martinez%NULL%2,      Roy M.%Gulick%NULL%2,      Monika M.%Safford%NULL%4,      Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,      Simon A%Jones%NULL%0,      Jie%Yang%NULL%0,      Harish%Rajagopalan%NULL%0,      Luke%O’Donnell%NULL%0,      Yelena%Chernyak%NULL%0,      Katie A%Tobin%NULL%0,      Robert J%Cerfolio%NULL%0,      Fritz%Francois%NULL%0,      Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,      Anatoly%Mitrokhin%NULL%2,      Anatoly%Mitrokhin%NULL%0,      Ajai%Rajabalan%NULL%1,      Christian%Benjamin%NULL%1,      Sushma%Raviralla%NULL%1,      Vishnu R%Mani%vishnu.mani@duke.edu%2,      Vishnu R%Mani%vishnu.mani@duke.edu%0,      Aleksandr%Kalabin%NULL%2,      Aleksandr%Kalabin%NULL%0,      Sebastian C%Valdivieso%NULL%2,      Sebastian C%Valdivieso%NULL%0,      Max%Murray-Ramcharan%NULL%2,      Max%Murray-Ramcharan%NULL%0,      Brian%Donaldson%NULL%2,      Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,       Nicholas A.%Fergusson%null%1,       Elisa%Lloyd-Smith%null%1,       Andrew%Wormsbecker%null%1,       Denise%Foster%null%1,       Andrei%Karpov%null%1,       Sarah%Crowe%null%1,       Greg%Haljan%null%1,       Dean R.%Chittock%null%1,       Hussein D.%Kanji%null%1,       Mypinder S.%Sekhon%null%1,       Donald E.G.%Griesdale%null%1,     Anish R.%Mitra%null%2,     Nicholas A.%Fergusson%null%2,     Elisa%Lloyd-Smith%null%2,     Andrew%Wormsbecker%null%2,     Denise%Foster%null%2,     Andrei%Karpov%null%2,     Sarah%Crowe%null%2,     Greg%Haljan%null%2,     Dean R.%Chittock%null%2,     Hussein D.%Kanji%null%2,     Mypinder S.%Sekhon%null%2,     Donald E.G.%Griesdale%null%2]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,      Damianos G.%Kokkinidis%NULL%1,      Weijia%Li%NULL%1,      Dimitrios%Karamanis%NULL%1,      Jennifer%Ognibene%NULL%1,      Shitij%Arora%NULL%1,      William N.%Southern%NULL%1,      Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,      Jesus D.%Gonzalez-Lugo%NULL%1,      Shafia%Rahman%NULL%1,      Mohammad%Barouqa%NULL%1,      James%Szymanski%NULL%1,      Kenji%Ikemura%NULL%1,      Yungtai%Lo%NULL%1,      Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%1,     Chelico%J.D.%coreGivesNoEmail%1,     Cohen%S.L.%coreGivesNoEmail%1,     Cookingham%J.%coreGivesNoEmail%1,     Coppa%K.%coreGivesNoEmail%1,     Crawford%J.M.%coreGivesNoEmail%1,     Davidson%K.W.%coreGivesNoEmail%1,     Diefenbach%M.A.%coreGivesNoEmail%1,     Dominello%A.J.%coreGivesNoEmail%1,     Duer-Hefele%J.%coreGivesNoEmail%1,     Falzon%L.%coreGivesNoEmail%1,     Gitlin%J.%coreGivesNoEmail%1,     Hajizadeh%N.%coreGivesNoEmail%1,     Harvin%T.G.%coreGivesNoEmail%1,     Hirsch%J.S.%coreGivesNoEmail%1,     Hirschwerk%D.A.%coreGivesNoEmail%1,     Kim%E.J.%coreGivesNoEmail%1,     Kozel%Z.M.%coreGivesNoEmail%1,     Marrast%L.M.%coreGivesNoEmail%1,     McGinn%T.%coreGivesNoEmail%1,     Mogavero%J.N.%coreGivesNoEmail%1,     Narasimhan%M.%coreGivesNoEmail%1,     Osorio%G.A.%coreGivesNoEmail%1,     Qiu%M.%coreGivesNoEmail%1,     Richardson%S.%coreGivesNoEmail%1,     Zanos%T.P.%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,      Viet-Thi%Tran%NULL%4,      Viet-Thi%Tran%NULL%0,      Mathilde%Roumier%NULL%2,      Amélie%Chabrol%NULL%2,      Romain%Paule%NULL%2,      Constance%Guillaud%NULL%2,      Elena%Fois%NULL%2,      Raphael%Lepeule%NULL%2,      Tali-Anne%Szwebel%NULL%2,      François-Xavier%Lescure%NULL%2,      Frédéric%Schlemmer%NULL%2,      Marie%Matignon%NULL%2,      Mehdi%Khellaf%NULL%2,      Etienne%Crickx%NULL%2,      Benjamin%Terrier%NULL%2,      Caroline%Morbieu%NULL%2,      Paul%Legendre%NULL%2,      Julien%Dang%NULL%2,      Yoland%Schoindre%NULL%2,      Jean-Michel%Pawlotsky%NULL%2,      Marc%Michel%NULL%2,      Elodie%Perrodeau%NULL%2,      Nicolas%Carlier%NULL%2,      Nicolas%Roche%NULL%2,      Victoire%de Lastours%NULL%2,      Clément%Ourghanlian%NULL%2,      Solen%Kerneis%NULL%2,      Philippe%Ménager%NULL%2,      Luc%Mouthon%NULL%2,      Etienne%Audureau%NULL%2,      Philippe%Ravaud%NULL%2,      Bertrand%Godeau%NULL%2,      Sébastien%Gallien%NULL%2,      Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,    Yu%Zuo%NULL%1,    Srilakshmi%Yalavarthi%NULL%1,    Kelsey%Gockman%NULL%1,    Melanie%Zuo%NULL%1,    Jacqueline A%Madison%NULL%1,    Christopher%Blair%NULL%1,    Wrenn%Woodward%NULL%1,    Sean P%Lezak%NULL%1,    Njira L%Lugogo%NULL%1,    Robert J%Woods%NULL%1,    Christian%Lood%NULL%1,    Jason S%Knight%NULL%2,    Jason S%Knight%NULL%0,    Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,      Raef A.%Fadel%NULL%1,      Kelly M.%Malette%NULL%1,      Charles%Hammond%NULL%1,      Hafsa%Abdulla%NULL%1,      Abigail%Entz%NULL%1,      Zachary%Demertzis%NULL%1,      Zachary%Hanna%NULL%1,      Andrew%Failla%NULL%1,      Carina%Dagher%NULL%1,      Zohra%Chaudhry%NULL%2,      Amit%Vahia%NULL%2,      Odaliz%Abreu Lanfranco%NULL%1,      Mayur%Ramesh%NULL%1,      Marcus J.%Zervos%NULL%0,      George%Alangaden%NULL%2,      Joseph%Miller%NULL%2,      Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,        J.% Jiang%null%1,        X.% Xu%null%1,        Y.% Hu%null%2,        Y.% Hu%null%0,        Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,       Chenchen%Qian%NULL%1,       Zhibing%Luo%NULL%1,       Qiang%Li%liqressh@hotmail.com%0,       Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,       Chunlin%Cai%NULL%1,       Jinglei%Zang%NULL%1,       Jun%Xie%NULL%1,       Dan%Xu%NULL%0,       Fang%Zheng%NULL%1,       Tao%Zhan%NULL%1,       Kang%Huang%NULL%1,       Yikai%Wang%NULL%1,       Xiao%Wang%NULL%1,       Zhe-Yu%Hu%NULL%1,       Yapeng%Deng%NULL%1,       Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,       Naofumi%Bunya%NULL%1,       Tomoyuki%Endo%NULL%1,       Yuji%Fujino%NULL%1,       Kensuke%Fujita%NULL%1,       Kenji%Fujizuka%NULL%1,       Yoshihiro%Hagiwara%NULL%1,       Jun%Hamaguchi%NULL%1,       Yoshitaka%Hara%NULL%1,       Eiji%Hashiba%NULL%1,       Satoru%Hashimoto%NULL%1,       Noriyuki%Hattori%NULL%1,       Kota%Hoshino%NULL%1,       Shinichi%Ijuin%NULL%1,       Takanari%Ikeyama%NULL%1,       Shingo%Ichiba%NULL%1,       Wataru%Iwanaga%NULL%1,       Yoshiaki%Iwashita%NULL%1,       Masafumi%Kanamoto%NULL%1,       Hitoshi%Kaneko%NULL%1,       Kaneyuki%Kawamae%NULL%1,       Toru%Kotani%NULL%1,       Yasuaki%Koyama%NULL%1,       Keibun%Liu%NULL%1,       Tomohiko%Masuno%NULL%1,       Naoto%Morimura%NULL%1,       Tomoyuki%Nakamura%NULL%1,       Masaki%Nakane%NULL%1,       Michitaka%Nasu%NULL%1,       Osamu%Nishida%NULL%1,       Masaji%Nishimura%NULL%1,       Kanae%Ochiai%NULL%1,       Takayuki%Ogura%NULL%1,       Shinichiro%Ohshimo%NULL%1,       Keisuke%Oyama%NULL%1,       Junichi%Sasaki%NULL%1,       Ryutaro%Seo%NULL%1,       Takeshi%Shimazu%NULL%1,       Nobuaki%Shime%NULL%4,       Keiki%Shimizu%NULL%1,       Hiroyuki%Suzuki%NULL%1,       Shuhei%Takauji%NULL%1,       Shinhiro%Takeda%NULL%1,       Ichiro%Takeuchi%NULL%0,       Mumon%Takita%NULL%1,       Hayato%Taniguchi%NULL%1,       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,       Yi Xin%Tong%NULL%3,       Sheng%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,       Hong%Chen%NULL%1,       Zhen%Li%NULL%2,       Bo%Wang%NULL%0,       Zhong-Wei%Zhang%NULL%1,       Wei-Min%Li%NULL%1,       Zong-An%Liang%NULL%1,       Jin%Tang%NULL%1,       Jian%Wang%NULL%1,       Rui%Shi%NULL%1,       Xiao-Dong%Jin%NULL%1,       Yan%Kang%NULL%1,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,        S. F.% Mahmood%null%1,        K.% Habib%null%1,        I.% Khanum%null%1,        B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,       Chaisith%Sivakorn%NULL%1,       Tanuwong%Viarasilpa%NULL%1,       Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,       Mu%Qin%qinmuae@163.com%1,       Yuli%Cai%NULL%1,       Tao%Liu%NULL%1,       Bo%Shen%NULL%1,       Fan%Yang%NULL%0,       Sheng%Cao%NULL%1,       Xu%Liu%NULL%2,       Xu%Liu%NULL%0,       Yaozu%Xiang%NULL%1,       Qinyan%Zhao%NULL%1,       He%Huang%huanghe1977@whu.edu.cn%1,       Bo%Yang%yybb112@whu.edu.cn%0,       Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,       Win%Kulvichit%NULL%1,       Sunchai%Payungporn%NULL%1,       Trairak%Pisitkun%NULL%1,       Ariya%Chindamporn%NULL%1,       Sadudee%Peerapornratana%NULL%1,       Prapaporn%Pisitkun%NULL%1,       Suwalak%Chitcharoen%NULL%1,       Vorthon%Sawaswong%NULL%1,       Navaporn%Worasilchai%NULL%1,       Sarinya%Kampunya%NULL%1,       Opass%Putcharoen%NULL%1,       Thammasak%Thawitsri%NULL%1,       Nophol%Leelayuwatanakul%NULL%1,       Napplika%Kongpolprom%NULL%1,       Vorakamol%Phoophiboon%NULL%1,       Thitiwat%Sriprasart%NULL%1,       Rujipat%Samransamruajkit%NULL%1,       Somkanya%Tungsanga%NULL%1,       Kanitha%Tiankanon%NULL%1,       Nuttha%Lumlertgul%NULL%1,       Asada%Leelahavanichkul%NULL%1,       Tueboon%Sriphojanart%NULL%1,       Terapong%Tantawichien%NULL%1,       Usa%Thisyakorn%NULL%1,       Chintana%Chirathaworn%NULL%1,       Kearkiat%Praditpornsilpa%NULL%1,       Kriang%Tungsanga%NULL%1,       Somchai%Eiam-Ong%NULL%1,       Visith%Sitprija%NULL%1,       John A.%Kellum%NULL%1,       Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,       Min%Pan%NULL%0,       Xiumei%Zhang%NULL%0,       Mingfeng%Han%fyhmf@163.com%0,       Xiaoyun%Fan%13956988552@126.com%0,       Fengde%Zhao%NULL%0,       Manli%Miao%NULL%0,       Jing%Xu%NULL%0,       Minglong%Guan%NULL%0,       Xia%Deng%NULL%0,       Xu%Chen%NULL%0,       Leilei%Shen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,       Chunli%Tang%NULL%1,       Ruchong%Chen%NULL%1,       Honglian%Ruan%NULL%1,       Wenhua%Liang%NULL%1,       Weijie%Guan%NULL%1,       Ling%Sang%NULL%0,       Ruidi%Tang%NULL%1,       Nanshan%Zhong%NULL%2,       Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,       Shanyan%Zhang%NULL%0,       Xiaoli%Zhang%NULL%1,       Huan%Cai%NULL%0,       Jueqing%Gu%NULL%0,       Jiangshan%Lian%NULL%0,       Yingfeng%Lu%NULL%0,       Hongyu%Jia%NULL%0,       Jianhua%Hu%NULL%0,       Ciliang%Jin%NULL%0,       Guodong%Yu%NULL%0,       Yimin%Zhang%NULL%0,       Jifang%Sheng%NULL%0,       Yida%Yang%yidayang65@zju.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,       Dan%Xu%NULL%0,       Shouzhi%Fu%NULL%0,       Jun%Zhang%NULL%1,       Xiaobo%Yang%NULL%0,       Liang%Xu%NULL%1,       Jiqian%Xu%NULL%0,       Yongran%Wu%NULL%0,       Chaolin%Huang%NULL%1,       Yaqi%Ouyang%NULL%0,       Luyu%Yang%NULL%0,       Minghao%Fang%NULL%0,       Hongwen%Xiao%NULL%1,       Jing%Ma%NULL%0,       Wei%Zhu%NULL%1,       Song%Hu%NULL%1,       Quan%Hu%NULL%1,       Daoyin%Ding%NULL%1,       Ming%Hu%NULL%0,       Guochao%Zhu%NULL%1,       Weijiang%Xu%NULL%1,       Jun%Guo%NULL%1,       Jinglong%Xu%NULL%1,       Haitao%Yuan%NULL%1,       Bin%Zhang%NULL%2,       Zhui%Yu%yuzhui@whu.edu.cn%0,       Dechang%Chen%icudechangchen@163.com%1,       Shiying%Yuan%yuan_shiying@163.com%0,       You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,       Hao-Yu%Gao%NULL%1,       Zi-Yi%Feng%NULL%1,       Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,       Li-jun%Sun%NULL%1,       Mi%Xu%NULL%1,       Jian%Pan%NULL%1,       Yun-tao%Zhang%NULL%1,       Xue-ling%Fang%NULL%1,       Qiang%Fang%NULL%2,       Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,       Ziqiang%Du%NULL%1,       Yanfang%Zhu%NULL%1,       Wenfeng%Li%NULL%1,       Hongjun%Miao%NULL%1,       Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,       Sarah%Al-Youha%sarahalyouha@gmail.com%1,       Mohammad H.%Jamal%NULL%1,       Mohannad%Al-Haddad%NULL%1,       Ali%Al-Muhaini%NULL%1,       Fahad%Al-Ghimlas%NULL%1,       Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,       Mina%Akbari Rad%NULL%1,       Robert%Bergquist%NULL%1,       Abolghasem%Allahyari%NULL%1,       Kamila%Hashemzadeh%NULL%1,       Nasrin%Milani%NULL%1,       Mahdi%Gholian-Aval%NULL%1,       Fariba%Rezaeitalab%NULL%1,       Mohammad Jafar%Sadeghi Quchani%NULL%1,       Zahra%Nahbandani%NULL%1,       Mandana%Khodashahi%NULL%1,       Zahra%Javid%NULL%1,       Mahnaz%Mozdourian%NULL%1,       Mohammad Ali%Yaghoubi%NULL%1,       Zahra%Mozaheb%NULL%1,       Mohsen%Seddigh-Shamsi%NULL%1,       Mohammad%Moeini Nodeh%NULL%1,       Shima%Nabavi%NULL%1,       Hooman%Mosannen Mozaffari%NULL%1,       Mohammadreza%Farzanehfar%NULL%1,       Zahra%Lotfi%NULL%0,       Alireza%Shariati%NULL%1,       Shekoofe%Bonakdaran%NULL%1,       Zahra%Rezaieyazdi%NULL%1,       Zahra%Mirfeizi%NULL%1,       Maryam%Miri%NULL%1,       Reza%Bassiri%NULL%1,       Sajjad%Ataei Azimi%NULL%1,       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,       Ibrahim%Al-Zakwani%NULL%1,       Hamed%Al Naamani%NULL%1,       Sultan%Al Lawati%NULL%1,       Nenad%Pandak%NULL%1,       Muna Ba%Omar%NULL%1,       Maher%Al Bahrani%NULL%1,       Zakaryia AL%Bulushi%NULL%1,       Huda%Al Khalili%NULL%1,       Issa%Al Salmi%NULL%1,       Ruwaida%Al Ismaili%NULL%1,       Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,       Zohre%Khodamoradi%NULL%1,       Amirhossein%Erfani%NULL%1,       Hamidreza%Hosseinpour%NULL%1,       Keivan%Ranjbar%NULL%1,       Yasaman%Emami%NULL%1,       Alireza%Mirahmadizadeh%NULL%1,       Mehrzad%Lotfi%NULL%1,       Babak%Shirazi Yeganeh%NULL%1,       Abolfazl%Dorrani Nejad%NULL%1,       Abdolrasool%Hemmati%NULL%1,       Mostafa%Ebrahimi%NULL%1,       Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,       Annachiara%Ferrari%NULL%2,       Annachiara%Ferrari%NULL%0,       Francesco%Fontana%NULL%1,       Giacomo%Mori%NULL%1,       Riccardo%Magistroni%NULL%1,       Marianna%Meschiari%NULL%1,       Erica%Franceschini%NULL%1,       Marianna%Menozzi%NULL%1,       Gianluca%Cuomo%NULL%1,       Gabriella%Orlando%NULL%1,       Antonella%Santoro%NULL%1,       Margherita%Digaetano%NULL%1,       Cinzia%Puzzolante%NULL%1,       Federica%Carli%NULL%1,       Andrea%Bedini%NULL%1,       Jovana%Milic%NULL%1,       Irene%Coloretti%NULL%1,       Paolo%Raggi%NULL%1,       Cristina%Mussini%NULL%1,       Massimo%Girardis%NULL%1,       Gianni%Cappelli%NULL%1,       Giovanni%Guaraldi%NULL%1,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,       Silvia%Bettini%NULL%2,       Silvia%Bettini%NULL%0,       Roberto%Fabris%NULL%1,       Roberto%Serra%NULL%2,       Chiara%Dal Pra%NULL%1,       Pietro%Maffei%NULL%1,       Marco%Rossato%NULL%1,       Paola%Fioretto%NULL%1,       Roberto%Vettor%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,       Marco%Roncador%NULL%2,       Marco%Roncador%NULL%0,       Andrea%Saporito%NULL%1,       Maira%Biggiogero%NULL%1,       Andrea%Glotta%NULL%1,       Pier Andrea%Maida%NULL%1,       Patrizia%Urso%NULL%1,       Giovanni%Bona%NULL%1,       Christian%Garzoni%NULL%1,       Romano%Mauri%NULL%1,       Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,       Anna Lisa%Ridolfo%NULL%4,       Laura%Milazzo%NULL%2,       Letizia%Oreni%NULL%4,       Dario%Bernacchia%NULL%4,       Matteo%Siano%NULL%4,       Cecilia%Bonazzetti%NULL%2,       Alice%Covizzi%NULL%2,       Marco%Schiuma%NULL%2,       Matteo%Passerini%NULL%2,       Marco%Piscaglia%NULL%2,       Massimo%Coen%NULL%2,       Guido%Gubertini%NULL%2,       Giuliano%Rizzardini%NULL%4,       Chiara%Cogliati%NULL%2,       Anna Maria%Brambilla%NULL%2,       Riccardo%Colombo%NULL%2,       Antonio%Castelli%NULL%2,       Roberto%Rech%NULL%2,       Agostino%Riva%NULL%2,       Alessandro%Torre%NULL%2,       Luca%Meroni%NULL%2,       Stefano%Rusconi%NULL%4,       Spinello%Antinori%NULL%4,       Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%1,      Castelli%Antonio%coreGivesNoEmail%1,      Cecconi%Maurizio%coreGivesNoEmail%1,      Cereda%Danilo%coreGivesNoEmail%1,      Coluccello%Antonio%coreGivesNoEmail%1,      Foti%Giuseppe%coreGivesNoEmail%1,      Fumagalli%Roberto%coreGivesNoEmail%1,      Grasselli%Giacomo%coreGivesNoEmail%1,      Iotti%Giorgio%coreGivesNoEmail%1,      Latronico%Nicola%coreGivesNoEmail%1,      Lorini%Luca%coreGivesNoEmail%1,      Merler%Stefano%coreGivesNoEmail%1,      Natalini%Giuseppe%coreGivesNoEmail%1,      Pesenti%Antonio%coreGivesNoEmail%1,      Piatti%Alessandra%coreGivesNoEmail%1,      Ranieri%Marco Vito%coreGivesNoEmail%1,      Scandroglio%Anna Mara%coreGivesNoEmail%1,      Storti%Enrico%coreGivesNoEmail%1,      Zanella%Alberto%coreGivesNoEmail%1,      Zangrillo%Alberto%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,       Lara%Gianesello%gianesello.lara@libero.it%1,       Maddalena%Pazzi%NULL%2,       Maddalena%Pazzi%NULL%0,       Caterina%Stera%NULL%1,       Tommaso%Meconi%NULL%1,       Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,       Andrea%Dalbeni%NULL%2,       Andrea%Dalbeni%NULL%0,       Elia%Vettore%NULL%2,       Elia%Vettore%NULL%0,       Devis%Benfaremo%NULL%1,       Massimo%Mattioli%NULL%1,       Carmine G.%Gambino%NULL%1,       Viviana%Framba%NULL%2,       Viviana%Framba%NULL%0,       Lorenzo%Cerruti%NULL%1,       Anna%Mantovani%NULL%1,       Andrea%Martini%NULL%1,       Michele M.%Luchetti%NULL%1,       Roberto%Serra%NULL%0,       Annamaria%Cattelan%NULL%1,       Roberto%Vettor%NULL%0,       Paolo%Angeli%NULL%1,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,       Matthaios%Papadimitriou-Olivgeris%NULL%2,       Matthaios%Papadimitriou-Olivgeris%NULL%0,       Raphaël%Burger%NULL%1,       Marie-Annick%Le Pogam%NULL%1,       Tapio%Niemi%NULL%2,       Tapio%Niemi%NULL%0,       Paraskevas%Filippidis%NULL%1,       Jonathan%Tschopp%NULL%1,       Florian%Desgranges%NULL%1,       Benjamin%Viala%NULL%1,       Eleftheria%Kampouri%NULL%1,       Laurence%Rochat%NULL%2,       Laurence%Rochat%NULL%0,       David%Haefliger%NULL%1,       Mehdi%Belkoniene%NULL%1,       Carlos%Fidalgo%NULL%1,       Antonios%Kritikos%NULL%1,       Katia%Jaton%NULL%1,       Laurence%Senn%NULL%1,       Pierre-Alexandre%Bart%NULL%1,       Jean-Luc%Pagani%NULL%2,       Jean-Luc%Pagani%NULL%0,       Oriol%Manuel%NULL%1,       Loïc%Lhopitallier%NULL%1,       Chiara%Lazzeri%NULL%0,       Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,       Ashwin%Subramaniam%NULL%2,       Ashwin%Subramaniam%NULL%0,       Mallikarjuna%Ponnapa Reddy%NULL%2,       Mallikarjuna%Ponnapa Reddy%NULL%0,       Gabriel%Blecher%NULL%1,       Umesh%Kadam%NULL%2,       Umesh%Kadam%NULL%0,       Afsana%Afroz%NULL%1,       Baki%Billah%NULL%1,       Sushma%Ashwin%NULL%1,       Mark%Kubicki%NULL%1,       Federico%Bilotta%NULL%1,       J. Randall%Curtis%NULL%2,       J. Randall%Curtis%NULL%0,       Francesca%Rubulotta%NULL%2,       Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,      Aggarwal%Saurabh%coreGivesNoEmail%2,      Garcia-Telles%Nelson%coreGivesNoEmail%2,      Henry%Brandon Michael%coreGivesNoEmail%2,      Lavie%Carl%coreGivesNoEmail%2,      Lippi%Giuseppe%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,       Samuel L%Bruce%NULL%0,       Cody L%Slater%NULL%0,       Jonathan R%Tiao%NULL%0,       Matthew R%Baldwin%NULL%0,       R Graham%Barr%NULL%0,       Bernard P%Chang%NULL%0,       Katherine H%Chau%NULL%0,       Justin J%Choi%NULL%0,       Nicholas%Gavin%NULL%0,       Parag%Goyal%NULL%0,       Angela M%Mills%NULL%0,       Ashmi A%Patel%NULL%0,       Marie-Laure S%Romney%NULL%0,       Monika M%Safford%NULL%0,       Neil W%Schluger%NULL%0,       Soumitra%Sengupta%NULL%0,       Magdalena E%Sobieszczyk%NULL%0,       Jason E%Zucker%NULL%0,       Paul A%Asadourian%NULL%0,       Fletcher M%Bell%NULL%0,       Rebekah%Boyd%NULL%0,       Matthew F%Cohen%NULL%0,       MacAlistair I%Colquhoun%NULL%0,       Lucy A%Colville%NULL%0,       Joseph H%de Jonge%NULL%0,       Lyle B%Dershowitz%NULL%0,       Shirin A%Dey%NULL%0,       Katherine A%Eiseman%NULL%0,       Zachary P%Girvin%NULL%0,       Daniella T%Goni%NULL%0,       Amro A%Harb%NULL%0,       Nicholas%Herzik%NULL%0,       Sarah%Householder%NULL%0,       Lara E%Karaaslan%NULL%0,       Heather%Lee%NULL%0,       Evan%Lieberman%NULL%0,       Andrew%Ling%NULL%0,       Ree%Lu%NULL%0,       Arthur Y%Shou%NULL%0,       Alexander C%Sisti%NULL%0,       Zachary E%Snow%NULL%0,       Colin P%Sperring%NULL%0,       Yuqing%Xiong%NULL%0,       Henry W%Zhou%NULL%0,       Karthik%Natarajan%NULL%0,       George%Hripcsak%NULL%0,       Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%0,       James M.%Blum%NULL%0,       Chad%Robichaux%NULL%0,       Colleen%Kraft%NULL%0,       Jesse T.%Jacob%NULL%0,       Craig S.%Jabaley%NULL%0,       David%Carpenter%NULL%0,       Roberta%Kaplow%NULL%0,       Alfonso C.%Hernandez-Romieu%NULL%0,       Max W.%Adelman%NULL%0,       Greg S.%Martin%NULL%0,       Craig M.%Coopersmith%NULL%0,       David J.%Murphy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%0,       Michelle%Nichols%NULL%0,       Richard%Kim%NULL%0,       Keith R.%Jerome%NULL%0,       Arun K.%Nalla%NULL%0,       Alexander L.%Greninger%NULL%0,       Sudhakar%Pipavath%NULL%0,       Mark M.%Wurfel%NULL%0,       Laura%Evans%NULL%0,       Patricia A.%Kritek%NULL%0,       T. Eoin%West%NULL%0,       Andrew%Luks%NULL%0,       Anthony%Gerbino%NULL%0,       Chris R.%Dale%NULL%0,       Jason D.%Goldman%NULL%0,       Shane%O’Mahony%NULL%0,       Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,       Denise J%McCulloch%NULL%2,       Denise J%McCulloch%NULL%0,       Vidya%Atluri%NULL%1,       Michela%Blain%NULL%1,       Sarah A%McGuffin%NULL%1,       Arun K%Nalla%NULL%1,       Meei-Li%Huang%NULL%1,       Alex L%Greninger%NULL%1,       Keith R%Jerome%NULL%1,       Seth A%Cohen%NULL%1,       Santiago%Neme%NULL%0,       Margaret L%Green%NULL%1,       Helen Y%Chu%NULL%1,       H Nina%Kim%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,       Joelle I.%Rosser%NULL%1,       Orlando%Quintero%NULL%1,       Jake%Scott%NULL%1,       Aruna%Subramanian%NULL%1,       Mohammad%Gumma%NULL%1,       Angela%Rogers%NULL%1,       Shanthi%Kappagoda%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,       Jacob%Fiksel%NULL%0,       Jacob%Fiksel%NULL%0,       John%Muschelli%NULL%0,       John%Muschelli%NULL%0,       Matthew L.%Robinson%NULL%0,       Matthew L.%Robinson%NULL%0,       Masoud%Rouhizadeh%NULL%0,       Masoud%Rouhizadeh%NULL%0,       Jamie%Perin%NULL%0,       Jamie%Perin%NULL%0,       Grant%Schumock%NULL%0,       Grant%Schumock%NULL%0,       Paul%Nagy%NULL%0,       Paul%Nagy%NULL%0,       Josh H.%Gray%NULL%0,       Josh H.%Gray%NULL%0,       Harsha%Malapati%NULL%0,       Harsha%Malapati%NULL%0,       Mariam%Ghobadi-Krueger%NULL%0,       Mariam%Ghobadi-Krueger%NULL%0,       Timothy M.%Niessen%NULL%0,       Bo Soo%Kim%NULL%0,       Peter M.%Hill%NULL%0,       M. Shafeeq%Ahmed%NULL%0,       Eric D.%Dobkin%NULL%0,       Renee%Blanding%NULL%0,       Jennifer%Abele%NULL%0,       Bonnie%Woods%NULL%0,       Kenneth%Harkness%NULL%0,       David R.%Thiemann%NULL%0,       Mary G.%Bowring%NULL%0,       Aalok B.%Shah%NULL%0,       Aalok B.%Shah%NULL%0,       Mei-Cheng%Wang%NULL%0,       Karen%Bandeen-Roche%NULL%0,       Antony%Rosen%NULL%0,       Scott L.%Zeger%NULL%0,       Scott L.%Zeger%NULL%0,       Amita%Gupta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,       Justin J.%Choi%NULL%2,       Laura C.%Pinheiro%NULL%2,       Edward J.%Schenck%NULL%2,       Ruijun%Chen%NULL%0,       Assem%Jabri%NULL%2,       Michael J.%Satlin%NULL%2,       Thomas R.%Campion%NULL%2,       Musarrat%Nahid%NULL%2,       Joanna B.%Ringel%NULL%2,       Katherine L.%Hoffman%NULL%2,       Mark N.%Alshak%NULL%2,       Han A.%Li%NULL%2,       Graham T.%Wehmeyer%NULL%4,       Graham T.%Wehmeyer%NULL%0,       Mangala%Rajan%NULL%2,       Evgeniya%Reshetnyak%NULL%2,       Nathaniel%Hupert%NULL%2,       Evelyn M.%Horn%NULL%2,       Fernando J.%Martinez%NULL%2,       Roy M.%Gulick%NULL%2,       Monika M.%Safford%NULL%4,       Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,       Simon A%Jones%NULL%0,       Jie%Yang%NULL%0,       Harish%Rajagopalan%NULL%0,       Luke%O’Donnell%NULL%0,       Yelena%Chernyak%NULL%0,       Katie A%Tobin%NULL%0,       Robert J%Cerfolio%NULL%0,       Fritz%Francois%NULL%0,       Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,       Anatoly%Mitrokhin%NULL%2,       Anatoly%Mitrokhin%NULL%0,       Ajai%Rajabalan%NULL%1,       Christian%Benjamin%NULL%1,       Sushma%Raviralla%NULL%1,       Vishnu R%Mani%vishnu.mani@duke.edu%2,       Vishnu R%Mani%vishnu.mani@duke.edu%0,       Aleksandr%Kalabin%NULL%2,       Aleksandr%Kalabin%NULL%0,       Sebastian C%Valdivieso%NULL%2,       Sebastian C%Valdivieso%NULL%0,       Max%Murray-Ramcharan%NULL%2,       Max%Murray-Ramcharan%NULL%0,       Brian%Donaldson%NULL%2,       Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,        Nicholas A.%Fergusson%null%1,        Elisa%Lloyd-Smith%null%1,        Andrew%Wormsbecker%null%1,        Denise%Foster%null%1,        Andrei%Karpov%null%1,        Sarah%Crowe%null%1,        Greg%Haljan%null%1,        Dean R.%Chittock%null%1,        Hussein D.%Kanji%null%1,        Mypinder S.%Sekhon%null%1,        Donald E.G.%Griesdale%null%1,      Anish R.%Mitra%null%2,      Nicholas A.%Fergusson%null%2,      Elisa%Lloyd-Smith%null%2,      Andrew%Wormsbecker%null%2,      Denise%Foster%null%2,      Andrei%Karpov%null%2,      Sarah%Crowe%null%2,      Greg%Haljan%null%2,      Dean R.%Chittock%null%2,      Hussein D.%Kanji%null%2,      Mypinder S.%Sekhon%null%2,      Donald E.G.%Griesdale%null%2]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,       Damianos G.%Kokkinidis%NULL%1,       Weijia%Li%NULL%1,       Dimitrios%Karamanis%NULL%1,       Jennifer%Ognibene%NULL%1,       Shitij%Arora%NULL%1,       William N.%Southern%NULL%1,       Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,       Jesus D.%Gonzalez-Lugo%NULL%1,       Shafia%Rahman%NULL%1,       Mohammad%Barouqa%NULL%1,       James%Szymanski%NULL%1,       Kenji%Ikemura%NULL%1,       Yungtai%Lo%NULL%1,       Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%1,      Chelico%J.D.%coreGivesNoEmail%1,      Cohen%S.L.%coreGivesNoEmail%1,      Cookingham%J.%coreGivesNoEmail%1,      Coppa%K.%coreGivesNoEmail%1,      Crawford%J.M.%coreGivesNoEmail%1,      Davidson%K.W.%coreGivesNoEmail%1,      Diefenbach%M.A.%coreGivesNoEmail%1,      Dominello%A.J.%coreGivesNoEmail%1,      Duer-Hefele%J.%coreGivesNoEmail%1,      Falzon%L.%coreGivesNoEmail%1,      Gitlin%J.%coreGivesNoEmail%1,      Hajizadeh%N.%coreGivesNoEmail%1,      Harvin%T.G.%coreGivesNoEmail%1,      Hirsch%J.S.%coreGivesNoEmail%1,      Hirschwerk%D.A.%coreGivesNoEmail%1,      Kim%E.J.%coreGivesNoEmail%1,      Kozel%Z.M.%coreGivesNoEmail%1,      Marrast%L.M.%coreGivesNoEmail%1,      McGinn%T.%coreGivesNoEmail%1,      Mogavero%J.N.%coreGivesNoEmail%1,      Narasimhan%M.%coreGivesNoEmail%1,      Osorio%G.A.%coreGivesNoEmail%1,      Qiu%M.%coreGivesNoEmail%1,      Richardson%S.%coreGivesNoEmail%1,      Zanos%T.P.%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,       Viet-Thi%Tran%NULL%4,       Viet-Thi%Tran%NULL%0,       Mathilde%Roumier%NULL%2,       Amélie%Chabrol%NULL%2,       Romain%Paule%NULL%2,       Constance%Guillaud%NULL%2,       Elena%Fois%NULL%2,       Raphael%Lepeule%NULL%2,       Tali-Anne%Szwebel%NULL%2,       François-Xavier%Lescure%NULL%2,       Frédéric%Schlemmer%NULL%2,       Marie%Matignon%NULL%2,       Mehdi%Khellaf%NULL%2,       Etienne%Crickx%NULL%2,       Benjamin%Terrier%NULL%2,       Caroline%Morbieu%NULL%2,       Paul%Legendre%NULL%2,       Julien%Dang%NULL%2,       Yoland%Schoindre%NULL%2,       Jean-Michel%Pawlotsky%NULL%2,       Marc%Michel%NULL%2,       Elodie%Perrodeau%NULL%2,       Nicolas%Carlier%NULL%2,       Nicolas%Roche%NULL%2,       Victoire%de Lastours%NULL%2,       Clément%Ourghanlian%NULL%2,       Solen%Kerneis%NULL%2,       Philippe%Ménager%NULL%2,       Luc%Mouthon%NULL%2,       Etienne%Audureau%NULL%2,       Philippe%Ravaud%NULL%2,       Bertrand%Godeau%NULL%2,       Sébastien%Gallien%NULL%2,       Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,     Yu%Zuo%NULL%1,     Srilakshmi%Yalavarthi%NULL%1,     Kelsey%Gockman%NULL%1,     Melanie%Zuo%NULL%1,     Jacqueline A%Madison%NULL%1,     Christopher%Blair%NULL%1,     Wrenn%Woodward%NULL%1,     Sean P%Lezak%NULL%1,     Njira L%Lugogo%NULL%1,     Robert J%Woods%NULL%1,     Christian%Lood%NULL%1,     Jason S%Knight%NULL%2,     Jason S%Knight%NULL%0,     Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,       Raef A.%Fadel%NULL%1,       Kelly M.%Malette%NULL%1,       Charles%Hammond%NULL%1,       Hafsa%Abdulla%NULL%1,       Abigail%Entz%NULL%1,       Zachary%Demertzis%NULL%1,       Zachary%Hanna%NULL%1,       Andrew%Failla%NULL%1,       Carina%Dagher%NULL%1,       Zohra%Chaudhry%NULL%2,       Amit%Vahia%NULL%2,       Odaliz%Abreu Lanfranco%NULL%1,       Mayur%Ramesh%NULL%1,       Marcus J.%Zervos%NULL%0,       George%Alangaden%NULL%2,       Joseph%Miller%NULL%2,       Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,         J.% Jiang%null%1,         X.% Xu%null%1,         Y.% Hu%null%2,         Y.% Hu%null%0,         Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,        Chenchen%Qian%NULL%1,        Zhibing%Luo%NULL%1,        Qiang%Li%liqressh@hotmail.com%0,        Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,        Chunlin%Cai%NULL%1,        Jinglei%Zang%NULL%1,        Jun%Xie%NULL%1,        Dan%Xu%NULL%0,        Fang%Zheng%NULL%0,        Tao%Zhan%NULL%1,        Kang%Huang%NULL%1,        Yikai%Wang%NULL%1,        Xiao%Wang%NULL%1,        Zhe-Yu%Hu%NULL%1,        Yapeng%Deng%NULL%1,        Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,        Naofumi%Bunya%NULL%1,        Tomoyuki%Endo%NULL%1,        Yuji%Fujino%NULL%1,        Kensuke%Fujita%NULL%1,        Kenji%Fujizuka%NULL%1,        Yoshihiro%Hagiwara%NULL%1,        Jun%Hamaguchi%NULL%1,        Yoshitaka%Hara%NULL%1,        Eiji%Hashiba%NULL%1,        Satoru%Hashimoto%NULL%1,        Noriyuki%Hattori%NULL%1,        Kota%Hoshino%NULL%1,        Shinichi%Ijuin%NULL%1,        Takanari%Ikeyama%NULL%1,        Shingo%Ichiba%NULL%1,        Wataru%Iwanaga%NULL%1,        Yoshiaki%Iwashita%NULL%1,        Masafumi%Kanamoto%NULL%1,        Hitoshi%Kaneko%NULL%1,        Kaneyuki%Kawamae%NULL%1,        Toru%Kotani%NULL%1,        Yasuaki%Koyama%NULL%1,        Keibun%Liu%NULL%1,        Tomohiko%Masuno%NULL%1,        Naoto%Morimura%NULL%1,        Tomoyuki%Nakamura%NULL%1,        Masaki%Nakane%NULL%1,        Michitaka%Nasu%NULL%1,        Osamu%Nishida%NULL%1,        Masaji%Nishimura%NULL%1,        Kanae%Ochiai%NULL%1,        Takayuki%Ogura%NULL%1,        Shinichiro%Ohshimo%NULL%1,        Keisuke%Oyama%NULL%1,        Junichi%Sasaki%NULL%1,        Ryutaro%Seo%NULL%1,        Takeshi%Shimazu%NULL%1,        Nobuaki%Shime%NULL%4,        Keiki%Shimizu%NULL%1,        Hiroyuki%Suzuki%NULL%1,        Shuhei%Takauji%NULL%1,        Shinhiro%Takeda%NULL%1,        Ichiro%Takeuchi%NULL%2,        Mumon%Takita%NULL%1,        Hayato%Taniguchi%NULL%1,        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,        Yi Xin%Tong%NULL%3,        Sheng%Zhang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,        Hong%Chen%NULL%0,        Zhen%Li%NULL%2,        Bo%Wang%NULL%0,        Zhong-Wei%Zhang%NULL%1,        Wei-Min%Li%NULL%0,        Zong-An%Liang%NULL%0,        Jin%Tang%NULL%1,        Jian%Wang%NULL%1,        Rui%Shi%NULL%1,        Xiao-Dong%Jin%NULL%1,        Yan%Kang%NULL%0,        Pei-Fang%Wei%NULL%8,        Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,         S. F.% Mahmood%null%1,         K.% Habib%null%1,         I.% Khanum%null%1,         B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,        Chaisith%Sivakorn%NULL%1,        Tanuwong%Viarasilpa%NULL%1,        Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,        Mu%Qin%qinmuae@163.com%1,        Yuli%Cai%NULL%1,        Tao%Liu%NULL%0,        Bo%Shen%NULL%1,        Fan%Yang%NULL%2,        Sheng%Cao%NULL%1,        Xu%Liu%NULL%2,        Xu%Liu%NULL%0,        Yaozu%Xiang%NULL%1,        Qinyan%Zhao%NULL%1,        He%Huang%huanghe1977@whu.edu.cn%0,        Bo%Yang%yybb112@whu.edu.cn%0,        Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,        Win%Kulvichit%NULL%1,        Sunchai%Payungporn%NULL%1,        Trairak%Pisitkun%NULL%1,        Ariya%Chindamporn%NULL%1,        Sadudee%Peerapornratana%NULL%1,        Prapaporn%Pisitkun%NULL%1,        Suwalak%Chitcharoen%NULL%1,        Vorthon%Sawaswong%NULL%1,        Navaporn%Worasilchai%NULL%1,        Sarinya%Kampunya%NULL%1,        Opass%Putcharoen%NULL%1,        Thammasak%Thawitsri%NULL%1,        Nophol%Leelayuwatanakul%NULL%1,        Napplika%Kongpolprom%NULL%1,        Vorakamol%Phoophiboon%NULL%1,        Thitiwat%Sriprasart%NULL%1,        Rujipat%Samransamruajkit%NULL%1,        Somkanya%Tungsanga%NULL%1,        Kanitha%Tiankanon%NULL%1,        Nuttha%Lumlertgul%NULL%1,        Asada%Leelahavanichkul%NULL%1,        Tueboon%Sriphojanart%NULL%1,        Terapong%Tantawichien%NULL%1,        Usa%Thisyakorn%NULL%1,        Chintana%Chirathaworn%NULL%1,        Kearkiat%Praditpornsilpa%NULL%1,        Kriang%Tungsanga%NULL%1,        Somchai%Eiam-Ong%NULL%1,        Visith%Sitprija%NULL%1,        John A.%Kellum%NULL%1,        Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,        Min%Pan%NULL%3,        Xiumei%Zhang%NULL%3,        Mingfeng%Han%fyhmf@163.com%0,        Xiaoyun%Fan%13956988552@126.com%3,        Fengde%Zhao%NULL%3,        Manli%Miao%NULL%3,        Jing%Xu%NULL%0,        Minglong%Guan%NULL%3,        Xia%Deng%NULL%3,        Xu%Chen%NULL%4,        Leilei%Shen%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%5,        Chunli%Tang%NULL%0,        Ruchong%Chen%NULL%1,        Honglian%Ruan%NULL%1,        Wenhua%Liang%NULL%0,        Weijie%Guan%NULL%0,        Ling%Sang%NULL%0,        Ruidi%Tang%NULL%1,        Nanshan%Zhong%NULL%0,        Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
     <t>"Extracorporeal Membrane Oxygenation for Coronavirus Disease 2019-Induced Acute Respiratory Distress Syndrome: A Multicenter Descriptive Study*"</t>
   </si>
   <si>
-    <t>[Xiao%Yang%xref no email%1, Shuhan%Cai%xref no email%1, Yun%Luo%xref no email%1, Fangfang%Zhu%xref no email%1, Ming%Hu%xref no email%1, Yan%Zhao%xref no email%1, Ruiqiang%Zheng%xref no email%1, Xuyan%Li%xref no email%1, Bo%Hu%xref no email%0, Zhiyong%Peng%xref no email%1]</t>
-  </si>
-  <si>
     <t>CROSSREF</t>
   </si>
   <si>
     <t>2023-05-24</t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%5,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%5,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%5,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%5,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%5,        Shangwen%Pan%NULL%5,        Xiaojing%Zou%NULL%7,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,        Shanyan%Zhang%NULL%2,        Xiaoli%Zhang%NULL%1,        Huan%Cai%NULL%2,        Jueqing%Gu%NULL%2,        Jiangshan%Lian%NULL%2,        Yingfeng%Lu%NULL%2,        Hongyu%Jia%NULL%2,        Jianhua%Hu%NULL%2,        Ciliang%Jin%NULL%2,        Guodong%Yu%NULL%2,        Yimin%Zhang%NULL%2,        Jifang%Sheng%NULL%4,        Yida%Yang%yidayang65@zju.edu.cn%2]</t>
-  </si>
-  <si>
     <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
   </si>
   <si>
-    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
-  </si>
-  <si>
     <t>2023-05-26</t>
   </si>
   <si>
-    <t>[Yuan%Yu%NULL%0,        Dan%Xu%NULL%0,        Shouzhi%Fu%NULL%0,        Jun%Zhang%NULL%0,        Xiaobo%Yang%NULL%0,        Liang%Xu%NULL%0,        Jiqian%Xu%NULL%0,        Yongran%Wu%NULL%0,        Chaolin%Huang%NULL%0,        Yaqi%Ouyang%NULL%0,        Luyu%Yang%NULL%0,        Minghao%Fang%NULL%0,        Hongwen%Xiao%NULL%0,        Jing%Ma%NULL%0,        Wei%Zhu%NULL%0,        Song%Hu%NULL%0,        Quan%Hu%NULL%0,        Daoyin%Ding%NULL%0,        Ming%Hu%NULL%0,        Guochao%Zhu%NULL%0,        Weijiang%Xu%NULL%0,        Jun%Guo%NULL%0,        Jinglong%Xu%NULL%0,        Haitao%Yuan%NULL%0,        Bin%Zhang%NULL%0,        Zhui%Yu%yuzhui@whu.edu.cn%0,        Dechang%Chen%icudechangchen@163.com%0,        Shiying%Yuan%yuan_shiying@163.com%0,        You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,        Hao-Yu%Gao%NULL%1,        Zi-Yi%Feng%NULL%1,        Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,        Li-jun%Sun%NULL%1,        Mi%Xu%NULL%1,        Jian%Pan%NULL%1,        Yun-tao%Zhang%NULL%1,        Xue-ling%Fang%NULL%1,        Qiang%Fang%NULL%2,        Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,        Ziqiang%Du%NULL%1,        Yanfang%Zhu%NULL%1,        Wenfeng%Li%NULL%1,        Hongjun%Miao%NULL%1,        Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,        Sarah%Al-Youha%sarahalyouha@gmail.com%1,        Mohammad H.%Jamal%NULL%1,        Mohannad%Al-Haddad%NULL%1,        Ali%Al-Muhaini%NULL%1,        Fahad%Al-Ghimlas%NULL%1,        Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,        Mina%Akbari Rad%NULL%1,        Robert%Bergquist%NULL%1,        Abolghasem%Allahyari%NULL%1,        Kamila%Hashemzadeh%NULL%1,        Nasrin%Milani%NULL%1,        Mahdi%Gholian-Aval%NULL%1,        Fariba%Rezaeitalab%NULL%1,        Mohammad Jafar%Sadeghi Quchani%NULL%1,        Zahra%Nahbandani%NULL%1,        Mandana%Khodashahi%NULL%1,        Zahra%Javid%NULL%1,        Mahnaz%Mozdourian%NULL%1,        Mohammad Ali%Yaghoubi%NULL%1,        Zahra%Mozaheb%NULL%1,        Mohsen%Seddigh-Shamsi%NULL%1,        Mohammad%Moeini Nodeh%NULL%1,        Shima%Nabavi%NULL%1,        Hooman%Mosannen Mozaffari%NULL%1,        Mohammadreza%Farzanehfar%NULL%1,        Zahra%Lotfi%NULL%1,        Alireza%Shariati%NULL%1,        Shekoofe%Bonakdaran%NULL%1,        Zahra%Rezaieyazdi%NULL%1,        Zahra%Mirfeizi%NULL%1,        Maryam%Miri%NULL%1,        Reza%Bassiri%NULL%1,        Sajjad%Ataei Azimi%NULL%1,        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,        Ibrahim%Al-Zakwani%NULL%1,        Hamed%Al Naamani%NULL%1,        Sultan%Al Lawati%NULL%1,        Nenad%Pandak%NULL%1,        Muna Ba%Omar%NULL%1,        Maher%Al Bahrani%NULL%1,        Zakaryia AL%Bulushi%NULL%1,        Huda%Al Khalili%NULL%1,        Issa%Al Salmi%NULL%1,        Ruwaida%Al Ismaili%NULL%1,        Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,        Zohre%Khodamoradi%NULL%1,        Amirhossein%Erfani%NULL%1,        Hamidreza%Hosseinpour%NULL%1,        Keivan%Ranjbar%NULL%1,        Yasaman%Emami%NULL%1,        Alireza%Mirahmadizadeh%NULL%1,        Mehrzad%Lotfi%NULL%1,        Babak%Shirazi Yeganeh%NULL%1,        Abolfazl%Dorrani Nejad%NULL%1,        Abdolrasool%Hemmati%NULL%1,        Mostafa%Ebrahimi%NULL%1,        Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,        Annachiara%Ferrari%NULL%2,        Annachiara%Ferrari%NULL%0,        Francesco%Fontana%NULL%1,        Giacomo%Mori%NULL%1,        Riccardo%Magistroni%NULL%1,        Marianna%Meschiari%NULL%1,        Erica%Franceschini%NULL%1,        Marianna%Menozzi%NULL%1,        Gianluca%Cuomo%NULL%1,        Gabriella%Orlando%NULL%1,        Antonella%Santoro%NULL%1,        Margherita%Digaetano%NULL%1,        Cinzia%Puzzolante%NULL%1,        Federica%Carli%NULL%1,        Andrea%Bedini%NULL%1,        Jovana%Milic%NULL%1,        Irene%Coloretti%NULL%1,        Paolo%Raggi%NULL%1,        Cristina%Mussini%NULL%1,        Massimo%Girardis%NULL%1,        Gianni%Cappelli%NULL%1,        Giovanni%Guaraldi%NULL%1,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,        Silvia%Bettini%NULL%2,        Silvia%Bettini%NULL%0,        Roberto%Fabris%NULL%1,        Roberto%Serra%NULL%2,        Chiara%Dal Pra%NULL%1,        Pietro%Maffei%NULL%1,        Marco%Rossato%NULL%1,        Paola%Fioretto%NULL%0,        Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,        Marco%Roncador%NULL%2,        Marco%Roncador%NULL%0,        Andrea%Saporito%NULL%1,        Maira%Biggiogero%NULL%1,        Andrea%Glotta%NULL%1,        Pier Andrea%Maida%NULL%1,        Patrizia%Urso%NULL%1,        Giovanni%Bona%NULL%1,        Christian%Garzoni%NULL%1,        Romano%Mauri%NULL%1,        Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,        Anna Lisa%Ridolfo%NULL%4,        Laura%Milazzo%NULL%2,        Letizia%Oreni%NULL%4,        Dario%Bernacchia%NULL%4,        Matteo%Siano%NULL%4,        Cecilia%Bonazzetti%NULL%2,        Alice%Covizzi%NULL%2,        Marco%Schiuma%NULL%2,        Matteo%Passerini%NULL%2,        Marco%Piscaglia%NULL%2,        Massimo%Coen%NULL%2,        Guido%Gubertini%NULL%2,        Giuliano%Rizzardini%NULL%4,        Chiara%Cogliati%NULL%2,        Anna Maria%Brambilla%NULL%2,        Riccardo%Colombo%NULL%2,        Antonio%Castelli%NULL%2,        Roberto%Rech%NULL%2,        Agostino%Riva%NULL%2,        Alessandro%Torre%NULL%2,        Luca%Meroni%NULL%2,        Stefano%Rusconi%NULL%4,        Spinello%Antinori%NULL%4,        Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%4,       Castelli%Antonio%coreGivesNoEmail%4,       Cecconi%Maurizio%coreGivesNoEmail%4,       Cereda%Danilo%coreGivesNoEmail%4,       Coluccello%Antonio%coreGivesNoEmail%4,       Foti%Giuseppe%coreGivesNoEmail%4,       Fumagalli%Roberto%coreGivesNoEmail%4,       Grasselli%Giacomo%coreGivesNoEmail%4,       Iotti%Giorgio%coreGivesNoEmail%4,       Latronico%Nicola%coreGivesNoEmail%4,       Lorini%Luca%coreGivesNoEmail%4,       Merler%Stefano%coreGivesNoEmail%4,       Natalini%Giuseppe%coreGivesNoEmail%4,       Pesenti%Antonio%coreGivesNoEmail%4,       Piatti%Alessandra%coreGivesNoEmail%4,       Ranieri%Marco Vito%coreGivesNoEmail%4,       Scandroglio%Anna Mara%coreGivesNoEmail%4,       Storti%Enrico%coreGivesNoEmail%4,       Zanella%Alberto%coreGivesNoEmail%4,       Zangrillo%Alberto%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,        Lara%Gianesello%gianesello.lara@libero.it%1,        Maddalena%Pazzi%NULL%2,        Maddalena%Pazzi%NULL%0,        Caterina%Stera%NULL%1,        Tommaso%Meconi%NULL%1,        Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,        Andrea%Dalbeni%NULL%2,        Andrea%Dalbeni%NULL%0,        Elia%Vettore%NULL%2,        Elia%Vettore%NULL%0,        Devis%Benfaremo%NULL%1,        Massimo%Mattioli%NULL%1,        Carmine G.%Gambino%NULL%1,        Viviana%Framba%NULL%2,        Viviana%Framba%NULL%0,        Lorenzo%Cerruti%NULL%1,        Anna%Mantovani%NULL%1,        Andrea%Martini%NULL%1,        Michele M.%Luchetti%NULL%1,        Roberto%Serra%NULL%0,        Annamaria%Cattelan%NULL%1,        Roberto%Vettor%NULL%0,        Paolo%Angeli%NULL%1,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,        Matthaios%Papadimitriou-Olivgeris%NULL%2,        Matthaios%Papadimitriou-Olivgeris%NULL%0,        Raphaël%Burger%NULL%1,        Marie-Annick%Le Pogam%NULL%1,        Tapio%Niemi%NULL%2,        Tapio%Niemi%NULL%0,        Paraskevas%Filippidis%NULL%1,        Jonathan%Tschopp%NULL%1,        Florian%Desgranges%NULL%1,        Benjamin%Viala%NULL%1,        Eleftheria%Kampouri%NULL%1,        Laurence%Rochat%NULL%2,        Laurence%Rochat%NULL%0,        David%Haefliger%NULL%1,        Mehdi%Belkoniene%NULL%1,        Carlos%Fidalgo%NULL%1,        Antonios%Kritikos%NULL%1,        Katia%Jaton%NULL%1,        Laurence%Senn%NULL%1,        Pierre-Alexandre%Bart%NULL%1,        Jean-Luc%Pagani%NULL%2,        Jean-Luc%Pagani%NULL%0,        Oriol%Manuel%NULL%1,        Loïc%Lhopitallier%NULL%1,        Chiara%Lazzeri%NULL%2,        Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,        Ashwin%Subramaniam%NULL%2,        Ashwin%Subramaniam%NULL%0,        Mallikarjuna%Ponnapa Reddy%NULL%2,        Mallikarjuna%Ponnapa Reddy%NULL%0,        Gabriel%Blecher%NULL%1,        Umesh%Kadam%NULL%2,        Umesh%Kadam%NULL%0,        Afsana%Afroz%NULL%1,        Baki%Billah%NULL%1,        Sushma%Ashwin%NULL%1,        Mark%Kubicki%NULL%1,        Federico%Bilotta%NULL%1,        J. Randall%Curtis%NULL%2,        J. Randall%Curtis%NULL%0,        Francesca%Rubulotta%NULL%2,        Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,       Aggarwal%Saurabh%coreGivesNoEmail%3,       Garcia-Telles%Nelson%coreGivesNoEmail%3,       Henry%Brandon Michael%coreGivesNoEmail%3,       Lavie%Carl%coreGivesNoEmail%3,       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
     <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
   </si>
   <si>
-    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
-  </si>
-  <si>
     <t>2023-05-25</t>
   </si>
   <si>
-    <t>[Michael G%Argenziano%NULL%0,        Samuel L%Bruce%NULL%2,        Cody L%Slater%NULL%2,        Jonathan R%Tiao%NULL%2,        Matthew R%Baldwin%NULL%3,        R Graham%Barr%NULL%2,        Bernard P%Chang%NULL%2,        Katherine H%Chau%NULL%2,        Justin J%Choi%NULL%2,        Nicholas%Gavin%NULL%2,        Parag%Goyal%NULL%2,        Angela M%Mills%NULL%2,        Ashmi A%Patel%NULL%2,        Marie-Laure S%Romney%NULL%2,        Monika M%Safford%NULL%2,        Neil W%Schluger%NULL%2,        Soumitra%Sengupta%NULL%2,        Magdalena E%Sobieszczyk%NULL%2,        Jason E%Zucker%NULL%2,        Paul A%Asadourian%NULL%2,        Fletcher M%Bell%NULL%2,        Rebekah%Boyd%NULL%2,        Matthew F%Cohen%NULL%2,        MacAlistair I%Colquhoun%NULL%2,        Lucy A%Colville%NULL%2,        Joseph H%de Jonge%NULL%2,        Lyle B%Dershowitz%NULL%2,        Shirin A%Dey%NULL%2,        Katherine A%Eiseman%NULL%2,        Zachary P%Girvin%NULL%2,        Daniella T%Goni%NULL%2,        Amro A%Harb%NULL%2,        Nicholas%Herzik%NULL%2,        Sarah%Householder%NULL%2,        Lara E%Karaaslan%NULL%2,        Heather%Lee%NULL%2,        Evan%Lieberman%NULL%2,        Andrew%Ling%NULL%2,        Ree%Lu%NULL%2,        Arthur Y%Shou%NULL%2,        Alexander C%Sisti%NULL%2,        Zachary E%Snow%NULL%2,        Colin P%Sperring%NULL%2,        Yuqing%Xiong%NULL%2,        Henry W%Zhou%NULL%2,        Karthik%Natarajan%NULL%2,        George%Hripcsak%NULL%2,        Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%3,        James M.%Blum%NULL%2,        Chad%Robichaux%NULL%2,        Colleen%Kraft%NULL%2,        Jesse T.%Jacob%NULL%2,        Craig S.%Jabaley%NULL%2,        David%Carpenter%NULL%2,        Roberta%Kaplow%NULL%2,        Alfonso C.%Hernandez-Romieu%NULL%2,        Max W.%Adelman%NULL%2,        Greg S.%Martin%NULL%2,        Craig M.%Coopersmith%NULL%2,        David J.%Murphy%NULL%2,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%0,        Michelle%Nichols%NULL%0,        Richard%Kim%NULL%0,        Keith R.%Jerome%NULL%0,        Arun K.%Nalla%NULL%0,        Alexander L.%Greninger%NULL%0,        Sudhakar%Pipavath%NULL%0,        Mark M.%Wurfel%NULL%0,        Laura%Evans%NULL%0,        Patricia A.%Kritek%NULL%0,        T. Eoin%West%NULL%0,        Andrew%Luks%NULL%0,        Anthony%Gerbino%NULL%0,        Chris R.%Dale%NULL%0,        Jason D.%Goldman%NULL%0,        Shane%O’Mahony%NULL%0,        Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,        Denise J%McCulloch%NULL%0,        Denise J%McCulloch%NULL%0,        Vidya%Atluri%NULL%0,        Michela%Blain%NULL%0,        Sarah A%McGuffin%NULL%0,        Arun K%Nalla%NULL%0,        Meei-Li%Huang%NULL%0,        Alex L%Greninger%NULL%0,        Keith R%Jerome%NULL%0,        Seth A%Cohen%NULL%0,        Santiago%Neme%NULL%0,        Margaret L%Green%NULL%0,        Helen Y%Chu%NULL%0,        H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,        Joelle I.%Rosser%NULL%0,        Orlando%Quintero%NULL%0,        Jake%Scott%NULL%0,        Aruna%Subramanian%NULL%0,        Mohammad%Gumma%NULL%0,        Angela%Rogers%NULL%0,        Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,        Jacob%Fiksel%NULL%2,        Jacob%Fiksel%NULL%0,        John%Muschelli%NULL%2,        John%Muschelli%NULL%0,        Matthew L.%Robinson%NULL%2,        Matthew L.%Robinson%NULL%0,        Masoud%Rouhizadeh%NULL%2,        Masoud%Rouhizadeh%NULL%0,        Jamie%Perin%NULL%2,        Jamie%Perin%NULL%0,        Grant%Schumock%NULL%2,        Grant%Schumock%NULL%0,        Paul%Nagy%NULL%2,        Paul%Nagy%NULL%0,        Josh H.%Gray%NULL%2,        Josh H.%Gray%NULL%0,        Harsha%Malapati%NULL%2,        Harsha%Malapati%NULL%0,        Mariam%Ghobadi-Krueger%NULL%2,        Mariam%Ghobadi-Krueger%NULL%0,        Timothy M.%Niessen%NULL%1,        Bo Soo%Kim%NULL%1,        Peter M.%Hill%NULL%1,        M. Shafeeq%Ahmed%NULL%1,        Eric D.%Dobkin%NULL%1,        Renee%Blanding%NULL%1,        Jennifer%Abele%NULL%1,        Bonnie%Woods%NULL%1,        Kenneth%Harkness%NULL%1,        David R.%Thiemann%NULL%1,        Mary G.%Bowring%NULL%1,        Aalok B.%Shah%NULL%2,        Aalok B.%Shah%NULL%0,        Mei-Cheng%Wang%NULL%1,        Karen%Bandeen-Roche%NULL%1,        Antony%Rosen%NULL%1,        Scott L.%Zeger%NULL%2,        Scott L.%Zeger%NULL%0,        Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,        Justin J.%Choi%NULL%0,        Laura C.%Pinheiro%NULL%0,        Edward J.%Schenck%NULL%0,        Ruijun%Chen%NULL%0,        Assem%Jabri%NULL%0,        Michael J.%Satlin%NULL%0,        Thomas R.%Campion%NULL%0,        Musarrat%Nahid%NULL%0,        Joanna B.%Ringel%NULL%0,        Katherine L.%Hoffman%NULL%0,        Mark N.%Alshak%NULL%0,        Han A.%Li%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Mangala%Rajan%NULL%0,        Evgeniya%Reshetnyak%NULL%0,        Nathaniel%Hupert%NULL%0,        Evelyn M.%Horn%NULL%0,        Fernando J.%Martinez%NULL%0,        Roy M.%Gulick%NULL%0,        Monika M.%Safford%NULL%0,        Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,        Simon A%Jones%NULL%0,        Jie%Yang%NULL%0,        Harish%Rajagopalan%NULL%0,        Luke%O’Donnell%NULL%0,        Yelena%Chernyak%NULL%0,        Katie A%Tobin%NULL%0,        Robert J%Cerfolio%NULL%0,        Fritz%Francois%NULL%0,        Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,        Anatoly%Mitrokhin%NULL%2,        Anatoly%Mitrokhin%NULL%0,        Ajai%Rajabalan%NULL%1,        Christian%Benjamin%NULL%1,        Sushma%Raviralla%NULL%1,        Vishnu R%Mani%vishnu.mani@duke.edu%2,        Vishnu R%Mani%vishnu.mani@duke.edu%0,        Aleksandr%Kalabin%NULL%2,        Aleksandr%Kalabin%NULL%0,        Sebastian C%Valdivieso%NULL%2,        Sebastian C%Valdivieso%NULL%0,        Max%Murray-Ramcharan%NULL%2,        Max%Murray-Ramcharan%NULL%0,        Brian%Donaldson%NULL%2,        Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,         Nicholas A.%Fergusson%null%2,         Elisa%Lloyd-Smith%null%2,         Andrew%Wormsbecker%null%2,         Denise%Foster%null%2,         Andrei%Karpov%null%2,         Sarah%Crowe%null%2,         Greg%Haljan%null%2,         Dean R.%Chittock%null%2,         Hussein D.%Kanji%null%2,         Mypinder S.%Sekhon%null%2,         Donald E.G.%Griesdale%null%2,       Anish R.%Mitra%null%1,       Nicholas A.%Fergusson%null%1,       Elisa%Lloyd-Smith%null%1,       Andrew%Wormsbecker%null%1,       Denise%Foster%null%1,       Andrei%Karpov%null%1,       Sarah%Crowe%null%1,       Greg%Haljan%null%1,       Dean R.%Chittock%null%1,       Hussein D.%Kanji%null%1,       Mypinder S.%Sekhon%null%1,       Donald E.G.%Griesdale%null%1]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,        Damianos G.%Kokkinidis%NULL%1,        Weijia%Li%NULL%1,        Dimitrios%Karamanis%NULL%1,        Jennifer%Ognibene%NULL%1,        Shitij%Arora%NULL%1,        William N.%Southern%NULL%1,        Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,        Jesus D.%Gonzalez-Lugo%NULL%1,        Shafia%Rahman%NULL%1,        Mohammad%Barouqa%NULL%1,        James%Szymanski%NULL%1,        Kenji%Ikemura%NULL%1,        Yungtai%Lo%NULL%1,        Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%4,       Chelico%J.D.%coreGivesNoEmail%4,       Cohen%S.L.%coreGivesNoEmail%4,       Cookingham%J.%coreGivesNoEmail%4,       Coppa%K.%coreGivesNoEmail%4,       Crawford%J.M.%coreGivesNoEmail%4,       Davidson%K.W.%coreGivesNoEmail%4,       Diefenbach%M.A.%coreGivesNoEmail%4,       Dominello%A.J.%coreGivesNoEmail%4,       Duer-Hefele%J.%coreGivesNoEmail%4,       Falzon%L.%coreGivesNoEmail%4,       Gitlin%J.%coreGivesNoEmail%4,       Hajizadeh%N.%coreGivesNoEmail%4,       Harvin%T.G.%coreGivesNoEmail%4,       Hirsch%J.S.%coreGivesNoEmail%4,       Hirschwerk%D.A.%coreGivesNoEmail%4,       Kim%E.J.%coreGivesNoEmail%4,       Kozel%Z.M.%coreGivesNoEmail%4,       Marrast%L.M.%coreGivesNoEmail%4,       McGinn%T.%coreGivesNoEmail%4,       Mogavero%J.N.%coreGivesNoEmail%4,       Narasimhan%M.%coreGivesNoEmail%4,       Osorio%G.A.%coreGivesNoEmail%4,       Qiu%M.%coreGivesNoEmail%4,       Richardson%S.%coreGivesNoEmail%4,       Zanos%T.P.%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,        Viet-Thi%Tran%NULL%4,        Viet-Thi%Tran%NULL%0,        Mathilde%Roumier%NULL%2,        Amélie%Chabrol%NULL%2,        Romain%Paule%NULL%2,        Constance%Guillaud%NULL%2,        Elena%Fois%NULL%2,        Raphael%Lepeule%NULL%2,        Tali-Anne%Szwebel%NULL%2,        François-Xavier%Lescure%NULL%2,        Frédéric%Schlemmer%NULL%2,        Marie%Matignon%NULL%2,        Mehdi%Khellaf%NULL%2,        Etienne%Crickx%NULL%2,        Benjamin%Terrier%NULL%2,        Caroline%Morbieu%NULL%2,        Paul%Legendre%NULL%2,        Julien%Dang%NULL%2,        Yoland%Schoindre%NULL%2,        Jean-Michel%Pawlotsky%NULL%2,        Marc%Michel%NULL%2,        Elodie%Perrodeau%NULL%2,        Nicolas%Carlier%NULL%2,        Nicolas%Roche%NULL%2,        Victoire%de Lastours%NULL%2,        Clément%Ourghanlian%NULL%2,        Solen%Kerneis%NULL%2,        Philippe%Ménager%NULL%2,        Luc%Mouthon%NULL%2,        Etienne%Audureau%NULL%2,        Philippe%Ravaud%NULL%2,        Bertrand%Godeau%NULL%2,        Sébastien%Gallien%NULL%2,        Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
     <t>"Early experience with COVID-19 patients at academic hospital in Southwestern United States"</t>
   </si>
   <si>
-    <t>[Rahul%Shekhar%xref no email%1, Abu Baker%Sheikh%xref no email%1, Shubhra%Upadhyay%xref no email%1, Jeanette%Atencio%xref no email%1, Devika%Kapuria%xref no email%1]</t>
-  </si>
-  <si>
     <t>2023-02-07</t>
   </si>
   <si>
-    <t>[Hui%Shi%NULL%1,      Yu%Zuo%NULL%1,      Srilakshmi%Yalavarthi%NULL%1,      Kelsey%Gockman%NULL%1,      Melanie%Zuo%NULL%1,      Jacqueline A%Madison%NULL%1,      Christopher%Blair%NULL%1,      Wrenn%Woodward%NULL%1,      Sean P%Lezak%NULL%1,      Njira L%Lugogo%NULL%1,      Robert J%Woods%NULL%1,      Christian%Lood%NULL%1,      Jason S%Knight%NULL%2,      Jason S%Knight%NULL%0,      Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,        Raef A.%Fadel%NULL%1,        Kelly M.%Malette%NULL%1,        Charles%Hammond%NULL%1,        Hafsa%Abdulla%NULL%1,        Abigail%Entz%NULL%1,        Zachary%Demertzis%NULL%1,        Zachary%Hanna%NULL%1,        Andrew%Failla%NULL%1,        Carina%Dagher%NULL%0,        Zohra%Chaudhry%NULL%2,        Amit%Vahia%NULL%2,        Odaliz%Abreu Lanfranco%NULL%1,        Mayur%Ramesh%NULL%1,        Marcus J.%Zervos%NULL%1,        George%Alangaden%NULL%2,        Joseph%Miller%NULL%2,        Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
     <t>"Clinical features of 47 patients infected with COVID-19 admitted to a Regional Reference Center"</t>
   </si>
   <si>
-    <t>[Felipe%Olivares%xref no email%1, Daniel%Mu\u00f1oz%xref no email%1, Alberto%Fica%xref no email%1, Ignacio%Delama%xref no email%1, Ignacia%Alvarez%xref no email%1, Maritza%Navarrete%xref no email%1, Eileen%Blackburn%xref no email%1, Pamela%Garrido%xref no email%1, Ricardo%Wenger%xref no email%1, Juan%Grandjean%xref no email%1]</t>
-  </si>
-  <si>
     <t>2022-09-26</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,          J.% Jiang%null%1,          X.% Xu%null%1,          Y.% Hu%null%2,          Y.% Hu%null%0,          Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,         Chenchen%Qian%NULL%1,         Zhibing%Luo%NULL%1,         Qiang%Li%liqressh@hotmail.com%0,         Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,         Chunlin%Cai%NULL%1,         Jinglei%Zang%NULL%1,         Jun%Xie%NULL%1,         Dan%Xu%NULL%0,         Fang%Zheng%NULL%0,         Tao%Zhan%NULL%1,         Kang%Huang%NULL%1,         Yikai%Wang%NULL%1,         Xiao%Wang%NULL%1,         Zhe-Yu%Hu%NULL%1,         Yapeng%Deng%NULL%1,         Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,         Naofumi%Bunya%NULL%1,         Tomoyuki%Endo%NULL%1,         Yuji%Fujino%NULL%1,         Kensuke%Fujita%NULL%1,         Kenji%Fujizuka%NULL%1,         Yoshihiro%Hagiwara%NULL%1,         Jun%Hamaguchi%NULL%1,         Yoshitaka%Hara%NULL%1,         Eiji%Hashiba%NULL%1,         Satoru%Hashimoto%NULL%1,         Noriyuki%Hattori%NULL%1,         Kota%Hoshino%NULL%1,         Shinichi%Ijuin%NULL%1,         Takanari%Ikeyama%NULL%1,         Shingo%Ichiba%NULL%1,         Wataru%Iwanaga%NULL%1,         Yoshiaki%Iwashita%NULL%1,         Masafumi%Kanamoto%NULL%1,         Hitoshi%Kaneko%NULL%1,         Kaneyuki%Kawamae%NULL%1,         Toru%Kotani%NULL%1,         Yasuaki%Koyama%NULL%1,         Keibun%Liu%NULL%1,         Tomohiko%Masuno%NULL%1,         Naoto%Morimura%NULL%1,         Tomoyuki%Nakamura%NULL%1,         Masaki%Nakane%NULL%1,         Michitaka%Nasu%NULL%1,         Osamu%Nishida%NULL%1,         Masaji%Nishimura%NULL%1,         Kanae%Ochiai%NULL%1,         Takayuki%Ogura%NULL%1,         Shinichiro%Ohshimo%NULL%1,         Keisuke%Oyama%NULL%1,         Junichi%Sasaki%NULL%1,         Ryutaro%Seo%NULL%1,         Takeshi%Shimazu%NULL%1,         Nobuaki%Shime%NULL%4,         Keiki%Shimizu%NULL%1,         Hiroyuki%Suzuki%NULL%1,         Shuhei%Takauji%NULL%1,         Shinhiro%Takeda%NULL%1,         Ichiro%Takeuchi%NULL%2,         Mumon%Takita%NULL%1,         Hayato%Taniguchi%NULL%1,         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,         Yi Xin%Tong%NULL%3,         Sheng%Zhang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,         Hong%Chen%NULL%0,         Zhen%Li%NULL%2,         Bo%Wang%NULL%0,         Zhong-Wei%Zhang%NULL%1,         Wei-Min%Li%NULL%0,         Zong-An%Liang%NULL%0,         Jin%Tang%NULL%1,         Jian%Wang%NULL%1,         Rui%Shi%NULL%1,         Xiao-Dong%Jin%NULL%1,         Yan%Kang%NULL%0,         Pei-Fang%Wei%NULL%8,         Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,          S. F.% Mahmood%null%1,          K.% Habib%null%1,          I.% Khanum%null%1,          B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,         Chaisith%Sivakorn%NULL%1,         Tanuwong%Viarasilpa%NULL%1,         Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,         Mu%Qin%qinmuae@163.com%1,         Yuli%Cai%NULL%1,         Tao%Liu%NULL%0,         Bo%Shen%NULL%1,         Fan%Yang%NULL%2,         Sheng%Cao%NULL%1,         Xu%Liu%NULL%2,         Xu%Liu%NULL%0,         Yaozu%Xiang%NULL%1,         Qinyan%Zhao%NULL%1,         He%Huang%huanghe1977@whu.edu.cn%0,         Bo%Yang%yybb112@whu.edu.cn%0,         Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,         Win%Kulvichit%NULL%1,         Sunchai%Payungporn%NULL%1,         Trairak%Pisitkun%NULL%1,         Ariya%Chindamporn%NULL%1,         Sadudee%Peerapornratana%NULL%1,         Prapaporn%Pisitkun%NULL%1,         Suwalak%Chitcharoen%NULL%1,         Vorthon%Sawaswong%NULL%1,         Navaporn%Worasilchai%NULL%1,         Sarinya%Kampunya%NULL%1,         Opass%Putcharoen%NULL%1,         Thammasak%Thawitsri%NULL%1,         Nophol%Leelayuwatanakul%NULL%1,         Napplika%Kongpolprom%NULL%1,         Vorakamol%Phoophiboon%NULL%1,         Thitiwat%Sriprasart%NULL%1,         Rujipat%Samransamruajkit%NULL%1,         Somkanya%Tungsanga%NULL%1,         Kanitha%Tiankanon%NULL%1,         Nuttha%Lumlertgul%NULL%1,         Asada%Leelahavanichkul%NULL%1,         Tueboon%Sriphojanart%NULL%1,         Terapong%Tantawichien%NULL%1,         Usa%Thisyakorn%NULL%1,         Chintana%Chirathaworn%NULL%1,         Kearkiat%Praditpornsilpa%NULL%1,         Kriang%Tungsanga%NULL%1,         Somchai%Eiam-Ong%NULL%1,         Visith%Sitprija%NULL%1,         John A.%Kellum%NULL%1,         Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,         Min%Pan%NULL%3,         Xiumei%Zhang%NULL%3,         Mingfeng%Han%fyhmf@163.com%0,         Xiaoyun%Fan%13956988552@126.com%3,         Fengde%Zhao%NULL%3,         Manli%Miao%NULL%3,         Jing%Xu%NULL%0,         Minglong%Guan%NULL%3,         Xia%Deng%NULL%3,         Xu%Chen%NULL%4,         Leilei%Shen%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,         Chunli%Tang%NULL%0,         Ruchong%Chen%NULL%1,         Honglian%Ruan%NULL%1,         Wenhua%Liang%NULL%0,         Weijie%Guan%NULL%0,         Ling%Sang%NULL%0,         Ruidi%Tang%NULL%1,         Nanshan%Zhong%NULL%0,         Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiao%Yang%xref no email%1,  Shuhan%Cai%xref no email%1,  Yun%Luo%xref no email%1,  Fangfang%Zhu%xref no email%1,  Ming%Hu%xref no email%1,  Yan%Zhao%xref no email%1,  Ruiqiang%Zheng%xref no email%1,  Xuyan%Li%xref no email%1,  Bo%Hu%xref no email%0,  Zhiyong%Peng%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%5,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%5,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%5,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%5,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%5,         Shangwen%Pan%NULL%5,         Xiaojing%Zou%NULL%7,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,         Shanyan%Zhang%NULL%2,         Xiaoli%Zhang%NULL%1,         Huan%Cai%NULL%2,         Jueqing%Gu%NULL%2,         Jiangshan%Lian%NULL%2,         Yingfeng%Lu%NULL%2,         Hongyu%Jia%NULL%2,         Jianhua%Hu%NULL%2,         Ciliang%Jin%NULL%2,         Guodong%Yu%NULL%2,         Yimin%Zhang%NULL%2,         Jifang%Sheng%NULL%4,         Yida%Yang%yidayang65@zju.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,         Dan%Xu%NULL%0,         Shouzhi%Fu%NULL%0,         Jun%Zhang%NULL%0,         Xiaobo%Yang%NULL%0,         Liang%Xu%NULL%0,         Jiqian%Xu%NULL%0,         Yongran%Wu%NULL%0,         Chaolin%Huang%NULL%0,         Yaqi%Ouyang%NULL%0,         Luyu%Yang%NULL%0,         Minghao%Fang%NULL%0,         Hongwen%Xiao%NULL%0,         Jing%Ma%NULL%0,         Wei%Zhu%NULL%0,         Song%Hu%NULL%0,         Quan%Hu%NULL%0,         Daoyin%Ding%NULL%0,         Ming%Hu%NULL%0,         Guochao%Zhu%NULL%0,         Weijiang%Xu%NULL%0,         Jun%Guo%NULL%0,         Jinglong%Xu%NULL%0,         Haitao%Yuan%NULL%0,         Bin%Zhang%NULL%0,         Zhui%Yu%yuzhui@whu.edu.cn%0,         Dechang%Chen%icudechangchen@163.com%0,         Shiying%Yuan%yuan_shiying@163.com%0,         You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,         Hao-Yu%Gao%NULL%1,         Zi-Yi%Feng%NULL%1,         Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,         Li-jun%Sun%NULL%1,         Mi%Xu%NULL%1,         Jian%Pan%NULL%1,         Yun-tao%Zhang%NULL%1,         Xue-ling%Fang%NULL%1,         Qiang%Fang%NULL%2,         Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,         Ziqiang%Du%NULL%1,         Yanfang%Zhu%NULL%1,         Wenfeng%Li%NULL%1,         Hongjun%Miao%NULL%1,         Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,         Sarah%Al-Youha%sarahalyouha@gmail.com%1,         Mohammad H.%Jamal%NULL%1,         Mohannad%Al-Haddad%NULL%1,         Ali%Al-Muhaini%NULL%1,         Fahad%Al-Ghimlas%NULL%1,         Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,         Mina%Akbari Rad%NULL%1,         Robert%Bergquist%NULL%1,         Abolghasem%Allahyari%NULL%1,         Kamila%Hashemzadeh%NULL%1,         Nasrin%Milani%NULL%1,         Mahdi%Gholian-Aval%NULL%1,         Fariba%Rezaeitalab%NULL%1,         Mohammad Jafar%Sadeghi Quchani%NULL%1,         Zahra%Nahbandani%NULL%1,         Mandana%Khodashahi%NULL%1,         Zahra%Javid%NULL%1,         Mahnaz%Mozdourian%NULL%1,         Mohammad Ali%Yaghoubi%NULL%1,         Zahra%Mozaheb%NULL%1,         Mohsen%Seddigh-Shamsi%NULL%1,         Mohammad%Moeini Nodeh%NULL%1,         Shima%Nabavi%NULL%1,         Hooman%Mosannen Mozaffari%NULL%1,         Mohammadreza%Farzanehfar%NULL%1,         Zahra%Lotfi%NULL%1,         Alireza%Shariati%NULL%1,         Shekoofe%Bonakdaran%NULL%1,         Zahra%Rezaieyazdi%NULL%1,         Zahra%Mirfeizi%NULL%1,         Maryam%Miri%NULL%1,         Reza%Bassiri%NULL%1,         Sajjad%Ataei Azimi%NULL%1,         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,         Ibrahim%Al-Zakwani%NULL%1,         Hamed%Al Naamani%NULL%1,         Sultan%Al Lawati%NULL%1,         Nenad%Pandak%NULL%1,         Muna Ba%Omar%NULL%1,         Maher%Al Bahrani%NULL%1,         Zakaryia AL%Bulushi%NULL%1,         Huda%Al Khalili%NULL%1,         Issa%Al Salmi%NULL%1,         Ruwaida%Al Ismaili%NULL%1,         Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,         Zohre%Khodamoradi%NULL%1,         Amirhossein%Erfani%NULL%1,         Hamidreza%Hosseinpour%NULL%1,         Keivan%Ranjbar%NULL%1,         Yasaman%Emami%NULL%1,         Alireza%Mirahmadizadeh%NULL%1,         Mehrzad%Lotfi%NULL%1,         Babak%Shirazi Yeganeh%NULL%1,         Abolfazl%Dorrani Nejad%NULL%1,         Abdolrasool%Hemmati%NULL%1,         Mostafa%Ebrahimi%NULL%1,         Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,         Annachiara%Ferrari%NULL%2,         Annachiara%Ferrari%NULL%0,         Francesco%Fontana%NULL%1,         Giacomo%Mori%NULL%1,         Riccardo%Magistroni%NULL%1,         Marianna%Meschiari%NULL%1,         Erica%Franceschini%NULL%1,         Marianna%Menozzi%NULL%1,         Gianluca%Cuomo%NULL%1,         Gabriella%Orlando%NULL%1,         Antonella%Santoro%NULL%1,         Margherita%Digaetano%NULL%1,         Cinzia%Puzzolante%NULL%1,         Federica%Carli%NULL%1,         Andrea%Bedini%NULL%1,         Jovana%Milic%NULL%1,         Irene%Coloretti%NULL%1,         Paolo%Raggi%NULL%1,         Cristina%Mussini%NULL%1,         Massimo%Girardis%NULL%1,         Gianni%Cappelli%NULL%1,         Giovanni%Guaraldi%NULL%1,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,         Silvia%Bettini%NULL%2,         Silvia%Bettini%NULL%0,         Roberto%Fabris%NULL%1,         Roberto%Serra%NULL%2,         Chiara%Dal Pra%NULL%1,         Pietro%Maffei%NULL%1,         Marco%Rossato%NULL%1,         Paola%Fioretto%NULL%0,         Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,         Marco%Roncador%NULL%2,         Marco%Roncador%NULL%0,         Andrea%Saporito%NULL%1,         Maira%Biggiogero%NULL%1,         Andrea%Glotta%NULL%1,         Pier Andrea%Maida%NULL%1,         Patrizia%Urso%NULL%1,         Giovanni%Bona%NULL%1,         Christian%Garzoni%NULL%1,         Romano%Mauri%NULL%1,         Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,         Anna Lisa%Ridolfo%NULL%4,         Laura%Milazzo%NULL%2,         Letizia%Oreni%NULL%4,         Dario%Bernacchia%NULL%4,         Matteo%Siano%NULL%4,         Cecilia%Bonazzetti%NULL%2,         Alice%Covizzi%NULL%2,         Marco%Schiuma%NULL%2,         Matteo%Passerini%NULL%2,         Marco%Piscaglia%NULL%2,         Massimo%Coen%NULL%2,         Guido%Gubertini%NULL%2,         Giuliano%Rizzardini%NULL%4,         Chiara%Cogliati%NULL%2,         Anna Maria%Brambilla%NULL%2,         Riccardo%Colombo%NULL%2,         Antonio%Castelli%NULL%2,         Roberto%Rech%NULL%2,         Agostino%Riva%NULL%2,         Alessandro%Torre%NULL%2,         Luca%Meroni%NULL%2,         Stefano%Rusconi%NULL%4,         Spinello%Antinori%NULL%4,         Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%4,        Castelli%Antonio%coreGivesNoEmail%4,        Cecconi%Maurizio%coreGivesNoEmail%4,        Cereda%Danilo%coreGivesNoEmail%4,        Coluccello%Antonio%coreGivesNoEmail%4,        Foti%Giuseppe%coreGivesNoEmail%4,        Fumagalli%Roberto%coreGivesNoEmail%4,        Grasselli%Giacomo%coreGivesNoEmail%4,        Iotti%Giorgio%coreGivesNoEmail%4,        Latronico%Nicola%coreGivesNoEmail%4,        Lorini%Luca%coreGivesNoEmail%4,        Merler%Stefano%coreGivesNoEmail%4,        Natalini%Giuseppe%coreGivesNoEmail%4,        Pesenti%Antonio%coreGivesNoEmail%4,        Piatti%Alessandra%coreGivesNoEmail%4,        Ranieri%Marco Vito%coreGivesNoEmail%4,        Scandroglio%Anna Mara%coreGivesNoEmail%4,        Storti%Enrico%coreGivesNoEmail%4,        Zanella%Alberto%coreGivesNoEmail%4,        Zangrillo%Alberto%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,         Lara%Gianesello%gianesello.lara@libero.it%1,         Maddalena%Pazzi%NULL%2,         Maddalena%Pazzi%NULL%0,         Caterina%Stera%NULL%1,         Tommaso%Meconi%NULL%1,         Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,         Andrea%Dalbeni%NULL%2,         Andrea%Dalbeni%NULL%0,         Elia%Vettore%NULL%2,         Elia%Vettore%NULL%0,         Devis%Benfaremo%NULL%1,         Massimo%Mattioli%NULL%1,         Carmine G.%Gambino%NULL%1,         Viviana%Framba%NULL%2,         Viviana%Framba%NULL%0,         Lorenzo%Cerruti%NULL%1,         Anna%Mantovani%NULL%1,         Andrea%Martini%NULL%1,         Michele M.%Luchetti%NULL%1,         Roberto%Serra%NULL%0,         Annamaria%Cattelan%NULL%1,         Roberto%Vettor%NULL%0,         Paolo%Angeli%NULL%1,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,         Matthaios%Papadimitriou-Olivgeris%NULL%2,         Matthaios%Papadimitriou-Olivgeris%NULL%0,         Raphaël%Burger%NULL%1,         Marie-Annick%Le Pogam%NULL%1,         Tapio%Niemi%NULL%2,         Tapio%Niemi%NULL%0,         Paraskevas%Filippidis%NULL%1,         Jonathan%Tschopp%NULL%1,         Florian%Desgranges%NULL%1,         Benjamin%Viala%NULL%1,         Eleftheria%Kampouri%NULL%1,         Laurence%Rochat%NULL%2,         Laurence%Rochat%NULL%0,         David%Haefliger%NULL%1,         Mehdi%Belkoniene%NULL%1,         Carlos%Fidalgo%NULL%1,         Antonios%Kritikos%NULL%1,         Katia%Jaton%NULL%1,         Laurence%Senn%NULL%1,         Pierre-Alexandre%Bart%NULL%1,         Jean-Luc%Pagani%NULL%2,         Jean-Luc%Pagani%NULL%0,         Oriol%Manuel%NULL%1,         Loïc%Lhopitallier%NULL%1,         Chiara%Lazzeri%NULL%2,         Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,         Ashwin%Subramaniam%NULL%2,         Ashwin%Subramaniam%NULL%0,         Mallikarjuna%Ponnapa Reddy%NULL%2,         Mallikarjuna%Ponnapa Reddy%NULL%0,         Gabriel%Blecher%NULL%1,         Umesh%Kadam%NULL%2,         Umesh%Kadam%NULL%0,         Afsana%Afroz%NULL%1,         Baki%Billah%NULL%1,         Sushma%Ashwin%NULL%1,         Mark%Kubicki%NULL%1,         Federico%Bilotta%NULL%1,         J. Randall%Curtis%NULL%2,         J. Randall%Curtis%NULL%0,         Francesca%Rubulotta%NULL%2,         Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,        Aggarwal%Saurabh%coreGivesNoEmail%3,        Garcia-Telles%Nelson%coreGivesNoEmail%3,        Henry%Brandon Michael%coreGivesNoEmail%3,        Lavie%Carl%coreGivesNoEmail%3,        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,         Samuel L%Bruce%NULL%2,         Cody L%Slater%NULL%2,         Jonathan R%Tiao%NULL%2,         Matthew R%Baldwin%NULL%3,         R Graham%Barr%NULL%2,         Bernard P%Chang%NULL%2,         Katherine H%Chau%NULL%2,         Justin J%Choi%NULL%2,         Nicholas%Gavin%NULL%2,         Parag%Goyal%NULL%2,         Angela M%Mills%NULL%2,         Ashmi A%Patel%NULL%2,         Marie-Laure S%Romney%NULL%2,         Monika M%Safford%NULL%2,         Neil W%Schluger%NULL%2,         Soumitra%Sengupta%NULL%2,         Magdalena E%Sobieszczyk%NULL%2,         Jason E%Zucker%NULL%2,         Paul A%Asadourian%NULL%2,         Fletcher M%Bell%NULL%2,         Rebekah%Boyd%NULL%2,         Matthew F%Cohen%NULL%2,         MacAlistair I%Colquhoun%NULL%2,         Lucy A%Colville%NULL%2,         Joseph H%de Jonge%NULL%2,         Lyle B%Dershowitz%NULL%2,         Shirin A%Dey%NULL%2,         Katherine A%Eiseman%NULL%2,         Zachary P%Girvin%NULL%2,         Daniella T%Goni%NULL%2,         Amro A%Harb%NULL%2,         Nicholas%Herzik%NULL%2,         Sarah%Householder%NULL%2,         Lara E%Karaaslan%NULL%2,         Heather%Lee%NULL%2,         Evan%Lieberman%NULL%2,         Andrew%Ling%NULL%2,         Ree%Lu%NULL%2,         Arthur Y%Shou%NULL%2,         Alexander C%Sisti%NULL%2,         Zachary E%Snow%NULL%2,         Colin P%Sperring%NULL%2,         Yuqing%Xiong%NULL%2,         Henry W%Zhou%NULL%2,         Karthik%Natarajan%NULL%2,         George%Hripcsak%NULL%2,         Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%3,         James M.%Blum%NULL%2,         Chad%Robichaux%NULL%2,         Colleen%Kraft%NULL%2,         Jesse T.%Jacob%NULL%2,         Craig S.%Jabaley%NULL%2,         David%Carpenter%NULL%2,         Roberta%Kaplow%NULL%2,         Alfonso C.%Hernandez-Romieu%NULL%2,         Max W.%Adelman%NULL%2,         Greg S.%Martin%NULL%2,         Craig M.%Coopersmith%NULL%2,         David J.%Murphy%NULL%2,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%0,         Michelle%Nichols%NULL%0,         Richard%Kim%NULL%0,         Keith R.%Jerome%NULL%0,         Arun K.%Nalla%NULL%0,         Alexander L.%Greninger%NULL%0,         Sudhakar%Pipavath%NULL%0,         Mark M.%Wurfel%NULL%0,         Laura%Evans%NULL%0,         Patricia A.%Kritek%NULL%0,         T. Eoin%West%NULL%0,         Andrew%Luks%NULL%0,         Anthony%Gerbino%NULL%0,         Chris R.%Dale%NULL%0,         Jason D.%Goldman%NULL%0,         Shane%O’Mahony%NULL%0,         Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,         Denise J%McCulloch%NULL%0,         Denise J%McCulloch%NULL%0,         Vidya%Atluri%NULL%0,         Michela%Blain%NULL%0,         Sarah A%McGuffin%NULL%0,         Arun K%Nalla%NULL%0,         Meei-Li%Huang%NULL%0,         Alex L%Greninger%NULL%0,         Keith R%Jerome%NULL%0,         Seth A%Cohen%NULL%0,         Santiago%Neme%NULL%0,         Margaret L%Green%NULL%0,         Helen Y%Chu%NULL%0,         H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,         Joelle I.%Rosser%NULL%0,         Orlando%Quintero%NULL%0,         Jake%Scott%NULL%0,         Aruna%Subramanian%NULL%0,         Mohammad%Gumma%NULL%0,         Angela%Rogers%NULL%0,         Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,         Jacob%Fiksel%NULL%2,         Jacob%Fiksel%NULL%0,         John%Muschelli%NULL%2,         John%Muschelli%NULL%0,         Matthew L.%Robinson%NULL%2,         Matthew L.%Robinson%NULL%0,         Masoud%Rouhizadeh%NULL%2,         Masoud%Rouhizadeh%NULL%0,         Jamie%Perin%NULL%2,         Jamie%Perin%NULL%0,         Grant%Schumock%NULL%2,         Grant%Schumock%NULL%0,         Paul%Nagy%NULL%2,         Paul%Nagy%NULL%0,         Josh H.%Gray%NULL%2,         Josh H.%Gray%NULL%0,         Harsha%Malapati%NULL%2,         Harsha%Malapati%NULL%0,         Mariam%Ghobadi-Krueger%NULL%2,         Mariam%Ghobadi-Krueger%NULL%0,         Timothy M.%Niessen%NULL%1,         Bo Soo%Kim%NULL%1,         Peter M.%Hill%NULL%1,         M. Shafeeq%Ahmed%NULL%1,         Eric D.%Dobkin%NULL%1,         Renee%Blanding%NULL%1,         Jennifer%Abele%NULL%1,         Bonnie%Woods%NULL%1,         Kenneth%Harkness%NULL%1,         David R.%Thiemann%NULL%1,         Mary G.%Bowring%NULL%1,         Aalok B.%Shah%NULL%2,         Aalok B.%Shah%NULL%0,         Mei-Cheng%Wang%NULL%1,         Karen%Bandeen-Roche%NULL%1,         Antony%Rosen%NULL%1,         Scott L.%Zeger%NULL%2,         Scott L.%Zeger%NULL%0,         Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,         Justin J.%Choi%NULL%0,         Laura C.%Pinheiro%NULL%0,         Edward J.%Schenck%NULL%0,         Ruijun%Chen%NULL%0,         Assem%Jabri%NULL%0,         Michael J.%Satlin%NULL%0,         Thomas R.%Campion%NULL%0,         Musarrat%Nahid%NULL%0,         Joanna B.%Ringel%NULL%0,         Katherine L.%Hoffman%NULL%0,         Mark N.%Alshak%NULL%0,         Han A.%Li%NULL%0,         Graham T.%Wehmeyer%NULL%0,         Graham T.%Wehmeyer%NULL%0,         Mangala%Rajan%NULL%0,         Evgeniya%Reshetnyak%NULL%0,         Nathaniel%Hupert%NULL%0,         Evelyn M.%Horn%NULL%0,         Fernando J.%Martinez%NULL%0,         Roy M.%Gulick%NULL%0,         Monika M.%Safford%NULL%0,         Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,         Simon A%Jones%NULL%0,         Jie%Yang%NULL%0,         Harish%Rajagopalan%NULL%0,         Luke%O’Donnell%NULL%0,         Yelena%Chernyak%NULL%0,         Katie A%Tobin%NULL%0,         Robert J%Cerfolio%NULL%0,         Fritz%Francois%NULL%0,         Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,         Anatoly%Mitrokhin%NULL%2,         Anatoly%Mitrokhin%NULL%0,         Ajai%Rajabalan%NULL%1,         Christian%Benjamin%NULL%1,         Sushma%Raviralla%NULL%1,         Vishnu R%Mani%vishnu.mani@duke.edu%2,         Vishnu R%Mani%vishnu.mani@duke.edu%0,         Aleksandr%Kalabin%NULL%2,         Aleksandr%Kalabin%NULL%0,         Sebastian C%Valdivieso%NULL%2,         Sebastian C%Valdivieso%NULL%0,         Max%Murray-Ramcharan%NULL%2,         Max%Murray-Ramcharan%NULL%0,         Brian%Donaldson%NULL%2,         Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,          Nicholas A.%Fergusson%null%2,          Elisa%Lloyd-Smith%null%2,          Andrew%Wormsbecker%null%2,          Denise%Foster%null%2,          Andrei%Karpov%null%2,          Sarah%Crowe%null%2,          Greg%Haljan%null%2,          Dean R.%Chittock%null%2,          Hussein D.%Kanji%null%2,          Mypinder S.%Sekhon%null%2,          Donald E.G.%Griesdale%null%2,        Anish R.%Mitra%null%1,        Nicholas A.%Fergusson%null%1,        Elisa%Lloyd-Smith%null%1,        Andrew%Wormsbecker%null%1,        Denise%Foster%null%1,        Andrei%Karpov%null%1,        Sarah%Crowe%null%1,        Greg%Haljan%null%1,        Dean R.%Chittock%null%1,        Hussein D.%Kanji%null%1,        Mypinder S.%Sekhon%null%1,        Donald E.G.%Griesdale%null%1]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,         Damianos G.%Kokkinidis%NULL%1,         Weijia%Li%NULL%1,         Dimitrios%Karamanis%NULL%1,         Jennifer%Ognibene%NULL%1,         Shitij%Arora%NULL%1,         William N.%Southern%NULL%1,         Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,         Jesus D.%Gonzalez-Lugo%NULL%1,         Shafia%Rahman%NULL%1,         Mohammad%Barouqa%NULL%1,         James%Szymanski%NULL%1,         Kenji%Ikemura%NULL%1,         Yungtai%Lo%NULL%1,         Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%4,        Chelico%J.D.%coreGivesNoEmail%4,        Cohen%S.L.%coreGivesNoEmail%4,        Cookingham%J.%coreGivesNoEmail%4,        Coppa%K.%coreGivesNoEmail%4,        Crawford%J.M.%coreGivesNoEmail%4,        Davidson%K.W.%coreGivesNoEmail%4,        Diefenbach%M.A.%coreGivesNoEmail%4,        Dominello%A.J.%coreGivesNoEmail%4,        Duer-Hefele%J.%coreGivesNoEmail%4,        Falzon%L.%coreGivesNoEmail%4,        Gitlin%J.%coreGivesNoEmail%4,        Hajizadeh%N.%coreGivesNoEmail%4,        Harvin%T.G.%coreGivesNoEmail%4,        Hirsch%J.S.%coreGivesNoEmail%4,        Hirschwerk%D.A.%coreGivesNoEmail%4,        Kim%E.J.%coreGivesNoEmail%4,        Kozel%Z.M.%coreGivesNoEmail%4,        Marrast%L.M.%coreGivesNoEmail%4,        McGinn%T.%coreGivesNoEmail%4,        Mogavero%J.N.%coreGivesNoEmail%4,        Narasimhan%M.%coreGivesNoEmail%4,        Osorio%G.A.%coreGivesNoEmail%4,        Qiu%M.%coreGivesNoEmail%4,        Richardson%S.%coreGivesNoEmail%4,        Zanos%T.P.%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,         Viet-Thi%Tran%NULL%4,         Viet-Thi%Tran%NULL%0,         Mathilde%Roumier%NULL%2,         Amélie%Chabrol%NULL%2,         Romain%Paule%NULL%2,         Constance%Guillaud%NULL%2,         Elena%Fois%NULL%2,         Raphael%Lepeule%NULL%2,         Tali-Anne%Szwebel%NULL%2,         François-Xavier%Lescure%NULL%2,         Frédéric%Schlemmer%NULL%2,         Marie%Matignon%NULL%2,         Mehdi%Khellaf%NULL%2,         Etienne%Crickx%NULL%2,         Benjamin%Terrier%NULL%2,         Caroline%Morbieu%NULL%2,         Paul%Legendre%NULL%2,         Julien%Dang%NULL%2,         Yoland%Schoindre%NULL%2,         Jean-Michel%Pawlotsky%NULL%2,         Marc%Michel%NULL%2,         Elodie%Perrodeau%NULL%2,         Nicolas%Carlier%NULL%2,         Nicolas%Roche%NULL%2,         Victoire%de Lastours%NULL%2,         Clément%Ourghanlian%NULL%2,         Solen%Kerneis%NULL%2,         Philippe%Ménager%NULL%2,         Luc%Mouthon%NULL%2,         Etienne%Audureau%NULL%2,         Philippe%Ravaud%NULL%2,         Bertrand%Godeau%NULL%2,         Sébastien%Gallien%NULL%2,         Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Rahul%Shekhar%xref no email%1,  Abu Baker%Sheikh%xref no email%1,  Shubhra%Upadhyay%xref no email%1,  Jeanette%Atencio%xref no email%1,  Devika%Kapuria%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,       Yu%Zuo%NULL%1,       Srilakshmi%Yalavarthi%NULL%1,       Kelsey%Gockman%NULL%1,       Melanie%Zuo%NULL%1,       Jacqueline A%Madison%NULL%1,       Christopher%Blair%NULL%1,       Wrenn%Woodward%NULL%1,       Sean P%Lezak%NULL%1,       Njira L%Lugogo%NULL%1,       Robert J%Woods%NULL%1,       Christian%Lood%NULL%1,       Jason S%Knight%NULL%2,       Jason S%Knight%NULL%0,       Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,         Raef A.%Fadel%NULL%1,         Kelly M.%Malette%NULL%1,         Charles%Hammond%NULL%1,         Hafsa%Abdulla%NULL%1,         Abigail%Entz%NULL%1,         Zachary%Demertzis%NULL%1,         Zachary%Hanna%NULL%1,         Andrew%Failla%NULL%1,         Carina%Dagher%NULL%0,         Zohra%Chaudhry%NULL%2,         Amit%Vahia%NULL%2,         Odaliz%Abreu Lanfranco%NULL%1,         Mayur%Ramesh%NULL%1,         Marcus J.%Zervos%NULL%1,         George%Alangaden%NULL%2,         Joseph%Miller%NULL%2,         Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Felipe%Olivares%xref no email%1,  Daniel%Mu\u00f1oz%xref no email%1,  Alberto%Fica%xref no email%1,  Ignacio%Delama%xref no email%1,  Ignacia%Alvarez%xref no email%1,  Maritza%Navarrete%xref no email%1,  Eileen%Blackburn%xref no email%1,  Pamela%Garrido%xref no email%1,  Ricardo%Wenger%xref no email%1,  Juan%Grandjean%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,           J.% Jiang%null%1,           X.% Xu%null%1,           Y.% Hu%null%2,           Y.% Hu%null%0,           Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,          Chenchen%Qian%NULL%1,          Zhibing%Luo%NULL%1,          Qiang%Li%liqressh@hotmail.com%0,          Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,          Chunlin%Cai%NULL%1,          Jinglei%Zang%NULL%1,          Jun%Xie%NULL%1,          Dan%Xu%NULL%0,          Fang%Zheng%NULL%0,          Tao%Zhan%NULL%1,          Kang%Huang%NULL%1,          Yikai%Wang%NULL%1,          Xiao%Wang%NULL%1,          Zhe-Yu%Hu%NULL%1,          Yapeng%Deng%NULL%1,          Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,          Naofumi%Bunya%NULL%1,          Tomoyuki%Endo%NULL%1,          Yuji%Fujino%NULL%1,          Kensuke%Fujita%NULL%1,          Kenji%Fujizuka%NULL%1,          Yoshihiro%Hagiwara%NULL%1,          Jun%Hamaguchi%NULL%1,          Yoshitaka%Hara%NULL%1,          Eiji%Hashiba%NULL%1,          Satoru%Hashimoto%NULL%1,          Noriyuki%Hattori%NULL%1,          Kota%Hoshino%NULL%1,          Shinichi%Ijuin%NULL%1,          Takanari%Ikeyama%NULL%1,          Shingo%Ichiba%NULL%1,          Wataru%Iwanaga%NULL%1,          Yoshiaki%Iwashita%NULL%1,          Masafumi%Kanamoto%NULL%1,          Hitoshi%Kaneko%NULL%1,          Kaneyuki%Kawamae%NULL%1,          Toru%Kotani%NULL%1,          Yasuaki%Koyama%NULL%1,          Keibun%Liu%NULL%1,          Tomohiko%Masuno%NULL%1,          Naoto%Morimura%NULL%1,          Tomoyuki%Nakamura%NULL%1,          Masaki%Nakane%NULL%1,          Michitaka%Nasu%NULL%1,          Osamu%Nishida%NULL%1,          Masaji%Nishimura%NULL%1,          Kanae%Ochiai%NULL%1,          Takayuki%Ogura%NULL%1,          Shinichiro%Ohshimo%NULL%1,          Keisuke%Oyama%NULL%1,          Junichi%Sasaki%NULL%1,          Ryutaro%Seo%NULL%1,          Takeshi%Shimazu%NULL%1,          Nobuaki%Shime%NULL%4,          Keiki%Shimizu%NULL%1,          Hiroyuki%Suzuki%NULL%1,          Shuhei%Takauji%NULL%1,          Shinhiro%Takeda%NULL%1,          Ichiro%Takeuchi%NULL%2,          Mumon%Takita%NULL%1,          Hayato%Taniguchi%NULL%1,          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,          Yi Xin%Tong%NULL%3,          Sheng%Zhang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,          Hong%Chen%NULL%0,          Zhen%Li%NULL%2,          Bo%Wang%NULL%0,          Zhong-Wei%Zhang%NULL%1,          Wei-Min%Li%NULL%0,          Zong-An%Liang%NULL%0,          Jin%Tang%NULL%1,          Jian%Wang%NULL%1,          Rui%Shi%NULL%1,          Xiao-Dong%Jin%NULL%1,          Yan%Kang%NULL%0,          Pei-Fang%Wei%NULL%8,          Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,           S. F.% Mahmood%null%1,           K.% Habib%null%1,           I.% Khanum%null%1,           B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,          Chaisith%Sivakorn%NULL%1,          Tanuwong%Viarasilpa%NULL%1,          Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,          Mu%Qin%qinmuae@163.com%1,          Yuli%Cai%NULL%1,          Tao%Liu%NULL%0,          Bo%Shen%NULL%1,          Fan%Yang%NULL%2,          Sheng%Cao%NULL%1,          Xu%Liu%NULL%2,          Xu%Liu%NULL%0,          Yaozu%Xiang%NULL%1,          Qinyan%Zhao%NULL%1,          He%Huang%huanghe1977@whu.edu.cn%0,          Bo%Yang%yybb112@whu.edu.cn%0,          Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,          Win%Kulvichit%NULL%1,          Sunchai%Payungporn%NULL%1,          Trairak%Pisitkun%NULL%1,          Ariya%Chindamporn%NULL%1,          Sadudee%Peerapornratana%NULL%1,          Prapaporn%Pisitkun%NULL%1,          Suwalak%Chitcharoen%NULL%1,          Vorthon%Sawaswong%NULL%1,          Navaporn%Worasilchai%NULL%1,          Sarinya%Kampunya%NULL%1,          Opass%Putcharoen%NULL%1,          Thammasak%Thawitsri%NULL%1,          Nophol%Leelayuwatanakul%NULL%1,          Napplika%Kongpolprom%NULL%1,          Vorakamol%Phoophiboon%NULL%1,          Thitiwat%Sriprasart%NULL%1,          Rujipat%Samransamruajkit%NULL%1,          Somkanya%Tungsanga%NULL%1,          Kanitha%Tiankanon%NULL%1,          Nuttha%Lumlertgul%NULL%1,          Asada%Leelahavanichkul%NULL%1,          Tueboon%Sriphojanart%NULL%1,          Terapong%Tantawichien%NULL%1,          Usa%Thisyakorn%NULL%1,          Chintana%Chirathaworn%NULL%1,          Kearkiat%Praditpornsilpa%NULL%1,          Kriang%Tungsanga%NULL%1,          Somchai%Eiam-Ong%NULL%1,          Visith%Sitprija%NULL%1,          John A.%Kellum%NULL%1,          Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,          Min%Pan%NULL%3,          Xiumei%Zhang%NULL%3,          Mingfeng%Han%fyhmf@163.com%0,          Xiaoyun%Fan%13956988552@126.com%3,          Fengde%Zhao%NULL%3,          Manli%Miao%NULL%3,          Jing%Xu%NULL%0,          Minglong%Guan%NULL%3,          Xia%Deng%NULL%3,          Xu%Chen%NULL%4,          Leilei%Shen%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,          Chunli%Tang%NULL%0,          Ruchong%Chen%NULL%1,          Honglian%Ruan%NULL%1,          Wenhua%Liang%NULL%0,          Weijie%Guan%NULL%0,          Ling%Sang%NULL%0,          Ruidi%Tang%NULL%1,          Nanshan%Zhong%NULL%0,          Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiao%Yang%xref no email%1,   Shuhan%Cai%xref no email%1,   Yun%Luo%xref no email%1,   Fangfang%Zhu%xref no email%1,   Ming%Hu%xref no email%1,   Yan%Zhao%xref no email%1,   Ruiqiang%Zheng%xref no email%1,   Xuyan%Li%xref no email%1,   Bo%Hu%xref no email%0,   Zhiyong%Peng%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%5,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%5,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%5,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%5,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%5,          Shangwen%Pan%NULL%5,          Xiaojing%Zou%NULL%7,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,          Shanyan%Zhang%NULL%2,          Xiaoli%Zhang%NULL%1,          Huan%Cai%NULL%2,          Jueqing%Gu%NULL%2,          Jiangshan%Lian%NULL%2,          Yingfeng%Lu%NULL%2,          Hongyu%Jia%NULL%2,          Jianhua%Hu%NULL%2,          Ciliang%Jin%NULL%2,          Guodong%Yu%NULL%2,          Yimin%Zhang%NULL%2,          Jifang%Sheng%NULL%4,          Yida%Yang%yidayang65@zju.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,          Dan%Xu%NULL%0,          Shouzhi%Fu%NULL%0,          Jun%Zhang%NULL%0,          Xiaobo%Yang%NULL%0,          Liang%Xu%NULL%0,          Jiqian%Xu%NULL%0,          Yongran%Wu%NULL%0,          Chaolin%Huang%NULL%0,          Yaqi%Ouyang%NULL%0,          Luyu%Yang%NULL%0,          Minghao%Fang%NULL%0,          Hongwen%Xiao%NULL%0,          Jing%Ma%NULL%0,          Wei%Zhu%NULL%0,          Song%Hu%NULL%0,          Quan%Hu%NULL%0,          Daoyin%Ding%NULL%0,          Ming%Hu%NULL%0,          Guochao%Zhu%NULL%0,          Weijiang%Xu%NULL%0,          Jun%Guo%NULL%0,          Jinglong%Xu%NULL%0,          Haitao%Yuan%NULL%0,          Bin%Zhang%NULL%0,          Zhui%Yu%yuzhui@whu.edu.cn%0,          Dechang%Chen%icudechangchen@163.com%0,          Shiying%Yuan%yuan_shiying@163.com%0,          You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,          Hao-Yu%Gao%NULL%1,          Zi-Yi%Feng%NULL%1,          Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,          Li-jun%Sun%NULL%1,          Mi%Xu%NULL%1,          Jian%Pan%NULL%1,          Yun-tao%Zhang%NULL%1,          Xue-ling%Fang%NULL%1,          Qiang%Fang%NULL%2,          Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,          Ziqiang%Du%NULL%1,          Yanfang%Zhu%NULL%1,          Wenfeng%Li%NULL%1,          Hongjun%Miao%NULL%1,          Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,          Sarah%Al-Youha%sarahalyouha@gmail.com%1,          Mohammad H.%Jamal%NULL%1,          Mohannad%Al-Haddad%NULL%1,          Ali%Al-Muhaini%NULL%1,          Fahad%Al-Ghimlas%NULL%1,          Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,          Mina%Akbari Rad%NULL%1,          Robert%Bergquist%NULL%1,          Abolghasem%Allahyari%NULL%1,          Kamila%Hashemzadeh%NULL%1,          Nasrin%Milani%NULL%1,          Mahdi%Gholian-Aval%NULL%1,          Fariba%Rezaeitalab%NULL%1,          Mohammad Jafar%Sadeghi Quchani%NULL%1,          Zahra%Nahbandani%NULL%1,          Mandana%Khodashahi%NULL%1,          Zahra%Javid%NULL%1,          Mahnaz%Mozdourian%NULL%1,          Mohammad Ali%Yaghoubi%NULL%1,          Zahra%Mozaheb%NULL%1,          Mohsen%Seddigh-Shamsi%NULL%1,          Mohammad%Moeini Nodeh%NULL%1,          Shima%Nabavi%NULL%1,          Hooman%Mosannen Mozaffari%NULL%1,          Mohammadreza%Farzanehfar%NULL%1,          Zahra%Lotfi%NULL%1,          Alireza%Shariati%NULL%1,          Shekoofe%Bonakdaran%NULL%1,          Zahra%Rezaieyazdi%NULL%1,          Zahra%Mirfeizi%NULL%1,          Maryam%Miri%NULL%1,          Reza%Bassiri%NULL%1,          Sajjad%Ataei Azimi%NULL%1,          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,          Ibrahim%Al-Zakwani%NULL%1,          Hamed%Al Naamani%NULL%1,          Sultan%Al Lawati%NULL%1,          Nenad%Pandak%NULL%1,          Muna Ba%Omar%NULL%1,          Maher%Al Bahrani%NULL%1,          Zakaryia AL%Bulushi%NULL%1,          Huda%Al Khalili%NULL%1,          Issa%Al Salmi%NULL%1,          Ruwaida%Al Ismaili%NULL%1,          Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,          Zohre%Khodamoradi%NULL%1,          Amirhossein%Erfani%NULL%1,          Hamidreza%Hosseinpour%NULL%1,          Keivan%Ranjbar%NULL%1,          Yasaman%Emami%NULL%1,          Alireza%Mirahmadizadeh%NULL%1,          Mehrzad%Lotfi%NULL%1,          Babak%Shirazi Yeganeh%NULL%1,          Abolfazl%Dorrani Nejad%NULL%1,          Abdolrasool%Hemmati%NULL%1,          Mostafa%Ebrahimi%NULL%1,          Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,          Annachiara%Ferrari%NULL%2,          Annachiara%Ferrari%NULL%0,          Francesco%Fontana%NULL%1,          Giacomo%Mori%NULL%1,          Riccardo%Magistroni%NULL%1,          Marianna%Meschiari%NULL%1,          Erica%Franceschini%NULL%1,          Marianna%Menozzi%NULL%1,          Gianluca%Cuomo%NULL%1,          Gabriella%Orlando%NULL%1,          Antonella%Santoro%NULL%1,          Margherita%Digaetano%NULL%1,          Cinzia%Puzzolante%NULL%1,          Federica%Carli%NULL%1,          Andrea%Bedini%NULL%1,          Jovana%Milic%NULL%1,          Irene%Coloretti%NULL%1,          Paolo%Raggi%NULL%1,          Cristina%Mussini%NULL%1,          Massimo%Girardis%NULL%1,          Gianni%Cappelli%NULL%1,          Giovanni%Guaraldi%NULL%1,          NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,          Silvia%Bettini%NULL%2,          Silvia%Bettini%NULL%0,          Roberto%Fabris%NULL%1,          Roberto%Serra%NULL%2,          Chiara%Dal Pra%NULL%1,          Pietro%Maffei%NULL%1,          Marco%Rossato%NULL%1,          Paola%Fioretto%NULL%0,          Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,          Marco%Roncador%NULL%2,          Marco%Roncador%NULL%0,          Andrea%Saporito%NULL%1,          Maira%Biggiogero%NULL%1,          Andrea%Glotta%NULL%1,          Pier Andrea%Maida%NULL%1,          Patrizia%Urso%NULL%1,          Giovanni%Bona%NULL%1,          Christian%Garzoni%NULL%1,          Romano%Mauri%NULL%1,          Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,          Anna Lisa%Ridolfo%NULL%4,          Laura%Milazzo%NULL%2,          Letizia%Oreni%NULL%4,          Dario%Bernacchia%NULL%4,          Matteo%Siano%NULL%4,          Cecilia%Bonazzetti%NULL%2,          Alice%Covizzi%NULL%2,          Marco%Schiuma%NULL%2,          Matteo%Passerini%NULL%2,          Marco%Piscaglia%NULL%2,          Massimo%Coen%NULL%2,          Guido%Gubertini%NULL%2,          Giuliano%Rizzardini%NULL%4,          Chiara%Cogliati%NULL%2,          Anna Maria%Brambilla%NULL%2,          Riccardo%Colombo%NULL%2,          Antonio%Castelli%NULL%2,          Roberto%Rech%NULL%2,          Agostino%Riva%NULL%2,          Alessandro%Torre%NULL%2,          Luca%Meroni%NULL%2,          Stefano%Rusconi%NULL%4,          Spinello%Antinori%NULL%4,          Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%4,         Castelli%Antonio%coreGivesNoEmail%4,         Cecconi%Maurizio%coreGivesNoEmail%4,         Cereda%Danilo%coreGivesNoEmail%4,         Coluccello%Antonio%coreGivesNoEmail%4,         Foti%Giuseppe%coreGivesNoEmail%4,         Fumagalli%Roberto%coreGivesNoEmail%4,         Grasselli%Giacomo%coreGivesNoEmail%4,         Iotti%Giorgio%coreGivesNoEmail%4,         Latronico%Nicola%coreGivesNoEmail%4,         Lorini%Luca%coreGivesNoEmail%4,         Merler%Stefano%coreGivesNoEmail%4,         Natalini%Giuseppe%coreGivesNoEmail%4,         Pesenti%Antonio%coreGivesNoEmail%4,         Piatti%Alessandra%coreGivesNoEmail%4,         Ranieri%Marco Vito%coreGivesNoEmail%4,         Scandroglio%Anna Mara%coreGivesNoEmail%4,         Storti%Enrico%coreGivesNoEmail%4,         Zanella%Alberto%coreGivesNoEmail%4,         Zangrillo%Alberto%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,          Lara%Gianesello%gianesello.lara@libero.it%1,          Maddalena%Pazzi%NULL%2,          Maddalena%Pazzi%NULL%0,          Caterina%Stera%NULL%1,          Tommaso%Meconi%NULL%1,          Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,          Andrea%Dalbeni%NULL%2,          Andrea%Dalbeni%NULL%0,          Elia%Vettore%NULL%2,          Elia%Vettore%NULL%0,          Devis%Benfaremo%NULL%1,          Massimo%Mattioli%NULL%1,          Carmine G.%Gambino%NULL%1,          Viviana%Framba%NULL%2,          Viviana%Framba%NULL%0,          Lorenzo%Cerruti%NULL%1,          Anna%Mantovani%NULL%1,          Andrea%Martini%NULL%1,          Michele M.%Luchetti%NULL%1,          Roberto%Serra%NULL%0,          Annamaria%Cattelan%NULL%1,          Roberto%Vettor%NULL%0,          Paolo%Angeli%NULL%1,          NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,          Matthaios%Papadimitriou-Olivgeris%NULL%2,          Matthaios%Papadimitriou-Olivgeris%NULL%0,          Raphaël%Burger%NULL%1,          Marie-Annick%Le Pogam%NULL%1,          Tapio%Niemi%NULL%2,          Tapio%Niemi%NULL%0,          Paraskevas%Filippidis%NULL%1,          Jonathan%Tschopp%NULL%1,          Florian%Desgranges%NULL%1,          Benjamin%Viala%NULL%1,          Eleftheria%Kampouri%NULL%1,          Laurence%Rochat%NULL%2,          Laurence%Rochat%NULL%0,          David%Haefliger%NULL%1,          Mehdi%Belkoniene%NULL%1,          Carlos%Fidalgo%NULL%1,          Antonios%Kritikos%NULL%1,          Katia%Jaton%NULL%1,          Laurence%Senn%NULL%1,          Pierre-Alexandre%Bart%NULL%1,          Jean-Luc%Pagani%NULL%2,          Jean-Luc%Pagani%NULL%0,          Oriol%Manuel%NULL%1,          Loïc%Lhopitallier%NULL%1,          Chiara%Lazzeri%NULL%2,          Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,          Ashwin%Subramaniam%NULL%2,          Ashwin%Subramaniam%NULL%0,          Mallikarjuna%Ponnapa Reddy%NULL%2,          Mallikarjuna%Ponnapa Reddy%NULL%0,          Gabriel%Blecher%NULL%1,          Umesh%Kadam%NULL%2,          Umesh%Kadam%NULL%0,          Afsana%Afroz%NULL%1,          Baki%Billah%NULL%1,          Sushma%Ashwin%NULL%1,          Mark%Kubicki%NULL%1,          Federico%Bilotta%NULL%1,          J. Randall%Curtis%NULL%2,          J. Randall%Curtis%NULL%0,          Francesca%Rubulotta%NULL%2,          Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,         Aggarwal%Saurabh%coreGivesNoEmail%3,         Garcia-Telles%Nelson%coreGivesNoEmail%3,         Henry%Brandon Michael%coreGivesNoEmail%3,         Lavie%Carl%coreGivesNoEmail%3,         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,          Samuel L%Bruce%NULL%2,          Cody L%Slater%NULL%2,          Jonathan R%Tiao%NULL%2,          Matthew R%Baldwin%NULL%3,          R Graham%Barr%NULL%2,          Bernard P%Chang%NULL%2,          Katherine H%Chau%NULL%2,          Justin J%Choi%NULL%2,          Nicholas%Gavin%NULL%2,          Parag%Goyal%NULL%2,          Angela M%Mills%NULL%2,          Ashmi A%Patel%NULL%2,          Marie-Laure S%Romney%NULL%2,          Monika M%Safford%NULL%2,          Neil W%Schluger%NULL%2,          Soumitra%Sengupta%NULL%2,          Magdalena E%Sobieszczyk%NULL%2,          Jason E%Zucker%NULL%2,          Paul A%Asadourian%NULL%2,          Fletcher M%Bell%NULL%2,          Rebekah%Boyd%NULL%2,          Matthew F%Cohen%NULL%2,          MacAlistair I%Colquhoun%NULL%2,          Lucy A%Colville%NULL%2,          Joseph H%de Jonge%NULL%2,          Lyle B%Dershowitz%NULL%2,          Shirin A%Dey%NULL%2,          Katherine A%Eiseman%NULL%2,          Zachary P%Girvin%NULL%2,          Daniella T%Goni%NULL%2,          Amro A%Harb%NULL%2,          Nicholas%Herzik%NULL%2,          Sarah%Householder%NULL%2,          Lara E%Karaaslan%NULL%2,          Heather%Lee%NULL%2,          Evan%Lieberman%NULL%2,          Andrew%Ling%NULL%2,          Ree%Lu%NULL%2,          Arthur Y%Shou%NULL%2,          Alexander C%Sisti%NULL%2,          Zachary E%Snow%NULL%2,          Colin P%Sperring%NULL%2,          Yuqing%Xiong%NULL%2,          Henry W%Zhou%NULL%2,          Karthik%Natarajan%NULL%2,          George%Hripcsak%NULL%2,          Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,          Mark%Caridi-Scheible%NULL%3,          James M.%Blum%NULL%2,          Chad%Robichaux%NULL%2,          Colleen%Kraft%NULL%2,          Jesse T.%Jacob%NULL%2,          Craig S.%Jabaley%NULL%2,          David%Carpenter%NULL%2,          Roberta%Kaplow%NULL%2,          Alfonso C.%Hernandez-Romieu%NULL%2,          Max W.%Adelman%NULL%2,          Greg S.%Martin%NULL%2,          Craig M.%Coopersmith%NULL%2,          David J.%Murphy%NULL%2,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%0,          Michelle%Nichols%NULL%0,          Richard%Kim%NULL%0,          Keith R.%Jerome%NULL%0,          Arun K.%Nalla%NULL%0,          Alexander L.%Greninger%NULL%0,          Sudhakar%Pipavath%NULL%0,          Mark M.%Wurfel%NULL%0,          Laura%Evans%NULL%0,          Patricia A.%Kritek%NULL%0,          T. Eoin%West%NULL%0,          Andrew%Luks%NULL%0,          Anthony%Gerbino%NULL%0,          Chris R.%Dale%NULL%0,          Jason D.%Goldman%NULL%0,          Shane%O’Mahony%NULL%0,          Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,          Denise J%McCulloch%NULL%0,          Denise J%McCulloch%NULL%0,          Vidya%Atluri%NULL%0,          Michela%Blain%NULL%0,          Sarah A%McGuffin%NULL%0,          Arun K%Nalla%NULL%0,          Meei-Li%Huang%NULL%0,          Alex L%Greninger%NULL%0,          Keith R%Jerome%NULL%0,          Seth A%Cohen%NULL%0,          Santiago%Neme%NULL%0,          Margaret L%Green%NULL%0,          Helen Y%Chu%NULL%0,          H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,          Joelle I.%Rosser%NULL%0,          Orlando%Quintero%NULL%0,          Jake%Scott%NULL%0,          Aruna%Subramanian%NULL%0,          Mohammad%Gumma%NULL%0,          Angela%Rogers%NULL%0,          Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,          Jacob%Fiksel%NULL%2,          Jacob%Fiksel%NULL%0,          John%Muschelli%NULL%2,          John%Muschelli%NULL%0,          Matthew L.%Robinson%NULL%2,          Matthew L.%Robinson%NULL%0,          Masoud%Rouhizadeh%NULL%2,          Masoud%Rouhizadeh%NULL%0,          Jamie%Perin%NULL%2,          Jamie%Perin%NULL%0,          Grant%Schumock%NULL%2,          Grant%Schumock%NULL%0,          Paul%Nagy%NULL%2,          Paul%Nagy%NULL%0,          Josh H.%Gray%NULL%2,          Josh H.%Gray%NULL%0,          Harsha%Malapati%NULL%2,          Harsha%Malapati%NULL%0,          Mariam%Ghobadi-Krueger%NULL%2,          Mariam%Ghobadi-Krueger%NULL%0,          Timothy M.%Niessen%NULL%1,          Bo Soo%Kim%NULL%1,          Peter M.%Hill%NULL%1,          M. Shafeeq%Ahmed%NULL%1,          Eric D.%Dobkin%NULL%1,          Renee%Blanding%NULL%1,          Jennifer%Abele%NULL%1,          Bonnie%Woods%NULL%1,          Kenneth%Harkness%NULL%1,          David R.%Thiemann%NULL%1,          Mary G.%Bowring%NULL%1,          Aalok B.%Shah%NULL%2,          Aalok B.%Shah%NULL%0,          Mei-Cheng%Wang%NULL%1,          Karen%Bandeen-Roche%NULL%1,          Antony%Rosen%NULL%1,          Scott L.%Zeger%NULL%2,          Scott L.%Zeger%NULL%0,          Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,          Justin J.%Choi%NULL%0,          Laura C.%Pinheiro%NULL%0,          Edward J.%Schenck%NULL%0,          Ruijun%Chen%NULL%0,          Assem%Jabri%NULL%0,          Michael J.%Satlin%NULL%0,          Thomas R.%Campion%NULL%0,          Musarrat%Nahid%NULL%0,          Joanna B.%Ringel%NULL%0,          Katherine L.%Hoffman%NULL%0,          Mark N.%Alshak%NULL%0,          Han A.%Li%NULL%0,          Graham T.%Wehmeyer%NULL%0,          Graham T.%Wehmeyer%NULL%0,          Mangala%Rajan%NULL%0,          Evgeniya%Reshetnyak%NULL%0,          Nathaniel%Hupert%NULL%0,          Evelyn M.%Horn%NULL%0,          Fernando J.%Martinez%NULL%0,          Roy M.%Gulick%NULL%0,          Monika M.%Safford%NULL%0,          Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,          Simon A%Jones%NULL%0,          Jie%Yang%NULL%0,          Harish%Rajagopalan%NULL%0,          Luke%O’Donnell%NULL%0,          Yelena%Chernyak%NULL%0,          Katie A%Tobin%NULL%0,          Robert J%Cerfolio%NULL%0,          Fritz%Francois%NULL%0,          Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,          Anatoly%Mitrokhin%NULL%2,          Anatoly%Mitrokhin%NULL%0,          Ajai%Rajabalan%NULL%1,          Christian%Benjamin%NULL%1,          Sushma%Raviralla%NULL%1,          Vishnu R%Mani%vishnu.mani@duke.edu%2,          Vishnu R%Mani%vishnu.mani@duke.edu%0,          Aleksandr%Kalabin%NULL%2,          Aleksandr%Kalabin%NULL%0,          Sebastian C%Valdivieso%NULL%2,          Sebastian C%Valdivieso%NULL%0,          Max%Murray-Ramcharan%NULL%2,          Max%Murray-Ramcharan%NULL%0,          Brian%Donaldson%NULL%2,          Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,           Nicholas A.%Fergusson%null%2,           Elisa%Lloyd-Smith%null%2,           Andrew%Wormsbecker%null%2,           Denise%Foster%null%2,           Andrei%Karpov%null%2,           Sarah%Crowe%null%2,           Greg%Haljan%null%2,           Dean R.%Chittock%null%2,           Hussein D.%Kanji%null%2,           Mypinder S.%Sekhon%null%2,           Donald E.G.%Griesdale%null%2,         Anish R.%Mitra%null%1,         Nicholas A.%Fergusson%null%1,         Elisa%Lloyd-Smith%null%1,         Andrew%Wormsbecker%null%1,         Denise%Foster%null%1,         Andrei%Karpov%null%1,         Sarah%Crowe%null%1,         Greg%Haljan%null%1,         Dean R.%Chittock%null%1,         Hussein D.%Kanji%null%1,         Mypinder S.%Sekhon%null%1,         Donald E.G.%Griesdale%null%1]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,          Damianos G.%Kokkinidis%NULL%1,          Weijia%Li%NULL%1,          Dimitrios%Karamanis%NULL%1,          Jennifer%Ognibene%NULL%1,          Shitij%Arora%NULL%1,          William N.%Southern%NULL%1,          Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,          Jesus D.%Gonzalez-Lugo%NULL%1,          Shafia%Rahman%NULL%1,          Mohammad%Barouqa%NULL%1,          James%Szymanski%NULL%1,          Kenji%Ikemura%NULL%1,          Yungtai%Lo%NULL%1,          Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%4,         Chelico%J.D.%coreGivesNoEmail%4,         Cohen%S.L.%coreGivesNoEmail%4,         Cookingham%J.%coreGivesNoEmail%4,         Coppa%K.%coreGivesNoEmail%4,         Crawford%J.M.%coreGivesNoEmail%4,         Davidson%K.W.%coreGivesNoEmail%4,         Diefenbach%M.A.%coreGivesNoEmail%4,         Dominello%A.J.%coreGivesNoEmail%4,         Duer-Hefele%J.%coreGivesNoEmail%4,         Falzon%L.%coreGivesNoEmail%4,         Gitlin%J.%coreGivesNoEmail%4,         Hajizadeh%N.%coreGivesNoEmail%4,         Harvin%T.G.%coreGivesNoEmail%4,         Hirsch%J.S.%coreGivesNoEmail%4,         Hirschwerk%D.A.%coreGivesNoEmail%4,         Kim%E.J.%coreGivesNoEmail%4,         Kozel%Z.M.%coreGivesNoEmail%4,         Marrast%L.M.%coreGivesNoEmail%4,         McGinn%T.%coreGivesNoEmail%4,         Mogavero%J.N.%coreGivesNoEmail%4,         Narasimhan%M.%coreGivesNoEmail%4,         Osorio%G.A.%coreGivesNoEmail%4,         Qiu%M.%coreGivesNoEmail%4,         Richardson%S.%coreGivesNoEmail%4,         Zanos%T.P.%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,          Viet-Thi%Tran%NULL%4,          Viet-Thi%Tran%NULL%0,          Mathilde%Roumier%NULL%2,          Amélie%Chabrol%NULL%2,          Romain%Paule%NULL%2,          Constance%Guillaud%NULL%2,          Elena%Fois%NULL%2,          Raphael%Lepeule%NULL%2,          Tali-Anne%Szwebel%NULL%2,          François-Xavier%Lescure%NULL%2,          Frédéric%Schlemmer%NULL%2,          Marie%Matignon%NULL%2,          Mehdi%Khellaf%NULL%2,          Etienne%Crickx%NULL%2,          Benjamin%Terrier%NULL%2,          Caroline%Morbieu%NULL%2,          Paul%Legendre%NULL%2,          Julien%Dang%NULL%2,          Yoland%Schoindre%NULL%2,          Jean-Michel%Pawlotsky%NULL%2,          Marc%Michel%NULL%2,          Elodie%Perrodeau%NULL%2,          Nicolas%Carlier%NULL%2,          Nicolas%Roche%NULL%2,          Victoire%de Lastours%NULL%2,          Clément%Ourghanlian%NULL%2,          Solen%Kerneis%NULL%2,          Philippe%Ménager%NULL%2,          Luc%Mouthon%NULL%2,          Etienne%Audureau%NULL%2,          Philippe%Ravaud%NULL%2,          Bertrand%Godeau%NULL%2,          Sébastien%Gallien%NULL%2,          Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Rahul%Shekhar%xref no email%1,   Abu Baker%Sheikh%xref no email%1,   Shubhra%Upadhyay%xref no email%1,   Jeanette%Atencio%xref no email%1,   Devika%Kapuria%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,        Yu%Zuo%NULL%1,        Srilakshmi%Yalavarthi%NULL%1,        Kelsey%Gockman%NULL%1,        Melanie%Zuo%NULL%1,        Jacqueline A%Madison%NULL%1,        Christopher%Blair%NULL%1,        Wrenn%Woodward%NULL%1,        Sean P%Lezak%NULL%1,        Njira L%Lugogo%NULL%1,        Robert J%Woods%NULL%1,        Christian%Lood%NULL%1,        Jason S%Knight%NULL%2,        Jason S%Knight%NULL%0,        Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,          Raef A.%Fadel%NULL%1,          Kelly M.%Malette%NULL%1,          Charles%Hammond%NULL%1,          Hafsa%Abdulla%NULL%1,          Abigail%Entz%NULL%1,          Zachary%Demertzis%NULL%1,          Zachary%Hanna%NULL%1,          Andrew%Failla%NULL%1,          Carina%Dagher%NULL%0,          Zohra%Chaudhry%NULL%2,          Amit%Vahia%NULL%2,          Odaliz%Abreu Lanfranco%NULL%1,          Mayur%Ramesh%NULL%1,          Marcus J.%Zervos%NULL%1,          George%Alangaden%NULL%2,          Joseph%Miller%NULL%2,          Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Felipe%Olivares%xref no email%1,   Daniel%Mu\u00f1oz%xref no email%1,   Alberto%Fica%xref no email%1,   Ignacio%Delama%xref no email%1,   Ignacia%Alvarez%xref no email%1,   Maritza%Navarrete%xref no email%1,   Eileen%Blackburn%xref no email%1,   Pamela%Garrido%xref no email%1,   Ricardo%Wenger%xref no email%1,   Juan%Grandjean%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,            J.% Jiang%null%1,            X.% Xu%null%1,            Y.% Hu%null%2,            Y.% Hu%null%0,            Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,           Chenchen%Qian%NULL%1,           Zhibing%Luo%NULL%1,           Qiang%Li%liqressh@hotmail.com%0,           Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,           Chunlin%Cai%NULL%1,           Jinglei%Zang%NULL%1,           Jun%Xie%NULL%1,           Dan%Xu%NULL%0,           Fang%Zheng%NULL%0,           Tao%Zhan%NULL%1,           Kang%Huang%NULL%1,           Yikai%Wang%NULL%1,           Xiao%Wang%NULL%0,           Zhe-Yu%Hu%NULL%1,           Yapeng%Deng%NULL%1,           Yuanlin%Xie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,           Naofumi%Bunya%NULL%1,           Tomoyuki%Endo%NULL%1,           Yuji%Fujino%NULL%1,           Kensuke%Fujita%NULL%1,           Kenji%Fujizuka%NULL%1,           Yoshihiro%Hagiwara%NULL%1,           Jun%Hamaguchi%NULL%1,           Yoshitaka%Hara%NULL%1,           Eiji%Hashiba%NULL%1,           Satoru%Hashimoto%NULL%1,           Noriyuki%Hattori%NULL%1,           Kota%Hoshino%NULL%1,           Shinichi%Ijuin%NULL%1,           Takanari%Ikeyama%NULL%1,           Shingo%Ichiba%NULL%1,           Wataru%Iwanaga%NULL%1,           Yoshiaki%Iwashita%NULL%1,           Masafumi%Kanamoto%NULL%1,           Hitoshi%Kaneko%NULL%1,           Kaneyuki%Kawamae%NULL%1,           Toru%Kotani%NULL%1,           Yasuaki%Koyama%NULL%1,           Keibun%Liu%NULL%1,           Tomohiko%Masuno%NULL%1,           Naoto%Morimura%NULL%1,           Tomoyuki%Nakamura%NULL%1,           Masaki%Nakane%NULL%1,           Michitaka%Nasu%NULL%1,           Osamu%Nishida%NULL%1,           Masaji%Nishimura%NULL%1,           Kanae%Ochiai%NULL%1,           Takayuki%Ogura%NULL%1,           Shinichiro%Ohshimo%NULL%1,           Keisuke%Oyama%NULL%1,           Junichi%Sasaki%NULL%1,           Ryutaro%Seo%NULL%1,           Takeshi%Shimazu%NULL%1,           Nobuaki%Shime%NULL%4,           Keiki%Shimizu%NULL%1,           Hiroyuki%Suzuki%NULL%1,           Shuhei%Takauji%NULL%1,           Shinhiro%Takeda%NULL%1,           Ichiro%Takeuchi%NULL%2,           Mumon%Takita%NULL%1,           Hayato%Taniguchi%NULL%1,           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,           Yi Xin%Tong%NULL%3,           Sheng%Zhang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,           Hong%Chen%NULL%0,           Zhen%Li%NULL%2,           Bo%Wang%NULL%0,           Zhong-Wei%Zhang%NULL%1,           Wei-Min%Li%NULL%0,           Zong-An%Liang%NULL%0,           Jin%Tang%NULL%1,           Jian%Wang%NULL%1,           Rui%Shi%NULL%1,           Xiao-Dong%Jin%NULL%1,           Yan%Kang%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,            S. F.% Mahmood%null%1,            K.% Habib%null%1,            I.% Khanum%null%1,            B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,           Chaisith%Sivakorn%NULL%1,           Tanuwong%Viarasilpa%NULL%1,           Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,           Mu%Qin%qinmuae@163.com%0,           Yuli%Cai%NULL%0,           Tao%Liu%NULL%0,           Bo%Shen%NULL%0,           Fan%Yang%NULL%0,           Sheng%Cao%NULL%0,           Xu%Liu%NULL%0,           Xu%Liu%NULL%0,           Yaozu%Xiang%NULL%0,           Qinyan%Zhao%NULL%0,           He%Huang%huanghe1977@whu.edu.cn%0,           Bo%Yang%yybb112@whu.edu.cn%0,           Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,           Win%Kulvichit%NULL%1,           Sunchai%Payungporn%NULL%1,           Trairak%Pisitkun%NULL%1,           Ariya%Chindamporn%NULL%1,           Sadudee%Peerapornratana%NULL%1,           Prapaporn%Pisitkun%NULL%1,           Suwalak%Chitcharoen%NULL%1,           Vorthon%Sawaswong%NULL%1,           Navaporn%Worasilchai%NULL%1,           Sarinya%Kampunya%NULL%1,           Opass%Putcharoen%NULL%1,           Thammasak%Thawitsri%NULL%1,           Nophol%Leelayuwatanakul%NULL%1,           Napplika%Kongpolprom%NULL%1,           Vorakamol%Phoophiboon%NULL%1,           Thitiwat%Sriprasart%NULL%1,           Rujipat%Samransamruajkit%NULL%1,           Somkanya%Tungsanga%NULL%1,           Kanitha%Tiankanon%NULL%1,           Nuttha%Lumlertgul%NULL%1,           Asada%Leelahavanichkul%NULL%1,           Tueboon%Sriphojanart%NULL%1,           Terapong%Tantawichien%NULL%1,           Usa%Thisyakorn%NULL%1,           Chintana%Chirathaworn%NULL%1,           Kearkiat%Praditpornsilpa%NULL%1,           Kriang%Tungsanga%NULL%1,           Somchai%Eiam-Ong%NULL%1,           Visith%Sitprija%NULL%1,           John A.%Kellum%NULL%1,           Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,           Min%Pan%NULL%3,           Xiumei%Zhang%NULL%3,           Mingfeng%Han%fyhmf@163.com%0,           Xiaoyun%Fan%13956988552@126.com%3,           Fengde%Zhao%NULL%3,           Manli%Miao%NULL%3,           Jing%Xu%NULL%0,           Minglong%Guan%NULL%3,           Xia%Deng%NULL%3,           Xu%Chen%NULL%4,           Leilei%Shen%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,           Chunli%Tang%NULL%0,           Ruchong%Chen%NULL%1,           Honglian%Ruan%NULL%1,           Wenhua%Liang%NULL%0,           Weijie%Guan%NULL%0,           Ling%Sang%NULL%0,           Ruidi%Tang%NULL%1,           Nanshan%Zhong%NULL%0,           Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiao%Yang%xref no email%1,    Shuhan%Cai%xref no email%1,    Yun%Luo%xref no email%1,    Fangfang%Zhu%xref no email%1,    Ming%Hu%xref no email%1,    Yan%Zhao%xref no email%1,    Ruiqiang%Zheng%xref no email%1,    Xuyan%Li%xref no email%1,    Bo%Hu%xref no email%0,    Zhiyong%Peng%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,           Shanyan%Zhang%NULL%2,           Xiaoli%Zhang%NULL%1,           Huan%Cai%NULL%2,           Jueqing%Gu%NULL%2,           Jiangshan%Lian%NULL%2,           Yingfeng%Lu%NULL%2,           Hongyu%Jia%NULL%2,           Jianhua%Hu%NULL%2,           Ciliang%Jin%NULL%2,           Guodong%Yu%NULL%2,           Yimin%Zhang%NULL%2,           Jifang%Sheng%NULL%4,           Yida%Yang%yidayang65@zju.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Yuan%Yu%NULL%0,           Dan%Xu%NULL%0,           Shouzhi%Fu%NULL%0,           Jun%Zhang%NULL%0,           Xiaobo%Yang%NULL%0,           Liang%Xu%NULL%0,           Jiqian%Xu%NULL%0,           Yongran%Wu%NULL%0,           Chaolin%Huang%NULL%0,           Yaqi%Ouyang%NULL%0,           Luyu%Yang%NULL%0,           Minghao%Fang%NULL%0,           Hongwen%Xiao%NULL%0,           Jing%Ma%NULL%0,           Wei%Zhu%NULL%0,           Song%Hu%NULL%0,           Quan%Hu%NULL%0,           Daoyin%Ding%NULL%0,           Ming%Hu%NULL%0,           Guochao%Zhu%NULL%0,           Weijiang%Xu%NULL%0,           Jun%Guo%NULL%0,           Jinglong%Xu%NULL%0,           Haitao%Yuan%NULL%0,           Bin%Zhang%NULL%0,           Zhui%Yu%yuzhui@whu.edu.cn%0,           Dechang%Chen%icudechangchen@163.com%0,           Shiying%Yuan%yuan_shiying@163.com%0,           You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,           Hao-Yu%Gao%NULL%1,           Zi-Yi%Feng%NULL%1,           Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,           Li-jun%Sun%NULL%1,           Mi%Xu%NULL%1,           Jian%Pan%NULL%1,           Yun-tao%Zhang%NULL%1,           Xue-ling%Fang%NULL%1,           Qiang%Fang%NULL%2,           Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,           Ziqiang%Du%NULL%1,           Yanfang%Zhu%NULL%1,           Wenfeng%Li%NULL%1,           Hongjun%Miao%NULL%1,           Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,           Sarah%Al-Youha%sarahalyouha@gmail.com%0,           Mohammad H.%Jamal%NULL%0,           Mohannad%Al-Haddad%NULL%0,           Ali%Al-Muhaini%NULL%0,           Fahad%Al-Ghimlas%NULL%0,           Salman%Al-Sabah%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ladan%Goshayeshi%NULL%1,           Mina%Akbari Rad%NULL%1,           Robert%Bergquist%NULL%1,           Abolghasem%Allahyari%NULL%1,           Kamila%Hashemzadeh%NULL%1,           Nasrin%Milani%NULL%1,           Mahdi%Gholian-Aval%NULL%1,           Fariba%Rezaeitalab%NULL%1,           Mohammad Jafar%Sadeghi Quchani%NULL%1,           Zahra%Nahbandani%NULL%1,           Mandana%Khodashahi%NULL%1,           Zahra%Javid%NULL%1,           Mahnaz%Mozdourian%NULL%1,           Mohammad Ali%Yaghoubi%NULL%1,           Zahra%Mozaheb%NULL%1,           Mohsen%Seddigh-Shamsi%NULL%1,           Mohammad%Moeini Nodeh%NULL%1,           Shima%Nabavi%NULL%1,           Hooman%Mosannen Mozaffari%NULL%1,           Mohammadreza%Farzanehfar%NULL%1,           Zahra%Lotfi%NULL%1,           Alireza%Shariati%NULL%1,           Shekoofe%Bonakdaran%NULL%1,           Zahra%Rezaieyazdi%NULL%1,           Zahra%Mirfeizi%NULL%1,           Maryam%Miri%NULL%1,           Reza%Bassiri%NULL%1,           Sajjad%Ataei Azimi%NULL%1,           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,           Ibrahim%Al-Zakwani%NULL%1,           Hamed%Al Naamani%NULL%1,           Sultan%Al Lawati%NULL%1,           Nenad%Pandak%NULL%1,           Muna Ba%Omar%NULL%1,           Maher%Al Bahrani%NULL%1,           Zakaryia AL%Bulushi%NULL%1,           Huda%Al Khalili%NULL%1,           Issa%Al Salmi%NULL%1,           Ruwaida%Al Ismaili%NULL%1,           Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,           Zohre%Khodamoradi%NULL%1,           Amirhossein%Erfani%NULL%1,           Hamidreza%Hosseinpour%NULL%1,           Keivan%Ranjbar%NULL%1,           Yasaman%Emami%NULL%1,           Alireza%Mirahmadizadeh%NULL%1,           Mehrzad%Lotfi%NULL%1,           Babak%Shirazi Yeganeh%NULL%1,           Abolfazl%Dorrani Nejad%NULL%1,           Abdolrasool%Hemmati%NULL%1,           Mostafa%Ebrahimi%NULL%1,           Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
-  </si>
-  <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,           Annachiara%Ferrari%NULL%2,           Annachiara%Ferrari%NULL%0,           Francesco%Fontana%NULL%1,           Giacomo%Mori%NULL%1,           Riccardo%Magistroni%NULL%1,           Marianna%Meschiari%NULL%1,           Erica%Franceschini%NULL%1,           Marianna%Menozzi%NULL%1,           Gianluca%Cuomo%NULL%1,           Gabriella%Orlando%NULL%1,           Antonella%Santoro%NULL%1,           Margherita%Digaetano%NULL%1,           Cinzia%Puzzolante%NULL%1,           Federica%Carli%NULL%1,           Andrea%Bedini%NULL%1,           Jovana%Milic%NULL%1,           Irene%Coloretti%NULL%1,           Paolo%Raggi%NULL%1,           Cristina%Mussini%NULL%1,           Massimo%Girardis%NULL%1,           Gianni%Cappelli%NULL%1,           Giovanni%Guaraldi%NULL%1,           NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,           Silvia%Bettini%NULL%2,           Silvia%Bettini%NULL%0,           Roberto%Fabris%NULL%1,           Roberto%Serra%NULL%2,           Chiara%Dal Pra%NULL%1,           Pietro%Maffei%NULL%1,           Marco%Rossato%NULL%1,           Paola%Fioretto%NULL%0,           Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,           Marco%Roncador%NULL%2,           Marco%Roncador%NULL%0,           Andrea%Saporito%NULL%1,           Maira%Biggiogero%NULL%1,           Andrea%Glotta%NULL%1,           Pier Andrea%Maida%NULL%1,           Patrizia%Urso%NULL%1,           Giovanni%Bona%NULL%1,           Christian%Garzoni%NULL%1,           Romano%Mauri%NULL%1,           Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,           Anna Lisa%Ridolfo%NULL%4,           Laura%Milazzo%NULL%2,           Letizia%Oreni%NULL%4,           Dario%Bernacchia%NULL%4,           Matteo%Siano%NULL%4,           Cecilia%Bonazzetti%NULL%2,           Alice%Covizzi%NULL%2,           Marco%Schiuma%NULL%2,           Matteo%Passerini%NULL%2,           Marco%Piscaglia%NULL%2,           Massimo%Coen%NULL%2,           Guido%Gubertini%NULL%2,           Giuliano%Rizzardini%NULL%4,           Chiara%Cogliati%NULL%2,           Anna Maria%Brambilla%NULL%2,           Riccardo%Colombo%NULL%2,           Antonio%Castelli%NULL%2,           Roberto%Rech%NULL%2,           Agostino%Riva%NULL%2,           Alessandro%Torre%NULL%2,           Luca%Meroni%NULL%2,           Stefano%Rusconi%NULL%4,           Spinello%Antinori%NULL%4,           Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%4,          Castelli%Antonio%coreGivesNoEmail%4,          Cecconi%Maurizio%coreGivesNoEmail%4,          Cereda%Danilo%coreGivesNoEmail%4,          Coluccello%Antonio%coreGivesNoEmail%4,          Foti%Giuseppe%coreGivesNoEmail%4,          Fumagalli%Roberto%coreGivesNoEmail%4,          Grasselli%Giacomo%coreGivesNoEmail%4,          Iotti%Giorgio%coreGivesNoEmail%4,          Latronico%Nicola%coreGivesNoEmail%4,          Lorini%Luca%coreGivesNoEmail%4,          Merler%Stefano%coreGivesNoEmail%4,          Natalini%Giuseppe%coreGivesNoEmail%4,          Pesenti%Antonio%coreGivesNoEmail%4,          Piatti%Alessandra%coreGivesNoEmail%4,          Ranieri%Marco Vito%coreGivesNoEmail%4,          Scandroglio%Anna Mara%coreGivesNoEmail%4,          Storti%Enrico%coreGivesNoEmail%4,          Zanella%Alberto%coreGivesNoEmail%4,          Zangrillo%Alberto%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Vittorio%Pavoni%NULL%1,           Lara%Gianesello%gianesello.lara@libero.it%1,           Maddalena%Pazzi%NULL%2,           Maddalena%Pazzi%NULL%0,           Caterina%Stera%NULL%1,           Tommaso%Meconi%NULL%1,           Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,           Andrea%Dalbeni%NULL%2,           Andrea%Dalbeni%NULL%0,           Elia%Vettore%NULL%2,           Elia%Vettore%NULL%0,           Devis%Benfaremo%NULL%1,           Massimo%Mattioli%NULL%1,           Carmine G.%Gambino%NULL%1,           Viviana%Framba%NULL%2,           Viviana%Framba%NULL%0,           Lorenzo%Cerruti%NULL%1,           Anna%Mantovani%NULL%1,           Andrea%Martini%NULL%1,           Michele M.%Luchetti%NULL%1,           Roberto%Serra%NULL%0,           Annamaria%Cattelan%NULL%1,           Roberto%Vettor%NULL%0,           Paolo%Angeli%NULL%1,           NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,           Matthaios%Papadimitriou-Olivgeris%NULL%2,           Matthaios%Papadimitriou-Olivgeris%NULL%0,           Raphaël%Burger%NULL%1,           Marie-Annick%Le Pogam%NULL%1,           Tapio%Niemi%NULL%2,           Tapio%Niemi%NULL%0,           Paraskevas%Filippidis%NULL%1,           Jonathan%Tschopp%NULL%1,           Florian%Desgranges%NULL%1,           Benjamin%Viala%NULL%1,           Eleftheria%Kampouri%NULL%1,           Laurence%Rochat%NULL%2,           Laurence%Rochat%NULL%0,           David%Haefliger%NULL%1,           Mehdi%Belkoniene%NULL%1,           Carlos%Fidalgo%NULL%1,           Antonios%Kritikos%NULL%1,           Katia%Jaton%NULL%1,           Laurence%Senn%NULL%1,           Pierre-Alexandre%Bart%NULL%1,           Jean-Luc%Pagani%NULL%2,           Jean-Luc%Pagani%NULL%0,           Oriol%Manuel%NULL%1,           Loïc%Lhopitallier%NULL%1,           Chiara%Lazzeri%NULL%2,           Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,           Ashwin%Subramaniam%NULL%2,           Ashwin%Subramaniam%NULL%0,           Mallikarjuna%Ponnapa Reddy%NULL%2,           Mallikarjuna%Ponnapa Reddy%NULL%0,           Gabriel%Blecher%NULL%1,           Umesh%Kadam%NULL%2,           Umesh%Kadam%NULL%0,           Afsana%Afroz%NULL%1,           Baki%Billah%NULL%1,           Sushma%Ashwin%NULL%1,           Mark%Kubicki%NULL%1,           Federico%Bilotta%NULL%1,           J. Randall%Curtis%NULL%2,           J. Randall%Curtis%NULL%0,           Francesca%Rubulotta%NULL%2,           Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,          Aggarwal%Saurabh%coreGivesNoEmail%3,          Garcia-Telles%Nelson%coreGivesNoEmail%3,          Henry%Brandon Michael%coreGivesNoEmail%3,          Lavie%Carl%coreGivesNoEmail%3,          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,           Samuel L%Bruce%NULL%0,           Cody L%Slater%NULL%0,           Jonathan R%Tiao%NULL%0,           Matthew R%Baldwin%NULL%0,           R Graham%Barr%NULL%0,           Bernard P%Chang%NULL%0,           Katherine H%Chau%NULL%0,           Justin J%Choi%NULL%0,           Nicholas%Gavin%NULL%0,           Parag%Goyal%NULL%0,           Angela M%Mills%NULL%0,           Ashmi A%Patel%NULL%0,           Marie-Laure S%Romney%NULL%0,           Monika M%Safford%NULL%0,           Neil W%Schluger%NULL%0,           Soumitra%Sengupta%NULL%0,           Magdalena E%Sobieszczyk%NULL%0,           Jason E%Zucker%NULL%0,           Paul A%Asadourian%NULL%0,           Fletcher M%Bell%NULL%0,           Rebekah%Boyd%NULL%0,           Matthew F%Cohen%NULL%0,           MacAlistair I%Colquhoun%NULL%0,           Lucy A%Colville%NULL%0,           Joseph H%de Jonge%NULL%0,           Lyle B%Dershowitz%NULL%0,           Shirin A%Dey%NULL%0,           Katherine A%Eiseman%NULL%0,           Zachary P%Girvin%NULL%0,           Daniella T%Goni%NULL%0,           Amro A%Harb%NULL%0,           Nicholas%Herzik%NULL%0,           Sarah%Householder%NULL%0,           Lara E%Karaaslan%NULL%0,           Heather%Lee%NULL%0,           Evan%Lieberman%NULL%0,           Andrew%Ling%NULL%0,           Ree%Lu%NULL%0,           Arthur Y%Shou%NULL%0,           Alexander C%Sisti%NULL%0,           Zachary E%Snow%NULL%0,           Colin P%Sperring%NULL%0,           Yuqing%Xiong%NULL%0,           Henry W%Zhou%NULL%0,           Karthik%Natarajan%NULL%0,           George%Hripcsak%NULL%0,           Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,           Mark%Caridi-Scheible%NULL%0,           James M.%Blum%NULL%0,           Chad%Robichaux%NULL%0,           Colleen%Kraft%NULL%0,           Jesse T.%Jacob%NULL%0,           Craig S.%Jabaley%NULL%0,           David%Carpenter%NULL%0,           Roberta%Kaplow%NULL%0,           Alfonso C.%Hernandez-Romieu%NULL%0,           Max W.%Adelman%NULL%0,           Greg S.%Martin%NULL%0,           Craig M.%Coopersmith%NULL%0,           David J.%Murphy%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%0,           Michelle%Nichols%NULL%0,           Richard%Kim%NULL%0,           Keith R.%Jerome%NULL%0,           Arun K.%Nalla%NULL%0,           Alexander L.%Greninger%NULL%0,           Sudhakar%Pipavath%NULL%0,           Mark M.%Wurfel%NULL%0,           Laura%Evans%NULL%0,           Patricia A.%Kritek%NULL%0,           T. Eoin%West%NULL%0,           Andrew%Luks%NULL%0,           Anthony%Gerbino%NULL%0,           Chris R.%Dale%NULL%0,           Jason D.%Goldman%NULL%0,           Shane%O’Mahony%NULL%0,           Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,           Denise J%McCulloch%NULL%0,           Denise J%McCulloch%NULL%0,           Vidya%Atluri%NULL%0,           Michela%Blain%NULL%0,           Sarah A%McGuffin%NULL%0,           Arun K%Nalla%NULL%0,           Meei-Li%Huang%NULL%0,           Alex L%Greninger%NULL%0,           Keith R%Jerome%NULL%0,           Seth A%Cohen%NULL%0,           Santiago%Neme%NULL%0,           Margaret L%Green%NULL%0,           Helen Y%Chu%NULL%0,           H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,           Joelle I.%Rosser%NULL%0,           Orlando%Quintero%NULL%0,           Jake%Scott%NULL%0,           Aruna%Subramanian%NULL%0,           Mohammad%Gumma%NULL%0,           Angela%Rogers%NULL%0,           Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,           Jacob%Fiksel%NULL%2,           Jacob%Fiksel%NULL%0,           John%Muschelli%NULL%2,           John%Muschelli%NULL%0,           Matthew L.%Robinson%NULL%2,           Matthew L.%Robinson%NULL%0,           Masoud%Rouhizadeh%NULL%2,           Masoud%Rouhizadeh%NULL%0,           Jamie%Perin%NULL%2,           Jamie%Perin%NULL%0,           Grant%Schumock%NULL%2,           Grant%Schumock%NULL%0,           Paul%Nagy%NULL%2,           Paul%Nagy%NULL%0,           Josh H.%Gray%NULL%2,           Josh H.%Gray%NULL%0,           Harsha%Malapati%NULL%2,           Harsha%Malapati%NULL%0,           Mariam%Ghobadi-Krueger%NULL%2,           Mariam%Ghobadi-Krueger%NULL%0,           Timothy M.%Niessen%NULL%1,           Bo Soo%Kim%NULL%1,           Peter M.%Hill%NULL%1,           M. Shafeeq%Ahmed%NULL%1,           Eric D.%Dobkin%NULL%1,           Renee%Blanding%NULL%1,           Jennifer%Abele%NULL%1,           Bonnie%Woods%NULL%1,           Kenneth%Harkness%NULL%1,           David R.%Thiemann%NULL%1,           Mary G.%Bowring%NULL%1,           Aalok B.%Shah%NULL%2,           Aalok B.%Shah%NULL%0,           Mei-Cheng%Wang%NULL%1,           Karen%Bandeen-Roche%NULL%1,           Antony%Rosen%NULL%1,           Scott L.%Zeger%NULL%2,           Scott L.%Zeger%NULL%0,           Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,           Justin J.%Choi%NULL%0,           Laura C.%Pinheiro%NULL%0,           Edward J.%Schenck%NULL%0,           Ruijun%Chen%NULL%0,           Assem%Jabri%NULL%0,           Michael J.%Satlin%NULL%0,           Thomas R.%Campion%NULL%0,           Musarrat%Nahid%NULL%0,           Joanna B.%Ringel%NULL%0,           Katherine L.%Hoffman%NULL%0,           Mark N.%Alshak%NULL%0,           Han A.%Li%NULL%0,           Graham T.%Wehmeyer%NULL%0,           Graham T.%Wehmeyer%NULL%0,           Mangala%Rajan%NULL%0,           Evgeniya%Reshetnyak%NULL%0,           Nathaniel%Hupert%NULL%0,           Evelyn M.%Horn%NULL%0,           Fernando J.%Martinez%NULL%0,           Roy M.%Gulick%NULL%0,           Monika M.%Safford%NULL%0,           Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,           Simon A%Jones%NULL%0,           Jie%Yang%NULL%0,           Harish%Rajagopalan%NULL%0,           Luke%O’Donnell%NULL%0,           Yelena%Chernyak%NULL%0,           Katie A%Tobin%NULL%0,           Robert J%Cerfolio%NULL%0,           Fritz%Francois%NULL%0,           Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,           Anatoly%Mitrokhin%NULL%2,           Anatoly%Mitrokhin%NULL%0,           Ajai%Rajabalan%NULL%1,           Christian%Benjamin%NULL%1,           Sushma%Raviralla%NULL%1,           Vishnu R%Mani%vishnu.mani@duke.edu%2,           Vishnu R%Mani%vishnu.mani@duke.edu%0,           Aleksandr%Kalabin%NULL%2,           Aleksandr%Kalabin%NULL%0,           Sebastian C%Valdivieso%NULL%2,           Sebastian C%Valdivieso%NULL%0,           Max%Murray-Ramcharan%NULL%2,           Max%Murray-Ramcharan%NULL%0,           Brian%Donaldson%NULL%2,           Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,            Nicholas A.%Fergusson%null%2,            Elisa%Lloyd-Smith%null%2,            Andrew%Wormsbecker%null%2,            Denise%Foster%null%2,            Andrei%Karpov%null%2,            Sarah%Crowe%null%2,            Greg%Haljan%null%2,            Dean R.%Chittock%null%2,            Hussein D.%Kanji%null%2,            Mypinder S.%Sekhon%null%2,            Donald E.G.%Griesdale%null%2,          Anish R.%Mitra%null%1,          Nicholas A.%Fergusson%null%1,          Elisa%Lloyd-Smith%null%1,          Andrew%Wormsbecker%null%1,          Denise%Foster%null%1,          Andrei%Karpov%null%1,          Sarah%Crowe%null%1,          Greg%Haljan%null%1,          Dean R.%Chittock%null%1,          Hussein D.%Kanji%null%1,          Mypinder S.%Sekhon%null%1,          Donald E.G.%Griesdale%null%1]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,           Damianos G.%Kokkinidis%NULL%1,           Weijia%Li%NULL%1,           Dimitrios%Karamanis%NULL%1,           Jennifer%Ognibene%NULL%1,           Shitij%Arora%NULL%1,           William N.%Southern%NULL%1,           Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,           Jesus D.%Gonzalez-Lugo%NULL%1,           Shafia%Rahman%NULL%1,           Mohammad%Barouqa%NULL%1,           James%Szymanski%NULL%1,           Kenji%Ikemura%NULL%1,           Yungtai%Lo%NULL%1,           Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%4,          Chelico%J.D.%coreGivesNoEmail%4,          Cohen%S.L.%coreGivesNoEmail%4,          Cookingham%J.%coreGivesNoEmail%4,          Coppa%K.%coreGivesNoEmail%4,          Crawford%J.M.%coreGivesNoEmail%4,          Davidson%K.W.%coreGivesNoEmail%4,          Diefenbach%M.A.%coreGivesNoEmail%4,          Dominello%A.J.%coreGivesNoEmail%4,          Duer-Hefele%J.%coreGivesNoEmail%4,          Falzon%L.%coreGivesNoEmail%4,          Gitlin%J.%coreGivesNoEmail%4,          Hajizadeh%N.%coreGivesNoEmail%4,          Harvin%T.G.%coreGivesNoEmail%4,          Hirsch%J.S.%coreGivesNoEmail%4,          Hirschwerk%D.A.%coreGivesNoEmail%4,          Kim%E.J.%coreGivesNoEmail%4,          Kozel%Z.M.%coreGivesNoEmail%4,          Marrast%L.M.%coreGivesNoEmail%4,          McGinn%T.%coreGivesNoEmail%4,          Mogavero%J.N.%coreGivesNoEmail%4,          Narasimhan%M.%coreGivesNoEmail%4,          Osorio%G.A.%coreGivesNoEmail%4,          Qiu%M.%coreGivesNoEmail%4,          Richardson%S.%coreGivesNoEmail%4,          Zanos%T.P.%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,           Viet-Thi%Tran%NULL%4,           Viet-Thi%Tran%NULL%0,           Mathilde%Roumier%NULL%2,           Amélie%Chabrol%NULL%2,           Romain%Paule%NULL%2,           Constance%Guillaud%NULL%2,           Elena%Fois%NULL%2,           Raphael%Lepeule%NULL%2,           Tali-Anne%Szwebel%NULL%2,           François-Xavier%Lescure%NULL%0,           Frédéric%Schlemmer%NULL%2,           Marie%Matignon%NULL%2,           Mehdi%Khellaf%NULL%2,           Etienne%Crickx%NULL%2,           Benjamin%Terrier%NULL%2,           Caroline%Morbieu%NULL%2,           Paul%Legendre%NULL%2,           Julien%Dang%NULL%2,           Yoland%Schoindre%NULL%2,           Jean-Michel%Pawlotsky%NULL%2,           Marc%Michel%NULL%2,           Elodie%Perrodeau%NULL%2,           Nicolas%Carlier%NULL%2,           Nicolas%Roche%NULL%2,           Victoire%de Lastours%NULL%2,           Clément%Ourghanlian%NULL%2,           Solen%Kerneis%NULL%2,           Philippe%Ménager%NULL%2,           Luc%Mouthon%NULL%2,           Etienne%Audureau%NULL%2,           Philippe%Ravaud%NULL%2,           Bertrand%Godeau%NULL%2,           Sébastien%Gallien%NULL%2,           Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Rahul%Shekhar%xref no email%1,    Abu Baker%Sheikh%xref no email%1,    Shubhra%Upadhyay%xref no email%1,    Jeanette%Atencio%xref no email%1,    Devika%Kapuria%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,         Yu%Zuo%NULL%1,         Srilakshmi%Yalavarthi%NULL%1,         Kelsey%Gockman%NULL%1,         Melanie%Zuo%NULL%1,         Jacqueline A%Madison%NULL%1,         Christopher%Blair%NULL%1,         Wrenn%Woodward%NULL%1,         Sean P%Lezak%NULL%1,         Njira L%Lugogo%NULL%1,         Robert J%Woods%NULL%1,         Christian%Lood%NULL%1,         Jason S%Knight%NULL%2,         Jason S%Knight%NULL%0,         Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,           Raef A.%Fadel%NULL%1,           Kelly M.%Malette%NULL%1,           Charles%Hammond%NULL%1,           Hafsa%Abdulla%NULL%1,           Abigail%Entz%NULL%1,           Zachary%Demertzis%NULL%1,           Zachary%Hanna%NULL%1,           Andrew%Failla%NULL%1,           Carina%Dagher%NULL%0,           Zohra%Chaudhry%NULL%2,           Amit%Vahia%NULL%2,           Odaliz%Abreu Lanfranco%NULL%1,           Mayur%Ramesh%NULL%1,           Marcus J.%Zervos%NULL%1,           George%Alangaden%NULL%2,           Joseph%Miller%NULL%2,           Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Felipe%Olivares%xref no email%1,    Daniel%Mu\u00f1oz%xref no email%1,    Alberto%Fica%xref no email%1,    Ignacio%Delama%xref no email%1,    Ignacia%Alvarez%xref no email%1,    Maritza%Navarrete%xref no email%1,    Eileen%Blackburn%xref no email%1,    Pamela%Garrido%xref no email%1,    Ricardo%Wenger%xref no email%1,    Juan%Grandjean%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[ C.%Chen%null%1,             J.% Jiang%null%1,             X.% Xu%null%1,             Y.% Hu%null%2,             Y.% Hu%null%0,             Y. % Zhao%null%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Hua%NULL%1,            Chenchen%Qian%NULL%1,            Zhibing%Luo%NULL%1,            Qiang%Li%liqressh@hotmail.com%0,            Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yaxiong%Huang%NULL%1,            Chunlin%Cai%NULL%1,            Jinglei%Zang%NULL%1,            Jun%Xie%NULL%1,            Dan%Xu%NULL%0,            Fang%Zheng%NULL%0,            Tao%Zhan%NULL%1,            Kang%Huang%NULL%1,            Yikai%Wang%NULL%1,            Xiao%Wang%NULL%1,            Zhe-Yu%Hu%NULL%1,            Yapeng%Deng%NULL%1,            Yuanlin%Xie%NULL%1]</t>
   </si>
   <si>
     <t xml:space="preserve">Appropriate critical care delivery for Coronavirus disease 2019 (COVID-19) is a cornerstone in saving lives.
  Earlier publications worldwide demonstrate higher mortality among patients receiving mechanical ventilation in intensive care units during “surges” in the number of cases.
  In contrast, lower mortality outcomes are evident in Japan using CRISIS [CRoss Icu Searchable Information System] data by the national registry, Japan ECMOnet for COVID-19. This highlights the need for scientific analysis of the medical factors contributing to high survival rates and social factors associated with low case “surges,” to gain insight into protective strategies for possible coming waves in the COVID-19 pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Ryuzo%Abe%NULL%1,            Naofumi%Bunya%NULL%1,            Tomoyuki%Endo%NULL%1,            Yuji%Fujino%NULL%1,            Kensuke%Fujita%NULL%1,            Kenji%Fujizuka%NULL%1,            Yoshihiro%Hagiwara%NULL%1,            Jun%Hamaguchi%NULL%1,            Yoshitaka%Hara%NULL%1,            Eiji%Hashiba%NULL%1,            Satoru%Hashimoto%NULL%1,            Noriyuki%Hattori%NULL%1,            Kota%Hoshino%NULL%1,            Shinichi%Ijuin%NULL%1,            Takanari%Ikeyama%NULL%1,            Shingo%Ichiba%NULL%1,            Wataru%Iwanaga%NULL%1,            Yoshiaki%Iwashita%NULL%1,            Masafumi%Kanamoto%NULL%1,            Hitoshi%Kaneko%NULL%1,            Kaneyuki%Kawamae%NULL%1,            Toru%Kotani%NULL%1,            Yasuaki%Koyama%NULL%1,            Keibun%Liu%NULL%1,            Tomohiko%Masuno%NULL%1,            Naoto%Morimura%NULL%1,            Tomoyuki%Nakamura%NULL%1,            Masaki%Nakane%NULL%1,            Michitaka%Nasu%NULL%1,            Osamu%Nishida%NULL%1,            Masaji%Nishimura%NULL%1,            Kanae%Ochiai%NULL%1,            Takayuki%Ogura%NULL%1,            Shinichiro%Ohshimo%NULL%1,            Keisuke%Oyama%NULL%1,            Junichi%Sasaki%NULL%1,            Ryutaro%Seo%NULL%1,            Takeshi%Shimazu%NULL%1,            Nobuaki%Shime%NULL%4,            Keiki%Shimizu%NULL%1,            Hiroyuki%Suzuki%NULL%1,            Shuhei%Takauji%NULL%1,            Shinhiro%Takeda%NULL%1,            Ichiro%Takeuchi%NULL%2,            Mumon%Takita%NULL%1,            Hayato%Taniguchi%NULL%1,            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,            Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[Ai Tang%Xiao%NULL%3,            Yi Xin%Tong%NULL%3,            Sheng%Zhang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Xue-Lian%Liao%NULL%1,            Hong%Chen%NULL%0,            Zhen%Li%NULL%2,            Bo%Wang%NULL%0,            Zhong-Wei%Zhang%NULL%1,            Wei-Min%Li%NULL%0,            Zong-An%Liang%NULL%0,            Jin%Tang%NULL%1,            Jian%Wang%NULL%1,            Rui%Shi%NULL%1,            Xiao-Dong%Jin%NULL%1,            Yan%Kang%NULL%0,            Pei-Fang%Wei%NULL%8,            Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ N.%Nasir%null%1,             S. F.% Mahmood%null%1,             K.% Habib%null%1,             I.% Khanum%null%1,             B. % Jamil%null%1]</t>
-  </si>
-  <si>
-    <t>[Ranistha%Ratanarat%NULL%1,            Chaisith%Sivakorn%NULL%1,            Tanuwong%Viarasilpa%NULL%1,            Marcus J.%Schultz%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,            Mu%Qin%qinmuae@163.com%1,            Yuli%Cai%NULL%1,            Tao%Liu%NULL%0,            Bo%Shen%NULL%1,            Fan%Yang%NULL%2,            Sheng%Cao%NULL%1,            Xu%Liu%NULL%2,            Xu%Liu%NULL%0,            Yaozu%Xiang%NULL%1,            Qinyan%Zhao%NULL%1,            He%Huang%huanghe1977@whu.edu.cn%0,            Bo%Yang%yybb112@whu.edu.cn%0,            Congxin%Huang%NULL%1]</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -2682,27 +1294,6 @@
 Bacterial DNA and toxins were discovered in virtually all severely ill COVID-19 pneumonia patients.
  This raises a previously unrecognized concern for significant contribution of bacterial products in the pathogenesis of this disease.
 </t>
-  </si>
-  <si>
-    <t>[Phatadon%Sirivongrangson%NULL%1,            Win%Kulvichit%NULL%1,            Sunchai%Payungporn%NULL%1,            Trairak%Pisitkun%NULL%1,            Ariya%Chindamporn%NULL%1,            Sadudee%Peerapornratana%NULL%1,            Prapaporn%Pisitkun%NULL%1,            Suwalak%Chitcharoen%NULL%1,            Vorthon%Sawaswong%NULL%1,            Navaporn%Worasilchai%NULL%1,            Sarinya%Kampunya%NULL%1,            Opass%Putcharoen%NULL%1,            Thammasak%Thawitsri%NULL%1,            Nophol%Leelayuwatanakul%NULL%1,            Napplika%Kongpolprom%NULL%1,            Vorakamol%Phoophiboon%NULL%1,            Thitiwat%Sriprasart%NULL%1,            Rujipat%Samransamruajkit%NULL%1,            Somkanya%Tungsanga%NULL%1,            Kanitha%Tiankanon%NULL%1,            Nuttha%Lumlertgul%NULL%1,            Asada%Leelahavanichkul%NULL%1,            Tueboon%Sriphojanart%NULL%1,            Terapong%Tantawichien%NULL%1,            Usa%Thisyakorn%NULL%1,            Chintana%Chirathaworn%NULL%1,            Kearkiat%Praditpornsilpa%NULL%1,            Kriang%Tungsanga%NULL%1,            Somchai%Eiam-Ong%NULL%1,            Visith%Sitprija%NULL%1,            John A.%Kellum%NULL%1,            Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>[Ruirui%Wang%NULL%0,            Min%Pan%NULL%3,            Xiumei%Zhang%NULL%3,            Mingfeng%Han%fyhmf@163.com%0,            Xiaoyun%Fan%13956988552@126.com%3,            Fengde%Zhao%NULL%3,            Manli%Miao%NULL%3,            Jing%Xu%NULL%0,            Minglong%Guan%NULL%3,            Xia%Deng%NULL%3,            Xu%Chen%NULL%4,            Leilei%Shen%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Tao%Wang%NULL%1,            Chunli%Tang%NULL%0,            Ruchong%Chen%NULL%1,            Honglian%Ruan%NULL%1,            Wenhua%Liang%NULL%0,            Weijie%Guan%NULL%0,            Ling%Sang%NULL%0,            Ruidi%Tang%NULL%1,            Nanshan%Zhong%NULL%0,            Shiyue%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiao%Yang%xref no email%1,     Shuhan%Cai%xref no email%1,     Yun%Luo%xref no email%1,     Fangfang%Zhu%xref no email%1,     Ming%Hu%xref no email%1,     Yan%Zhao%xref no email%1,     Ruiqiang%Zheng%xref no email%1,     Xuyan%Li%xref no email%1,     Bo%Hu%xref no email%0,     Zhiyong%Peng%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%5,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%5,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%5,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%5,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%5,            Shangwen%Pan%NULL%5,            Xiaojing%Zou%NULL%7,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chanyuan%Ye%NULL%1,            Shanyan%Zhang%NULL%2,            Xiaoli%Zhang%NULL%1,            Huan%Cai%NULL%2,            Jueqing%Gu%NULL%2,            Jiangshan%Lian%NULL%2,            Yingfeng%Lu%NULL%2,            Hongyu%Jia%NULL%2,            Jianhua%Hu%NULL%2,            Ciliang%Jin%NULL%2,            Guodong%Yu%NULL%2,            Yimin%Zhang%NULL%2,            Jifang%Sheng%NULL%4,            Yida%Yang%yidayang65@zju.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -2730,21 +1321,6 @@
 </t>
   </si>
   <si>
-    <t>[Yuan%Yu%NULL%0,            Dan%Xu%NULL%0,            Shouzhi%Fu%NULL%0,            Jun%Zhang%NULL%0,            Xiaobo%Yang%NULL%0,            Liang%Xu%NULL%0,            Jiqian%Xu%NULL%0,            Yongran%Wu%NULL%0,            Chaolin%Huang%NULL%0,            Yaqi%Ouyang%NULL%0,            Luyu%Yang%NULL%0,            Minghao%Fang%NULL%0,            Hongwen%Xiao%NULL%0,            Jing%Ma%NULL%0,            Wei%Zhu%NULL%0,            Song%Hu%NULL%0,            Quan%Hu%NULL%0,            Daoyin%Ding%NULL%0,            Ming%Hu%NULL%0,            Guochao%Zhu%NULL%0,            Weijiang%Xu%NULL%0,            Jun%Guo%NULL%0,            Jinglong%Xu%NULL%0,            Haitao%Yuan%NULL%0,            Bin%Zhang%NULL%0,            Zhui%Yu%yuzhui@whu.edu.cn%0,            Dechang%Chen%icudechangchen@163.com%0,            Shiying%Yuan%yuan_shiying@163.com%0,            You%Shang%you_shanghust@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Jing%Zhao%NULL%2,            Hao-Yu%Gao%NULL%1,            Zi-Yi%Feng%NULL%1,            Qi-Jun%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yi%Zheng%NULL%2,            Li-jun%Sun%NULL%1,            Mi%Xu%NULL%1,            Jian%Pan%NULL%1,            Yun-tao%Zhang%NULL%1,            Xue-ling%Fang%NULL%1,            Qiang%Fang%NULL%2,            Hong-liu%Cai%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yingjie%Zhu%NULL%1,            Ziqiang%Du%NULL%1,            Yanfang%Zhu%NULL%1,            Wenfeng%Li%NULL%1,            Hongjun%Miao%NULL%1,            Zhuo%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%0,            Sarah%Al-Youha%sarahalyouha@gmail.com%1,            Mohammad H.%Jamal%NULL%1,            Mohannad%Al-Haddad%NULL%1,            Ali%Al-Muhaini%NULL%1,            Fahad%Al-Ghimlas%NULL%1,            Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Background
 Coronavirus Disease 2019 (Covid-19) is expanding worldwide.
  The characteristics of this infection in patients varies from country to country.
@@ -2770,12 +1346,6 @@
 </t>
   </si>
   <si>
-    <t>[Ladan%Goshayeshi%NULL%1,            Mina%Akbari Rad%NULL%1,            Robert%Bergquist%NULL%1,            Abolghasem%Allahyari%NULL%1,            Kamila%Hashemzadeh%NULL%1,            Nasrin%Milani%NULL%1,            Mahdi%Gholian-Aval%NULL%1,            Fariba%Rezaeitalab%NULL%1,            Mohammad Jafar%Sadeghi Quchani%NULL%1,            Zahra%Nahbandani%NULL%1,            Mandana%Khodashahi%NULL%1,            Zahra%Javid%NULL%1,            Mahnaz%Mozdourian%NULL%1,            Mohammad Ali%Yaghoubi%NULL%1,            Zahra%Mozaheb%NULL%1,            Mohsen%Seddigh-Shamsi%NULL%1,            Mohammad%Moeini Nodeh%NULL%1,            Shima%Nabavi%NULL%1,            Hooman%Mosannen Mozaffari%NULL%1,            Mohammadreza%Farzanehfar%NULL%1,            Zahra%Lotfi%NULL%1,            Alireza%Shariati%NULL%1,            Shekoofe%Bonakdaran%NULL%1,            Zahra%Rezaieyazdi%NULL%1,            Zahra%Mirfeizi%NULL%1,            Maryam%Miri%NULL%1,            Reza%Bassiri%NULL%1,            Sajjad%Ataei Azimi%NULL%1,            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,            Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
-  </si>
-  <si>
-    <t>[Faryal%Khamis%NULL%1,            Ibrahim%Al-Zakwani%NULL%1,            Hamed%Al Naamani%NULL%1,            Sultan%Al Lawati%NULL%1,            Nenad%Pandak%NULL%1,            Muna Ba%Omar%NULL%1,            Maher%Al Bahrani%NULL%1,            Zakaryia AL%Bulushi%NULL%1,            Huda%Al Khalili%NULL%1,            Issa%Al Salmi%NULL%1,            Ruwaida%Al Ismaili%NULL%1,            Salah T.%Al Awaidy%NULL%1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Background
 In March 2020, the WHO declared the novel coronavirus (COVID-19) outbreak a global pandemic.
  Although the number of infected cases is increasing, information about its clinical characteristics in the Middle East, especially in Iran, a country which is considered to be one of the most important focal points of the disease in the world, is lacking.
@@ -2791,9 +1361,6 @@
 Conclusion
 Evaluating the clinical data of COVID-19 patients and finding the source of infection and studying the behavior of the disease is crucial for understanding the pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Reza%Shahriarirad%NULL%1,            Zohre%Khodamoradi%NULL%1,            Amirhossein%Erfani%NULL%1,            Hamidreza%Hosseinpour%NULL%1,            Keivan%Ranjbar%NULL%1,            Yasaman%Emami%NULL%1,            Alireza%Mirahmadizadeh%NULL%1,            Mehrzad%Lotfi%NULL%1,            Babak%Shirazi Yeganeh%NULL%1,            Abolfazl%Dorrani Nejad%NULL%1,            Abdolrasool%Hemmati%NULL%1,            Mostafa%Ebrahimi%NULL%1,            Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -2819,12 +1386,6 @@
 </t>
   </si>
   <si>
-    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,            Annachiara%Ferrari%NULL%2,            Annachiara%Ferrari%NULL%0,            Francesco%Fontana%NULL%1,            Giacomo%Mori%NULL%1,            Riccardo%Magistroni%NULL%1,            Marianna%Meschiari%NULL%1,            Erica%Franceschini%NULL%1,            Marianna%Menozzi%NULL%1,            Gianluca%Cuomo%NULL%1,            Gabriella%Orlando%NULL%1,            Antonella%Santoro%NULL%1,            Margherita%Digaetano%NULL%1,            Cinzia%Puzzolante%NULL%1,            Federica%Carli%NULL%1,            Andrea%Bedini%NULL%1,            Jovana%Milic%NULL%1,            Irene%Coloretti%NULL%1,            Paolo%Raggi%NULL%1,            Cristina%Mussini%NULL%1,            Massimo%Girardis%NULL%1,            Gianni%Cappelli%NULL%1,            Giovanni%Guaraldi%NULL%1,            NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Luca%Busetto%luca.busetto@unipd.it%1,            Silvia%Bettini%NULL%2,            Silvia%Bettini%NULL%0,            Roberto%Fabris%NULL%1,            Roberto%Serra%NULL%2,            Chiara%Dal Pra%NULL%1,            Pietro%Maffei%NULL%1,            Marco%Rossato%NULL%1,            Paola%Fioretto%NULL%0,            Roberto%Vettor%NULL%0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invasive mechanical ventilation (IMV) is the standard treatment in critically ill COVID-19 patients with acute severe respiratory distress syndrome (ARDS).
  When IMV setting is extremely aggressive, especially through the application of high positive-end-expiratory respiration (PEEP) values, lung damage can occur.
  Until today, in COVID-19 patients, two types of ARDS were identified (L- and H-type); for the L-type, a lower PEEP strategy was supposed to be preferred, but data are still missing.
@@ -2842,15 +1403,6 @@
 </t>
   </si>
   <si>
-    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,            Marco%Roncador%NULL%2,            Marco%Roncador%NULL%0,            Andrea%Saporito%NULL%1,            Maira%Biggiogero%NULL%1,            Andrea%Glotta%NULL%1,            Pier Andrea%Maida%NULL%1,            Patrizia%Urso%NULL%1,            Giovanni%Bona%NULL%1,            Christian%Garzoni%NULL%1,            Romano%Mauri%NULL%1,            Alain%Borgeat%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,            Anna Lisa%Ridolfo%NULL%4,            Laura%Milazzo%NULL%2,            Letizia%Oreni%NULL%4,            Dario%Bernacchia%NULL%4,            Matteo%Siano%NULL%4,            Cecilia%Bonazzetti%NULL%2,            Alice%Covizzi%NULL%2,            Marco%Schiuma%NULL%2,            Matteo%Passerini%NULL%2,            Marco%Piscaglia%NULL%2,            Massimo%Coen%NULL%2,            Guido%Gubertini%NULL%2,            Giuliano%Rizzardini%NULL%4,            Chiara%Cogliati%NULL%2,            Anna Maria%Brambilla%NULL%2,            Riccardo%Colombo%NULL%2,            Antonio%Castelli%NULL%2,            Roberto%Rech%NULL%2,            Agostino%Riva%NULL%2,            Alessandro%Torre%NULL%2,            Luca%Meroni%NULL%2,            Stefano%Rusconi%NULL%4,            Spinello%Antinori%NULL%4,            Massimo%Galli%NULL%6]</t>
-  </si>
-  <si>
-    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%4,           Castelli%Antonio%coreGivesNoEmail%4,           Cecconi%Maurizio%coreGivesNoEmail%4,           Cereda%Danilo%coreGivesNoEmail%4,           Coluccello%Antonio%coreGivesNoEmail%4,           Foti%Giuseppe%coreGivesNoEmail%4,           Fumagalli%Roberto%coreGivesNoEmail%4,           Grasselli%Giacomo%coreGivesNoEmail%4,           Iotti%Giorgio%coreGivesNoEmail%4,           Latronico%Nicola%coreGivesNoEmail%4,           Lorini%Luca%coreGivesNoEmail%4,           Merler%Stefano%coreGivesNoEmail%4,           Natalini%Giuseppe%coreGivesNoEmail%4,           Pesenti%Antonio%coreGivesNoEmail%4,           Piatti%Alessandra%coreGivesNoEmail%4,           Ranieri%Marco Vito%coreGivesNoEmail%4,           Scandroglio%Anna Mara%coreGivesNoEmail%4,           Storti%Enrico%coreGivesNoEmail%4,           Zanella%Alberto%coreGivesNoEmail%4,           Zangrillo%Alberto%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Critically ill patients with COVID-19 pneumonia suffered both high thrombotic and bleeding risk.
  The effect of SARS-CoV-2 on coagulation and fibrinolysis is not well known.
  We conducted a retrospective study of critically ill patients admitted to an intensive care unit (ICU) a cause of severe COVID-19 pneumonia and we evaluated coagulation function using rotational thromboelastometry (ROTEM) on day of admission (T0) and 5 (T5) and 10 (T10) days after admission to ICU.
@@ -2866,78 +1418,6 @@
 </t>
   </si>
   <si>
-    <t>[Vittorio%Pavoni%NULL%1,            Lara%Gianesello%gianesello.lara@libero.it%1,            Maddalena%Pazzi%NULL%2,            Maddalena%Pazzi%NULL%0,            Caterina%Stera%NULL%1,            Tommaso%Meconi%NULL%1,            Francesca Covani%Frigieri%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,            Andrea%Dalbeni%NULL%2,            Andrea%Dalbeni%NULL%0,            Elia%Vettore%NULL%2,            Elia%Vettore%NULL%0,            Devis%Benfaremo%NULL%1,            Massimo%Mattioli%NULL%1,            Carmine G.%Gambino%NULL%1,            Viviana%Framba%NULL%2,            Viviana%Framba%NULL%0,            Lorenzo%Cerruti%NULL%1,            Anna%Mantovani%NULL%1,            Andrea%Martini%NULL%1,            Michele M.%Luchetti%NULL%1,            Roberto%Serra%NULL%0,            Annamaria%Cattelan%NULL%1,            Roberto%Vettor%NULL%0,            Paolo%Angeli%NULL%1,            NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jean%Regina%NULL%1,            Matthaios%Papadimitriou-Olivgeris%NULL%2,            Matthaios%Papadimitriou-Olivgeris%NULL%0,            Raphaël%Burger%NULL%1,            Marie-Annick%Le Pogam%NULL%1,            Tapio%Niemi%NULL%2,            Tapio%Niemi%NULL%0,            Paraskevas%Filippidis%NULL%1,            Jonathan%Tschopp%NULL%1,            Florian%Desgranges%NULL%1,            Benjamin%Viala%NULL%1,            Eleftheria%Kampouri%NULL%1,            Laurence%Rochat%NULL%2,            Laurence%Rochat%NULL%0,            David%Haefliger%NULL%1,            Mehdi%Belkoniene%NULL%1,            Carlos%Fidalgo%NULL%1,            Antonios%Kritikos%NULL%1,            Katia%Jaton%NULL%1,            Laurence%Senn%NULL%1,            Pierre-Alexandre%Bart%NULL%1,            Jean-Luc%Pagani%NULL%2,            Jean-Luc%Pagani%NULL%0,            Oriol%Manuel%NULL%1,            Loïc%Lhopitallier%NULL%1,            Chiara%Lazzeri%NULL%2,            Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zheng Jie%Lim%NULL%1,            Ashwin%Subramaniam%NULL%2,            Ashwin%Subramaniam%NULL%0,            Mallikarjuna%Ponnapa Reddy%NULL%2,            Mallikarjuna%Ponnapa Reddy%NULL%0,            Gabriel%Blecher%NULL%1,            Umesh%Kadam%NULL%2,            Umesh%Kadam%NULL%0,            Afsana%Afroz%NULL%1,            Baki%Billah%NULL%1,            Sushma%Ashwin%NULL%1,            Mark%Kubicki%NULL%1,            Federico%Bilotta%NULL%1,            J. Randall%Curtis%NULL%2,            J. Randall%Curtis%NULL%0,            Francesca%Rubulotta%NULL%2,            Francesca%Rubulotta%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,           Aggarwal%Saurabh%coreGivesNoEmail%3,           Garcia-Telles%Nelson%coreGivesNoEmail%3,           Henry%Brandon Michael%coreGivesNoEmail%3,           Lavie%Carl%coreGivesNoEmail%3,           Lippi%Giuseppe%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,            Samuel L%Bruce%NULL%2,            Cody L%Slater%NULL%2,            Jonathan R%Tiao%NULL%2,            Matthew R%Baldwin%NULL%3,            R Graham%Barr%NULL%2,            Bernard P%Chang%NULL%2,            Katherine H%Chau%NULL%2,            Justin J%Choi%NULL%2,            Nicholas%Gavin%NULL%2,            Parag%Goyal%NULL%2,            Angela M%Mills%NULL%2,            Ashmi A%Patel%NULL%2,            Marie-Laure S%Romney%NULL%2,            Monika M%Safford%NULL%2,            Neil W%Schluger%NULL%2,            Soumitra%Sengupta%NULL%2,            Magdalena E%Sobieszczyk%NULL%2,            Jason E%Zucker%NULL%2,            Paul A%Asadourian%NULL%2,            Fletcher M%Bell%NULL%2,            Rebekah%Boyd%NULL%2,            Matthew F%Cohen%NULL%2,            MacAlistair I%Colquhoun%NULL%2,            Lucy A%Colville%NULL%2,            Joseph H%de Jonge%NULL%2,            Lyle B%Dershowitz%NULL%2,            Shirin A%Dey%NULL%2,            Katherine A%Eiseman%NULL%2,            Zachary P%Girvin%NULL%2,            Daniella T%Goni%NULL%2,            Amro A%Harb%NULL%2,            Nicholas%Herzik%NULL%2,            Sarah%Householder%NULL%2,            Lara E%Karaaslan%NULL%2,            Heather%Lee%NULL%2,            Evan%Lieberman%NULL%2,            Andrew%Ling%NULL%2,            Ree%Lu%NULL%2,            Arthur Y%Shou%NULL%2,            Alexander C%Sisti%NULL%2,            Zachary E%Snow%NULL%2,            Colin P%Sperring%NULL%2,            Yuqing%Xiong%NULL%2,            Henry W%Zhou%NULL%2,            Karthik%Natarajan%NULL%2,            George%Hripcsak%NULL%2,            Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,            Mark%Caridi-Scheible%NULL%3,            James M.%Blum%NULL%2,            Chad%Robichaux%NULL%2,            Colleen%Kraft%NULL%2,            Jesse T.%Jacob%NULL%2,            Craig S.%Jabaley%NULL%2,            David%Carpenter%NULL%2,            Roberta%Kaplow%NULL%2,            Alfonso C.%Hernandez-Romieu%NULL%2,            Max W.%Adelman%NULL%2,            Greg S.%Martin%NULL%2,            Craig M.%Coopersmith%NULL%2,            David J.%Murphy%NULL%2,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%0,            Michelle%Nichols%NULL%0,            Richard%Kim%NULL%0,            Keith R.%Jerome%NULL%0,            Arun K.%Nalla%NULL%0,            Alexander L.%Greninger%NULL%0,            Sudhakar%Pipavath%NULL%0,            Mark M.%Wurfel%NULL%0,            Laura%Evans%NULL%0,            Patricia A.%Kritek%NULL%0,            T. Eoin%West%NULL%0,            Andrew%Luks%NULL%0,            Anthony%Gerbino%NULL%0,            Chris R.%Dale%NULL%0,            Jason D.%Goldman%NULL%0,            Shane%O’Mahony%NULL%0,            Carmen%Mikacenic%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,            Denise J%McCulloch%NULL%0,            Denise J%McCulloch%NULL%0,            Vidya%Atluri%NULL%0,            Michela%Blain%NULL%0,            Sarah A%McGuffin%NULL%0,            Arun K%Nalla%NULL%0,            Meei-Li%Huang%NULL%0,            Alex L%Greninger%NULL%0,            Keith R%Jerome%NULL%0,            Seth A%Cohen%NULL%0,            Santiago%Neme%NULL%0,            Margaret L%Green%NULL%0,            Helen Y%Chu%NULL%0,            H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jessica%Ferguson%NULL%0,            Joelle I.%Rosser%NULL%0,            Orlando%Quintero%NULL%0,            Jake%Scott%NULL%0,            Aruna%Subramanian%NULL%0,            Mohammad%Gumma%NULL%0,            Angela%Rogers%NULL%0,            Shanthi%Kappagoda%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Brian T.%Garibaldi%NULL%0,            Jacob%Fiksel%NULL%2,            Jacob%Fiksel%NULL%0,            John%Muschelli%NULL%2,            John%Muschelli%NULL%0,            Matthew L.%Robinson%NULL%2,            Matthew L.%Robinson%NULL%0,            Masoud%Rouhizadeh%NULL%2,            Masoud%Rouhizadeh%NULL%0,            Jamie%Perin%NULL%2,            Jamie%Perin%NULL%0,            Grant%Schumock%NULL%2,            Grant%Schumock%NULL%0,            Paul%Nagy%NULL%2,            Paul%Nagy%NULL%0,            Josh H.%Gray%NULL%2,            Josh H.%Gray%NULL%0,            Harsha%Malapati%NULL%2,            Harsha%Malapati%NULL%0,            Mariam%Ghobadi-Krueger%NULL%2,            Mariam%Ghobadi-Krueger%NULL%0,            Timothy M.%Niessen%NULL%1,            Bo Soo%Kim%NULL%1,            Peter M.%Hill%NULL%1,            M. Shafeeq%Ahmed%NULL%1,            Eric D.%Dobkin%NULL%1,            Renee%Blanding%NULL%1,            Jennifer%Abele%NULL%1,            Bonnie%Woods%NULL%1,            Kenneth%Harkness%NULL%1,            David R.%Thiemann%NULL%1,            Mary G.%Bowring%NULL%1,            Aalok B.%Shah%NULL%2,            Aalok B.%Shah%NULL%0,            Mei-Cheng%Wang%NULL%1,            Karen%Bandeen-Roche%NULL%1,            Antony%Rosen%NULL%1,            Scott L.%Zeger%NULL%2,            Scott L.%Zeger%NULL%0,            Amita%Gupta%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,            Justin J.%Choi%NULL%0,            Laura C.%Pinheiro%NULL%0,            Edward J.%Schenck%NULL%0,            Ruijun%Chen%NULL%0,            Assem%Jabri%NULL%0,            Michael J.%Satlin%NULL%0,            Thomas R.%Campion%NULL%0,            Musarrat%Nahid%NULL%0,            Joanna B.%Ringel%NULL%0,            Katherine L.%Hoffman%NULL%0,            Mark N.%Alshak%NULL%0,            Han A.%Li%NULL%0,            Graham T.%Wehmeyer%NULL%0,            Graham T.%Wehmeyer%NULL%0,            Mangala%Rajan%NULL%0,            Evgeniya%Reshetnyak%NULL%0,            Nathaniel%Hupert%NULL%0,            Evelyn M.%Horn%NULL%0,            Fernando J.%Martinez%NULL%0,            Roy M.%Gulick%NULL%0,            Monika M.%Safford%NULL%0,            Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Christopher M%Petrilli%NULL%0,            Simon A%Jones%NULL%0,            Jie%Yang%NULL%0,            Harish%Rajagopalan%NULL%0,            Luke%O’Donnell%NULL%0,            Yelena%Chernyak%NULL%0,            Katie A%Tobin%NULL%0,            Robert J%Cerfolio%NULL%0,            Fritz%Francois%NULL%0,            Leora I%Horwitz%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Gunther%Eysenbach%NULL%0,            Anatoly%Mitrokhin%NULL%2,            Anatoly%Mitrokhin%NULL%0,            Ajai%Rajabalan%NULL%1,            Christian%Benjamin%NULL%1,            Sushma%Raviralla%NULL%1,            Vishnu R%Mani%vishnu.mani@duke.edu%2,            Vishnu R%Mani%vishnu.mani@duke.edu%0,            Aleksandr%Kalabin%NULL%2,            Aleksandr%Kalabin%NULL%0,            Sebastian C%Valdivieso%NULL%2,            Sebastian C%Valdivieso%NULL%0,            Max%Murray-Ramcharan%NULL%2,            Max%Murray-Ramcharan%NULL%0,            Brian%Donaldson%NULL%2,            Brian%Donaldson%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Anish R.%Mitra%null%2,             Nicholas A.%Fergusson%null%2,             Elisa%Lloyd-Smith%null%2,             Andrew%Wormsbecker%null%2,             Denise%Foster%null%2,             Andrei%Karpov%null%2,             Sarah%Crowe%null%2,             Greg%Haljan%null%2,             Dean R.%Chittock%null%2,             Hussein D.%Kanji%null%2,             Mypinder S.%Sekhon%null%2,             Donald E.G.%Griesdale%null%2,           Anish R.%Mitra%null%1,           Nicholas A.%Fergusson%null%1,           Elisa%Lloyd-Smith%null%1,           Andrew%Wormsbecker%null%1,           Denise%Foster%null%1,           Andrei%Karpov%null%1,           Sarah%Crowe%null%1,           Greg%Haljan%null%1,           Dean R.%Chittock%null%1,           Hussein D.%Kanji%null%1,           Mypinder S.%Sekhon%null%1,           Donald E.G.%Griesdale%null%1]</t>
-  </si>
-  <si>
-    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,            Damianos G.%Kokkinidis%NULL%1,            Weijia%Li%NULL%1,            Dimitrios%Karamanis%NULL%1,            Jennifer%Ognibene%NULL%1,            Shitij%Arora%NULL%1,            William N.%Southern%NULL%1,            Christos S.%Mantzoros%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Morayma%Reyes Gil%NULL%1,            Jesus D.%Gonzalez-Lugo%NULL%1,            Shafia%Rahman%NULL%1,            Mohammad%Barouqa%NULL%1,            James%Szymanski%NULL%1,            Kenji%Ikemura%NULL%1,            Yungtai%Lo%NULL%1,            Henny H.%Billett%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%4,           Chelico%J.D.%coreGivesNoEmail%4,           Cohen%S.L.%coreGivesNoEmail%4,           Cookingham%J.%coreGivesNoEmail%4,           Coppa%K.%coreGivesNoEmail%4,           Crawford%J.M.%coreGivesNoEmail%4,           Davidson%K.W.%coreGivesNoEmail%4,           Diefenbach%M.A.%coreGivesNoEmail%4,           Dominello%A.J.%coreGivesNoEmail%4,           Duer-Hefele%J.%coreGivesNoEmail%4,           Falzon%L.%coreGivesNoEmail%4,           Gitlin%J.%coreGivesNoEmail%4,           Hajizadeh%N.%coreGivesNoEmail%4,           Harvin%T.G.%coreGivesNoEmail%4,           Hirsch%J.S.%coreGivesNoEmail%4,           Hirschwerk%D.A.%coreGivesNoEmail%4,           Kim%E.J.%coreGivesNoEmail%4,           Kozel%Z.M.%coreGivesNoEmail%4,           Marrast%L.M.%coreGivesNoEmail%4,           McGinn%T.%coreGivesNoEmail%4,           Mogavero%J.N.%coreGivesNoEmail%4,           Narasimhan%M.%coreGivesNoEmail%4,           Osorio%G.A.%coreGivesNoEmail%4,           Qiu%M.%coreGivesNoEmail%4,           Richardson%S.%coreGivesNoEmail%4,           Zanos%T.P.%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t>[Matthieu%Mahévas%NULL%2,            Viet-Thi%Tran%NULL%4,            Viet-Thi%Tran%NULL%0,            Mathilde%Roumier%NULL%2,            Amélie%Chabrol%NULL%2,            Romain%Paule%NULL%2,            Constance%Guillaud%NULL%2,            Elena%Fois%NULL%2,            Raphael%Lepeule%NULL%2,            Tali-Anne%Szwebel%NULL%2,            François-Xavier%Lescure%NULL%2,            Frédéric%Schlemmer%NULL%2,            Marie%Matignon%NULL%2,            Mehdi%Khellaf%NULL%2,            Etienne%Crickx%NULL%2,            Benjamin%Terrier%NULL%2,            Caroline%Morbieu%NULL%2,            Paul%Legendre%NULL%2,            Julien%Dang%NULL%2,            Yoland%Schoindre%NULL%2,            Jean-Michel%Pawlotsky%NULL%2,            Marc%Michel%NULL%2,            Elodie%Perrodeau%NULL%2,            Nicolas%Carlier%NULL%2,            Nicolas%Roche%NULL%2,            Victoire%de Lastours%NULL%2,            Clément%Ourghanlian%NULL%2,            Solen%Kerneis%NULL%2,            Philippe%Ménager%NULL%2,            Luc%Mouthon%NULL%2,            Etienne%Audureau%NULL%2,            Philippe%Ravaud%NULL%2,            Bertrand%Godeau%NULL%2,            Sébastien%Gallien%NULL%2,            Nathalie%Costedoat-Chalumeau%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Rahul%Shekhar%xref no email%1,     Abu Baker%Sheikh%xref no email%1,     Shubhra%Upadhyay%xref no email%1,     Jeanette%Atencio%xref no email%1,     Devika%Kapuria%xref no email%1]</t>
-  </si>
-  <si>
-    <t>[Hui%Shi%NULL%1,          Yu%Zuo%NULL%1,          Srilakshmi%Yalavarthi%NULL%1,          Kelsey%Gockman%NULL%1,          Melanie%Zuo%NULL%1,          Jacqueline A%Madison%NULL%1,          Christopher%Blair%NULL%1,          Wrenn%Woodward%NULL%1,          Sean P%Lezak%NULL%1,          Njira L%Lugogo%NULL%1,          Robert J%Woods%NULL%1,          Christian%Lood%NULL%1,          Jason S%Knight%NULL%2,          Jason S%Knight%NULL%0,          Yogendra%Kanthi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Geehan%Suleyman%NULL%1,            Raef A.%Fadel%NULL%1,            Kelly M.%Malette%NULL%1,            Charles%Hammond%NULL%1,            Hafsa%Abdulla%NULL%1,            Abigail%Entz%NULL%1,            Zachary%Demertzis%NULL%1,            Zachary%Hanna%NULL%1,            Andrew%Failla%NULL%1,            Carina%Dagher%NULL%0,            Zohra%Chaudhry%NULL%2,            Amit%Vahia%NULL%2,            Odaliz%Abreu Lanfranco%NULL%1,            Mayur%Ramesh%NULL%1,            Marcus J.%Zervos%NULL%1,            George%Alangaden%NULL%2,            Joseph%Miller%NULL%2,            Indira%Brar%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Felipe%Olivares%xref no email%1,     Daniel%Mu\u00f1oz%xref no email%1,     Alberto%Fica%xref no email%1,     Ignacio%Delama%xref no email%1,     Ignacia%Alvarez%xref no email%1,     Maritza%Navarrete%xref no email%1,     Eileen%Blackburn%xref no email%1,     Pamela%Garrido%xref no email%1,     Ricardo%Wenger%xref no email%1,     Juan%Grandjean%xref no email%1]</t>
-  </si>
-  <si>
     <t>[ C.%Chen%null%1,              J.% Jiang%null%1,              X.% Xu%null%1,              Y.% Hu%null%2,              Y.% Hu%null%0,              Y. % Zhao%null%1]</t>
   </si>
   <si>
@@ -3095,6 +1575,9 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,      Daniel%Mu\u00f1oz%xref no email%1,      Alberto%Fica%xref no email%1,      Ignacio%Delama%xref no email%1,      Ignacia%Alvarez%xref no email%1,      Maritza%Navarrete%xref no email%1,      Eileen%Blackburn%xref no email%1,      Pamela%Garrido%xref no email%1,      Ricardo%Wenger%xref no email%1,      Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>10.15585/mmwr.mm6918e1</t>
   </si>
 </sst>
 </file>
@@ -3445,8 +1928,8 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3459,25 +1942,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3488,25 +1971,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
-        <v>735</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
       <c r="I2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3517,25 +2000,25 @@
         <v>43952</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3546,25 +2029,25 @@
         <v>43998</v>
       </c>
       <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>736</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
       <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
       <c r="I4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3575,25 +2058,25 @@
         <v>43999</v>
       </c>
       <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3604,25 +2087,25 @@
         <v>43997</v>
       </c>
       <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" t="s">
-        <v>677</v>
-      </c>
-      <c r="E6" t="s">
-        <v>738</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3633,25 +2116,25 @@
         <v>43940</v>
       </c>
       <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
-        <v>739</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3662,25 +2145,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>740</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3691,25 +2174,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>741</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
-      </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3720,25 +2203,25 @@
         <v>44013</v>
       </c>
       <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
         <v>111</v>
       </c>
-      <c r="E10" t="s">
-        <v>742</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" t="s">
-        <v>113</v>
-      </c>
       <c r="I10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3749,25 +2232,25 @@
         <v>43989</v>
       </c>
       <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" t="s">
         <v>114</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
         <v>115</v>
       </c>
-      <c r="E11" t="s">
-        <v>743</v>
-      </c>
-      <c r="F11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>117</v>
-      </c>
       <c r="I11" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3778,25 +2261,25 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="D12" t="s">
-        <v>684</v>
-      </c>
-      <c r="E12" t="s">
-        <v>744</v>
-      </c>
-      <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" t="s">
-        <v>121</v>
-      </c>
       <c r="I12" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3807,25 +2290,25 @@
         <v>43983</v>
       </c>
       <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>745</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
       <c r="I13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3836,25 +2319,25 @@
         <v>44075</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>746</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3865,25 +2348,25 @@
         <v>43920</v>
       </c>
       <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
       <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3894,25 +2377,25 @@
         <v>44075</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>747</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="H16" t="s">
-        <v>466</v>
+        <v>252</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3923,25 +2406,25 @@
         <v>43952</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>748</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3952,25 +2435,25 @@
         <v>43998</v>
       </c>
       <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
         <v>132</v>
       </c>
-      <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>749</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" t="s">
-        <v>135</v>
-      </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3981,25 +2464,25 @@
         <v>43942</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>750</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="H19" t="s">
-        <v>471</v>
+        <v>254</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -4010,25 +2493,25 @@
         <v>43965</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>692</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>751</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -4039,25 +2522,25 @@
         <v>43987</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>752</v>
+        <v>286</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -4068,25 +2551,25 @@
         <v>43952</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>753</v>
+        <v>287</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4097,25 +2580,25 @@
         <v>44085</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>754</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4126,25 +2609,25 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>755</v>
+        <v>289</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -4155,25 +2638,25 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>698</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>756</v>
+        <v>290</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -4184,25 +2667,25 @@
         <v>44013</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>757</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -4213,25 +2696,25 @@
         <v>44000</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>701</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>758</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
         <v>91</v>
       </c>
-      <c r="H27" t="s">
-        <v>92</v>
-      </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4242,25 +2725,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>703</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>759</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4271,25 +2754,25 @@
         <v>43979</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>760</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4300,25 +2783,25 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>706</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>761</v>
+        <v>295</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4329,25 +2812,25 @@
         <v>44044</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>762</v>
+        <v>296</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4358,25 +2841,25 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>763</v>
+        <v>297</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4387,25 +2870,25 @@
         <v>44044</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>710</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>764</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -4416,25 +2899,25 @@
         <v>43993</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>765</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4445,25 +2928,25 @@
         <v>44148</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>766</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -4474,25 +2957,25 @@
         <v>44133</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>767</v>
+        <v>301</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -4503,25 +2986,25 @@
         <v>44075</v>
       </c>
       <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
-        <v>77</v>
-      </c>
       <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
         <v>80</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>81</v>
       </c>
-      <c r="G37" t="s">
-        <v>82</v>
-      </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -4532,25 +3015,25 @@
         <v>43977</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>768</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -4561,25 +3044,25 @@
         <v>43949</v>
       </c>
       <c r="C39" t="s">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>769</v>
+        <v>303</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>492</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -4590,25 +3073,25 @@
         <v>43980</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>770</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4619,25 +3102,25 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>771</v>
+        <v>305</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -4648,25 +3131,25 @@
         <v>43972</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>772</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -4677,25 +3160,25 @@
         <v>43973</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>773</v>
+        <v>307</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I43" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -4706,25 +3189,25 @@
         <v>44044</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>774</v>
+        <v>308</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -4735,431 +3218,431 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>775</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="B46" s="10">
         <v>43959</v>
       </c>
       <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
         <v>76</v>
       </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
       <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s">
         <v>80</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>81</v>
       </c>
-      <c r="G46" t="s">
-        <v>82</v>
-      </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="5">
         <v>43993</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>776</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2">
         <v>2020</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>777</v>
+        <v>311</v>
       </c>
       <c r="F48" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I48" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="5">
         <v>44092</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>778</v>
+        <v>312</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5">
         <v>44011</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>779</v>
+        <v>313</v>
       </c>
       <c r="F50" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="9">
         <v>44013</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>780</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="10">
         <v>43973</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>777</v>
+        <v>311</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>781</v>
+        <v>315</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I53" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="10">
         <v>43977</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>782</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="H54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>783</v>
+        <v>317</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="18">
         <v>43969</v>
       </c>
       <c r="C56" t="s">
-        <v>507</v>
+        <v>257</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>784</v>
+        <v>318</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>509</v>
+        <v>258</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="19">
         <v>44075</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>785</v>
+        <v>319</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="5">
         <v>43983</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>786</v>
+        <v>320</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C59" t="s">
-        <v>512</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>787</v>
+        <v>321</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>514</v>
+        <v>260</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="377">
   <si>
     <t>Doi</t>
   </si>
@@ -1578,6 +1578,168 @@
   </si>
   <si>
     <t>10.15585/mmwr.mm6918e1</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,               J.% Jiang%null%1,               X.% Xu%null%1,               Y.% Hu%null%2,               Y.% Hu%null%0,               Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,              Chenchen%Qian%NULL%1,              Zhibing%Luo%NULL%1,              Qiang%Li%liqressh@hotmail.com%0,              Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,              Chunlin%Cai%NULL%1,              Jinglei%Zang%NULL%1,              Jun%Xie%NULL%1,              Dan%Xu%NULL%0,              Fang%Zheng%NULL%0,              Tao%Zhan%NULL%1,              Kang%Huang%NULL%1,              Yikai%Wang%NULL%1,              Xiao%Wang%NULL%1,              Zhe-Yu%Hu%NULL%1,              Yapeng%Deng%NULL%1,              Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,              Naofumi%Bunya%NULL%1,              Tomoyuki%Endo%NULL%1,              Yuji%Fujino%NULL%1,              Kensuke%Fujita%NULL%1,              Kenji%Fujizuka%NULL%1,              Yoshihiro%Hagiwara%NULL%1,              Jun%Hamaguchi%NULL%1,              Yoshitaka%Hara%NULL%1,              Eiji%Hashiba%NULL%1,              Satoru%Hashimoto%NULL%1,              Noriyuki%Hattori%NULL%1,              Kota%Hoshino%NULL%1,              Shinichi%Ijuin%NULL%1,              Takanari%Ikeyama%NULL%1,              Shingo%Ichiba%NULL%1,              Wataru%Iwanaga%NULL%1,              Yoshiaki%Iwashita%NULL%1,              Masafumi%Kanamoto%NULL%1,              Hitoshi%Kaneko%NULL%1,              Kaneyuki%Kawamae%NULL%1,              Toru%Kotani%NULL%1,              Yasuaki%Koyama%NULL%1,              Keibun%Liu%NULL%1,              Tomohiko%Masuno%NULL%1,              Naoto%Morimura%NULL%1,              Tomoyuki%Nakamura%NULL%1,              Masaki%Nakane%NULL%1,              Michitaka%Nasu%NULL%1,              Osamu%Nishida%NULL%1,              Masaji%Nishimura%NULL%1,              Kanae%Ochiai%NULL%1,              Takayuki%Ogura%NULL%1,              Shinichiro%Ohshimo%NULL%1,              Keisuke%Oyama%NULL%1,              Junichi%Sasaki%NULL%1,              Ryutaro%Seo%NULL%1,              Takeshi%Shimazu%NULL%1,              Nobuaki%Shime%NULL%4,              Keiki%Shimizu%NULL%1,              Hiroyuki%Suzuki%NULL%1,              Shuhei%Takauji%NULL%1,              Shinhiro%Takeda%NULL%1,              Ichiro%Takeuchi%NULL%2,              Mumon%Takita%NULL%1,              Hayato%Taniguchi%NULL%1,              Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,              Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,              Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,              Yi Xin%Tong%NULL%3,              Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,              Hong%Chen%NULL%0,              Zhen%Li%NULL%2,              Bo%Wang%NULL%0,              Zhong-Wei%Zhang%NULL%1,              Wei-Min%Li%NULL%0,              Zong-An%Liang%NULL%0,              Jin%Tang%NULL%1,              Jian%Wang%NULL%1,              Rui%Shi%NULL%1,              Xiao-Dong%Jin%NULL%1,              Yan%Kang%NULL%0,              Pei-Fang%Wei%NULL%8,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,               S. F.% Mahmood%null%1,               K.% Habib%null%1,               I.% Khanum%null%1,               B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,              Chaisith%Sivakorn%NULL%1,              Tanuwong%Viarasilpa%NULL%1,              Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,              Mu%Qin%qinmuae@163.com%1,              Yuli%Cai%NULL%1,              Tao%Liu%NULL%0,              Bo%Shen%NULL%1,              Fan%Yang%NULL%2,              Sheng%Cao%NULL%1,              Xu%Liu%NULL%2,              Xu%Liu%NULL%0,              Yaozu%Xiang%NULL%1,              Qinyan%Zhao%NULL%1,              He%Huang%huanghe1977@whu.edu.cn%0,              Bo%Yang%yybb112@whu.edu.cn%0,              Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,              Win%Kulvichit%NULL%1,              Sunchai%Payungporn%NULL%1,              Trairak%Pisitkun%NULL%1,              Ariya%Chindamporn%NULL%1,              Sadudee%Peerapornratana%NULL%1,              Prapaporn%Pisitkun%NULL%1,              Suwalak%Chitcharoen%NULL%1,              Vorthon%Sawaswong%NULL%1,              Navaporn%Worasilchai%NULL%1,              Sarinya%Kampunya%NULL%1,              Opass%Putcharoen%NULL%1,              Thammasak%Thawitsri%NULL%1,              Nophol%Leelayuwatanakul%NULL%1,              Napplika%Kongpolprom%NULL%1,              Vorakamol%Phoophiboon%NULL%1,              Thitiwat%Sriprasart%NULL%1,              Rujipat%Samransamruajkit%NULL%1,              Somkanya%Tungsanga%NULL%1,              Kanitha%Tiankanon%NULL%1,              Nuttha%Lumlertgul%NULL%1,              Asada%Leelahavanichkul%NULL%1,              Tueboon%Sriphojanart%NULL%1,              Terapong%Tantawichien%NULL%1,              Usa%Thisyakorn%NULL%1,              Chintana%Chirathaworn%NULL%1,              Kearkiat%Praditpornsilpa%NULL%1,              Kriang%Tungsanga%NULL%1,              Somchai%Eiam-Ong%NULL%1,              Visith%Sitprija%NULL%1,              John A.%Kellum%NULL%1,              Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,              Min%Pan%NULL%3,              Xiumei%Zhang%NULL%3,              Mingfeng%Han%fyhmf@163.com%0,              Xiaoyun%Fan%13956988552@126.com%3,              Fengde%Zhao%NULL%3,              Manli%Miao%NULL%3,              Jing%Xu%NULL%0,              Minglong%Guan%NULL%3,              Xia%Deng%NULL%3,              Xu%Chen%NULL%4,              Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,              Chunli%Tang%NULL%0,              Ruchong%Chen%NULL%1,              Honglian%Ruan%NULL%1,              Wenhua%Liang%NULL%0,              Weijie%Guan%NULL%0,              Ling%Sang%NULL%0,              Ruidi%Tang%NULL%1,              Nanshan%Zhong%NULL%0,              Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,       Shuhan%Cai%xref no email%1,       Yun%Luo%xref no email%1,       Fangfang%Zhu%xref no email%1,       Ming%Hu%xref no email%1,       Yan%Zhao%xref no email%1,       Ruiqiang%Zheng%xref no email%1,       Xuyan%Li%xref no email%1,       Bo%Hu%xref no email%0,       Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%5,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%5,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%5,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%5,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%5,              Shangwen%Pan%NULL%5,              Xiaojing%Zou%NULL%7,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,              Shanyan%Zhang%NULL%2,              Xiaoli%Zhang%NULL%1,              Huan%Cai%NULL%2,              Jueqing%Gu%NULL%2,              Jiangshan%Lian%NULL%2,              Yingfeng%Lu%NULL%2,              Hongyu%Jia%NULL%2,              Jianhua%Hu%NULL%2,              Ciliang%Jin%NULL%2,              Guodong%Yu%NULL%2,              Yimin%Zhang%NULL%2,              Jifang%Sheng%NULL%4,              Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,       Sean Wei Xiang%Ong%xref no email%0,       Shirin%Kalimuddin%xref no email%0,       Jenny G.%Low%xref no email%0,       Seow Yen%Tan%xref no email%0,       Jiashen%Loh%xref no email%0,       Oon-Tek%Ng%xref no email%0,       Kalisvar%Marimuthu%xref no email%0,       Li Wei%Ang%xref no email%0,       Tze Minn%Mak%xref no email%0,       Sok Kiang%Lau%xref no email%0,       Danielle E.%Anderson%xref no email%0,       Kian Sing%Chan%xref no email%0,       Thean Yen%Tan%xref no email%0,       Tong Yong%Ng%xref no email%0,       Lin%Cui%xref no email%0,       Zubaidah%Said%xref no email%0,       Lalitha%Kurupatham%xref no email%0,       Mark I-Cheng%Chen%xref no email%0,       Monica%Chan%xref no email%0,       Shawn%Vasoo%xref no email%0,       Lin-Fa%Wang%xref no email%0,       Boon Huan%Tan%xref no email%0,       Raymond Tzer Pin%Lin%xref no email%0,       Vernon Jian Ming%Lee%xref no email%0,       Yee-Sin%Leo%xref no email%0,       David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,              Dan%Xu%NULL%0,              Shouzhi%Fu%NULL%0,              Jun%Zhang%NULL%0,              Xiaobo%Yang%NULL%0,              Liang%Xu%NULL%0,              Jiqian%Xu%NULL%0,              Yongran%Wu%NULL%0,              Chaolin%Huang%NULL%0,              Yaqi%Ouyang%NULL%0,              Luyu%Yang%NULL%0,              Minghao%Fang%NULL%0,              Hongwen%Xiao%NULL%0,              Jing%Ma%NULL%0,              Wei%Zhu%NULL%0,              Song%Hu%NULL%0,              Quan%Hu%NULL%0,              Daoyin%Ding%NULL%0,              Ming%Hu%NULL%0,              Guochao%Zhu%NULL%0,              Weijiang%Xu%NULL%0,              Jun%Guo%NULL%0,              Jinglong%Xu%NULL%0,              Haitao%Yuan%NULL%0,              Bin%Zhang%NULL%0,              Zhui%Yu%yuzhui@whu.edu.cn%0,              Dechang%Chen%icudechangchen@163.com%0,              Shiying%Yuan%yuan_shiying@163.com%0,              You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,              Hao-Yu%Gao%NULL%1,              Zi-Yi%Feng%NULL%1,              Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,              Li-jun%Sun%NULL%1,              Mi%Xu%NULL%1,              Jian%Pan%NULL%1,              Yun-tao%Zhang%NULL%1,              Xue-ling%Fang%NULL%1,              Qiang%Fang%NULL%2,              Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,              Ziqiang%Du%NULL%1,              Yanfang%Zhu%NULL%1,              Wenfeng%Li%NULL%1,              Hongjun%Miao%NULL%1,              Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,              Sarah%Al-Youha%sarahalyouha@gmail.com%1,              Mohammad H.%Jamal%NULL%1,              Mohannad%Al-Haddad%NULL%1,              Ali%Al-Muhaini%NULL%1,              Fahad%Al-Ghimlas%NULL%1,              Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,              Mina%Akbari Rad%NULL%1,              Robert%Bergquist%NULL%1,              Abolghasem%Allahyari%NULL%1,              Kamila%Hashemzadeh%NULL%1,              Nasrin%Milani%NULL%1,              Mahdi%Gholian-Aval%NULL%1,              Fariba%Rezaeitalab%NULL%1,              Mohammad Jafar%Sadeghi Quchani%NULL%1,              Zahra%Nahbandani%NULL%1,              Mandana%Khodashahi%NULL%1,              Zahra%Javid%NULL%1,              Mahnaz%Mozdourian%NULL%1,              Mohammad Ali%Yaghoubi%NULL%1,              Zahra%Mozaheb%NULL%1,              Mohsen%Seddigh-Shamsi%NULL%1,              Mohammad%Moeini Nodeh%NULL%1,              Shima%Nabavi%NULL%1,              Hooman%Mosannen Mozaffari%NULL%1,              Mohammadreza%Farzanehfar%NULL%1,              Zahra%Lotfi%NULL%1,              Alireza%Shariati%NULL%1,              Shekoofe%Bonakdaran%NULL%1,              Zahra%Rezaieyazdi%NULL%1,              Zahra%Mirfeizi%NULL%1,              Maryam%Miri%NULL%1,              Reza%Bassiri%NULL%1,              Sajjad%Ataei Azimi%NULL%1,              Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,              Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,              Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,              Ibrahim%Al-Zakwani%NULL%1,              Hamed%Al Naamani%NULL%1,              Sultan%Al Lawati%NULL%1,              Nenad%Pandak%NULL%1,              Muna Ba%Omar%NULL%1,              Maher%Al Bahrani%NULL%1,              Zakaryia AL%Bulushi%NULL%1,              Huda%Al Khalili%NULL%1,              Issa%Al Salmi%NULL%1,              Ruwaida%Al Ismaili%NULL%1,              Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,              Zohre%Khodamoradi%NULL%1,              Amirhossein%Erfani%NULL%1,              Hamidreza%Hosseinpour%NULL%1,              Keivan%Ranjbar%NULL%1,              Yasaman%Emami%NULL%1,              Alireza%Mirahmadizadeh%NULL%1,              Mehrzad%Lotfi%NULL%1,              Babak%Shirazi Yeganeh%NULL%1,              Abolfazl%Dorrani Nejad%NULL%1,              Abdolrasool%Hemmati%NULL%1,              Mostafa%Ebrahimi%NULL%1,              Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,              Annachiara%Ferrari%NULL%2,              Annachiara%Ferrari%NULL%0,              Francesco%Fontana%NULL%1,              Giacomo%Mori%NULL%1,              Riccardo%Magistroni%NULL%1,              Marianna%Meschiari%NULL%1,              Erica%Franceschini%NULL%1,              Marianna%Menozzi%NULL%1,              Gianluca%Cuomo%NULL%1,              Gabriella%Orlando%NULL%1,              Antonella%Santoro%NULL%1,              Margherita%Digaetano%NULL%1,              Cinzia%Puzzolante%NULL%1,              Federica%Carli%NULL%1,              Andrea%Bedini%NULL%1,              Jovana%Milic%NULL%1,              Irene%Coloretti%NULL%1,              Paolo%Raggi%NULL%1,              Cristina%Mussini%NULL%1,              Massimo%Girardis%NULL%1,              Gianni%Cappelli%NULL%1,              Giovanni%Guaraldi%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,              Silvia%Bettini%NULL%2,              Silvia%Bettini%NULL%0,              Roberto%Fabris%NULL%1,              Roberto%Serra%NULL%2,              Chiara%Dal Pra%NULL%1,              Pietro%Maffei%NULL%1,              Marco%Rossato%NULL%1,              Paola%Fioretto%NULL%0,              Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,              Marco%Roncador%NULL%2,              Marco%Roncador%NULL%0,              Andrea%Saporito%NULL%1,              Maira%Biggiogero%NULL%1,              Andrea%Glotta%NULL%1,              Pier Andrea%Maida%NULL%1,              Patrizia%Urso%NULL%1,              Giovanni%Bona%NULL%1,              Christian%Garzoni%NULL%1,              Romano%Mauri%NULL%1,              Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,              Anna Lisa%Ridolfo%NULL%4,              Laura%Milazzo%NULL%2,              Letizia%Oreni%NULL%4,              Dario%Bernacchia%NULL%4,              Matteo%Siano%NULL%4,              Cecilia%Bonazzetti%NULL%2,              Alice%Covizzi%NULL%2,              Marco%Schiuma%NULL%2,              Matteo%Passerini%NULL%2,              Marco%Piscaglia%NULL%2,              Massimo%Coen%NULL%2,              Guido%Gubertini%NULL%2,              Giuliano%Rizzardini%NULL%4,              Chiara%Cogliati%NULL%2,              Anna Maria%Brambilla%NULL%2,              Riccardo%Colombo%NULL%2,              Antonio%Castelli%NULL%2,              Roberto%Rech%NULL%2,              Agostino%Riva%NULL%2,              Alessandro%Torre%NULL%2,              Luca%Meroni%NULL%2,              Stefano%Rusconi%NULL%4,              Spinello%Antinori%NULL%4,              Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,             Cabrini%Luca%coreGivesNoEmail%4,             Castelli%Antonio%coreGivesNoEmail%4,             Cecconi%Maurizio%coreGivesNoEmail%4,             Cereda%Danilo%coreGivesNoEmail%4,             Coluccello%Antonio%coreGivesNoEmail%4,             Foti%Giuseppe%coreGivesNoEmail%4,             Fumagalli%Roberto%coreGivesNoEmail%4,             Grasselli%Giacomo%coreGivesNoEmail%4,             Iotti%Giorgio%coreGivesNoEmail%4,             Latronico%Nicola%coreGivesNoEmail%4,             Lorini%Luca%coreGivesNoEmail%4,             Merler%Stefano%coreGivesNoEmail%4,             Natalini%Giuseppe%coreGivesNoEmail%4,             Pesenti%Antonio%coreGivesNoEmail%4,             Piatti%Alessandra%coreGivesNoEmail%4,             Ranieri%Marco Vito%coreGivesNoEmail%4,             Scandroglio%Anna Mara%coreGivesNoEmail%4,             Storti%Enrico%coreGivesNoEmail%4,             Zanella%Alberto%coreGivesNoEmail%4,             Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,              Lara%Gianesello%gianesello.lara@libero.it%1,              Maddalena%Pazzi%NULL%2,              Maddalena%Pazzi%NULL%0,              Caterina%Stera%NULL%1,              Tommaso%Meconi%NULL%1,              Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,              Andrea%Dalbeni%NULL%2,              Andrea%Dalbeni%NULL%0,              Elia%Vettore%NULL%2,              Elia%Vettore%NULL%0,              Devis%Benfaremo%NULL%1,              Massimo%Mattioli%NULL%1,              Carmine G.%Gambino%NULL%1,              Viviana%Framba%NULL%2,              Viviana%Framba%NULL%0,              Lorenzo%Cerruti%NULL%1,              Anna%Mantovani%NULL%1,              Andrea%Martini%NULL%1,              Michele M.%Luchetti%NULL%1,              Roberto%Serra%NULL%0,              Annamaria%Cattelan%NULL%1,              Roberto%Vettor%NULL%0,              Paolo%Angeli%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,              Matthaios%Papadimitriou-Olivgeris%NULL%2,              Matthaios%Papadimitriou-Olivgeris%NULL%0,              Raphaël%Burger%NULL%1,              Marie-Annick%Le Pogam%NULL%1,              Tapio%Niemi%NULL%2,              Tapio%Niemi%NULL%0,              Paraskevas%Filippidis%NULL%1,              Jonathan%Tschopp%NULL%1,              Florian%Desgranges%NULL%1,              Benjamin%Viala%NULL%1,              Eleftheria%Kampouri%NULL%1,              Laurence%Rochat%NULL%2,              Laurence%Rochat%NULL%0,              David%Haefliger%NULL%1,              Mehdi%Belkoniene%NULL%1,              Carlos%Fidalgo%NULL%1,              Antonios%Kritikos%NULL%1,              Katia%Jaton%NULL%1,              Laurence%Senn%NULL%1,              Pierre-Alexandre%Bart%NULL%1,              Jean-Luc%Pagani%NULL%2,              Jean-Luc%Pagani%NULL%0,              Oriol%Manuel%NULL%1,              Loïc%Lhopitallier%NULL%1,              Chiara%Lazzeri%NULL%2,              Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,              Ashwin%Subramaniam%NULL%2,              Ashwin%Subramaniam%NULL%0,              Mallikarjuna%Ponnapa Reddy%NULL%2,              Mallikarjuna%Ponnapa Reddy%NULL%0,              Gabriel%Blecher%NULL%1,              Umesh%Kadam%NULL%2,              Umesh%Kadam%NULL%0,              Afsana%Afroz%NULL%1,              Baki%Billah%NULL%1,              Sushma%Ashwin%NULL%1,              Mark%Kubicki%NULL%1,              Federico%Bilotta%NULL%1,              J. Randall%Curtis%NULL%2,              J. Randall%Curtis%NULL%0,              Francesca%Rubulotta%NULL%2,              Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,             Aggarwal%Saurabh%coreGivesNoEmail%3,             Garcia-Telles%Nelson%coreGivesNoEmail%3,             Henry%Brandon Michael%coreGivesNoEmail%3,             Lavie%Carl%coreGivesNoEmail%3,             Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,       Eric%Yim%xref no email%0,       Lindy%Klaff%xref no email%0,       Sharukh%Lokhandwala%xref no email%0,       Francis X.%Riedo%xref no email%0,       Maria%Chong%xref no email%0,       Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,              Samuel L%Bruce%NULL%2,              Cody L%Slater%NULL%2,              Jonathan R%Tiao%NULL%2,              Matthew R%Baldwin%NULL%3,              R Graham%Barr%NULL%2,              Bernard P%Chang%NULL%2,              Katherine H%Chau%NULL%2,              Justin J%Choi%NULL%2,              Nicholas%Gavin%NULL%2,              Parag%Goyal%NULL%2,              Angela M%Mills%NULL%2,              Ashmi A%Patel%NULL%2,              Marie-Laure S%Romney%NULL%2,              Monika M%Safford%NULL%2,              Neil W%Schluger%NULL%2,              Soumitra%Sengupta%NULL%2,              Magdalena E%Sobieszczyk%NULL%2,              Jason E%Zucker%NULL%2,              Paul A%Asadourian%NULL%2,              Fletcher M%Bell%NULL%2,              Rebekah%Boyd%NULL%2,              Matthew F%Cohen%NULL%2,              MacAlistair I%Colquhoun%NULL%2,              Lucy A%Colville%NULL%2,              Joseph H%de Jonge%NULL%2,              Lyle B%Dershowitz%NULL%2,              Shirin A%Dey%NULL%2,              Katherine A%Eiseman%NULL%2,              Zachary P%Girvin%NULL%2,              Daniella T%Goni%NULL%2,              Amro A%Harb%NULL%2,              Nicholas%Herzik%NULL%2,              Sarah%Householder%NULL%2,              Lara E%Karaaslan%NULL%2,              Heather%Lee%NULL%2,              Evan%Lieberman%NULL%2,              Andrew%Ling%NULL%2,              Ree%Lu%NULL%2,              Arthur Y%Shou%NULL%2,              Alexander C%Sisti%NULL%2,              Zachary E%Snow%NULL%2,              Colin P%Sperring%NULL%2,              Yuqing%Xiong%NULL%2,              Henry W%Zhou%NULL%2,              Karthik%Natarajan%NULL%2,              George%Hripcsak%NULL%2,              Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,              Mark%Caridi-Scheible%NULL%3,              James M.%Blum%NULL%2,              Chad%Robichaux%NULL%2,              Colleen%Kraft%NULL%2,              Jesse T.%Jacob%NULL%2,              Craig S.%Jabaley%NULL%2,              David%Carpenter%NULL%2,              Roberta%Kaplow%NULL%2,              Alfonso C.%Hernandez-Romieu%NULL%2,              Max W.%Adelman%NULL%2,              Greg S.%Martin%NULL%2,              Craig M.%Coopersmith%NULL%2,              David J.%Murphy%NULL%2,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,              Bijan J.%Ghassemieh%NULL%0,              Michelle%Nichols%NULL%0,              Richard%Kim%NULL%0,              Keith R.%Jerome%NULL%0,              Arun K.%Nalla%NULL%0,              Alexander L.%Greninger%NULL%0,              Sudhakar%Pipavath%NULL%0,              Mark M.%Wurfel%NULL%0,              Laura%Evans%NULL%0,              Patricia A.%Kritek%NULL%0,              T. Eoin%West%NULL%0,              Andrew%Luks%NULL%0,              Anthony%Gerbino%NULL%0,              Chris R.%Dale%NULL%0,              Jason D.%Goldman%NULL%0,              Shane%O’Mahony%NULL%0,              Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,              Denise J%McCulloch%NULL%0,              Denise J%McCulloch%NULL%0,              Vidya%Atluri%NULL%0,              Michela%Blain%NULL%0,              Sarah A%McGuffin%NULL%0,              Arun K%Nalla%NULL%0,              Meei-Li%Huang%NULL%0,              Alex L%Greninger%NULL%0,              Keith R%Jerome%NULL%0,              Seth A%Cohen%NULL%0,              Santiago%Neme%NULL%0,              Margaret L%Green%NULL%0,              Helen Y%Chu%NULL%0,              H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,              Joelle I.%Rosser%NULL%0,              Orlando%Quintero%NULL%0,              Jake%Scott%NULL%0,              Aruna%Subramanian%NULL%0,              Mohammad%Gumma%NULL%0,              Angela%Rogers%NULL%0,              Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,              Jacob%Fiksel%NULL%2,              Jacob%Fiksel%NULL%0,              John%Muschelli%NULL%2,              John%Muschelli%NULL%0,              Matthew L.%Robinson%NULL%2,              Matthew L.%Robinson%NULL%0,              Masoud%Rouhizadeh%NULL%2,              Masoud%Rouhizadeh%NULL%0,              Jamie%Perin%NULL%2,              Jamie%Perin%NULL%0,              Grant%Schumock%NULL%2,              Grant%Schumock%NULL%0,              Paul%Nagy%NULL%2,              Paul%Nagy%NULL%0,              Josh H.%Gray%NULL%2,              Josh H.%Gray%NULL%0,              Harsha%Malapati%NULL%2,              Harsha%Malapati%NULL%0,              Mariam%Ghobadi-Krueger%NULL%2,              Mariam%Ghobadi-Krueger%NULL%0,              Timothy M.%Niessen%NULL%1,              Bo Soo%Kim%NULL%1,              Peter M.%Hill%NULL%1,              M. Shafeeq%Ahmed%NULL%1,              Eric D.%Dobkin%NULL%1,              Renee%Blanding%NULL%1,              Jennifer%Abele%NULL%1,              Bonnie%Woods%NULL%1,              Kenneth%Harkness%NULL%1,              David R.%Thiemann%NULL%1,              Mary G.%Bowring%NULL%1,              Aalok B.%Shah%NULL%2,              Aalok B.%Shah%NULL%0,              Mei-Cheng%Wang%NULL%1,              Karen%Bandeen-Roche%NULL%1,              Antony%Rosen%NULL%1,              Scott L.%Zeger%NULL%2,              Scott L.%Zeger%NULL%0,              Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,              Justin J.%Choi%NULL%0,              Laura C.%Pinheiro%NULL%0,              Edward J.%Schenck%NULL%0,              Ruijun%Chen%NULL%0,              Assem%Jabri%NULL%0,              Michael J.%Satlin%NULL%0,              Thomas R.%Campion%NULL%0,              Musarrat%Nahid%NULL%0,              Joanna B.%Ringel%NULL%0,              Katherine L.%Hoffman%NULL%0,              Mark N.%Alshak%NULL%0,              Han A.%Li%NULL%0,              Graham T.%Wehmeyer%NULL%0,              Graham T.%Wehmeyer%NULL%0,              Mangala%Rajan%NULL%0,              Evgeniya%Reshetnyak%NULL%0,              Nathaniel%Hupert%NULL%0,              Evelyn M.%Horn%NULL%0,              Fernando J.%Martinez%NULL%0,              Roy M.%Gulick%NULL%0,              Monika M.%Safford%NULL%0,              Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,              Simon A%Jones%NULL%0,              Jie%Yang%NULL%0,              Harish%Rajagopalan%NULL%0,              Luke%O’Donnell%NULL%0,              Yelena%Chernyak%NULL%0,              Katie A%Tobin%NULL%0,              Robert J%Cerfolio%NULL%0,              Fritz%Francois%NULL%0,              Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,              Anatoly%Mitrokhin%NULL%2,              Anatoly%Mitrokhin%NULL%0,              Ajai%Rajabalan%NULL%1,              Christian%Benjamin%NULL%1,              Sushma%Raviralla%NULL%1,              Vishnu R%Mani%vishnu.mani@duke.edu%2,              Vishnu R%Mani%vishnu.mani@duke.edu%0,              Aleksandr%Kalabin%NULL%2,              Aleksandr%Kalabin%NULL%0,              Sebastian C%Valdivieso%NULL%2,              Sebastian C%Valdivieso%NULL%0,              Max%Murray-Ramcharan%NULL%2,              Max%Murray-Ramcharan%NULL%0,              Brian%Donaldson%NULL%2,              Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,               Nicholas A.%Fergusson%null%2,               Elisa%Lloyd-Smith%null%2,               Andrew%Wormsbecker%null%2,               Denise%Foster%null%2,               Andrei%Karpov%null%2,               Sarah%Crowe%null%2,               Greg%Haljan%null%2,               Dean R.%Chittock%null%2,               Hussein D.%Kanji%null%2,               Mypinder S.%Sekhon%null%2,               Donald E.G.%Griesdale%null%2,             Anish R.%Mitra%null%1,             Nicholas A.%Fergusson%null%1,             Elisa%Lloyd-Smith%null%1,             Andrew%Wormsbecker%null%1,             Denise%Foster%null%1,             Andrei%Karpov%null%1,             Sarah%Crowe%null%1,             Greg%Haljan%null%1,             Dean R.%Chittock%null%1,             Hussein D.%Kanji%null%1,             Mypinder S.%Sekhon%null%1,             Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,              Damianos G.%Kokkinidis%NULL%1,              Weijia%Li%NULL%1,              Dimitrios%Karamanis%NULL%1,              Jennifer%Ognibene%NULL%1,              Shitij%Arora%NULL%1,              William N.%Southern%NULL%1,              Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,              Jesus D.%Gonzalez-Lugo%NULL%1,              Shafia%Rahman%NULL%1,              Mohammad%Barouqa%NULL%1,              James%Szymanski%NULL%1,              Kenji%Ikemura%NULL%1,              Yungtai%Lo%NULL%1,              Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%4,             Chelico%J.D.%coreGivesNoEmail%4,             Cohen%S.L.%coreGivesNoEmail%4,             Cookingham%J.%coreGivesNoEmail%4,             Coppa%K.%coreGivesNoEmail%4,             Crawford%J.M.%coreGivesNoEmail%4,             Davidson%K.W.%coreGivesNoEmail%4,             Diefenbach%M.A.%coreGivesNoEmail%4,             Dominello%A.J.%coreGivesNoEmail%4,             Duer-Hefele%J.%coreGivesNoEmail%4,             Falzon%L.%coreGivesNoEmail%4,             Gitlin%J.%coreGivesNoEmail%4,             Hajizadeh%N.%coreGivesNoEmail%4,             Harvin%T.G.%coreGivesNoEmail%4,             Hirsch%J.S.%coreGivesNoEmail%4,             Hirschwerk%D.A.%coreGivesNoEmail%4,             Kim%E.J.%coreGivesNoEmail%4,             Kozel%Z.M.%coreGivesNoEmail%4,             Marrast%L.M.%coreGivesNoEmail%4,             McGinn%T.%coreGivesNoEmail%4,             Mogavero%J.N.%coreGivesNoEmail%4,             Narasimhan%M.%coreGivesNoEmail%4,             Osorio%G.A.%coreGivesNoEmail%4,             Qiu%M.%coreGivesNoEmail%4,             Richardson%S.%coreGivesNoEmail%4,             Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,              Viet-Thi%Tran%NULL%4,              Viet-Thi%Tran%NULL%0,              Mathilde%Roumier%NULL%2,              Amélie%Chabrol%NULL%2,              Romain%Paule%NULL%2,              Constance%Guillaud%NULL%2,              Elena%Fois%NULL%2,              Raphael%Lepeule%NULL%2,              Tali-Anne%Szwebel%NULL%2,              François-Xavier%Lescure%NULL%2,              Frédéric%Schlemmer%NULL%2,              Marie%Matignon%NULL%2,              Mehdi%Khellaf%NULL%2,              Etienne%Crickx%NULL%2,              Benjamin%Terrier%NULL%2,              Caroline%Morbieu%NULL%2,              Paul%Legendre%NULL%2,              Julien%Dang%NULL%2,              Yoland%Schoindre%NULL%2,              Jean-Michel%Pawlotsky%NULL%2,              Marc%Michel%NULL%2,              Elodie%Perrodeau%NULL%2,              Nicolas%Carlier%NULL%2,              Nicolas%Roche%NULL%2,              Victoire%de Lastours%NULL%2,              Clément%Ourghanlian%NULL%2,              Solen%Kerneis%NULL%2,              Philippe%Ménager%NULL%2,              Luc%Mouthon%NULL%2,              Etienne%Audureau%NULL%2,              Philippe%Ravaud%NULL%2,              Bertrand%Godeau%NULL%2,              Sébastien%Gallien%NULL%2,              Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,       Abu Baker%Sheikh%xref no email%1,       Shubhra%Upadhyay%xref no email%1,       Jeanette%Atencio%xref no email%1,       Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,            Yu%Zuo%NULL%1,            Srilakshmi%Yalavarthi%NULL%1,            Kelsey%Gockman%NULL%1,            Melanie%Zuo%NULL%1,            Jacqueline A%Madison%NULL%1,            Christopher%Blair%NULL%1,            Wrenn%Woodward%NULL%1,            Sean P%Lezak%NULL%1,            Njira L%Lugogo%NULL%1,            Robert J%Woods%NULL%1,            Christian%Lood%NULL%1,            Jason S%Knight%NULL%2,            Jason S%Knight%NULL%0,            Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,              Raef A.%Fadel%NULL%1,              Kelly M.%Malette%NULL%1,              Charles%Hammond%NULL%1,              Hafsa%Abdulla%NULL%1,              Abigail%Entz%NULL%1,              Zachary%Demertzis%NULL%1,              Zachary%Hanna%NULL%1,              Andrew%Failla%NULL%1,              Carina%Dagher%NULL%0,              Zohra%Chaudhry%NULL%2,              Amit%Vahia%NULL%2,              Odaliz%Abreu Lanfranco%NULL%1,              Mayur%Ramesh%NULL%1,              Marcus J.%Zervos%NULL%1,              George%Alangaden%NULL%2,              Joseph%Miller%NULL%2,              Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,       Daniel%Mu\u00f1oz%xref no email%1,       Alberto%Fica%xref no email%1,       Ignacio%Delama%xref no email%1,       Ignacia%Alvarez%xref no email%1,       Maritza%Navarrete%xref no email%1,       Eileen%Blackburn%xref no email%1,       Pamela%Garrido%xref no email%1,       Ricardo%Wenger%xref no email%1,       Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1977,13 +2139,13 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="H2" t="s">
         <v>85</v>
@@ -2035,7 +2197,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -2064,7 +2226,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -2093,7 +2255,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -2122,7 +2284,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -2151,7 +2313,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -2180,13 +2342,13 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
         <v>107</v>
@@ -2209,7 +2371,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -2238,7 +2400,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -2267,7 +2429,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -2296,7 +2458,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -2325,7 +2487,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -2383,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -2412,7 +2574,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -2441,7 +2603,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2470,7 +2632,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -2499,7 +2661,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -2528,7 +2690,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -2557,7 +2719,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2586,7 +2748,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -2615,7 +2777,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -2644,7 +2806,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -2673,7 +2835,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -2702,7 +2864,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -2731,7 +2893,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -2760,7 +2922,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -2789,7 +2951,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -2818,7 +2980,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -2847,7 +3009,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -2876,7 +3038,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -2905,7 +3067,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -2934,7 +3096,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -2963,7 +3125,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -3021,7 +3183,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3050,7 +3212,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -3079,7 +3241,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3108,7 +3270,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3137,7 +3299,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -3166,7 +3328,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -3195,7 +3357,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -3224,7 +3386,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -3282,7 +3444,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3311,7 +3473,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -3340,7 +3502,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -3369,7 +3531,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -3398,7 +3560,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -3427,7 +3589,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -3456,7 +3618,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -3485,7 +3647,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -3514,7 +3676,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -3543,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -3572,7 +3734,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -3601,7 +3763,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -3630,7 +3792,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="430">
   <si>
     <t>Doi</t>
   </si>
@@ -1740,6 +1740,165 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,       Daniel%Mu\u00f1oz%xref no email%1,       Alberto%Fica%xref no email%1,       Ignacio%Delama%xref no email%1,       Ignacia%Alvarez%xref no email%1,       Maritza%Navarrete%xref no email%1,       Eileen%Blackburn%xref no email%1,       Pamela%Garrido%xref no email%1,       Ricardo%Wenger%xref no email%1,       Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                J.% Jiang%null%1,                X.% Xu%null%1,                Y.% Hu%null%2,                Y.% Hu%null%0,                Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,               Chenchen%Qian%NULL%1,               Zhibing%Luo%NULL%1,               Qiang%Li%liqressh@hotmail.com%0,               Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,               Chunlin%Cai%NULL%1,               Jinglei%Zang%NULL%1,               Jun%Xie%NULL%1,               Dan%Xu%NULL%0,               Fang%Zheng%NULL%0,               Tao%Zhan%NULL%1,               Kang%Huang%NULL%1,               Yikai%Wang%NULL%1,               Xiao%Wang%NULL%1,               Zhe-Yu%Hu%NULL%1,               Yapeng%Deng%NULL%1,               Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,               Naofumi%Bunya%NULL%1,               Tomoyuki%Endo%NULL%1,               Yuji%Fujino%NULL%1,               Kensuke%Fujita%NULL%1,               Kenji%Fujizuka%NULL%1,               Yoshihiro%Hagiwara%NULL%1,               Jun%Hamaguchi%NULL%1,               Yoshitaka%Hara%NULL%1,               Eiji%Hashiba%NULL%1,               Satoru%Hashimoto%NULL%1,               Noriyuki%Hattori%NULL%1,               Kota%Hoshino%NULL%1,               Shinichi%Ijuin%NULL%1,               Takanari%Ikeyama%NULL%1,               Shingo%Ichiba%NULL%1,               Wataru%Iwanaga%NULL%1,               Yoshiaki%Iwashita%NULL%1,               Masafumi%Kanamoto%NULL%1,               Hitoshi%Kaneko%NULL%1,               Kaneyuki%Kawamae%NULL%1,               Toru%Kotani%NULL%1,               Yasuaki%Koyama%NULL%1,               Keibun%Liu%NULL%1,               Tomohiko%Masuno%NULL%1,               Naoto%Morimura%NULL%1,               Tomoyuki%Nakamura%NULL%1,               Masaki%Nakane%NULL%1,               Michitaka%Nasu%NULL%1,               Osamu%Nishida%NULL%1,               Masaji%Nishimura%NULL%1,               Kanae%Ochiai%NULL%1,               Takayuki%Ogura%NULL%1,               Shinichiro%Ohshimo%NULL%1,               Keisuke%Oyama%NULL%1,               Junichi%Sasaki%NULL%1,               Ryutaro%Seo%NULL%1,               Takeshi%Shimazu%NULL%1,               Nobuaki%Shime%NULL%4,               Keiki%Shimizu%NULL%1,               Hiroyuki%Suzuki%NULL%1,               Shuhei%Takauji%NULL%1,               Shinhiro%Takeda%NULL%1,               Ichiro%Takeuchi%NULL%2,               Mumon%Takita%NULL%1,               Hayato%Taniguchi%NULL%1,               Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,               Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,               Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,               Yi Xin%Tong%NULL%3,               Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,               Hong%Chen%NULL%0,               Zhen%Li%NULL%2,               Bo%Wang%NULL%0,               Zhong-Wei%Zhang%NULL%1,               Wei-Min%Li%NULL%0,               Zong-An%Liang%NULL%0,               Jin%Tang%NULL%1,               Jian%Wang%NULL%1,               Rui%Shi%NULL%1,               Xiao-Dong%Jin%NULL%1,               Yan%Kang%NULL%0,               Pei-Fang%Wei%NULL%8,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                S. F.% Mahmood%null%1,                K.% Habib%null%1,                I.% Khanum%null%1,                B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,               Chaisith%Sivakorn%NULL%1,               Tanuwong%Viarasilpa%NULL%1,               Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,               Mu%Qin%qinmuae@163.com%1,               Yuli%Cai%NULL%1,               Tao%Liu%NULL%0,               Bo%Shen%NULL%1,               Fan%Yang%NULL%2,               Sheng%Cao%NULL%1,               Xu%Liu%NULL%2,               Xu%Liu%NULL%0,               Yaozu%Xiang%NULL%1,               Qinyan%Zhao%NULL%1,               He%Huang%huanghe1977@whu.edu.cn%0,               Bo%Yang%yybb112@whu.edu.cn%0,               Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,               Win%Kulvichit%NULL%1,               Sunchai%Payungporn%NULL%1,               Trairak%Pisitkun%NULL%1,               Ariya%Chindamporn%NULL%1,               Sadudee%Peerapornratana%NULL%1,               Prapaporn%Pisitkun%NULL%1,               Suwalak%Chitcharoen%NULL%1,               Vorthon%Sawaswong%NULL%1,               Navaporn%Worasilchai%NULL%1,               Sarinya%Kampunya%NULL%1,               Opass%Putcharoen%NULL%1,               Thammasak%Thawitsri%NULL%1,               Nophol%Leelayuwatanakul%NULL%1,               Napplika%Kongpolprom%NULL%1,               Vorakamol%Phoophiboon%NULL%1,               Thitiwat%Sriprasart%NULL%1,               Rujipat%Samransamruajkit%NULL%1,               Somkanya%Tungsanga%NULL%1,               Kanitha%Tiankanon%NULL%1,               Nuttha%Lumlertgul%NULL%1,               Asada%Leelahavanichkul%NULL%1,               Tueboon%Sriphojanart%NULL%1,               Terapong%Tantawichien%NULL%1,               Usa%Thisyakorn%NULL%1,               Chintana%Chirathaworn%NULL%1,               Kearkiat%Praditpornsilpa%NULL%1,               Kriang%Tungsanga%NULL%1,               Somchai%Eiam-Ong%NULL%1,               Visith%Sitprija%NULL%1,               John A.%Kellum%NULL%1,               Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,               Min%Pan%NULL%3,               Xiumei%Zhang%NULL%3,               Mingfeng%Han%fyhmf@163.com%0,               Xiaoyun%Fan%13956988552@126.com%3,               Fengde%Zhao%NULL%3,               Manli%Miao%NULL%3,               Jing%Xu%NULL%0,               Minglong%Guan%NULL%3,               Xia%Deng%NULL%3,               Xu%Chen%NULL%4,               Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,               Chunli%Tang%NULL%0,               Ruchong%Chen%NULL%1,               Honglian%Ruan%NULL%1,               Wenhua%Liang%NULL%0,               Weijie%Guan%NULL%0,               Ling%Sang%NULL%0,               Ruidi%Tang%NULL%1,               Nanshan%Zhong%NULL%0,               Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,        Shuhan%Cai%xref no email%1,        Yun%Luo%xref no email%1,        Fangfang%Zhu%xref no email%1,        Ming%Hu%xref no email%1,        Yan%Zhao%xref no email%1,        Ruiqiang%Zheng%xref no email%1,        Xuyan%Li%xref no email%1,        Bo%Hu%xref no email%0,        Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%5,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%5,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%5,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%5,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%5,               Shangwen%Pan%NULL%5,               Xiaojing%Zou%NULL%7,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,               Shanyan%Zhang%NULL%2,               Xiaoli%Zhang%NULL%1,               Huan%Cai%NULL%2,               Jueqing%Gu%NULL%2,               Jiangshan%Lian%NULL%2,               Yingfeng%Lu%NULL%2,               Hongyu%Jia%NULL%2,               Jianhua%Hu%NULL%2,               Ciliang%Jin%NULL%2,               Guodong%Yu%NULL%2,               Yimin%Zhang%NULL%2,               Jifang%Sheng%NULL%4,               Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,        Sean Wei Xiang%Ong%xref no email%0,        Shirin%Kalimuddin%xref no email%0,        Jenny G.%Low%xref no email%0,        Seow Yen%Tan%xref no email%0,        Jiashen%Loh%xref no email%0,        Oon-Tek%Ng%xref no email%0,        Kalisvar%Marimuthu%xref no email%0,        Li Wei%Ang%xref no email%0,        Tze Minn%Mak%xref no email%0,        Sok Kiang%Lau%xref no email%0,        Danielle E.%Anderson%xref no email%0,        Kian Sing%Chan%xref no email%0,        Thean Yen%Tan%xref no email%0,        Tong Yong%Ng%xref no email%0,        Lin%Cui%xref no email%0,        Zubaidah%Said%xref no email%0,        Lalitha%Kurupatham%xref no email%0,        Mark I-Cheng%Chen%xref no email%0,        Monica%Chan%xref no email%0,        Shawn%Vasoo%xref no email%0,        Lin-Fa%Wang%xref no email%0,        Boon Huan%Tan%xref no email%0,        Raymond Tzer Pin%Lin%xref no email%0,        Vernon Jian Ming%Lee%xref no email%0,        Yee-Sin%Leo%xref no email%0,        David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,               Dan%Xu%NULL%0,               Shouzhi%Fu%NULL%0,               Jun%Zhang%NULL%0,               Xiaobo%Yang%NULL%0,               Liang%Xu%NULL%0,               Jiqian%Xu%NULL%0,               Yongran%Wu%NULL%0,               Chaolin%Huang%NULL%0,               Yaqi%Ouyang%NULL%0,               Luyu%Yang%NULL%0,               Minghao%Fang%NULL%0,               Hongwen%Xiao%NULL%0,               Jing%Ma%NULL%0,               Wei%Zhu%NULL%0,               Song%Hu%NULL%0,               Quan%Hu%NULL%0,               Daoyin%Ding%NULL%0,               Ming%Hu%NULL%0,               Guochao%Zhu%NULL%0,               Weijiang%Xu%NULL%0,               Jun%Guo%NULL%0,               Jinglong%Xu%NULL%0,               Haitao%Yuan%NULL%0,               Bin%Zhang%NULL%0,               Zhui%Yu%yuzhui@whu.edu.cn%0,               Dechang%Chen%icudechangchen@163.com%0,               Shiying%Yuan%yuan_shiying@163.com%0,               You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,               Hao-Yu%Gao%NULL%1,               Zi-Yi%Feng%NULL%1,               Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,               Li-jun%Sun%NULL%1,               Mi%Xu%NULL%1,               Jian%Pan%NULL%1,               Yun-tao%Zhang%NULL%1,               Xue-ling%Fang%NULL%1,               Qiang%Fang%NULL%2,               Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,               Ziqiang%Du%NULL%1,               Yanfang%Zhu%NULL%1,               Wenfeng%Li%NULL%1,               Hongjun%Miao%NULL%1,               Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,               Sarah%Al-Youha%sarahalyouha@gmail.com%1,               Mohammad H.%Jamal%NULL%1,               Mohannad%Al-Haddad%NULL%1,               Ali%Al-Muhaini%NULL%1,               Fahad%Al-Ghimlas%NULL%1,               Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,               Mina%Akbari Rad%NULL%1,               Robert%Bergquist%NULL%1,               Abolghasem%Allahyari%NULL%1,               Kamila%Hashemzadeh%NULL%1,               Nasrin%Milani%NULL%1,               Mahdi%Gholian-Aval%NULL%1,               Fariba%Rezaeitalab%NULL%1,               Mohammad Jafar%Sadeghi Quchani%NULL%1,               Zahra%Nahbandani%NULL%1,               Mandana%Khodashahi%NULL%1,               Zahra%Javid%NULL%1,               Mahnaz%Mozdourian%NULL%1,               Mohammad Ali%Yaghoubi%NULL%1,               Zahra%Mozaheb%NULL%1,               Mohsen%Seddigh-Shamsi%NULL%1,               Mohammad%Moeini Nodeh%NULL%1,               Shima%Nabavi%NULL%1,               Hooman%Mosannen Mozaffari%NULL%1,               Mohammadreza%Farzanehfar%NULL%1,               Zahra%Lotfi%NULL%1,               Alireza%Shariati%NULL%1,               Shekoofe%Bonakdaran%NULL%1,               Zahra%Rezaieyazdi%NULL%1,               Zahra%Mirfeizi%NULL%1,               Maryam%Miri%NULL%1,               Reza%Bassiri%NULL%1,               Sajjad%Ataei Azimi%NULL%1,               Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,               Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,               Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,               Ibrahim%Al-Zakwani%NULL%1,               Hamed%Al Naamani%NULL%1,               Sultan%Al Lawati%NULL%1,               Nenad%Pandak%NULL%1,               Muna Ba%Omar%NULL%1,               Maher%Al Bahrani%NULL%1,               Zakaryia AL%Bulushi%NULL%1,               Huda%Al Khalili%NULL%1,               Issa%Al Salmi%NULL%1,               Ruwaida%Al Ismaili%NULL%1,               Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,               Zohre%Khodamoradi%NULL%1,               Amirhossein%Erfani%NULL%1,               Hamidreza%Hosseinpour%NULL%1,               Keivan%Ranjbar%NULL%1,               Yasaman%Emami%NULL%1,               Alireza%Mirahmadizadeh%NULL%1,               Mehrzad%Lotfi%NULL%1,               Babak%Shirazi Yeganeh%NULL%1,               Abolfazl%Dorrani Nejad%NULL%1,               Abdolrasool%Hemmati%NULL%1,               Mostafa%Ebrahimi%NULL%1,               Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,               Annachiara%Ferrari%NULL%2,               Annachiara%Ferrari%NULL%0,               Francesco%Fontana%NULL%1,               Giacomo%Mori%NULL%1,               Riccardo%Magistroni%NULL%1,               Marianna%Meschiari%NULL%1,               Erica%Franceschini%NULL%1,               Marianna%Menozzi%NULL%1,               Gianluca%Cuomo%NULL%1,               Gabriella%Orlando%NULL%1,               Antonella%Santoro%NULL%1,               Margherita%Digaetano%NULL%1,               Cinzia%Puzzolante%NULL%1,               Federica%Carli%NULL%1,               Andrea%Bedini%NULL%1,               Jovana%Milic%NULL%1,               Irene%Coloretti%NULL%1,               Paolo%Raggi%NULL%1,               Cristina%Mussini%NULL%1,               Massimo%Girardis%NULL%1,               Gianni%Cappelli%NULL%1,               Giovanni%Guaraldi%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,               Silvia%Bettini%NULL%2,               Silvia%Bettini%NULL%0,               Roberto%Fabris%NULL%1,               Roberto%Serra%NULL%2,               Chiara%Dal Pra%NULL%1,               Pietro%Maffei%NULL%1,               Marco%Rossato%NULL%1,               Paola%Fioretto%NULL%0,               Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,               Marco%Roncador%NULL%2,               Marco%Roncador%NULL%0,               Andrea%Saporito%NULL%1,               Maira%Biggiogero%NULL%1,               Andrea%Glotta%NULL%1,               Pier Andrea%Maida%NULL%1,               Patrizia%Urso%NULL%1,               Giovanni%Bona%NULL%1,               Christian%Garzoni%NULL%1,               Romano%Mauri%NULL%1,               Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,               Anna Lisa%Ridolfo%NULL%4,               Laura%Milazzo%NULL%2,               Letizia%Oreni%NULL%4,               Dario%Bernacchia%NULL%4,               Matteo%Siano%NULL%4,               Cecilia%Bonazzetti%NULL%2,               Alice%Covizzi%NULL%2,               Marco%Schiuma%NULL%2,               Matteo%Passerini%NULL%2,               Marco%Piscaglia%NULL%2,               Massimo%Coen%NULL%2,               Guido%Gubertini%NULL%2,               Giuliano%Rizzardini%NULL%4,               Chiara%Cogliati%NULL%2,               Anna Maria%Brambilla%NULL%2,               Riccardo%Colombo%NULL%2,               Antonio%Castelli%NULL%2,               Roberto%Rech%NULL%2,               Agostino%Riva%NULL%2,               Alessandro%Torre%NULL%2,               Luca%Meroni%NULL%2,               Stefano%Rusconi%NULL%4,               Spinello%Antinori%NULL%4,               Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,              Cabrini%Luca%coreGivesNoEmail%4,              Castelli%Antonio%coreGivesNoEmail%4,              Cecconi%Maurizio%coreGivesNoEmail%4,              Cereda%Danilo%coreGivesNoEmail%4,              Coluccello%Antonio%coreGivesNoEmail%4,              Foti%Giuseppe%coreGivesNoEmail%4,              Fumagalli%Roberto%coreGivesNoEmail%4,              Grasselli%Giacomo%coreGivesNoEmail%4,              Iotti%Giorgio%coreGivesNoEmail%4,              Latronico%Nicola%coreGivesNoEmail%4,              Lorini%Luca%coreGivesNoEmail%4,              Merler%Stefano%coreGivesNoEmail%4,              Natalini%Giuseppe%coreGivesNoEmail%4,              Pesenti%Antonio%coreGivesNoEmail%4,              Piatti%Alessandra%coreGivesNoEmail%4,              Ranieri%Marco Vito%coreGivesNoEmail%4,              Scandroglio%Anna Mara%coreGivesNoEmail%4,              Storti%Enrico%coreGivesNoEmail%4,              Zanella%Alberto%coreGivesNoEmail%4,              Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,               Lara%Gianesello%gianesello.lara@libero.it%1,               Maddalena%Pazzi%NULL%2,               Maddalena%Pazzi%NULL%0,               Caterina%Stera%NULL%1,               Tommaso%Meconi%NULL%1,               Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,               Andrea%Dalbeni%NULL%2,               Andrea%Dalbeni%NULL%0,               Elia%Vettore%NULL%2,               Elia%Vettore%NULL%0,               Devis%Benfaremo%NULL%1,               Massimo%Mattioli%NULL%1,               Carmine G.%Gambino%NULL%1,               Viviana%Framba%NULL%2,               Viviana%Framba%NULL%0,               Lorenzo%Cerruti%NULL%1,               Anna%Mantovani%NULL%1,               Andrea%Martini%NULL%1,               Michele M.%Luchetti%NULL%1,               Roberto%Serra%NULL%0,               Annamaria%Cattelan%NULL%1,               Roberto%Vettor%NULL%0,               Paolo%Angeli%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,               Matthaios%Papadimitriou-Olivgeris%NULL%2,               Matthaios%Papadimitriou-Olivgeris%NULL%0,               Raphaël%Burger%NULL%1,               Marie-Annick%Le Pogam%NULL%1,               Tapio%Niemi%NULL%2,               Tapio%Niemi%NULL%0,               Paraskevas%Filippidis%NULL%1,               Jonathan%Tschopp%NULL%1,               Florian%Desgranges%NULL%1,               Benjamin%Viala%NULL%1,               Eleftheria%Kampouri%NULL%1,               Laurence%Rochat%NULL%2,               Laurence%Rochat%NULL%0,               David%Haefliger%NULL%1,               Mehdi%Belkoniene%NULL%1,               Carlos%Fidalgo%NULL%1,               Antonios%Kritikos%NULL%1,               Katia%Jaton%NULL%1,               Laurence%Senn%NULL%1,               Pierre-Alexandre%Bart%NULL%1,               Jean-Luc%Pagani%NULL%2,               Jean-Luc%Pagani%NULL%0,               Oriol%Manuel%NULL%1,               Loïc%Lhopitallier%NULL%1,               Chiara%Lazzeri%NULL%2,               Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,               Ashwin%Subramaniam%NULL%2,               Ashwin%Subramaniam%NULL%0,               Mallikarjuna%Ponnapa Reddy%NULL%2,               Mallikarjuna%Ponnapa Reddy%NULL%0,               Gabriel%Blecher%NULL%1,               Umesh%Kadam%NULL%2,               Umesh%Kadam%NULL%0,               Afsana%Afroz%NULL%1,               Baki%Billah%NULL%1,               Sushma%Ashwin%NULL%1,               Mark%Kubicki%NULL%1,               Federico%Bilotta%NULL%1,               J. Randall%Curtis%NULL%2,               J. Randall%Curtis%NULL%0,               Francesca%Rubulotta%NULL%2,               Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,              Aggarwal%Saurabh%coreGivesNoEmail%3,              Garcia-Telles%Nelson%coreGivesNoEmail%3,              Henry%Brandon Michael%coreGivesNoEmail%3,              Lavie%Carl%coreGivesNoEmail%3,              Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,        Eric%Yim%xref no email%0,        Lindy%Klaff%xref no email%0,        Sharukh%Lokhandwala%xref no email%0,        Francis X.%Riedo%xref no email%0,        Maria%Chong%xref no email%0,        Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,               Samuel L%Bruce%NULL%2,               Cody L%Slater%NULL%2,               Jonathan R%Tiao%NULL%2,               Matthew R%Baldwin%NULL%3,               R Graham%Barr%NULL%2,               Bernard P%Chang%NULL%2,               Katherine H%Chau%NULL%2,               Justin J%Choi%NULL%2,               Nicholas%Gavin%NULL%2,               Parag%Goyal%NULL%2,               Angela M%Mills%NULL%2,               Ashmi A%Patel%NULL%2,               Marie-Laure S%Romney%NULL%2,               Monika M%Safford%NULL%2,               Neil W%Schluger%NULL%2,               Soumitra%Sengupta%NULL%2,               Magdalena E%Sobieszczyk%NULL%2,               Jason E%Zucker%NULL%2,               Paul A%Asadourian%NULL%2,               Fletcher M%Bell%NULL%2,               Rebekah%Boyd%NULL%2,               Matthew F%Cohen%NULL%2,               MacAlistair I%Colquhoun%NULL%2,               Lucy A%Colville%NULL%2,               Joseph H%de Jonge%NULL%2,               Lyle B%Dershowitz%NULL%2,               Shirin A%Dey%NULL%2,               Katherine A%Eiseman%NULL%2,               Zachary P%Girvin%NULL%2,               Daniella T%Goni%NULL%2,               Amro A%Harb%NULL%2,               Nicholas%Herzik%NULL%2,               Sarah%Householder%NULL%2,               Lara E%Karaaslan%NULL%2,               Heather%Lee%NULL%2,               Evan%Lieberman%NULL%2,               Andrew%Ling%NULL%2,               Ree%Lu%NULL%2,               Arthur Y%Shou%NULL%2,               Alexander C%Sisti%NULL%2,               Zachary E%Snow%NULL%2,               Colin P%Sperring%NULL%2,               Yuqing%Xiong%NULL%2,               Henry W%Zhou%NULL%2,               Karthik%Natarajan%NULL%2,               George%Hripcsak%NULL%2,               Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,               Mark%Caridi-Scheible%NULL%3,               James M.%Blum%NULL%2,               Chad%Robichaux%NULL%2,               Colleen%Kraft%NULL%2,               Jesse T.%Jacob%NULL%2,               Craig S.%Jabaley%NULL%2,               David%Carpenter%NULL%2,               Roberta%Kaplow%NULL%2,               Alfonso C.%Hernandez-Romieu%NULL%2,               Max W.%Adelman%NULL%2,               Greg S.%Martin%NULL%2,               Craig M.%Coopersmith%NULL%2,               David J.%Murphy%NULL%2,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,               Bijan J.%Ghassemieh%NULL%0,               Michelle%Nichols%NULL%0,               Richard%Kim%NULL%0,               Keith R.%Jerome%NULL%0,               Arun K.%Nalla%NULL%0,               Alexander L.%Greninger%NULL%0,               Sudhakar%Pipavath%NULL%0,               Mark M.%Wurfel%NULL%0,               Laura%Evans%NULL%0,               Patricia A.%Kritek%NULL%0,               T. Eoin%West%NULL%0,               Andrew%Luks%NULL%0,               Anthony%Gerbino%NULL%0,               Chris R.%Dale%NULL%0,               Jason D.%Goldman%NULL%0,               Shane%O’Mahony%NULL%0,               Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,               Denise J%McCulloch%NULL%0,               Denise J%McCulloch%NULL%0,               Vidya%Atluri%NULL%0,               Michela%Blain%NULL%0,               Sarah A%McGuffin%NULL%0,               Arun K%Nalla%NULL%0,               Meei-Li%Huang%NULL%0,               Alex L%Greninger%NULL%0,               Keith R%Jerome%NULL%0,               Seth A%Cohen%NULL%0,               Santiago%Neme%NULL%0,               Margaret L%Green%NULL%0,               Helen Y%Chu%NULL%0,               H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,               Joelle I.%Rosser%NULL%0,               Orlando%Quintero%NULL%0,               Jake%Scott%NULL%0,               Aruna%Subramanian%NULL%0,               Mohammad%Gumma%NULL%0,               Angela%Rogers%NULL%0,               Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,               Jacob%Fiksel%NULL%2,               Jacob%Fiksel%NULL%0,               John%Muschelli%NULL%2,               John%Muschelli%NULL%0,               Matthew L.%Robinson%NULL%2,               Matthew L.%Robinson%NULL%0,               Masoud%Rouhizadeh%NULL%2,               Masoud%Rouhizadeh%NULL%0,               Jamie%Perin%NULL%2,               Jamie%Perin%NULL%0,               Grant%Schumock%NULL%2,               Grant%Schumock%NULL%0,               Paul%Nagy%NULL%2,               Paul%Nagy%NULL%0,               Josh H.%Gray%NULL%2,               Josh H.%Gray%NULL%0,               Harsha%Malapati%NULL%2,               Harsha%Malapati%NULL%0,               Mariam%Ghobadi-Krueger%NULL%2,               Mariam%Ghobadi-Krueger%NULL%0,               Timothy M.%Niessen%NULL%1,               Bo Soo%Kim%NULL%1,               Peter M.%Hill%NULL%1,               M. Shafeeq%Ahmed%NULL%1,               Eric D.%Dobkin%NULL%1,               Renee%Blanding%NULL%1,               Jennifer%Abele%NULL%1,               Bonnie%Woods%NULL%1,               Kenneth%Harkness%NULL%1,               David R.%Thiemann%NULL%1,               Mary G.%Bowring%NULL%1,               Aalok B.%Shah%NULL%2,               Aalok B.%Shah%NULL%0,               Mei-Cheng%Wang%NULL%1,               Karen%Bandeen-Roche%NULL%1,               Antony%Rosen%NULL%1,               Scott L.%Zeger%NULL%2,               Scott L.%Zeger%NULL%0,               Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,               Justin J.%Choi%NULL%0,               Laura C.%Pinheiro%NULL%0,               Edward J.%Schenck%NULL%0,               Ruijun%Chen%NULL%0,               Assem%Jabri%NULL%0,               Michael J.%Satlin%NULL%0,               Thomas R.%Campion%NULL%0,               Musarrat%Nahid%NULL%0,               Joanna B.%Ringel%NULL%0,               Katherine L.%Hoffman%NULL%0,               Mark N.%Alshak%NULL%0,               Han A.%Li%NULL%0,               Graham T.%Wehmeyer%NULL%0,               Graham T.%Wehmeyer%NULL%0,               Mangala%Rajan%NULL%0,               Evgeniya%Reshetnyak%NULL%0,               Nathaniel%Hupert%NULL%0,               Evelyn M.%Horn%NULL%0,               Fernando J.%Martinez%NULL%0,               Roy M.%Gulick%NULL%0,               Monika M.%Safford%NULL%0,               Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,               Simon A%Jones%NULL%0,               Jie%Yang%NULL%0,               Harish%Rajagopalan%NULL%0,               Luke%O’Donnell%NULL%0,               Yelena%Chernyak%NULL%0,               Katie A%Tobin%NULL%0,               Robert J%Cerfolio%NULL%0,               Fritz%Francois%NULL%0,               Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,               Anatoly%Mitrokhin%NULL%2,               Anatoly%Mitrokhin%NULL%0,               Ajai%Rajabalan%NULL%1,               Christian%Benjamin%NULL%1,               Sushma%Raviralla%NULL%1,               Vishnu R%Mani%vishnu.mani@duke.edu%2,               Vishnu R%Mani%vishnu.mani@duke.edu%0,               Aleksandr%Kalabin%NULL%2,               Aleksandr%Kalabin%NULL%0,               Sebastian C%Valdivieso%NULL%2,               Sebastian C%Valdivieso%NULL%0,               Max%Murray-Ramcharan%NULL%2,               Max%Murray-Ramcharan%NULL%0,               Brian%Donaldson%NULL%2,               Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                Nicholas A.%Fergusson%null%2,                Elisa%Lloyd-Smith%null%2,                Andrew%Wormsbecker%null%2,                Denise%Foster%null%2,                Andrei%Karpov%null%2,                Sarah%Crowe%null%2,                Greg%Haljan%null%2,                Dean R.%Chittock%null%2,                Hussein D.%Kanji%null%2,                Mypinder S.%Sekhon%null%2,                Donald E.G.%Griesdale%null%2,              Anish R.%Mitra%null%1,              Nicholas A.%Fergusson%null%1,              Elisa%Lloyd-Smith%null%1,              Andrew%Wormsbecker%null%1,              Denise%Foster%null%1,              Andrei%Karpov%null%1,              Sarah%Crowe%null%1,              Greg%Haljan%null%1,              Dean R.%Chittock%null%1,              Hussein D.%Kanji%null%1,              Mypinder S.%Sekhon%null%1,              Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,               Damianos G.%Kokkinidis%NULL%1,               Weijia%Li%NULL%1,               Dimitrios%Karamanis%NULL%1,               Jennifer%Ognibene%NULL%1,               Shitij%Arora%NULL%1,               William N.%Southern%NULL%1,               Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,               Jesus D.%Gonzalez-Lugo%NULL%1,               Shafia%Rahman%NULL%1,               Mohammad%Barouqa%NULL%1,               James%Szymanski%NULL%1,               Kenji%Ikemura%NULL%1,               Yungtai%Lo%NULL%1,               Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%4,              Chelico%J.D.%coreGivesNoEmail%4,              Cohen%S.L.%coreGivesNoEmail%4,              Cookingham%J.%coreGivesNoEmail%4,              Coppa%K.%coreGivesNoEmail%4,              Crawford%J.M.%coreGivesNoEmail%4,              Davidson%K.W.%coreGivesNoEmail%4,              Diefenbach%M.A.%coreGivesNoEmail%4,              Dominello%A.J.%coreGivesNoEmail%4,              Duer-Hefele%J.%coreGivesNoEmail%4,              Falzon%L.%coreGivesNoEmail%4,              Gitlin%J.%coreGivesNoEmail%4,              Hajizadeh%N.%coreGivesNoEmail%4,              Harvin%T.G.%coreGivesNoEmail%4,              Hirsch%J.S.%coreGivesNoEmail%4,              Hirschwerk%D.A.%coreGivesNoEmail%4,              Kim%E.J.%coreGivesNoEmail%4,              Kozel%Z.M.%coreGivesNoEmail%4,              Marrast%L.M.%coreGivesNoEmail%4,              McGinn%T.%coreGivesNoEmail%4,              Mogavero%J.N.%coreGivesNoEmail%4,              Narasimhan%M.%coreGivesNoEmail%4,              Osorio%G.A.%coreGivesNoEmail%4,              Qiu%M.%coreGivesNoEmail%4,              Richardson%S.%coreGivesNoEmail%4,              Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,               Viet-Thi%Tran%NULL%4,               Viet-Thi%Tran%NULL%0,               Mathilde%Roumier%NULL%2,               Amélie%Chabrol%NULL%2,               Romain%Paule%NULL%2,               Constance%Guillaud%NULL%2,               Elena%Fois%NULL%2,               Raphael%Lepeule%NULL%2,               Tali-Anne%Szwebel%NULL%2,               François-Xavier%Lescure%NULL%2,               Frédéric%Schlemmer%NULL%2,               Marie%Matignon%NULL%2,               Mehdi%Khellaf%NULL%2,               Etienne%Crickx%NULL%2,               Benjamin%Terrier%NULL%2,               Caroline%Morbieu%NULL%2,               Paul%Legendre%NULL%2,               Julien%Dang%NULL%2,               Yoland%Schoindre%NULL%2,               Jean-Michel%Pawlotsky%NULL%2,               Marc%Michel%NULL%2,               Elodie%Perrodeau%NULL%2,               Nicolas%Carlier%NULL%2,               Nicolas%Roche%NULL%2,               Victoire%de Lastours%NULL%2,               Clément%Ourghanlian%NULL%2,               Solen%Kerneis%NULL%2,               Philippe%Ménager%NULL%2,               Luc%Mouthon%NULL%2,               Etienne%Audureau%NULL%2,               Philippe%Ravaud%NULL%2,               Bertrand%Godeau%NULL%2,               Sébastien%Gallien%NULL%2,               Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,        Abu Baker%Sheikh%xref no email%1,        Shubhra%Upadhyay%xref no email%1,        Jeanette%Atencio%xref no email%1,        Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,             Yu%Zuo%NULL%1,             Srilakshmi%Yalavarthi%NULL%1,             Kelsey%Gockman%NULL%1,             Melanie%Zuo%NULL%1,             Jacqueline A%Madison%NULL%1,             Christopher%Blair%NULL%1,             Wrenn%Woodward%NULL%1,             Sean P%Lezak%NULL%1,             Njira L%Lugogo%NULL%1,             Robert J%Woods%NULL%1,             Christian%Lood%NULL%1,             Jason S%Knight%NULL%2,             Jason S%Knight%NULL%0,             Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,               Raef A.%Fadel%NULL%1,               Kelly M.%Malette%NULL%1,               Charles%Hammond%NULL%1,               Hafsa%Abdulla%NULL%1,               Abigail%Entz%NULL%1,               Zachary%Demertzis%NULL%1,               Zachary%Hanna%NULL%1,               Andrew%Failla%NULL%1,               Carina%Dagher%NULL%0,               Zohra%Chaudhry%NULL%2,               Amit%Vahia%NULL%2,               Odaliz%Abreu Lanfranco%NULL%1,               Mayur%Ramesh%NULL%1,               Marcus J.%Zervos%NULL%1,               George%Alangaden%NULL%2,               Joseph%Miller%NULL%2,               Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,        Daniel%Mu\u00f1oz%xref no email%1,        Alberto%Fica%xref no email%1,        Ignacio%Delama%xref no email%1,        Ignacia%Alvarez%xref no email%1,        Maritza%Navarrete%xref no email%1,        Eileen%Blackburn%xref no email%1,        Pamela%Garrido%xref no email%1,        Ricardo%Wenger%xref no email%1,        Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2298,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2197,7 +2356,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -2226,7 +2385,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -2255,7 +2414,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -2284,7 +2443,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -2313,7 +2472,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -2342,7 +2501,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2371,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -2400,7 +2559,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -2429,7 +2588,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -2458,7 +2617,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -2487,7 +2646,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -2545,7 +2704,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -2574,7 +2733,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -2603,7 +2762,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2632,7 +2791,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -2661,7 +2820,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -2690,7 +2849,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -2719,7 +2878,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2748,7 +2907,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -2777,7 +2936,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -2806,7 +2965,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -2835,7 +2994,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -2864,7 +3023,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -2893,7 +3052,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -2922,7 +3081,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -2951,7 +3110,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -2980,7 +3139,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -3009,7 +3168,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3038,7 +3197,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -3067,7 +3226,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -3096,7 +3255,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -3125,7 +3284,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -3183,7 +3342,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3212,7 +3371,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -3241,7 +3400,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3270,7 +3429,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3299,7 +3458,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -3328,7 +3487,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -3357,7 +3516,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -3386,7 +3545,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -3444,7 +3603,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3473,7 +3632,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -3502,7 +3661,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -3531,7 +3690,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -3560,7 +3719,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -3589,7 +3748,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -3618,7 +3777,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -3647,7 +3806,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -3676,7 +3835,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -3705,7 +3864,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -3734,7 +3893,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -3763,7 +3922,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -3792,7 +3951,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="536">
   <si>
     <t>Doi</t>
   </si>
@@ -1899,6 +1899,324 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,        Daniel%Mu\u00f1oz%xref no email%1,        Alberto%Fica%xref no email%1,        Ignacio%Delama%xref no email%1,        Ignacia%Alvarez%xref no email%1,        Maritza%Navarrete%xref no email%1,        Eileen%Blackburn%xref no email%1,        Pamela%Garrido%xref no email%1,        Ricardo%Wenger%xref no email%1,        Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                 J.% Jiang%null%1,                 X.% Xu%null%1,                 Y.% Hu%null%2,                 Y.% Hu%null%0,                 Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                Chenchen%Qian%NULL%1,                Zhibing%Luo%NULL%1,                Qiang%Li%liqressh@hotmail.com%0,                Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                Chunlin%Cai%NULL%1,                Jinglei%Zang%NULL%1,                Jun%Xie%NULL%1,                Dan%Xu%NULL%0,                Fang%Zheng%NULL%0,                Tao%Zhan%NULL%1,                Kang%Huang%NULL%1,                Yikai%Wang%NULL%1,                Xiao%Wang%NULL%1,                Zhe-Yu%Hu%NULL%1,                Yapeng%Deng%NULL%1,                Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                Naofumi%Bunya%NULL%1,                Tomoyuki%Endo%NULL%1,                Yuji%Fujino%NULL%1,                Kensuke%Fujita%NULL%1,                Kenji%Fujizuka%NULL%1,                Yoshihiro%Hagiwara%NULL%1,                Jun%Hamaguchi%NULL%1,                Yoshitaka%Hara%NULL%1,                Eiji%Hashiba%NULL%1,                Satoru%Hashimoto%NULL%1,                Noriyuki%Hattori%NULL%1,                Kota%Hoshino%NULL%1,                Shinichi%Ijuin%NULL%1,                Takanari%Ikeyama%NULL%1,                Shingo%Ichiba%NULL%1,                Wataru%Iwanaga%NULL%1,                Yoshiaki%Iwashita%NULL%1,                Masafumi%Kanamoto%NULL%1,                Hitoshi%Kaneko%NULL%1,                Kaneyuki%Kawamae%NULL%1,                Toru%Kotani%NULL%1,                Yasuaki%Koyama%NULL%1,                Keibun%Liu%NULL%1,                Tomohiko%Masuno%NULL%1,                Naoto%Morimura%NULL%1,                Tomoyuki%Nakamura%NULL%1,                Masaki%Nakane%NULL%1,                Michitaka%Nasu%NULL%1,                Osamu%Nishida%NULL%1,                Masaji%Nishimura%NULL%1,                Kanae%Ochiai%NULL%1,                Takayuki%Ogura%NULL%1,                Shinichiro%Ohshimo%NULL%1,                Keisuke%Oyama%NULL%1,                Junichi%Sasaki%NULL%1,                Ryutaro%Seo%NULL%1,                Takeshi%Shimazu%NULL%1,                Nobuaki%Shime%NULL%4,                Keiki%Shimizu%NULL%1,                Hiroyuki%Suzuki%NULL%1,                Shuhei%Takauji%NULL%1,                Shinhiro%Takeda%NULL%1,                Ichiro%Takeuchi%NULL%2,                Mumon%Takita%NULL%1,                Hayato%Taniguchi%NULL%1,                Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                Yi Xin%Tong%NULL%3,                Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                Hong%Chen%NULL%0,                Zhen%Li%NULL%2,                Bo%Wang%NULL%0,                Zhong-Wei%Zhang%NULL%1,                Wei-Min%Li%NULL%0,                Zong-An%Liang%NULL%0,                Jin%Tang%NULL%1,                Jian%Wang%NULL%1,                Rui%Shi%NULL%1,                Xiao-Dong%Jin%NULL%1,                Yan%Kang%NULL%0,                Pei-Fang%Wei%NULL%8,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                 S. F.% Mahmood%null%1,                 K.% Habib%null%1,                 I.% Khanum%null%1,                 B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                Chaisith%Sivakorn%NULL%1,                Tanuwong%Viarasilpa%NULL%1,                Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                Mu%Qin%qinmuae@163.com%1,                Yuli%Cai%NULL%1,                Tao%Liu%NULL%0,                Bo%Shen%NULL%1,                Fan%Yang%NULL%2,                Sheng%Cao%NULL%1,                Xu%Liu%NULL%2,                Xu%Liu%NULL%0,                Yaozu%Xiang%NULL%1,                Qinyan%Zhao%NULL%1,                He%Huang%huanghe1977@whu.edu.cn%0,                Bo%Yang%yybb112@whu.edu.cn%0,                Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                Win%Kulvichit%NULL%1,                Sunchai%Payungporn%NULL%1,                Trairak%Pisitkun%NULL%1,                Ariya%Chindamporn%NULL%1,                Sadudee%Peerapornratana%NULL%1,                Prapaporn%Pisitkun%NULL%1,                Suwalak%Chitcharoen%NULL%1,                Vorthon%Sawaswong%NULL%1,                Navaporn%Worasilchai%NULL%1,                Sarinya%Kampunya%NULL%1,                Opass%Putcharoen%NULL%1,                Thammasak%Thawitsri%NULL%1,                Nophol%Leelayuwatanakul%NULL%1,                Napplika%Kongpolprom%NULL%1,                Vorakamol%Phoophiboon%NULL%1,                Thitiwat%Sriprasart%NULL%1,                Rujipat%Samransamruajkit%NULL%1,                Somkanya%Tungsanga%NULL%1,                Kanitha%Tiankanon%NULL%1,                Nuttha%Lumlertgul%NULL%1,                Asada%Leelahavanichkul%NULL%1,                Tueboon%Sriphojanart%NULL%1,                Terapong%Tantawichien%NULL%1,                Usa%Thisyakorn%NULL%1,                Chintana%Chirathaworn%NULL%1,                Kearkiat%Praditpornsilpa%NULL%1,                Kriang%Tungsanga%NULL%1,                Somchai%Eiam-Ong%NULL%1,                Visith%Sitprija%NULL%1,                John A.%Kellum%NULL%1,                Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                Min%Pan%NULL%3,                Xiumei%Zhang%NULL%3,                Mingfeng%Han%fyhmf@163.com%0,                Xiaoyun%Fan%13956988552@126.com%3,                Fengde%Zhao%NULL%3,                Manli%Miao%NULL%3,                Jing%Xu%NULL%0,                Minglong%Guan%NULL%3,                Xia%Deng%NULL%3,                Xu%Chen%NULL%4,                Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                Chunli%Tang%NULL%0,                Ruchong%Chen%NULL%1,                Honglian%Ruan%NULL%1,                Wenhua%Liang%NULL%0,                Weijie%Guan%NULL%0,                Ling%Sang%NULL%0,                Ruidi%Tang%NULL%1,                Nanshan%Zhong%NULL%0,                Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,         Shuhan%Cai%xref no email%1,         Yun%Luo%xref no email%1,         Fangfang%Zhu%xref no email%1,         Ming%Hu%xref no email%1,         Yan%Zhao%xref no email%1,         Ruiqiang%Zheng%xref no email%1,         Xuyan%Li%xref no email%1,         Bo%Hu%xref no email%0,         Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%5,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%5,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%5,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%5,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%5,                Shangwen%Pan%NULL%5,                Xiaojing%Zou%NULL%7,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                Shanyan%Zhang%NULL%2,                Xiaoli%Zhang%NULL%1,                Huan%Cai%NULL%2,                Jueqing%Gu%NULL%2,                Jiangshan%Lian%NULL%2,                Yingfeng%Lu%NULL%2,                Hongyu%Jia%NULL%2,                Jianhua%Hu%NULL%2,                Ciliang%Jin%NULL%2,                Guodong%Yu%NULL%2,                Yimin%Zhang%NULL%2,                Jifang%Sheng%NULL%4,                Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,         Sean Wei Xiang%Ong%xref no email%0,         Shirin%Kalimuddin%xref no email%0,         Jenny G.%Low%xref no email%0,         Seow Yen%Tan%xref no email%0,         Jiashen%Loh%xref no email%0,         Oon-Tek%Ng%xref no email%0,         Kalisvar%Marimuthu%xref no email%0,         Li Wei%Ang%xref no email%0,         Tze Minn%Mak%xref no email%0,         Sok Kiang%Lau%xref no email%0,         Danielle E.%Anderson%xref no email%0,         Kian Sing%Chan%xref no email%0,         Thean Yen%Tan%xref no email%0,         Tong Yong%Ng%xref no email%0,         Lin%Cui%xref no email%0,         Zubaidah%Said%xref no email%0,         Lalitha%Kurupatham%xref no email%0,         Mark I-Cheng%Chen%xref no email%0,         Monica%Chan%xref no email%0,         Shawn%Vasoo%xref no email%0,         Lin-Fa%Wang%xref no email%0,         Boon Huan%Tan%xref no email%0,         Raymond Tzer Pin%Lin%xref no email%0,         Vernon Jian Ming%Lee%xref no email%0,         Yee-Sin%Leo%xref no email%0,         David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                Dan%Xu%NULL%0,                Shouzhi%Fu%NULL%0,                Jun%Zhang%NULL%0,                Xiaobo%Yang%NULL%0,                Liang%Xu%NULL%0,                Jiqian%Xu%NULL%0,                Yongran%Wu%NULL%0,                Chaolin%Huang%NULL%0,                Yaqi%Ouyang%NULL%0,                Luyu%Yang%NULL%0,                Minghao%Fang%NULL%0,                Hongwen%Xiao%NULL%0,                Jing%Ma%NULL%0,                Wei%Zhu%NULL%0,                Song%Hu%NULL%0,                Quan%Hu%NULL%0,                Daoyin%Ding%NULL%0,                Ming%Hu%NULL%0,                Guochao%Zhu%NULL%0,                Weijiang%Xu%NULL%0,                Jun%Guo%NULL%0,                Jinglong%Xu%NULL%0,                Haitao%Yuan%NULL%0,                Bin%Zhang%NULL%0,                Zhui%Yu%yuzhui@whu.edu.cn%0,                Dechang%Chen%icudechangchen@163.com%0,                Shiying%Yuan%yuan_shiying@163.com%0,                You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                Hao-Yu%Gao%NULL%1,                Zi-Yi%Feng%NULL%1,                Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                Li-jun%Sun%NULL%1,                Mi%Xu%NULL%1,                Jian%Pan%NULL%1,                Yun-tao%Zhang%NULL%1,                Xue-ling%Fang%NULL%1,                Qiang%Fang%NULL%2,                Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                Ziqiang%Du%NULL%1,                Yanfang%Zhu%NULL%1,                Wenfeng%Li%NULL%1,                Hongjun%Miao%NULL%1,                Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                Sarah%Al-Youha%sarahalyouha@gmail.com%1,                Mohammad H.%Jamal%NULL%1,                Mohannad%Al-Haddad%NULL%1,                Ali%Al-Muhaini%NULL%1,                Fahad%Al-Ghimlas%NULL%1,                Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                Mina%Akbari Rad%NULL%1,                Robert%Bergquist%NULL%1,                Abolghasem%Allahyari%NULL%1,                Kamila%Hashemzadeh%NULL%1,                Nasrin%Milani%NULL%1,                Mahdi%Gholian-Aval%NULL%1,                Fariba%Rezaeitalab%NULL%1,                Mohammad Jafar%Sadeghi Quchani%NULL%1,                Zahra%Nahbandani%NULL%1,                Mandana%Khodashahi%NULL%1,                Zahra%Javid%NULL%1,                Mahnaz%Mozdourian%NULL%1,                Mohammad Ali%Yaghoubi%NULL%1,                Zahra%Mozaheb%NULL%1,                Mohsen%Seddigh-Shamsi%NULL%1,                Mohammad%Moeini Nodeh%NULL%1,                Shima%Nabavi%NULL%1,                Hooman%Mosannen Mozaffari%NULL%1,                Mohammadreza%Farzanehfar%NULL%1,                Zahra%Lotfi%NULL%1,                Alireza%Shariati%NULL%1,                Shekoofe%Bonakdaran%NULL%1,                Zahra%Rezaieyazdi%NULL%1,                Zahra%Mirfeizi%NULL%1,                Maryam%Miri%NULL%1,                Reza%Bassiri%NULL%1,                Sajjad%Ataei Azimi%NULL%1,                Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                Ibrahim%Al-Zakwani%NULL%1,                Hamed%Al Naamani%NULL%1,                Sultan%Al Lawati%NULL%1,                Nenad%Pandak%NULL%1,                Muna Ba%Omar%NULL%1,                Maher%Al Bahrani%NULL%1,                Zakaryia AL%Bulushi%NULL%1,                Huda%Al Khalili%NULL%1,                Issa%Al Salmi%NULL%1,                Ruwaida%Al Ismaili%NULL%1,                Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                Zohre%Khodamoradi%NULL%1,                Amirhossein%Erfani%NULL%1,                Hamidreza%Hosseinpour%NULL%1,                Keivan%Ranjbar%NULL%1,                Yasaman%Emami%NULL%1,                Alireza%Mirahmadizadeh%NULL%1,                Mehrzad%Lotfi%NULL%1,                Babak%Shirazi Yeganeh%NULL%1,                Abolfazl%Dorrani Nejad%NULL%1,                Abdolrasool%Hemmati%NULL%1,                Mostafa%Ebrahimi%NULL%1,                Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                Annachiara%Ferrari%NULL%2,                Annachiara%Ferrari%NULL%0,                Francesco%Fontana%NULL%1,                Giacomo%Mori%NULL%1,                Riccardo%Magistroni%NULL%1,                Marianna%Meschiari%NULL%1,                Erica%Franceschini%NULL%1,                Marianna%Menozzi%NULL%1,                Gianluca%Cuomo%NULL%1,                Gabriella%Orlando%NULL%1,                Antonella%Santoro%NULL%1,                Margherita%Digaetano%NULL%1,                Cinzia%Puzzolante%NULL%1,                Federica%Carli%NULL%1,                Andrea%Bedini%NULL%1,                Jovana%Milic%NULL%1,                Irene%Coloretti%NULL%1,                Paolo%Raggi%NULL%1,                Cristina%Mussini%NULL%1,                Massimo%Girardis%NULL%1,                Gianni%Cappelli%NULL%1,                Giovanni%Guaraldi%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                Silvia%Bettini%NULL%2,                Silvia%Bettini%NULL%0,                Roberto%Fabris%NULL%1,                Roberto%Serra%NULL%2,                Chiara%Dal Pra%NULL%1,                Pietro%Maffei%NULL%1,                Marco%Rossato%NULL%1,                Paola%Fioretto%NULL%0,                Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                Marco%Roncador%NULL%2,                Marco%Roncador%NULL%0,                Andrea%Saporito%NULL%1,                Maira%Biggiogero%NULL%1,                Andrea%Glotta%NULL%1,                Pier Andrea%Maida%NULL%1,                Patrizia%Urso%NULL%1,                Giovanni%Bona%NULL%1,                Christian%Garzoni%NULL%1,                Romano%Mauri%NULL%1,                Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                Anna Lisa%Ridolfo%NULL%4,                Laura%Milazzo%NULL%2,                Letizia%Oreni%NULL%4,                Dario%Bernacchia%NULL%4,                Matteo%Siano%NULL%4,                Cecilia%Bonazzetti%NULL%2,                Alice%Covizzi%NULL%2,                Marco%Schiuma%NULL%2,                Matteo%Passerini%NULL%2,                Marco%Piscaglia%NULL%2,                Massimo%Coen%NULL%2,                Guido%Gubertini%NULL%2,                Giuliano%Rizzardini%NULL%4,                Chiara%Cogliati%NULL%2,                Anna Maria%Brambilla%NULL%2,                Riccardo%Colombo%NULL%2,                Antonio%Castelli%NULL%2,                Roberto%Rech%NULL%2,                Agostino%Riva%NULL%2,                Alessandro%Torre%NULL%2,                Luca%Meroni%NULL%2,                Stefano%Rusconi%NULL%4,                Spinello%Antinori%NULL%4,                Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,               Cabrini%Luca%coreGivesNoEmail%4,               Castelli%Antonio%coreGivesNoEmail%4,               Cecconi%Maurizio%coreGivesNoEmail%4,               Cereda%Danilo%coreGivesNoEmail%4,               Coluccello%Antonio%coreGivesNoEmail%4,               Foti%Giuseppe%coreGivesNoEmail%4,               Fumagalli%Roberto%coreGivesNoEmail%4,               Grasselli%Giacomo%coreGivesNoEmail%4,               Iotti%Giorgio%coreGivesNoEmail%4,               Latronico%Nicola%coreGivesNoEmail%4,               Lorini%Luca%coreGivesNoEmail%4,               Merler%Stefano%coreGivesNoEmail%4,               Natalini%Giuseppe%coreGivesNoEmail%4,               Pesenti%Antonio%coreGivesNoEmail%4,               Piatti%Alessandra%coreGivesNoEmail%4,               Ranieri%Marco Vito%coreGivesNoEmail%4,               Scandroglio%Anna Mara%coreGivesNoEmail%4,               Storti%Enrico%coreGivesNoEmail%4,               Zanella%Alberto%coreGivesNoEmail%4,               Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                Lara%Gianesello%gianesello.lara@libero.it%1,                Maddalena%Pazzi%NULL%2,                Maddalena%Pazzi%NULL%0,                Caterina%Stera%NULL%1,                Tommaso%Meconi%NULL%1,                Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                Andrea%Dalbeni%NULL%2,                Andrea%Dalbeni%NULL%0,                Elia%Vettore%NULL%2,                Elia%Vettore%NULL%0,                Devis%Benfaremo%NULL%1,                Massimo%Mattioli%NULL%1,                Carmine G.%Gambino%NULL%1,                Viviana%Framba%NULL%2,                Viviana%Framba%NULL%0,                Lorenzo%Cerruti%NULL%1,                Anna%Mantovani%NULL%1,                Andrea%Martini%NULL%1,                Michele M.%Luchetti%NULL%1,                Roberto%Serra%NULL%0,                Annamaria%Cattelan%NULL%1,                Roberto%Vettor%NULL%0,                Paolo%Angeli%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                Matthaios%Papadimitriou-Olivgeris%NULL%2,                Matthaios%Papadimitriou-Olivgeris%NULL%0,                Raphaël%Burger%NULL%1,                Marie-Annick%Le Pogam%NULL%1,                Tapio%Niemi%NULL%2,                Tapio%Niemi%NULL%0,                Paraskevas%Filippidis%NULL%1,                Jonathan%Tschopp%NULL%1,                Florian%Desgranges%NULL%1,                Benjamin%Viala%NULL%1,                Eleftheria%Kampouri%NULL%1,                Laurence%Rochat%NULL%2,                Laurence%Rochat%NULL%0,                David%Haefliger%NULL%1,                Mehdi%Belkoniene%NULL%1,                Carlos%Fidalgo%NULL%1,                Antonios%Kritikos%NULL%1,                Katia%Jaton%NULL%1,                Laurence%Senn%NULL%1,                Pierre-Alexandre%Bart%NULL%1,                Jean-Luc%Pagani%NULL%2,                Jean-Luc%Pagani%NULL%0,                Oriol%Manuel%NULL%1,                Loïc%Lhopitallier%NULL%1,                Chiara%Lazzeri%NULL%2,                Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                Ashwin%Subramaniam%NULL%2,                Ashwin%Subramaniam%NULL%0,                Mallikarjuna%Ponnapa Reddy%NULL%2,                Mallikarjuna%Ponnapa Reddy%NULL%0,                Gabriel%Blecher%NULL%1,                Umesh%Kadam%NULL%2,                Umesh%Kadam%NULL%0,                Afsana%Afroz%NULL%1,                Baki%Billah%NULL%1,                Sushma%Ashwin%NULL%1,                Mark%Kubicki%NULL%1,                Federico%Bilotta%NULL%1,                J. Randall%Curtis%NULL%2,                J. Randall%Curtis%NULL%0,                Francesca%Rubulotta%NULL%2,                Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,               Aggarwal%Saurabh%coreGivesNoEmail%3,               Garcia-Telles%Nelson%coreGivesNoEmail%3,               Henry%Brandon Michael%coreGivesNoEmail%3,               Lavie%Carl%coreGivesNoEmail%3,               Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,         Eric%Yim%xref no email%0,         Lindy%Klaff%xref no email%0,         Sharukh%Lokhandwala%xref no email%0,         Francis X.%Riedo%xref no email%0,         Maria%Chong%xref no email%0,         Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                Samuel L%Bruce%NULL%2,                Cody L%Slater%NULL%2,                Jonathan R%Tiao%NULL%2,                Matthew R%Baldwin%NULL%3,                R Graham%Barr%NULL%2,                Bernard P%Chang%NULL%2,                Katherine H%Chau%NULL%2,                Justin J%Choi%NULL%2,                Nicholas%Gavin%NULL%2,                Parag%Goyal%NULL%2,                Angela M%Mills%NULL%2,                Ashmi A%Patel%NULL%2,                Marie-Laure S%Romney%NULL%2,                Monika M%Safford%NULL%2,                Neil W%Schluger%NULL%2,                Soumitra%Sengupta%NULL%2,                Magdalena E%Sobieszczyk%NULL%2,                Jason E%Zucker%NULL%2,                Paul A%Asadourian%NULL%2,                Fletcher M%Bell%NULL%2,                Rebekah%Boyd%NULL%2,                Matthew F%Cohen%NULL%2,                MacAlistair I%Colquhoun%NULL%2,                Lucy A%Colville%NULL%2,                Joseph H%de Jonge%NULL%2,                Lyle B%Dershowitz%NULL%2,                Shirin A%Dey%NULL%2,                Katherine A%Eiseman%NULL%2,                Zachary P%Girvin%NULL%2,                Daniella T%Goni%NULL%2,                Amro A%Harb%NULL%2,                Nicholas%Herzik%NULL%2,                Sarah%Householder%NULL%2,                Lara E%Karaaslan%NULL%2,                Heather%Lee%NULL%2,                Evan%Lieberman%NULL%2,                Andrew%Ling%NULL%2,                Ree%Lu%NULL%2,                Arthur Y%Shou%NULL%2,                Alexander C%Sisti%NULL%2,                Zachary E%Snow%NULL%2,                Colin P%Sperring%NULL%2,                Yuqing%Xiong%NULL%2,                Henry W%Zhou%NULL%2,                Karthik%Natarajan%NULL%2,                George%Hripcsak%NULL%2,                Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                Mark%Caridi-Scheible%NULL%3,                James M.%Blum%NULL%2,                Chad%Robichaux%NULL%2,                Colleen%Kraft%NULL%2,                Jesse T.%Jacob%NULL%2,                Craig S.%Jabaley%NULL%2,                David%Carpenter%NULL%2,                Roberta%Kaplow%NULL%2,                Alfonso C.%Hernandez-Romieu%NULL%2,                Max W.%Adelman%NULL%2,                Greg S.%Martin%NULL%2,                Craig M.%Coopersmith%NULL%2,                David J.%Murphy%NULL%2,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                Bijan J.%Ghassemieh%NULL%0,                Michelle%Nichols%NULL%0,                Richard%Kim%NULL%0,                Keith R.%Jerome%NULL%0,                Arun K.%Nalla%NULL%0,                Alexander L.%Greninger%NULL%0,                Sudhakar%Pipavath%NULL%0,                Mark M.%Wurfel%NULL%0,                Laura%Evans%NULL%0,                Patricia A.%Kritek%NULL%0,                T. Eoin%West%NULL%0,                Andrew%Luks%NULL%0,                Anthony%Gerbino%NULL%0,                Chris R.%Dale%NULL%0,                Jason D.%Goldman%NULL%0,                Shane%O’Mahony%NULL%0,                Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                Denise J%McCulloch%NULL%0,                Denise J%McCulloch%NULL%0,                Vidya%Atluri%NULL%0,                Michela%Blain%NULL%0,                Sarah A%McGuffin%NULL%0,                Arun K%Nalla%NULL%0,                Meei-Li%Huang%NULL%0,                Alex L%Greninger%NULL%0,                Keith R%Jerome%NULL%0,                Seth A%Cohen%NULL%0,                Santiago%Neme%NULL%0,                Margaret L%Green%NULL%0,                Helen Y%Chu%NULL%0,                H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                Joelle I.%Rosser%NULL%0,                Orlando%Quintero%NULL%0,                Jake%Scott%NULL%0,                Aruna%Subramanian%NULL%0,                Mohammad%Gumma%NULL%0,                Angela%Rogers%NULL%0,                Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                Jacob%Fiksel%NULL%2,                Jacob%Fiksel%NULL%0,                John%Muschelli%NULL%2,                John%Muschelli%NULL%0,                Matthew L.%Robinson%NULL%2,                Matthew L.%Robinson%NULL%0,                Masoud%Rouhizadeh%NULL%2,                Masoud%Rouhizadeh%NULL%0,                Jamie%Perin%NULL%2,                Jamie%Perin%NULL%0,                Grant%Schumock%NULL%2,                Grant%Schumock%NULL%0,                Paul%Nagy%NULL%2,                Paul%Nagy%NULL%0,                Josh H.%Gray%NULL%2,                Josh H.%Gray%NULL%0,                Harsha%Malapati%NULL%2,                Harsha%Malapati%NULL%0,                Mariam%Ghobadi-Krueger%NULL%2,                Mariam%Ghobadi-Krueger%NULL%0,                Timothy M.%Niessen%NULL%1,                Bo Soo%Kim%NULL%1,                Peter M.%Hill%NULL%1,                M. Shafeeq%Ahmed%NULL%1,                Eric D.%Dobkin%NULL%1,                Renee%Blanding%NULL%1,                Jennifer%Abele%NULL%1,                Bonnie%Woods%NULL%1,                Kenneth%Harkness%NULL%1,                David R.%Thiemann%NULL%1,                Mary G.%Bowring%NULL%1,                Aalok B.%Shah%NULL%2,                Aalok B.%Shah%NULL%0,                Mei-Cheng%Wang%NULL%1,                Karen%Bandeen-Roche%NULL%1,                Antony%Rosen%NULL%1,                Scott L.%Zeger%NULL%2,                Scott L.%Zeger%NULL%0,                Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                Justin J.%Choi%NULL%0,                Laura C.%Pinheiro%NULL%0,                Edward J.%Schenck%NULL%0,                Ruijun%Chen%NULL%0,                Assem%Jabri%NULL%0,                Michael J.%Satlin%NULL%0,                Thomas R.%Campion%NULL%0,                Musarrat%Nahid%NULL%0,                Joanna B.%Ringel%NULL%0,                Katherine L.%Hoffman%NULL%0,                Mark N.%Alshak%NULL%0,                Han A.%Li%NULL%0,                Graham T.%Wehmeyer%NULL%0,                Graham T.%Wehmeyer%NULL%0,                Mangala%Rajan%NULL%0,                Evgeniya%Reshetnyak%NULL%0,                Nathaniel%Hupert%NULL%0,                Evelyn M.%Horn%NULL%0,                Fernando J.%Martinez%NULL%0,                Roy M.%Gulick%NULL%0,                Monika M.%Safford%NULL%0,                Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                Simon A%Jones%NULL%0,                Jie%Yang%NULL%0,                Harish%Rajagopalan%NULL%0,                Luke%O’Donnell%NULL%0,                Yelena%Chernyak%NULL%0,                Katie A%Tobin%NULL%0,                Robert J%Cerfolio%NULL%0,                Fritz%Francois%NULL%0,                Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                Anatoly%Mitrokhin%NULL%2,                Anatoly%Mitrokhin%NULL%0,                Ajai%Rajabalan%NULL%1,                Christian%Benjamin%NULL%1,                Sushma%Raviralla%NULL%1,                Vishnu R%Mani%vishnu.mani@duke.edu%2,                Vishnu R%Mani%vishnu.mani@duke.edu%0,                Aleksandr%Kalabin%NULL%2,                Aleksandr%Kalabin%NULL%0,                Sebastian C%Valdivieso%NULL%2,                Sebastian C%Valdivieso%NULL%0,                Max%Murray-Ramcharan%NULL%2,                Max%Murray-Ramcharan%NULL%0,                Brian%Donaldson%NULL%2,                Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                 Nicholas A.%Fergusson%null%2,                 Elisa%Lloyd-Smith%null%2,                 Andrew%Wormsbecker%null%2,                 Denise%Foster%null%2,                 Andrei%Karpov%null%2,                 Sarah%Crowe%null%2,                 Greg%Haljan%null%2,                 Dean R.%Chittock%null%2,                 Hussein D.%Kanji%null%2,                 Mypinder S.%Sekhon%null%2,                 Donald E.G.%Griesdale%null%2,               Anish R.%Mitra%null%1,               Nicholas A.%Fergusson%null%1,               Elisa%Lloyd-Smith%null%1,               Andrew%Wormsbecker%null%1,               Denise%Foster%null%1,               Andrei%Karpov%null%1,               Sarah%Crowe%null%1,               Greg%Haljan%null%1,               Dean R.%Chittock%null%1,               Hussein D.%Kanji%null%1,               Mypinder S.%Sekhon%null%1,               Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                Damianos G.%Kokkinidis%NULL%1,                Weijia%Li%NULL%1,                Dimitrios%Karamanis%NULL%1,                Jennifer%Ognibene%NULL%1,                Shitij%Arora%NULL%1,                William N.%Southern%NULL%1,                Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                Jesus D.%Gonzalez-Lugo%NULL%1,                Shafia%Rahman%NULL%1,                Mohammad%Barouqa%NULL%1,                James%Szymanski%NULL%1,                Kenji%Ikemura%NULL%1,                Yungtai%Lo%NULL%1,                Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%4,               Chelico%J.D.%coreGivesNoEmail%4,               Cohen%S.L.%coreGivesNoEmail%4,               Cookingham%J.%coreGivesNoEmail%4,               Coppa%K.%coreGivesNoEmail%4,               Crawford%J.M.%coreGivesNoEmail%4,               Davidson%K.W.%coreGivesNoEmail%4,               Diefenbach%M.A.%coreGivesNoEmail%4,               Dominello%A.J.%coreGivesNoEmail%4,               Duer-Hefele%J.%coreGivesNoEmail%4,               Falzon%L.%coreGivesNoEmail%4,               Gitlin%J.%coreGivesNoEmail%4,               Hajizadeh%N.%coreGivesNoEmail%4,               Harvin%T.G.%coreGivesNoEmail%4,               Hirsch%J.S.%coreGivesNoEmail%4,               Hirschwerk%D.A.%coreGivesNoEmail%4,               Kim%E.J.%coreGivesNoEmail%4,               Kozel%Z.M.%coreGivesNoEmail%4,               Marrast%L.M.%coreGivesNoEmail%4,               McGinn%T.%coreGivesNoEmail%4,               Mogavero%J.N.%coreGivesNoEmail%4,               Narasimhan%M.%coreGivesNoEmail%4,               Osorio%G.A.%coreGivesNoEmail%4,               Qiu%M.%coreGivesNoEmail%4,               Richardson%S.%coreGivesNoEmail%4,               Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                Viet-Thi%Tran%NULL%4,                Viet-Thi%Tran%NULL%0,                Mathilde%Roumier%NULL%2,                Amélie%Chabrol%NULL%2,                Romain%Paule%NULL%2,                Constance%Guillaud%NULL%2,                Elena%Fois%NULL%2,                Raphael%Lepeule%NULL%2,                Tali-Anne%Szwebel%NULL%2,                François-Xavier%Lescure%NULL%2,                Frédéric%Schlemmer%NULL%2,                Marie%Matignon%NULL%2,                Mehdi%Khellaf%NULL%2,                Etienne%Crickx%NULL%2,                Benjamin%Terrier%NULL%2,                Caroline%Morbieu%NULL%2,                Paul%Legendre%NULL%2,                Julien%Dang%NULL%2,                Yoland%Schoindre%NULL%2,                Jean-Michel%Pawlotsky%NULL%2,                Marc%Michel%NULL%2,                Elodie%Perrodeau%NULL%2,                Nicolas%Carlier%NULL%2,                Nicolas%Roche%NULL%2,                Victoire%de Lastours%NULL%2,                Clément%Ourghanlian%NULL%2,                Solen%Kerneis%NULL%2,                Philippe%Ménager%NULL%2,                Luc%Mouthon%NULL%2,                Etienne%Audureau%NULL%2,                Philippe%Ravaud%NULL%2,                Bertrand%Godeau%NULL%2,                Sébastien%Gallien%NULL%2,                Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,         Abu Baker%Sheikh%xref no email%1,         Shubhra%Upadhyay%xref no email%1,         Jeanette%Atencio%xref no email%1,         Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,              Yu%Zuo%NULL%1,              Srilakshmi%Yalavarthi%NULL%1,              Kelsey%Gockman%NULL%1,              Melanie%Zuo%NULL%1,              Jacqueline A%Madison%NULL%1,              Christopher%Blair%NULL%1,              Wrenn%Woodward%NULL%1,              Sean P%Lezak%NULL%1,              Njira L%Lugogo%NULL%1,              Robert J%Woods%NULL%1,              Christian%Lood%NULL%1,              Jason S%Knight%NULL%2,              Jason S%Knight%NULL%0,              Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                Raef A.%Fadel%NULL%1,                Kelly M.%Malette%NULL%1,                Charles%Hammond%NULL%1,                Hafsa%Abdulla%NULL%1,                Abigail%Entz%NULL%1,                Zachary%Demertzis%NULL%1,                Zachary%Hanna%NULL%1,                Andrew%Failla%NULL%1,                Carina%Dagher%NULL%0,                Zohra%Chaudhry%NULL%2,                Amit%Vahia%NULL%2,                Odaliz%Abreu Lanfranco%NULL%1,                Mayur%Ramesh%NULL%1,                Marcus J.%Zervos%NULL%1,                George%Alangaden%NULL%2,                Joseph%Miller%NULL%2,                Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,         Daniel%Mu\u00f1oz%xref no email%1,         Alberto%Fica%xref no email%1,         Ignacio%Delama%xref no email%1,         Ignacia%Alvarez%xref no email%1,         Maritza%Navarrete%xref no email%1,         Eileen%Blackburn%xref no email%1,         Pamela%Garrido%xref no email%1,         Ricardo%Wenger%xref no email%1,         Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                  J.% Jiang%null%1,                  X.% Xu%null%1,                  Y.% Hu%null%2,                  Y.% Hu%null%0,                  Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                 Chenchen%Qian%NULL%1,                 Zhibing%Luo%NULL%1,                 Qiang%Li%liqressh@hotmail.com%0,                 Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                 Chunlin%Cai%NULL%1,                 Jinglei%Zang%NULL%1,                 Jun%Xie%NULL%1,                 Dan%Xu%NULL%0,                 Fang%Zheng%NULL%0,                 Tao%Zhan%NULL%1,                 Kang%Huang%NULL%1,                 Yikai%Wang%NULL%1,                 Xiao%Wang%NULL%1,                 Zhe-Yu%Hu%NULL%1,                 Yapeng%Deng%NULL%1,                 Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                 Naofumi%Bunya%NULL%1,                 Tomoyuki%Endo%NULL%1,                 Yuji%Fujino%NULL%1,                 Kensuke%Fujita%NULL%1,                 Kenji%Fujizuka%NULL%1,                 Yoshihiro%Hagiwara%NULL%1,                 Jun%Hamaguchi%NULL%1,                 Yoshitaka%Hara%NULL%1,                 Eiji%Hashiba%NULL%1,                 Satoru%Hashimoto%NULL%1,                 Noriyuki%Hattori%NULL%1,                 Kota%Hoshino%NULL%1,                 Shinichi%Ijuin%NULL%1,                 Takanari%Ikeyama%NULL%1,                 Shingo%Ichiba%NULL%1,                 Wataru%Iwanaga%NULL%1,                 Yoshiaki%Iwashita%NULL%1,                 Masafumi%Kanamoto%NULL%1,                 Hitoshi%Kaneko%NULL%1,                 Kaneyuki%Kawamae%NULL%1,                 Toru%Kotani%NULL%1,                 Yasuaki%Koyama%NULL%1,                 Keibun%Liu%NULL%1,                 Tomohiko%Masuno%NULL%1,                 Naoto%Morimura%NULL%1,                 Tomoyuki%Nakamura%NULL%1,                 Masaki%Nakane%NULL%1,                 Michitaka%Nasu%NULL%1,                 Osamu%Nishida%NULL%1,                 Masaji%Nishimura%NULL%1,                 Kanae%Ochiai%NULL%1,                 Takayuki%Ogura%NULL%1,                 Shinichiro%Ohshimo%NULL%1,                 Keisuke%Oyama%NULL%1,                 Junichi%Sasaki%NULL%1,                 Ryutaro%Seo%NULL%1,                 Takeshi%Shimazu%NULL%1,                 Nobuaki%Shime%NULL%4,                 Keiki%Shimizu%NULL%1,                 Hiroyuki%Suzuki%NULL%1,                 Shuhei%Takauji%NULL%1,                 Shinhiro%Takeda%NULL%1,                 Ichiro%Takeuchi%NULL%2,                 Mumon%Takita%NULL%1,                 Hayato%Taniguchi%NULL%1,                 Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                 Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                 Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                 Yi Xin%Tong%NULL%3,                 Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                 Hong%Chen%NULL%0,                 Zhen%Li%NULL%2,                 Bo%Wang%NULL%0,                 Zhong-Wei%Zhang%NULL%1,                 Wei-Min%Li%NULL%0,                 Zong-An%Liang%NULL%0,                 Jin%Tang%NULL%1,                 Jian%Wang%NULL%1,                 Rui%Shi%NULL%1,                 Xiao-Dong%Jin%NULL%1,                 Yan%Kang%NULL%0,                 Pei-Fang%Wei%NULL%8,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                  S. F.% Mahmood%null%1,                  K.% Habib%null%1,                  I.% Khanum%null%1,                  B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                 Chaisith%Sivakorn%NULL%1,                 Tanuwong%Viarasilpa%NULL%1,                 Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                 Mu%Qin%qinmuae@163.com%1,                 Yuli%Cai%NULL%1,                 Tao%Liu%NULL%0,                 Bo%Shen%NULL%1,                 Fan%Yang%NULL%2,                 Sheng%Cao%NULL%1,                 Xu%Liu%NULL%2,                 Xu%Liu%NULL%0,                 Yaozu%Xiang%NULL%1,                 Qinyan%Zhao%NULL%1,                 He%Huang%huanghe1977@whu.edu.cn%0,                 Bo%Yang%yybb112@whu.edu.cn%0,                 Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                 Win%Kulvichit%NULL%1,                 Sunchai%Payungporn%NULL%1,                 Trairak%Pisitkun%NULL%1,                 Ariya%Chindamporn%NULL%1,                 Sadudee%Peerapornratana%NULL%1,                 Prapaporn%Pisitkun%NULL%1,                 Suwalak%Chitcharoen%NULL%1,                 Vorthon%Sawaswong%NULL%1,                 Navaporn%Worasilchai%NULL%1,                 Sarinya%Kampunya%NULL%1,                 Opass%Putcharoen%NULL%1,                 Thammasak%Thawitsri%NULL%1,                 Nophol%Leelayuwatanakul%NULL%1,                 Napplika%Kongpolprom%NULL%1,                 Vorakamol%Phoophiboon%NULL%1,                 Thitiwat%Sriprasart%NULL%1,                 Rujipat%Samransamruajkit%NULL%1,                 Somkanya%Tungsanga%NULL%1,                 Kanitha%Tiankanon%NULL%1,                 Nuttha%Lumlertgul%NULL%1,                 Asada%Leelahavanichkul%NULL%1,                 Tueboon%Sriphojanart%NULL%1,                 Terapong%Tantawichien%NULL%1,                 Usa%Thisyakorn%NULL%1,                 Chintana%Chirathaworn%NULL%1,                 Kearkiat%Praditpornsilpa%NULL%1,                 Kriang%Tungsanga%NULL%1,                 Somchai%Eiam-Ong%NULL%1,                 Visith%Sitprija%NULL%1,                 John A.%Kellum%NULL%1,                 Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                 Min%Pan%NULL%3,                 Xiumei%Zhang%NULL%3,                 Mingfeng%Han%fyhmf@163.com%0,                 Xiaoyun%Fan%13956988552@126.com%3,                 Fengde%Zhao%NULL%3,                 Manli%Miao%NULL%3,                 Jing%Xu%NULL%0,                 Minglong%Guan%NULL%3,                 Xia%Deng%NULL%3,                 Xu%Chen%NULL%4,                 Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                 Chunli%Tang%NULL%0,                 Ruchong%Chen%NULL%1,                 Honglian%Ruan%NULL%1,                 Wenhua%Liang%NULL%0,                 Weijie%Guan%NULL%0,                 Ling%Sang%NULL%0,                 Ruidi%Tang%NULL%1,                 Nanshan%Zhong%NULL%0,                 Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,          Shuhan%Cai%xref no email%1,          Yun%Luo%xref no email%1,          Fangfang%Zhu%xref no email%1,          Ming%Hu%xref no email%1,          Yan%Zhao%xref no email%1,          Ruiqiang%Zheng%xref no email%1,          Xuyan%Li%xref no email%1,          Bo%Hu%xref no email%0,          Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%5,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%5,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%5,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%5,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%5,                 Shangwen%Pan%NULL%5,                 Xiaojing%Zou%NULL%7,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                 Shanyan%Zhang%NULL%2,                 Xiaoli%Zhang%NULL%1,                 Huan%Cai%NULL%2,                 Jueqing%Gu%NULL%2,                 Jiangshan%Lian%NULL%2,                 Yingfeng%Lu%NULL%2,                 Hongyu%Jia%NULL%2,                 Jianhua%Hu%NULL%2,                 Ciliang%Jin%NULL%2,                 Guodong%Yu%NULL%2,                 Yimin%Zhang%NULL%2,                 Jifang%Sheng%NULL%4,                 Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,          Sean Wei Xiang%Ong%xref no email%0,          Shirin%Kalimuddin%xref no email%0,          Jenny G.%Low%xref no email%0,          Seow Yen%Tan%xref no email%0,          Jiashen%Loh%xref no email%0,          Oon-Tek%Ng%xref no email%0,          Kalisvar%Marimuthu%xref no email%0,          Li Wei%Ang%xref no email%0,          Tze Minn%Mak%xref no email%0,          Sok Kiang%Lau%xref no email%0,          Danielle E.%Anderson%xref no email%0,          Kian Sing%Chan%xref no email%0,          Thean Yen%Tan%xref no email%0,          Tong Yong%Ng%xref no email%0,          Lin%Cui%xref no email%0,          Zubaidah%Said%xref no email%0,          Lalitha%Kurupatham%xref no email%0,          Mark I-Cheng%Chen%xref no email%0,          Monica%Chan%xref no email%0,          Shawn%Vasoo%xref no email%0,          Lin-Fa%Wang%xref no email%0,          Boon Huan%Tan%xref no email%0,          Raymond Tzer Pin%Lin%xref no email%0,          Vernon Jian Ming%Lee%xref no email%0,          Yee-Sin%Leo%xref no email%0,          David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                 Dan%Xu%NULL%0,                 Shouzhi%Fu%NULL%0,                 Jun%Zhang%NULL%0,                 Xiaobo%Yang%NULL%0,                 Liang%Xu%NULL%0,                 Jiqian%Xu%NULL%0,                 Yongran%Wu%NULL%0,                 Chaolin%Huang%NULL%0,                 Yaqi%Ouyang%NULL%0,                 Luyu%Yang%NULL%0,                 Minghao%Fang%NULL%0,                 Hongwen%Xiao%NULL%0,                 Jing%Ma%NULL%0,                 Wei%Zhu%NULL%0,                 Song%Hu%NULL%0,                 Quan%Hu%NULL%0,                 Daoyin%Ding%NULL%0,                 Ming%Hu%NULL%0,                 Guochao%Zhu%NULL%0,                 Weijiang%Xu%NULL%0,                 Jun%Guo%NULL%0,                 Jinglong%Xu%NULL%0,                 Haitao%Yuan%NULL%0,                 Bin%Zhang%NULL%0,                 Zhui%Yu%yuzhui@whu.edu.cn%0,                 Dechang%Chen%icudechangchen@163.com%0,                 Shiying%Yuan%yuan_shiying@163.com%0,                 You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                 Hao-Yu%Gao%NULL%1,                 Zi-Yi%Feng%NULL%1,                 Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                 Li-jun%Sun%NULL%1,                 Mi%Xu%NULL%1,                 Jian%Pan%NULL%1,                 Yun-tao%Zhang%NULL%1,                 Xue-ling%Fang%NULL%1,                 Qiang%Fang%NULL%2,                 Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                 Ziqiang%Du%NULL%1,                 Yanfang%Zhu%NULL%1,                 Wenfeng%Li%NULL%1,                 Hongjun%Miao%NULL%1,                 Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                 Sarah%Al-Youha%sarahalyouha@gmail.com%1,                 Mohammad H.%Jamal%NULL%1,                 Mohannad%Al-Haddad%NULL%1,                 Ali%Al-Muhaini%NULL%1,                 Fahad%Al-Ghimlas%NULL%1,                 Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                 Mina%Akbari Rad%NULL%1,                 Robert%Bergquist%NULL%1,                 Abolghasem%Allahyari%NULL%1,                 Kamila%Hashemzadeh%NULL%1,                 Nasrin%Milani%NULL%1,                 Mahdi%Gholian-Aval%NULL%1,                 Fariba%Rezaeitalab%NULL%1,                 Mohammad Jafar%Sadeghi Quchani%NULL%1,                 Zahra%Nahbandani%NULL%1,                 Mandana%Khodashahi%NULL%1,                 Zahra%Javid%NULL%1,                 Mahnaz%Mozdourian%NULL%1,                 Mohammad Ali%Yaghoubi%NULL%1,                 Zahra%Mozaheb%NULL%1,                 Mohsen%Seddigh-Shamsi%NULL%1,                 Mohammad%Moeini Nodeh%NULL%1,                 Shima%Nabavi%NULL%1,                 Hooman%Mosannen Mozaffari%NULL%1,                 Mohammadreza%Farzanehfar%NULL%1,                 Zahra%Lotfi%NULL%1,                 Alireza%Shariati%NULL%1,                 Shekoofe%Bonakdaran%NULL%1,                 Zahra%Rezaieyazdi%NULL%1,                 Zahra%Mirfeizi%NULL%1,                 Maryam%Miri%NULL%1,                 Reza%Bassiri%NULL%1,                 Sajjad%Ataei Azimi%NULL%1,                 Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                 Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                 Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                 Ibrahim%Al-Zakwani%NULL%1,                 Hamed%Al Naamani%NULL%1,                 Sultan%Al Lawati%NULL%1,                 Nenad%Pandak%NULL%1,                 Muna Ba%Omar%NULL%1,                 Maher%Al Bahrani%NULL%1,                 Zakaryia AL%Bulushi%NULL%1,                 Huda%Al Khalili%NULL%1,                 Issa%Al Salmi%NULL%1,                 Ruwaida%Al Ismaili%NULL%1,                 Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                 Zohre%Khodamoradi%NULL%1,                 Amirhossein%Erfani%NULL%1,                 Hamidreza%Hosseinpour%NULL%1,                 Keivan%Ranjbar%NULL%1,                 Yasaman%Emami%NULL%1,                 Alireza%Mirahmadizadeh%NULL%1,                 Mehrzad%Lotfi%NULL%1,                 Babak%Shirazi Yeganeh%NULL%1,                 Abolfazl%Dorrani Nejad%NULL%1,                 Abdolrasool%Hemmati%NULL%1,                 Mostafa%Ebrahimi%NULL%1,                 Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                 Annachiara%Ferrari%NULL%2,                 Annachiara%Ferrari%NULL%0,                 Francesco%Fontana%NULL%1,                 Giacomo%Mori%NULL%1,                 Riccardo%Magistroni%NULL%1,                 Marianna%Meschiari%NULL%1,                 Erica%Franceschini%NULL%1,                 Marianna%Menozzi%NULL%1,                 Gianluca%Cuomo%NULL%1,                 Gabriella%Orlando%NULL%1,                 Antonella%Santoro%NULL%1,                 Margherita%Digaetano%NULL%1,                 Cinzia%Puzzolante%NULL%1,                 Federica%Carli%NULL%1,                 Andrea%Bedini%NULL%1,                 Jovana%Milic%NULL%1,                 Irene%Coloretti%NULL%1,                 Paolo%Raggi%NULL%1,                 Cristina%Mussini%NULL%1,                 Massimo%Girardis%NULL%1,                 Gianni%Cappelli%NULL%1,                 Giovanni%Guaraldi%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                 Silvia%Bettini%NULL%2,                 Silvia%Bettini%NULL%0,                 Roberto%Fabris%NULL%1,                 Roberto%Serra%NULL%2,                 Chiara%Dal Pra%NULL%1,                 Pietro%Maffei%NULL%1,                 Marco%Rossato%NULL%1,                 Paola%Fioretto%NULL%0,                 Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                 Marco%Roncador%NULL%2,                 Marco%Roncador%NULL%0,                 Andrea%Saporito%NULL%1,                 Maira%Biggiogero%NULL%1,                 Andrea%Glotta%NULL%1,                 Pier Andrea%Maida%NULL%1,                 Patrizia%Urso%NULL%1,                 Giovanni%Bona%NULL%1,                 Christian%Garzoni%NULL%1,                 Romano%Mauri%NULL%1,                 Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                 Anna Lisa%Ridolfo%NULL%4,                 Laura%Milazzo%NULL%2,                 Letizia%Oreni%NULL%4,                 Dario%Bernacchia%NULL%4,                 Matteo%Siano%NULL%4,                 Cecilia%Bonazzetti%NULL%2,                 Alice%Covizzi%NULL%2,                 Marco%Schiuma%NULL%2,                 Matteo%Passerini%NULL%2,                 Marco%Piscaglia%NULL%2,                 Massimo%Coen%NULL%2,                 Guido%Gubertini%NULL%2,                 Giuliano%Rizzardini%NULL%4,                 Chiara%Cogliati%NULL%2,                 Anna Maria%Brambilla%NULL%2,                 Riccardo%Colombo%NULL%2,                 Antonio%Castelli%NULL%2,                 Roberto%Rech%NULL%2,                 Agostino%Riva%NULL%2,                 Alessandro%Torre%NULL%2,                 Luca%Meroni%NULL%2,                 Stefano%Rusconi%NULL%4,                 Spinello%Antinori%NULL%4,                 Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                Cabrini%Luca%coreGivesNoEmail%4,                Castelli%Antonio%coreGivesNoEmail%4,                Cecconi%Maurizio%coreGivesNoEmail%4,                Cereda%Danilo%coreGivesNoEmail%4,                Coluccello%Antonio%coreGivesNoEmail%4,                Foti%Giuseppe%coreGivesNoEmail%4,                Fumagalli%Roberto%coreGivesNoEmail%4,                Grasselli%Giacomo%coreGivesNoEmail%4,                Iotti%Giorgio%coreGivesNoEmail%4,                Latronico%Nicola%coreGivesNoEmail%4,                Lorini%Luca%coreGivesNoEmail%4,                Merler%Stefano%coreGivesNoEmail%4,                Natalini%Giuseppe%coreGivesNoEmail%4,                Pesenti%Antonio%coreGivesNoEmail%4,                Piatti%Alessandra%coreGivesNoEmail%4,                Ranieri%Marco Vito%coreGivesNoEmail%4,                Scandroglio%Anna Mara%coreGivesNoEmail%4,                Storti%Enrico%coreGivesNoEmail%4,                Zanella%Alberto%coreGivesNoEmail%4,                Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                 Lara%Gianesello%gianesello.lara@libero.it%1,                 Maddalena%Pazzi%NULL%2,                 Maddalena%Pazzi%NULL%0,                 Caterina%Stera%NULL%1,                 Tommaso%Meconi%NULL%1,                 Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                 Andrea%Dalbeni%NULL%2,                 Andrea%Dalbeni%NULL%0,                 Elia%Vettore%NULL%2,                 Elia%Vettore%NULL%0,                 Devis%Benfaremo%NULL%1,                 Massimo%Mattioli%NULL%1,                 Carmine G.%Gambino%NULL%1,                 Viviana%Framba%NULL%2,                 Viviana%Framba%NULL%0,                 Lorenzo%Cerruti%NULL%1,                 Anna%Mantovani%NULL%1,                 Andrea%Martini%NULL%1,                 Michele M.%Luchetti%NULL%1,                 Roberto%Serra%NULL%0,                 Annamaria%Cattelan%NULL%1,                 Roberto%Vettor%NULL%0,                 Paolo%Angeli%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                 Matthaios%Papadimitriou-Olivgeris%NULL%2,                 Matthaios%Papadimitriou-Olivgeris%NULL%0,                 Raphaël%Burger%NULL%1,                 Marie-Annick%Le Pogam%NULL%1,                 Tapio%Niemi%NULL%2,                 Tapio%Niemi%NULL%0,                 Paraskevas%Filippidis%NULL%1,                 Jonathan%Tschopp%NULL%1,                 Florian%Desgranges%NULL%1,                 Benjamin%Viala%NULL%1,                 Eleftheria%Kampouri%NULL%1,                 Laurence%Rochat%NULL%2,                 Laurence%Rochat%NULL%0,                 David%Haefliger%NULL%1,                 Mehdi%Belkoniene%NULL%1,                 Carlos%Fidalgo%NULL%1,                 Antonios%Kritikos%NULL%1,                 Katia%Jaton%NULL%1,                 Laurence%Senn%NULL%1,                 Pierre-Alexandre%Bart%NULL%1,                 Jean-Luc%Pagani%NULL%2,                 Jean-Luc%Pagani%NULL%0,                 Oriol%Manuel%NULL%1,                 Loïc%Lhopitallier%NULL%1,                 Chiara%Lazzeri%NULL%2,                 Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                 Ashwin%Subramaniam%NULL%2,                 Ashwin%Subramaniam%NULL%0,                 Mallikarjuna%Ponnapa Reddy%NULL%2,                 Mallikarjuna%Ponnapa Reddy%NULL%0,                 Gabriel%Blecher%NULL%1,                 Umesh%Kadam%NULL%2,                 Umesh%Kadam%NULL%0,                 Afsana%Afroz%NULL%1,                 Baki%Billah%NULL%1,                 Sushma%Ashwin%NULL%1,                 Mark%Kubicki%NULL%1,                 Federico%Bilotta%NULL%1,                 J. Randall%Curtis%NULL%2,                 J. Randall%Curtis%NULL%0,                 Francesca%Rubulotta%NULL%2,                 Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                Aggarwal%Saurabh%coreGivesNoEmail%3,                Garcia-Telles%Nelson%coreGivesNoEmail%3,                Henry%Brandon Michael%coreGivesNoEmail%3,                Lavie%Carl%coreGivesNoEmail%3,                Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,          Eric%Yim%xref no email%0,          Lindy%Klaff%xref no email%0,          Sharukh%Lokhandwala%xref no email%0,          Francis X.%Riedo%xref no email%0,          Maria%Chong%xref no email%0,          Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                 Samuel L%Bruce%NULL%2,                 Cody L%Slater%NULL%2,                 Jonathan R%Tiao%NULL%2,                 Matthew R%Baldwin%NULL%3,                 R Graham%Barr%NULL%2,                 Bernard P%Chang%NULL%2,                 Katherine H%Chau%NULL%2,                 Justin J%Choi%NULL%2,                 Nicholas%Gavin%NULL%2,                 Parag%Goyal%NULL%2,                 Angela M%Mills%NULL%2,                 Ashmi A%Patel%NULL%2,                 Marie-Laure S%Romney%NULL%2,                 Monika M%Safford%NULL%2,                 Neil W%Schluger%NULL%2,                 Soumitra%Sengupta%NULL%2,                 Magdalena E%Sobieszczyk%NULL%2,                 Jason E%Zucker%NULL%2,                 Paul A%Asadourian%NULL%2,                 Fletcher M%Bell%NULL%2,                 Rebekah%Boyd%NULL%2,                 Matthew F%Cohen%NULL%2,                 MacAlistair I%Colquhoun%NULL%2,                 Lucy A%Colville%NULL%2,                 Joseph H%de Jonge%NULL%2,                 Lyle B%Dershowitz%NULL%2,                 Shirin A%Dey%NULL%2,                 Katherine A%Eiseman%NULL%2,                 Zachary P%Girvin%NULL%2,                 Daniella T%Goni%NULL%2,                 Amro A%Harb%NULL%2,                 Nicholas%Herzik%NULL%2,                 Sarah%Householder%NULL%2,                 Lara E%Karaaslan%NULL%2,                 Heather%Lee%NULL%2,                 Evan%Lieberman%NULL%2,                 Andrew%Ling%NULL%2,                 Ree%Lu%NULL%2,                 Arthur Y%Shou%NULL%2,                 Alexander C%Sisti%NULL%2,                 Zachary E%Snow%NULL%2,                 Colin P%Sperring%NULL%2,                 Yuqing%Xiong%NULL%2,                 Henry W%Zhou%NULL%2,                 Karthik%Natarajan%NULL%2,                 George%Hripcsak%NULL%2,                 Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                 Mark%Caridi-Scheible%NULL%3,                 James M.%Blum%NULL%2,                 Chad%Robichaux%NULL%2,                 Colleen%Kraft%NULL%2,                 Jesse T.%Jacob%NULL%2,                 Craig S.%Jabaley%NULL%2,                 David%Carpenter%NULL%2,                 Roberta%Kaplow%NULL%2,                 Alfonso C.%Hernandez-Romieu%NULL%2,                 Max W.%Adelman%NULL%2,                 Greg S.%Martin%NULL%2,                 Craig M.%Coopersmith%NULL%2,                 David J.%Murphy%NULL%2,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                 Bijan J.%Ghassemieh%NULL%0,                 Michelle%Nichols%NULL%0,                 Richard%Kim%NULL%0,                 Keith R.%Jerome%NULL%0,                 Arun K.%Nalla%NULL%0,                 Alexander L.%Greninger%NULL%0,                 Sudhakar%Pipavath%NULL%0,                 Mark M.%Wurfel%NULL%0,                 Laura%Evans%NULL%0,                 Patricia A.%Kritek%NULL%0,                 T. Eoin%West%NULL%0,                 Andrew%Luks%NULL%0,                 Anthony%Gerbino%NULL%0,                 Chris R.%Dale%NULL%0,                 Jason D.%Goldman%NULL%0,                 Shane%O’Mahony%NULL%0,                 Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                 Denise J%McCulloch%NULL%0,                 Denise J%McCulloch%NULL%0,                 Vidya%Atluri%NULL%0,                 Michela%Blain%NULL%0,                 Sarah A%McGuffin%NULL%0,                 Arun K%Nalla%NULL%0,                 Meei-Li%Huang%NULL%0,                 Alex L%Greninger%NULL%0,                 Keith R%Jerome%NULL%0,                 Seth A%Cohen%NULL%0,                 Santiago%Neme%NULL%0,                 Margaret L%Green%NULL%0,                 Helen Y%Chu%NULL%0,                 H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                 Joelle I.%Rosser%NULL%0,                 Orlando%Quintero%NULL%0,                 Jake%Scott%NULL%0,                 Aruna%Subramanian%NULL%0,                 Mohammad%Gumma%NULL%0,                 Angela%Rogers%NULL%0,                 Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                 Jacob%Fiksel%NULL%2,                 Jacob%Fiksel%NULL%0,                 John%Muschelli%NULL%2,                 John%Muschelli%NULL%0,                 Matthew L.%Robinson%NULL%2,                 Matthew L.%Robinson%NULL%0,                 Masoud%Rouhizadeh%NULL%2,                 Masoud%Rouhizadeh%NULL%0,                 Jamie%Perin%NULL%2,                 Jamie%Perin%NULL%0,                 Grant%Schumock%NULL%2,                 Grant%Schumock%NULL%0,                 Paul%Nagy%NULL%2,                 Paul%Nagy%NULL%0,                 Josh H.%Gray%NULL%2,                 Josh H.%Gray%NULL%0,                 Harsha%Malapati%NULL%2,                 Harsha%Malapati%NULL%0,                 Mariam%Ghobadi-Krueger%NULL%2,                 Mariam%Ghobadi-Krueger%NULL%0,                 Timothy M.%Niessen%NULL%1,                 Bo Soo%Kim%NULL%1,                 Peter M.%Hill%NULL%1,                 M. Shafeeq%Ahmed%NULL%1,                 Eric D.%Dobkin%NULL%1,                 Renee%Blanding%NULL%1,                 Jennifer%Abele%NULL%1,                 Bonnie%Woods%NULL%1,                 Kenneth%Harkness%NULL%1,                 David R.%Thiemann%NULL%1,                 Mary G.%Bowring%NULL%1,                 Aalok B.%Shah%NULL%2,                 Aalok B.%Shah%NULL%0,                 Mei-Cheng%Wang%NULL%1,                 Karen%Bandeen-Roche%NULL%1,                 Antony%Rosen%NULL%1,                 Scott L.%Zeger%NULL%2,                 Scott L.%Zeger%NULL%0,                 Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                 Justin J.%Choi%NULL%0,                 Laura C.%Pinheiro%NULL%0,                 Edward J.%Schenck%NULL%0,                 Ruijun%Chen%NULL%0,                 Assem%Jabri%NULL%0,                 Michael J.%Satlin%NULL%0,                 Thomas R.%Campion%NULL%0,                 Musarrat%Nahid%NULL%0,                 Joanna B.%Ringel%NULL%0,                 Katherine L.%Hoffman%NULL%0,                 Mark N.%Alshak%NULL%0,                 Han A.%Li%NULL%0,                 Graham T.%Wehmeyer%NULL%0,                 Graham T.%Wehmeyer%NULL%0,                 Mangala%Rajan%NULL%0,                 Evgeniya%Reshetnyak%NULL%0,                 Nathaniel%Hupert%NULL%0,                 Evelyn M.%Horn%NULL%0,                 Fernando J.%Martinez%NULL%0,                 Roy M.%Gulick%NULL%0,                 Monika M.%Safford%NULL%0,                 Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                 Simon A%Jones%NULL%0,                 Jie%Yang%NULL%0,                 Harish%Rajagopalan%NULL%0,                 Luke%O’Donnell%NULL%0,                 Yelena%Chernyak%NULL%0,                 Katie A%Tobin%NULL%0,                 Robert J%Cerfolio%NULL%0,                 Fritz%Francois%NULL%0,                 Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                 Anatoly%Mitrokhin%NULL%2,                 Anatoly%Mitrokhin%NULL%0,                 Ajai%Rajabalan%NULL%1,                 Christian%Benjamin%NULL%1,                 Sushma%Raviralla%NULL%1,                 Vishnu R%Mani%vishnu.mani@duke.edu%2,                 Vishnu R%Mani%vishnu.mani@duke.edu%0,                 Aleksandr%Kalabin%NULL%2,                 Aleksandr%Kalabin%NULL%0,                 Sebastian C%Valdivieso%NULL%2,                 Sebastian C%Valdivieso%NULL%0,                 Max%Murray-Ramcharan%NULL%2,                 Max%Murray-Ramcharan%NULL%0,                 Brian%Donaldson%NULL%2,                 Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                  Nicholas A.%Fergusson%null%2,                  Elisa%Lloyd-Smith%null%2,                  Andrew%Wormsbecker%null%2,                  Denise%Foster%null%2,                  Andrei%Karpov%null%2,                  Sarah%Crowe%null%2,                  Greg%Haljan%null%2,                  Dean R.%Chittock%null%2,                  Hussein D.%Kanji%null%2,                  Mypinder S.%Sekhon%null%2,                  Donald E.G.%Griesdale%null%2,                Anish R.%Mitra%null%1,                Nicholas A.%Fergusson%null%1,                Elisa%Lloyd-Smith%null%1,                Andrew%Wormsbecker%null%1,                Denise%Foster%null%1,                Andrei%Karpov%null%1,                Sarah%Crowe%null%1,                Greg%Haljan%null%1,                Dean R.%Chittock%null%1,                Hussein D.%Kanji%null%1,                Mypinder S.%Sekhon%null%1,                Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                 Damianos G.%Kokkinidis%NULL%1,                 Weijia%Li%NULL%1,                 Dimitrios%Karamanis%NULL%1,                 Jennifer%Ognibene%NULL%1,                 Shitij%Arora%NULL%1,                 William N.%Southern%NULL%1,                 Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                 Jesus D.%Gonzalez-Lugo%NULL%1,                 Shafia%Rahman%NULL%1,                 Mohammad%Barouqa%NULL%1,                 James%Szymanski%NULL%1,                 Kenji%Ikemura%NULL%1,                 Yungtai%Lo%NULL%1,                 Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%4,                Chelico%J.D.%coreGivesNoEmail%4,                Cohen%S.L.%coreGivesNoEmail%4,                Cookingham%J.%coreGivesNoEmail%4,                Coppa%K.%coreGivesNoEmail%4,                Crawford%J.M.%coreGivesNoEmail%4,                Davidson%K.W.%coreGivesNoEmail%4,                Diefenbach%M.A.%coreGivesNoEmail%4,                Dominello%A.J.%coreGivesNoEmail%4,                Duer-Hefele%J.%coreGivesNoEmail%4,                Falzon%L.%coreGivesNoEmail%4,                Gitlin%J.%coreGivesNoEmail%4,                Hajizadeh%N.%coreGivesNoEmail%4,                Harvin%T.G.%coreGivesNoEmail%4,                Hirsch%J.S.%coreGivesNoEmail%4,                Hirschwerk%D.A.%coreGivesNoEmail%4,                Kim%E.J.%coreGivesNoEmail%4,                Kozel%Z.M.%coreGivesNoEmail%4,                Marrast%L.M.%coreGivesNoEmail%4,                McGinn%T.%coreGivesNoEmail%4,                Mogavero%J.N.%coreGivesNoEmail%4,                Narasimhan%M.%coreGivesNoEmail%4,                Osorio%G.A.%coreGivesNoEmail%4,                Qiu%M.%coreGivesNoEmail%4,                Richardson%S.%coreGivesNoEmail%4,                Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                 Viet-Thi%Tran%NULL%4,                 Viet-Thi%Tran%NULL%0,                 Mathilde%Roumier%NULL%2,                 Amélie%Chabrol%NULL%2,                 Romain%Paule%NULL%2,                 Constance%Guillaud%NULL%2,                 Elena%Fois%NULL%2,                 Raphael%Lepeule%NULL%2,                 Tali-Anne%Szwebel%NULL%2,                 François-Xavier%Lescure%NULL%2,                 Frédéric%Schlemmer%NULL%2,                 Marie%Matignon%NULL%2,                 Mehdi%Khellaf%NULL%2,                 Etienne%Crickx%NULL%2,                 Benjamin%Terrier%NULL%2,                 Caroline%Morbieu%NULL%2,                 Paul%Legendre%NULL%2,                 Julien%Dang%NULL%2,                 Yoland%Schoindre%NULL%2,                 Jean-Michel%Pawlotsky%NULL%2,                 Marc%Michel%NULL%2,                 Elodie%Perrodeau%NULL%2,                 Nicolas%Carlier%NULL%2,                 Nicolas%Roche%NULL%2,                 Victoire%de Lastours%NULL%2,                 Clément%Ourghanlian%NULL%2,                 Solen%Kerneis%NULL%2,                 Philippe%Ménager%NULL%2,                 Luc%Mouthon%NULL%2,                 Etienne%Audureau%NULL%2,                 Philippe%Ravaud%NULL%2,                 Bertrand%Godeau%NULL%2,                 Sébastien%Gallien%NULL%2,                 Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,          Abu Baker%Sheikh%xref no email%1,          Shubhra%Upadhyay%xref no email%1,          Jeanette%Atencio%xref no email%1,          Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,               Yu%Zuo%NULL%1,               Srilakshmi%Yalavarthi%NULL%1,               Kelsey%Gockman%NULL%1,               Melanie%Zuo%NULL%1,               Jacqueline A%Madison%NULL%1,               Christopher%Blair%NULL%1,               Wrenn%Woodward%NULL%1,               Sean P%Lezak%NULL%1,               Njira L%Lugogo%NULL%1,               Robert J%Woods%NULL%1,               Christian%Lood%NULL%1,               Jason S%Knight%NULL%2,               Jason S%Knight%NULL%0,               Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                 Raef A.%Fadel%NULL%1,                 Kelly M.%Malette%NULL%1,                 Charles%Hammond%NULL%1,                 Hafsa%Abdulla%NULL%1,                 Abigail%Entz%NULL%1,                 Zachary%Demertzis%NULL%1,                 Zachary%Hanna%NULL%1,                 Andrew%Failla%NULL%1,                 Carina%Dagher%NULL%0,                 Zohra%Chaudhry%NULL%2,                 Amit%Vahia%NULL%2,                 Odaliz%Abreu Lanfranco%NULL%1,                 Mayur%Ramesh%NULL%1,                 Marcus J.%Zervos%NULL%1,                 George%Alangaden%NULL%2,                 Joseph%Miller%NULL%2,                 Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,          Daniel%Mu\u00f1oz%xref no email%1,          Alberto%Fica%xref no email%1,          Ignacio%Delama%xref no email%1,          Ignacia%Alvarez%xref no email%1,          Maritza%Navarrete%xref no email%1,          Eileen%Blackburn%xref no email%1,          Pamela%Garrido%xref no email%1,          Ricardo%Wenger%xref no email%1,          Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2298,7 +2616,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>377</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2356,7 +2674,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -2385,7 +2703,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -2414,7 +2732,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -2443,7 +2761,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>381</v>
+        <v>487</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -2472,7 +2790,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>382</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -2501,7 +2819,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>383</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2530,7 +2848,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -2559,7 +2877,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>491</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -2588,7 +2906,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>386</v>
+        <v>492</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -2617,7 +2935,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -2646,7 +2964,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -2704,7 +3022,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -2733,7 +3051,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -2762,7 +3080,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>391</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2791,7 +3109,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>392</v>
+        <v>498</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -2820,7 +3138,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -2849,7 +3167,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -2878,7 +3196,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2907,7 +3225,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -2936,7 +3254,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -2965,7 +3283,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -2994,7 +3312,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3023,7 +3341,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>400</v>
+        <v>506</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -3052,7 +3370,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>401</v>
+        <v>507</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -3081,7 +3399,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -3110,7 +3428,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>509</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -3139,7 +3457,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -3168,7 +3486,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>511</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3197,7 +3515,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>406</v>
+        <v>512</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -3226,7 +3544,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>407</v>
+        <v>513</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -3255,7 +3573,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -3284,7 +3602,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -3342,7 +3660,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>516</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3371,7 +3689,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>411</v>
+        <v>517</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -3400,7 +3718,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>412</v>
+        <v>518</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3429,7 +3747,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>413</v>
+        <v>519</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3458,7 +3776,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -3487,7 +3805,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -3516,7 +3834,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -3545,7 +3863,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -3603,7 +3921,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3632,7 +3950,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -3661,7 +3979,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -3690,7 +4008,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -3719,7 +4037,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>422</v>
+        <v>528</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -3748,7 +4066,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -3777,7 +4095,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -3806,7 +4124,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -3835,7 +4153,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -3864,7 +4182,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>426</v>
+        <v>532</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -3893,7 +4211,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -3922,7 +4240,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>428</v>
+        <v>534</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -3951,7 +4269,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="589">
   <si>
     <t>Doi</t>
   </si>
@@ -2217,6 +2217,165 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,          Daniel%Mu\u00f1oz%xref no email%1,          Alberto%Fica%xref no email%1,          Ignacio%Delama%xref no email%1,          Ignacia%Alvarez%xref no email%1,          Maritza%Navarrete%xref no email%1,          Eileen%Blackburn%xref no email%1,          Pamela%Garrido%xref no email%1,          Ricardo%Wenger%xref no email%1,          Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                   J.% Jiang%null%1,                   X.% Xu%null%1,                   Y.% Hu%null%2,                   Y.% Hu%null%0,                   Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                  Chenchen%Qian%NULL%1,                  Zhibing%Luo%NULL%1,                  Qiang%Li%liqressh@hotmail.com%0,                  Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                  Chunlin%Cai%NULL%1,                  Jinglei%Zang%NULL%1,                  Jun%Xie%NULL%1,                  Dan%Xu%NULL%0,                  Fang%Zheng%NULL%0,                  Tao%Zhan%NULL%1,                  Kang%Huang%NULL%1,                  Yikai%Wang%NULL%1,                  Xiao%Wang%NULL%1,                  Zhe-Yu%Hu%NULL%1,                  Yapeng%Deng%NULL%1,                  Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                  Naofumi%Bunya%NULL%1,                  Tomoyuki%Endo%NULL%1,                  Yuji%Fujino%NULL%1,                  Kensuke%Fujita%NULL%1,                  Kenji%Fujizuka%NULL%1,                  Yoshihiro%Hagiwara%NULL%1,                  Jun%Hamaguchi%NULL%1,                  Yoshitaka%Hara%NULL%1,                  Eiji%Hashiba%NULL%1,                  Satoru%Hashimoto%NULL%1,                  Noriyuki%Hattori%NULL%1,                  Kota%Hoshino%NULL%1,                  Shinichi%Ijuin%NULL%1,                  Takanari%Ikeyama%NULL%1,                  Shingo%Ichiba%NULL%1,                  Wataru%Iwanaga%NULL%1,                  Yoshiaki%Iwashita%NULL%1,                  Masafumi%Kanamoto%NULL%1,                  Hitoshi%Kaneko%NULL%1,                  Kaneyuki%Kawamae%NULL%1,                  Toru%Kotani%NULL%1,                  Yasuaki%Koyama%NULL%1,                  Keibun%Liu%NULL%1,                  Tomohiko%Masuno%NULL%1,                  Naoto%Morimura%NULL%1,                  Tomoyuki%Nakamura%NULL%1,                  Masaki%Nakane%NULL%1,                  Michitaka%Nasu%NULL%1,                  Osamu%Nishida%NULL%1,                  Masaji%Nishimura%NULL%1,                  Kanae%Ochiai%NULL%1,                  Takayuki%Ogura%NULL%1,                  Shinichiro%Ohshimo%NULL%1,                  Keisuke%Oyama%NULL%1,                  Junichi%Sasaki%NULL%1,                  Ryutaro%Seo%NULL%1,                  Takeshi%Shimazu%NULL%1,                  Nobuaki%Shime%NULL%4,                  Keiki%Shimizu%NULL%1,                  Hiroyuki%Suzuki%NULL%1,                  Shuhei%Takauji%NULL%1,                  Shinhiro%Takeda%NULL%1,                  Ichiro%Takeuchi%NULL%2,                  Mumon%Takita%NULL%1,                  Hayato%Taniguchi%NULL%1,                  Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                  Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                  Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                  Yi Xin%Tong%NULL%3,                  Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                  Hong%Chen%NULL%0,                  Zhen%Li%NULL%2,                  Bo%Wang%NULL%0,                  Zhong-Wei%Zhang%NULL%1,                  Wei-Min%Li%NULL%0,                  Zong-An%Liang%NULL%0,                  Jin%Tang%NULL%1,                  Jian%Wang%NULL%1,                  Rui%Shi%NULL%1,                  Xiao-Dong%Jin%NULL%1,                  Yan%Kang%NULL%0,                  Pei-Fang%Wei%NULL%8,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                   S. F.% Mahmood%null%1,                   K.% Habib%null%1,                   I.% Khanum%null%1,                   B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                  Chaisith%Sivakorn%NULL%1,                  Tanuwong%Viarasilpa%NULL%1,                  Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                  Mu%Qin%qinmuae@163.com%1,                  Yuli%Cai%NULL%1,                  Tao%Liu%NULL%0,                  Bo%Shen%NULL%1,                  Fan%Yang%NULL%2,                  Sheng%Cao%NULL%1,                  Xu%Liu%NULL%2,                  Xu%Liu%NULL%0,                  Yaozu%Xiang%NULL%1,                  Qinyan%Zhao%NULL%1,                  He%Huang%huanghe1977@whu.edu.cn%0,                  Bo%Yang%yybb112@whu.edu.cn%0,                  Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                  Win%Kulvichit%NULL%1,                  Sunchai%Payungporn%NULL%1,                  Trairak%Pisitkun%NULL%1,                  Ariya%Chindamporn%NULL%1,                  Sadudee%Peerapornratana%NULL%1,                  Prapaporn%Pisitkun%NULL%1,                  Suwalak%Chitcharoen%NULL%1,                  Vorthon%Sawaswong%NULL%1,                  Navaporn%Worasilchai%NULL%1,                  Sarinya%Kampunya%NULL%1,                  Opass%Putcharoen%NULL%1,                  Thammasak%Thawitsri%NULL%1,                  Nophol%Leelayuwatanakul%NULL%1,                  Napplika%Kongpolprom%NULL%1,                  Vorakamol%Phoophiboon%NULL%1,                  Thitiwat%Sriprasart%NULL%1,                  Rujipat%Samransamruajkit%NULL%1,                  Somkanya%Tungsanga%NULL%1,                  Kanitha%Tiankanon%NULL%1,                  Nuttha%Lumlertgul%NULL%1,                  Asada%Leelahavanichkul%NULL%1,                  Tueboon%Sriphojanart%NULL%1,                  Terapong%Tantawichien%NULL%1,                  Usa%Thisyakorn%NULL%1,                  Chintana%Chirathaworn%NULL%1,                  Kearkiat%Praditpornsilpa%NULL%1,                  Kriang%Tungsanga%NULL%1,                  Somchai%Eiam-Ong%NULL%1,                  Visith%Sitprija%NULL%1,                  John A.%Kellum%NULL%1,                  Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                  Min%Pan%NULL%3,                  Xiumei%Zhang%NULL%3,                  Mingfeng%Han%fyhmf@163.com%0,                  Xiaoyun%Fan%13956988552@126.com%3,                  Fengde%Zhao%NULL%3,                  Manli%Miao%NULL%3,                  Jing%Xu%NULL%0,                  Minglong%Guan%NULL%3,                  Xia%Deng%NULL%3,                  Xu%Chen%NULL%4,                  Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                  Chunli%Tang%NULL%0,                  Ruchong%Chen%NULL%1,                  Honglian%Ruan%NULL%1,                  Wenhua%Liang%NULL%0,                  Weijie%Guan%NULL%0,                  Ling%Sang%NULL%0,                  Ruidi%Tang%NULL%1,                  Nanshan%Zhong%NULL%0,                  Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,           Shuhan%Cai%xref no email%1,           Yun%Luo%xref no email%1,           Fangfang%Zhu%xref no email%1,           Ming%Hu%xref no email%1,           Yan%Zhao%xref no email%1,           Ruiqiang%Zheng%xref no email%1,           Xuyan%Li%xref no email%1,           Bo%Hu%xref no email%0,           Zhiyong%Peng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%5,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%5,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%5,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%5,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%5,                  Shangwen%Pan%NULL%5,                  Xiaojing%Zou%NULL%7,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                  Shanyan%Zhang%NULL%2,                  Xiaoli%Zhang%NULL%1,                  Huan%Cai%NULL%2,                  Jueqing%Gu%NULL%2,                  Jiangshan%Lian%NULL%2,                  Yingfeng%Lu%NULL%2,                  Hongyu%Jia%NULL%2,                  Jianhua%Hu%NULL%2,                  Ciliang%Jin%NULL%2,                  Guodong%Yu%NULL%2,                  Yimin%Zhang%NULL%2,                  Jifang%Sheng%NULL%4,                  Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,           Sean Wei Xiang%Ong%xref no email%0,           Shirin%Kalimuddin%xref no email%0,           Jenny G.%Low%xref no email%0,           Seow Yen%Tan%xref no email%0,           Jiashen%Loh%xref no email%0,           Oon-Tek%Ng%xref no email%0,           Kalisvar%Marimuthu%xref no email%0,           Li Wei%Ang%xref no email%0,           Tze Minn%Mak%xref no email%0,           Sok Kiang%Lau%xref no email%0,           Danielle E.%Anderson%xref no email%0,           Kian Sing%Chan%xref no email%0,           Thean Yen%Tan%xref no email%0,           Tong Yong%Ng%xref no email%0,           Lin%Cui%xref no email%0,           Zubaidah%Said%xref no email%0,           Lalitha%Kurupatham%xref no email%0,           Mark I-Cheng%Chen%xref no email%0,           Monica%Chan%xref no email%0,           Shawn%Vasoo%xref no email%0,           Lin-Fa%Wang%xref no email%0,           Boon Huan%Tan%xref no email%0,           Raymond Tzer Pin%Lin%xref no email%0,           Vernon Jian Ming%Lee%xref no email%0,           Yee-Sin%Leo%xref no email%0,           David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                  Dan%Xu%NULL%0,                  Shouzhi%Fu%NULL%0,                  Jun%Zhang%NULL%0,                  Xiaobo%Yang%NULL%0,                  Liang%Xu%NULL%0,                  Jiqian%Xu%NULL%0,                  Yongran%Wu%NULL%0,                  Chaolin%Huang%NULL%0,                  Yaqi%Ouyang%NULL%0,                  Luyu%Yang%NULL%0,                  Minghao%Fang%NULL%0,                  Hongwen%Xiao%NULL%0,                  Jing%Ma%NULL%0,                  Wei%Zhu%NULL%0,                  Song%Hu%NULL%0,                  Quan%Hu%NULL%0,                  Daoyin%Ding%NULL%0,                  Ming%Hu%NULL%0,                  Guochao%Zhu%NULL%0,                  Weijiang%Xu%NULL%0,                  Jun%Guo%NULL%0,                  Jinglong%Xu%NULL%0,                  Haitao%Yuan%NULL%0,                  Bin%Zhang%NULL%0,                  Zhui%Yu%yuzhui@whu.edu.cn%0,                  Dechang%Chen%icudechangchen@163.com%0,                  Shiying%Yuan%yuan_shiying@163.com%0,                  You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%3,                  Hao-Yu%Gao%NULL%1,                  Zi-Yi%Feng%NULL%1,                  Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                  Li-jun%Sun%NULL%1,                  Mi%Xu%NULL%1,                  Jian%Pan%NULL%1,                  Yun-tao%Zhang%NULL%1,                  Xue-ling%Fang%NULL%1,                  Qiang%Fang%NULL%2,                  Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                  Ziqiang%Du%NULL%1,                  Yanfang%Zhu%NULL%1,                  Wenfeng%Li%NULL%1,                  Hongjun%Miao%NULL%1,                  Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                  Sarah%Al-Youha%sarahalyouha@gmail.com%1,                  Mohammad H.%Jamal%NULL%1,                  Mohannad%Al-Haddad%NULL%1,                  Ali%Al-Muhaini%NULL%1,                  Fahad%Al-Ghimlas%NULL%1,                  Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                  Mina%Akbari Rad%NULL%1,                  Robert%Bergquist%NULL%1,                  Abolghasem%Allahyari%NULL%1,                  Kamila%Hashemzadeh%NULL%1,                  Nasrin%Milani%NULL%1,                  Mahdi%Gholian-Aval%NULL%1,                  Fariba%Rezaeitalab%NULL%1,                  Mohammad Jafar%Sadeghi Quchani%NULL%1,                  Zahra%Nahbandani%NULL%1,                  Mandana%Khodashahi%NULL%1,                  Zahra%Javid%NULL%1,                  Mahnaz%Mozdourian%NULL%1,                  Mohammad Ali%Yaghoubi%NULL%1,                  Zahra%Mozaheb%NULL%1,                  Mohsen%Seddigh-Shamsi%NULL%1,                  Mohammad%Moeini Nodeh%NULL%1,                  Shima%Nabavi%NULL%1,                  Hooman%Mosannen Mozaffari%NULL%1,                  Mohammadreza%Farzanehfar%NULL%1,                  Zahra%Lotfi%NULL%1,                  Alireza%Shariati%NULL%1,                  Shekoofe%Bonakdaran%NULL%1,                  Zahra%Rezaieyazdi%NULL%1,                  Zahra%Mirfeizi%NULL%1,                  Maryam%Miri%NULL%1,                  Reza%Bassiri%NULL%1,                  Sajjad%Ataei Azimi%NULL%1,                  Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                  Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                  Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                  Ibrahim%Al-Zakwani%NULL%1,                  Hamed%Al Naamani%NULL%1,                  Sultan%Al Lawati%NULL%1,                  Nenad%Pandak%NULL%1,                  Muna Ba%Omar%NULL%1,                  Maher%Al Bahrani%NULL%1,                  Zakaryia AL%Bulushi%NULL%1,                  Huda%Al Khalili%NULL%1,                  Issa%Al Salmi%NULL%1,                  Ruwaida%Al Ismaili%NULL%1,                  Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                  Zohre%Khodamoradi%NULL%1,                  Amirhossein%Erfani%NULL%1,                  Hamidreza%Hosseinpour%NULL%1,                  Keivan%Ranjbar%NULL%1,                  Yasaman%Emami%NULL%1,                  Alireza%Mirahmadizadeh%NULL%1,                  Mehrzad%Lotfi%NULL%1,                  Babak%Shirazi Yeganeh%NULL%1,                  Abolfazl%Dorrani Nejad%NULL%1,                  Abdolrasool%Hemmati%NULL%1,                  Mostafa%Ebrahimi%NULL%1,                  Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                  Annachiara%Ferrari%NULL%2,                  Annachiara%Ferrari%NULL%0,                  Francesco%Fontana%NULL%1,                  Giacomo%Mori%NULL%1,                  Riccardo%Magistroni%NULL%1,                  Marianna%Meschiari%NULL%1,                  Erica%Franceschini%NULL%1,                  Marianna%Menozzi%NULL%1,                  Gianluca%Cuomo%NULL%1,                  Gabriella%Orlando%NULL%1,                  Antonella%Santoro%NULL%1,                  Margherita%Digaetano%NULL%1,                  Cinzia%Puzzolante%NULL%1,                  Federica%Carli%NULL%1,                  Andrea%Bedini%NULL%1,                  Jovana%Milic%NULL%1,                  Irene%Coloretti%NULL%1,                  Paolo%Raggi%NULL%1,                  Cristina%Mussini%NULL%1,                  Massimo%Girardis%NULL%1,                  Gianni%Cappelli%NULL%1,                  Giovanni%Guaraldi%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                  Silvia%Bettini%NULL%2,                  Silvia%Bettini%NULL%0,                  Roberto%Fabris%NULL%1,                  Roberto%Serra%NULL%2,                  Chiara%Dal Pra%NULL%1,                  Pietro%Maffei%NULL%1,                  Marco%Rossato%NULL%1,                  Paola%Fioretto%NULL%0,                  Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                  Marco%Roncador%NULL%2,                  Marco%Roncador%NULL%0,                  Andrea%Saporito%NULL%1,                  Maira%Biggiogero%NULL%1,                  Andrea%Glotta%NULL%1,                  Pier Andrea%Maida%NULL%1,                  Patrizia%Urso%NULL%1,                  Giovanni%Bona%NULL%1,                  Christian%Garzoni%NULL%1,                  Romano%Mauri%NULL%1,                  Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                  Anna Lisa%Ridolfo%NULL%4,                  Laura%Milazzo%NULL%2,                  Letizia%Oreni%NULL%4,                  Dario%Bernacchia%NULL%4,                  Matteo%Siano%NULL%4,                  Cecilia%Bonazzetti%NULL%2,                  Alice%Covizzi%NULL%2,                  Marco%Schiuma%NULL%2,                  Matteo%Passerini%NULL%2,                  Marco%Piscaglia%NULL%2,                  Massimo%Coen%NULL%2,                  Guido%Gubertini%NULL%2,                  Giuliano%Rizzardini%NULL%4,                  Chiara%Cogliati%NULL%2,                  Anna Maria%Brambilla%NULL%2,                  Riccardo%Colombo%NULL%2,                  Antonio%Castelli%NULL%2,                  Roberto%Rech%NULL%2,                  Agostino%Riva%NULL%2,                  Alessandro%Torre%NULL%2,                  Luca%Meroni%NULL%2,                  Stefano%Rusconi%NULL%4,                  Spinello%Antinori%NULL%4,                  Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                 Cabrini%Luca%coreGivesNoEmail%4,                 Castelli%Antonio%coreGivesNoEmail%4,                 Cecconi%Maurizio%coreGivesNoEmail%4,                 Cereda%Danilo%coreGivesNoEmail%4,                 Coluccello%Antonio%coreGivesNoEmail%4,                 Foti%Giuseppe%coreGivesNoEmail%4,                 Fumagalli%Roberto%coreGivesNoEmail%4,                 Grasselli%Giacomo%coreGivesNoEmail%4,                 Iotti%Giorgio%coreGivesNoEmail%4,                 Latronico%Nicola%coreGivesNoEmail%4,                 Lorini%Luca%coreGivesNoEmail%4,                 Merler%Stefano%coreGivesNoEmail%4,                 Natalini%Giuseppe%coreGivesNoEmail%4,                 Pesenti%Antonio%coreGivesNoEmail%4,                 Piatti%Alessandra%coreGivesNoEmail%4,                 Ranieri%Marco Vito%coreGivesNoEmail%4,                 Scandroglio%Anna Mara%coreGivesNoEmail%4,                 Storti%Enrico%coreGivesNoEmail%4,                 Zanella%Alberto%coreGivesNoEmail%4,                 Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                  Lara%Gianesello%gianesello.lara@libero.it%1,                  Maddalena%Pazzi%NULL%2,                  Maddalena%Pazzi%NULL%0,                  Caterina%Stera%NULL%1,                  Tommaso%Meconi%NULL%1,                  Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                  Andrea%Dalbeni%NULL%2,                  Andrea%Dalbeni%NULL%0,                  Elia%Vettore%NULL%2,                  Elia%Vettore%NULL%0,                  Devis%Benfaremo%NULL%1,                  Massimo%Mattioli%NULL%1,                  Carmine G.%Gambino%NULL%1,                  Viviana%Framba%NULL%2,                  Viviana%Framba%NULL%0,                  Lorenzo%Cerruti%NULL%1,                  Anna%Mantovani%NULL%1,                  Andrea%Martini%NULL%1,                  Michele M.%Luchetti%NULL%1,                  Roberto%Serra%NULL%0,                  Annamaria%Cattelan%NULL%1,                  Roberto%Vettor%NULL%0,                  Paolo%Angeli%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                  Matthaios%Papadimitriou-Olivgeris%NULL%2,                  Matthaios%Papadimitriou-Olivgeris%NULL%0,                  Raphaël%Burger%NULL%1,                  Marie-Annick%Le Pogam%NULL%1,                  Tapio%Niemi%NULL%2,                  Tapio%Niemi%NULL%0,                  Paraskevas%Filippidis%NULL%1,                  Jonathan%Tschopp%NULL%1,                  Florian%Desgranges%NULL%1,                  Benjamin%Viala%NULL%1,                  Eleftheria%Kampouri%NULL%1,                  Laurence%Rochat%NULL%2,                  Laurence%Rochat%NULL%0,                  David%Haefliger%NULL%1,                  Mehdi%Belkoniene%NULL%1,                  Carlos%Fidalgo%NULL%1,                  Antonios%Kritikos%NULL%1,                  Katia%Jaton%NULL%1,                  Laurence%Senn%NULL%1,                  Pierre-Alexandre%Bart%NULL%1,                  Jean-Luc%Pagani%NULL%2,                  Jean-Luc%Pagani%NULL%0,                  Oriol%Manuel%NULL%1,                  Loïc%Lhopitallier%NULL%1,                  Chiara%Lazzeri%NULL%2,                  Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                  Ashwin%Subramaniam%NULL%2,                  Ashwin%Subramaniam%NULL%0,                  Mallikarjuna%Ponnapa Reddy%NULL%2,                  Mallikarjuna%Ponnapa Reddy%NULL%0,                  Gabriel%Blecher%NULL%1,                  Umesh%Kadam%NULL%2,                  Umesh%Kadam%NULL%0,                  Afsana%Afroz%NULL%1,                  Baki%Billah%NULL%1,                  Sushma%Ashwin%NULL%1,                  Mark%Kubicki%NULL%1,                  Federico%Bilotta%NULL%1,                  J. Randall%Curtis%NULL%2,                  J. Randall%Curtis%NULL%0,                  Francesca%Rubulotta%NULL%2,                  Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                 Aggarwal%Saurabh%coreGivesNoEmail%3,                 Garcia-Telles%Nelson%coreGivesNoEmail%3,                 Henry%Brandon Michael%coreGivesNoEmail%3,                 Lavie%Carl%coreGivesNoEmail%3,                 Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,           Eric%Yim%xref no email%0,           Lindy%Klaff%xref no email%0,           Sharukh%Lokhandwala%xref no email%0,           Francis X.%Riedo%xref no email%0,           Maria%Chong%xref no email%0,           Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                  Samuel L%Bruce%NULL%2,                  Cody L%Slater%NULL%2,                  Jonathan R%Tiao%NULL%2,                  Matthew R%Baldwin%NULL%3,                  R Graham%Barr%NULL%2,                  Bernard P%Chang%NULL%2,                  Katherine H%Chau%NULL%2,                  Justin J%Choi%NULL%2,                  Nicholas%Gavin%NULL%2,                  Parag%Goyal%NULL%2,                  Angela M%Mills%NULL%2,                  Ashmi A%Patel%NULL%2,                  Marie-Laure S%Romney%NULL%2,                  Monika M%Safford%NULL%2,                  Neil W%Schluger%NULL%2,                  Soumitra%Sengupta%NULL%2,                  Magdalena E%Sobieszczyk%NULL%2,                  Jason E%Zucker%NULL%2,                  Paul A%Asadourian%NULL%2,                  Fletcher M%Bell%NULL%2,                  Rebekah%Boyd%NULL%2,                  Matthew F%Cohen%NULL%2,                  MacAlistair I%Colquhoun%NULL%2,                  Lucy A%Colville%NULL%2,                  Joseph H%de Jonge%NULL%2,                  Lyle B%Dershowitz%NULL%2,                  Shirin A%Dey%NULL%2,                  Katherine A%Eiseman%NULL%2,                  Zachary P%Girvin%NULL%2,                  Daniella T%Goni%NULL%2,                  Amro A%Harb%NULL%2,                  Nicholas%Herzik%NULL%2,                  Sarah%Householder%NULL%2,                  Lara E%Karaaslan%NULL%2,                  Heather%Lee%NULL%2,                  Evan%Lieberman%NULL%2,                  Andrew%Ling%NULL%2,                  Ree%Lu%NULL%2,                  Arthur Y%Shou%NULL%2,                  Alexander C%Sisti%NULL%2,                  Zachary E%Snow%NULL%2,                  Colin P%Sperring%NULL%2,                  Yuqing%Xiong%NULL%2,                  Henry W%Zhou%NULL%2,                  Karthik%Natarajan%NULL%2,                  George%Hripcsak%NULL%2,                  Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                  Mark%Caridi-Scheible%NULL%3,                  James M.%Blum%NULL%2,                  Chad%Robichaux%NULL%2,                  Colleen%Kraft%NULL%2,                  Jesse T.%Jacob%NULL%2,                  Craig S.%Jabaley%NULL%2,                  David%Carpenter%NULL%2,                  Roberta%Kaplow%NULL%2,                  Alfonso C.%Hernandez-Romieu%NULL%2,                  Max W.%Adelman%NULL%2,                  Greg S.%Martin%NULL%2,                  Craig M.%Coopersmith%NULL%2,                  David J.%Murphy%NULL%2,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                  Bijan J.%Ghassemieh%NULL%0,                  Michelle%Nichols%NULL%0,                  Richard%Kim%NULL%0,                  Keith R.%Jerome%NULL%0,                  Arun K.%Nalla%NULL%0,                  Alexander L.%Greninger%NULL%0,                  Sudhakar%Pipavath%NULL%0,                  Mark M.%Wurfel%NULL%0,                  Laura%Evans%NULL%0,                  Patricia A.%Kritek%NULL%0,                  T. Eoin%West%NULL%0,                  Andrew%Luks%NULL%0,                  Anthony%Gerbino%NULL%0,                  Chris R.%Dale%NULL%0,                  Jason D.%Goldman%NULL%0,                  Shane%O’Mahony%NULL%0,                  Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                  Denise J%McCulloch%NULL%0,                  Denise J%McCulloch%NULL%0,                  Vidya%Atluri%NULL%0,                  Michela%Blain%NULL%0,                  Sarah A%McGuffin%NULL%0,                  Arun K%Nalla%NULL%0,                  Meei-Li%Huang%NULL%0,                  Alex L%Greninger%NULL%0,                  Keith R%Jerome%NULL%0,                  Seth A%Cohen%NULL%0,                  Santiago%Neme%NULL%0,                  Margaret L%Green%NULL%0,                  Helen Y%Chu%NULL%0,                  H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                  Joelle I.%Rosser%NULL%0,                  Orlando%Quintero%NULL%0,                  Jake%Scott%NULL%0,                  Aruna%Subramanian%NULL%0,                  Mohammad%Gumma%NULL%0,                  Angela%Rogers%NULL%0,                  Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                  Jacob%Fiksel%NULL%2,                  Jacob%Fiksel%NULL%0,                  John%Muschelli%NULL%2,                  John%Muschelli%NULL%0,                  Matthew L.%Robinson%NULL%2,                  Matthew L.%Robinson%NULL%0,                  Masoud%Rouhizadeh%NULL%2,                  Masoud%Rouhizadeh%NULL%0,                  Jamie%Perin%NULL%2,                  Jamie%Perin%NULL%0,                  Grant%Schumock%NULL%2,                  Grant%Schumock%NULL%0,                  Paul%Nagy%NULL%2,                  Paul%Nagy%NULL%0,                  Josh H.%Gray%NULL%2,                  Josh H.%Gray%NULL%0,                  Harsha%Malapati%NULL%2,                  Harsha%Malapati%NULL%0,                  Mariam%Ghobadi-Krueger%NULL%2,                  Mariam%Ghobadi-Krueger%NULL%0,                  Timothy M.%Niessen%NULL%1,                  Bo Soo%Kim%NULL%1,                  Peter M.%Hill%NULL%1,                  M. Shafeeq%Ahmed%NULL%1,                  Eric D.%Dobkin%NULL%1,                  Renee%Blanding%NULL%1,                  Jennifer%Abele%NULL%1,                  Bonnie%Woods%NULL%1,                  Kenneth%Harkness%NULL%1,                  David R.%Thiemann%NULL%1,                  Mary G.%Bowring%NULL%1,                  Aalok B.%Shah%NULL%2,                  Aalok B.%Shah%NULL%0,                  Mei-Cheng%Wang%NULL%1,                  Karen%Bandeen-Roche%NULL%1,                  Antony%Rosen%NULL%1,                  Scott L.%Zeger%NULL%2,                  Scott L.%Zeger%NULL%0,                  Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                  Justin J.%Choi%NULL%0,                  Laura C.%Pinheiro%NULL%0,                  Edward J.%Schenck%NULL%0,                  Ruijun%Chen%NULL%0,                  Assem%Jabri%NULL%0,                  Michael J.%Satlin%NULL%0,                  Thomas R.%Campion%NULL%0,                  Musarrat%Nahid%NULL%0,                  Joanna B.%Ringel%NULL%0,                  Katherine L.%Hoffman%NULL%0,                  Mark N.%Alshak%NULL%0,                  Han A.%Li%NULL%0,                  Graham T.%Wehmeyer%NULL%0,                  Graham T.%Wehmeyer%NULL%0,                  Mangala%Rajan%NULL%0,                  Evgeniya%Reshetnyak%NULL%0,                  Nathaniel%Hupert%NULL%0,                  Evelyn M.%Horn%NULL%0,                  Fernando J.%Martinez%NULL%0,                  Roy M.%Gulick%NULL%0,                  Monika M.%Safford%NULL%0,                  Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                  Simon A%Jones%NULL%0,                  Jie%Yang%NULL%0,                  Harish%Rajagopalan%NULL%0,                  Luke%O’Donnell%NULL%0,                  Yelena%Chernyak%NULL%0,                  Katie A%Tobin%NULL%0,                  Robert J%Cerfolio%NULL%0,                  Fritz%Francois%NULL%0,                  Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                  Anatoly%Mitrokhin%NULL%2,                  Anatoly%Mitrokhin%NULL%0,                  Ajai%Rajabalan%NULL%1,                  Christian%Benjamin%NULL%1,                  Sushma%Raviralla%NULL%1,                  Vishnu R%Mani%vishnu.mani@duke.edu%2,                  Vishnu R%Mani%vishnu.mani@duke.edu%0,                  Aleksandr%Kalabin%NULL%2,                  Aleksandr%Kalabin%NULL%0,                  Sebastian C%Valdivieso%NULL%2,                  Sebastian C%Valdivieso%NULL%0,                  Max%Murray-Ramcharan%NULL%2,                  Max%Murray-Ramcharan%NULL%0,                  Brian%Donaldson%NULL%2,                  Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                   Nicholas A.%Fergusson%null%2,                   Elisa%Lloyd-Smith%null%2,                   Andrew%Wormsbecker%null%2,                   Denise%Foster%null%2,                   Andrei%Karpov%null%2,                   Sarah%Crowe%null%2,                   Greg%Haljan%null%2,                   Dean R.%Chittock%null%2,                   Hussein D.%Kanji%null%2,                   Mypinder S.%Sekhon%null%2,                   Donald E.G.%Griesdale%null%2,                 Anish R.%Mitra%null%1,                 Nicholas A.%Fergusson%null%1,                 Elisa%Lloyd-Smith%null%1,                 Andrew%Wormsbecker%null%1,                 Denise%Foster%null%1,                 Andrei%Karpov%null%1,                 Sarah%Crowe%null%1,                 Greg%Haljan%null%1,                 Dean R.%Chittock%null%1,                 Hussein D.%Kanji%null%1,                 Mypinder S.%Sekhon%null%1,                 Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                  Damianos G.%Kokkinidis%NULL%1,                  Weijia%Li%NULL%1,                  Dimitrios%Karamanis%NULL%1,                  Jennifer%Ognibene%NULL%1,                  Shitij%Arora%NULL%1,                  William N.%Southern%NULL%1,                  Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                  Jesus D.%Gonzalez-Lugo%NULL%1,                  Shafia%Rahman%NULL%1,                  Mohammad%Barouqa%NULL%1,                  James%Szymanski%NULL%1,                  Kenji%Ikemura%NULL%1,                  Yungtai%Lo%NULL%1,                  Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%4,                 Chelico%J.D.%coreGivesNoEmail%4,                 Cohen%S.L.%coreGivesNoEmail%4,                 Cookingham%J.%coreGivesNoEmail%4,                 Coppa%K.%coreGivesNoEmail%4,                 Crawford%J.M.%coreGivesNoEmail%4,                 Davidson%K.W.%coreGivesNoEmail%4,                 Diefenbach%M.A.%coreGivesNoEmail%4,                 Dominello%A.J.%coreGivesNoEmail%4,                 Duer-Hefele%J.%coreGivesNoEmail%4,                 Falzon%L.%coreGivesNoEmail%4,                 Gitlin%J.%coreGivesNoEmail%4,                 Hajizadeh%N.%coreGivesNoEmail%4,                 Harvin%T.G.%coreGivesNoEmail%4,                 Hirsch%J.S.%coreGivesNoEmail%4,                 Hirschwerk%D.A.%coreGivesNoEmail%4,                 Kim%E.J.%coreGivesNoEmail%4,                 Kozel%Z.M.%coreGivesNoEmail%4,                 Marrast%L.M.%coreGivesNoEmail%4,                 McGinn%T.%coreGivesNoEmail%4,                 Mogavero%J.N.%coreGivesNoEmail%4,                 Narasimhan%M.%coreGivesNoEmail%4,                 Osorio%G.A.%coreGivesNoEmail%4,                 Qiu%M.%coreGivesNoEmail%4,                 Richardson%S.%coreGivesNoEmail%4,                 Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                  Viet-Thi%Tran%NULL%4,                  Viet-Thi%Tran%NULL%0,                  Mathilde%Roumier%NULL%2,                  Amélie%Chabrol%NULL%2,                  Romain%Paule%NULL%2,                  Constance%Guillaud%NULL%2,                  Elena%Fois%NULL%2,                  Raphael%Lepeule%NULL%2,                  Tali-Anne%Szwebel%NULL%2,                  François-Xavier%Lescure%NULL%2,                  Frédéric%Schlemmer%NULL%2,                  Marie%Matignon%NULL%2,                  Mehdi%Khellaf%NULL%2,                  Etienne%Crickx%NULL%2,                  Benjamin%Terrier%NULL%2,                  Caroline%Morbieu%NULL%2,                  Paul%Legendre%NULL%2,                  Julien%Dang%NULL%2,                  Yoland%Schoindre%NULL%2,                  Jean-Michel%Pawlotsky%NULL%2,                  Marc%Michel%NULL%2,                  Elodie%Perrodeau%NULL%2,                  Nicolas%Carlier%NULL%2,                  Nicolas%Roche%NULL%2,                  Victoire%de Lastours%NULL%2,                  Clément%Ourghanlian%NULL%2,                  Solen%Kerneis%NULL%2,                  Philippe%Ménager%NULL%2,                  Luc%Mouthon%NULL%2,                  Etienne%Audureau%NULL%2,                  Philippe%Ravaud%NULL%2,                  Bertrand%Godeau%NULL%2,                  Sébastien%Gallien%NULL%2,                  Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,           Abu Baker%Sheikh%xref no email%1,           Shubhra%Upadhyay%xref no email%1,           Jeanette%Atencio%xref no email%1,           Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                Yu%Zuo%NULL%1,                Srilakshmi%Yalavarthi%NULL%1,                Kelsey%Gockman%NULL%1,                Melanie%Zuo%NULL%1,                Jacqueline A%Madison%NULL%1,                Christopher%Blair%NULL%1,                Wrenn%Woodward%NULL%1,                Sean P%Lezak%NULL%1,                Njira L%Lugogo%NULL%1,                Robert J%Woods%NULL%1,                Christian%Lood%NULL%1,                Jason S%Knight%NULL%2,                Jason S%Knight%NULL%0,                Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                  Raef A.%Fadel%NULL%1,                  Kelly M.%Malette%NULL%1,                  Charles%Hammond%NULL%1,                  Hafsa%Abdulla%NULL%1,                  Abigail%Entz%NULL%1,                  Zachary%Demertzis%NULL%1,                  Zachary%Hanna%NULL%1,                  Andrew%Failla%NULL%1,                  Carina%Dagher%NULL%0,                  Zohra%Chaudhry%NULL%2,                  Amit%Vahia%NULL%2,                  Odaliz%Abreu Lanfranco%NULL%1,                  Mayur%Ramesh%NULL%1,                  Marcus J.%Zervos%NULL%1,                  George%Alangaden%NULL%2,                  Joseph%Miller%NULL%2,                  Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,           Daniel%Mu\u00f1oz%xref no email%1,           Alberto%Fica%xref no email%1,           Ignacio%Delama%xref no email%1,           Ignacia%Alvarez%xref no email%1,           Maritza%Navarrete%xref no email%1,           Eileen%Blackburn%xref no email%1,           Pamela%Garrido%xref no email%1,           Ricardo%Wenger%xref no email%1,           Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2775,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2674,7 +2833,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -2703,7 +2862,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -2732,7 +2891,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -2761,7 +2920,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -2790,7 +2949,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -2819,7 +2978,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2848,7 +3007,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -2877,7 +3036,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -2906,7 +3065,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -2935,7 +3094,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -2964,7 +3123,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -3022,7 +3181,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -3051,7 +3210,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -3080,7 +3239,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3109,7 +3268,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -3138,7 +3297,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -3167,7 +3326,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3196,7 +3355,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3225,7 +3384,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -3254,7 +3413,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -3283,7 +3442,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3312,7 +3471,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3341,7 +3500,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -3370,7 +3529,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -3399,7 +3558,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -3428,7 +3587,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -3457,7 +3616,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -3486,7 +3645,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3515,7 +3674,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -3544,7 +3703,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>513</v>
+        <v>566</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -3573,7 +3732,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -3602,7 +3761,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>515</v>
+        <v>568</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -3660,7 +3819,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3689,7 +3848,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -3718,7 +3877,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3747,7 +3906,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>519</v>
+        <v>572</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3776,7 +3935,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -3805,7 +3964,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -3834,7 +3993,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -3863,7 +4022,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -3921,7 +4080,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3950,7 +4109,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -3979,7 +4138,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -4008,7 +4167,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -4037,7 +4196,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -4066,7 +4225,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -4095,7 +4254,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>529</v>
+        <v>582</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4124,7 +4283,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -4153,7 +4312,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -4182,7 +4341,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -4211,7 +4370,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -4240,7 +4399,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -4269,7 +4428,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="650">
   <si>
     <t>Doi</t>
   </si>
@@ -2376,6 +2376,189 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,           Daniel%Mu\u00f1oz%xref no email%1,           Alberto%Fica%xref no email%1,           Ignacio%Delama%xref no email%1,           Ignacia%Alvarez%xref no email%1,           Maritza%Navarrete%xref no email%1,           Eileen%Blackburn%xref no email%1,           Pamela%Garrido%xref no email%1,           Ricardo%Wenger%xref no email%1,           Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                    J.% Jiang%null%1,                    X.% Xu%null%1,                    Y.% Hu%null%2,                    Y.% Hu%null%0,                    Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                   Chenchen%Qian%NULL%1,                   Zhibing%Luo%NULL%1,                   Qiang%Li%liqressh@hotmail.com%0,                   Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                   Chunlin%Cai%NULL%1,                   Jinglei%Zang%NULL%1,                   Jun%Xie%NULL%1,                   Dan%Xu%NULL%0,                   Fang%Zheng%NULL%0,                   Tao%Zhan%NULL%1,                   Kang%Huang%NULL%1,                   Yikai%Wang%NULL%1,                   Xiao%Wang%NULL%1,                   Zhe-Yu%Hu%NULL%1,                   Yapeng%Deng%NULL%1,                   Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                   Naofumi%Bunya%NULL%1,                   Tomoyuki%Endo%NULL%1,                   Yuji%Fujino%NULL%1,                   Kensuke%Fujita%NULL%1,                   Kenji%Fujizuka%NULL%1,                   Yoshihiro%Hagiwara%NULL%1,                   Jun%Hamaguchi%NULL%1,                   Yoshitaka%Hara%NULL%1,                   Eiji%Hashiba%NULL%1,                   Satoru%Hashimoto%NULL%1,                   Noriyuki%Hattori%NULL%1,                   Kota%Hoshino%NULL%1,                   Shinichi%Ijuin%NULL%1,                   Takanari%Ikeyama%NULL%1,                   Shingo%Ichiba%NULL%1,                   Wataru%Iwanaga%NULL%1,                   Yoshiaki%Iwashita%NULL%1,                   Masafumi%Kanamoto%NULL%1,                   Hitoshi%Kaneko%NULL%1,                   Kaneyuki%Kawamae%NULL%1,                   Toru%Kotani%NULL%1,                   Yasuaki%Koyama%NULL%1,                   Keibun%Liu%NULL%1,                   Tomohiko%Masuno%NULL%1,                   Naoto%Morimura%NULL%1,                   Tomoyuki%Nakamura%NULL%1,                   Masaki%Nakane%NULL%1,                   Michitaka%Nasu%NULL%1,                   Osamu%Nishida%NULL%1,                   Masaji%Nishimura%NULL%1,                   Kanae%Ochiai%NULL%1,                   Takayuki%Ogura%NULL%1,                   Shinichiro%Ohshimo%NULL%1,                   Keisuke%Oyama%NULL%1,                   Junichi%Sasaki%NULL%1,                   Ryutaro%Seo%NULL%1,                   Takeshi%Shimazu%NULL%1,                   Nobuaki%Shime%NULL%4,                   Keiki%Shimizu%NULL%1,                   Hiroyuki%Suzuki%NULL%1,                   Shuhei%Takauji%NULL%1,                   Shinhiro%Takeda%NULL%1,                   Ichiro%Takeuchi%NULL%2,                   Mumon%Takita%NULL%1,                   Hayato%Taniguchi%NULL%1,                   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                   Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                   Yi Xin%Tong%NULL%3,                   Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                   Hong%Chen%NULL%0,                   Zhen%Li%NULL%2,                   Bo%Wang%NULL%0,                   Zhong-Wei%Zhang%NULL%1,                   Wei-Min%Li%NULL%0,                   Zong-An%Liang%NULL%0,                   Jin%Tang%NULL%1,                   Jian%Wang%NULL%1,                   Rui%Shi%NULL%1,                   Xiao-Dong%Jin%NULL%1,                   Yan%Kang%NULL%0,                   Pei-Fang%Wei%NULL%8,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                    S. F.% Mahmood%null%1,                    K.% Habib%null%1,                    I.% Khanum%null%1,                    B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                   Chaisith%Sivakorn%NULL%1,                   Tanuwong%Viarasilpa%NULL%1,                   Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                   Mu%Qin%qinmuae@163.com%1,                   Yuli%Cai%NULL%1,                   Tao%Liu%NULL%0,                   Bo%Shen%NULL%1,                   Fan%Yang%NULL%2,                   Sheng%Cao%NULL%1,                   Xu%Liu%NULL%2,                   Xu%Liu%NULL%0,                   Yaozu%Xiang%NULL%1,                   Qinyan%Zhao%NULL%1,                   He%Huang%huanghe1977@whu.edu.cn%0,                   Bo%Yang%yybb112@whu.edu.cn%0,                   Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                   Win%Kulvichit%NULL%1,                   Sunchai%Payungporn%NULL%1,                   Trairak%Pisitkun%NULL%1,                   Ariya%Chindamporn%NULL%1,                   Sadudee%Peerapornratana%NULL%1,                   Prapaporn%Pisitkun%NULL%1,                   Suwalak%Chitcharoen%NULL%1,                   Vorthon%Sawaswong%NULL%1,                   Navaporn%Worasilchai%NULL%1,                   Sarinya%Kampunya%NULL%1,                   Opass%Putcharoen%NULL%1,                   Thammasak%Thawitsri%NULL%1,                   Nophol%Leelayuwatanakul%NULL%1,                   Napplika%Kongpolprom%NULL%1,                   Vorakamol%Phoophiboon%NULL%1,                   Thitiwat%Sriprasart%NULL%1,                   Rujipat%Samransamruajkit%NULL%1,                   Somkanya%Tungsanga%NULL%1,                   Kanitha%Tiankanon%NULL%1,                   Nuttha%Lumlertgul%NULL%1,                   Asada%Leelahavanichkul%NULL%1,                   Tueboon%Sriphojanart%NULL%1,                   Terapong%Tantawichien%NULL%1,                   Usa%Thisyakorn%NULL%1,                   Chintana%Chirathaworn%NULL%1,                   Kearkiat%Praditpornsilpa%NULL%1,                   Kriang%Tungsanga%NULL%1,                   Somchai%Eiam-Ong%NULL%1,                   Visith%Sitprija%NULL%1,                   John A.%Kellum%NULL%1,                   Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                   Min%Pan%NULL%3,                   Xiumei%Zhang%NULL%3,                   Mingfeng%Han%fyhmf@163.com%5,                   Xiaoyun%Fan%13956988552@126.com%3,                   Fengde%Zhao%NULL%3,                   Manli%Miao%NULL%3,                   Jing%Xu%NULL%0,                   Minglong%Guan%NULL%3,                   Xia%Deng%NULL%3,                   Xu%Chen%NULL%4,                   Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                   Chunli%Tang%NULL%0,                   Ruchong%Chen%NULL%1,                   Honglian%Ruan%NULL%1,                   Wenhua%Liang%NULL%0,                   Weijie%Guan%NULL%0,                   Ling%Sang%NULL%0,                   Ruidi%Tang%NULL%1,                   Nanshan%Zhong%NULL%0,                   Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,            Shuhan%Cai%xref no email%1,            Yun%Luo%xref no email%1,            Fangfang%Zhu%xref no email%1,            Ming%Hu%xref no email%1,            Yan%Zhao%xref no email%1,            Ruiqiang%Zheng%xref no email%1,            Xuyan%Li%xref no email%1,            Bo%Hu%xref no email%0,            Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%5,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%5,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%5,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%5,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%5,                   Shangwen%Pan%NULL%5,                   Xiaojing%Zou%NULL%7,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                   Shanyan%Zhang%NULL%2,                   Xiaoli%Zhang%NULL%1,                   Huan%Cai%NULL%2,                   Jueqing%Gu%NULL%2,                   Jiangshan%Lian%NULL%2,                   Yingfeng%Lu%NULL%2,                   Hongyu%Jia%NULL%2,                   Jianhua%Hu%NULL%2,                   Ciliang%Jin%NULL%2,                   Guodong%Yu%NULL%2,                   Yimin%Zhang%NULL%2,                   Jifang%Sheng%NULL%4,                   Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,            Sean Wei Xiang%Ong%xref no email%0,            Shirin%Kalimuddin%xref no email%0,            Jenny G.%Low%xref no email%0,            Seow Yen%Tan%xref no email%0,            Jiashen%Loh%xref no email%0,            Oon-Tek%Ng%xref no email%0,            Kalisvar%Marimuthu%xref no email%0,            Li Wei%Ang%xref no email%0,            Tze Minn%Mak%xref no email%0,            Sok Kiang%Lau%xref no email%0,            Danielle E.%Anderson%xref no email%0,            Kian Sing%Chan%xref no email%0,            Thean Yen%Tan%xref no email%0,            Tong Yong%Ng%xref no email%0,            Lin%Cui%xref no email%0,            Zubaidah%Said%xref no email%0,            Lalitha%Kurupatham%xref no email%0,            Mark I-Cheng%Chen%xref no email%0,            Monica%Chan%xref no email%0,            Shawn%Vasoo%xref no email%0,            Lin-Fa%Wang%xref no email%0,            Boon Huan%Tan%xref no email%0,            Raymond Tzer Pin%Lin%xref no email%0,            Vernon Jian Ming%Lee%xref no email%0,            Yee-Sin%Leo%xref no email%0,            David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                   Dan%Xu%NULL%0,                   Shouzhi%Fu%NULL%0,                   Jun%Zhang%NULL%0,                   Xiaobo%Yang%NULL%0,                   Liang%Xu%NULL%0,                   Jiqian%Xu%NULL%0,                   Yongran%Wu%NULL%0,                   Chaolin%Huang%NULL%0,                   Yaqi%Ouyang%NULL%0,                   Luyu%Yang%NULL%0,                   Minghao%Fang%NULL%0,                   Hongwen%Xiao%NULL%0,                   Jing%Ma%NULL%0,                   Wei%Zhu%NULL%0,                   Song%Hu%NULL%0,                   Quan%Hu%NULL%0,                   Daoyin%Ding%NULL%0,                   Ming%Hu%NULL%0,                   Guochao%Zhu%NULL%0,                   Weijiang%Xu%NULL%0,                   Jun%Guo%NULL%0,                   Jinglong%Xu%NULL%0,                   Haitao%Yuan%NULL%0,                   Bin%Zhang%NULL%0,                   Zhui%Yu%yuzhui@whu.edu.cn%0,                   Dechang%Chen%icudechangchen@163.com%0,                   Shiying%Yuan%yuan_shiying@163.com%0,                   You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                   Hao-Yu%Gao%NULL%1,                   Zi-Yi%Feng%NULL%1,                   Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                   Li-jun%Sun%NULL%1,                   Mi%Xu%NULL%1,                   Jian%Pan%NULL%1,                   Yun-tao%Zhang%NULL%1,                   Xue-ling%Fang%NULL%1,                   Qiang%Fang%NULL%2,                   Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                   Ziqiang%Du%NULL%1,                   Yanfang%Zhu%NULL%1,                   Wenfeng%Li%NULL%1,                   Hongjun%Miao%NULL%1,                   Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                   Sarah%Al-Youha%sarahalyouha@gmail.com%1,                   Mohammad H.%Jamal%NULL%1,                   Mohannad%Al-Haddad%NULL%1,                   Ali%Al-Muhaini%NULL%1,                   Fahad%Al-Ghimlas%NULL%1,                   Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                   Mina%Akbari Rad%NULL%1,                   Robert%Bergquist%NULL%1,                   Abolghasem%Allahyari%NULL%1,                   Kamila%Hashemzadeh%NULL%1,                   Nasrin%Milani%NULL%1,                   Mahdi%Gholian-Aval%NULL%1,                   Fariba%Rezaeitalab%NULL%1,                   Mohammad Jafar%Sadeghi Quchani%NULL%1,                   Zahra%Nahbandani%NULL%1,                   Mandana%Khodashahi%NULL%1,                   Zahra%Javid%NULL%1,                   Mahnaz%Mozdourian%NULL%1,                   Mohammad Ali%Yaghoubi%NULL%1,                   Zahra%Mozaheb%NULL%1,                   Mohsen%Seddigh-Shamsi%NULL%1,                   Mohammad%Moeini Nodeh%NULL%1,                   Shima%Nabavi%NULL%1,                   Hooman%Mosannen Mozaffari%NULL%1,                   Mohammadreza%Farzanehfar%NULL%1,                   Zahra%Lotfi%NULL%1,                   Alireza%Shariati%NULL%1,                   Shekoofe%Bonakdaran%NULL%1,                   Zahra%Rezaieyazdi%NULL%1,                   Zahra%Mirfeizi%NULL%1,                   Maryam%Miri%NULL%1,                   Reza%Bassiri%NULL%1,                   Sajjad%Ataei Azimi%NULL%1,                   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                   Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                   Ibrahim%Al-Zakwani%NULL%1,                   Hamed%Al Naamani%NULL%1,                   Sultan%Al Lawati%NULL%1,                   Nenad%Pandak%NULL%1,                   Muna Ba%Omar%NULL%1,                   Maher%Al Bahrani%NULL%1,                   Zakaryia AL%Bulushi%NULL%1,                   Huda%Al Khalili%NULL%1,                   Issa%Al Salmi%NULL%1,                   Ruwaida%Al Ismaili%NULL%1,                   Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                   Zohre%Khodamoradi%NULL%1,                   Amirhossein%Erfani%NULL%1,                   Hamidreza%Hosseinpour%NULL%1,                   Keivan%Ranjbar%NULL%1,                   Yasaman%Emami%NULL%1,                   Alireza%Mirahmadizadeh%NULL%1,                   Mehrzad%Lotfi%NULL%1,                   Babak%Shirazi Yeganeh%NULL%1,                   Abolfazl%Dorrani Nejad%NULL%1,                   Abdolrasool%Hemmati%NULL%1,                   Mostafa%Ebrahimi%NULL%1,                   Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                   Annachiara%Ferrari%NULL%2,                   Annachiara%Ferrari%NULL%0,                   Francesco%Fontana%NULL%1,                   Giacomo%Mori%NULL%1,                   Riccardo%Magistroni%NULL%1,                   Marianna%Meschiari%NULL%1,                   Erica%Franceschini%NULL%1,                   Marianna%Menozzi%NULL%1,                   Gianluca%Cuomo%NULL%1,                   Gabriella%Orlando%NULL%1,                   Antonella%Santoro%NULL%1,                   Margherita%Digaetano%NULL%1,                   Cinzia%Puzzolante%NULL%1,                   Federica%Carli%NULL%1,                   Andrea%Bedini%NULL%1,                   Jovana%Milic%NULL%1,                   Irene%Coloretti%NULL%1,                   Paolo%Raggi%NULL%1,                   Cristina%Mussini%NULL%1,                   Massimo%Girardis%NULL%1,                   Gianni%Cappelli%NULL%1,                   Giovanni%Guaraldi%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                   Silvia%Bettini%NULL%2,                   Silvia%Bettini%NULL%0,                   Roberto%Fabris%NULL%1,                   Roberto%Serra%NULL%2,                   Chiara%Dal Pra%NULL%1,                   Pietro%Maffei%NULL%1,                   Marco%Rossato%NULL%1,                   Paola%Fioretto%NULL%0,                   Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                   Marco%Roncador%NULL%2,                   Marco%Roncador%NULL%0,                   Andrea%Saporito%NULL%1,                   Maira%Biggiogero%NULL%1,                   Andrea%Glotta%NULL%1,                   Pier Andrea%Maida%NULL%1,                   Patrizia%Urso%NULL%1,                   Giovanni%Bona%NULL%1,                   Christian%Garzoni%NULL%1,                   Romano%Mauri%NULL%1,                   Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                   Anna Lisa%Ridolfo%NULL%4,                   Laura%Milazzo%NULL%2,                   Letizia%Oreni%NULL%4,                   Dario%Bernacchia%NULL%4,                   Matteo%Siano%NULL%4,                   Cecilia%Bonazzetti%NULL%2,                   Alice%Covizzi%NULL%2,                   Marco%Schiuma%NULL%2,                   Matteo%Passerini%NULL%2,                   Marco%Piscaglia%NULL%2,                   Massimo%Coen%NULL%2,                   Guido%Gubertini%NULL%2,                   Giuliano%Rizzardini%NULL%4,                   Chiara%Cogliati%NULL%2,                   Anna Maria%Brambilla%NULL%2,                   Riccardo%Colombo%NULL%2,                   Antonio%Castelli%NULL%2,                   Roberto%Rech%NULL%2,                   Agostino%Riva%NULL%2,                   Alessandro%Torre%NULL%2,                   Luca%Meroni%NULL%2,                   Stefano%Rusconi%NULL%4,                   Spinello%Antinori%NULL%4,                   Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                  Cabrini%Luca%coreGivesNoEmail%4,                  Castelli%Antonio%coreGivesNoEmail%4,                  Cecconi%Maurizio%coreGivesNoEmail%4,                  Cereda%Danilo%coreGivesNoEmail%4,                  Coluccello%Antonio%coreGivesNoEmail%4,                  Foti%Giuseppe%coreGivesNoEmail%4,                  Fumagalli%Roberto%coreGivesNoEmail%4,                  Grasselli%Giacomo%coreGivesNoEmail%4,                  Iotti%Giorgio%coreGivesNoEmail%4,                  Latronico%Nicola%coreGivesNoEmail%4,                  Lorini%Luca%coreGivesNoEmail%4,                  Merler%Stefano%coreGivesNoEmail%4,                  Natalini%Giuseppe%coreGivesNoEmail%4,                  Pesenti%Antonio%coreGivesNoEmail%4,                  Piatti%Alessandra%coreGivesNoEmail%4,                  Ranieri%Marco Vito%coreGivesNoEmail%4,                  Scandroglio%Anna Mara%coreGivesNoEmail%4,                  Storti%Enrico%coreGivesNoEmail%4,                  Zanella%Alberto%coreGivesNoEmail%4,                  Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                   Lara%Gianesello%gianesello.lara@libero.it%1,                   Maddalena%Pazzi%NULL%2,                   Maddalena%Pazzi%NULL%0,                   Caterina%Stera%NULL%1,                   Tommaso%Meconi%NULL%1,                   Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                   Andrea%Dalbeni%NULL%2,                   Andrea%Dalbeni%NULL%0,                   Elia%Vettore%NULL%2,                   Elia%Vettore%NULL%0,                   Devis%Benfaremo%NULL%1,                   Massimo%Mattioli%NULL%1,                   Carmine G.%Gambino%NULL%1,                   Viviana%Framba%NULL%2,                   Viviana%Framba%NULL%0,                   Lorenzo%Cerruti%NULL%1,                   Anna%Mantovani%NULL%1,                   Andrea%Martini%NULL%1,                   Michele M.%Luchetti%NULL%1,                   Roberto%Serra%NULL%0,                   Annamaria%Cattelan%NULL%1,                   Roberto%Vettor%NULL%0,                   Paolo%Angeli%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                   Matthaios%Papadimitriou-Olivgeris%NULL%2,                   Matthaios%Papadimitriou-Olivgeris%NULL%0,                   Raphaël%Burger%NULL%1,                   Marie-Annick%Le Pogam%NULL%1,                   Tapio%Niemi%NULL%2,                   Tapio%Niemi%NULL%0,                   Paraskevas%Filippidis%NULL%1,                   Jonathan%Tschopp%NULL%1,                   Florian%Desgranges%NULL%1,                   Benjamin%Viala%NULL%1,                   Eleftheria%Kampouri%NULL%1,                   Laurence%Rochat%NULL%2,                   Laurence%Rochat%NULL%0,                   David%Haefliger%NULL%1,                   Mehdi%Belkoniene%NULL%1,                   Carlos%Fidalgo%NULL%1,                   Antonios%Kritikos%NULL%1,                   Katia%Jaton%NULL%1,                   Laurence%Senn%NULL%1,                   Pierre-Alexandre%Bart%NULL%1,                   Jean-Luc%Pagani%NULL%2,                   Jean-Luc%Pagani%NULL%0,                   Oriol%Manuel%NULL%1,                   Loïc%Lhopitallier%NULL%1,                   Chiara%Lazzeri%NULL%2,                   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                   Ashwin%Subramaniam%NULL%2,                   Ashwin%Subramaniam%NULL%0,                   Mallikarjuna%Ponnapa Reddy%NULL%2,                   Mallikarjuna%Ponnapa Reddy%NULL%0,                   Gabriel%Blecher%NULL%1,                   Umesh%Kadam%NULL%2,                   Umesh%Kadam%NULL%0,                   Afsana%Afroz%NULL%1,                   Baki%Billah%NULL%1,                   Sushma%Ashwin%NULL%1,                   Mark%Kubicki%NULL%1,                   Federico%Bilotta%NULL%1,                   J. Randall%Curtis%NULL%2,                   J. Randall%Curtis%NULL%0,                   Francesca%Rubulotta%NULL%2,                   Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                  Aggarwal%Saurabh%coreGivesNoEmail%3,                  Garcia-Telles%Nelson%coreGivesNoEmail%3,                  Henry%Brandon Michael%coreGivesNoEmail%3,                  Lavie%Carl%coreGivesNoEmail%3,                  Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,            Eric%Yim%xref no email%0,            Lindy%Klaff%xref no email%0,            Sharukh%Lokhandwala%xref no email%0,            Francis X.%Riedo%xref no email%0,            Maria%Chong%xref no email%0,            Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                   Samuel L%Bruce%NULL%2,                   Cody L%Slater%NULL%2,                   Jonathan R%Tiao%NULL%2,                   Matthew R%Baldwin%NULL%3,                   R Graham%Barr%NULL%2,                   Bernard P%Chang%NULL%2,                   Katherine H%Chau%NULL%2,                   Justin J%Choi%NULL%2,                   Nicholas%Gavin%NULL%2,                   Parag%Goyal%NULL%2,                   Angela M%Mills%NULL%2,                   Ashmi A%Patel%NULL%2,                   Marie-Laure S%Romney%NULL%2,                   Monika M%Safford%NULL%2,                   Neil W%Schluger%NULL%2,                   Soumitra%Sengupta%NULL%2,                   Magdalena E%Sobieszczyk%NULL%2,                   Jason E%Zucker%NULL%2,                   Paul A%Asadourian%NULL%2,                   Fletcher M%Bell%NULL%2,                   Rebekah%Boyd%NULL%2,                   Matthew F%Cohen%NULL%2,                   MacAlistair I%Colquhoun%NULL%2,                   Lucy A%Colville%NULL%2,                   Joseph H%de Jonge%NULL%2,                   Lyle B%Dershowitz%NULL%2,                   Shirin A%Dey%NULL%2,                   Katherine A%Eiseman%NULL%2,                   Zachary P%Girvin%NULL%2,                   Daniella T%Goni%NULL%2,                   Amro A%Harb%NULL%2,                   Nicholas%Herzik%NULL%2,                   Sarah%Householder%NULL%2,                   Lara E%Karaaslan%NULL%2,                   Heather%Lee%NULL%2,                   Evan%Lieberman%NULL%2,                   Andrew%Ling%NULL%2,                   Ree%Lu%NULL%2,                   Arthur Y%Shou%NULL%2,                   Alexander C%Sisti%NULL%2,                   Zachary E%Snow%NULL%2,                   Colin P%Sperring%NULL%2,                   Yuqing%Xiong%NULL%2,                   Henry W%Zhou%NULL%2,                   Karthik%Natarajan%NULL%2,                   George%Hripcsak%NULL%2,                   Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                   Mark%Caridi-Scheible%NULL%3,                   James M.%Blum%NULL%2,                   Chad%Robichaux%NULL%2,                   Colleen%Kraft%NULL%2,                   Jesse T.%Jacob%NULL%2,                   Craig S.%Jabaley%NULL%2,                   David%Carpenter%NULL%2,                   Roberta%Kaplow%NULL%2,                   Alfonso C.%Hernandez-Romieu%NULL%2,                   Max W.%Adelman%NULL%2,                   Greg S.%Martin%NULL%2,                   Craig M.%Coopersmith%NULL%2,                   David J.%Murphy%NULL%2,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                   Bijan J.%Ghassemieh%NULL%0,                   Michelle%Nichols%NULL%0,                   Richard%Kim%NULL%0,                   Keith R.%Jerome%NULL%0,                   Arun K.%Nalla%NULL%0,                   Alexander L.%Greninger%NULL%0,                   Sudhakar%Pipavath%NULL%0,                   Mark M.%Wurfel%NULL%0,                   Laura%Evans%NULL%0,                   Patricia A.%Kritek%NULL%0,                   T. Eoin%West%NULL%0,                   Andrew%Luks%NULL%0,                   Anthony%Gerbino%NULL%0,                   Chris R.%Dale%NULL%0,                   Jason D.%Goldman%NULL%0,                   Shane%O’Mahony%NULL%0,                   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                   Denise J%McCulloch%NULL%0,                   Denise J%McCulloch%NULL%0,                   Vidya%Atluri%NULL%0,                   Michela%Blain%NULL%0,                   Sarah A%McGuffin%NULL%0,                   Arun K%Nalla%NULL%0,                   Meei-Li%Huang%NULL%0,                   Alex L%Greninger%NULL%0,                   Keith R%Jerome%NULL%0,                   Seth A%Cohen%NULL%0,                   Santiago%Neme%NULL%0,                   Margaret L%Green%NULL%0,                   Helen Y%Chu%NULL%0,                   H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                   Joelle I.%Rosser%NULL%0,                   Orlando%Quintero%NULL%0,                   Jake%Scott%NULL%0,                   Aruna%Subramanian%NULL%0,                   Mohammad%Gumma%NULL%0,                   Angela%Rogers%NULL%0,                   Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                   Jacob%Fiksel%NULL%2,                   Jacob%Fiksel%NULL%0,                   John%Muschelli%NULL%2,                   John%Muschelli%NULL%0,                   Matthew L.%Robinson%NULL%2,                   Matthew L.%Robinson%NULL%0,                   Masoud%Rouhizadeh%NULL%2,                   Masoud%Rouhizadeh%NULL%0,                   Jamie%Perin%NULL%2,                   Jamie%Perin%NULL%0,                   Grant%Schumock%NULL%2,                   Grant%Schumock%NULL%0,                   Paul%Nagy%NULL%2,                   Paul%Nagy%NULL%0,                   Josh H.%Gray%NULL%2,                   Josh H.%Gray%NULL%0,                   Harsha%Malapati%NULL%2,                   Harsha%Malapati%NULL%0,                   Mariam%Ghobadi-Krueger%NULL%2,                   Mariam%Ghobadi-Krueger%NULL%0,                   Timothy M.%Niessen%NULL%1,                   Bo Soo%Kim%NULL%1,                   Peter M.%Hill%NULL%1,                   M. Shafeeq%Ahmed%NULL%1,                   Eric D.%Dobkin%NULL%1,                   Renee%Blanding%NULL%1,                   Jennifer%Abele%NULL%1,                   Bonnie%Woods%NULL%1,                   Kenneth%Harkness%NULL%1,                   David R.%Thiemann%NULL%1,                   Mary G.%Bowring%NULL%1,                   Aalok B.%Shah%NULL%2,                   Aalok B.%Shah%NULL%0,                   Mei-Cheng%Wang%NULL%1,                   Karen%Bandeen-Roche%NULL%1,                   Antony%Rosen%NULL%1,                   Scott L.%Zeger%NULL%2,                   Scott L.%Zeger%NULL%0,                   Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Clinical Outcomes of Adult Patients Hospitalized with COVID-19 \u2014 Georgia, March 2020"</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0, Karen K.%Wong%xref no email%1, Christine M.%Szablewski%xref no email%1, Priti R.%Patel%xref no email%1, John%Rossow%xref no email%1, Juliana%da Silva%xref no email%1, Pavithra%Natarajan%xref no email%1, Sapna Bamrah%Morris%xref no email%1, Robyn Neblett%Fanfair%xref no email%1, Jessica%Rogers-Brown%xref no email%1, Beau B.%Bruce%xref no email%1, Sean D.%Browning%xref no email%1, Alfonso C.%Hernandez-Romieu%xref no email%0, Nathan W.%Furukawa%xref no email%1, Mohleen%Kang%xref no email%1, Mary E.%Evans%xref no email%1, Nadine%Oosmanally%xref no email%1, Melissa%Tobin-D\u2019Angelo%xref no email%1, Cherie%Drenzek%xref no email%1, David J.%Murphy%xref no email%1, Julie%Hollberg%xref no email%1, James M.%Blum%xref no email%1, Robert%Jansen%xref no email%1, David W.%Wright%xref no email%1, William M.%Sewell%xref no email%1, Jack D.%Owens%xref no email%1, Benjamin%Lefkove%xref no email%1, Frank W.%Brown%xref no email%1, Deron C.%Burton%xref no email%1, Timothy M.%Uyeki%xref no email%1, Stephanie R.%Bialek%xref no email%1, Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                   Justin J.%Choi%NULL%0,                   Laura C.%Pinheiro%NULL%0,                   Edward J.%Schenck%NULL%0,                   Ruijun%Chen%NULL%0,                   Assem%Jabri%NULL%0,                   Michael J.%Satlin%NULL%0,                   Thomas R.%Campion%NULL%0,                   Musarrat%Nahid%NULL%0,                   Joanna B.%Ringel%NULL%0,                   Katherine L.%Hoffman%NULL%0,                   Mark N.%Alshak%NULL%0,                   Han A.%Li%NULL%0,                   Graham T.%Wehmeyer%NULL%0,                   Graham T.%Wehmeyer%NULL%0,                   Mangala%Rajan%NULL%0,                   Evgeniya%Reshetnyak%NULL%0,                   Nathaniel%Hupert%NULL%0,                   Evelyn M.%Horn%NULL%0,                   Fernando J.%Martinez%NULL%0,                   Roy M.%Gulick%NULL%0,                   Monika M.%Safford%NULL%0,                   Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                   Simon A%Jones%NULL%0,                   Jie%Yang%NULL%0,                   Harish%Rajagopalan%NULL%0,                   Luke%O’Donnell%NULL%0,                   Yelena%Chernyak%NULL%0,                   Katie A%Tobin%NULL%0,                   Robert J%Cerfolio%NULL%0,                   Fritz%Francois%NULL%0,                   Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                   Anatoly%Mitrokhin%NULL%2,                   Anatoly%Mitrokhin%NULL%0,                   Ajai%Rajabalan%NULL%1,                   Christian%Benjamin%NULL%1,                   Sushma%Raviralla%NULL%1,                   Vishnu R%Mani%vishnu.mani@duke.edu%2,                   Vishnu R%Mani%vishnu.mani@duke.edu%0,                   Aleksandr%Kalabin%NULL%2,                   Aleksandr%Kalabin%NULL%0,                   Sebastian C%Valdivieso%NULL%2,                   Sebastian C%Valdivieso%NULL%0,                   Max%Murray-Ramcharan%NULL%2,                   Max%Murray-Ramcharan%NULL%0,                   Brian%Donaldson%NULL%2,                   Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                    Nicholas A.%Fergusson%null%2,                    Elisa%Lloyd-Smith%null%2,                    Andrew%Wormsbecker%null%2,                    Denise%Foster%null%2,                    Andrei%Karpov%null%2,                    Sarah%Crowe%null%2,                    Greg%Haljan%null%2,                    Dean R.%Chittock%null%2,                    Hussein D.%Kanji%null%2,                    Mypinder S.%Sekhon%null%2,                    Donald E.G.%Griesdale%null%2,                  Anish R.%Mitra%null%1,                  Nicholas A.%Fergusson%null%1,                  Elisa%Lloyd-Smith%null%1,                  Andrew%Wormsbecker%null%1,                  Denise%Foster%null%1,                  Andrei%Karpov%null%1,                  Sarah%Crowe%null%1,                  Greg%Haljan%null%1,                  Dean R.%Chittock%null%1,                  Hussein D.%Kanji%null%1,                  Mypinder S.%Sekhon%null%1,                  Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                   Damianos G.%Kokkinidis%NULL%1,                   Weijia%Li%NULL%1,                   Dimitrios%Karamanis%NULL%1,                   Jennifer%Ognibene%NULL%1,                   Shitij%Arora%NULL%1,                   William N.%Southern%NULL%1,                   Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                   Jesus D.%Gonzalez-Lugo%NULL%1,                   Shafia%Rahman%NULL%1,                   Mohammad%Barouqa%NULL%1,                   James%Szymanski%NULL%1,                   Kenji%Ikemura%NULL%1,                   Yungtai%Lo%NULL%1,                   Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%4,                  Chelico%J.D.%coreGivesNoEmail%4,                  Cohen%S.L.%coreGivesNoEmail%4,                  Cookingham%J.%coreGivesNoEmail%4,                  Coppa%K.%coreGivesNoEmail%4,                  Crawford%J.M.%coreGivesNoEmail%4,                  Davidson%K.W.%coreGivesNoEmail%4,                  Diefenbach%M.A.%coreGivesNoEmail%4,                  Dominello%A.J.%coreGivesNoEmail%4,                  Duer-Hefele%J.%coreGivesNoEmail%4,                  Falzon%L.%coreGivesNoEmail%4,                  Gitlin%J.%coreGivesNoEmail%4,                  Hajizadeh%N.%coreGivesNoEmail%4,                  Harvin%T.G.%coreGivesNoEmail%4,                  Hirsch%J.S.%coreGivesNoEmail%4,                  Hirschwerk%D.A.%coreGivesNoEmail%4,                  Kim%E.J.%coreGivesNoEmail%4,                  Kozel%Z.M.%coreGivesNoEmail%4,                  Marrast%L.M.%coreGivesNoEmail%4,                  McGinn%T.%coreGivesNoEmail%4,                  Mogavero%J.N.%coreGivesNoEmail%4,                  Narasimhan%M.%coreGivesNoEmail%4,                  Osorio%G.A.%coreGivesNoEmail%4,                  Qiu%M.%coreGivesNoEmail%4,                  Richardson%S.%coreGivesNoEmail%4,                  Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                   Viet-Thi%Tran%NULL%4,                   Viet-Thi%Tran%NULL%0,                   Mathilde%Roumier%NULL%2,                   Amélie%Chabrol%NULL%2,                   Romain%Paule%NULL%2,                   Constance%Guillaud%NULL%2,                   Elena%Fois%NULL%2,                   Raphael%Lepeule%NULL%2,                   Tali-Anne%Szwebel%NULL%2,                   François-Xavier%Lescure%NULL%2,                   Frédéric%Schlemmer%NULL%2,                   Marie%Matignon%NULL%2,                   Mehdi%Khellaf%NULL%2,                   Etienne%Crickx%NULL%2,                   Benjamin%Terrier%NULL%2,                   Caroline%Morbieu%NULL%2,                   Paul%Legendre%NULL%2,                   Julien%Dang%NULL%2,                   Yoland%Schoindre%NULL%2,                   Jean-Michel%Pawlotsky%NULL%2,                   Marc%Michel%NULL%2,                   Elodie%Perrodeau%NULL%2,                   Nicolas%Carlier%NULL%2,                   Nicolas%Roche%NULL%2,                   Victoire%de Lastours%NULL%2,                   Clément%Ourghanlian%NULL%2,                   Solen%Kerneis%NULL%2,                   Philippe%Ménager%NULL%2,                   Luc%Mouthon%NULL%2,                   Etienne%Audureau%NULL%2,                   Philippe%Ravaud%NULL%2,                   Bertrand%Godeau%NULL%2,                   Sébastien%Gallien%NULL%2,                   Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,            Abu Baker%Sheikh%xref no email%1,            Shubhra%Upadhyay%xref no email%1,            Jeanette%Atencio%xref no email%1,            Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                 Yu%Zuo%NULL%1,                 Srilakshmi%Yalavarthi%NULL%1,                 Kelsey%Gockman%NULL%1,                 Melanie%Zuo%NULL%1,                 Jacqueline A%Madison%NULL%1,                 Christopher%Blair%NULL%1,                 Wrenn%Woodward%NULL%1,                 Sean P%Lezak%NULL%1,                 Njira L%Lugogo%NULL%1,                 Robert J%Woods%NULL%1,                 Christian%Lood%NULL%1,                 Jason S%Knight%NULL%2,                 Jason S%Knight%NULL%0,                 Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                   Raef A.%Fadel%NULL%1,                   Kelly M.%Malette%NULL%1,                   Charles%Hammond%NULL%1,                   Hafsa%Abdulla%NULL%1,                   Abigail%Entz%NULL%1,                   Zachary%Demertzis%NULL%1,                   Zachary%Hanna%NULL%1,                   Andrew%Failla%NULL%1,                   Carina%Dagher%NULL%0,                   Zohra%Chaudhry%NULL%2,                   Amit%Vahia%NULL%2,                   Odaliz%Abreu Lanfranco%NULL%1,                   Mayur%Ramesh%NULL%1,                   Marcus J.%Zervos%NULL%1,                   George%Alangaden%NULL%2,                   Joseph%Miller%NULL%2,                   Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,            Daniel%Mu\u00f1oz%xref no email%1,            Alberto%Fica%xref no email%1,            Ignacio%Delama%xref no email%1,            Ignacia%Alvarez%xref no email%1,            Maritza%Navarrete%xref no email%1,            Eileen%Blackburn%xref no email%1,            Pamela%Garrido%xref no email%1,            Ricardo%Wenger%xref no email%1,            Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2775,7 +2958,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2787,7 +2970,7 @@
         <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2833,7 +3016,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -2845,7 +3028,7 @@
         <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2862,7 +3045,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -2874,7 +3057,7 @@
         <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2891,7 +3074,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>539</v>
+        <v>595</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -2903,7 +3086,7 @@
         <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2920,7 +3103,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -2932,7 +3115,7 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2949,7 +3132,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -2961,7 +3144,7 @@
         <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2978,7 +3161,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>542</v>
+        <v>598</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -2990,7 +3173,7 @@
         <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3007,7 +3190,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -3019,7 +3202,7 @@
         <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3036,7 +3219,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -3048,7 +3231,7 @@
         <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3065,7 +3248,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -3077,7 +3260,7 @@
         <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3094,7 +3277,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -3106,7 +3289,7 @@
         <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3123,7 +3306,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -3135,7 +3318,7 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3181,7 +3364,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -3193,7 +3376,7 @@
         <v>252</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3210,7 +3393,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -3222,7 +3405,7 @@
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3239,7 +3422,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3251,7 +3434,7 @@
         <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3268,7 +3451,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -3280,7 +3463,7 @@
         <v>254</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3297,7 +3480,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -3309,7 +3492,7 @@
         <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3326,7 +3509,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3338,7 +3521,7 @@
         <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3355,7 +3538,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3367,7 +3550,7 @@
         <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3384,7 +3567,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -3396,7 +3579,7 @@
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3413,7 +3596,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -3425,7 +3608,7 @@
         <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3442,7 +3625,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3454,7 +3637,7 @@
         <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3471,7 +3654,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3483,7 +3666,7 @@
         <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3500,7 +3683,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -3512,7 +3695,7 @@
         <v>91</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3529,7 +3712,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -3541,7 +3724,7 @@
         <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3558,7 +3741,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -3570,7 +3753,7 @@
         <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3587,7 +3770,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -3599,7 +3782,7 @@
         <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3616,7 +3799,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -3628,7 +3811,7 @@
         <v>172</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3645,7 +3828,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3657,7 +3840,7 @@
         <v>86</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3674,7 +3857,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -3686,7 +3869,7 @@
         <v>86</v>
       </c>
       <c r="I33" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3703,7 +3886,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -3715,7 +3898,7 @@
         <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3732,7 +3915,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -3744,7 +3927,7 @@
         <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3761,7 +3944,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -3773,7 +3956,7 @@
         <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3819,7 +4002,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -3831,7 +4014,7 @@
         <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3848,7 +4031,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -3860,7 +4043,7 @@
         <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3877,7 +4060,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3889,7 +4072,7 @@
         <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3906,7 +4089,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>572</v>
+        <v>630</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3918,7 +4101,7 @@
         <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3935,7 +4118,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -3947,7 +4130,7 @@
         <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3964,7 +4147,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -3976,7 +4159,7 @@
         <v>139</v>
       </c>
       <c r="I43" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3993,7 +4176,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>575</v>
+        <v>633</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -4005,7 +4188,7 @@
         <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -4022,7 +4205,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -4034,7 +4217,7 @@
         <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -4045,22 +4228,22 @@
         <v>43959</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>635</v>
       </c>
       <c r="D46" t="s">
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>636</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>637</v>
       </c>
       <c r="I46" t="s">
         <v>88</v>
@@ -4080,7 +4263,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -4092,7 +4275,7 @@
         <v>86</v>
       </c>
       <c r="I47" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -4109,7 +4292,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -4121,7 +4304,7 @@
         <v>95</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -4138,7 +4321,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -4150,7 +4333,7 @@
         <v>214</v>
       </c>
       <c r="I49" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4167,7 +4350,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>580</v>
+        <v>641</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -4179,7 +4362,7 @@
         <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -4196,7 +4379,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -4208,7 +4391,7 @@
         <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -4225,7 +4408,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -4237,7 +4420,7 @@
         <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -4254,7 +4437,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>582</v>
+        <v>643</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4266,7 +4449,7 @@
         <v>226</v>
       </c>
       <c r="I53" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -4283,7 +4466,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>583</v>
+        <v>644</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -4295,7 +4478,7 @@
         <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4312,7 +4495,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>584</v>
+        <v>645</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -4324,7 +4507,7 @@
         <v>230</v>
       </c>
       <c r="I55" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -4341,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>585</v>
+        <v>646</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -4353,7 +4536,7 @@
         <v>258</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4370,7 +4553,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -4382,7 +4565,7 @@
         <v>248</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4399,7 +4582,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>587</v>
+        <v>648</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -4411,7 +4594,7 @@
         <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4428,7 +4611,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>588</v>
+        <v>649</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>
@@ -4440,7 +4623,7 @@
         <v>260</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="704">
   <si>
     <t>Doi</t>
   </si>
@@ -2559,6 +2559,168 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,            Daniel%Mu\u00f1oz%xref no email%1,            Alberto%Fica%xref no email%1,            Ignacio%Delama%xref no email%1,            Ignacia%Alvarez%xref no email%1,            Maritza%Navarrete%xref no email%1,            Eileen%Blackburn%xref no email%1,            Pamela%Garrido%xref no email%1,            Ricardo%Wenger%xref no email%1,            Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%2,                     J.% Jiang%null%1,                     X.% Xu%null%1,                     Y.% Hu%null%2,                     Y.% Hu%null%0,                     Y. % Zhao%null%1,  C.%Chen%null%0,  J.% Jiang%null%2,  X.% Xu%null%1,  Y.% Hu%null%2,  Y.% Hu%null%0,  Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                    Chenchen%Qian%NULL%1,                    Zhibing%Luo%NULL%1,                    Qiang%Li%liqressh@hotmail.com%0,                    Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                    Chunlin%Cai%NULL%1,                    Jinglei%Zang%NULL%1,                    Jun%Xie%NULL%1,                    Dan%Xu%NULL%0,                    Fang%Zheng%NULL%0,                    Tao%Zhan%NULL%1,                    Kang%Huang%NULL%1,                    Yikai%Wang%NULL%1,                    Xiao%Wang%NULL%1,                    Zhe-Yu%Hu%NULL%1,                    Yapeng%Deng%NULL%1,                    Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                    Naofumi%Bunya%NULL%1,                    Tomoyuki%Endo%NULL%1,                    Yuji%Fujino%NULL%1,                    Kensuke%Fujita%NULL%1,                    Kenji%Fujizuka%NULL%1,                    Yoshihiro%Hagiwara%NULL%1,                    Jun%Hamaguchi%NULL%1,                    Yoshitaka%Hara%NULL%1,                    Eiji%Hashiba%NULL%1,                    Satoru%Hashimoto%NULL%1,                    Noriyuki%Hattori%NULL%1,                    Kota%Hoshino%NULL%1,                    Shinichi%Ijuin%NULL%1,                    Takanari%Ikeyama%NULL%1,                    Shingo%Ichiba%NULL%1,                    Wataru%Iwanaga%NULL%1,                    Yoshiaki%Iwashita%NULL%1,                    Masafumi%Kanamoto%NULL%1,                    Hitoshi%Kaneko%NULL%1,                    Kaneyuki%Kawamae%NULL%1,                    Toru%Kotani%NULL%1,                    Yasuaki%Koyama%NULL%1,                    Keibun%Liu%NULL%1,                    Tomohiko%Masuno%NULL%1,                    Naoto%Morimura%NULL%1,                    Tomoyuki%Nakamura%NULL%1,                    Masaki%Nakane%NULL%1,                    Michitaka%Nasu%NULL%1,                    Osamu%Nishida%NULL%1,                    Masaji%Nishimura%NULL%1,                    Kanae%Ochiai%NULL%1,                    Takayuki%Ogura%NULL%1,                    Shinichiro%Ohshimo%NULL%1,                    Keisuke%Oyama%NULL%1,                    Junichi%Sasaki%NULL%1,                    Ryutaro%Seo%NULL%1,                    Takeshi%Shimazu%NULL%1,                    Nobuaki%Shime%NULL%4,                    Keiki%Shimizu%NULL%1,                    Hiroyuki%Suzuki%NULL%1,                    Shuhei%Takauji%NULL%1,                    Shinhiro%Takeda%NULL%1,                    Ichiro%Takeuchi%NULL%2,                    Mumon%Takita%NULL%1,                    Hayato%Taniguchi%NULL%1,                    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                    Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                    Yi Xin%Tong%NULL%3,                    Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                    Hong%Chen%NULL%0,                    Zhen%Li%NULL%2,                    Bo%Wang%NULL%0,                    Zhong-Wei%Zhang%NULL%1,                    Wei-Min%Li%NULL%0,                    Zong-An%Liang%NULL%0,                    Jin%Tang%NULL%1,                    Jian%Wang%NULL%1,                    Rui%Shi%NULL%1,                    Xiao-Dong%Jin%NULL%1,                    Yan%Kang%NULL%0,                    Pei-Fang%Wei%NULL%8,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%2,                     S. F.% Mahmood%null%1,                     K.% Habib%null%1,                     I.% Khanum%null%1,                     B. % Jamil%null%1,  N.%Nasir%null%0,  S. F.% Mahmood%null%1,  K.% Habib%null%1,  I.% Khanum%null%1,  B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                    Chaisith%Sivakorn%NULL%1,                    Tanuwong%Viarasilpa%NULL%1,                    Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                    Mu%Qin%qinmuae@163.com%1,                    Yuli%Cai%NULL%1,                    Tao%Liu%NULL%0,                    Bo%Shen%NULL%1,                    Fan%Yang%NULL%2,                    Sheng%Cao%NULL%1,                    Xu%Liu%NULL%2,                    Xu%Liu%NULL%0,                    Yaozu%Xiang%NULL%1,                    Qinyan%Zhao%NULL%1,                    He%Huang%huanghe1977@whu.edu.cn%0,                    Bo%Yang%yybb112@whu.edu.cn%0,                    Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                    Win%Kulvichit%NULL%1,                    Sunchai%Payungporn%NULL%1,                    Trairak%Pisitkun%NULL%1,                    Ariya%Chindamporn%NULL%1,                    Sadudee%Peerapornratana%NULL%1,                    Prapaporn%Pisitkun%NULL%1,                    Suwalak%Chitcharoen%NULL%1,                    Vorthon%Sawaswong%NULL%1,                    Navaporn%Worasilchai%NULL%1,                    Sarinya%Kampunya%NULL%1,                    Opass%Putcharoen%NULL%1,                    Thammasak%Thawitsri%NULL%1,                    Nophol%Leelayuwatanakul%NULL%1,                    Napplika%Kongpolprom%NULL%1,                    Vorakamol%Phoophiboon%NULL%1,                    Thitiwat%Sriprasart%NULL%1,                    Rujipat%Samransamruajkit%NULL%1,                    Somkanya%Tungsanga%NULL%1,                    Kanitha%Tiankanon%NULL%1,                    Nuttha%Lumlertgul%NULL%1,                    Asada%Leelahavanichkul%NULL%1,                    Tueboon%Sriphojanart%NULL%1,                    Terapong%Tantawichien%NULL%1,                    Usa%Thisyakorn%NULL%1,                    Chintana%Chirathaworn%NULL%1,                    Kearkiat%Praditpornsilpa%NULL%1,                    Kriang%Tungsanga%NULL%1,                    Somchai%Eiam-Ong%NULL%1,                    Visith%Sitprija%NULL%1,                    John A.%Kellum%NULL%1,                    Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                    Min%Pan%NULL%3,                    Xiumei%Zhang%NULL%3,                    Mingfeng%Han%fyhmf@163.com%5,                    Xiaoyun%Fan%13956988552@126.com%3,                    Fengde%Zhao%NULL%3,                    Manli%Miao%NULL%3,                    Jing%Xu%NULL%0,                    Minglong%Guan%NULL%3,                    Xia%Deng%NULL%3,                    Xu%Chen%NULL%4,                    Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                    Chunli%Tang%NULL%0,                    Ruchong%Chen%NULL%1,                    Honglian%Ruan%NULL%1,                    Wenhua%Liang%NULL%0,                    Weijie%Guan%NULL%0,                    Ling%Sang%NULL%0,                    Ruidi%Tang%NULL%1,                    Nanshan%Zhong%NULL%0,                    Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,             Shuhan%Cai%xref no email%1,             Yun%Luo%xref no email%1,             Fangfang%Zhu%xref no email%1,             Ming%Hu%xref no email%1,             Yan%Zhao%xref no email%1,             Ruiqiang%Zheng%xref no email%1,             Xuyan%Li%xref no email%1,             Bo%Hu%xref no email%0,             Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%5,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%5,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%5,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%5,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%5,                    Shangwen%Pan%NULL%5,                    Xiaojing%Zou%NULL%7,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                    Shanyan%Zhang%NULL%2,                    Xiaoli%Zhang%NULL%1,                    Huan%Cai%NULL%2,                    Jueqing%Gu%NULL%2,                    Jiangshan%Lian%NULL%2,                    Yingfeng%Lu%NULL%2,                    Hongyu%Jia%NULL%2,                    Jianhua%Hu%NULL%2,                    Ciliang%Jin%NULL%2,                    Guodong%Yu%NULL%2,                    Yimin%Zhang%NULL%2,                    Jifang%Sheng%NULL%4,                    Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,             Sean Wei Xiang%Ong%xref no email%0,             Shirin%Kalimuddin%xref no email%0,             Jenny G.%Low%xref no email%0,             Seow Yen%Tan%xref no email%0,             Jiashen%Loh%xref no email%0,             Oon-Tek%Ng%xref no email%0,             Kalisvar%Marimuthu%xref no email%0,             Li Wei%Ang%xref no email%0,             Tze Minn%Mak%xref no email%0,             Sok Kiang%Lau%xref no email%0,             Danielle E.%Anderson%xref no email%0,             Kian Sing%Chan%xref no email%0,             Thean Yen%Tan%xref no email%0,             Tong Yong%Ng%xref no email%0,             Lin%Cui%xref no email%0,             Zubaidah%Said%xref no email%0,             Lalitha%Kurupatham%xref no email%0,             Mark I-Cheng%Chen%xref no email%0,             Monica%Chan%xref no email%0,             Shawn%Vasoo%xref no email%0,             Lin-Fa%Wang%xref no email%0,             Boon Huan%Tan%xref no email%0,             Raymond Tzer Pin%Lin%xref no email%0,             Vernon Jian Ming%Lee%xref no email%0,             Yee-Sin%Leo%xref no email%0,             David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                    Dan%Xu%NULL%0,                    Shouzhi%Fu%NULL%0,                    Jun%Zhang%NULL%0,                    Xiaobo%Yang%NULL%0,                    Liang%Xu%NULL%0,                    Jiqian%Xu%NULL%0,                    Yongran%Wu%NULL%0,                    Chaolin%Huang%NULL%0,                    Yaqi%Ouyang%NULL%0,                    Luyu%Yang%NULL%0,                    Minghao%Fang%NULL%0,                    Hongwen%Xiao%NULL%0,                    Jing%Ma%NULL%0,                    Wei%Zhu%NULL%0,                    Song%Hu%NULL%0,                    Quan%Hu%NULL%0,                    Daoyin%Ding%NULL%0,                    Ming%Hu%NULL%0,                    Guochao%Zhu%NULL%0,                    Weijiang%Xu%NULL%0,                    Jun%Guo%NULL%0,                    Jinglong%Xu%NULL%0,                    Haitao%Yuan%NULL%0,                    Bin%Zhang%NULL%0,                    Zhui%Yu%yuzhui@whu.edu.cn%0,                    Dechang%Chen%icudechangchen@163.com%0,                    Shiying%Yuan%yuan_shiying@163.com%0,                    You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                    Hao-Yu%Gao%NULL%1,                    Zi-Yi%Feng%NULL%1,                    Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                    Li-jun%Sun%NULL%1,                    Mi%Xu%NULL%1,                    Jian%Pan%NULL%1,                    Yun-tao%Zhang%NULL%1,                    Xue-ling%Fang%NULL%1,                    Qiang%Fang%NULL%2,                    Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                    Ziqiang%Du%NULL%1,                    Yanfang%Zhu%NULL%1,                    Wenfeng%Li%NULL%1,                    Hongjun%Miao%NULL%1,                    Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                    Sarah%Al-Youha%sarahalyouha@gmail.com%1,                    Mohammad H.%Jamal%NULL%1,                    Mohannad%Al-Haddad%NULL%1,                    Ali%Al-Muhaini%NULL%1,                    Fahad%Al-Ghimlas%NULL%1,                    Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                    Mina%Akbari Rad%NULL%1,                    Robert%Bergquist%NULL%1,                    Abolghasem%Allahyari%NULL%1,                    Kamila%Hashemzadeh%NULL%1,                    Nasrin%Milani%NULL%1,                    Mahdi%Gholian-Aval%NULL%1,                    Fariba%Rezaeitalab%NULL%1,                    Mohammad Jafar%Sadeghi Quchani%NULL%1,                    Zahra%Nahbandani%NULL%1,                    Mandana%Khodashahi%NULL%1,                    Zahra%Javid%NULL%1,                    Mahnaz%Mozdourian%NULL%1,                    Mohammad Ali%Yaghoubi%NULL%1,                    Zahra%Mozaheb%NULL%1,                    Mohsen%Seddigh-Shamsi%NULL%1,                    Mohammad%Moeini Nodeh%NULL%1,                    Shima%Nabavi%NULL%1,                    Hooman%Mosannen Mozaffari%NULL%1,                    Mohammadreza%Farzanehfar%NULL%1,                    Zahra%Lotfi%NULL%1,                    Alireza%Shariati%NULL%1,                    Shekoofe%Bonakdaran%NULL%1,                    Zahra%Rezaieyazdi%NULL%1,                    Zahra%Mirfeizi%NULL%1,                    Maryam%Miri%NULL%1,                    Reza%Bassiri%NULL%1,                    Sajjad%Ataei Azimi%NULL%1,                    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                    Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                    Ibrahim%Al-Zakwani%NULL%1,                    Hamed%Al Naamani%NULL%1,                    Sultan%Al Lawati%NULL%1,                    Nenad%Pandak%NULL%1,                    Muna Ba%Omar%NULL%1,                    Maher%Al Bahrani%NULL%1,                    Zakaryia AL%Bulushi%NULL%1,                    Huda%Al Khalili%NULL%1,                    Issa%Al Salmi%NULL%1,                    Ruwaida%Al Ismaili%NULL%1,                    Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                    Zohre%Khodamoradi%NULL%1,                    Amirhossein%Erfani%NULL%1,                    Hamidreza%Hosseinpour%NULL%1,                    Keivan%Ranjbar%NULL%1,                    Yasaman%Emami%NULL%1,                    Alireza%Mirahmadizadeh%NULL%1,                    Mehrzad%Lotfi%NULL%1,                    Babak%Shirazi Yeganeh%NULL%1,                    Abolfazl%Dorrani Nejad%NULL%1,                    Abdolrasool%Hemmati%NULL%1,                    Mostafa%Ebrahimi%NULL%1,                    Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                    Annachiara%Ferrari%NULL%2,                    Annachiara%Ferrari%NULL%0,                    Francesco%Fontana%NULL%1,                    Giacomo%Mori%NULL%1,                    Riccardo%Magistroni%NULL%1,                    Marianna%Meschiari%NULL%1,                    Erica%Franceschini%NULL%1,                    Marianna%Menozzi%NULL%1,                    Gianluca%Cuomo%NULL%1,                    Gabriella%Orlando%NULL%1,                    Antonella%Santoro%NULL%1,                    Margherita%Digaetano%NULL%1,                    Cinzia%Puzzolante%NULL%1,                    Federica%Carli%NULL%1,                    Andrea%Bedini%NULL%1,                    Jovana%Milic%NULL%1,                    Irene%Coloretti%NULL%1,                    Paolo%Raggi%NULL%1,                    Cristina%Mussini%NULL%1,                    Massimo%Girardis%NULL%1,                    Gianni%Cappelli%NULL%1,                    Giovanni%Guaraldi%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                    Silvia%Bettini%NULL%2,                    Silvia%Bettini%NULL%0,                    Roberto%Fabris%NULL%1,                    Roberto%Serra%NULL%2,                    Chiara%Dal Pra%NULL%1,                    Pietro%Maffei%NULL%1,                    Marco%Rossato%NULL%1,                    Paola%Fioretto%NULL%0,                    Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                    Marco%Roncador%NULL%2,                    Marco%Roncador%NULL%0,                    Andrea%Saporito%NULL%1,                    Maira%Biggiogero%NULL%1,                    Andrea%Glotta%NULL%1,                    Pier Andrea%Maida%NULL%1,                    Patrizia%Urso%NULL%1,                    Giovanni%Bona%NULL%1,                    Christian%Garzoni%NULL%1,                    Romano%Mauri%NULL%1,                    Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                    Anna Lisa%Ridolfo%NULL%4,                    Laura%Milazzo%NULL%2,                    Letizia%Oreni%NULL%4,                    Dario%Bernacchia%NULL%4,                    Matteo%Siano%NULL%4,                    Cecilia%Bonazzetti%NULL%2,                    Alice%Covizzi%NULL%2,                    Marco%Schiuma%NULL%2,                    Matteo%Passerini%NULL%2,                    Marco%Piscaglia%NULL%2,                    Massimo%Coen%NULL%2,                    Guido%Gubertini%NULL%2,                    Giuliano%Rizzardini%NULL%4,                    Chiara%Cogliati%NULL%2,                    Anna Maria%Brambilla%NULL%2,                    Riccardo%Colombo%NULL%2,                    Antonio%Castelli%NULL%2,                    Roberto%Rech%NULL%2,                    Agostino%Riva%NULL%2,                    Alessandro%Torre%NULL%2,                    Luca%Meroni%NULL%2,                    Stefano%Rusconi%NULL%4,                    Spinello%Antinori%NULL%4,                    Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                   Cabrini%Luca%coreGivesNoEmail%4,                   Castelli%Antonio%coreGivesNoEmail%4,                   Cecconi%Maurizio%coreGivesNoEmail%4,                   Cereda%Danilo%coreGivesNoEmail%4,                   Coluccello%Antonio%coreGivesNoEmail%4,                   Foti%Giuseppe%coreGivesNoEmail%4,                   Fumagalli%Roberto%coreGivesNoEmail%4,                   Grasselli%Giacomo%coreGivesNoEmail%4,                   Iotti%Giorgio%coreGivesNoEmail%4,                   Latronico%Nicola%coreGivesNoEmail%4,                   Lorini%Luca%coreGivesNoEmail%4,                   Merler%Stefano%coreGivesNoEmail%4,                   Natalini%Giuseppe%coreGivesNoEmail%4,                   Pesenti%Antonio%coreGivesNoEmail%4,                   Piatti%Alessandra%coreGivesNoEmail%4,                   Ranieri%Marco Vito%coreGivesNoEmail%4,                   Scandroglio%Anna Mara%coreGivesNoEmail%4,                   Storti%Enrico%coreGivesNoEmail%4,                   Zanella%Alberto%coreGivesNoEmail%4,                   Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                    Lara%Gianesello%gianesello.lara@libero.it%1,                    Maddalena%Pazzi%NULL%2,                    Maddalena%Pazzi%NULL%0,                    Caterina%Stera%NULL%1,                    Tommaso%Meconi%NULL%1,                    Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                    Andrea%Dalbeni%NULL%2,                    Andrea%Dalbeni%NULL%0,                    Elia%Vettore%NULL%2,                    Elia%Vettore%NULL%0,                    Devis%Benfaremo%NULL%1,                    Massimo%Mattioli%NULL%1,                    Carmine G.%Gambino%NULL%1,                    Viviana%Framba%NULL%2,                    Viviana%Framba%NULL%0,                    Lorenzo%Cerruti%NULL%1,                    Anna%Mantovani%NULL%1,                    Andrea%Martini%NULL%1,                    Michele M.%Luchetti%NULL%1,                    Roberto%Serra%NULL%0,                    Annamaria%Cattelan%NULL%1,                    Roberto%Vettor%NULL%0,                    Paolo%Angeli%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                    Matthaios%Papadimitriou-Olivgeris%NULL%2,                    Matthaios%Papadimitriou-Olivgeris%NULL%0,                    Raphaël%Burger%NULL%1,                    Marie-Annick%Le Pogam%NULL%1,                    Tapio%Niemi%NULL%2,                    Tapio%Niemi%NULL%0,                    Paraskevas%Filippidis%NULL%1,                    Jonathan%Tschopp%NULL%1,                    Florian%Desgranges%NULL%1,                    Benjamin%Viala%NULL%1,                    Eleftheria%Kampouri%NULL%1,                    Laurence%Rochat%NULL%2,                    Laurence%Rochat%NULL%0,                    David%Haefliger%NULL%1,                    Mehdi%Belkoniene%NULL%1,                    Carlos%Fidalgo%NULL%1,                    Antonios%Kritikos%NULL%1,                    Katia%Jaton%NULL%1,                    Laurence%Senn%NULL%1,                    Pierre-Alexandre%Bart%NULL%1,                    Jean-Luc%Pagani%NULL%2,                    Jean-Luc%Pagani%NULL%0,                    Oriol%Manuel%NULL%1,                    Loïc%Lhopitallier%NULL%1,                    Chiara%Lazzeri%NULL%2,                    Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                    Ashwin%Subramaniam%NULL%2,                    Ashwin%Subramaniam%NULL%0,                    Mallikarjuna%Ponnapa Reddy%NULL%2,                    Mallikarjuna%Ponnapa Reddy%NULL%0,                    Gabriel%Blecher%NULL%1,                    Umesh%Kadam%NULL%2,                    Umesh%Kadam%NULL%0,                    Afsana%Afroz%NULL%1,                    Baki%Billah%NULL%1,                    Sushma%Ashwin%NULL%1,                    Mark%Kubicki%NULL%1,                    Federico%Bilotta%NULL%1,                    J. Randall%Curtis%NULL%2,                    J. Randall%Curtis%NULL%0,                    Francesca%Rubulotta%NULL%2,                    Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                   Aggarwal%Saurabh%coreGivesNoEmail%3,                   Garcia-Telles%Nelson%coreGivesNoEmail%3,                   Henry%Brandon Michael%coreGivesNoEmail%3,                   Lavie%Carl%coreGivesNoEmail%3,                   Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,             Eric%Yim%xref no email%0,             Lindy%Klaff%xref no email%0,             Sharukh%Lokhandwala%xref no email%0,             Francis X.%Riedo%xref no email%0,             Maria%Chong%xref no email%0,             Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                    Samuel L%Bruce%NULL%2,                    Cody L%Slater%NULL%2,                    Jonathan R%Tiao%NULL%2,                    Matthew R%Baldwin%NULL%3,                    R Graham%Barr%NULL%2,                    Bernard P%Chang%NULL%2,                    Katherine H%Chau%NULL%2,                    Justin J%Choi%NULL%2,                    Nicholas%Gavin%NULL%2,                    Parag%Goyal%NULL%2,                    Angela M%Mills%NULL%2,                    Ashmi A%Patel%NULL%2,                    Marie-Laure S%Romney%NULL%2,                    Monika M%Safford%NULL%2,                    Neil W%Schluger%NULL%2,                    Soumitra%Sengupta%NULL%2,                    Magdalena E%Sobieszczyk%NULL%2,                    Jason E%Zucker%NULL%2,                    Paul A%Asadourian%NULL%2,                    Fletcher M%Bell%NULL%2,                    Rebekah%Boyd%NULL%2,                    Matthew F%Cohen%NULL%2,                    MacAlistair I%Colquhoun%NULL%2,                    Lucy A%Colville%NULL%2,                    Joseph H%de Jonge%NULL%2,                    Lyle B%Dershowitz%NULL%2,                    Shirin A%Dey%NULL%2,                    Katherine A%Eiseman%NULL%2,                    Zachary P%Girvin%NULL%2,                    Daniella T%Goni%NULL%2,                    Amro A%Harb%NULL%2,                    Nicholas%Herzik%NULL%2,                    Sarah%Householder%NULL%2,                    Lara E%Karaaslan%NULL%2,                    Heather%Lee%NULL%2,                    Evan%Lieberman%NULL%2,                    Andrew%Ling%NULL%2,                    Ree%Lu%NULL%2,                    Arthur Y%Shou%NULL%2,                    Alexander C%Sisti%NULL%2,                    Zachary E%Snow%NULL%2,                    Colin P%Sperring%NULL%2,                    Yuqing%Xiong%NULL%2,                    Henry W%Zhou%NULL%2,                    Karthik%Natarajan%NULL%2,                    George%Hripcsak%NULL%2,                    Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                    Mark%Caridi-Scheible%NULL%3,                    James M.%Blum%NULL%2,                    Chad%Robichaux%NULL%2,                    Colleen%Kraft%NULL%2,                    Jesse T.%Jacob%NULL%2,                    Craig S.%Jabaley%NULL%2,                    David%Carpenter%NULL%2,                    Roberta%Kaplow%NULL%2,                    Alfonso C.%Hernandez-Romieu%NULL%2,                    Max W.%Adelman%NULL%2,                    Greg S.%Martin%NULL%2,                    Craig M.%Coopersmith%NULL%2,                    David J.%Murphy%NULL%2,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                    Bijan J.%Ghassemieh%NULL%0,                    Michelle%Nichols%NULL%0,                    Richard%Kim%NULL%0,                    Keith R.%Jerome%NULL%0,                    Arun K.%Nalla%NULL%0,                    Alexander L.%Greninger%NULL%0,                    Sudhakar%Pipavath%NULL%0,                    Mark M.%Wurfel%NULL%0,                    Laura%Evans%NULL%0,                    Patricia A.%Kritek%NULL%0,                    T. Eoin%West%NULL%0,                    Andrew%Luks%NULL%0,                    Anthony%Gerbino%NULL%0,                    Chris R.%Dale%NULL%0,                    Jason D.%Goldman%NULL%0,                    Shane%O’Mahony%NULL%0,                    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                    Denise J%McCulloch%NULL%0,                    Denise J%McCulloch%NULL%0,                    Vidya%Atluri%NULL%0,                    Michela%Blain%NULL%0,                    Sarah A%McGuffin%NULL%0,                    Arun K%Nalla%NULL%0,                    Meei-Li%Huang%NULL%0,                    Alex L%Greninger%NULL%0,                    Keith R%Jerome%NULL%0,                    Seth A%Cohen%NULL%0,                    Santiago%Neme%NULL%0,                    Margaret L%Green%NULL%0,                    Helen Y%Chu%NULL%0,                    H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                    Joelle I.%Rosser%NULL%0,                    Orlando%Quintero%NULL%0,                    Jake%Scott%NULL%0,                    Aruna%Subramanian%NULL%0,                    Mohammad%Gumma%NULL%0,                    Angela%Rogers%NULL%0,                    Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                    Jacob%Fiksel%NULL%2,                    Jacob%Fiksel%NULL%0,                    John%Muschelli%NULL%2,                    John%Muschelli%NULL%0,                    Matthew L.%Robinson%NULL%2,                    Matthew L.%Robinson%NULL%0,                    Masoud%Rouhizadeh%NULL%2,                    Masoud%Rouhizadeh%NULL%0,                    Jamie%Perin%NULL%2,                    Jamie%Perin%NULL%0,                    Grant%Schumock%NULL%2,                    Grant%Schumock%NULL%0,                    Paul%Nagy%NULL%2,                    Paul%Nagy%NULL%0,                    Josh H.%Gray%NULL%2,                    Josh H.%Gray%NULL%0,                    Harsha%Malapati%NULL%2,                    Harsha%Malapati%NULL%0,                    Mariam%Ghobadi-Krueger%NULL%2,                    Mariam%Ghobadi-Krueger%NULL%0,                    Timothy M.%Niessen%NULL%1,                    Bo Soo%Kim%NULL%1,                    Peter M.%Hill%NULL%1,                    M. Shafeeq%Ahmed%NULL%1,                    Eric D.%Dobkin%NULL%1,                    Renee%Blanding%NULL%1,                    Jennifer%Abele%NULL%1,                    Bonnie%Woods%NULL%1,                    Kenneth%Harkness%NULL%1,                    David R.%Thiemann%NULL%1,                    Mary G.%Bowring%NULL%1,                    Aalok B.%Shah%NULL%2,                    Aalok B.%Shah%NULL%0,                    Mei-Cheng%Wang%NULL%1,                    Karen%Bandeen-Roche%NULL%1,                    Antony%Rosen%NULL%1,                    Scott L.%Zeger%NULL%2,                    Scott L.%Zeger%NULL%0,                    Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0,  Karen K.%Wong%xref no email%1,  Christine M.%Szablewski%xref no email%1,  Priti R.%Patel%xref no email%1,  John%Rossow%xref no email%1,  Juliana%da Silva%xref no email%1,  Pavithra%Natarajan%xref no email%1,  Sapna Bamrah%Morris%xref no email%1,  Robyn Neblett%Fanfair%xref no email%1,  Jessica%Rogers-Brown%xref no email%1,  Beau B.%Bruce%xref no email%1,  Sean D.%Browning%xref no email%1,  Alfonso C.%Hernandez-Romieu%xref no email%1,  Nathan W.%Furukawa%xref no email%1,  Mohleen%Kang%xref no email%1,  Mary E.%Evans%xref no email%1,  Nadine%Oosmanally%xref no email%1,  Melissa%Tobin-D\u2019Angelo%xref no email%1,  Cherie%Drenzek%xref no email%1,  David J.%Murphy%xref no email%1,  Julie%Hollberg%xref no email%1,  James M.%Blum%xref no email%1,  Robert%Jansen%xref no email%1,  David W.%Wright%xref no email%1,  William M.%Sewell%xref no email%1,  Jack D.%Owens%xref no email%1,  Benjamin%Lefkove%xref no email%1,  Frank W.%Brown%xref no email%1,  Deron C.%Burton%xref no email%1,  Timothy M.%Uyeki%xref no email%1,  Stephanie R.%Bialek%xref no email%1,  Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                    Justin J.%Choi%NULL%0,                    Laura C.%Pinheiro%NULL%0,                    Edward J.%Schenck%NULL%0,                    Ruijun%Chen%NULL%0,                    Assem%Jabri%NULL%0,                    Michael J.%Satlin%NULL%0,                    Thomas R.%Campion%NULL%0,                    Musarrat%Nahid%NULL%0,                    Joanna B.%Ringel%NULL%0,                    Katherine L.%Hoffman%NULL%0,                    Mark N.%Alshak%NULL%0,                    Han A.%Li%NULL%0,                    Graham T.%Wehmeyer%NULL%0,                    Graham T.%Wehmeyer%NULL%0,                    Mangala%Rajan%NULL%0,                    Evgeniya%Reshetnyak%NULL%0,                    Nathaniel%Hupert%NULL%0,                    Evelyn M.%Horn%NULL%0,                    Fernando J.%Martinez%NULL%0,                    Roy M.%Gulick%NULL%0,                    Monika M.%Safford%NULL%0,                    Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                    Simon A%Jones%NULL%0,                    Jie%Yang%NULL%0,                    Harish%Rajagopalan%NULL%0,                    Luke%O’Donnell%NULL%0,                    Yelena%Chernyak%NULL%0,                    Katie A%Tobin%NULL%0,                    Robert J%Cerfolio%NULL%0,                    Fritz%Francois%NULL%0,                    Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                    Anatoly%Mitrokhin%NULL%2,                    Anatoly%Mitrokhin%NULL%0,                    Ajai%Rajabalan%NULL%1,                    Christian%Benjamin%NULL%1,                    Sushma%Raviralla%NULL%1,                    Vishnu R%Mani%vishnu.mani@duke.edu%2,                    Vishnu R%Mani%vishnu.mani@duke.edu%0,                    Aleksandr%Kalabin%NULL%2,                    Aleksandr%Kalabin%NULL%0,                    Sebastian C%Valdivieso%NULL%2,                    Sebastian C%Valdivieso%NULL%0,                    Max%Murray-Ramcharan%NULL%2,                    Max%Murray-Ramcharan%NULL%0,                    Brian%Donaldson%NULL%2,                    Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                     Nicholas A.%Fergusson%null%2,                     Elisa%Lloyd-Smith%null%2,                     Andrew%Wormsbecker%null%2,                     Denise%Foster%null%2,                     Andrei%Karpov%null%2,                     Sarah%Crowe%null%2,                     Greg%Haljan%null%2,                     Dean R.%Chittock%null%2,                     Hussein D.%Kanji%null%2,                     Mypinder S.%Sekhon%null%2,                     Donald E.G.%Griesdale%null%2,                   Anish R.%Mitra%null%1,                   Nicholas A.%Fergusson%null%1,                   Elisa%Lloyd-Smith%null%1,                   Andrew%Wormsbecker%null%1,                   Denise%Foster%null%1,                   Andrei%Karpov%null%1,                   Sarah%Crowe%null%1,                   Greg%Haljan%null%1,                   Dean R.%Chittock%null%1,                   Hussein D.%Kanji%null%1,                   Mypinder S.%Sekhon%null%1,                   Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                    Damianos G.%Kokkinidis%NULL%1,                    Weijia%Li%NULL%1,                    Dimitrios%Karamanis%NULL%1,                    Jennifer%Ognibene%NULL%1,                    Shitij%Arora%NULL%1,                    William N.%Southern%NULL%1,                    Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                    Jesus D.%Gonzalez-Lugo%NULL%1,                    Shafia%Rahman%NULL%1,                    Mohammad%Barouqa%NULL%1,                    James%Szymanski%NULL%1,                    Kenji%Ikemura%NULL%1,                    Yungtai%Lo%NULL%1,                    Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%4,                   Chelico%J.D.%coreGivesNoEmail%4,                   Cohen%S.L.%coreGivesNoEmail%4,                   Cookingham%J.%coreGivesNoEmail%4,                   Coppa%K.%coreGivesNoEmail%4,                   Crawford%J.M.%coreGivesNoEmail%4,                   Davidson%K.W.%coreGivesNoEmail%4,                   Diefenbach%M.A.%coreGivesNoEmail%4,                   Dominello%A.J.%coreGivesNoEmail%4,                   Duer-Hefele%J.%coreGivesNoEmail%4,                   Falzon%L.%coreGivesNoEmail%4,                   Gitlin%J.%coreGivesNoEmail%4,                   Hajizadeh%N.%coreGivesNoEmail%4,                   Harvin%T.G.%coreGivesNoEmail%4,                   Hirsch%J.S.%coreGivesNoEmail%4,                   Hirschwerk%D.A.%coreGivesNoEmail%4,                   Kim%E.J.%coreGivesNoEmail%4,                   Kozel%Z.M.%coreGivesNoEmail%4,                   Marrast%L.M.%coreGivesNoEmail%4,                   McGinn%T.%coreGivesNoEmail%4,                   Mogavero%J.N.%coreGivesNoEmail%4,                   Narasimhan%M.%coreGivesNoEmail%4,                   Osorio%G.A.%coreGivesNoEmail%4,                   Qiu%M.%coreGivesNoEmail%4,                   Richardson%S.%coreGivesNoEmail%4,                   Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                    Viet-Thi%Tran%NULL%4,                    Viet-Thi%Tran%NULL%0,                    Mathilde%Roumier%NULL%2,                    Amélie%Chabrol%NULL%2,                    Romain%Paule%NULL%2,                    Constance%Guillaud%NULL%2,                    Elena%Fois%NULL%2,                    Raphael%Lepeule%NULL%2,                    Tali-Anne%Szwebel%NULL%2,                    François-Xavier%Lescure%NULL%2,                    Frédéric%Schlemmer%NULL%2,                    Marie%Matignon%NULL%2,                    Mehdi%Khellaf%NULL%2,                    Etienne%Crickx%NULL%2,                    Benjamin%Terrier%NULL%2,                    Caroline%Morbieu%NULL%2,                    Paul%Legendre%NULL%2,                    Julien%Dang%NULL%2,                    Yoland%Schoindre%NULL%2,                    Jean-Michel%Pawlotsky%NULL%2,                    Marc%Michel%NULL%2,                    Elodie%Perrodeau%NULL%2,                    Nicolas%Carlier%NULL%2,                    Nicolas%Roche%NULL%2,                    Victoire%de Lastours%NULL%2,                    Clément%Ourghanlian%NULL%2,                    Solen%Kerneis%NULL%2,                    Philippe%Ménager%NULL%2,                    Luc%Mouthon%NULL%2,                    Etienne%Audureau%NULL%2,                    Philippe%Ravaud%NULL%2,                    Bertrand%Godeau%NULL%2,                    Sébastien%Gallien%NULL%2,                    Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,             Abu Baker%Sheikh%xref no email%1,             Shubhra%Upadhyay%xref no email%1,             Jeanette%Atencio%xref no email%1,             Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                  Yu%Zuo%NULL%1,                  Srilakshmi%Yalavarthi%NULL%1,                  Kelsey%Gockman%NULL%1,                  Melanie%Zuo%NULL%1,                  Jacqueline A%Madison%NULL%1,                  Christopher%Blair%NULL%1,                  Wrenn%Woodward%NULL%1,                  Sean P%Lezak%NULL%1,                  Njira L%Lugogo%NULL%1,                  Robert J%Woods%NULL%1,                  Christian%Lood%NULL%1,                  Jason S%Knight%NULL%2,                  Jason S%Knight%NULL%0,                  Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                    Raef A.%Fadel%NULL%1,                    Kelly M.%Malette%NULL%1,                    Charles%Hammond%NULL%1,                    Hafsa%Abdulla%NULL%1,                    Abigail%Entz%NULL%1,                    Zachary%Demertzis%NULL%1,                    Zachary%Hanna%NULL%1,                    Andrew%Failla%NULL%1,                    Carina%Dagher%NULL%0,                    Zohra%Chaudhry%NULL%2,                    Amit%Vahia%NULL%2,                    Odaliz%Abreu Lanfranco%NULL%1,                    Mayur%Ramesh%NULL%1,                    Marcus J.%Zervos%NULL%1,                    George%Alangaden%NULL%2,                    Joseph%Miller%NULL%2,                    Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,             Daniel%Mu\u00f1oz%xref no email%1,             Alberto%Fica%xref no email%1,             Ignacio%Delama%xref no email%1,             Ignacia%Alvarez%xref no email%1,             Maritza%Navarrete%xref no email%1,             Eileen%Blackburn%xref no email%1,             Pamela%Garrido%xref no email%1,             Ricardo%Wenger%xref no email%1,             Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +3120,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>589</v>
+        <v>650</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3016,7 +3178,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -3045,7 +3207,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -3074,7 +3236,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -3103,7 +3265,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -3132,7 +3294,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -3161,7 +3323,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>598</v>
+        <v>656</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -3190,7 +3352,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>599</v>
+        <v>657</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -3219,7 +3381,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>600</v>
+        <v>658</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -3248,7 +3410,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>601</v>
+        <v>659</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -3277,7 +3439,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>602</v>
+        <v>660</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -3306,7 +3468,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -3364,7 +3526,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -3393,7 +3555,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>607</v>
+        <v>663</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -3422,7 +3584,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3451,7 +3613,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>665</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -3480,7 +3642,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>610</v>
+        <v>666</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -3509,7 +3671,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3538,7 +3700,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>612</v>
+        <v>668</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3567,7 +3729,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>613</v>
+        <v>669</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -3596,7 +3758,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>614</v>
+        <v>670</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -3625,7 +3787,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>615</v>
+        <v>671</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3654,7 +3816,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>616</v>
+        <v>672</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3683,7 +3845,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>617</v>
+        <v>673</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -3712,7 +3874,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>618</v>
+        <v>674</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -3741,7 +3903,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -3770,7 +3932,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>620</v>
+        <v>676</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -3799,7 +3961,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>621</v>
+        <v>677</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -3828,7 +3990,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>622</v>
+        <v>678</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -3857,7 +4019,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>623</v>
+        <v>679</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -3886,7 +4048,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>624</v>
+        <v>680</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -3915,7 +4077,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>625</v>
+        <v>681</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -3944,7 +4106,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>626</v>
+        <v>682</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -4002,7 +4164,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>627</v>
+        <v>683</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -4031,7 +4193,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>628</v>
+        <v>684</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -4060,7 +4222,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>629</v>
+        <v>685</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -4089,7 +4251,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>630</v>
+        <v>686</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -4118,7 +4280,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>631</v>
+        <v>687</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -4147,7 +4309,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>632</v>
+        <v>688</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -4176,7 +4338,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -4205,7 +4367,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -4234,7 +4396,7 @@
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="F46" t="s">
         <v>322</v>
@@ -4263,7 +4425,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>638</v>
+        <v>692</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -4292,7 +4454,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -4321,7 +4483,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>640</v>
+        <v>694</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -4350,7 +4512,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -4379,7 +4541,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -4408,7 +4570,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -4437,7 +4599,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>643</v>
+        <v>697</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4466,7 +4628,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -4495,7 +4657,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>645</v>
+        <v>699</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -4524,7 +4686,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>646</v>
+        <v>700</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -4553,7 +4715,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>647</v>
+        <v>701</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -4582,7 +4744,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>648</v>
+        <v>702</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -4611,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="980">
   <si>
     <t>Doi</t>
   </si>
@@ -2721,6 +2721,834 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,             Daniel%Mu\u00f1oz%xref no email%1,             Alberto%Fica%xref no email%1,             Ignacio%Delama%xref no email%1,             Ignacia%Alvarez%xref no email%1,             Maritza%Navarrete%xref no email%1,             Eileen%Blackburn%xref no email%1,             Pamela%Garrido%xref no email%1,             Ricardo%Wenger%xref no email%1,             Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                      J.% Jiang%null%1,                      X.% Xu%null%1,                      Y.% Hu%null%2,                      Y.% Hu%null%0,                      Y. % Zhao%null%1,   C.%Chen%null%1,   J.% Jiang%null%2,   X.% Xu%null%1,   Y.% Hu%null%2,   Y.% Hu%null%0,   Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                     Chenchen%Qian%NULL%1,                     Zhibing%Luo%NULL%1,                     Qiang%Li%liqressh@hotmail.com%0,                     Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                     Chunlin%Cai%NULL%1,                     Jinglei%Zang%NULL%1,                     Jun%Xie%NULL%1,                     Dan%Xu%NULL%0,                     Fang%Zheng%NULL%0,                     Tao%Zhan%NULL%1,                     Kang%Huang%NULL%1,                     Yikai%Wang%NULL%1,                     Xiao%Wang%NULL%1,                     Zhe-Yu%Hu%NULL%1,                     Yapeng%Deng%NULL%1,                     Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                     Naofumi%Bunya%NULL%1,                     Tomoyuki%Endo%NULL%1,                     Yuji%Fujino%NULL%1,                     Kensuke%Fujita%NULL%1,                     Kenji%Fujizuka%NULL%1,                     Yoshihiro%Hagiwara%NULL%1,                     Jun%Hamaguchi%NULL%1,                     Yoshitaka%Hara%NULL%1,                     Eiji%Hashiba%NULL%1,                     Satoru%Hashimoto%NULL%1,                     Noriyuki%Hattori%NULL%1,                     Kota%Hoshino%NULL%1,                     Shinichi%Ijuin%NULL%1,                     Takanari%Ikeyama%NULL%1,                     Shingo%Ichiba%NULL%1,                     Wataru%Iwanaga%NULL%1,                     Yoshiaki%Iwashita%NULL%1,                     Masafumi%Kanamoto%NULL%1,                     Hitoshi%Kaneko%NULL%1,                     Kaneyuki%Kawamae%NULL%1,                     Toru%Kotani%NULL%1,                     Yasuaki%Koyama%NULL%1,                     Keibun%Liu%NULL%1,                     Tomohiko%Masuno%NULL%1,                     Naoto%Morimura%NULL%1,                     Tomoyuki%Nakamura%NULL%1,                     Masaki%Nakane%NULL%1,                     Michitaka%Nasu%NULL%1,                     Osamu%Nishida%NULL%1,                     Masaji%Nishimura%NULL%1,                     Kanae%Ochiai%NULL%1,                     Takayuki%Ogura%NULL%1,                     Shinichiro%Ohshimo%NULL%1,                     Keisuke%Oyama%NULL%1,                     Junichi%Sasaki%NULL%1,                     Ryutaro%Seo%NULL%1,                     Takeshi%Shimazu%NULL%1,                     Nobuaki%Shime%NULL%4,                     Keiki%Shimizu%NULL%1,                     Hiroyuki%Suzuki%NULL%1,                     Shuhei%Takauji%NULL%1,                     Shinhiro%Takeda%NULL%1,                     Ichiro%Takeuchi%NULL%2,                     Mumon%Takita%NULL%1,                     Hayato%Taniguchi%NULL%1,                     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                     Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                     Yi Xin%Tong%NULL%3,                     Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                     Hong%Chen%NULL%0,                     Zhen%Li%NULL%2,                     Bo%Wang%NULL%0,                     Zhong-Wei%Zhang%NULL%1,                     Wei-Min%Li%NULL%0,                     Zong-An%Liang%NULL%0,                     Jin%Tang%NULL%1,                     Jian%Wang%NULL%1,                     Rui%Shi%NULL%1,                     Xiao-Dong%Jin%NULL%1,                     Yan%Kang%NULL%0,                     Pei-Fang%Wei%NULL%8,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                      S. F.% Mahmood%null%1,                      K.% Habib%null%1,                      I.% Khanum%null%1,                      B. % Jamil%null%1,   N.%Nasir%null%1,   S. F.% Mahmood%null%1,   K.% Habib%null%1,   I.% Khanum%null%1,   B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                     Chaisith%Sivakorn%NULL%1,                     Tanuwong%Viarasilpa%NULL%1,                     Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                     Mu%Qin%qinmuae@163.com%1,                     Yuli%Cai%NULL%1,                     Tao%Liu%NULL%0,                     Bo%Shen%NULL%1,                     Fan%Yang%NULL%2,                     Sheng%Cao%NULL%1,                     Xu%Liu%NULL%2,                     Xu%Liu%NULL%0,                     Yaozu%Xiang%NULL%1,                     Qinyan%Zhao%NULL%1,                     He%Huang%huanghe1977@whu.edu.cn%0,                     Bo%Yang%yybb112@whu.edu.cn%0,                     Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                     Win%Kulvichit%NULL%1,                     Sunchai%Payungporn%NULL%1,                     Trairak%Pisitkun%NULL%1,                     Ariya%Chindamporn%NULL%1,                     Sadudee%Peerapornratana%NULL%1,                     Prapaporn%Pisitkun%NULL%1,                     Suwalak%Chitcharoen%NULL%1,                     Vorthon%Sawaswong%NULL%1,                     Navaporn%Worasilchai%NULL%1,                     Sarinya%Kampunya%NULL%1,                     Opass%Putcharoen%NULL%1,                     Thammasak%Thawitsri%NULL%1,                     Nophol%Leelayuwatanakul%NULL%1,                     Napplika%Kongpolprom%NULL%1,                     Vorakamol%Phoophiboon%NULL%1,                     Thitiwat%Sriprasart%NULL%1,                     Rujipat%Samransamruajkit%NULL%1,                     Somkanya%Tungsanga%NULL%1,                     Kanitha%Tiankanon%NULL%1,                     Nuttha%Lumlertgul%NULL%1,                     Asada%Leelahavanichkul%NULL%1,                     Tueboon%Sriphojanart%NULL%1,                     Terapong%Tantawichien%NULL%1,                     Usa%Thisyakorn%NULL%1,                     Chintana%Chirathaworn%NULL%1,                     Kearkiat%Praditpornsilpa%NULL%1,                     Kriang%Tungsanga%NULL%1,                     Somchai%Eiam-Ong%NULL%1,                     Visith%Sitprija%NULL%1,                     John A.%Kellum%NULL%1,                     Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                     Min%Pan%NULL%3,                     Xiumei%Zhang%NULL%3,                     Mingfeng%Han%fyhmf@163.com%5,                     Xiaoyun%Fan%13956988552@126.com%3,                     Fengde%Zhao%NULL%3,                     Manli%Miao%NULL%3,                     Jing%Xu%NULL%0,                     Minglong%Guan%NULL%3,                     Xia%Deng%NULL%3,                     Xu%Chen%NULL%4,                     Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%5,                     Chunli%Tang%NULL%0,                     Ruchong%Chen%NULL%1,                     Honglian%Ruan%NULL%1,                     Wenhua%Liang%NULL%0,                     Weijie%Guan%NULL%0,                     Ling%Sang%NULL%0,                     Ruidi%Tang%NULL%1,                     Nanshan%Zhong%NULL%0,                     Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%0, Shuhan%Cai%xref no email%1, Yun%Luo%xref no email%1, Fangfang%Zhu%xref no email%1, Ming%Hu%xref no email%1, Yan%Zhao%xref no email%1, Ruiqiang%Zheng%xref no email%1, Xuyan%Li%xref no email%1, Bo%Hu%xref no email%0, Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%5,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%5,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%5,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%5,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%5,                     Shangwen%Pan%NULL%5,                     Xiaojing%Zou%NULL%7,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                     Shanyan%Zhang%NULL%2,                     Xiaoli%Zhang%NULL%1,                     Huan%Cai%NULL%2,                     Jueqing%Gu%NULL%2,                     Jiangshan%Lian%NULL%2,                     Yingfeng%Lu%NULL%2,                     Hongyu%Jia%NULL%2,                     Jianhua%Hu%NULL%2,                     Ciliang%Jin%NULL%2,                     Guodong%Yu%NULL%2,                     Yimin%Zhang%NULL%2,                     Jifang%Sheng%NULL%4,                     Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                     Dan%Xu%NULL%0,                     Shouzhi%Fu%NULL%0,                     Jun%Zhang%NULL%0,                     Xiaobo%Yang%NULL%0,                     Liang%Xu%NULL%0,                     Jiqian%Xu%NULL%0,                     Yongran%Wu%NULL%0,                     Chaolin%Huang%NULL%0,                     Yaqi%Ouyang%NULL%0,                     Luyu%Yang%NULL%0,                     Minghao%Fang%NULL%0,                     Hongwen%Xiao%NULL%0,                     Jing%Ma%NULL%0,                     Wei%Zhu%NULL%0,                     Song%Hu%NULL%0,                     Quan%Hu%NULL%0,                     Daoyin%Ding%NULL%0,                     Ming%Hu%NULL%0,                     Guochao%Zhu%NULL%0,                     Weijiang%Xu%NULL%0,                     Jun%Guo%NULL%0,                     Jinglong%Xu%NULL%0,                     Haitao%Yuan%NULL%0,                     Bin%Zhang%NULL%0,                     Zhui%Yu%yuzhui@whu.edu.cn%0,                     Dechang%Chen%icudechangchen@163.com%0,                     Shiying%Yuan%yuan_shiying@163.com%0,                     You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                     Hao-Yu%Gao%NULL%1,                     Zi-Yi%Feng%NULL%1,                     Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                     Li-jun%Sun%NULL%1,                     Mi%Xu%NULL%1,                     Jian%Pan%NULL%1,                     Yun-tao%Zhang%NULL%1,                     Xue-ling%Fang%NULL%1,                     Qiang%Fang%NULL%2,                     Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                     Ziqiang%Du%NULL%1,                     Yanfang%Zhu%NULL%1,                     Wenfeng%Li%NULL%1,                     Hongjun%Miao%NULL%1,                     Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                     Sarah%Al-Youha%sarahalyouha@gmail.com%1,                     Mohammad H.%Jamal%NULL%1,                     Mohannad%Al-Haddad%NULL%1,                     Ali%Al-Muhaini%NULL%1,                     Fahad%Al-Ghimlas%NULL%1,                     Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                     Mina%Akbari Rad%NULL%1,                     Robert%Bergquist%NULL%1,                     Abolghasem%Allahyari%NULL%1,                     Kamila%Hashemzadeh%NULL%1,                     Nasrin%Milani%NULL%1,                     Mahdi%Gholian-Aval%NULL%1,                     Fariba%Rezaeitalab%NULL%1,                     Mohammad Jafar%Sadeghi Quchani%NULL%1,                     Zahra%Nahbandani%NULL%1,                     Mandana%Khodashahi%NULL%1,                     Zahra%Javid%NULL%1,                     Mahnaz%Mozdourian%NULL%1,                     Mohammad Ali%Yaghoubi%NULL%1,                     Zahra%Mozaheb%NULL%1,                     Mohsen%Seddigh-Shamsi%NULL%1,                     Mohammad%Moeini Nodeh%NULL%1,                     Shima%Nabavi%NULL%1,                     Hooman%Mosannen Mozaffari%NULL%1,                     Mohammadreza%Farzanehfar%NULL%1,                     Zahra%Lotfi%NULL%1,                     Alireza%Shariati%NULL%1,                     Shekoofe%Bonakdaran%NULL%1,                     Zahra%Rezaieyazdi%NULL%1,                     Zahra%Mirfeizi%NULL%1,                     Maryam%Miri%NULL%1,                     Reza%Bassiri%NULL%1,                     Sajjad%Ataei Azimi%NULL%1,                     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                     Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                     Ibrahim%Al-Zakwani%NULL%1,                     Hamed%Al Naamani%NULL%1,                     Sultan%Al Lawati%NULL%1,                     Nenad%Pandak%NULL%1,                     Muna Ba%Omar%NULL%1,                     Maher%Al Bahrani%NULL%1,                     Zakaryia AL%Bulushi%NULL%1,                     Huda%Al Khalili%NULL%1,                     Issa%Al Salmi%NULL%1,                     Ruwaida%Al Ismaili%NULL%1,                     Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                     Zohre%Khodamoradi%NULL%1,                     Amirhossein%Erfani%NULL%1,                     Hamidreza%Hosseinpour%NULL%1,                     Keivan%Ranjbar%NULL%1,                     Yasaman%Emami%NULL%1,                     Alireza%Mirahmadizadeh%NULL%1,                     Mehrzad%Lotfi%NULL%1,                     Babak%Shirazi Yeganeh%NULL%1,                     Abolfazl%Dorrani Nejad%NULL%1,                     Abdolrasool%Hemmati%NULL%1,                     Mostafa%Ebrahimi%NULL%1,                     Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                     Annachiara%Ferrari%NULL%2,                     Annachiara%Ferrari%NULL%0,                     Francesco%Fontana%NULL%1,                     Giacomo%Mori%NULL%1,                     Riccardo%Magistroni%NULL%1,                     Marianna%Meschiari%NULL%1,                     Erica%Franceschini%NULL%1,                     Marianna%Menozzi%NULL%1,                     Gianluca%Cuomo%NULL%1,                     Gabriella%Orlando%NULL%1,                     Antonella%Santoro%NULL%1,                     Margherita%Digaetano%NULL%1,                     Cinzia%Puzzolante%NULL%1,                     Federica%Carli%NULL%1,                     Andrea%Bedini%NULL%1,                     Jovana%Milic%NULL%1,                     Irene%Coloretti%NULL%1,                     Paolo%Raggi%NULL%1,                     Cristina%Mussini%NULL%1,                     Massimo%Girardis%NULL%1,                     Gianni%Cappelli%NULL%1,                     Giovanni%Guaraldi%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                     Silvia%Bettini%NULL%2,                     Silvia%Bettini%NULL%0,                     Roberto%Fabris%NULL%1,                     Roberto%Serra%NULL%2,                     Chiara%Dal Pra%NULL%1,                     Pietro%Maffei%NULL%1,                     Marco%Rossato%NULL%1,                     Paola%Fioretto%NULL%0,                     Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                     Marco%Roncador%NULL%2,                     Marco%Roncador%NULL%0,                     Andrea%Saporito%NULL%1,                     Maira%Biggiogero%NULL%1,                     Andrea%Glotta%NULL%1,                     Pier Andrea%Maida%NULL%1,                     Patrizia%Urso%NULL%1,                     Giovanni%Bona%NULL%1,                     Christian%Garzoni%NULL%1,                     Romano%Mauri%NULL%1,                     Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                     Anna Lisa%Ridolfo%NULL%4,                     Laura%Milazzo%NULL%2,                     Letizia%Oreni%NULL%4,                     Dario%Bernacchia%NULL%4,                     Matteo%Siano%NULL%4,                     Cecilia%Bonazzetti%NULL%2,                     Alice%Covizzi%NULL%2,                     Marco%Schiuma%NULL%2,                     Matteo%Passerini%NULL%2,                     Marco%Piscaglia%NULL%2,                     Massimo%Coen%NULL%2,                     Guido%Gubertini%NULL%2,                     Giuliano%Rizzardini%NULL%4,                     Chiara%Cogliati%NULL%2,                     Anna Maria%Brambilla%NULL%2,                     Riccardo%Colombo%NULL%2,                     Antonio%Castelli%NULL%2,                     Roberto%Rech%NULL%2,                     Agostino%Riva%NULL%2,                     Alessandro%Torre%NULL%2,                     Luca%Meroni%NULL%2,                     Stefano%Rusconi%NULL%4,                     Spinello%Antinori%NULL%4,                     Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                    Cabrini%Luca%coreGivesNoEmail%4,                    Castelli%Antonio%coreGivesNoEmail%4,                    Cecconi%Maurizio%coreGivesNoEmail%4,                    Cereda%Danilo%coreGivesNoEmail%4,                    Coluccello%Antonio%coreGivesNoEmail%4,                    Foti%Giuseppe%coreGivesNoEmail%4,                    Fumagalli%Roberto%coreGivesNoEmail%4,                    Grasselli%Giacomo%coreGivesNoEmail%4,                    Iotti%Giorgio%coreGivesNoEmail%4,                    Latronico%Nicola%coreGivesNoEmail%4,                    Lorini%Luca%coreGivesNoEmail%4,                    Merler%Stefano%coreGivesNoEmail%4,                    Natalini%Giuseppe%coreGivesNoEmail%4,                    Pesenti%Antonio%coreGivesNoEmail%4,                    Piatti%Alessandra%coreGivesNoEmail%4,                    Ranieri%Marco Vito%coreGivesNoEmail%4,                    Scandroglio%Anna Mara%coreGivesNoEmail%4,                    Storti%Enrico%coreGivesNoEmail%4,                    Zanella%Alberto%coreGivesNoEmail%4,                    Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                     Lara%Gianesello%gianesello.lara@libero.it%1,                     Maddalena%Pazzi%NULL%2,                     Maddalena%Pazzi%NULL%0,                     Caterina%Stera%NULL%1,                     Tommaso%Meconi%NULL%1,                     Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                     Andrea%Dalbeni%NULL%2,                     Andrea%Dalbeni%NULL%0,                     Elia%Vettore%NULL%2,                     Elia%Vettore%NULL%0,                     Devis%Benfaremo%NULL%1,                     Massimo%Mattioli%NULL%1,                     Carmine G.%Gambino%NULL%1,                     Viviana%Framba%NULL%2,                     Viviana%Framba%NULL%0,                     Lorenzo%Cerruti%NULL%1,                     Anna%Mantovani%NULL%1,                     Andrea%Martini%NULL%1,                     Michele M.%Luchetti%NULL%1,                     Roberto%Serra%NULL%0,                     Annamaria%Cattelan%NULL%1,                     Roberto%Vettor%NULL%0,                     Paolo%Angeli%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                     Matthaios%Papadimitriou-Olivgeris%NULL%2,                     Matthaios%Papadimitriou-Olivgeris%NULL%0,                     Raphaël%Burger%NULL%1,                     Marie-Annick%Le Pogam%NULL%1,                     Tapio%Niemi%NULL%2,                     Tapio%Niemi%NULL%0,                     Paraskevas%Filippidis%NULL%1,                     Jonathan%Tschopp%NULL%1,                     Florian%Desgranges%NULL%1,                     Benjamin%Viala%NULL%1,                     Eleftheria%Kampouri%NULL%1,                     Laurence%Rochat%NULL%2,                     Laurence%Rochat%NULL%0,                     David%Haefliger%NULL%1,                     Mehdi%Belkoniene%NULL%1,                     Carlos%Fidalgo%NULL%1,                     Antonios%Kritikos%NULL%1,                     Katia%Jaton%NULL%1,                     Laurence%Senn%NULL%1,                     Pierre-Alexandre%Bart%NULL%1,                     Jean-Luc%Pagani%NULL%2,                     Jean-Luc%Pagani%NULL%0,                     Oriol%Manuel%NULL%1,                     Loïc%Lhopitallier%NULL%1,                     Chiara%Lazzeri%NULL%2,                     Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                     Ashwin%Subramaniam%NULL%2,                     Ashwin%Subramaniam%NULL%0,                     Mallikarjuna%Ponnapa Reddy%NULL%2,                     Mallikarjuna%Ponnapa Reddy%NULL%0,                     Gabriel%Blecher%NULL%1,                     Umesh%Kadam%NULL%2,                     Umesh%Kadam%NULL%0,                     Afsana%Afroz%NULL%1,                     Baki%Billah%NULL%1,                     Sushma%Ashwin%NULL%1,                     Mark%Kubicki%NULL%1,                     Federico%Bilotta%NULL%1,                     J. Randall%Curtis%NULL%2,                     J. Randall%Curtis%NULL%0,                     Francesca%Rubulotta%NULL%2,                     Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                    Aggarwal%Saurabh%coreGivesNoEmail%3,                    Garcia-Telles%Nelson%coreGivesNoEmail%3,                    Henry%Brandon Michael%coreGivesNoEmail%3,                    Lavie%Carl%coreGivesNoEmail%3,                    Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                     Samuel L%Bruce%NULL%2,                     Cody L%Slater%NULL%2,                     Jonathan R%Tiao%NULL%2,                     Matthew R%Baldwin%NULL%3,                     R Graham%Barr%NULL%2,                     Bernard P%Chang%NULL%2,                     Katherine H%Chau%NULL%2,                     Justin J%Choi%NULL%2,                     Nicholas%Gavin%NULL%2,                     Parag%Goyal%NULL%2,                     Angela M%Mills%NULL%2,                     Ashmi A%Patel%NULL%2,                     Marie-Laure S%Romney%NULL%2,                     Monika M%Safford%NULL%2,                     Neil W%Schluger%NULL%2,                     Soumitra%Sengupta%NULL%2,                     Magdalena E%Sobieszczyk%NULL%2,                     Jason E%Zucker%NULL%2,                     Paul A%Asadourian%NULL%2,                     Fletcher M%Bell%NULL%2,                     Rebekah%Boyd%NULL%2,                     Matthew F%Cohen%NULL%2,                     MacAlistair I%Colquhoun%NULL%2,                     Lucy A%Colville%NULL%2,                     Joseph H%de Jonge%NULL%2,                     Lyle B%Dershowitz%NULL%2,                     Shirin A%Dey%NULL%2,                     Katherine A%Eiseman%NULL%2,                     Zachary P%Girvin%NULL%2,                     Daniella T%Goni%NULL%2,                     Amro A%Harb%NULL%2,                     Nicholas%Herzik%NULL%2,                     Sarah%Householder%NULL%2,                     Lara E%Karaaslan%NULL%2,                     Heather%Lee%NULL%2,                     Evan%Lieberman%NULL%2,                     Andrew%Ling%NULL%2,                     Ree%Lu%NULL%2,                     Arthur Y%Shou%NULL%2,                     Alexander C%Sisti%NULL%2,                     Zachary E%Snow%NULL%2,                     Colin P%Sperring%NULL%2,                     Yuqing%Xiong%NULL%2,                     Henry W%Zhou%NULL%2,                     Karthik%Natarajan%NULL%2,                     George%Hripcsak%NULL%2,                     Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                     Mark%Caridi-Scheible%NULL%3,                     James M.%Blum%NULL%2,                     Chad%Robichaux%NULL%2,                     Colleen%Kraft%NULL%2,                     Jesse T.%Jacob%NULL%2,                     Craig S.%Jabaley%NULL%2,                     David%Carpenter%NULL%2,                     Roberta%Kaplow%NULL%2,                     Alfonso C.%Hernandez-Romieu%NULL%2,                     Max W.%Adelman%NULL%2,                     Greg S.%Martin%NULL%2,                     Craig M.%Coopersmith%NULL%2,                     David J.%Murphy%NULL%2,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                     Bijan J.%Ghassemieh%NULL%0,                     Michelle%Nichols%NULL%0,                     Richard%Kim%NULL%0,                     Keith R.%Jerome%NULL%0,                     Arun K.%Nalla%NULL%0,                     Alexander L.%Greninger%NULL%0,                     Sudhakar%Pipavath%NULL%0,                     Mark M.%Wurfel%NULL%0,                     Laura%Evans%NULL%0,                     Patricia A.%Kritek%NULL%0,                     T. Eoin%West%NULL%0,                     Andrew%Luks%NULL%0,                     Anthony%Gerbino%NULL%0,                     Chris R.%Dale%NULL%0,                     Jason D.%Goldman%NULL%0,                     Shane%O’Mahony%NULL%0,                     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                     Denise J%McCulloch%NULL%0,                     Denise J%McCulloch%NULL%0,                     Vidya%Atluri%NULL%0,                     Michela%Blain%NULL%0,                     Sarah A%McGuffin%NULL%0,                     Arun K%Nalla%NULL%0,                     Meei-Li%Huang%NULL%0,                     Alex L%Greninger%NULL%0,                     Keith R%Jerome%NULL%0,                     Seth A%Cohen%NULL%0,                     Santiago%Neme%NULL%0,                     Margaret L%Green%NULL%0,                     Helen Y%Chu%NULL%0,                     H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                     Joelle I.%Rosser%NULL%0,                     Orlando%Quintero%NULL%0,                     Jake%Scott%NULL%0,                     Aruna%Subramanian%NULL%0,                     Mohammad%Gumma%NULL%0,                     Angela%Rogers%NULL%0,                     Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                     Jacob%Fiksel%NULL%2,                     Jacob%Fiksel%NULL%0,                     John%Muschelli%NULL%2,                     John%Muschelli%NULL%0,                     Matthew L.%Robinson%NULL%2,                     Matthew L.%Robinson%NULL%0,                     Masoud%Rouhizadeh%NULL%2,                     Masoud%Rouhizadeh%NULL%0,                     Jamie%Perin%NULL%2,                     Jamie%Perin%NULL%0,                     Grant%Schumock%NULL%2,                     Grant%Schumock%NULL%0,                     Paul%Nagy%NULL%2,                     Paul%Nagy%NULL%0,                     Josh H.%Gray%NULL%2,                     Josh H.%Gray%NULL%0,                     Harsha%Malapati%NULL%2,                     Harsha%Malapati%NULL%0,                     Mariam%Ghobadi-Krueger%NULL%2,                     Mariam%Ghobadi-Krueger%NULL%0,                     Timothy M.%Niessen%NULL%1,                     Bo Soo%Kim%NULL%1,                     Peter M.%Hill%NULL%1,                     M. Shafeeq%Ahmed%NULL%1,                     Eric D.%Dobkin%NULL%1,                     Renee%Blanding%NULL%1,                     Jennifer%Abele%NULL%1,                     Bonnie%Woods%NULL%1,                     Kenneth%Harkness%NULL%1,                     David R.%Thiemann%NULL%1,                     Mary G.%Bowring%NULL%1,                     Aalok B.%Shah%NULL%2,                     Aalok B.%Shah%NULL%0,                     Mei-Cheng%Wang%NULL%1,                     Karen%Bandeen-Roche%NULL%1,                     Antony%Rosen%NULL%1,                     Scott L.%Zeger%NULL%2,                     Scott L.%Zeger%NULL%0,                     Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Centers for Disease Control MMWR Office</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                     Justin J.%Choi%NULL%0,                     Laura C.%Pinheiro%NULL%0,                     Edward J.%Schenck%NULL%0,                     Ruijun%Chen%NULL%0,                     Assem%Jabri%NULL%0,                     Michael J.%Satlin%NULL%0,                     Thomas R.%Campion%NULL%0,                     Musarrat%Nahid%NULL%0,                     Joanna B.%Ringel%NULL%0,                     Katherine L.%Hoffman%NULL%0,                     Mark N.%Alshak%NULL%0,                     Han A.%Li%NULL%0,                     Graham T.%Wehmeyer%NULL%0,                     Graham T.%Wehmeyer%NULL%0,                     Mangala%Rajan%NULL%0,                     Evgeniya%Reshetnyak%NULL%0,                     Nathaniel%Hupert%NULL%0,                     Evelyn M.%Horn%NULL%0,                     Fernando J.%Martinez%NULL%0,                     Roy M.%Gulick%NULL%0,                     Monika M.%Safford%NULL%0,                     Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                     Simon A%Jones%NULL%0,                     Jie%Yang%NULL%0,                     Harish%Rajagopalan%NULL%0,                     Luke%O’Donnell%NULL%0,                     Yelena%Chernyak%NULL%0,                     Katie A%Tobin%NULL%0,                     Robert J%Cerfolio%NULL%0,                     Fritz%Francois%NULL%0,                     Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                     Anatoly%Mitrokhin%NULL%2,                     Anatoly%Mitrokhin%NULL%0,                     Ajai%Rajabalan%NULL%1,                     Christian%Benjamin%NULL%1,                     Sushma%Raviralla%NULL%1,                     Vishnu R%Mani%vishnu.mani@duke.edu%2,                     Vishnu R%Mani%vishnu.mani@duke.edu%0,                     Aleksandr%Kalabin%NULL%2,                     Aleksandr%Kalabin%NULL%0,                     Sebastian C%Valdivieso%NULL%2,                     Sebastian C%Valdivieso%NULL%0,                     Max%Murray-Ramcharan%NULL%2,                     Max%Murray-Ramcharan%NULL%0,                     Brian%Donaldson%NULL%2,                     Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                      Nicholas A.%Fergusson%null%2,                      Elisa%Lloyd-Smith%null%2,                      Andrew%Wormsbecker%null%2,                      Denise%Foster%null%2,                      Andrei%Karpov%null%2,                      Sarah%Crowe%null%2,                      Greg%Haljan%null%2,                      Dean R.%Chittock%null%2,                      Hussein D.%Kanji%null%2,                      Mypinder S.%Sekhon%null%2,                      Donald E.G.%Griesdale%null%2,                    Anish R.%Mitra%null%1,                    Nicholas A.%Fergusson%null%1,                    Elisa%Lloyd-Smith%null%1,                    Andrew%Wormsbecker%null%1,                    Denise%Foster%null%1,                    Andrei%Karpov%null%1,                    Sarah%Crowe%null%1,                    Greg%Haljan%null%1,                    Dean R.%Chittock%null%1,                    Hussein D.%Kanji%null%1,                    Mypinder S.%Sekhon%null%1,                    Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                     Damianos G.%Kokkinidis%NULL%1,                     Weijia%Li%NULL%1,                     Dimitrios%Karamanis%NULL%1,                     Jennifer%Ognibene%NULL%1,                     Shitij%Arora%NULL%1,                     William N.%Southern%NULL%1,                     Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                     Jesus D.%Gonzalez-Lugo%NULL%1,                     Shafia%Rahman%NULL%1,                     Mohammad%Barouqa%NULL%1,                     James%Szymanski%NULL%1,                     Kenji%Ikemura%NULL%1,                     Yungtai%Lo%NULL%1,                     Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%4,                    Chelico%J.D.%coreGivesNoEmail%4,                    Cohen%S.L.%coreGivesNoEmail%4,                    Cookingham%J.%coreGivesNoEmail%4,                    Coppa%K.%coreGivesNoEmail%4,                    Crawford%J.M.%coreGivesNoEmail%4,                    Davidson%K.W.%coreGivesNoEmail%4,                    Diefenbach%M.A.%coreGivesNoEmail%4,                    Dominello%A.J.%coreGivesNoEmail%4,                    Duer-Hefele%J.%coreGivesNoEmail%4,                    Falzon%L.%coreGivesNoEmail%4,                    Gitlin%J.%coreGivesNoEmail%4,                    Hajizadeh%N.%coreGivesNoEmail%4,                    Harvin%T.G.%coreGivesNoEmail%4,                    Hirsch%J.S.%coreGivesNoEmail%4,                    Hirschwerk%D.A.%coreGivesNoEmail%4,                    Kim%E.J.%coreGivesNoEmail%4,                    Kozel%Z.M.%coreGivesNoEmail%4,                    Marrast%L.M.%coreGivesNoEmail%4,                    McGinn%T.%coreGivesNoEmail%4,                    Mogavero%J.N.%coreGivesNoEmail%4,                    Narasimhan%M.%coreGivesNoEmail%4,                    Osorio%G.A.%coreGivesNoEmail%4,                    Qiu%M.%coreGivesNoEmail%4,                    Richardson%S.%coreGivesNoEmail%4,                    Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                     Viet-Thi%Tran%NULL%4,                     Viet-Thi%Tran%NULL%0,                     Mathilde%Roumier%NULL%2,                     Amélie%Chabrol%NULL%2,                     Romain%Paule%NULL%2,                     Constance%Guillaud%NULL%2,                     Elena%Fois%NULL%2,                     Raphael%Lepeule%NULL%2,                     Tali-Anne%Szwebel%NULL%2,                     François-Xavier%Lescure%NULL%2,                     Frédéric%Schlemmer%NULL%2,                     Marie%Matignon%NULL%2,                     Mehdi%Khellaf%NULL%2,                     Etienne%Crickx%NULL%2,                     Benjamin%Terrier%NULL%2,                     Caroline%Morbieu%NULL%2,                     Paul%Legendre%NULL%2,                     Julien%Dang%NULL%2,                     Yoland%Schoindre%NULL%2,                     Jean-Michel%Pawlotsky%NULL%2,                     Marc%Michel%NULL%2,                     Elodie%Perrodeau%NULL%2,                     Nicolas%Carlier%NULL%2,                     Nicolas%Roche%NULL%2,                     Victoire%de Lastours%NULL%2,                     Clément%Ourghanlian%NULL%2,                     Solen%Kerneis%NULL%2,                     Philippe%Ménager%NULL%2,                     Luc%Mouthon%NULL%2,                     Etienne%Audureau%NULL%2,                     Philippe%Ravaud%NULL%2,                     Bertrand%Godeau%NULL%2,                     Sébastien%Gallien%NULL%2,                     Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%0, Abu Baker%Sheikh%xref no email%1, Shubhra%Upadhyay%xref no email%1, Jeanette%Atencio%xref no email%1, Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                   Yu%Zuo%NULL%1,                   Srilakshmi%Yalavarthi%NULL%1,                   Kelsey%Gockman%NULL%1,                   Melanie%Zuo%NULL%1,                   Jacqueline A%Madison%NULL%1,                   Christopher%Blair%NULL%1,                   Wrenn%Woodward%NULL%1,                   Sean P%Lezak%NULL%1,                   Njira L%Lugogo%NULL%1,                   Robert J%Woods%NULL%1,                   Christian%Lood%NULL%1,                   Jason S%Knight%NULL%2,                   Jason S%Knight%NULL%0,                   Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                     Raef A.%Fadel%NULL%1,                     Kelly M.%Malette%NULL%1,                     Charles%Hammond%NULL%1,                     Hafsa%Abdulla%NULL%1,                     Abigail%Entz%NULL%1,                     Zachary%Demertzis%NULL%1,                     Zachary%Hanna%NULL%1,                     Andrew%Failla%NULL%1,                     Carina%Dagher%NULL%0,                     Zohra%Chaudhry%NULL%2,                     Amit%Vahia%NULL%2,                     Odaliz%Abreu Lanfranco%NULL%1,                     Mayur%Ramesh%NULL%1,                     Marcus J.%Zervos%NULL%1,                     George%Alangaden%NULL%2,                     Joseph%Miller%NULL%2,                     Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%0, Daniel%Mu\u00f1oz%xref no email%1, Alberto%Fica%xref no email%1, Ignacio%Delama%xref no email%1, Ignacia%Alvarez%xref no email%1, Maritza%Navarrete%xref no email%1, Eileen%Blackburn%xref no email%1, Pamela%Garrido%xref no email%1, Ricardo%Wenger%xref no email%1, Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SciELO Agencia Nacional de Investigacion y Desarrollo (ANID)</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                       J.% Jiang%null%1,                       X.% Xu%null%1,                       Y.% Hu%null%2,                       Y.% Hu%null%0,                       Y. % Zhao%null%1,    C.%Chen%null%1,    J.% Jiang%null%2,    X.% Xu%null%1,    Y.% Hu%null%2,    Y.% Hu%null%0,    Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                      Chenchen%Qian%NULL%1,                      Zhibing%Luo%NULL%1,                      Qiang%Li%liqressh@hotmail.com%0,                      Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                      Chunlin%Cai%NULL%1,                      Jinglei%Zang%NULL%1,                      Jun%Xie%NULL%1,                      Dan%Xu%NULL%0,                      Fang%Zheng%NULL%0,                      Tao%Zhan%NULL%1,                      Kang%Huang%NULL%1,                      Yikai%Wang%NULL%1,                      Xiao%Wang%NULL%1,                      Zhe-Yu%Hu%NULL%1,                      Yapeng%Deng%NULL%1,                      Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                      Naofumi%Bunya%NULL%1,                      Tomoyuki%Endo%NULL%1,                      Yuji%Fujino%NULL%1,                      Kensuke%Fujita%NULL%1,                      Kenji%Fujizuka%NULL%1,                      Yoshihiro%Hagiwara%NULL%1,                      Jun%Hamaguchi%NULL%1,                      Yoshitaka%Hara%NULL%1,                      Eiji%Hashiba%NULL%1,                      Satoru%Hashimoto%NULL%1,                      Noriyuki%Hattori%NULL%1,                      Kota%Hoshino%NULL%1,                      Shinichi%Ijuin%NULL%1,                      Takanari%Ikeyama%NULL%1,                      Shingo%Ichiba%NULL%1,                      Wataru%Iwanaga%NULL%1,                      Yoshiaki%Iwashita%NULL%1,                      Masafumi%Kanamoto%NULL%1,                      Hitoshi%Kaneko%NULL%1,                      Kaneyuki%Kawamae%NULL%1,                      Toru%Kotani%NULL%1,                      Yasuaki%Koyama%NULL%1,                      Keibun%Liu%NULL%1,                      Tomohiko%Masuno%NULL%1,                      Naoto%Morimura%NULL%1,                      Tomoyuki%Nakamura%NULL%1,                      Masaki%Nakane%NULL%1,                      Michitaka%Nasu%NULL%1,                      Osamu%Nishida%NULL%1,                      Masaji%Nishimura%NULL%1,                      Kanae%Ochiai%NULL%1,                      Takayuki%Ogura%NULL%1,                      Shinichiro%Ohshimo%NULL%1,                      Keisuke%Oyama%NULL%1,                      Junichi%Sasaki%NULL%1,                      Ryutaro%Seo%NULL%1,                      Takeshi%Shimazu%NULL%1,                      Nobuaki%Shime%NULL%4,                      Keiki%Shimizu%NULL%1,                      Hiroyuki%Suzuki%NULL%1,                      Shuhei%Takauji%NULL%1,                      Shinhiro%Takeda%NULL%1,                      Ichiro%Takeuchi%NULL%2,                      Mumon%Takita%NULL%1,                      Hayato%Taniguchi%NULL%1,                      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                      Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                      Yi Xin%Tong%NULL%3,                      Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                      Hong%Chen%NULL%0,                      Zhen%Li%NULL%2,                      Bo%Wang%NULL%0,                      Zhong-Wei%Zhang%NULL%1,                      Wei-Min%Li%NULL%0,                      Zong-An%Liang%NULL%0,                      Jin%Tang%NULL%1,                      Jian%Wang%NULL%1,                      Rui%Shi%NULL%1,                      Xiao-Dong%Jin%NULL%1,                      Yan%Kang%NULL%0,                      Pei-Fang%Wei%NULL%8,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                       S. F.% Mahmood%null%1,                       K.% Habib%null%1,                       I.% Khanum%null%1,                       B. % Jamil%null%1,    N.%Nasir%null%1,    S. F.% Mahmood%null%1,    K.% Habib%null%1,    I.% Khanum%null%1,    B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                      Chaisith%Sivakorn%NULL%1,                      Tanuwong%Viarasilpa%NULL%1,                      Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                      Mu%Qin%qinmuae@163.com%1,                      Yuli%Cai%NULL%1,                      Tao%Liu%NULL%0,                      Bo%Shen%NULL%1,                      Fan%Yang%NULL%2,                      Sheng%Cao%NULL%1,                      Xu%Liu%NULL%2,                      Xu%Liu%NULL%0,                      Yaozu%Xiang%NULL%1,                      Qinyan%Zhao%NULL%1,                      He%Huang%huanghe1977@whu.edu.cn%0,                      Bo%Yang%yybb112@whu.edu.cn%0,                      Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                      Win%Kulvichit%NULL%1,                      Sunchai%Payungporn%NULL%1,                      Trairak%Pisitkun%NULL%1,                      Ariya%Chindamporn%NULL%1,                      Sadudee%Peerapornratana%NULL%1,                      Prapaporn%Pisitkun%NULL%1,                      Suwalak%Chitcharoen%NULL%1,                      Vorthon%Sawaswong%NULL%1,                      Navaporn%Worasilchai%NULL%1,                      Sarinya%Kampunya%NULL%1,                      Opass%Putcharoen%NULL%1,                      Thammasak%Thawitsri%NULL%1,                      Nophol%Leelayuwatanakul%NULL%1,                      Napplika%Kongpolprom%NULL%1,                      Vorakamol%Phoophiboon%NULL%1,                      Thitiwat%Sriprasart%NULL%1,                      Rujipat%Samransamruajkit%NULL%1,                      Somkanya%Tungsanga%NULL%1,                      Kanitha%Tiankanon%NULL%1,                      Nuttha%Lumlertgul%NULL%1,                      Asada%Leelahavanichkul%NULL%1,                      Tueboon%Sriphojanart%NULL%1,                      Terapong%Tantawichien%NULL%1,                      Usa%Thisyakorn%NULL%1,                      Chintana%Chirathaworn%NULL%1,                      Kearkiat%Praditpornsilpa%NULL%1,                      Kriang%Tungsanga%NULL%1,                      Somchai%Eiam-Ong%NULL%1,                      Visith%Sitprija%NULL%1,                      John A.%Kellum%NULL%1,                      Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                      Min%Pan%NULL%3,                      Xiumei%Zhang%NULL%3,                      Mingfeng%Han%fyhmf@163.com%5,                      Xiaoyun%Fan%13956988552@126.com%3,                      Fengde%Zhao%NULL%3,                      Manli%Miao%NULL%3,                      Jing%Xu%NULL%0,                      Minglong%Guan%NULL%3,                      Xia%Deng%NULL%3,                      Xu%Chen%NULL%4,                      Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%2,                      Chunli%Tang%NULL%0,                      Ruchong%Chen%NULL%1,                      Honglian%Ruan%NULL%1,                      Wenhua%Liang%NULL%0,                      Weijie%Guan%NULL%0,                      Ling%Sang%NULL%0,                      Ruidi%Tang%NULL%1,                      Nanshan%Zhong%NULL%0,                      Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,  Shuhan%Cai%xref no email%1,  Yun%Luo%xref no email%1,  Fangfang%Zhu%xref no email%1,  Ming%Hu%xref no email%1,  Yan%Zhao%xref no email%1,  Ruiqiang%Zheng%xref no email%1,  Xuyan%Li%xref no email%1,  Bo%Hu%xref no email%0,  Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%5,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%5,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%5,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%5,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%5,                      Shangwen%Pan%NULL%5,                      Xiaojing%Zou%NULL%7,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                      Shanyan%Zhang%NULL%2,                      Xiaoli%Zhang%NULL%1,                      Huan%Cai%NULL%2,                      Jueqing%Gu%NULL%2,                      Jiangshan%Lian%NULL%2,                      Yingfeng%Lu%NULL%2,                      Hongyu%Jia%NULL%2,                      Jianhua%Hu%NULL%2,                      Ciliang%Jin%NULL%2,                      Guodong%Yu%NULL%2,                      Yimin%Zhang%NULL%2,                      Jifang%Sheng%NULL%4,                      Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                      Dan%Xu%NULL%0,                      Shouzhi%Fu%NULL%0,                      Jun%Zhang%NULL%0,                      Xiaobo%Yang%NULL%0,                      Liang%Xu%NULL%0,                      Jiqian%Xu%NULL%0,                      Yongran%Wu%NULL%0,                      Chaolin%Huang%NULL%0,                      Yaqi%Ouyang%NULL%0,                      Luyu%Yang%NULL%0,                      Minghao%Fang%NULL%0,                      Hongwen%Xiao%NULL%0,                      Jing%Ma%NULL%0,                      Wei%Zhu%NULL%0,                      Song%Hu%NULL%0,                      Quan%Hu%NULL%0,                      Daoyin%Ding%NULL%0,                      Ming%Hu%NULL%0,                      Guochao%Zhu%NULL%0,                      Weijiang%Xu%NULL%0,                      Jun%Guo%NULL%0,                      Jinglong%Xu%NULL%0,                      Haitao%Yuan%NULL%0,                      Bin%Zhang%NULL%0,                      Zhui%Yu%yuzhui@whu.edu.cn%0,                      Dechang%Chen%icudechangchen@163.com%0,                      Shiying%Yuan%yuan_shiying@163.com%0,                      You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                      Hao-Yu%Gao%NULL%1,                      Zi-Yi%Feng%NULL%1,                      Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                      Li-jun%Sun%NULL%1,                      Mi%Xu%NULL%1,                      Jian%Pan%NULL%1,                      Yun-tao%Zhang%NULL%1,                      Xue-ling%Fang%NULL%1,                      Qiang%Fang%NULL%2,                      Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                      Ziqiang%Du%NULL%1,                      Yanfang%Zhu%NULL%1,                      Wenfeng%Li%NULL%1,                      Hongjun%Miao%NULL%1,                      Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                      Sarah%Al-Youha%sarahalyouha@gmail.com%1,                      Mohammad H.%Jamal%NULL%1,                      Mohannad%Al-Haddad%NULL%1,                      Ali%Al-Muhaini%NULL%1,                      Fahad%Al-Ghimlas%NULL%1,                      Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                      Mina%Akbari Rad%NULL%1,                      Robert%Bergquist%NULL%1,                      Abolghasem%Allahyari%NULL%1,                      Kamila%Hashemzadeh%NULL%1,                      Nasrin%Milani%NULL%1,                      Mahdi%Gholian-Aval%NULL%1,                      Fariba%Rezaeitalab%NULL%1,                      Mohammad Jafar%Sadeghi Quchani%NULL%1,                      Zahra%Nahbandani%NULL%1,                      Mandana%Khodashahi%NULL%1,                      Zahra%Javid%NULL%1,                      Mahnaz%Mozdourian%NULL%1,                      Mohammad Ali%Yaghoubi%NULL%1,                      Zahra%Mozaheb%NULL%1,                      Mohsen%Seddigh-Shamsi%NULL%1,                      Mohammad%Moeini Nodeh%NULL%1,                      Shima%Nabavi%NULL%1,                      Hooman%Mosannen Mozaffari%NULL%1,                      Mohammadreza%Farzanehfar%NULL%1,                      Zahra%Lotfi%NULL%1,                      Alireza%Shariati%NULL%1,                      Shekoofe%Bonakdaran%NULL%1,                      Zahra%Rezaieyazdi%NULL%1,                      Zahra%Mirfeizi%NULL%1,                      Maryam%Miri%NULL%1,                      Reza%Bassiri%NULL%1,                      Sajjad%Ataei Azimi%NULL%1,                      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                      Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                      Ibrahim%Al-Zakwani%NULL%1,                      Hamed%Al Naamani%NULL%1,                      Sultan%Al Lawati%NULL%1,                      Nenad%Pandak%NULL%1,                      Muna Ba%Omar%NULL%1,                      Maher%Al Bahrani%NULL%1,                      Zakaryia AL%Bulushi%NULL%1,                      Huda%Al Khalili%NULL%1,                      Issa%Al Salmi%NULL%1,                      Ruwaida%Al Ismaili%NULL%1,                      Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                      Zohre%Khodamoradi%NULL%1,                      Amirhossein%Erfani%NULL%1,                      Hamidreza%Hosseinpour%NULL%1,                      Keivan%Ranjbar%NULL%1,                      Yasaman%Emami%NULL%1,                      Alireza%Mirahmadizadeh%NULL%1,                      Mehrzad%Lotfi%NULL%1,                      Babak%Shirazi Yeganeh%NULL%1,                      Abolfazl%Dorrani Nejad%NULL%1,                      Abdolrasool%Hemmati%NULL%1,                      Mostafa%Ebrahimi%NULL%1,                      Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                      Annachiara%Ferrari%NULL%2,                      Annachiara%Ferrari%NULL%0,                      Francesco%Fontana%NULL%1,                      Giacomo%Mori%NULL%1,                      Riccardo%Magistroni%NULL%1,                      Marianna%Meschiari%NULL%1,                      Erica%Franceschini%NULL%1,                      Marianna%Menozzi%NULL%1,                      Gianluca%Cuomo%NULL%1,                      Gabriella%Orlando%NULL%1,                      Antonella%Santoro%NULL%1,                      Margherita%Digaetano%NULL%1,                      Cinzia%Puzzolante%NULL%1,                      Federica%Carli%NULL%1,                      Andrea%Bedini%NULL%1,                      Jovana%Milic%NULL%1,                      Irene%Coloretti%NULL%1,                      Paolo%Raggi%NULL%1,                      Cristina%Mussini%NULL%1,                      Massimo%Girardis%NULL%1,                      Gianni%Cappelli%NULL%1,                      Giovanni%Guaraldi%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                      Silvia%Bettini%NULL%2,                      Silvia%Bettini%NULL%0,                      Roberto%Fabris%NULL%1,                      Roberto%Serra%NULL%2,                      Chiara%Dal Pra%NULL%1,                      Pietro%Maffei%NULL%1,                      Marco%Rossato%NULL%1,                      Paola%Fioretto%NULL%0,                      Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                      Marco%Roncador%NULL%2,                      Marco%Roncador%NULL%0,                      Andrea%Saporito%NULL%1,                      Maira%Biggiogero%NULL%1,                      Andrea%Glotta%NULL%1,                      Pier Andrea%Maida%NULL%1,                      Patrizia%Urso%NULL%1,                      Giovanni%Bona%NULL%1,                      Christian%Garzoni%NULL%1,                      Romano%Mauri%NULL%1,                      Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                      Anna Lisa%Ridolfo%NULL%4,                      Laura%Milazzo%NULL%2,                      Letizia%Oreni%NULL%4,                      Dario%Bernacchia%NULL%4,                      Matteo%Siano%NULL%4,                      Cecilia%Bonazzetti%NULL%2,                      Alice%Covizzi%NULL%2,                      Marco%Schiuma%NULL%2,                      Matteo%Passerini%NULL%2,                      Marco%Piscaglia%NULL%2,                      Massimo%Coen%NULL%2,                      Guido%Gubertini%NULL%2,                      Giuliano%Rizzardini%NULL%4,                      Chiara%Cogliati%NULL%2,                      Anna Maria%Brambilla%NULL%2,                      Riccardo%Colombo%NULL%2,                      Antonio%Castelli%NULL%2,                      Roberto%Rech%NULL%2,                      Agostino%Riva%NULL%2,                      Alessandro%Torre%NULL%2,                      Luca%Meroni%NULL%2,                      Stefano%Rusconi%NULL%4,                      Spinello%Antinori%NULL%4,                      Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                     Cabrini%Luca%coreGivesNoEmail%4,                     Castelli%Antonio%coreGivesNoEmail%4,                     Cecconi%Maurizio%coreGivesNoEmail%4,                     Cereda%Danilo%coreGivesNoEmail%4,                     Coluccello%Antonio%coreGivesNoEmail%4,                     Foti%Giuseppe%coreGivesNoEmail%4,                     Fumagalli%Roberto%coreGivesNoEmail%4,                     Grasselli%Giacomo%coreGivesNoEmail%4,                     Iotti%Giorgio%coreGivesNoEmail%4,                     Latronico%Nicola%coreGivesNoEmail%4,                     Lorini%Luca%coreGivesNoEmail%4,                     Merler%Stefano%coreGivesNoEmail%4,                     Natalini%Giuseppe%coreGivesNoEmail%4,                     Pesenti%Antonio%coreGivesNoEmail%4,                     Piatti%Alessandra%coreGivesNoEmail%4,                     Ranieri%Marco Vito%coreGivesNoEmail%4,                     Scandroglio%Anna Mara%coreGivesNoEmail%4,                     Storti%Enrico%coreGivesNoEmail%4,                     Zanella%Alberto%coreGivesNoEmail%4,                     Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                      Lara%Gianesello%gianesello.lara@libero.it%1,                      Maddalena%Pazzi%NULL%2,                      Maddalena%Pazzi%NULL%0,                      Caterina%Stera%NULL%1,                      Tommaso%Meconi%NULL%1,                      Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                      Andrea%Dalbeni%NULL%2,                      Andrea%Dalbeni%NULL%0,                      Elia%Vettore%NULL%2,                      Elia%Vettore%NULL%0,                      Devis%Benfaremo%NULL%1,                      Massimo%Mattioli%NULL%1,                      Carmine G.%Gambino%NULL%1,                      Viviana%Framba%NULL%2,                      Viviana%Framba%NULL%0,                      Lorenzo%Cerruti%NULL%1,                      Anna%Mantovani%NULL%1,                      Andrea%Martini%NULL%1,                      Michele M.%Luchetti%NULL%1,                      Roberto%Serra%NULL%0,                      Annamaria%Cattelan%NULL%1,                      Roberto%Vettor%NULL%0,                      Paolo%Angeli%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                      Matthaios%Papadimitriou-Olivgeris%NULL%2,                      Matthaios%Papadimitriou-Olivgeris%NULL%0,                      Raphaël%Burger%NULL%1,                      Marie-Annick%Le Pogam%NULL%1,                      Tapio%Niemi%NULL%2,                      Tapio%Niemi%NULL%0,                      Paraskevas%Filippidis%NULL%1,                      Jonathan%Tschopp%NULL%1,                      Florian%Desgranges%NULL%1,                      Benjamin%Viala%NULL%1,                      Eleftheria%Kampouri%NULL%1,                      Laurence%Rochat%NULL%2,                      Laurence%Rochat%NULL%0,                      David%Haefliger%NULL%1,                      Mehdi%Belkoniene%NULL%1,                      Carlos%Fidalgo%NULL%1,                      Antonios%Kritikos%NULL%1,                      Katia%Jaton%NULL%1,                      Laurence%Senn%NULL%1,                      Pierre-Alexandre%Bart%NULL%1,                      Jean-Luc%Pagani%NULL%2,                      Jean-Luc%Pagani%NULL%0,                      Oriol%Manuel%NULL%1,                      Loïc%Lhopitallier%NULL%1,                      Chiara%Lazzeri%NULL%2,                      Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                      Ashwin%Subramaniam%NULL%2,                      Ashwin%Subramaniam%NULL%0,                      Mallikarjuna%Ponnapa Reddy%NULL%2,                      Mallikarjuna%Ponnapa Reddy%NULL%0,                      Gabriel%Blecher%NULL%1,                      Umesh%Kadam%NULL%2,                      Umesh%Kadam%NULL%0,                      Afsana%Afroz%NULL%1,                      Baki%Billah%NULL%1,                      Sushma%Ashwin%NULL%1,                      Mark%Kubicki%NULL%1,                      Federico%Bilotta%NULL%1,                      J. Randall%Curtis%NULL%2,                      J. Randall%Curtis%NULL%0,                      Francesca%Rubulotta%NULL%2,                      Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                     Aggarwal%Saurabh%coreGivesNoEmail%3,                     Garcia-Telles%Nelson%coreGivesNoEmail%3,                     Henry%Brandon Michael%coreGivesNoEmail%3,                     Lavie%Carl%coreGivesNoEmail%3,                     Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                      Samuel L%Bruce%NULL%2,                      Cody L%Slater%NULL%2,                      Jonathan R%Tiao%NULL%2,                      Matthew R%Baldwin%NULL%3,                      R Graham%Barr%NULL%2,                      Bernard P%Chang%NULL%2,                      Katherine H%Chau%NULL%2,                      Justin J%Choi%NULL%2,                      Nicholas%Gavin%NULL%2,                      Parag%Goyal%NULL%2,                      Angela M%Mills%NULL%2,                      Ashmi A%Patel%NULL%2,                      Marie-Laure S%Romney%NULL%2,                      Monika M%Safford%NULL%2,                      Neil W%Schluger%NULL%2,                      Soumitra%Sengupta%NULL%2,                      Magdalena E%Sobieszczyk%NULL%2,                      Jason E%Zucker%NULL%2,                      Paul A%Asadourian%NULL%2,                      Fletcher M%Bell%NULL%2,                      Rebekah%Boyd%NULL%2,                      Matthew F%Cohen%NULL%2,                      MacAlistair I%Colquhoun%NULL%2,                      Lucy A%Colville%NULL%2,                      Joseph H%de Jonge%NULL%2,                      Lyle B%Dershowitz%NULL%2,                      Shirin A%Dey%NULL%2,                      Katherine A%Eiseman%NULL%2,                      Zachary P%Girvin%NULL%2,                      Daniella T%Goni%NULL%2,                      Amro A%Harb%NULL%2,                      Nicholas%Herzik%NULL%2,                      Sarah%Householder%NULL%2,                      Lara E%Karaaslan%NULL%2,                      Heather%Lee%NULL%2,                      Evan%Lieberman%NULL%2,                      Andrew%Ling%NULL%2,                      Ree%Lu%NULL%2,                      Arthur Y%Shou%NULL%2,                      Alexander C%Sisti%NULL%2,                      Zachary E%Snow%NULL%2,                      Colin P%Sperring%NULL%2,                      Yuqing%Xiong%NULL%2,                      Henry W%Zhou%NULL%2,                      Karthik%Natarajan%NULL%2,                      George%Hripcsak%NULL%2,                      Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                      Mark%Caridi-Scheible%NULL%3,                      James M.%Blum%NULL%2,                      Chad%Robichaux%NULL%2,                      Colleen%Kraft%NULL%2,                      Jesse T.%Jacob%NULL%2,                      Craig S.%Jabaley%NULL%2,                      David%Carpenter%NULL%2,                      Roberta%Kaplow%NULL%2,                      Alfonso C.%Hernandez-Romieu%NULL%2,                      Max W.%Adelman%NULL%2,                      Greg S.%Martin%NULL%2,                      Craig M.%Coopersmith%NULL%2,                      David J.%Murphy%NULL%2,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                      Bijan J.%Ghassemieh%NULL%0,                      Michelle%Nichols%NULL%0,                      Richard%Kim%NULL%0,                      Keith R.%Jerome%NULL%0,                      Arun K.%Nalla%NULL%0,                      Alexander L.%Greninger%NULL%0,                      Sudhakar%Pipavath%NULL%0,                      Mark M.%Wurfel%NULL%0,                      Laura%Evans%NULL%0,                      Patricia A.%Kritek%NULL%0,                      T. Eoin%West%NULL%0,                      Andrew%Luks%NULL%0,                      Anthony%Gerbino%NULL%0,                      Chris R.%Dale%NULL%0,                      Jason D.%Goldman%NULL%0,                      Shane%O’Mahony%NULL%0,                      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                      Denise J%McCulloch%NULL%0,                      Denise J%McCulloch%NULL%0,                      Vidya%Atluri%NULL%0,                      Michela%Blain%NULL%0,                      Sarah A%McGuffin%NULL%0,                      Arun K%Nalla%NULL%0,                      Meei-Li%Huang%NULL%0,                      Alex L%Greninger%NULL%0,                      Keith R%Jerome%NULL%0,                      Seth A%Cohen%NULL%0,                      Santiago%Neme%NULL%0,                      Margaret L%Green%NULL%0,                      Helen Y%Chu%NULL%0,                      H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                      Joelle I.%Rosser%NULL%0,                      Orlando%Quintero%NULL%0,                      Jake%Scott%NULL%0,                      Aruna%Subramanian%NULL%0,                      Mohammad%Gumma%NULL%0,                      Angela%Rogers%NULL%0,                      Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                      Jacob%Fiksel%NULL%2,                      Jacob%Fiksel%NULL%0,                      John%Muschelli%NULL%2,                      John%Muschelli%NULL%0,                      Matthew L.%Robinson%NULL%2,                      Matthew L.%Robinson%NULL%0,                      Masoud%Rouhizadeh%NULL%2,                      Masoud%Rouhizadeh%NULL%0,                      Jamie%Perin%NULL%2,                      Jamie%Perin%NULL%0,                      Grant%Schumock%NULL%2,                      Grant%Schumock%NULL%0,                      Paul%Nagy%NULL%2,                      Paul%Nagy%NULL%0,                      Josh H.%Gray%NULL%2,                      Josh H.%Gray%NULL%0,                      Harsha%Malapati%NULL%2,                      Harsha%Malapati%NULL%0,                      Mariam%Ghobadi-Krueger%NULL%2,                      Mariam%Ghobadi-Krueger%NULL%0,                      Timothy M.%Niessen%NULL%1,                      Bo Soo%Kim%NULL%1,                      Peter M.%Hill%NULL%1,                      M. Shafeeq%Ahmed%NULL%1,                      Eric D.%Dobkin%NULL%1,                      Renee%Blanding%NULL%1,                      Jennifer%Abele%NULL%1,                      Bonnie%Woods%NULL%1,                      Kenneth%Harkness%NULL%1,                      David R.%Thiemann%NULL%1,                      Mary G.%Bowring%NULL%1,                      Aalok B.%Shah%NULL%2,                      Aalok B.%Shah%NULL%0,                      Mei-Cheng%Wang%NULL%1,                      Karen%Bandeen-Roche%NULL%1,                      Antony%Rosen%NULL%1,                      Scott L.%Zeger%NULL%2,                      Scott L.%Zeger%NULL%0,                      Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                      Justin J.%Choi%NULL%0,                      Laura C.%Pinheiro%NULL%0,                      Edward J.%Schenck%NULL%0,                      Ruijun%Chen%NULL%0,                      Assem%Jabri%NULL%0,                      Michael J.%Satlin%NULL%0,                      Thomas R.%Campion%NULL%0,                      Musarrat%Nahid%NULL%0,                      Joanna B.%Ringel%NULL%0,                      Katherine L.%Hoffman%NULL%0,                      Mark N.%Alshak%NULL%0,                      Han A.%Li%NULL%0,                      Graham T.%Wehmeyer%NULL%0,                      Graham T.%Wehmeyer%NULL%0,                      Mangala%Rajan%NULL%0,                      Evgeniya%Reshetnyak%NULL%0,                      Nathaniel%Hupert%NULL%0,                      Evelyn M.%Horn%NULL%0,                      Fernando J.%Martinez%NULL%0,                      Roy M.%Gulick%NULL%0,                      Monika M.%Safford%NULL%0,                      Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                      Simon A%Jones%NULL%0,                      Jie%Yang%NULL%0,                      Harish%Rajagopalan%NULL%0,                      Luke%O’Donnell%NULL%0,                      Yelena%Chernyak%NULL%0,                      Katie A%Tobin%NULL%0,                      Robert J%Cerfolio%NULL%0,                      Fritz%Francois%NULL%0,                      Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                      Anatoly%Mitrokhin%NULL%2,                      Anatoly%Mitrokhin%NULL%0,                      Ajai%Rajabalan%NULL%1,                      Christian%Benjamin%NULL%1,                      Sushma%Raviralla%NULL%1,                      Vishnu R%Mani%vishnu.mani@duke.edu%2,                      Vishnu R%Mani%vishnu.mani@duke.edu%0,                      Aleksandr%Kalabin%NULL%2,                      Aleksandr%Kalabin%NULL%0,                      Sebastian C%Valdivieso%NULL%2,                      Sebastian C%Valdivieso%NULL%0,                      Max%Murray-Ramcharan%NULL%2,                      Max%Murray-Ramcharan%NULL%0,                      Brian%Donaldson%NULL%2,                      Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                       Nicholas A.%Fergusson%null%2,                       Elisa%Lloyd-Smith%null%2,                       Andrew%Wormsbecker%null%2,                       Denise%Foster%null%2,                       Andrei%Karpov%null%2,                       Sarah%Crowe%null%2,                       Greg%Haljan%null%2,                       Dean R.%Chittock%null%2,                       Hussein D.%Kanji%null%2,                       Mypinder S.%Sekhon%null%2,                       Donald E.G.%Griesdale%null%2,                     Anish R.%Mitra%null%1,                     Nicholas A.%Fergusson%null%1,                     Elisa%Lloyd-Smith%null%1,                     Andrew%Wormsbecker%null%1,                     Denise%Foster%null%1,                     Andrei%Karpov%null%1,                     Sarah%Crowe%null%1,                     Greg%Haljan%null%1,                     Dean R.%Chittock%null%1,                     Hussein D.%Kanji%null%1,                     Mypinder S.%Sekhon%null%1,                     Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                      Damianos G.%Kokkinidis%NULL%1,                      Weijia%Li%NULL%1,                      Dimitrios%Karamanis%NULL%1,                      Jennifer%Ognibene%NULL%1,                      Shitij%Arora%NULL%1,                      William N.%Southern%NULL%1,                      Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                      Jesus D.%Gonzalez-Lugo%NULL%1,                      Shafia%Rahman%NULL%1,                      Mohammad%Barouqa%NULL%1,                      James%Szymanski%NULL%1,                      Kenji%Ikemura%NULL%1,                      Yungtai%Lo%NULL%1,                      Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%4,                     Chelico%J.D.%coreGivesNoEmail%4,                     Cohen%S.L.%coreGivesNoEmail%4,                     Cookingham%J.%coreGivesNoEmail%4,                     Coppa%K.%coreGivesNoEmail%4,                     Crawford%J.M.%coreGivesNoEmail%4,                     Davidson%K.W.%coreGivesNoEmail%4,                     Diefenbach%M.A.%coreGivesNoEmail%4,                     Dominello%A.J.%coreGivesNoEmail%4,                     Duer-Hefele%J.%coreGivesNoEmail%4,                     Falzon%L.%coreGivesNoEmail%4,                     Gitlin%J.%coreGivesNoEmail%4,                     Hajizadeh%N.%coreGivesNoEmail%4,                     Harvin%T.G.%coreGivesNoEmail%4,                     Hirsch%J.S.%coreGivesNoEmail%4,                     Hirschwerk%D.A.%coreGivesNoEmail%4,                     Kim%E.J.%coreGivesNoEmail%4,                     Kozel%Z.M.%coreGivesNoEmail%4,                     Marrast%L.M.%coreGivesNoEmail%4,                     McGinn%T.%coreGivesNoEmail%4,                     Mogavero%J.N.%coreGivesNoEmail%4,                     Narasimhan%M.%coreGivesNoEmail%4,                     Osorio%G.A.%coreGivesNoEmail%4,                     Qiu%M.%coreGivesNoEmail%4,                     Richardson%S.%coreGivesNoEmail%4,                     Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                      Viet-Thi%Tran%NULL%4,                      Viet-Thi%Tran%NULL%0,                      Mathilde%Roumier%NULL%2,                      Amélie%Chabrol%NULL%2,                      Romain%Paule%NULL%2,                      Constance%Guillaud%NULL%2,                      Elena%Fois%NULL%2,                      Raphael%Lepeule%NULL%2,                      Tali-Anne%Szwebel%NULL%2,                      François-Xavier%Lescure%NULL%2,                      Frédéric%Schlemmer%NULL%2,                      Marie%Matignon%NULL%2,                      Mehdi%Khellaf%NULL%2,                      Etienne%Crickx%NULL%2,                      Benjamin%Terrier%NULL%2,                      Caroline%Morbieu%NULL%2,                      Paul%Legendre%NULL%2,                      Julien%Dang%NULL%2,                      Yoland%Schoindre%NULL%2,                      Jean-Michel%Pawlotsky%NULL%2,                      Marc%Michel%NULL%2,                      Elodie%Perrodeau%NULL%2,                      Nicolas%Carlier%NULL%2,                      Nicolas%Roche%NULL%2,                      Victoire%de Lastours%NULL%2,                      Clément%Ourghanlian%NULL%2,                      Solen%Kerneis%NULL%2,                      Philippe%Ménager%NULL%2,                      Luc%Mouthon%NULL%2,                      Etienne%Audureau%NULL%2,                      Philippe%Ravaud%NULL%2,                      Bertrand%Godeau%NULL%2,                      Sébastien%Gallien%NULL%2,                      Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,  Abu Baker%Sheikh%xref no email%1,  Shubhra%Upadhyay%xref no email%1,  Jeanette%Atencio%xref no email%1,  Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                    Yu%Zuo%NULL%1,                    Srilakshmi%Yalavarthi%NULL%1,                    Kelsey%Gockman%NULL%1,                    Melanie%Zuo%NULL%1,                    Jacqueline A%Madison%NULL%1,                    Christopher%Blair%NULL%1,                    Wrenn%Woodward%NULL%1,                    Sean P%Lezak%NULL%1,                    Njira L%Lugogo%NULL%1,                    Robert J%Woods%NULL%1,                    Christian%Lood%NULL%1,                    Jason S%Knight%NULL%2,                    Jason S%Knight%NULL%0,                    Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                      Raef A.%Fadel%NULL%1,                      Kelly M.%Malette%NULL%1,                      Charles%Hammond%NULL%1,                      Hafsa%Abdulla%NULL%1,                      Abigail%Entz%NULL%1,                      Zachary%Demertzis%NULL%1,                      Zachary%Hanna%NULL%1,                      Andrew%Failla%NULL%1,                      Carina%Dagher%NULL%0,                      Zohra%Chaudhry%NULL%2,                      Amit%Vahia%NULL%2,                      Odaliz%Abreu Lanfranco%NULL%1,                      Mayur%Ramesh%NULL%1,                      Marcus J.%Zervos%NULL%1,                      George%Alangaden%NULL%2,                      Joseph%Miller%NULL%2,                      Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,  Daniel%Mu\u00f1oz%xref no email%1,  Alberto%Fica%xref no email%1,  Ignacio%Delama%xref no email%1,  Ignacia%Alvarez%xref no email%1,  Maritza%Navarrete%xref no email%1,  Eileen%Blackburn%xref no email%1,  Pamela%Garrido%xref no email%1,  Ricardo%Wenger%xref no email%1,  Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                        J.% Jiang%null%1,                        X.% Xu%null%1,                        Y.% Hu%null%2,                        Y.% Hu%null%0,                        Y. % Zhao%null%1,     C.%Chen%null%1,     J.% Jiang%null%2,     X.% Xu%null%1,     Y.% Hu%null%2,     Y.% Hu%null%0,     Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                       Chenchen%Qian%NULL%1,                       Zhibing%Luo%NULL%1,                       Qiang%Li%liqressh@hotmail.com%0,                       Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                       Chunlin%Cai%NULL%1,                       Jinglei%Zang%NULL%1,                       Jun%Xie%NULL%1,                       Dan%Xu%NULL%0,                       Fang%Zheng%NULL%0,                       Tao%Zhan%NULL%1,                       Kang%Huang%NULL%1,                       Yikai%Wang%NULL%1,                       Xiao%Wang%NULL%1,                       Zhe-Yu%Hu%NULL%1,                       Yapeng%Deng%NULL%1,                       Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                       Naofumi%Bunya%NULL%1,                       Tomoyuki%Endo%NULL%1,                       Yuji%Fujino%NULL%1,                       Kensuke%Fujita%NULL%1,                       Kenji%Fujizuka%NULL%1,                       Yoshihiro%Hagiwara%NULL%1,                       Jun%Hamaguchi%NULL%1,                       Yoshitaka%Hara%NULL%1,                       Eiji%Hashiba%NULL%1,                       Satoru%Hashimoto%NULL%1,                       Noriyuki%Hattori%NULL%1,                       Kota%Hoshino%NULL%1,                       Shinichi%Ijuin%NULL%1,                       Takanari%Ikeyama%NULL%1,                       Shingo%Ichiba%NULL%1,                       Wataru%Iwanaga%NULL%1,                       Yoshiaki%Iwashita%NULL%1,                       Masafumi%Kanamoto%NULL%1,                       Hitoshi%Kaneko%NULL%1,                       Kaneyuki%Kawamae%NULL%1,                       Toru%Kotani%NULL%1,                       Yasuaki%Koyama%NULL%1,                       Keibun%Liu%NULL%1,                       Tomohiko%Masuno%NULL%1,                       Naoto%Morimura%NULL%1,                       Tomoyuki%Nakamura%NULL%1,                       Masaki%Nakane%NULL%1,                       Michitaka%Nasu%NULL%1,                       Osamu%Nishida%NULL%1,                       Masaji%Nishimura%NULL%1,                       Kanae%Ochiai%NULL%1,                       Takayuki%Ogura%NULL%1,                       Shinichiro%Ohshimo%NULL%1,                       Keisuke%Oyama%NULL%1,                       Junichi%Sasaki%NULL%1,                       Ryutaro%Seo%NULL%1,                       Takeshi%Shimazu%NULL%1,                       Nobuaki%Shime%NULL%4,                       Keiki%Shimizu%NULL%1,                       Hiroyuki%Suzuki%NULL%1,                       Shuhei%Takauji%NULL%1,                       Shinhiro%Takeda%NULL%1,                       Ichiro%Takeuchi%NULL%2,                       Mumon%Takita%NULL%1,                       Hayato%Taniguchi%NULL%1,                       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                       Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                       Yi Xin%Tong%NULL%3,                       Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                       Hong%Chen%NULL%0,                       Zhen%Li%NULL%2,                       Bo%Wang%NULL%0,                       Zhong-Wei%Zhang%NULL%1,                       Wei-Min%Li%NULL%0,                       Zong-An%Liang%NULL%0,                       Jin%Tang%NULL%1,                       Jian%Wang%NULL%1,                       Rui%Shi%NULL%1,                       Xiao-Dong%Jin%NULL%1,                       Yan%Kang%NULL%0,                       Pei-Fang%Wei%NULL%8,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                        S. F.% Mahmood%null%1,                        K.% Habib%null%1,                        I.% Khanum%null%1,                        B. % Jamil%null%1,     N.%Nasir%null%1,     S. F.% Mahmood%null%1,     K.% Habib%null%1,     I.% Khanum%null%1,     B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                       Chaisith%Sivakorn%NULL%1,                       Tanuwong%Viarasilpa%NULL%1,                       Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                       Mu%Qin%qinmuae@163.com%1,                       Yuli%Cai%NULL%1,                       Tao%Liu%NULL%0,                       Bo%Shen%NULL%1,                       Fan%Yang%NULL%2,                       Sheng%Cao%NULL%1,                       Xu%Liu%NULL%2,                       Xu%Liu%NULL%0,                       Yaozu%Xiang%NULL%1,                       Qinyan%Zhao%NULL%1,                       He%Huang%huanghe1977@whu.edu.cn%0,                       Bo%Yang%yybb112@whu.edu.cn%0,                       Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                       Win%Kulvichit%NULL%1,                       Sunchai%Payungporn%NULL%1,                       Trairak%Pisitkun%NULL%1,                       Ariya%Chindamporn%NULL%1,                       Sadudee%Peerapornratana%NULL%1,                       Prapaporn%Pisitkun%NULL%1,                       Suwalak%Chitcharoen%NULL%1,                       Vorthon%Sawaswong%NULL%1,                       Navaporn%Worasilchai%NULL%1,                       Sarinya%Kampunya%NULL%1,                       Opass%Putcharoen%NULL%1,                       Thammasak%Thawitsri%NULL%1,                       Nophol%Leelayuwatanakul%NULL%1,                       Napplika%Kongpolprom%NULL%1,                       Vorakamol%Phoophiboon%NULL%1,                       Thitiwat%Sriprasart%NULL%1,                       Rujipat%Samransamruajkit%NULL%1,                       Somkanya%Tungsanga%NULL%1,                       Kanitha%Tiankanon%NULL%1,                       Nuttha%Lumlertgul%NULL%1,                       Asada%Leelahavanichkul%NULL%1,                       Tueboon%Sriphojanart%NULL%1,                       Terapong%Tantawichien%NULL%1,                       Usa%Thisyakorn%NULL%1,                       Chintana%Chirathaworn%NULL%1,                       Kearkiat%Praditpornsilpa%NULL%1,                       Kriang%Tungsanga%NULL%1,                       Somchai%Eiam-Ong%NULL%1,                       Visith%Sitprija%NULL%1,                       John A.%Kellum%NULL%1,                       Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                       Min%Pan%NULL%3,                       Xiumei%Zhang%NULL%3,                       Mingfeng%Han%fyhmf@163.com%5,                       Xiaoyun%Fan%13956988552@126.com%3,                       Fengde%Zhao%NULL%3,                       Manli%Miao%NULL%3,                       Jing%Xu%NULL%0,                       Minglong%Guan%NULL%3,                       Xia%Deng%NULL%3,                       Xu%Chen%NULL%4,                       Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%2,                       Chunli%Tang%NULL%0,                       Ruchong%Chen%NULL%1,                       Honglian%Ruan%NULL%1,                       Wenhua%Liang%NULL%0,                       Weijie%Guan%NULL%0,                       Ling%Sang%NULL%0,                       Ruidi%Tang%NULL%1,                       Nanshan%Zhong%NULL%0,                       Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,   Shuhan%Cai%xref no email%1,   Yun%Luo%xref no email%1,   Fangfang%Zhu%xref no email%1,   Ming%Hu%xref no email%1,   Yan%Zhao%xref no email%1,   Ruiqiang%Zheng%xref no email%1,   Xuyan%Li%xref no email%1,   Bo%Hu%xref no email%0,   Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%5,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%5,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%5,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%5,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%5,                       Shangwen%Pan%NULL%5,                       Xiaojing%Zou%NULL%7,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                       Shanyan%Zhang%NULL%2,                       Xiaoli%Zhang%NULL%1,                       Huan%Cai%NULL%2,                       Jueqing%Gu%NULL%2,                       Jiangshan%Lian%NULL%2,                       Yingfeng%Lu%NULL%2,                       Hongyu%Jia%NULL%2,                       Jianhua%Hu%NULL%2,                       Ciliang%Jin%NULL%2,                       Guodong%Yu%NULL%2,                       Yimin%Zhang%NULL%2,                       Jifang%Sheng%NULL%4,                       Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                       Dan%Xu%NULL%0,                       Shouzhi%Fu%NULL%0,                       Jun%Zhang%NULL%0,                       Xiaobo%Yang%NULL%0,                       Liang%Xu%NULL%0,                       Jiqian%Xu%NULL%0,                       Yongran%Wu%NULL%0,                       Chaolin%Huang%NULL%0,                       Yaqi%Ouyang%NULL%0,                       Luyu%Yang%NULL%0,                       Minghao%Fang%NULL%0,                       Hongwen%Xiao%NULL%0,                       Jing%Ma%NULL%0,                       Wei%Zhu%NULL%0,                       Song%Hu%NULL%0,                       Quan%Hu%NULL%0,                       Daoyin%Ding%NULL%0,                       Ming%Hu%NULL%0,                       Guochao%Zhu%NULL%0,                       Weijiang%Xu%NULL%0,                       Jun%Guo%NULL%0,                       Jinglong%Xu%NULL%0,                       Haitao%Yuan%NULL%0,                       Bin%Zhang%NULL%0,                       Zhui%Yu%yuzhui@whu.edu.cn%0,                       Dechang%Chen%icudechangchen@163.com%0,                       Shiying%Yuan%yuan_shiying@163.com%0,                       You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                       Hao-Yu%Gao%NULL%1,                       Zi-Yi%Feng%NULL%1,                       Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                       Li-jun%Sun%NULL%1,                       Mi%Xu%NULL%1,                       Jian%Pan%NULL%1,                       Yun-tao%Zhang%NULL%1,                       Xue-ling%Fang%NULL%1,                       Qiang%Fang%NULL%2,                       Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                       Ziqiang%Du%NULL%1,                       Yanfang%Zhu%NULL%1,                       Wenfeng%Li%NULL%1,                       Hongjun%Miao%NULL%1,                       Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                       Sarah%Al-Youha%sarahalyouha@gmail.com%1,                       Mohammad H.%Jamal%NULL%1,                       Mohannad%Al-Haddad%NULL%1,                       Ali%Al-Muhaini%NULL%1,                       Fahad%Al-Ghimlas%NULL%1,                       Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                       Mina%Akbari Rad%NULL%1,                       Robert%Bergquist%NULL%1,                       Abolghasem%Allahyari%NULL%1,                       Kamila%Hashemzadeh%NULL%1,                       Nasrin%Milani%NULL%1,                       Mahdi%Gholian-Aval%NULL%1,                       Fariba%Rezaeitalab%NULL%1,                       Mohammad Jafar%Sadeghi Quchani%NULL%1,                       Zahra%Nahbandani%NULL%1,                       Mandana%Khodashahi%NULL%1,                       Zahra%Javid%NULL%1,                       Mahnaz%Mozdourian%NULL%1,                       Mohammad Ali%Yaghoubi%NULL%1,                       Zahra%Mozaheb%NULL%1,                       Mohsen%Seddigh-Shamsi%NULL%1,                       Mohammad%Moeini Nodeh%NULL%1,                       Shima%Nabavi%NULL%1,                       Hooman%Mosannen Mozaffari%NULL%1,                       Mohammadreza%Farzanehfar%NULL%1,                       Zahra%Lotfi%NULL%1,                       Alireza%Shariati%NULL%1,                       Shekoofe%Bonakdaran%NULL%1,                       Zahra%Rezaieyazdi%NULL%1,                       Zahra%Mirfeizi%NULL%1,                       Maryam%Miri%NULL%1,                       Reza%Bassiri%NULL%1,                       Sajjad%Ataei Azimi%NULL%1,                       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                       Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                       Ibrahim%Al-Zakwani%NULL%1,                       Hamed%Al Naamani%NULL%1,                       Sultan%Al Lawati%NULL%1,                       Nenad%Pandak%NULL%1,                       Muna Ba%Omar%NULL%1,                       Maher%Al Bahrani%NULL%1,                       Zakaryia AL%Bulushi%NULL%1,                       Huda%Al Khalili%NULL%1,                       Issa%Al Salmi%NULL%1,                       Ruwaida%Al Ismaili%NULL%1,                       Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                       Zohre%Khodamoradi%NULL%1,                       Amirhossein%Erfani%NULL%1,                       Hamidreza%Hosseinpour%NULL%1,                       Keivan%Ranjbar%NULL%1,                       Yasaman%Emami%NULL%1,                       Alireza%Mirahmadizadeh%NULL%1,                       Mehrzad%Lotfi%NULL%1,                       Babak%Shirazi Yeganeh%NULL%1,                       Abolfazl%Dorrani Nejad%NULL%1,                       Abdolrasool%Hemmati%NULL%1,                       Mostafa%Ebrahimi%NULL%1,                       Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                       Annachiara%Ferrari%NULL%2,                       Annachiara%Ferrari%NULL%0,                       Francesco%Fontana%NULL%1,                       Giacomo%Mori%NULL%1,                       Riccardo%Magistroni%NULL%1,                       Marianna%Meschiari%NULL%1,                       Erica%Franceschini%NULL%1,                       Marianna%Menozzi%NULL%1,                       Gianluca%Cuomo%NULL%1,                       Gabriella%Orlando%NULL%1,                       Antonella%Santoro%NULL%1,                       Margherita%Digaetano%NULL%1,                       Cinzia%Puzzolante%NULL%1,                       Federica%Carli%NULL%1,                       Andrea%Bedini%NULL%1,                       Jovana%Milic%NULL%1,                       Irene%Coloretti%NULL%1,                       Paolo%Raggi%NULL%1,                       Cristina%Mussini%NULL%1,                       Massimo%Girardis%NULL%1,                       Gianni%Cappelli%NULL%1,                       Giovanni%Guaraldi%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                       Silvia%Bettini%NULL%2,                       Silvia%Bettini%NULL%0,                       Roberto%Fabris%NULL%1,                       Roberto%Serra%NULL%2,                       Chiara%Dal Pra%NULL%1,                       Pietro%Maffei%NULL%1,                       Marco%Rossato%NULL%1,                       Paola%Fioretto%NULL%0,                       Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                       Marco%Roncador%NULL%2,                       Marco%Roncador%NULL%0,                       Andrea%Saporito%NULL%1,                       Maira%Biggiogero%NULL%1,                       Andrea%Glotta%NULL%1,                       Pier Andrea%Maida%NULL%1,                       Patrizia%Urso%NULL%1,                       Giovanni%Bona%NULL%1,                       Christian%Garzoni%NULL%1,                       Romano%Mauri%NULL%1,                       Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                       Anna Lisa%Ridolfo%NULL%4,                       Laura%Milazzo%NULL%2,                       Letizia%Oreni%NULL%4,                       Dario%Bernacchia%NULL%4,                       Matteo%Siano%NULL%4,                       Cecilia%Bonazzetti%NULL%2,                       Alice%Covizzi%NULL%2,                       Marco%Schiuma%NULL%2,                       Matteo%Passerini%NULL%2,                       Marco%Piscaglia%NULL%2,                       Massimo%Coen%NULL%2,                       Guido%Gubertini%NULL%2,                       Giuliano%Rizzardini%NULL%4,                       Chiara%Cogliati%NULL%2,                       Anna Maria%Brambilla%NULL%2,                       Riccardo%Colombo%NULL%2,                       Antonio%Castelli%NULL%2,                       Roberto%Rech%NULL%2,                       Agostino%Riva%NULL%2,                       Alessandro%Torre%NULL%2,                       Luca%Meroni%NULL%2,                       Stefano%Rusconi%NULL%4,                       Spinello%Antinori%NULL%4,                       Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                      Cabrini%Luca%coreGivesNoEmail%4,                      Castelli%Antonio%coreGivesNoEmail%4,                      Cecconi%Maurizio%coreGivesNoEmail%4,                      Cereda%Danilo%coreGivesNoEmail%4,                      Coluccello%Antonio%coreGivesNoEmail%4,                      Foti%Giuseppe%coreGivesNoEmail%4,                      Fumagalli%Roberto%coreGivesNoEmail%4,                      Grasselli%Giacomo%coreGivesNoEmail%4,                      Iotti%Giorgio%coreGivesNoEmail%4,                      Latronico%Nicola%coreGivesNoEmail%4,                      Lorini%Luca%coreGivesNoEmail%4,                      Merler%Stefano%coreGivesNoEmail%4,                      Natalini%Giuseppe%coreGivesNoEmail%4,                      Pesenti%Antonio%coreGivesNoEmail%4,                      Piatti%Alessandra%coreGivesNoEmail%4,                      Ranieri%Marco Vito%coreGivesNoEmail%4,                      Scandroglio%Anna Mara%coreGivesNoEmail%4,                      Storti%Enrico%coreGivesNoEmail%4,                      Zanella%Alberto%coreGivesNoEmail%4,                      Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                       Lara%Gianesello%gianesello.lara@libero.it%1,                       Maddalena%Pazzi%NULL%2,                       Maddalena%Pazzi%NULL%0,                       Caterina%Stera%NULL%1,                       Tommaso%Meconi%NULL%1,                       Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                       Andrea%Dalbeni%NULL%2,                       Andrea%Dalbeni%NULL%0,                       Elia%Vettore%NULL%2,                       Elia%Vettore%NULL%0,                       Devis%Benfaremo%NULL%1,                       Massimo%Mattioli%NULL%1,                       Carmine G.%Gambino%NULL%1,                       Viviana%Framba%NULL%2,                       Viviana%Framba%NULL%0,                       Lorenzo%Cerruti%NULL%1,                       Anna%Mantovani%NULL%1,                       Andrea%Martini%NULL%1,                       Michele M.%Luchetti%NULL%1,                       Roberto%Serra%NULL%0,                       Annamaria%Cattelan%NULL%1,                       Roberto%Vettor%NULL%0,                       Paolo%Angeli%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                       Matthaios%Papadimitriou-Olivgeris%NULL%2,                       Matthaios%Papadimitriou-Olivgeris%NULL%0,                       Raphaël%Burger%NULL%1,                       Marie-Annick%Le Pogam%NULL%1,                       Tapio%Niemi%NULL%2,                       Tapio%Niemi%NULL%0,                       Paraskevas%Filippidis%NULL%1,                       Jonathan%Tschopp%NULL%1,                       Florian%Desgranges%NULL%1,                       Benjamin%Viala%NULL%1,                       Eleftheria%Kampouri%NULL%1,                       Laurence%Rochat%NULL%2,                       Laurence%Rochat%NULL%0,                       David%Haefliger%NULL%1,                       Mehdi%Belkoniene%NULL%1,                       Carlos%Fidalgo%NULL%1,                       Antonios%Kritikos%NULL%1,                       Katia%Jaton%NULL%1,                       Laurence%Senn%NULL%1,                       Pierre-Alexandre%Bart%NULL%1,                       Jean-Luc%Pagani%NULL%2,                       Jean-Luc%Pagani%NULL%0,                       Oriol%Manuel%NULL%1,                       Loïc%Lhopitallier%NULL%1,                       Chiara%Lazzeri%NULL%2,                       Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                       Ashwin%Subramaniam%NULL%2,                       Ashwin%Subramaniam%NULL%0,                       Mallikarjuna%Ponnapa Reddy%NULL%2,                       Mallikarjuna%Ponnapa Reddy%NULL%0,                       Gabriel%Blecher%NULL%1,                       Umesh%Kadam%NULL%2,                       Umesh%Kadam%NULL%0,                       Afsana%Afroz%NULL%1,                       Baki%Billah%NULL%1,                       Sushma%Ashwin%NULL%1,                       Mark%Kubicki%NULL%1,                       Federico%Bilotta%NULL%1,                       J. Randall%Curtis%NULL%2,                       J. Randall%Curtis%NULL%0,                       Francesca%Rubulotta%NULL%2,                       Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                      Aggarwal%Saurabh%coreGivesNoEmail%3,                      Garcia-Telles%Nelson%coreGivesNoEmail%3,                      Henry%Brandon Michael%coreGivesNoEmail%3,                      Lavie%Carl%coreGivesNoEmail%3,                      Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                       Samuel L%Bruce%NULL%2,                       Cody L%Slater%NULL%2,                       Jonathan R%Tiao%NULL%2,                       Matthew R%Baldwin%NULL%3,                       R Graham%Barr%NULL%2,                       Bernard P%Chang%NULL%2,                       Katherine H%Chau%NULL%2,                       Justin J%Choi%NULL%2,                       Nicholas%Gavin%NULL%2,                       Parag%Goyal%NULL%2,                       Angela M%Mills%NULL%2,                       Ashmi A%Patel%NULL%2,                       Marie-Laure S%Romney%NULL%2,                       Monika M%Safford%NULL%2,                       Neil W%Schluger%NULL%2,                       Soumitra%Sengupta%NULL%2,                       Magdalena E%Sobieszczyk%NULL%2,                       Jason E%Zucker%NULL%2,                       Paul A%Asadourian%NULL%2,                       Fletcher M%Bell%NULL%2,                       Rebekah%Boyd%NULL%2,                       Matthew F%Cohen%NULL%2,                       MacAlistair I%Colquhoun%NULL%2,                       Lucy A%Colville%NULL%2,                       Joseph H%de Jonge%NULL%2,                       Lyle B%Dershowitz%NULL%2,                       Shirin A%Dey%NULL%2,                       Katherine A%Eiseman%NULL%2,                       Zachary P%Girvin%NULL%2,                       Daniella T%Goni%NULL%2,                       Amro A%Harb%NULL%2,                       Nicholas%Herzik%NULL%2,                       Sarah%Householder%NULL%2,                       Lara E%Karaaslan%NULL%2,                       Heather%Lee%NULL%2,                       Evan%Lieberman%NULL%2,                       Andrew%Ling%NULL%2,                       Ree%Lu%NULL%2,                       Arthur Y%Shou%NULL%2,                       Alexander C%Sisti%NULL%2,                       Zachary E%Snow%NULL%2,                       Colin P%Sperring%NULL%2,                       Yuqing%Xiong%NULL%2,                       Henry W%Zhou%NULL%2,                       Karthik%Natarajan%NULL%2,                       George%Hripcsak%NULL%2,                       Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                       Mark%Caridi-Scheible%NULL%3,                       James M.%Blum%NULL%2,                       Chad%Robichaux%NULL%2,                       Colleen%Kraft%NULL%2,                       Jesse T.%Jacob%NULL%2,                       Craig S.%Jabaley%NULL%2,                       David%Carpenter%NULL%2,                       Roberta%Kaplow%NULL%2,                       Alfonso C.%Hernandez-Romieu%NULL%2,                       Max W.%Adelman%NULL%2,                       Greg S.%Martin%NULL%2,                       Craig M.%Coopersmith%NULL%2,                       David J.%Murphy%NULL%2,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                       Bijan J.%Ghassemieh%NULL%0,                       Michelle%Nichols%NULL%0,                       Richard%Kim%NULL%0,                       Keith R.%Jerome%NULL%0,                       Arun K.%Nalla%NULL%0,                       Alexander L.%Greninger%NULL%0,                       Sudhakar%Pipavath%NULL%0,                       Mark M.%Wurfel%NULL%0,                       Laura%Evans%NULL%0,                       Patricia A.%Kritek%NULL%0,                       T. Eoin%West%NULL%0,                       Andrew%Luks%NULL%0,                       Anthony%Gerbino%NULL%0,                       Chris R.%Dale%NULL%0,                       Jason D.%Goldman%NULL%0,                       Shane%O’Mahony%NULL%0,                       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                       Denise J%McCulloch%NULL%0,                       Denise J%McCulloch%NULL%0,                       Vidya%Atluri%NULL%0,                       Michela%Blain%NULL%0,                       Sarah A%McGuffin%NULL%0,                       Arun K%Nalla%NULL%0,                       Meei-Li%Huang%NULL%0,                       Alex L%Greninger%NULL%0,                       Keith R%Jerome%NULL%0,                       Seth A%Cohen%NULL%0,                       Santiago%Neme%NULL%0,                       Margaret L%Green%NULL%0,                       Helen Y%Chu%NULL%0,                       H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                       Joelle I.%Rosser%NULL%0,                       Orlando%Quintero%NULL%0,                       Jake%Scott%NULL%0,                       Aruna%Subramanian%NULL%0,                       Mohammad%Gumma%NULL%0,                       Angela%Rogers%NULL%0,                       Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                       Jacob%Fiksel%NULL%2,                       Jacob%Fiksel%NULL%0,                       John%Muschelli%NULL%2,                       John%Muschelli%NULL%0,                       Matthew L.%Robinson%NULL%2,                       Matthew L.%Robinson%NULL%0,                       Masoud%Rouhizadeh%NULL%2,                       Masoud%Rouhizadeh%NULL%0,                       Jamie%Perin%NULL%2,                       Jamie%Perin%NULL%0,                       Grant%Schumock%NULL%2,                       Grant%Schumock%NULL%0,                       Paul%Nagy%NULL%2,                       Paul%Nagy%NULL%0,                       Josh H.%Gray%NULL%2,                       Josh H.%Gray%NULL%0,                       Harsha%Malapati%NULL%2,                       Harsha%Malapati%NULL%0,                       Mariam%Ghobadi-Krueger%NULL%2,                       Mariam%Ghobadi-Krueger%NULL%0,                       Timothy M.%Niessen%NULL%1,                       Bo Soo%Kim%NULL%1,                       Peter M.%Hill%NULL%1,                       M. Shafeeq%Ahmed%NULL%1,                       Eric D.%Dobkin%NULL%1,                       Renee%Blanding%NULL%1,                       Jennifer%Abele%NULL%1,                       Bonnie%Woods%NULL%1,                       Kenneth%Harkness%NULL%1,                       David R.%Thiemann%NULL%1,                       Mary G.%Bowring%NULL%1,                       Aalok B.%Shah%NULL%2,                       Aalok B.%Shah%NULL%0,                       Mei-Cheng%Wang%NULL%1,                       Karen%Bandeen-Roche%NULL%1,                       Antony%Rosen%NULL%1,                       Scott L.%Zeger%NULL%2,                       Scott L.%Zeger%NULL%0,                       Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0,   Karen K.%Wong%xref no email%1,   Christine M.%Szablewski%xref no email%1,   Priti R.%Patel%xref no email%1,   John%Rossow%xref no email%1,   Juliana%da Silva%xref no email%1,   Pavithra%Natarajan%xref no email%1,   Sapna Bamrah%Morris%xref no email%1,   Robyn Neblett%Fanfair%xref no email%1,   Jessica%Rogers-Brown%xref no email%1,   Beau B.%Bruce%xref no email%1,   Sean D.%Browning%xref no email%1,   Alfonso C.%Hernandez-Romieu%xref no email%1,   Nathan W.%Furukawa%xref no email%1,   Mohleen%Kang%xref no email%1,   Mary E.%Evans%xref no email%1,   Nadine%Oosmanally%xref no email%1,   Melissa%Tobin-D\u2019Angelo%xref no email%1,   Cherie%Drenzek%xref no email%1,   David J.%Murphy%xref no email%1,   Julie%Hollberg%xref no email%1,   James M.%Blum%xref no email%1,   Robert%Jansen%xref no email%1,   David W.%Wright%xref no email%1,   William M.%Sewell%xref no email%1,   Jack D.%Owens%xref no email%1,   Benjamin%Lefkove%xref no email%1,   Frank W.%Brown%xref no email%1,   Deron C.%Burton%xref no email%1,   Timothy M.%Uyeki%xref no email%1,   Stephanie R.%Bialek%xref no email%1,   Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                       Justin J.%Choi%NULL%0,                       Laura C.%Pinheiro%NULL%0,                       Edward J.%Schenck%NULL%0,                       Ruijun%Chen%NULL%0,                       Assem%Jabri%NULL%0,                       Michael J.%Satlin%NULL%0,                       Thomas R.%Campion%NULL%0,                       Musarrat%Nahid%NULL%0,                       Joanna B.%Ringel%NULL%0,                       Katherine L.%Hoffman%NULL%0,                       Mark N.%Alshak%NULL%0,                       Han A.%Li%NULL%0,                       Graham T.%Wehmeyer%NULL%0,                       Graham T.%Wehmeyer%NULL%0,                       Mangala%Rajan%NULL%0,                       Evgeniya%Reshetnyak%NULL%0,                       Nathaniel%Hupert%NULL%0,                       Evelyn M.%Horn%NULL%0,                       Fernando J.%Martinez%NULL%0,                       Roy M.%Gulick%NULL%0,                       Monika M.%Safford%NULL%0,                       Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                       Simon A%Jones%NULL%0,                       Jie%Yang%NULL%0,                       Harish%Rajagopalan%NULL%0,                       Luke%O’Donnell%NULL%0,                       Yelena%Chernyak%NULL%0,                       Katie A%Tobin%NULL%0,                       Robert J%Cerfolio%NULL%0,                       Fritz%Francois%NULL%0,                       Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                       Anatoly%Mitrokhin%NULL%2,                       Anatoly%Mitrokhin%NULL%0,                       Ajai%Rajabalan%NULL%1,                       Christian%Benjamin%NULL%1,                       Sushma%Raviralla%NULL%1,                       Vishnu R%Mani%vishnu.mani@duke.edu%2,                       Vishnu R%Mani%vishnu.mani@duke.edu%0,                       Aleksandr%Kalabin%NULL%2,                       Aleksandr%Kalabin%NULL%0,                       Sebastian C%Valdivieso%NULL%2,                       Sebastian C%Valdivieso%NULL%0,                       Max%Murray-Ramcharan%NULL%2,                       Max%Murray-Ramcharan%NULL%0,                       Brian%Donaldson%NULL%2,                       Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                        Nicholas A.%Fergusson%null%2,                        Elisa%Lloyd-Smith%null%2,                        Andrew%Wormsbecker%null%2,                        Denise%Foster%null%2,                        Andrei%Karpov%null%2,                        Sarah%Crowe%null%2,                        Greg%Haljan%null%2,                        Dean R.%Chittock%null%2,                        Hussein D.%Kanji%null%2,                        Mypinder S.%Sekhon%null%2,                        Donald E.G.%Griesdale%null%2,                      Anish R.%Mitra%null%1,                      Nicholas A.%Fergusson%null%1,                      Elisa%Lloyd-Smith%null%1,                      Andrew%Wormsbecker%null%1,                      Denise%Foster%null%1,                      Andrei%Karpov%null%1,                      Sarah%Crowe%null%1,                      Greg%Haljan%null%1,                      Dean R.%Chittock%null%1,                      Hussein D.%Kanji%null%1,                      Mypinder S.%Sekhon%null%1,                      Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                       Damianos G.%Kokkinidis%NULL%1,                       Weijia%Li%NULL%1,                       Dimitrios%Karamanis%NULL%1,                       Jennifer%Ognibene%NULL%1,                       Shitij%Arora%NULL%1,                       William N.%Southern%NULL%1,                       Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                       Jesus D.%Gonzalez-Lugo%NULL%1,                       Shafia%Rahman%NULL%1,                       Mohammad%Barouqa%NULL%1,                       James%Szymanski%NULL%1,                       Kenji%Ikemura%NULL%1,                       Yungtai%Lo%NULL%1,                       Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%4,                      Chelico%J.D.%coreGivesNoEmail%4,                      Cohen%S.L.%coreGivesNoEmail%4,                      Cookingham%J.%coreGivesNoEmail%4,                      Coppa%K.%coreGivesNoEmail%4,                      Crawford%J.M.%coreGivesNoEmail%4,                      Davidson%K.W.%coreGivesNoEmail%4,                      Diefenbach%M.A.%coreGivesNoEmail%4,                      Dominello%A.J.%coreGivesNoEmail%4,                      Duer-Hefele%J.%coreGivesNoEmail%4,                      Falzon%L.%coreGivesNoEmail%4,                      Gitlin%J.%coreGivesNoEmail%4,                      Hajizadeh%N.%coreGivesNoEmail%4,                      Harvin%T.G.%coreGivesNoEmail%4,                      Hirsch%J.S.%coreGivesNoEmail%4,                      Hirschwerk%D.A.%coreGivesNoEmail%4,                      Kim%E.J.%coreGivesNoEmail%4,                      Kozel%Z.M.%coreGivesNoEmail%4,                      Marrast%L.M.%coreGivesNoEmail%4,                      McGinn%T.%coreGivesNoEmail%4,                      Mogavero%J.N.%coreGivesNoEmail%4,                      Narasimhan%M.%coreGivesNoEmail%4,                      Osorio%G.A.%coreGivesNoEmail%4,                      Qiu%M.%coreGivesNoEmail%4,                      Richardson%S.%coreGivesNoEmail%4,                      Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                       Viet-Thi%Tran%NULL%4,                       Viet-Thi%Tran%NULL%0,                       Mathilde%Roumier%NULL%2,                       Amélie%Chabrol%NULL%2,                       Romain%Paule%NULL%2,                       Constance%Guillaud%NULL%2,                       Elena%Fois%NULL%2,                       Raphael%Lepeule%NULL%2,                       Tali-Anne%Szwebel%NULL%2,                       François-Xavier%Lescure%NULL%2,                       Frédéric%Schlemmer%NULL%2,                       Marie%Matignon%NULL%2,                       Mehdi%Khellaf%NULL%2,                       Etienne%Crickx%NULL%2,                       Benjamin%Terrier%NULL%2,                       Caroline%Morbieu%NULL%2,                       Paul%Legendre%NULL%2,                       Julien%Dang%NULL%2,                       Yoland%Schoindre%NULL%2,                       Jean-Michel%Pawlotsky%NULL%2,                       Marc%Michel%NULL%2,                       Elodie%Perrodeau%NULL%2,                       Nicolas%Carlier%NULL%2,                       Nicolas%Roche%NULL%2,                       Victoire%de Lastours%NULL%2,                       Clément%Ourghanlian%NULL%2,                       Solen%Kerneis%NULL%2,                       Philippe%Ménager%NULL%2,                       Luc%Mouthon%NULL%2,                       Etienne%Audureau%NULL%2,                       Philippe%Ravaud%NULL%2,                       Bertrand%Godeau%NULL%2,                       Sébastien%Gallien%NULL%2,                       Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,   Abu Baker%Sheikh%xref no email%1,   Shubhra%Upadhyay%xref no email%1,   Jeanette%Atencio%xref no email%1,   Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                     Yu%Zuo%NULL%1,                     Srilakshmi%Yalavarthi%NULL%1,                     Kelsey%Gockman%NULL%1,                     Melanie%Zuo%NULL%1,                     Jacqueline A%Madison%NULL%1,                     Christopher%Blair%NULL%1,                     Wrenn%Woodward%NULL%1,                     Sean P%Lezak%NULL%1,                     Njira L%Lugogo%NULL%1,                     Robert J%Woods%NULL%1,                     Christian%Lood%NULL%1,                     Jason S%Knight%NULL%2,                     Jason S%Knight%NULL%0,                     Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                       Raef A.%Fadel%NULL%1,                       Kelly M.%Malette%NULL%1,                       Charles%Hammond%NULL%1,                       Hafsa%Abdulla%NULL%1,                       Abigail%Entz%NULL%1,                       Zachary%Demertzis%NULL%1,                       Zachary%Hanna%NULL%1,                       Andrew%Failla%NULL%1,                       Carina%Dagher%NULL%0,                       Zohra%Chaudhry%NULL%2,                       Amit%Vahia%NULL%2,                       Odaliz%Abreu Lanfranco%NULL%1,                       Mayur%Ramesh%NULL%1,                       Marcus J.%Zervos%NULL%1,                       George%Alangaden%NULL%2,                       Joseph%Miller%NULL%2,                       Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,   Daniel%Mu\u00f1oz%xref no email%1,   Alberto%Fica%xref no email%1,   Ignacio%Delama%xref no email%1,   Ignacia%Alvarez%xref no email%1,   Maritza%Navarrete%xref no email%1,   Eileen%Blackburn%xref no email%1,   Pamela%Garrido%xref no email%1,   Ricardo%Wenger%xref no email%1,   Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                         J.% Jiang%null%1,                         X.% Xu%null%1,                         Y.% Hu%null%2,                         Y.% Hu%null%0,                         Y. % Zhao%null%1,      C.%Chen%null%1,      J.% Jiang%null%2,      X.% Xu%null%1,      Y.% Hu%null%2,      Y.% Hu%null%0,      Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                        Chenchen%Qian%NULL%1,                        Zhibing%Luo%NULL%1,                        Qiang%Li%liqressh@hotmail.com%0,                        Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                        Chunlin%Cai%NULL%1,                        Jinglei%Zang%NULL%1,                        Jun%Xie%NULL%1,                        Dan%Xu%NULL%0,                        Fang%Zheng%NULL%0,                        Tao%Zhan%NULL%1,                        Kang%Huang%NULL%1,                        Yikai%Wang%NULL%1,                        Xiao%Wang%NULL%1,                        Zhe-Yu%Hu%NULL%1,                        Yapeng%Deng%NULL%1,                        Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                        Naofumi%Bunya%NULL%1,                        Tomoyuki%Endo%NULL%1,                        Yuji%Fujino%NULL%1,                        Kensuke%Fujita%NULL%1,                        Kenji%Fujizuka%NULL%1,                        Yoshihiro%Hagiwara%NULL%1,                        Jun%Hamaguchi%NULL%1,                        Yoshitaka%Hara%NULL%1,                        Eiji%Hashiba%NULL%1,                        Satoru%Hashimoto%NULL%1,                        Noriyuki%Hattori%NULL%1,                        Kota%Hoshino%NULL%1,                        Shinichi%Ijuin%NULL%1,                        Takanari%Ikeyama%NULL%1,                        Shingo%Ichiba%NULL%1,                        Wataru%Iwanaga%NULL%1,                        Yoshiaki%Iwashita%NULL%1,                        Masafumi%Kanamoto%NULL%1,                        Hitoshi%Kaneko%NULL%1,                        Kaneyuki%Kawamae%NULL%1,                        Toru%Kotani%NULL%1,                        Yasuaki%Koyama%NULL%1,                        Keibun%Liu%NULL%1,                        Tomohiko%Masuno%NULL%1,                        Naoto%Morimura%NULL%1,                        Tomoyuki%Nakamura%NULL%1,                        Masaki%Nakane%NULL%1,                        Michitaka%Nasu%NULL%1,                        Osamu%Nishida%NULL%1,                        Masaji%Nishimura%NULL%1,                        Kanae%Ochiai%NULL%1,                        Takayuki%Ogura%NULL%1,                        Shinichiro%Ohshimo%NULL%1,                        Keisuke%Oyama%NULL%1,                        Junichi%Sasaki%NULL%1,                        Ryutaro%Seo%NULL%1,                        Takeshi%Shimazu%NULL%1,                        Nobuaki%Shime%NULL%4,                        Keiki%Shimizu%NULL%1,                        Hiroyuki%Suzuki%NULL%1,                        Shuhei%Takauji%NULL%1,                        Shinhiro%Takeda%NULL%1,                        Ichiro%Takeuchi%NULL%2,                        Mumon%Takita%NULL%1,                        Hayato%Taniguchi%NULL%1,                        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                        Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                        Yi Xin%Tong%NULL%3,                        Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                        Hong%Chen%NULL%0,                        Zhen%Li%NULL%2,                        Bo%Wang%NULL%0,                        Zhong-Wei%Zhang%NULL%1,                        Wei-Min%Li%NULL%0,                        Zong-An%Liang%NULL%0,                        Jin%Tang%NULL%1,                        Jian%Wang%NULL%1,                        Rui%Shi%NULL%1,                        Xiao-Dong%Jin%NULL%1,                        Yan%Kang%NULL%0,                        Pei-Fang%Wei%NULL%8,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                         S. F.% Mahmood%null%1,                         K.% Habib%null%1,                         I.% Khanum%null%1,                         B. % Jamil%null%1,      N.%Nasir%null%1,      S. F.% Mahmood%null%1,      K.% Habib%null%1,      I.% Khanum%null%1,      B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                        Chaisith%Sivakorn%NULL%1,                        Tanuwong%Viarasilpa%NULL%1,                        Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                        Mu%Qin%qinmuae@163.com%1,                        Yuli%Cai%NULL%1,                        Tao%Liu%NULL%0,                        Bo%Shen%NULL%1,                        Fan%Yang%NULL%2,                        Sheng%Cao%NULL%1,                        Xu%Liu%NULL%2,                        Xu%Liu%NULL%0,                        Yaozu%Xiang%NULL%1,                        Qinyan%Zhao%NULL%1,                        He%Huang%huanghe1977@whu.edu.cn%0,                        Bo%Yang%yybb112@whu.edu.cn%0,                        Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                        Win%Kulvichit%NULL%1,                        Sunchai%Payungporn%NULL%1,                        Trairak%Pisitkun%NULL%1,                        Ariya%Chindamporn%NULL%1,                        Sadudee%Peerapornratana%NULL%1,                        Prapaporn%Pisitkun%NULL%1,                        Suwalak%Chitcharoen%NULL%1,                        Vorthon%Sawaswong%NULL%1,                        Navaporn%Worasilchai%NULL%1,                        Sarinya%Kampunya%NULL%1,                        Opass%Putcharoen%NULL%1,                        Thammasak%Thawitsri%NULL%1,                        Nophol%Leelayuwatanakul%NULL%1,                        Napplika%Kongpolprom%NULL%1,                        Vorakamol%Phoophiboon%NULL%1,                        Thitiwat%Sriprasart%NULL%1,                        Rujipat%Samransamruajkit%NULL%1,                        Somkanya%Tungsanga%NULL%1,                        Kanitha%Tiankanon%NULL%1,                        Nuttha%Lumlertgul%NULL%1,                        Asada%Leelahavanichkul%NULL%1,                        Tueboon%Sriphojanart%NULL%1,                        Terapong%Tantawichien%NULL%1,                        Usa%Thisyakorn%NULL%1,                        Chintana%Chirathaworn%NULL%1,                        Kearkiat%Praditpornsilpa%NULL%1,                        Kriang%Tungsanga%NULL%1,                        Somchai%Eiam-Ong%NULL%1,                        Visith%Sitprija%NULL%1,                        John A.%Kellum%NULL%1,                        Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                        Min%Pan%NULL%3,                        Xiumei%Zhang%NULL%3,                        Mingfeng%Han%fyhmf@163.com%5,                        Xiaoyun%Fan%13956988552@126.com%3,                        Fengde%Zhao%NULL%3,                        Manli%Miao%NULL%3,                        Jing%Xu%NULL%0,                        Minglong%Guan%NULL%3,                        Xia%Deng%NULL%3,                        Xu%Chen%NULL%4,                        Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%2,                        Chunli%Tang%NULL%0,                        Ruchong%Chen%NULL%1,                        Honglian%Ruan%NULL%1,                        Wenhua%Liang%NULL%0,                        Weijie%Guan%NULL%0,                        Ling%Sang%NULL%0,                        Ruidi%Tang%NULL%1,                        Nanshan%Zhong%NULL%0,                        Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,    Shuhan%Cai%xref no email%1,    Yun%Luo%xref no email%1,    Fangfang%Zhu%xref no email%1,    Ming%Hu%xref no email%1,    Yan%Zhao%xref no email%1,    Ruiqiang%Zheng%xref no email%1,    Xuyan%Li%xref no email%1,    Bo%Hu%xref no email%0,    Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%5,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%5,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%5,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%5,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%5,                        Shangwen%Pan%NULL%5,                        Xiaojing%Zou%NULL%7,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                        Shanyan%Zhang%NULL%2,                        Xiaoli%Zhang%NULL%1,                        Huan%Cai%NULL%2,                        Jueqing%Gu%NULL%2,                        Jiangshan%Lian%NULL%2,                        Yingfeng%Lu%NULL%2,                        Hongyu%Jia%NULL%2,                        Jianhua%Hu%NULL%2,                        Ciliang%Jin%NULL%2,                        Guodong%Yu%NULL%2,                        Yimin%Zhang%NULL%2,                        Jifang%Sheng%NULL%4,                        Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                        Dan%Xu%NULL%0,                        Shouzhi%Fu%NULL%0,                        Jun%Zhang%NULL%0,                        Xiaobo%Yang%NULL%0,                        Liang%Xu%NULL%0,                        Jiqian%Xu%NULL%0,                        Yongran%Wu%NULL%0,                        Chaolin%Huang%NULL%0,                        Yaqi%Ouyang%NULL%0,                        Luyu%Yang%NULL%0,                        Minghao%Fang%NULL%0,                        Hongwen%Xiao%NULL%0,                        Jing%Ma%NULL%0,                        Wei%Zhu%NULL%0,                        Song%Hu%NULL%0,                        Quan%Hu%NULL%0,                        Daoyin%Ding%NULL%0,                        Ming%Hu%NULL%0,                        Guochao%Zhu%NULL%0,                        Weijiang%Xu%NULL%0,                        Jun%Guo%NULL%0,                        Jinglong%Xu%NULL%0,                        Haitao%Yuan%NULL%0,                        Bin%Zhang%NULL%0,                        Zhui%Yu%yuzhui@whu.edu.cn%0,                        Dechang%Chen%icudechangchen@163.com%0,                        Shiying%Yuan%yuan_shiying@163.com%0,                        You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                        Hao-Yu%Gao%NULL%1,                        Zi-Yi%Feng%NULL%1,                        Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                        Li-jun%Sun%NULL%1,                        Mi%Xu%NULL%1,                        Jian%Pan%NULL%1,                        Yun-tao%Zhang%NULL%1,                        Xue-ling%Fang%NULL%1,                        Qiang%Fang%NULL%2,                        Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                        Ziqiang%Du%NULL%1,                        Yanfang%Zhu%NULL%1,                        Wenfeng%Li%NULL%1,                        Hongjun%Miao%NULL%1,                        Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                        Sarah%Al-Youha%sarahalyouha@gmail.com%1,                        Mohammad H.%Jamal%NULL%1,                        Mohannad%Al-Haddad%NULL%1,                        Ali%Al-Muhaini%NULL%1,                        Fahad%Al-Ghimlas%NULL%1,                        Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                        Mina%Akbari Rad%NULL%1,                        Robert%Bergquist%NULL%1,                        Abolghasem%Allahyari%NULL%1,                        Kamila%Hashemzadeh%NULL%1,                        Nasrin%Milani%NULL%1,                        Mahdi%Gholian-Aval%NULL%1,                        Fariba%Rezaeitalab%NULL%1,                        Mohammad Jafar%Sadeghi Quchani%NULL%1,                        Zahra%Nahbandani%NULL%1,                        Mandana%Khodashahi%NULL%1,                        Zahra%Javid%NULL%1,                        Mahnaz%Mozdourian%NULL%1,                        Mohammad Ali%Yaghoubi%NULL%1,                        Zahra%Mozaheb%NULL%1,                        Mohsen%Seddigh-Shamsi%NULL%1,                        Mohammad%Moeini Nodeh%NULL%1,                        Shima%Nabavi%NULL%1,                        Hooman%Mosannen Mozaffari%NULL%1,                        Mohammadreza%Farzanehfar%NULL%1,                        Zahra%Lotfi%NULL%1,                        Alireza%Shariati%NULL%1,                        Shekoofe%Bonakdaran%NULL%1,                        Zahra%Rezaieyazdi%NULL%1,                        Zahra%Mirfeizi%NULL%1,                        Maryam%Miri%NULL%1,                        Reza%Bassiri%NULL%1,                        Sajjad%Ataei Azimi%NULL%1,                        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                        Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                        Ibrahim%Al-Zakwani%NULL%1,                        Hamed%Al Naamani%NULL%1,                        Sultan%Al Lawati%NULL%1,                        Nenad%Pandak%NULL%1,                        Muna Ba%Omar%NULL%1,                        Maher%Al Bahrani%NULL%1,                        Zakaryia AL%Bulushi%NULL%1,                        Huda%Al Khalili%NULL%1,                        Issa%Al Salmi%NULL%1,                        Ruwaida%Al Ismaili%NULL%1,                        Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                        Zohre%Khodamoradi%NULL%1,                        Amirhossein%Erfani%NULL%1,                        Hamidreza%Hosseinpour%NULL%1,                        Keivan%Ranjbar%NULL%1,                        Yasaman%Emami%NULL%1,                        Alireza%Mirahmadizadeh%NULL%1,                        Mehrzad%Lotfi%NULL%1,                        Babak%Shirazi Yeganeh%NULL%1,                        Abolfazl%Dorrani Nejad%NULL%1,                        Abdolrasool%Hemmati%NULL%1,                        Mostafa%Ebrahimi%NULL%1,                        Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                        Annachiara%Ferrari%NULL%2,                        Annachiara%Ferrari%NULL%0,                        Francesco%Fontana%NULL%1,                        Giacomo%Mori%NULL%1,                        Riccardo%Magistroni%NULL%1,                        Marianna%Meschiari%NULL%1,                        Erica%Franceschini%NULL%1,                        Marianna%Menozzi%NULL%1,                        Gianluca%Cuomo%NULL%1,                        Gabriella%Orlando%NULL%1,                        Antonella%Santoro%NULL%1,                        Margherita%Digaetano%NULL%1,                        Cinzia%Puzzolante%NULL%1,                        Federica%Carli%NULL%1,                        Andrea%Bedini%NULL%1,                        Jovana%Milic%NULL%1,                        Irene%Coloretti%NULL%1,                        Paolo%Raggi%NULL%1,                        Cristina%Mussini%NULL%1,                        Massimo%Girardis%NULL%1,                        Gianni%Cappelli%NULL%1,                        Giovanni%Guaraldi%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                        Silvia%Bettini%NULL%2,                        Silvia%Bettini%NULL%0,                        Roberto%Fabris%NULL%1,                        Roberto%Serra%NULL%2,                        Chiara%Dal Pra%NULL%1,                        Pietro%Maffei%NULL%1,                        Marco%Rossato%NULL%1,                        Paola%Fioretto%NULL%0,                        Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                        Marco%Roncador%NULL%2,                        Marco%Roncador%NULL%0,                        Andrea%Saporito%NULL%1,                        Maira%Biggiogero%NULL%1,                        Andrea%Glotta%NULL%1,                        Pier Andrea%Maida%NULL%1,                        Patrizia%Urso%NULL%1,                        Giovanni%Bona%NULL%1,                        Christian%Garzoni%NULL%1,                        Romano%Mauri%NULL%1,                        Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                        Anna Lisa%Ridolfo%NULL%4,                        Laura%Milazzo%NULL%2,                        Letizia%Oreni%NULL%4,                        Dario%Bernacchia%NULL%4,                        Matteo%Siano%NULL%4,                        Cecilia%Bonazzetti%NULL%2,                        Alice%Covizzi%NULL%2,                        Marco%Schiuma%NULL%2,                        Matteo%Passerini%NULL%2,                        Marco%Piscaglia%NULL%2,                        Massimo%Coen%NULL%2,                        Guido%Gubertini%NULL%2,                        Giuliano%Rizzardini%NULL%4,                        Chiara%Cogliati%NULL%2,                        Anna Maria%Brambilla%NULL%2,                        Riccardo%Colombo%NULL%2,                        Antonio%Castelli%NULL%2,                        Roberto%Rech%NULL%2,                        Agostino%Riva%NULL%2,                        Alessandro%Torre%NULL%2,                        Luca%Meroni%NULL%2,                        Stefano%Rusconi%NULL%4,                        Spinello%Antinori%NULL%4,                        Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                       Cabrini%Luca%coreGivesNoEmail%4,                       Castelli%Antonio%coreGivesNoEmail%4,                       Cecconi%Maurizio%coreGivesNoEmail%4,                       Cereda%Danilo%coreGivesNoEmail%4,                       Coluccello%Antonio%coreGivesNoEmail%4,                       Foti%Giuseppe%coreGivesNoEmail%4,                       Fumagalli%Roberto%coreGivesNoEmail%4,                       Grasselli%Giacomo%coreGivesNoEmail%4,                       Iotti%Giorgio%coreGivesNoEmail%4,                       Latronico%Nicola%coreGivesNoEmail%4,                       Lorini%Luca%coreGivesNoEmail%4,                       Merler%Stefano%coreGivesNoEmail%4,                       Natalini%Giuseppe%coreGivesNoEmail%4,                       Pesenti%Antonio%coreGivesNoEmail%4,                       Piatti%Alessandra%coreGivesNoEmail%4,                       Ranieri%Marco Vito%coreGivesNoEmail%4,                       Scandroglio%Anna Mara%coreGivesNoEmail%4,                       Storti%Enrico%coreGivesNoEmail%4,                       Zanella%Alberto%coreGivesNoEmail%4,                       Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                        Lara%Gianesello%gianesello.lara@libero.it%1,                        Maddalena%Pazzi%NULL%2,                        Maddalena%Pazzi%NULL%0,                        Caterina%Stera%NULL%1,                        Tommaso%Meconi%NULL%1,                        Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                        Andrea%Dalbeni%NULL%2,                        Andrea%Dalbeni%NULL%0,                        Elia%Vettore%NULL%2,                        Elia%Vettore%NULL%0,                        Devis%Benfaremo%NULL%1,                        Massimo%Mattioli%NULL%1,                        Carmine G.%Gambino%NULL%1,                        Viviana%Framba%NULL%2,                        Viviana%Framba%NULL%0,                        Lorenzo%Cerruti%NULL%1,                        Anna%Mantovani%NULL%1,                        Andrea%Martini%NULL%1,                        Michele M.%Luchetti%NULL%1,                        Roberto%Serra%NULL%0,                        Annamaria%Cattelan%NULL%1,                        Roberto%Vettor%NULL%0,                        Paolo%Angeli%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                        Matthaios%Papadimitriou-Olivgeris%NULL%2,                        Matthaios%Papadimitriou-Olivgeris%NULL%0,                        Raphaël%Burger%NULL%1,                        Marie-Annick%Le Pogam%NULL%1,                        Tapio%Niemi%NULL%2,                        Tapio%Niemi%NULL%0,                        Paraskevas%Filippidis%NULL%1,                        Jonathan%Tschopp%NULL%1,                        Florian%Desgranges%NULL%1,                        Benjamin%Viala%NULL%1,                        Eleftheria%Kampouri%NULL%1,                        Laurence%Rochat%NULL%2,                        Laurence%Rochat%NULL%0,                        David%Haefliger%NULL%1,                        Mehdi%Belkoniene%NULL%1,                        Carlos%Fidalgo%NULL%1,                        Antonios%Kritikos%NULL%1,                        Katia%Jaton%NULL%1,                        Laurence%Senn%NULL%1,                        Pierre-Alexandre%Bart%NULL%1,                        Jean-Luc%Pagani%NULL%2,                        Jean-Luc%Pagani%NULL%0,                        Oriol%Manuel%NULL%1,                        Loïc%Lhopitallier%NULL%1,                        Chiara%Lazzeri%NULL%2,                        Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                        Ashwin%Subramaniam%NULL%2,                        Ashwin%Subramaniam%NULL%0,                        Mallikarjuna%Ponnapa Reddy%NULL%2,                        Mallikarjuna%Ponnapa Reddy%NULL%0,                        Gabriel%Blecher%NULL%1,                        Umesh%Kadam%NULL%2,                        Umesh%Kadam%NULL%0,                        Afsana%Afroz%NULL%1,                        Baki%Billah%NULL%1,                        Sushma%Ashwin%NULL%1,                        Mark%Kubicki%NULL%1,                        Federico%Bilotta%NULL%1,                        J. Randall%Curtis%NULL%2,                        J. Randall%Curtis%NULL%0,                        Francesca%Rubulotta%NULL%2,                        Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                       Aggarwal%Saurabh%coreGivesNoEmail%3,                       Garcia-Telles%Nelson%coreGivesNoEmail%3,                       Henry%Brandon Michael%coreGivesNoEmail%3,                       Lavie%Carl%coreGivesNoEmail%3,                       Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                        Samuel L%Bruce%NULL%2,                        Cody L%Slater%NULL%2,                        Jonathan R%Tiao%NULL%2,                        Matthew R%Baldwin%NULL%3,                        R Graham%Barr%NULL%2,                        Bernard P%Chang%NULL%2,                        Katherine H%Chau%NULL%2,                        Justin J%Choi%NULL%2,                        Nicholas%Gavin%NULL%2,                        Parag%Goyal%NULL%2,                        Angela M%Mills%NULL%2,                        Ashmi A%Patel%NULL%2,                        Marie-Laure S%Romney%NULL%2,                        Monika M%Safford%NULL%2,                        Neil W%Schluger%NULL%2,                        Soumitra%Sengupta%NULL%2,                        Magdalena E%Sobieszczyk%NULL%2,                        Jason E%Zucker%NULL%2,                        Paul A%Asadourian%NULL%2,                        Fletcher M%Bell%NULL%2,                        Rebekah%Boyd%NULL%2,                        Matthew F%Cohen%NULL%2,                        MacAlistair I%Colquhoun%NULL%2,                        Lucy A%Colville%NULL%2,                        Joseph H%de Jonge%NULL%2,                        Lyle B%Dershowitz%NULL%2,                        Shirin A%Dey%NULL%2,                        Katherine A%Eiseman%NULL%2,                        Zachary P%Girvin%NULL%2,                        Daniella T%Goni%NULL%2,                        Amro A%Harb%NULL%2,                        Nicholas%Herzik%NULL%2,                        Sarah%Householder%NULL%2,                        Lara E%Karaaslan%NULL%2,                        Heather%Lee%NULL%2,                        Evan%Lieberman%NULL%2,                        Andrew%Ling%NULL%2,                        Ree%Lu%NULL%2,                        Arthur Y%Shou%NULL%2,                        Alexander C%Sisti%NULL%2,                        Zachary E%Snow%NULL%2,                        Colin P%Sperring%NULL%2,                        Yuqing%Xiong%NULL%2,                        Henry W%Zhou%NULL%2,                        Karthik%Natarajan%NULL%2,                        George%Hripcsak%NULL%2,                        Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                        Mark%Caridi-Scheible%NULL%3,                        James M.%Blum%NULL%2,                        Chad%Robichaux%NULL%2,                        Colleen%Kraft%NULL%2,                        Jesse T.%Jacob%NULL%2,                        Craig S.%Jabaley%NULL%2,                        David%Carpenter%NULL%2,                        Roberta%Kaplow%NULL%2,                        Alfonso C.%Hernandez-Romieu%NULL%2,                        Max W.%Adelman%NULL%2,                        Greg S.%Martin%NULL%2,                        Craig M.%Coopersmith%NULL%2,                        David J.%Murphy%NULL%2,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                        Bijan J.%Ghassemieh%NULL%0,                        Michelle%Nichols%NULL%0,                        Richard%Kim%NULL%0,                        Keith R.%Jerome%NULL%0,                        Arun K.%Nalla%NULL%0,                        Alexander L.%Greninger%NULL%0,                        Sudhakar%Pipavath%NULL%0,                        Mark M.%Wurfel%NULL%0,                        Laura%Evans%NULL%0,                        Patricia A.%Kritek%NULL%0,                        T. Eoin%West%NULL%0,                        Andrew%Luks%NULL%0,                        Anthony%Gerbino%NULL%0,                        Chris R.%Dale%NULL%0,                        Jason D.%Goldman%NULL%0,                        Shane%O’Mahony%NULL%0,                        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                        Denise J%McCulloch%NULL%0,                        Denise J%McCulloch%NULL%0,                        Vidya%Atluri%NULL%0,                        Michela%Blain%NULL%0,                        Sarah A%McGuffin%NULL%0,                        Arun K%Nalla%NULL%0,                        Meei-Li%Huang%NULL%0,                        Alex L%Greninger%NULL%0,                        Keith R%Jerome%NULL%0,                        Seth A%Cohen%NULL%0,                        Santiago%Neme%NULL%0,                        Margaret L%Green%NULL%0,                        Helen Y%Chu%NULL%0,                        H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                        Joelle I.%Rosser%NULL%0,                        Orlando%Quintero%NULL%0,                        Jake%Scott%NULL%0,                        Aruna%Subramanian%NULL%0,                        Mohammad%Gumma%NULL%0,                        Angela%Rogers%NULL%0,                        Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                        Jacob%Fiksel%NULL%2,                        Jacob%Fiksel%NULL%0,                        John%Muschelli%NULL%2,                        John%Muschelli%NULL%0,                        Matthew L.%Robinson%NULL%2,                        Matthew L.%Robinson%NULL%0,                        Masoud%Rouhizadeh%NULL%2,                        Masoud%Rouhizadeh%NULL%0,                        Jamie%Perin%NULL%2,                        Jamie%Perin%NULL%0,                        Grant%Schumock%NULL%2,                        Grant%Schumock%NULL%0,                        Paul%Nagy%NULL%2,                        Paul%Nagy%NULL%0,                        Josh H.%Gray%NULL%2,                        Josh H.%Gray%NULL%0,                        Harsha%Malapati%NULL%2,                        Harsha%Malapati%NULL%0,                        Mariam%Ghobadi-Krueger%NULL%2,                        Mariam%Ghobadi-Krueger%NULL%0,                        Timothy M.%Niessen%NULL%1,                        Bo Soo%Kim%NULL%1,                        Peter M.%Hill%NULL%1,                        M. Shafeeq%Ahmed%NULL%1,                        Eric D.%Dobkin%NULL%1,                        Renee%Blanding%NULL%1,                        Jennifer%Abele%NULL%1,                        Bonnie%Woods%NULL%1,                        Kenneth%Harkness%NULL%1,                        David R.%Thiemann%NULL%1,                        Mary G.%Bowring%NULL%1,                        Aalok B.%Shah%NULL%2,                        Aalok B.%Shah%NULL%0,                        Mei-Cheng%Wang%NULL%1,                        Karen%Bandeen-Roche%NULL%1,                        Antony%Rosen%NULL%1,                        Scott L.%Zeger%NULL%2,                        Scott L.%Zeger%NULL%0,                        Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0,    Karen K.%Wong%xref no email%1,    Christine M.%Szablewski%xref no email%1,    Priti R.%Patel%xref no email%1,    John%Rossow%xref no email%1,    Juliana%da Silva%xref no email%1,    Pavithra%Natarajan%xref no email%1,    Sapna Bamrah%Morris%xref no email%1,    Robyn Neblett%Fanfair%xref no email%1,    Jessica%Rogers-Brown%xref no email%1,    Beau B.%Bruce%xref no email%1,    Sean D.%Browning%xref no email%1,    Alfonso C.%Hernandez-Romieu%xref no email%1,    Nathan W.%Furukawa%xref no email%1,    Mohleen%Kang%xref no email%1,    Mary E.%Evans%xref no email%1,    Nadine%Oosmanally%xref no email%1,    Melissa%Tobin-D\u2019Angelo%xref no email%1,    Cherie%Drenzek%xref no email%1,    David J.%Murphy%xref no email%1,    Julie%Hollberg%xref no email%1,    James M.%Blum%xref no email%1,    Robert%Jansen%xref no email%1,    David W.%Wright%xref no email%1,    William M.%Sewell%xref no email%1,    Jack D.%Owens%xref no email%1,    Benjamin%Lefkove%xref no email%1,    Frank W.%Brown%xref no email%1,    Deron C.%Burton%xref no email%1,    Timothy M.%Uyeki%xref no email%1,    Stephanie R.%Bialek%xref no email%1,    Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                        Justin J.%Choi%NULL%0,                        Laura C.%Pinheiro%NULL%0,                        Edward J.%Schenck%NULL%0,                        Ruijun%Chen%NULL%0,                        Assem%Jabri%NULL%0,                        Michael J.%Satlin%NULL%0,                        Thomas R.%Campion%NULL%0,                        Musarrat%Nahid%NULL%0,                        Joanna B.%Ringel%NULL%0,                        Katherine L.%Hoffman%NULL%0,                        Mark N.%Alshak%NULL%0,                        Han A.%Li%NULL%0,                        Graham T.%Wehmeyer%NULL%0,                        Graham T.%Wehmeyer%NULL%0,                        Mangala%Rajan%NULL%0,                        Evgeniya%Reshetnyak%NULL%0,                        Nathaniel%Hupert%NULL%0,                        Evelyn M.%Horn%NULL%0,                        Fernando J.%Martinez%NULL%0,                        Roy M.%Gulick%NULL%0,                        Monika M.%Safford%NULL%0,                        Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                        Simon A%Jones%NULL%0,                        Jie%Yang%NULL%0,                        Harish%Rajagopalan%NULL%0,                        Luke%O’Donnell%NULL%0,                        Yelena%Chernyak%NULL%0,                        Katie A%Tobin%NULL%0,                        Robert J%Cerfolio%NULL%0,                        Fritz%Francois%NULL%0,                        Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                        Anatoly%Mitrokhin%NULL%2,                        Anatoly%Mitrokhin%NULL%0,                        Ajai%Rajabalan%NULL%1,                        Christian%Benjamin%NULL%1,                        Sushma%Raviralla%NULL%1,                        Vishnu R%Mani%vishnu.mani@duke.edu%2,                        Vishnu R%Mani%vishnu.mani@duke.edu%0,                        Aleksandr%Kalabin%NULL%2,                        Aleksandr%Kalabin%NULL%0,                        Sebastian C%Valdivieso%NULL%2,                        Sebastian C%Valdivieso%NULL%0,                        Max%Murray-Ramcharan%NULL%2,                        Max%Murray-Ramcharan%NULL%0,                        Brian%Donaldson%NULL%2,                        Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                         Nicholas A.%Fergusson%null%2,                         Elisa%Lloyd-Smith%null%2,                         Andrew%Wormsbecker%null%2,                         Denise%Foster%null%2,                         Andrei%Karpov%null%2,                         Sarah%Crowe%null%2,                         Greg%Haljan%null%2,                         Dean R.%Chittock%null%2,                         Hussein D.%Kanji%null%2,                         Mypinder S.%Sekhon%null%2,                         Donald E.G.%Griesdale%null%2,                       Anish R.%Mitra%null%1,                       Nicholas A.%Fergusson%null%1,                       Elisa%Lloyd-Smith%null%1,                       Andrew%Wormsbecker%null%1,                       Denise%Foster%null%1,                       Andrei%Karpov%null%1,                       Sarah%Crowe%null%1,                       Greg%Haljan%null%1,                       Dean R.%Chittock%null%1,                       Hussein D.%Kanji%null%1,                       Mypinder S.%Sekhon%null%1,                       Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                        Damianos G.%Kokkinidis%NULL%1,                        Weijia%Li%NULL%1,                        Dimitrios%Karamanis%NULL%1,                        Jennifer%Ognibene%NULL%1,                        Shitij%Arora%NULL%1,                        William N.%Southern%NULL%1,                        Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                        Jesus D.%Gonzalez-Lugo%NULL%1,                        Shafia%Rahman%NULL%1,                        Mohammad%Barouqa%NULL%1,                        James%Szymanski%NULL%1,                        Kenji%Ikemura%NULL%1,                        Yungtai%Lo%NULL%1,                        Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%4,                       Chelico%J.D.%coreGivesNoEmail%4,                       Cohen%S.L.%coreGivesNoEmail%4,                       Cookingham%J.%coreGivesNoEmail%4,                       Coppa%K.%coreGivesNoEmail%4,                       Crawford%J.M.%coreGivesNoEmail%4,                       Davidson%K.W.%coreGivesNoEmail%4,                       Diefenbach%M.A.%coreGivesNoEmail%4,                       Dominello%A.J.%coreGivesNoEmail%4,                       Duer-Hefele%J.%coreGivesNoEmail%4,                       Falzon%L.%coreGivesNoEmail%4,                       Gitlin%J.%coreGivesNoEmail%4,                       Hajizadeh%N.%coreGivesNoEmail%4,                       Harvin%T.G.%coreGivesNoEmail%4,                       Hirsch%J.S.%coreGivesNoEmail%4,                       Hirschwerk%D.A.%coreGivesNoEmail%4,                       Kim%E.J.%coreGivesNoEmail%4,                       Kozel%Z.M.%coreGivesNoEmail%4,                       Marrast%L.M.%coreGivesNoEmail%4,                       McGinn%T.%coreGivesNoEmail%4,                       Mogavero%J.N.%coreGivesNoEmail%4,                       Narasimhan%M.%coreGivesNoEmail%4,                       Osorio%G.A.%coreGivesNoEmail%4,                       Qiu%M.%coreGivesNoEmail%4,                       Richardson%S.%coreGivesNoEmail%4,                       Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                        Viet-Thi%Tran%NULL%4,                        Viet-Thi%Tran%NULL%0,                        Mathilde%Roumier%NULL%2,                        Amélie%Chabrol%NULL%2,                        Romain%Paule%NULL%2,                        Constance%Guillaud%NULL%2,                        Elena%Fois%NULL%2,                        Raphael%Lepeule%NULL%2,                        Tali-Anne%Szwebel%NULL%2,                        François-Xavier%Lescure%NULL%2,                        Frédéric%Schlemmer%NULL%2,                        Marie%Matignon%NULL%2,                        Mehdi%Khellaf%NULL%2,                        Etienne%Crickx%NULL%2,                        Benjamin%Terrier%NULL%2,                        Caroline%Morbieu%NULL%2,                        Paul%Legendre%NULL%2,                        Julien%Dang%NULL%2,                        Yoland%Schoindre%NULL%2,                        Jean-Michel%Pawlotsky%NULL%2,                        Marc%Michel%NULL%2,                        Elodie%Perrodeau%NULL%2,                        Nicolas%Carlier%NULL%2,                        Nicolas%Roche%NULL%2,                        Victoire%de Lastours%NULL%2,                        Clément%Ourghanlian%NULL%2,                        Solen%Kerneis%NULL%2,                        Philippe%Ménager%NULL%2,                        Luc%Mouthon%NULL%2,                        Etienne%Audureau%NULL%2,                        Philippe%Ravaud%NULL%2,                        Bertrand%Godeau%NULL%2,                        Sébastien%Gallien%NULL%2,                        Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,    Abu Baker%Sheikh%xref no email%1,    Shubhra%Upadhyay%xref no email%1,    Jeanette%Atencio%xref no email%1,    Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                      Yu%Zuo%NULL%1,                      Srilakshmi%Yalavarthi%NULL%1,                      Kelsey%Gockman%NULL%1,                      Melanie%Zuo%NULL%1,                      Jacqueline A%Madison%NULL%1,                      Christopher%Blair%NULL%1,                      Wrenn%Woodward%NULL%1,                      Sean P%Lezak%NULL%1,                      Njira L%Lugogo%NULL%1,                      Robert J%Woods%NULL%1,                      Christian%Lood%NULL%1,                      Jason S%Knight%NULL%2,                      Jason S%Knight%NULL%0,                      Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                        Raef A.%Fadel%NULL%1,                        Kelly M.%Malette%NULL%1,                        Charles%Hammond%NULL%1,                        Hafsa%Abdulla%NULL%1,                        Abigail%Entz%NULL%1,                        Zachary%Demertzis%NULL%1,                        Zachary%Hanna%NULL%1,                        Andrew%Failla%NULL%1,                        Carina%Dagher%NULL%0,                        Zohra%Chaudhry%NULL%2,                        Amit%Vahia%NULL%2,                        Odaliz%Abreu Lanfranco%NULL%1,                        Mayur%Ramesh%NULL%1,                        Marcus J.%Zervos%NULL%1,                        George%Alangaden%NULL%2,                        Joseph%Miller%NULL%2,                        Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,    Daniel%Mu\u00f1oz%xref no email%1,    Alberto%Fica%xref no email%1,    Ignacio%Delama%xref no email%1,    Ignacia%Alvarez%xref no email%1,    Maritza%Navarrete%xref no email%1,    Eileen%Blackburn%xref no email%1,    Pamela%Garrido%xref no email%1,    Ricardo%Wenger%xref no email%1,    Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                          J.% Jiang%null%1,                          X.% Xu%null%1,                          Y.% Hu%null%2,                          Y.% Hu%null%0,                          Y. % Zhao%null%1,       C.%Chen%null%1,       J.% Jiang%null%2,       X.% Xu%null%1,       Y.% Hu%null%2,       Y.% Hu%null%0,       Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                         Chenchen%Qian%NULL%1,                         Zhibing%Luo%NULL%1,                         Qiang%Li%liqressh@hotmail.com%0,                         Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                         Chunlin%Cai%NULL%1,                         Jinglei%Zang%NULL%1,                         Jun%Xie%NULL%1,                         Dan%Xu%NULL%0,                         Fang%Zheng%NULL%0,                         Tao%Zhan%NULL%1,                         Kang%Huang%NULL%1,                         Yikai%Wang%NULL%1,                         Xiao%Wang%NULL%1,                         Zhe-Yu%Hu%NULL%1,                         Yapeng%Deng%NULL%1,                         Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                         Naofumi%Bunya%NULL%1,                         Tomoyuki%Endo%NULL%1,                         Yuji%Fujino%NULL%1,                         Kensuke%Fujita%NULL%1,                         Kenji%Fujizuka%NULL%1,                         Yoshihiro%Hagiwara%NULL%1,                         Jun%Hamaguchi%NULL%1,                         Yoshitaka%Hara%NULL%1,                         Eiji%Hashiba%NULL%1,                         Satoru%Hashimoto%NULL%1,                         Noriyuki%Hattori%NULL%1,                         Kota%Hoshino%NULL%1,                         Shinichi%Ijuin%NULL%1,                         Takanari%Ikeyama%NULL%1,                         Shingo%Ichiba%NULL%1,                         Wataru%Iwanaga%NULL%1,                         Yoshiaki%Iwashita%NULL%1,                         Masafumi%Kanamoto%NULL%1,                         Hitoshi%Kaneko%NULL%1,                         Kaneyuki%Kawamae%NULL%1,                         Toru%Kotani%NULL%1,                         Yasuaki%Koyama%NULL%1,                         Keibun%Liu%NULL%1,                         Tomohiko%Masuno%NULL%1,                         Naoto%Morimura%NULL%1,                         Tomoyuki%Nakamura%NULL%1,                         Masaki%Nakane%NULL%1,                         Michitaka%Nasu%NULL%1,                         Osamu%Nishida%NULL%1,                         Masaji%Nishimura%NULL%1,                         Kanae%Ochiai%NULL%1,                         Takayuki%Ogura%NULL%1,                         Shinichiro%Ohshimo%NULL%1,                         Keisuke%Oyama%NULL%1,                         Junichi%Sasaki%NULL%1,                         Ryutaro%Seo%NULL%1,                         Takeshi%Shimazu%NULL%1,                         Nobuaki%Shime%NULL%4,                         Keiki%Shimizu%NULL%1,                         Hiroyuki%Suzuki%NULL%1,                         Shuhei%Takauji%NULL%1,                         Shinhiro%Takeda%NULL%1,                         Ichiro%Takeuchi%NULL%2,                         Mumon%Takita%NULL%1,                         Hayato%Taniguchi%NULL%1,                         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                         Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                         Yi Xin%Tong%NULL%3,                         Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                         Hong%Chen%NULL%0,                         Zhen%Li%NULL%2,                         Bo%Wang%NULL%0,                         Zhong-Wei%Zhang%NULL%1,                         Wei-Min%Li%NULL%0,                         Zong-An%Liang%NULL%0,                         Jin%Tang%NULL%1,                         Jian%Wang%NULL%1,                         Rui%Shi%NULL%1,                         Xiao-Dong%Jin%NULL%1,                         Yan%Kang%NULL%0,                         Pei-Fang%Wei%NULL%8,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                          S. F.% Mahmood%null%1,                          K.% Habib%null%1,                          I.% Khanum%null%1,                          B. % Jamil%null%1,       N.%Nasir%null%1,       S. F.% Mahmood%null%1,       K.% Habib%null%1,       I.% Khanum%null%1,       B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                         Chaisith%Sivakorn%NULL%1,                         Tanuwong%Viarasilpa%NULL%1,                         Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                         Mu%Qin%qinmuae@163.com%1,                         Yuli%Cai%NULL%1,                         Tao%Liu%NULL%0,                         Bo%Shen%NULL%1,                         Fan%Yang%NULL%2,                         Sheng%Cao%NULL%1,                         Xu%Liu%NULL%2,                         Xu%Liu%NULL%0,                         Yaozu%Xiang%NULL%1,                         Qinyan%Zhao%NULL%1,                         He%Huang%huanghe1977@whu.edu.cn%0,                         Bo%Yang%yybb112@whu.edu.cn%0,                         Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                         Win%Kulvichit%NULL%1,                         Sunchai%Payungporn%NULL%1,                         Trairak%Pisitkun%NULL%1,                         Ariya%Chindamporn%NULL%1,                         Sadudee%Peerapornratana%NULL%1,                         Prapaporn%Pisitkun%NULL%1,                         Suwalak%Chitcharoen%NULL%1,                         Vorthon%Sawaswong%NULL%1,                         Navaporn%Worasilchai%NULL%1,                         Sarinya%Kampunya%NULL%1,                         Opass%Putcharoen%NULL%1,                         Thammasak%Thawitsri%NULL%1,                         Nophol%Leelayuwatanakul%NULL%1,                         Napplika%Kongpolprom%NULL%1,                         Vorakamol%Phoophiboon%NULL%1,                         Thitiwat%Sriprasart%NULL%1,                         Rujipat%Samransamruajkit%NULL%1,                         Somkanya%Tungsanga%NULL%1,                         Kanitha%Tiankanon%NULL%1,                         Nuttha%Lumlertgul%NULL%1,                         Asada%Leelahavanichkul%NULL%1,                         Tueboon%Sriphojanart%NULL%1,                         Terapong%Tantawichien%NULL%1,                         Usa%Thisyakorn%NULL%1,                         Chintana%Chirathaworn%NULL%1,                         Kearkiat%Praditpornsilpa%NULL%1,                         Kriang%Tungsanga%NULL%1,                         Somchai%Eiam-Ong%NULL%1,                         Visith%Sitprija%NULL%1,                         John A.%Kellum%NULL%1,                         Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                         Min%Pan%NULL%3,                         Xiumei%Zhang%NULL%3,                         Mingfeng%Han%fyhmf@163.com%5,                         Xiaoyun%Fan%13956988552@126.com%3,                         Fengde%Zhao%NULL%3,                         Manli%Miao%NULL%3,                         Jing%Xu%NULL%0,                         Minglong%Guan%NULL%3,                         Xia%Deng%NULL%3,                         Xu%Chen%NULL%4,                         Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%2,                         Chunli%Tang%NULL%0,                         Ruchong%Chen%NULL%1,                         Honglian%Ruan%NULL%1,                         Wenhua%Liang%NULL%0,                         Weijie%Guan%NULL%0,                         Ling%Sang%NULL%0,                         Ruidi%Tang%NULL%1,                         Nanshan%Zhong%NULL%0,                         Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao%Yang%xref no email%1,     Shuhan%Cai%xref no email%1,     Yun%Luo%xref no email%1,     Fangfang%Zhu%xref no email%1,     Ming%Hu%xref no email%1,     Yan%Zhao%xref no email%1,     Ruiqiang%Zheng%xref no email%1,     Xuyan%Li%xref no email%1,     Bo%Hu%xref no email%0,     Zhiyong%Peng%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%5,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%5,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%5,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%5,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%5,                         Shangwen%Pan%NULL%5,                         Xiaojing%Zou%NULL%7,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                         Shanyan%Zhang%NULL%2,                         Xiaoli%Zhang%NULL%1,                         Huan%Cai%NULL%2,                         Jueqing%Gu%NULL%2,                         Jiangshan%Lian%NULL%2,                         Yingfeng%Lu%NULL%2,                         Hongyu%Jia%NULL%2,                         Jianhua%Hu%NULL%2,                         Ciliang%Jin%NULL%2,                         Guodong%Yu%NULL%2,                         Yimin%Zhang%NULL%2,                         Jifang%Sheng%NULL%4,                         Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                         Dan%Xu%NULL%0,                         Shouzhi%Fu%NULL%0,                         Jun%Zhang%NULL%0,                         Xiaobo%Yang%NULL%0,                         Liang%Xu%NULL%0,                         Jiqian%Xu%NULL%0,                         Yongran%Wu%NULL%0,                         Chaolin%Huang%NULL%0,                         Yaqi%Ouyang%NULL%0,                         Luyu%Yang%NULL%0,                         Minghao%Fang%NULL%0,                         Hongwen%Xiao%NULL%0,                         Jing%Ma%NULL%0,                         Wei%Zhu%NULL%0,                         Song%Hu%NULL%0,                         Quan%Hu%NULL%0,                         Daoyin%Ding%NULL%0,                         Ming%Hu%NULL%0,                         Guochao%Zhu%NULL%0,                         Weijiang%Xu%NULL%0,                         Jun%Guo%NULL%0,                         Jinglong%Xu%NULL%0,                         Haitao%Yuan%NULL%0,                         Bin%Zhang%NULL%0,                         Zhui%Yu%yuzhui@whu.edu.cn%0,                         Dechang%Chen%icudechangchen@163.com%0,                         Shiying%Yuan%yuan_shiying@163.com%0,                         You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                         Hao-Yu%Gao%NULL%1,                         Zi-Yi%Feng%NULL%1,                         Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                         Li-jun%Sun%NULL%1,                         Mi%Xu%NULL%1,                         Jian%Pan%NULL%1,                         Yun-tao%Zhang%NULL%1,                         Xue-ling%Fang%NULL%1,                         Qiang%Fang%NULL%2,                         Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                         Ziqiang%Du%NULL%1,                         Yanfang%Zhu%NULL%1,                         Wenfeng%Li%NULL%1,                         Hongjun%Miao%NULL%1,                         Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                         Sarah%Al-Youha%sarahalyouha@gmail.com%1,                         Mohammad H.%Jamal%NULL%1,                         Mohannad%Al-Haddad%NULL%1,                         Ali%Al-Muhaini%NULL%1,                         Fahad%Al-Ghimlas%NULL%1,                         Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                         Mina%Akbari Rad%NULL%1,                         Robert%Bergquist%NULL%1,                         Abolghasem%Allahyari%NULL%1,                         Kamila%Hashemzadeh%NULL%1,                         Nasrin%Milani%NULL%1,                         Mahdi%Gholian-Aval%NULL%1,                         Fariba%Rezaeitalab%NULL%1,                         Mohammad Jafar%Sadeghi Quchani%NULL%1,                         Zahra%Nahbandani%NULL%1,                         Mandana%Khodashahi%NULL%1,                         Zahra%Javid%NULL%1,                         Mahnaz%Mozdourian%NULL%1,                         Mohammad Ali%Yaghoubi%NULL%1,                         Zahra%Mozaheb%NULL%1,                         Mohsen%Seddigh-Shamsi%NULL%1,                         Mohammad%Moeini Nodeh%NULL%1,                         Shima%Nabavi%NULL%1,                         Hooman%Mosannen Mozaffari%NULL%1,                         Mohammadreza%Farzanehfar%NULL%1,                         Zahra%Lotfi%NULL%1,                         Alireza%Shariati%NULL%1,                         Shekoofe%Bonakdaran%NULL%1,                         Zahra%Rezaieyazdi%NULL%1,                         Zahra%Mirfeizi%NULL%1,                         Maryam%Miri%NULL%1,                         Reza%Bassiri%NULL%1,                         Sajjad%Ataei Azimi%NULL%1,                         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                         Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                         Ibrahim%Al-Zakwani%NULL%1,                         Hamed%Al Naamani%NULL%1,                         Sultan%Al Lawati%NULL%1,                         Nenad%Pandak%NULL%1,                         Muna Ba%Omar%NULL%1,                         Maher%Al Bahrani%NULL%1,                         Zakaryia AL%Bulushi%NULL%1,                         Huda%Al Khalili%NULL%1,                         Issa%Al Salmi%NULL%1,                         Ruwaida%Al Ismaili%NULL%1,                         Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                         Zohre%Khodamoradi%NULL%1,                         Amirhossein%Erfani%NULL%1,                         Hamidreza%Hosseinpour%NULL%1,                         Keivan%Ranjbar%NULL%1,                         Yasaman%Emami%NULL%1,                         Alireza%Mirahmadizadeh%NULL%1,                         Mehrzad%Lotfi%NULL%1,                         Babak%Shirazi Yeganeh%NULL%1,                         Abolfazl%Dorrani Nejad%NULL%1,                         Abdolrasool%Hemmati%NULL%1,                         Mostafa%Ebrahimi%NULL%1,                         Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                         Annachiara%Ferrari%NULL%2,                         Annachiara%Ferrari%NULL%0,                         Francesco%Fontana%NULL%1,                         Giacomo%Mori%NULL%1,                         Riccardo%Magistroni%NULL%1,                         Marianna%Meschiari%NULL%1,                         Erica%Franceschini%NULL%1,                         Marianna%Menozzi%NULL%1,                         Gianluca%Cuomo%NULL%1,                         Gabriella%Orlando%NULL%1,                         Antonella%Santoro%NULL%1,                         Margherita%Digaetano%NULL%1,                         Cinzia%Puzzolante%NULL%1,                         Federica%Carli%NULL%1,                         Andrea%Bedini%NULL%1,                         Jovana%Milic%NULL%1,                         Irene%Coloretti%NULL%1,                         Paolo%Raggi%NULL%1,                         Cristina%Mussini%NULL%1,                         Massimo%Girardis%NULL%1,                         Gianni%Cappelli%NULL%1,                         Giovanni%Guaraldi%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                         Silvia%Bettini%NULL%2,                         Silvia%Bettini%NULL%0,                         Roberto%Fabris%NULL%1,                         Roberto%Serra%NULL%2,                         Chiara%Dal Pra%NULL%1,                         Pietro%Maffei%NULL%1,                         Marco%Rossato%NULL%1,                         Paola%Fioretto%NULL%0,                         Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                         Marco%Roncador%NULL%2,                         Marco%Roncador%NULL%0,                         Andrea%Saporito%NULL%1,                         Maira%Biggiogero%NULL%1,                         Andrea%Glotta%NULL%1,                         Pier Andrea%Maida%NULL%1,                         Patrizia%Urso%NULL%1,                         Giovanni%Bona%NULL%1,                         Christian%Garzoni%NULL%1,                         Romano%Mauri%NULL%1,                         Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                         Anna Lisa%Ridolfo%NULL%4,                         Laura%Milazzo%NULL%2,                         Letizia%Oreni%NULL%4,                         Dario%Bernacchia%NULL%4,                         Matteo%Siano%NULL%4,                         Cecilia%Bonazzetti%NULL%2,                         Alice%Covizzi%NULL%2,                         Marco%Schiuma%NULL%2,                         Matteo%Passerini%NULL%2,                         Marco%Piscaglia%NULL%2,                         Massimo%Coen%NULL%2,                         Guido%Gubertini%NULL%2,                         Giuliano%Rizzardini%NULL%4,                         Chiara%Cogliati%NULL%2,                         Anna Maria%Brambilla%NULL%2,                         Riccardo%Colombo%NULL%2,                         Antonio%Castelli%NULL%2,                         Roberto%Rech%NULL%2,                         Agostino%Riva%NULL%2,                         Alessandro%Torre%NULL%2,                         Luca%Meroni%NULL%2,                         Stefano%Rusconi%NULL%4,                         Spinello%Antinori%NULL%4,                         Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                        Cabrini%Luca%coreGivesNoEmail%4,                        Castelli%Antonio%coreGivesNoEmail%4,                        Cecconi%Maurizio%coreGivesNoEmail%4,                        Cereda%Danilo%coreGivesNoEmail%4,                        Coluccello%Antonio%coreGivesNoEmail%4,                        Foti%Giuseppe%coreGivesNoEmail%4,                        Fumagalli%Roberto%coreGivesNoEmail%4,                        Grasselli%Giacomo%coreGivesNoEmail%4,                        Iotti%Giorgio%coreGivesNoEmail%4,                        Latronico%Nicola%coreGivesNoEmail%4,                        Lorini%Luca%coreGivesNoEmail%4,                        Merler%Stefano%coreGivesNoEmail%4,                        Natalini%Giuseppe%coreGivesNoEmail%4,                        Pesenti%Antonio%coreGivesNoEmail%4,                        Piatti%Alessandra%coreGivesNoEmail%4,                        Ranieri%Marco Vito%coreGivesNoEmail%4,                        Scandroglio%Anna Mara%coreGivesNoEmail%4,                        Storti%Enrico%coreGivesNoEmail%4,                        Zanella%Alberto%coreGivesNoEmail%4,                        Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                         Lara%Gianesello%gianesello.lara@libero.it%1,                         Maddalena%Pazzi%NULL%2,                         Maddalena%Pazzi%NULL%0,                         Caterina%Stera%NULL%1,                         Tommaso%Meconi%NULL%1,                         Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                         Andrea%Dalbeni%NULL%2,                         Andrea%Dalbeni%NULL%0,                         Elia%Vettore%NULL%2,                         Elia%Vettore%NULL%0,                         Devis%Benfaremo%NULL%1,                         Massimo%Mattioli%NULL%1,                         Carmine G.%Gambino%NULL%1,                         Viviana%Framba%NULL%2,                         Viviana%Framba%NULL%0,                         Lorenzo%Cerruti%NULL%1,                         Anna%Mantovani%NULL%1,                         Andrea%Martini%NULL%1,                         Michele M.%Luchetti%NULL%1,                         Roberto%Serra%NULL%0,                         Annamaria%Cattelan%NULL%1,                         Roberto%Vettor%NULL%0,                         Paolo%Angeli%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                         Matthaios%Papadimitriou-Olivgeris%NULL%2,                         Matthaios%Papadimitriou-Olivgeris%NULL%0,                         Raphaël%Burger%NULL%1,                         Marie-Annick%Le Pogam%NULL%1,                         Tapio%Niemi%NULL%2,                         Tapio%Niemi%NULL%0,                         Paraskevas%Filippidis%NULL%1,                         Jonathan%Tschopp%NULL%1,                         Florian%Desgranges%NULL%1,                         Benjamin%Viala%NULL%1,                         Eleftheria%Kampouri%NULL%1,                         Laurence%Rochat%NULL%2,                         Laurence%Rochat%NULL%0,                         David%Haefliger%NULL%1,                         Mehdi%Belkoniene%NULL%1,                         Carlos%Fidalgo%NULL%1,                         Antonios%Kritikos%NULL%1,                         Katia%Jaton%NULL%1,                         Laurence%Senn%NULL%1,                         Pierre-Alexandre%Bart%NULL%1,                         Jean-Luc%Pagani%NULL%2,                         Jean-Luc%Pagani%NULL%0,                         Oriol%Manuel%NULL%1,                         Loïc%Lhopitallier%NULL%1,                         Chiara%Lazzeri%NULL%2,                         Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                         Ashwin%Subramaniam%NULL%2,                         Ashwin%Subramaniam%NULL%0,                         Mallikarjuna%Ponnapa Reddy%NULL%2,                         Mallikarjuna%Ponnapa Reddy%NULL%0,                         Gabriel%Blecher%NULL%1,                         Umesh%Kadam%NULL%2,                         Umesh%Kadam%NULL%0,                         Afsana%Afroz%NULL%1,                         Baki%Billah%NULL%1,                         Sushma%Ashwin%NULL%1,                         Mark%Kubicki%NULL%1,                         Federico%Bilotta%NULL%1,                         J. Randall%Curtis%NULL%2,                         J. Randall%Curtis%NULL%0,                         Francesca%Rubulotta%NULL%2,                         Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                        Aggarwal%Saurabh%coreGivesNoEmail%3,                        Garcia-Telles%Nelson%coreGivesNoEmail%3,                        Henry%Brandon Michael%coreGivesNoEmail%3,                        Lavie%Carl%coreGivesNoEmail%3,                        Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                         Samuel L%Bruce%NULL%2,                         Cody L%Slater%NULL%2,                         Jonathan R%Tiao%NULL%2,                         Matthew R%Baldwin%NULL%3,                         R Graham%Barr%NULL%2,                         Bernard P%Chang%NULL%2,                         Katherine H%Chau%NULL%2,                         Justin J%Choi%NULL%2,                         Nicholas%Gavin%NULL%2,                         Parag%Goyal%NULL%2,                         Angela M%Mills%NULL%2,                         Ashmi A%Patel%NULL%2,                         Marie-Laure S%Romney%NULL%2,                         Monika M%Safford%NULL%2,                         Neil W%Schluger%NULL%2,                         Soumitra%Sengupta%NULL%2,                         Magdalena E%Sobieszczyk%NULL%2,                         Jason E%Zucker%NULL%2,                         Paul A%Asadourian%NULL%2,                         Fletcher M%Bell%NULL%2,                         Rebekah%Boyd%NULL%2,                         Matthew F%Cohen%NULL%2,                         MacAlistair I%Colquhoun%NULL%2,                         Lucy A%Colville%NULL%2,                         Joseph H%de Jonge%NULL%2,                         Lyle B%Dershowitz%NULL%2,                         Shirin A%Dey%NULL%2,                         Katherine A%Eiseman%NULL%2,                         Zachary P%Girvin%NULL%2,                         Daniella T%Goni%NULL%2,                         Amro A%Harb%NULL%2,                         Nicholas%Herzik%NULL%2,                         Sarah%Householder%NULL%2,                         Lara E%Karaaslan%NULL%2,                         Heather%Lee%NULL%2,                         Evan%Lieberman%NULL%2,                         Andrew%Ling%NULL%2,                         Ree%Lu%NULL%2,                         Arthur Y%Shou%NULL%2,                         Alexander C%Sisti%NULL%2,                         Zachary E%Snow%NULL%2,                         Colin P%Sperring%NULL%2,                         Yuqing%Xiong%NULL%2,                         Henry W%Zhou%NULL%2,                         Karthik%Natarajan%NULL%2,                         George%Hripcsak%NULL%2,                         Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                         Mark%Caridi-Scheible%NULL%3,                         James M.%Blum%NULL%2,                         Chad%Robichaux%NULL%2,                         Colleen%Kraft%NULL%2,                         Jesse T.%Jacob%NULL%2,                         Craig S.%Jabaley%NULL%2,                         David%Carpenter%NULL%2,                         Roberta%Kaplow%NULL%2,                         Alfonso C.%Hernandez-Romieu%NULL%2,                         Max W.%Adelman%NULL%2,                         Greg S.%Martin%NULL%2,                         Craig M.%Coopersmith%NULL%2,                         David J.%Murphy%NULL%2,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                         Bijan J.%Ghassemieh%NULL%0,                         Michelle%Nichols%NULL%0,                         Richard%Kim%NULL%0,                         Keith R.%Jerome%NULL%0,                         Arun K.%Nalla%NULL%0,                         Alexander L.%Greninger%NULL%0,                         Sudhakar%Pipavath%NULL%0,                         Mark M.%Wurfel%NULL%0,                         Laura%Evans%NULL%0,                         Patricia A.%Kritek%NULL%0,                         T. Eoin%West%NULL%0,                         Andrew%Luks%NULL%0,                         Anthony%Gerbino%NULL%0,                         Chris R.%Dale%NULL%0,                         Jason D.%Goldman%NULL%0,                         Shane%O’Mahony%NULL%0,                         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                         Denise J%McCulloch%NULL%0,                         Denise J%McCulloch%NULL%0,                         Vidya%Atluri%NULL%0,                         Michela%Blain%NULL%0,                         Sarah A%McGuffin%NULL%0,                         Arun K%Nalla%NULL%0,                         Meei-Li%Huang%NULL%0,                         Alex L%Greninger%NULL%0,                         Keith R%Jerome%NULL%0,                         Seth A%Cohen%NULL%0,                         Santiago%Neme%NULL%0,                         Margaret L%Green%NULL%0,                         Helen Y%Chu%NULL%0,                         H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                         Joelle I.%Rosser%NULL%0,                         Orlando%Quintero%NULL%0,                         Jake%Scott%NULL%0,                         Aruna%Subramanian%NULL%0,                         Mohammad%Gumma%NULL%0,                         Angela%Rogers%NULL%0,                         Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                         Jacob%Fiksel%NULL%2,                         Jacob%Fiksel%NULL%0,                         John%Muschelli%NULL%2,                         John%Muschelli%NULL%0,                         Matthew L.%Robinson%NULL%2,                         Matthew L.%Robinson%NULL%0,                         Masoud%Rouhizadeh%NULL%2,                         Masoud%Rouhizadeh%NULL%0,                         Jamie%Perin%NULL%2,                         Jamie%Perin%NULL%0,                         Grant%Schumock%NULL%2,                         Grant%Schumock%NULL%0,                         Paul%Nagy%NULL%2,                         Paul%Nagy%NULL%0,                         Josh H.%Gray%NULL%2,                         Josh H.%Gray%NULL%0,                         Harsha%Malapati%NULL%2,                         Harsha%Malapati%NULL%0,                         Mariam%Ghobadi-Krueger%NULL%2,                         Mariam%Ghobadi-Krueger%NULL%0,                         Timothy M.%Niessen%NULL%1,                         Bo Soo%Kim%NULL%1,                         Peter M.%Hill%NULL%1,                         M. Shafeeq%Ahmed%NULL%1,                         Eric D.%Dobkin%NULL%1,                         Renee%Blanding%NULL%1,                         Jennifer%Abele%NULL%1,                         Bonnie%Woods%NULL%1,                         Kenneth%Harkness%NULL%1,                         David R.%Thiemann%NULL%1,                         Mary G.%Bowring%NULL%1,                         Aalok B.%Shah%NULL%2,                         Aalok B.%Shah%NULL%0,                         Mei-Cheng%Wang%NULL%1,                         Karen%Bandeen-Roche%NULL%1,                         Antony%Rosen%NULL%1,                         Scott L.%Zeger%NULL%2,                         Scott L.%Zeger%NULL%0,                         Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0,     Karen K.%Wong%xref no email%1,     Christine M.%Szablewski%xref no email%1,     Priti R.%Patel%xref no email%1,     John%Rossow%xref no email%1,     Juliana%da Silva%xref no email%1,     Pavithra%Natarajan%xref no email%1,     Sapna Bamrah%Morris%xref no email%1,     Robyn Neblett%Fanfair%xref no email%1,     Jessica%Rogers-Brown%xref no email%1,     Beau B.%Bruce%xref no email%1,     Sean D.%Browning%xref no email%1,     Alfonso C.%Hernandez-Romieu%xref no email%1,     Nathan W.%Furukawa%xref no email%1,     Mohleen%Kang%xref no email%1,     Mary E.%Evans%xref no email%1,     Nadine%Oosmanally%xref no email%1,     Melissa%Tobin-D\u2019Angelo%xref no email%1,     Cherie%Drenzek%xref no email%1,     David J.%Murphy%xref no email%1,     Julie%Hollberg%xref no email%1,     James M.%Blum%xref no email%1,     Robert%Jansen%xref no email%1,     David W.%Wright%xref no email%1,     William M.%Sewell%xref no email%1,     Jack D.%Owens%xref no email%1,     Benjamin%Lefkove%xref no email%1,     Frank W.%Brown%xref no email%1,     Deron C.%Burton%xref no email%1,     Timothy M.%Uyeki%xref no email%1,     Stephanie R.%Bialek%xref no email%1,     Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                         Justin J.%Choi%NULL%0,                         Laura C.%Pinheiro%NULL%0,                         Edward J.%Schenck%NULL%0,                         Ruijun%Chen%NULL%0,                         Assem%Jabri%NULL%0,                         Michael J.%Satlin%NULL%0,                         Thomas R.%Campion%NULL%0,                         Musarrat%Nahid%NULL%0,                         Joanna B.%Ringel%NULL%0,                         Katherine L.%Hoffman%NULL%0,                         Mark N.%Alshak%NULL%0,                         Han A.%Li%NULL%0,                         Graham T.%Wehmeyer%NULL%0,                         Graham T.%Wehmeyer%NULL%0,                         Mangala%Rajan%NULL%0,                         Evgeniya%Reshetnyak%NULL%0,                         Nathaniel%Hupert%NULL%0,                         Evelyn M.%Horn%NULL%0,                         Fernando J.%Martinez%NULL%0,                         Roy M.%Gulick%NULL%0,                         Monika M.%Safford%NULL%0,                         Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                         Simon A%Jones%NULL%0,                         Jie%Yang%NULL%0,                         Harish%Rajagopalan%NULL%0,                         Luke%O’Donnell%NULL%0,                         Yelena%Chernyak%NULL%0,                         Katie A%Tobin%NULL%0,                         Robert J%Cerfolio%NULL%0,                         Fritz%Francois%NULL%0,                         Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                         Anatoly%Mitrokhin%NULL%2,                         Anatoly%Mitrokhin%NULL%0,                         Ajai%Rajabalan%NULL%1,                         Christian%Benjamin%NULL%1,                         Sushma%Raviralla%NULL%1,                         Vishnu R%Mani%vishnu.mani@duke.edu%2,                         Vishnu R%Mani%vishnu.mani@duke.edu%0,                         Aleksandr%Kalabin%NULL%2,                         Aleksandr%Kalabin%NULL%0,                         Sebastian C%Valdivieso%NULL%2,                         Sebastian C%Valdivieso%NULL%0,                         Max%Murray-Ramcharan%NULL%2,                         Max%Murray-Ramcharan%NULL%0,                         Brian%Donaldson%NULL%2,                         Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                          Nicholas A.%Fergusson%null%2,                          Elisa%Lloyd-Smith%null%2,                          Andrew%Wormsbecker%null%2,                          Denise%Foster%null%2,                          Andrei%Karpov%null%2,                          Sarah%Crowe%null%2,                          Greg%Haljan%null%2,                          Dean R.%Chittock%null%2,                          Hussein D.%Kanji%null%2,                          Mypinder S.%Sekhon%null%2,                          Donald E.G.%Griesdale%null%2,                        Anish R.%Mitra%null%1,                        Nicholas A.%Fergusson%null%1,                        Elisa%Lloyd-Smith%null%1,                        Andrew%Wormsbecker%null%1,                        Denise%Foster%null%1,                        Andrei%Karpov%null%1,                        Sarah%Crowe%null%1,                        Greg%Haljan%null%1,                        Dean R.%Chittock%null%1,                        Hussein D.%Kanji%null%1,                        Mypinder S.%Sekhon%null%1,                        Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                         Damianos G.%Kokkinidis%NULL%1,                         Weijia%Li%NULL%1,                         Dimitrios%Karamanis%NULL%1,                         Jennifer%Ognibene%NULL%1,                         Shitij%Arora%NULL%1,                         William N.%Southern%NULL%1,                         Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                         Jesus D.%Gonzalez-Lugo%NULL%1,                         Shafia%Rahman%NULL%1,                         Mohammad%Barouqa%NULL%1,                         James%Szymanski%NULL%1,                         Kenji%Ikemura%NULL%1,                         Yungtai%Lo%NULL%1,                         Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%4,                        Chelico%J.D.%coreGivesNoEmail%4,                        Cohen%S.L.%coreGivesNoEmail%4,                        Cookingham%J.%coreGivesNoEmail%4,                        Coppa%K.%coreGivesNoEmail%4,                        Crawford%J.M.%coreGivesNoEmail%4,                        Davidson%K.W.%coreGivesNoEmail%4,                        Diefenbach%M.A.%coreGivesNoEmail%4,                        Dominello%A.J.%coreGivesNoEmail%4,                        Duer-Hefele%J.%coreGivesNoEmail%4,                        Falzon%L.%coreGivesNoEmail%4,                        Gitlin%J.%coreGivesNoEmail%4,                        Hajizadeh%N.%coreGivesNoEmail%4,                        Harvin%T.G.%coreGivesNoEmail%4,                        Hirsch%J.S.%coreGivesNoEmail%4,                        Hirschwerk%D.A.%coreGivesNoEmail%4,                        Kim%E.J.%coreGivesNoEmail%4,                        Kozel%Z.M.%coreGivesNoEmail%4,                        Marrast%L.M.%coreGivesNoEmail%4,                        McGinn%T.%coreGivesNoEmail%4,                        Mogavero%J.N.%coreGivesNoEmail%4,                        Narasimhan%M.%coreGivesNoEmail%4,                        Osorio%G.A.%coreGivesNoEmail%4,                        Qiu%M.%coreGivesNoEmail%4,                        Richardson%S.%coreGivesNoEmail%4,                        Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                         Viet-Thi%Tran%NULL%4,                         Viet-Thi%Tran%NULL%0,                         Mathilde%Roumier%NULL%2,                         Amélie%Chabrol%NULL%2,                         Romain%Paule%NULL%2,                         Constance%Guillaud%NULL%2,                         Elena%Fois%NULL%2,                         Raphael%Lepeule%NULL%2,                         Tali-Anne%Szwebel%NULL%2,                         François-Xavier%Lescure%NULL%2,                         Frédéric%Schlemmer%NULL%2,                         Marie%Matignon%NULL%2,                         Mehdi%Khellaf%NULL%2,                         Etienne%Crickx%NULL%2,                         Benjamin%Terrier%NULL%2,                         Caroline%Morbieu%NULL%2,                         Paul%Legendre%NULL%2,                         Julien%Dang%NULL%2,                         Yoland%Schoindre%NULL%2,                         Jean-Michel%Pawlotsky%NULL%2,                         Marc%Michel%NULL%2,                         Elodie%Perrodeau%NULL%2,                         Nicolas%Carlier%NULL%2,                         Nicolas%Roche%NULL%2,                         Victoire%de Lastours%NULL%2,                         Clément%Ourghanlian%NULL%2,                         Solen%Kerneis%NULL%2,                         Philippe%Ménager%NULL%2,                         Luc%Mouthon%NULL%2,                         Etienne%Audureau%NULL%2,                         Philippe%Ravaud%NULL%2,                         Bertrand%Godeau%NULL%2,                         Sébastien%Gallien%NULL%2,                         Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rahul%Shekhar%xref no email%1,     Abu Baker%Sheikh%xref no email%1,     Shubhra%Upadhyay%xref no email%1,     Jeanette%Atencio%xref no email%1,     Devika%Kapuria%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                       Yu%Zuo%NULL%1,                       Srilakshmi%Yalavarthi%NULL%1,                       Kelsey%Gockman%NULL%1,                       Melanie%Zuo%NULL%1,                       Jacqueline A%Madison%NULL%1,                       Christopher%Blair%NULL%1,                       Wrenn%Woodward%NULL%1,                       Sean P%Lezak%NULL%1,                       Njira L%Lugogo%NULL%1,                       Robert J%Woods%NULL%1,                       Christian%Lood%NULL%1,                       Jason S%Knight%NULL%2,                       Jason S%Knight%NULL%0,                       Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                         Raef A.%Fadel%NULL%1,                         Kelly M.%Malette%NULL%1,                         Charles%Hammond%NULL%1,                         Hafsa%Abdulla%NULL%1,                         Abigail%Entz%NULL%1,                         Zachary%Demertzis%NULL%1,                         Zachary%Hanna%NULL%1,                         Andrew%Failla%NULL%1,                         Carina%Dagher%NULL%0,                         Zohra%Chaudhry%NULL%2,                         Amit%Vahia%NULL%2,                         Odaliz%Abreu Lanfranco%NULL%1,                         Mayur%Ramesh%NULL%1,                         Marcus J.%Zervos%NULL%1,                         George%Alangaden%NULL%2,                         Joseph%Miller%NULL%2,                         Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Felipe%Olivares%xref no email%1,     Daniel%Mu\u00f1oz%xref no email%1,     Alberto%Fica%xref no email%1,     Ignacio%Delama%xref no email%1,     Ignacia%Alvarez%xref no email%1,     Maritza%Navarrete%xref no email%1,     Eileen%Blackburn%xref no email%1,     Pamela%Garrido%xref no email%1,     Ricardo%Wenger%xref no email%1,     Juan%Grandjean%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -3105,6 +3933,9 @@
       <c r="I1" t="s">
         <v>240</v>
       </c>
+      <c r="J1" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3120,7 +3951,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>650</v>
+        <v>926</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3133,6 +3964,9 @@
       </c>
       <c r="I2" t="s">
         <v>590</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3163,6 +3997,9 @@
       <c r="I3" t="s">
         <v>88</v>
       </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -3178,7 +4015,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>651</v>
+        <v>927</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -3191,6 +4028,9 @@
       </c>
       <c r="I4" t="s">
         <v>592</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3207,7 +4047,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>652</v>
+        <v>928</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -3220,6 +4060,9 @@
       </c>
       <c r="I5" t="s">
         <v>594</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3236,7 +4079,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
+        <v>929</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -3249,6 +4092,9 @@
       </c>
       <c r="I6" t="s">
         <v>592</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3265,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>654</v>
+        <v>930</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -3278,6 +4124,9 @@
       </c>
       <c r="I7" t="s">
         <v>594</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3294,7 +4143,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>655</v>
+        <v>931</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -3307,6 +4156,9 @@
       </c>
       <c r="I8" t="s">
         <v>594</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3323,7 +4175,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>656</v>
+        <v>932</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -3336,6 +4188,9 @@
       </c>
       <c r="I9" t="s">
         <v>590</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3352,7 +4207,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>657</v>
+        <v>933</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -3365,6 +4220,9 @@
       </c>
       <c r="I10" t="s">
         <v>594</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3381,7 +4239,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>658</v>
+        <v>934</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -3394,6 +4252,9 @@
       </c>
       <c r="I11" t="s">
         <v>594</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3410,7 +4271,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>659</v>
+        <v>935</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -3423,6 +4284,9 @@
       </c>
       <c r="I12" t="s">
         <v>592</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3439,7 +4303,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>660</v>
+        <v>936</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -3452,6 +4316,9 @@
       </c>
       <c r="I13" t="s">
         <v>603</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3468,7 +4335,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>661</v>
+        <v>937</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -3481,6 +4348,9 @@
       </c>
       <c r="I14" t="s">
         <v>594</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3511,6 +4381,9 @@
       <c r="I15" t="s">
         <v>88</v>
       </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -3526,7 +4399,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>662</v>
+        <v>938</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -3535,10 +4408,13 @@
         <v>251</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>718</v>
       </c>
       <c r="I16" t="s">
-        <v>606</v>
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3555,7 +4431,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>663</v>
+        <v>939</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -3568,6 +4444,9 @@
       </c>
       <c r="I17" t="s">
         <v>603</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3584,7 +4463,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>664</v>
+        <v>940</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3597,6 +4476,9 @@
       </c>
       <c r="I18" t="s">
         <v>594</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3613,7 +4495,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>665</v>
+        <v>941</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -3622,10 +4504,13 @@
         <v>251</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>723</v>
       </c>
       <c r="I19" t="s">
-        <v>606</v>
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3642,7 +4527,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>666</v>
+        <v>942</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -3655,6 +4540,9 @@
       </c>
       <c r="I20" t="s">
         <v>592</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3671,7 +4559,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>667</v>
+        <v>943</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3684,6 +4572,9 @@
       </c>
       <c r="I21" t="s">
         <v>594</v>
+      </c>
+      <c r="J21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3700,7 +4591,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>668</v>
+        <v>944</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3713,6 +4604,9 @@
       </c>
       <c r="I22" t="s">
         <v>592</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3729,7 +4623,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>669</v>
+        <v>945</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -3742,6 +4636,9 @@
       </c>
       <c r="I23" t="s">
         <v>603</v>
+      </c>
+      <c r="J23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3758,7 +4655,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>670</v>
+        <v>946</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -3771,6 +4668,9 @@
       </c>
       <c r="I24" t="s">
         <v>603</v>
+      </c>
+      <c r="J24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3787,7 +4687,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>671</v>
+        <v>947</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -3800,6 +4700,9 @@
       </c>
       <c r="I25" t="s">
         <v>592</v>
+      </c>
+      <c r="J25" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3816,7 +4719,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>672</v>
+        <v>948</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -3829,6 +4732,9 @@
       </c>
       <c r="I26" t="s">
         <v>603</v>
+      </c>
+      <c r="J26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3845,7 +4751,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>673</v>
+        <v>949</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -3858,6 +4764,9 @@
       </c>
       <c r="I27" t="s">
         <v>592</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3874,7 +4783,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>674</v>
+        <v>950</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -3887,6 +4796,9 @@
       </c>
       <c r="I28" t="s">
         <v>592</v>
+      </c>
+      <c r="J28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3903,7 +4815,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>675</v>
+        <v>951</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -3916,6 +4828,9 @@
       </c>
       <c r="I29" t="s">
         <v>594</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3932,7 +4847,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>676</v>
+        <v>952</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -3945,6 +4860,9 @@
       </c>
       <c r="I30" t="s">
         <v>592</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3961,7 +4879,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>677</v>
+        <v>953</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -3974,6 +4892,9 @@
       </c>
       <c r="I31" t="s">
         <v>603</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3990,7 +4911,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>678</v>
+        <v>954</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -4003,6 +4924,9 @@
       </c>
       <c r="I32" t="s">
         <v>606</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4019,7 +4943,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>679</v>
+        <v>955</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -4032,6 +4956,9 @@
       </c>
       <c r="I33" t="s">
         <v>592</v>
+      </c>
+      <c r="J33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -4048,7 +4975,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>680</v>
+        <v>956</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -4061,6 +4988,9 @@
       </c>
       <c r="I34" t="s">
         <v>594</v>
+      </c>
+      <c r="J34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -4077,7 +5007,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>681</v>
+        <v>957</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -4090,6 +5020,9 @@
       </c>
       <c r="I35" t="s">
         <v>594</v>
+      </c>
+      <c r="J35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -4106,7 +5039,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>682</v>
+        <v>958</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -4119,6 +5052,9 @@
       </c>
       <c r="I36" t="s">
         <v>594</v>
+      </c>
+      <c r="J36" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -4149,6 +5085,9 @@
       <c r="I37" t="s">
         <v>88</v>
       </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -4164,7 +5103,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>683</v>
+        <v>959</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -4177,6 +5116,9 @@
       </c>
       <c r="I38" t="s">
         <v>606</v>
+      </c>
+      <c r="J38" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -4193,7 +5135,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>684</v>
+        <v>960</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -4202,10 +5144,13 @@
         <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>256</v>
+        <v>723</v>
       </c>
       <c r="I39" t="s">
-        <v>606</v>
+        <v>88</v>
+      </c>
+      <c r="J39" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -4222,7 +5167,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>685</v>
+        <v>961</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -4235,6 +5180,9 @@
       </c>
       <c r="I40" t="s">
         <v>594</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4251,7 +5199,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>686</v>
+        <v>962</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -4264,6 +5212,9 @@
       </c>
       <c r="I41" t="s">
         <v>594</v>
+      </c>
+      <c r="J41" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -4280,7 +5231,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>687</v>
+        <v>963</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -4293,6 +5244,9 @@
       </c>
       <c r="I42" t="s">
         <v>594</v>
+      </c>
+      <c r="J42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -4309,7 +5263,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>688</v>
+        <v>964</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -4322,6 +5276,9 @@
       </c>
       <c r="I43" t="s">
         <v>594</v>
+      </c>
+      <c r="J43" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -4338,7 +5295,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>689</v>
+        <v>965</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -4351,6 +5308,9 @@
       </c>
       <c r="I44" t="s">
         <v>594</v>
+      </c>
+      <c r="J44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -4367,7 +5327,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>690</v>
+        <v>966</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -4380,6 +5340,9 @@
       </c>
       <c r="I45" t="s">
         <v>594</v>
+      </c>
+      <c r="J45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -4396,7 +5359,7 @@
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>691</v>
+        <v>967</v>
       </c>
       <c r="F46" t="s">
         <v>322</v>
@@ -4405,10 +5368,13 @@
         <v>251</v>
       </c>
       <c r="H46" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="I46" t="s">
         <v>88</v>
+      </c>
+      <c r="J46" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -4425,7 +5391,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>692</v>
+        <v>968</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -4438,6 +5404,9 @@
       </c>
       <c r="I47" t="s">
         <v>594</v>
+      </c>
+      <c r="J47" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -4454,7 +5423,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>693</v>
+        <v>969</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -4467,6 +5436,9 @@
       </c>
       <c r="I48" t="s">
         <v>594</v>
+      </c>
+      <c r="J48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -4483,7 +5455,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>694</v>
+        <v>970</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -4496,6 +5468,9 @@
       </c>
       <c r="I49" t="s">
         <v>594</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4512,7 +5487,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>695</v>
+        <v>971</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -4525,6 +5500,9 @@
       </c>
       <c r="I50" t="s">
         <v>606</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -4541,7 +5519,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>696</v>
+        <v>972</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -4554,6 +5532,9 @@
       </c>
       <c r="I51" t="s">
         <v>603</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -4570,7 +5551,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>693</v>
+        <v>969</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -4583,6 +5564,9 @@
       </c>
       <c r="I52" t="s">
         <v>594</v>
+      </c>
+      <c r="J52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -4599,7 +5583,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>697</v>
+        <v>973</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -4612,6 +5596,9 @@
       </c>
       <c r="I53" t="s">
         <v>594</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -4628,7 +5615,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>698</v>
+        <v>974</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -4641,6 +5628,9 @@
       </c>
       <c r="I54" t="s">
         <v>606</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4657,7 +5647,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>699</v>
+        <v>975</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -4670,6 +5660,9 @@
       </c>
       <c r="I55" t="s">
         <v>594</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -4686,7 +5679,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>700</v>
+        <v>976</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -4698,7 +5691,10 @@
         <v>258</v>
       </c>
       <c r="I56" t="s">
-        <v>606</v>
+        <v>88</v>
+      </c>
+      <c r="J56" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4715,7 +5711,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>701</v>
+        <v>977</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -4728,6 +5724,9 @@
       </c>
       <c r="I57" t="s">
         <v>606</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4744,7 +5743,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>702</v>
+        <v>978</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -4757,6 +5756,9 @@
       </c>
       <c r="I58" t="s">
         <v>594</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4773,7 +5775,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>703</v>
+        <v>979</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>
@@ -4785,7 +5787,10 @@
         <v>260</v>
       </c>
       <c r="I59" t="s">
-        <v>606</v>
+        <v>88</v>
+      </c>
+      <c r="J59" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/43.xlsx
+++ b/Covid_19_Dataset_and_References/References/43.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5738" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6682" uniqueCount="1091">
   <si>
     <t>Doi</t>
   </si>
@@ -3549,6 +3549,373 @@
   </si>
   <si>
     <t>[Felipe%Olivares%xref no email%1,     Daniel%Mu\u00f1oz%xref no email%1,     Alberto%Fica%xref no email%1,     Ignacio%Delama%xref no email%1,     Ignacia%Alvarez%xref no email%1,     Maritza%Navarrete%xref no email%1,     Eileen%Blackburn%xref no email%1,     Pamela%Garrido%xref no email%1,     Ricardo%Wenger%xref no email%1,     Juan%Grandjean%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                           J.% Jiang%null%1,                           X.% Xu%null%1,                           Y.% Hu%null%2,                           Y.% Hu%null%0,                           Y. % Zhao%null%1,        C.%Chen%null%1,        J.% Jiang%null%2,        X.% Xu%null%1,        Y.% Hu%null%2,        Y.% Hu%null%0,        Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>[Logistic regression analysis of death risk factors of patients with severe and critical coronavirus disease 2019 and their predictive value].</t>
+  </si>
+  <si>
+    <t>OBJECTIVE To analyze the risk factors of death in patients with severe and critical coronavirus disease 2019 (COVID-19) and their predictive value. METHODS Using the clinical and epidemiological database of Yangtze River Shipping General Hospital in Wuhan, the clinical and epidemiological data of 105 patients with severe and critical COVID-19 from January to March in 2020 were collected. Multivariate unconditional Logistic regression method was used to analyze the death risk factors of patients during hospitalization. The receiver operating characteristic (ROC) curve was drawn according to the multivariate analysis results to construct a death prediction model; the prediction value of the model was analyzed. RESULTS The 105 patients with severe and critical COVID-19 were enrolled with 66 males (62.9%) and 39 females (37.1%). The age was (58.2±14.4) years old. Forty-two patients died in hospital and 63 survived. Among the dead patients, 69.0% (29/42) were male, and 78.6% (33/42) were over 60 years old. Compared with survival patients, the non-survival patients were older (years old: 59.2±12.5 vs. 51.2±11.4), and had more comorbidities, including coronary heart disease, hypertension, myocardial damage and thrombocytopenia (coronary heart disease: 33.3% vs. 11.1%, hypertension: 28.6% vs. 9.5%, myocardial damage: 73.8% vs. 11.1%, thrombocytopenia: 61.9% vs. 14.3%), and received more mechanical ventilation (92.9% vs. 44.4%), with significant differences (all P &lt; 0.01). The variables of gender, age, basic diseases, mechanical ventilation and complications were included in the unconditional Logistic regression analysis, which showed that gender [odds ratio (OR) = 2.852, 95% confidence interval (95%CI) was 0.122-66.694], age (OR = 3.257, 95%CI was 0.466-18.584), coronary heart disease (OR = 7.337, 95%CI was 0.227-87.021), hypertension (OR = 5.517, 95%CI was 0.258-65.024) and concurrent myocardial damage (OR = 7.322, 95%CI was 0.278-95.020) and thrombocytopenia (OR = 3.968, 95%CI was 0.325-35.549) were independent risk factors for death in patients with severe and critical COVID-19 during hospitalization. According to the risk factors, the death prediction model was constructed and ROC curve was analyzed, which showed that the area under ROC curve (AUC) of death prediction model for predicting the mortality of patients with severe and critical COVID-19 during hospitalization was 0.804, the sensitivity was 83.8%, and the specificity was 82.3%. CONCLUSIONS Various risk factors are associated with the death of severe or critical COVID-19 patients, such as gender, age, basic diseases and complications. The death prediction model is constructed by gender, age, basic diseases with coronary heart disease and hypertension, concurrent myocardial damage and thrombocytopenia, which has certain predictive value for the death of patients with severe or critical COVID-19.</t>
+  </si>
+  <si>
+    <t>[ Kai%Hu%elasticNoEmail%1,  Bojun% Li%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                          Chenchen%Qian%NULL%1,                          Zhibing%Luo%NULL%1,                          Qiang%Li%liqressh@hotmail.com%0,                          Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                          Chunlin%Cai%NULL%1,                          Jinglei%Zang%NULL%1,                          Jun%Xie%NULL%1,                          Dan%Xu%NULL%0,                          Fang%Zheng%NULL%0,                          Tao%Zhan%NULL%1,                          Kang%Huang%NULL%1,                          Yikai%Wang%NULL%1,                          Xiao%Wang%NULL%1,                          Zhe-Yu%Hu%NULL%1,                          Yapeng%Deng%NULL%1,                          Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                          Naofumi%Bunya%NULL%1,                          Tomoyuki%Endo%NULL%1,                          Yuji%Fujino%NULL%1,                          Kensuke%Fujita%NULL%1,                          Kenji%Fujizuka%NULL%1,                          Yoshihiro%Hagiwara%NULL%1,                          Jun%Hamaguchi%NULL%1,                          Yoshitaka%Hara%NULL%1,                          Eiji%Hashiba%NULL%1,                          Satoru%Hashimoto%NULL%1,                          Noriyuki%Hattori%NULL%1,                          Kota%Hoshino%NULL%1,                          Shinichi%Ijuin%NULL%1,                          Takanari%Ikeyama%NULL%1,                          Shingo%Ichiba%NULL%1,                          Wataru%Iwanaga%NULL%1,                          Yoshiaki%Iwashita%NULL%1,                          Masafumi%Kanamoto%NULL%1,                          Hitoshi%Kaneko%NULL%1,                          Kaneyuki%Kawamae%NULL%1,                          Toru%Kotani%NULL%1,                          Yasuaki%Koyama%NULL%1,                          Keibun%Liu%NULL%1,                          Tomohiko%Masuno%NULL%1,                          Naoto%Morimura%NULL%1,                          Tomoyuki%Nakamura%NULL%1,                          Masaki%Nakane%NULL%1,                          Michitaka%Nasu%NULL%1,                          Osamu%Nishida%NULL%1,                          Masaji%Nishimura%NULL%1,                          Kanae%Ochiai%NULL%1,                          Takayuki%Ogura%NULL%1,                          Shinichiro%Ohshimo%NULL%1,                          Keisuke%Oyama%NULL%1,                          Junichi%Sasaki%NULL%1,                          Ryutaro%Seo%NULL%1,                          Takeshi%Shimazu%NULL%1,                          Nobuaki%Shime%NULL%4,                          Keiki%Shimizu%NULL%1,                          Hiroyuki%Suzuki%NULL%1,                          Shuhei%Takauji%NULL%1,                          Shinhiro%Takeda%NULL%1,                          Ichiro%Takeuchi%NULL%2,                          Mumon%Takita%NULL%1,                          Hayato%Taniguchi%NULL%1,                          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                          Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                          Yi Xin%Tong%NULL%3,                          Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                          Hong%Chen%NULL%0,                          Zhen%Li%NULL%2,                          Bo%Wang%NULL%0,                          Zhong-Wei%Zhang%NULL%1,                          Wei-Min%Li%NULL%0,                          Zong-An%Liang%NULL%0,                          Jin%Tang%NULL%1,                          Jian%Wang%NULL%1,                          Rui%Shi%NULL%1,                          Xiao-Dong%Jin%NULL%1,                          Yan%Kang%NULL%0,                          Pei-Fang%Wei%NULL%8,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                           S. F.% Mahmood%null%1,                           K.% Habib%null%1,                           I.% Khanum%null%1,                           B. % Jamil%null%1,        N.%Nasir%null%1,        S. F.% Mahmood%null%1,        K.% Habib%null%1,        I.% Khanum%null%1,        B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                          Chaisith%Sivakorn%NULL%1,                          Tanuwong%Viarasilpa%NULL%1,                          Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                          Mu%Qin%qinmuae@163.com%1,                          Yuli%Cai%NULL%1,                          Tao%Liu%NULL%0,                          Bo%Shen%NULL%1,                          Fan%Yang%NULL%2,                          Sheng%Cao%NULL%1,                          Xu%Liu%NULL%2,                          Xu%Liu%NULL%0,                          Yaozu%Xiang%NULL%1,                          Qinyan%Zhao%NULL%1,                          He%Huang%huanghe1977@whu.edu.cn%0,                          Bo%Yang%yybb112@whu.edu.cn%0,                          Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                          Win%Kulvichit%NULL%1,                          Sunchai%Payungporn%NULL%1,                          Trairak%Pisitkun%NULL%1,                          Ariya%Chindamporn%NULL%1,                          Sadudee%Peerapornratana%NULL%1,                          Prapaporn%Pisitkun%NULL%1,                          Suwalak%Chitcharoen%NULL%1,                          Vorthon%Sawaswong%NULL%1,                          Navaporn%Worasilchai%NULL%1,                          Sarinya%Kampunya%NULL%1,                          Opass%Putcharoen%NULL%1,                          Thammasak%Thawitsri%NULL%1,                          Nophol%Leelayuwatanakul%NULL%1,                          Napplika%Kongpolprom%NULL%1,                          Vorakamol%Phoophiboon%NULL%1,                          Thitiwat%Sriprasart%NULL%1,                          Rujipat%Samransamruajkit%NULL%1,                          Somkanya%Tungsanga%NULL%1,                          Kanitha%Tiankanon%NULL%1,                          Nuttha%Lumlertgul%NULL%1,                          Asada%Leelahavanichkul%NULL%1,                          Tueboon%Sriphojanart%NULL%1,                          Terapong%Tantawichien%NULL%1,                          Usa%Thisyakorn%NULL%1,                          Chintana%Chirathaworn%NULL%1,                          Kearkiat%Praditpornsilpa%NULL%1,                          Kriang%Tungsanga%NULL%1,                          Somchai%Eiam-Ong%NULL%1,                          Visith%Sitprija%NULL%1,                          John A.%Kellum%NULL%1,                          Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                          Min%Pan%NULL%3,                          Xiumei%Zhang%NULL%3,                          Mingfeng%Han%fyhmf@163.com%5,                          Xiaoyun%Fan%13956988552@126.com%3,                          Fengde%Zhao%NULL%3,                          Manli%Miao%NULL%3,                          Jing%Xu%NULL%0,                          Minglong%Guan%NULL%3,                          Xia%Deng%NULL%3,                          Xu%Chen%NULL%4,                          Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                          Chunli%Tang%NULL%0,                          Ruchong%Chen%NULL%1,                          Honglian%Ruan%NULL%1,                          Wenhua%Liang%NULL%0,                          Weijie%Guan%NULL%0,                          Ling%Sang%NULL%0,                          Ruidi%Tang%NULL%1,                          Nanshan%Zhong%NULL%0,                          Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tracheal intubation in patients with severe and critical COVID-19: analysis of 18 cases].</t>
+  </si>
+  <si>
+    <t>OBJECTIVE To analyze the clinical characteristics of patients with severe or critical coronavirus disease 2019 (COVID-19) receiving tracheal intubation. METHODS We analyzed clinical characteristics of 18 severely or critically ill patients with COVID-19 undergoing tracheal intubation. The general demographic and clinical data of the patients including their age, gender, pre- intubation state of consciousness and the ventilation mode were recorded. The anesthesiologists performing the tracheal intubation procedure evaluated and recorded the tracheal intubation conditions of the patients. The changes in the vital signs of the patients before anesthesia induction and after intubation were recorded. RESULTS The average ages of these patients were 70.39±8.02 years. Fifteen patients (83.33%) received non- invasive ventilation before tracheal intubation, and 13 patients (72.22%) were conscious before tracheal intubation. After induction of anesthesia, the blood pressure and heart rate of the patients decreased significantly (P &lt; 0.05). Most of the patients (94.44%) were in excellent or good conditions for tracheal intubation, and the first-attempt success rate of tracheal intubation was 100%. Five patients died within 3 weeks following the intubation. Tracheotomy was performed in one patient. Twelve patients were still on endotracheal mechanical ventilation in the intensive care unit, and one of them received ECMO treatment due to poor oxygenation. A total of 16 experienced anesthesiologists participated in tracheal intubation, all with third-level protection during the operation, and no medical staff infection has been detected so far. CONCLUSIONS For patients with severe and critical COVID-19 and indications of tracheal intubation, we recommend early intubation with invasive respiratory support to improve the treatment efficacy and reduce the mortality. Anesthetic agents should be used carefully during tracheal intubation to ensure patients' safety. The medical staff should have a high-level protection during the intubation to maximally ensure their safety.</t>
+  </si>
+  <si>
+    <t>[ Jiafang%Wang%elasticNoEmail%2,  Fan% Lu%elasticNoEmail%2,  Mingxing% Zhou%elasticNoEmail%2,  Zhong% Qi%elasticNoEmail%2,  Zhijun% Chen%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%5,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%5,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%5,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%5,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%5,                          Shangwen%Pan%NULL%5,                          Xiaojing%Zou%NULL%7,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                          Shanyan%Zhang%NULL%2,                          Xiaoli%Zhang%NULL%1,                          Huan%Cai%NULL%2,                          Jueqing%Gu%NULL%2,                          Jiangshan%Lian%NULL%2,                          Yingfeng%Lu%NULL%2,                          Hongyu%Jia%NULL%2,                          Jianhua%Hu%NULL%2,                          Ciliang%Jin%NULL%2,                          Guodong%Yu%NULL%2,                          Yimin%Zhang%NULL%2,                          Jifang%Sheng%NULL%4,                          Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                          Dan%Xu%NULL%0,                          Shouzhi%Fu%NULL%0,                          Jun%Zhang%NULL%0,                          Xiaobo%Yang%NULL%0,                          Liang%Xu%NULL%0,                          Jiqian%Xu%NULL%0,                          Yongran%Wu%NULL%0,                          Chaolin%Huang%NULL%0,                          Yaqi%Ouyang%NULL%0,                          Luyu%Yang%NULL%0,                          Minghao%Fang%NULL%0,                          Hongwen%Xiao%NULL%0,                          Jing%Ma%NULL%0,                          Wei%Zhu%NULL%0,                          Song%Hu%NULL%0,                          Quan%Hu%NULL%0,                          Daoyin%Ding%NULL%0,                          Ming%Hu%NULL%0,                          Guochao%Zhu%NULL%0,                          Weijiang%Xu%NULL%0,                          Jun%Guo%NULL%0,                          Jinglong%Xu%NULL%0,                          Haitao%Yuan%NULL%0,                          Bin%Zhang%NULL%0,                          Zhui%Yu%yuzhui@whu.edu.cn%0,                          Dechang%Chen%icudechangchen@163.com%0,                          Shiying%Yuan%yuan_shiying@163.com%0,                          You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                          Hao-Yu%Gao%NULL%1,                          Zi-Yi%Feng%NULL%1,                          Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                          Li-jun%Sun%NULL%1,                          Mi%Xu%NULL%1,                          Jian%Pan%NULL%1,                          Yun-tao%Zhang%NULL%1,                          Xue-ling%Fang%NULL%1,                          Qiang%Fang%NULL%2,                          Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                          Ziqiang%Du%NULL%1,                          Yanfang%Zhu%NULL%1,                          Wenfeng%Li%NULL%1,                          Hongjun%Miao%NULL%1,                          Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                          Sarah%Al-Youha%sarahalyouha@gmail.com%1,                          Mohammad H.%Jamal%NULL%1,                          Mohannad%Al-Haddad%NULL%1,                          Ali%Al-Muhaini%NULL%1,                          Fahad%Al-Ghimlas%NULL%1,                          Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                          Mina%Akbari Rad%NULL%1,                          Robert%Bergquist%NULL%1,                          Abolghasem%Allahyari%NULL%1,                          Kamila%Hashemzadeh%NULL%1,                          Nasrin%Milani%NULL%1,                          Mahdi%Gholian-Aval%NULL%1,                          Fariba%Rezaeitalab%NULL%1,                          Mohammad Jafar%Sadeghi Quchani%NULL%1,                          Zahra%Nahbandani%NULL%1,                          Mandana%Khodashahi%NULL%1,                          Zahra%Javid%NULL%1,                          Mahnaz%Mozdourian%NULL%1,                          Mohammad Ali%Yaghoubi%NULL%1,                          Zahra%Mozaheb%NULL%1,                          Mohsen%Seddigh-Shamsi%NULL%1,                          Mohammad%Moeini Nodeh%NULL%1,                          Shima%Nabavi%NULL%1,                          Hooman%Mosannen Mozaffari%NULL%1,                          Mohammadreza%Farzanehfar%NULL%1,                          Zahra%Lotfi%NULL%1,                          Alireza%Shariati%NULL%1,                          Shekoofe%Bonakdaran%NULL%1,                          Zahra%Rezaieyazdi%NULL%1,                          Zahra%Mirfeizi%NULL%1,                          Maryam%Miri%NULL%1,                          Reza%Bassiri%NULL%1,                          Sajjad%Ataei Azimi%NULL%1,                          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                          Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                          Ibrahim%Al-Zakwani%NULL%1,                          Hamed%Al Naamani%NULL%1,                          Sultan%Al Lawati%NULL%1,                          Nenad%Pandak%NULL%1,                          Muna Ba%Omar%NULL%1,                          Maher%Al Bahrani%NULL%1,                          Zakaryia AL%Bulushi%NULL%1,                          Huda%Al Khalili%NULL%1,                          Issa%Al Salmi%NULL%1,                          Ruwaida%Al Ismaili%NULL%1,                          Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                          Zohre%Khodamoradi%NULL%1,                          Amirhossein%Erfani%NULL%1,                          Hamidreza%Hosseinpour%NULL%1,                          Keivan%Ranjbar%NULL%1,                          Yasaman%Emami%NULL%1,                          Alireza%Mirahmadizadeh%NULL%1,                          Mehrzad%Lotfi%NULL%1,                          Babak%Shirazi Yeganeh%NULL%1,                          Abolfazl%Dorrani Nejad%NULL%1,                          Abdolrasool%Hemmati%NULL%1,                          Mostafa%Ebrahimi%NULL%1,                          Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                          Annachiara%Ferrari%NULL%2,                          Annachiara%Ferrari%NULL%0,                          Francesco%Fontana%NULL%1,                          Giacomo%Mori%NULL%1,                          Riccardo%Magistroni%NULL%1,                          Marianna%Meschiari%NULL%1,                          Erica%Franceschini%NULL%1,                          Marianna%Menozzi%NULL%1,                          Gianluca%Cuomo%NULL%1,                          Gabriella%Orlando%NULL%1,                          Antonella%Santoro%NULL%1,                          Margherita%Digaetano%NULL%1,                          Cinzia%Puzzolante%NULL%1,                          Federica%Carli%NULL%1,                          Andrea%Bedini%NULL%1,                          Jovana%Milic%NULL%1,                          Irene%Coloretti%NULL%1,                          Paolo%Raggi%NULL%1,                          Cristina%Mussini%NULL%1,                          Massimo%Girardis%NULL%1,                          Gianni%Cappelli%NULL%1,                          Giovanni%Guaraldi%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                          Silvia%Bettini%NULL%2,                          Silvia%Bettini%NULL%0,                          Roberto%Fabris%NULL%1,                          Roberto%Serra%NULL%2,                          Chiara%Dal Pra%NULL%1,                          Pietro%Maffei%NULL%1,                          Marco%Rossato%NULL%1,                          Paola%Fioretto%NULL%0,                          Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                          Marco%Roncador%NULL%2,                          Marco%Roncador%NULL%0,                          Andrea%Saporito%NULL%1,                          Maira%Biggiogero%NULL%1,                          Andrea%Glotta%NULL%1,                          Pier Andrea%Maida%NULL%1,                          Patrizia%Urso%NULL%1,                          Giovanni%Bona%NULL%1,                          Christian%Garzoni%NULL%1,                          Romano%Mauri%NULL%1,                          Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                          Anna Lisa%Ridolfo%NULL%4,                          Laura%Milazzo%NULL%2,                          Letizia%Oreni%NULL%4,                          Dario%Bernacchia%NULL%4,                          Matteo%Siano%NULL%4,                          Cecilia%Bonazzetti%NULL%2,                          Alice%Covizzi%NULL%2,                          Marco%Schiuma%NULL%2,                          Matteo%Passerini%NULL%2,                          Marco%Piscaglia%NULL%2,                          Massimo%Coen%NULL%2,                          Guido%Gubertini%NULL%2,                          Giuliano%Rizzardini%NULL%4,                          Chiara%Cogliati%NULL%2,                          Anna Maria%Brambilla%NULL%2,                          Riccardo%Colombo%NULL%2,                          Antonio%Castelli%NULL%2,                          Roberto%Rech%NULL%2,                          Agostino%Riva%NULL%2,                          Alessandro%Torre%NULL%2,                          Luca%Meroni%NULL%2,                          Stefano%Rusconi%NULL%4,                          Spinello%Antinori%NULL%4,                          Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                         Cabrini%Luca%coreGivesNoEmail%4,                         Castelli%Antonio%coreGivesNoEmail%4,                         Cecconi%Maurizio%coreGivesNoEmail%4,                         Cereda%Danilo%coreGivesNoEmail%4,                         Coluccello%Antonio%coreGivesNoEmail%4,                         Foti%Giuseppe%coreGivesNoEmail%4,                         Fumagalli%Roberto%coreGivesNoEmail%4,                         Grasselli%Giacomo%coreGivesNoEmail%4,                         Iotti%Giorgio%coreGivesNoEmail%4,                         Latronico%Nicola%coreGivesNoEmail%4,                         Lorini%Luca%coreGivesNoEmail%4,                         Merler%Stefano%coreGivesNoEmail%4,                         Natalini%Giuseppe%coreGivesNoEmail%4,                         Pesenti%Antonio%coreGivesNoEmail%4,                         Piatti%Alessandra%coreGivesNoEmail%4,                         Ranieri%Marco Vito%coreGivesNoEmail%4,                         Scandroglio%Anna Mara%coreGivesNoEmail%4,                         Storti%Enrico%coreGivesNoEmail%4,                         Zanella%Alberto%coreGivesNoEmail%4,                         Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                          Lara%Gianesello%gianesello.lara@libero.it%1,                          Maddalena%Pazzi%NULL%2,                          Maddalena%Pazzi%NULL%0,                          Caterina%Stera%NULL%1,                          Tommaso%Meconi%NULL%1,                          Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                          Andrea%Dalbeni%NULL%2,                          Andrea%Dalbeni%NULL%0,                          Elia%Vettore%NULL%2,                          Elia%Vettore%NULL%0,                          Devis%Benfaremo%NULL%1,                          Massimo%Mattioli%NULL%1,                          Carmine G.%Gambino%NULL%1,                          Viviana%Framba%NULL%2,                          Viviana%Framba%NULL%0,                          Lorenzo%Cerruti%NULL%1,                          Anna%Mantovani%NULL%1,                          Andrea%Martini%NULL%1,                          Michele M.%Luchetti%NULL%1,                          Roberto%Serra%NULL%0,                          Annamaria%Cattelan%NULL%1,                          Roberto%Vettor%NULL%0,                          Paolo%Angeli%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                          Matthaios%Papadimitriou-Olivgeris%NULL%2,                          Matthaios%Papadimitriou-Olivgeris%NULL%0,                          Raphaël%Burger%NULL%1,                          Marie-Annick%Le Pogam%NULL%1,                          Tapio%Niemi%NULL%2,                          Tapio%Niemi%NULL%0,                          Paraskevas%Filippidis%NULL%1,                          Jonathan%Tschopp%NULL%1,                          Florian%Desgranges%NULL%1,                          Benjamin%Viala%NULL%1,                          Eleftheria%Kampouri%NULL%1,                          Laurence%Rochat%NULL%2,                          Laurence%Rochat%NULL%0,                          David%Haefliger%NULL%1,                          Mehdi%Belkoniene%NULL%1,                          Carlos%Fidalgo%NULL%1,                          Antonios%Kritikos%NULL%1,                          Katia%Jaton%NULL%1,                          Laurence%Senn%NULL%1,                          Pierre-Alexandre%Bart%NULL%1,                          Jean-Luc%Pagani%NULL%2,                          Jean-Luc%Pagani%NULL%0,                          Oriol%Manuel%NULL%1,                          Loïc%Lhopitallier%NULL%1,                          Chiara%Lazzeri%NULL%2,                          Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                          Ashwin%Subramaniam%NULL%2,                          Ashwin%Subramaniam%NULL%0,                          Mallikarjuna%Ponnapa Reddy%NULL%2,                          Mallikarjuna%Ponnapa Reddy%NULL%0,                          Gabriel%Blecher%NULL%1,                          Umesh%Kadam%NULL%2,                          Umesh%Kadam%NULL%0,                          Afsana%Afroz%NULL%1,                          Baki%Billah%NULL%1,                          Sushma%Ashwin%NULL%1,                          Mark%Kubicki%NULL%1,                          Federico%Bilotta%NULL%1,                          J. Randall%Curtis%NULL%2,                          J. Randall%Curtis%NULL%0,                          Francesca%Rubulotta%NULL%2,                          Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                         Aggarwal%Saurabh%coreGivesNoEmail%3,                         Garcia-Telles%Nelson%coreGivesNoEmail%3,                         Henry%Brandon Michael%coreGivesNoEmail%3,                         Lavie%Carl%coreGivesNoEmail%3,                         Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                          Samuel L%Bruce%NULL%2,                          Cody L%Slater%NULL%2,                          Jonathan R%Tiao%NULL%2,                          Matthew R%Baldwin%NULL%3,                          R Graham%Barr%NULL%2,                          Bernard P%Chang%NULL%2,                          Katherine H%Chau%NULL%2,                          Justin J%Choi%NULL%2,                          Nicholas%Gavin%NULL%2,                          Parag%Goyal%NULL%2,                          Angela M%Mills%NULL%2,                          Ashmi A%Patel%NULL%2,                          Marie-Laure S%Romney%NULL%2,                          Monika M%Safford%NULL%2,                          Neil W%Schluger%NULL%2,                          Soumitra%Sengupta%NULL%2,                          Magdalena E%Sobieszczyk%NULL%2,                          Jason E%Zucker%NULL%2,                          Paul A%Asadourian%NULL%2,                          Fletcher M%Bell%NULL%2,                          Rebekah%Boyd%NULL%2,                          Matthew F%Cohen%NULL%2,                          MacAlistair I%Colquhoun%NULL%2,                          Lucy A%Colville%NULL%2,                          Joseph H%de Jonge%NULL%2,                          Lyle B%Dershowitz%NULL%2,                          Shirin A%Dey%NULL%2,                          Katherine A%Eiseman%NULL%2,                          Zachary P%Girvin%NULL%2,                          Daniella T%Goni%NULL%2,                          Amro A%Harb%NULL%2,                          Nicholas%Herzik%NULL%2,                          Sarah%Householder%NULL%2,                          Lara E%Karaaslan%NULL%2,                          Heather%Lee%NULL%2,                          Evan%Lieberman%NULL%2,                          Andrew%Ling%NULL%2,                          Ree%Lu%NULL%2,                          Arthur Y%Shou%NULL%2,                          Alexander C%Sisti%NULL%2,                          Zachary E%Snow%NULL%2,                          Colin P%Sperring%NULL%2,                          Yuqing%Xiong%NULL%2,                          Henry W%Zhou%NULL%2,                          Karthik%Natarajan%NULL%2,                          George%Hripcsak%NULL%2,                          Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                          Mark%Caridi-Scheible%NULL%3,                          James M.%Blum%NULL%2,                          Chad%Robichaux%NULL%2,                          Colleen%Kraft%NULL%2,                          Jesse T.%Jacob%NULL%2,                          Craig S.%Jabaley%NULL%2,                          David%Carpenter%NULL%2,                          Roberta%Kaplow%NULL%2,                          Alfonso C.%Hernandez-Romieu%NULL%2,                          Max W.%Adelman%NULL%2,                          Greg S.%Martin%NULL%2,                          Craig M.%Coopersmith%NULL%2,                          David J.%Murphy%NULL%2,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                          Bijan J.%Ghassemieh%NULL%0,                          Michelle%Nichols%NULL%0,                          Richard%Kim%NULL%0,                          Keith R.%Jerome%NULL%0,                          Arun K.%Nalla%NULL%0,                          Alexander L.%Greninger%NULL%0,                          Sudhakar%Pipavath%NULL%0,                          Mark M.%Wurfel%NULL%0,                          Laura%Evans%NULL%0,                          Patricia A.%Kritek%NULL%0,                          T. Eoin%West%NULL%0,                          Andrew%Luks%NULL%0,                          Anthony%Gerbino%NULL%0,                          Chris R.%Dale%NULL%0,                          Jason D.%Goldman%NULL%0,                          Shane%O’Mahony%NULL%0,                          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                          Denise J%McCulloch%NULL%0,                          Denise J%McCulloch%NULL%0,                          Vidya%Atluri%NULL%0,                          Michela%Blain%NULL%0,                          Sarah A%McGuffin%NULL%0,                          Arun K%Nalla%NULL%0,                          Meei-Li%Huang%NULL%0,                          Alex L%Greninger%NULL%0,                          Keith R%Jerome%NULL%0,                          Seth A%Cohen%NULL%0,                          Santiago%Neme%NULL%0,                          Margaret L%Green%NULL%0,                          Helen Y%Chu%NULL%0,                          H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                          Joelle I.%Rosser%NULL%0,                          Orlando%Quintero%NULL%0,                          Jake%Scott%NULL%0,                          Aruna%Subramanian%NULL%0,                          Mohammad%Gumma%NULL%0,                          Angela%Rogers%NULL%0,                          Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                          Jacob%Fiksel%NULL%2,                          Jacob%Fiksel%NULL%0,                          John%Muschelli%NULL%2,                          John%Muschelli%NULL%0,                          Matthew L.%Robinson%NULL%2,                          Matthew L.%Robinson%NULL%0,                          Masoud%Rouhizadeh%NULL%2,                          Masoud%Rouhizadeh%NULL%0,                          Jamie%Perin%NULL%2,                          Jamie%Perin%NULL%0,                          Grant%Schumock%NULL%2,                          Grant%Schumock%NULL%0,                          Paul%Nagy%NULL%2,                          Paul%Nagy%NULL%0,                          Josh H.%Gray%NULL%2,                          Josh H.%Gray%NULL%0,                          Harsha%Malapati%NULL%2,                          Harsha%Malapati%NULL%0,                          Mariam%Ghobadi-Krueger%NULL%2,                          Mariam%Ghobadi-Krueger%NULL%0,                          Timothy M.%Niessen%NULL%1,                          Bo Soo%Kim%NULL%1,                          Peter M.%Hill%NULL%1,                          M. Shafeeq%Ahmed%NULL%1,                          Eric D.%Dobkin%NULL%1,                          Renee%Blanding%NULL%1,                          Jennifer%Abele%NULL%1,                          Bonnie%Woods%NULL%1,                          Kenneth%Harkness%NULL%1,                          David R.%Thiemann%NULL%1,                          Mary G.%Bowring%NULL%1,                          Aalok B.%Shah%NULL%2,                          Aalok B.%Shah%NULL%0,                          Mei-Cheng%Wang%NULL%1,                          Karen%Bandeen-Roche%NULL%1,                          Antony%Rosen%NULL%1,                          Scott L.%Zeger%NULL%2,                          Scott L.%Zeger%NULL%0,                          Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0,      Karen K.%Wong%xref no email%1,      Christine M.%Szablewski%xref no email%1,      Priti R.%Patel%xref no email%1,      John%Rossow%xref no email%1,      Juliana%da Silva%xref no email%1,      Pavithra%Natarajan%xref no email%1,      Sapna Bamrah%Morris%xref no email%1,      Robyn Neblett%Fanfair%xref no email%1,      Jessica%Rogers-Brown%xref no email%1,      Beau B.%Bruce%xref no email%1,      Sean D.%Browning%xref no email%1,      Alfonso C.%Hernandez-Romieu%xref no email%1,      Nathan W.%Furukawa%xref no email%1,      Mohleen%Kang%xref no email%1,      Mary E.%Evans%xref no email%1,      Nadine%Oosmanally%xref no email%1,      Melissa%Tobin-D\u2019Angelo%xref no email%1,      Cherie%Drenzek%xref no email%1,      David J.%Murphy%xref no email%1,      Julie%Hollberg%xref no email%1,      James M.%Blum%xref no email%1,      Robert%Jansen%xref no email%1,      David W.%Wright%xref no email%1,      William M.%Sewell%xref no email%1,      Jack D.%Owens%xref no email%1,      Benjamin%Lefkove%xref no email%1,      Frank W.%Brown%xref no email%1,      Deron C.%Burton%xref no email%1,      Timothy M.%Uyeki%xref no email%1,      Stephanie R.%Bialek%xref no email%1,      Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                          Justin J.%Choi%NULL%0,                          Laura C.%Pinheiro%NULL%0,                          Edward J.%Schenck%NULL%0,                          Ruijun%Chen%NULL%0,                          Assem%Jabri%NULL%0,                          Michael J.%Satlin%NULL%0,                          Thomas R.%Campion%NULL%0,                          Musarrat%Nahid%NULL%0,                          Joanna B.%Ringel%NULL%0,                          Katherine L.%Hoffman%NULL%0,                          Mark N.%Alshak%NULL%0,                          Han A.%Li%NULL%0,                          Graham T.%Wehmeyer%NULL%0,                          Graham T.%Wehmeyer%NULL%0,                          Mangala%Rajan%NULL%0,                          Evgeniya%Reshetnyak%NULL%0,                          Nathaniel%Hupert%NULL%0,                          Evelyn M.%Horn%NULL%0,                          Fernando J.%Martinez%NULL%0,                          Roy M.%Gulick%NULL%0,                          Monika M.%Safford%NULL%0,                          Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                          Simon A%Jones%NULL%0,                          Jie%Yang%NULL%0,                          Harish%Rajagopalan%NULL%0,                          Luke%O’Donnell%NULL%0,                          Yelena%Chernyak%NULL%0,                          Katie A%Tobin%NULL%0,                          Robert J%Cerfolio%NULL%0,                          Fritz%Francois%NULL%0,                          Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                          Anatoly%Mitrokhin%NULL%2,                          Anatoly%Mitrokhin%NULL%0,                          Ajai%Rajabalan%NULL%1,                          Christian%Benjamin%NULL%1,                          Sushma%Raviralla%NULL%1,                          Vishnu R%Mani%vishnu.mani@duke.edu%2,                          Vishnu R%Mani%vishnu.mani@duke.edu%0,                          Aleksandr%Kalabin%NULL%2,                          Aleksandr%Kalabin%NULL%0,                          Sebastian C%Valdivieso%NULL%2,                          Sebastian C%Valdivieso%NULL%0,                          Max%Murray-Ramcharan%NULL%2,                          Max%Murray-Ramcharan%NULL%0,                          Brian%Donaldson%NULL%2,                          Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                           Nicholas A.%Fergusson%null%2,                           Elisa%Lloyd-Smith%null%2,                           Andrew%Wormsbecker%null%2,                           Denise%Foster%null%2,                           Andrei%Karpov%null%2,                           Sarah%Crowe%null%2,                           Greg%Haljan%null%2,                           Dean R.%Chittock%null%2,                           Hussein D.%Kanji%null%2,                           Mypinder S.%Sekhon%null%2,                           Donald E.G.%Griesdale%null%2,                         Anish R.%Mitra%null%1,                         Nicholas A.%Fergusson%null%1,                         Elisa%Lloyd-Smith%null%1,                         Andrew%Wormsbecker%null%1,                         Denise%Foster%null%1,                         Andrei%Karpov%null%1,                         Sarah%Crowe%null%1,                         Greg%Haljan%null%1,                         Dean R.%Chittock%null%1,                         Hussein D.%Kanji%null%1,                         Mypinder S.%Sekhon%null%1,                         Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                          Damianos G.%Kokkinidis%NULL%1,                          Weijia%Li%NULL%1,                          Dimitrios%Karamanis%NULL%1,                          Jennifer%Ognibene%NULL%1,                          Shitij%Arora%NULL%1,                          William N.%Southern%NULL%1,                          Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                          Jesus D.%Gonzalez-Lugo%NULL%1,                          Shafia%Rahman%NULL%1,                          Mohammad%Barouqa%NULL%1,                          James%Szymanski%NULL%1,                          Kenji%Ikemura%NULL%1,                          Yungtai%Lo%NULL%1,                          Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                         Becker%L.B.%coreGivesNoEmail%4,                         Chelico%J.D.%coreGivesNoEmail%4,                         Cohen%S.L.%coreGivesNoEmail%4,                         Cookingham%J.%coreGivesNoEmail%4,                         Coppa%K.%coreGivesNoEmail%4,                         Crawford%J.M.%coreGivesNoEmail%4,                         Davidson%K.W.%coreGivesNoEmail%4,                         Diefenbach%M.A.%coreGivesNoEmail%4,                         Dominello%A.J.%coreGivesNoEmail%4,                         Duer-Hefele%J.%coreGivesNoEmail%4,                         Falzon%L.%coreGivesNoEmail%4,                         Gitlin%J.%coreGivesNoEmail%4,                         Hajizadeh%N.%coreGivesNoEmail%4,                         Harvin%T.G.%coreGivesNoEmail%4,                         Hirsch%J.S.%coreGivesNoEmail%4,                         Hirschwerk%D.A.%coreGivesNoEmail%4,                         Kim%E.J.%coreGivesNoEmail%4,                         Kozel%Z.M.%coreGivesNoEmail%4,                         Marrast%L.M.%coreGivesNoEmail%4,                         McGinn%T.%coreGivesNoEmail%4,                         Mogavero%J.N.%coreGivesNoEmail%4,                         Narasimhan%M.%coreGivesNoEmail%4,                         Osorio%G.A.%coreGivesNoEmail%4,                         Qiu%M.%coreGivesNoEmail%4,                         Richardson%S.%coreGivesNoEmail%4,                         Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                          Viet-Thi%Tran%NULL%4,                          Viet-Thi%Tran%NULL%0,                          Mathilde%Roumier%NULL%2,                          Amélie%Chabrol%NULL%2,                          Romain%Paule%NULL%2,                          Constance%Guillaud%NULL%2,                          Elena%Fois%NULL%2,                          Raphael%Lepeule%NULL%2,                          Tali-Anne%Szwebel%NULL%2,                          François-Xavier%Lescure%NULL%2,                          Frédéric%Schlemmer%NULL%2,                          Marie%Matignon%NULL%2,                          Mehdi%Khellaf%NULL%2,                          Etienne%Crickx%NULL%2,                          Benjamin%Terrier%NULL%2,                          Caroline%Morbieu%NULL%2,                          Paul%Legendre%NULL%2,                          Julien%Dang%NULL%2,                          Yoland%Schoindre%NULL%2,                          Jean-Michel%Pawlotsky%NULL%2,                          Marc%Michel%NULL%2,                          Elodie%Perrodeau%NULL%2,                          Nicolas%Carlier%NULL%2,                          Nicolas%Roche%NULL%2,                          Victoire%de Lastours%NULL%2,                          Clément%Ourghanlian%NULL%2,                          Solen%Kerneis%NULL%2,                          Philippe%Ménager%NULL%2,                          Luc%Mouthon%NULL%2,                          Etienne%Audureau%NULL%2,                          Philippe%Ravaud%NULL%2,                          Bertrand%Godeau%NULL%2,                          Sébastien%Gallien%NULL%2,                          Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                        Yu%Zuo%NULL%1,                        Srilakshmi%Yalavarthi%NULL%1,                        Kelsey%Gockman%NULL%1,                        Melanie%Zuo%NULL%1,                        Jacqueline A%Madison%NULL%1,                        Christopher%Blair%NULL%1,                        Wrenn%Woodward%NULL%1,                        Sean P%Lezak%NULL%1,                        Njira L%Lugogo%NULL%1,                        Robert J%Woods%NULL%1,                        Christian%Lood%NULL%1,                        Jason S%Knight%NULL%2,                        Jason S%Knight%NULL%0,                        Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                          Raef A.%Fadel%NULL%1,                          Kelly M.%Malette%NULL%1,                          Charles%Hammond%NULL%1,                          Hafsa%Abdulla%NULL%1,                          Abigail%Entz%NULL%1,                          Zachary%Demertzis%NULL%1,                          Zachary%Hanna%NULL%1,                          Andrew%Failla%NULL%1,                          Carina%Dagher%NULL%0,                          Zohra%Chaudhry%NULL%2,                          Amit%Vahia%NULL%2,                          Odaliz%Abreu Lanfranco%NULL%1,                          Mayur%Ramesh%NULL%1,                          Marcus J.%Zervos%NULL%1,                          George%Alangaden%NULL%2,                          Joseph%Miller%NULL%2,                          Indira%Brar%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ C.%Chen%null%1,                            J.% Jiang%null%1,                            X.% Xu%null%1,                            Y.% Hu%null%2,                            Y.% Hu%null%0,                            Y. % Zhao%null%1,         C.%Chen%null%1,         J.% Jiang%null%2,         X.% Xu%null%1,         Y.% Hu%null%2,         Y.% Hu%null%0,         Y. % Zhao%null%1]</t>
+  </si>
+  <si>
+    <t>OBJECTIVE To analyze the risk factors of death in patients with severe and critical coronavirus disease 2019 (COVID-19) and their predictive value.
+ METHODS Using the clinical and epidemiological database of Yangtze River Shipping General Hospital in Wuhan, the clinical and epidemiological data of 105 patients with severe and critical COVID-19 from January to March in 2020 were collected.
+ Multivariate unconditional Logistic regression method was used to analyze the death risk factors of patients during hospitalization.
+ The receiver operating characteristic (ROC) curve was drawn according to the multivariate analysis results to construct a death prediction model; the prediction value of the model was analyzed.
+ RESULTS The 105 patients with severe and critical COVID-19 were enrolled with 66 males (62.9%) and 39 females (37.1%).
+ The age was (58.2±14.4) years old.
+ Forty-two patients died in hospital and 63 survived.
+ Among the dead patients, 69.0% (29/42) were male, and 78.6% (33/42) were over 60 years old.
+ Compared with survival patients, the non-survival patients were older (years old: 59.2±12.5 vs.
+ 51.2±11.4), and had more comorbidities, including coronary heart disease, hypertension, myocardial damage and thrombocytopenia (coronary heart disease: 33.3% vs.
+ 11.1%, hypertension: 28.6% vs.
+ 9.5%, myocardial damage: 73.8% vs.
+ 11.1%, thrombocytopenia: 61.9% vs.
+ 14.3%), and received more mechanical ventilation (92.9% vs.
+ 44.4%), with significant differences (all P &lt; 0.01).
+ The variables of gender, age, basic diseases, mechanical ventilation and complications were included in the unconditional Logistic regression analysis, which showed that gender [odds ratio (OR) = 2.852, 95% confidence interval (95%CI) was 0.122-66.694], age (OR = 3.257, 95%CI was 0.466-18.584), coronary heart disease (OR = 7.337, 95%CI was 0.227-87.021), hypertension (OR = 5.517, 95%CI was 0.258-65.024) and concurrent myocardial damage (OR = 7.322, 95%CI was 0.278-95.020) and thrombocytopenia (OR = 3.968, 95%CI was 0.325-35.549) were independent risk factors for death in patients with severe and critical COVID-19 during hospitalization.
+ According to the risk factors, the death prediction model was constructed and ROC curve was analyzed, which showed that the area under ROC curve (AUC) of death prediction model for predicting the mortality of patients with severe and critical COVID-19 during hospitalization was 0.804, the sensitivity was 83.8%, and the specificity was 82.3%.
+ CONCLUSIONS Various risk factors are associated with the death of severe or critical COVID-19 patients, such as gender, age, basic diseases and complications.
+ The death prediction model is constructed by gender, age, basic diseases with coronary heart disease and hypertension, concurrent myocardial damage and thrombocytopenia, which has certain predictive value for the death of patients with severe or critical COVID-19.</t>
+  </si>
+  <si>
+    <t>[ Kai%Hu%elasticNoEmail%1,   Bojun% Li%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Hua%NULL%1,                           Chenchen%Qian%NULL%1,                           Zhibing%Luo%NULL%1,                           Qiang%Li%liqressh@hotmail.com%0,                           Feilong%Wang%dr.feilongwang@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yaxiong%Huang%NULL%1,                           Chunlin%Cai%NULL%1,                           Jinglei%Zang%NULL%1,                           Jun%Xie%NULL%1,                           Dan%Xu%NULL%0,                           Fang%Zheng%NULL%0,                           Tao%Zhan%NULL%1,                           Kang%Huang%NULL%1,                           Yikai%Wang%NULL%1,                           Xiao%Wang%NULL%1,                           Zhe-Yu%Hu%NULL%1,                           Yapeng%Deng%NULL%1,                           Yuanlin%Xie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryuzo%Abe%NULL%1,                           Naofumi%Bunya%NULL%1,                           Tomoyuki%Endo%NULL%1,                           Yuji%Fujino%NULL%1,                           Kensuke%Fujita%NULL%1,                           Kenji%Fujizuka%NULL%1,                           Yoshihiro%Hagiwara%NULL%1,                           Jun%Hamaguchi%NULL%1,                           Yoshitaka%Hara%NULL%1,                           Eiji%Hashiba%NULL%1,                           Satoru%Hashimoto%NULL%1,                           Noriyuki%Hattori%NULL%1,                           Kota%Hoshino%NULL%1,                           Shinichi%Ijuin%NULL%1,                           Takanari%Ikeyama%NULL%1,                           Shingo%Ichiba%NULL%1,                           Wataru%Iwanaga%NULL%1,                           Yoshiaki%Iwashita%NULL%1,                           Masafumi%Kanamoto%NULL%1,                           Hitoshi%Kaneko%NULL%1,                           Kaneyuki%Kawamae%NULL%1,                           Toru%Kotani%NULL%1,                           Yasuaki%Koyama%NULL%1,                           Keibun%Liu%NULL%1,                           Tomohiko%Masuno%NULL%1,                           Naoto%Morimura%NULL%1,                           Tomoyuki%Nakamura%NULL%1,                           Masaki%Nakane%NULL%1,                           Michitaka%Nasu%NULL%1,                           Osamu%Nishida%NULL%1,                           Masaji%Nishimura%NULL%1,                           Kanae%Ochiai%NULL%1,                           Takayuki%Ogura%NULL%1,                           Shinichiro%Ohshimo%NULL%1,                           Keisuke%Oyama%NULL%1,                           Junichi%Sasaki%NULL%1,                           Ryutaro%Seo%NULL%1,                           Takeshi%Shimazu%NULL%1,                           Nobuaki%Shime%NULL%4,                           Keiki%Shimizu%NULL%1,                           Hiroyuki%Suzuki%NULL%1,                           Shuhei%Takauji%NULL%1,                           Shinhiro%Takeda%NULL%1,                           Ichiro%Takeuchi%NULL%2,                           Mumon%Takita%NULL%1,                           Hayato%Taniguchi%NULL%1,                           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0,                           Nobuaki%Shime%shime@koto.kpu-m.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%3,                           Yi Xin%Tong%NULL%3,                           Sheng%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xue-Lian%Liao%NULL%1,                           Hong%Chen%NULL%0,                           Zhen%Li%NULL%2,                           Bo%Wang%NULL%0,                           Zhong-Wei%Zhang%NULL%1,                           Wei-Min%Li%NULL%0,                           Zong-An%Liang%NULL%0,                           Jin%Tang%NULL%1,                           Jian%Wang%NULL%1,                           Rui%Shi%NULL%1,                           Xiao-Dong%Jin%NULL%1,                           Yan%Kang%NULL%0,                           Pei-Fang%Wei%NULL%8,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ N.%Nasir%null%1,                            S. F.% Mahmood%null%1,                            K.% Habib%null%1,                            I.% Khanum%null%1,                            B. % Jamil%null%1,         N.%Nasir%null%1,         S. F.% Mahmood%null%1,         K.% Habib%null%1,         I.% Khanum%null%1,         B. % Jamil%null%1]</t>
+  </si>
+  <si>
+    <t>[Ranistha%Ratanarat%NULL%1,                           Chaisith%Sivakorn%NULL%1,                           Tanuwong%Viarasilpa%NULL%1,                           Marcus J.%Schultz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                           Mu%Qin%qinmuae@163.com%1,                           Yuli%Cai%NULL%1,                           Tao%Liu%NULL%0,                           Bo%Shen%NULL%1,                           Fan%Yang%NULL%2,                           Sheng%Cao%NULL%1,                           Xu%Liu%NULL%2,                           Xu%Liu%NULL%0,                           Yaozu%Xiang%NULL%1,                           Qinyan%Zhao%NULL%1,                           He%Huang%huanghe1977@whu.edu.cn%0,                           Bo%Yang%yybb112@whu.edu.cn%0,                           Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Phatadon%Sirivongrangson%NULL%1,                           Win%Kulvichit%NULL%1,                           Sunchai%Payungporn%NULL%1,                           Trairak%Pisitkun%NULL%1,                           Ariya%Chindamporn%NULL%1,                           Sadudee%Peerapornratana%NULL%1,                           Prapaporn%Pisitkun%NULL%1,                           Suwalak%Chitcharoen%NULL%1,                           Vorthon%Sawaswong%NULL%1,                           Navaporn%Worasilchai%NULL%1,                           Sarinya%Kampunya%NULL%1,                           Opass%Putcharoen%NULL%1,                           Thammasak%Thawitsri%NULL%1,                           Nophol%Leelayuwatanakul%NULL%1,                           Napplika%Kongpolprom%NULL%1,                           Vorakamol%Phoophiboon%NULL%1,                           Thitiwat%Sriprasart%NULL%1,                           Rujipat%Samransamruajkit%NULL%1,                           Somkanya%Tungsanga%NULL%1,                           Kanitha%Tiankanon%NULL%1,                           Nuttha%Lumlertgul%NULL%1,                           Asada%Leelahavanichkul%NULL%1,                           Tueboon%Sriphojanart%NULL%1,                           Terapong%Tantawichien%NULL%1,                           Usa%Thisyakorn%NULL%1,                           Chintana%Chirathaworn%NULL%1,                           Kearkiat%Praditpornsilpa%NULL%1,                           Kriang%Tungsanga%NULL%1,                           Somchai%Eiam-Ong%NULL%1,                           Visith%Sitprija%NULL%1,                           John A.%Kellum%NULL%1,                           Nattachai%Srisawat%drnattachai@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                           Min%Pan%NULL%3,                           Xiumei%Zhang%NULL%3,                           Mingfeng%Han%fyhmf@163.com%5,                           Xiaoyun%Fan%13956988552@126.com%3,                           Fengde%Zhao%NULL%3,                           Manli%Miao%NULL%3,                           Jing%Xu%NULL%0,                           Minglong%Guan%NULL%3,                           Xia%Deng%NULL%3,                           Xu%Chen%NULL%4,                           Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Wang%NULL%1,                           Chunli%Tang%NULL%0,                           Ruchong%Chen%NULL%1,                           Honglian%Ruan%NULL%1,                           Wenhua%Liang%NULL%0,                           Weijie%Guan%NULL%0,                           Ling%Sang%NULL%0,                           Ruidi%Tang%NULL%1,                           Nanshan%Zhong%NULL%0,                           Shiyue%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE To analyze the clinical characteristics of patients with severe or critical coronavirus disease 2019 (COVID-19) receiving tracheal intubation.
+ METHODS We analyzed clinical characteristics of 18 severely or critically ill patients with COVID-19 undergoing tracheal intubation.
+ The general demographic and clinical data of the patients including their age, gender, pre- intubation state of consciousness and the ventilation mode were recorded.
+ The anesthesiologists performing the tracheal intubation procedure evaluated and recorded the tracheal intubation conditions of the patients.
+ The changes in the vital signs of the patients before anesthesia induction and after intubation were recorded.
+ RESULTS The average ages of these patients were 70.39±8.02 years.
+ Fifteen patients (83.33%) received non- invasive ventilation before tracheal intubation, and 13 patients (72.22%) were conscious before tracheal intubation.
+ After induction of anesthesia, the blood pressure and heart rate of the patients decreased significantly (P &lt; 0.05).
+ Most of the patients (94.44%) were in excellent or good conditions for tracheal intubation, and the first-attempt success rate of tracheal intubation was 100%.
+ Five patients died within 3 weeks following the intubation.
+ Tracheotomy was performed in one patient.
+ Twelve patients were still on endotracheal mechanical ventilation in the intensive care unit, and one of them received ECMO treatment due to poor oxygenation.
+ A total of 16 experienced anesthesiologists participated in tracheal intubation, all with third-level protection during the operation, and no medical staff infection has been detected so far.
+ CONCLUSIONS For patients with severe and critical COVID-19 and indications of tracheal intubation, we recommend early intubation with invasive respiratory support to improve the treatment efficacy and reduce the mortality.
+ Anesthetic agents should be used carefully during tracheal intubation to ensure patients' safety.
+ The medical staff should have a high-level protection during the intubation to maximally ensure their safety.
+</t>
+  </si>
+  <si>
+    <t>[ Jiafang%Wang%elasticNoEmail%2,   Fan% Lu%elasticNoEmail%2,   Mingxing% Zhou%elasticNoEmail%2,   Zhong% Qi%elasticNoEmail%2,   Zhijun% Chen%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%5,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%5,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%5,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%5,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%5,                           Shangwen%Pan%NULL%5,                           Xiaojing%Zou%NULL%7,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chanyuan%Ye%NULL%1,                           Shanyan%Zhang%NULL%2,                           Xiaoli%Zhang%NULL%1,                           Huan%Cai%NULL%2,                           Jueqing%Gu%NULL%2,                           Jiangshan%Lian%NULL%2,                           Yingfeng%Lu%NULL%2,                           Hongyu%Jia%NULL%2,                           Jianhua%Hu%NULL%2,                           Ciliang%Jin%NULL%2,                           Guodong%Yu%NULL%2,                           Yimin%Zhang%NULL%2,                           Jifang%Sheng%NULL%4,                           Yida%Yang%yidayang65@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                           Dan%Xu%NULL%0,                           Shouzhi%Fu%NULL%0,                           Jun%Zhang%NULL%0,                           Xiaobo%Yang%NULL%0,                           Liang%Xu%NULL%0,                           Jiqian%Xu%NULL%0,                           Yongran%Wu%NULL%0,                           Chaolin%Huang%NULL%0,                           Yaqi%Ouyang%NULL%0,                           Luyu%Yang%NULL%0,                           Minghao%Fang%NULL%0,                           Hongwen%Xiao%NULL%0,                           Jing%Ma%NULL%0,                           Wei%Zhu%NULL%0,                           Song%Hu%NULL%0,                           Quan%Hu%NULL%0,                           Daoyin%Ding%NULL%0,                           Ming%Hu%NULL%0,                           Guochao%Zhu%NULL%0,                           Weijiang%Xu%NULL%0,                           Jun%Guo%NULL%0,                           Jinglong%Xu%NULL%0,                           Haitao%Yuan%NULL%0,                           Bin%Zhang%NULL%0,                           Zhui%Yu%yuzhui@whu.edu.cn%0,                           Dechang%Chen%icudechangchen@163.com%0,                           Shiying%Yuan%yuan_shiying@163.com%0,                           You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhao%NULL%2,                           Hao-Yu%Gao%NULL%1,                           Zi-Yi%Feng%NULL%1,                           Qi-Jun%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%2,                           Li-jun%Sun%NULL%1,                           Mi%Xu%NULL%1,                           Jian%Pan%NULL%1,                           Yun-tao%Zhang%NULL%1,                           Xue-ling%Fang%NULL%1,                           Qiang%Fang%NULL%2,                           Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingjie%Zhu%NULL%1,                           Ziqiang%Du%NULL%1,                           Yanfang%Zhu%NULL%1,                           Wenfeng%Li%NULL%1,                           Hongjun%Miao%NULL%1,                           Zhuo%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%0,                           Sarah%Al-Youha%sarahalyouha@gmail.com%1,                           Mohammad H.%Jamal%NULL%1,                           Mohannad%Al-Haddad%NULL%1,                           Ali%Al-Muhaini%NULL%1,                           Fahad%Al-Ghimlas%NULL%1,                           Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ladan%Goshayeshi%NULL%1,                           Mina%Akbari Rad%NULL%1,                           Robert%Bergquist%NULL%1,                           Abolghasem%Allahyari%NULL%1,                           Kamila%Hashemzadeh%NULL%1,                           Nasrin%Milani%NULL%1,                           Mahdi%Gholian-Aval%NULL%1,                           Fariba%Rezaeitalab%NULL%1,                           Mohammad Jafar%Sadeghi Quchani%NULL%1,                           Zahra%Nahbandani%NULL%1,                           Mandana%Khodashahi%NULL%1,                           Zahra%Javid%NULL%1,                           Mahnaz%Mozdourian%NULL%1,                           Mohammad Ali%Yaghoubi%NULL%1,                           Zahra%Mozaheb%NULL%1,                           Mohsen%Seddigh-Shamsi%NULL%1,                           Mohammad%Moeini Nodeh%NULL%1,                           Shima%Nabavi%NULL%1,                           Hooman%Mosannen Mozaffari%NULL%1,                           Mohammadreza%Farzanehfar%NULL%1,                           Zahra%Lotfi%NULL%1,                           Alireza%Shariati%NULL%1,                           Shekoofe%Bonakdaran%NULL%1,                           Zahra%Rezaieyazdi%NULL%1,                           Zahra%Mirfeizi%NULL%1,                           Maryam%Miri%NULL%1,                           Reza%Bassiri%NULL%1,                           Sajjad%Ataei Azimi%NULL%1,                           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%3,                           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0,                           Benyamin%Hoseini%Hoseinib1@nums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Faryal%Khamis%NULL%1,                           Ibrahim%Al-Zakwani%NULL%1,                           Hamed%Al Naamani%NULL%1,                           Sultan%Al Lawati%NULL%1,                           Nenad%Pandak%NULL%1,                           Muna Ba%Omar%NULL%1,                           Maher%Al Bahrani%NULL%1,                           Zakaryia AL%Bulushi%NULL%1,                           Huda%Al Khalili%NULL%1,                           Issa%Al Salmi%NULL%1,                           Ruwaida%Al Ismaili%NULL%1,                           Salah T.%Al Awaidy%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Reza%Shahriarirad%NULL%1,                           Zohre%Khodamoradi%NULL%1,                           Amirhossein%Erfani%NULL%1,                           Hamidreza%Hosseinpour%NULL%1,                           Keivan%Ranjbar%NULL%1,                           Yasaman%Emami%NULL%1,                           Alireza%Mirahmadizadeh%NULL%1,                           Mehrzad%Lotfi%NULL%1,                           Babak%Shirazi Yeganeh%NULL%1,                           Abolfazl%Dorrani Nejad%NULL%1,                           Abdolrasool%Hemmati%NULL%1,                           Mostafa%Ebrahimi%NULL%1,                           Mohsen%Moghadami%moghadami@sums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Gaetano%Alfano%gaetano.alfano@unimore.it%1,                           Annachiara%Ferrari%NULL%2,                           Annachiara%Ferrari%NULL%0,                           Francesco%Fontana%NULL%1,                           Giacomo%Mori%NULL%1,                           Riccardo%Magistroni%NULL%1,                           Marianna%Meschiari%NULL%1,                           Erica%Franceschini%NULL%1,                           Marianna%Menozzi%NULL%1,                           Gianluca%Cuomo%NULL%1,                           Gabriella%Orlando%NULL%1,                           Antonella%Santoro%NULL%1,                           Margherita%Digaetano%NULL%1,                           Cinzia%Puzzolante%NULL%1,                           Federica%Carli%NULL%1,                           Andrea%Bedini%NULL%1,                           Jovana%Milic%NULL%1,                           Irene%Coloretti%NULL%1,                           Paolo%Raggi%NULL%1,                           Cristina%Mussini%NULL%1,                           Massimo%Girardis%NULL%1,                           Gianni%Cappelli%NULL%1,                           Giovanni%Guaraldi%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luca%Busetto%luca.busetto@unipd.it%1,                           Silvia%Bettini%NULL%2,                           Silvia%Bettini%NULL%0,                           Roberto%Fabris%NULL%1,                           Roberto%Serra%NULL%2,                           Chiara%Dal Pra%NULL%1,                           Pietro%Maffei%NULL%1,                           Marco%Rossato%NULL%1,                           Paola%Fioretto%NULL%0,                           Roberto%Vettor%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Samuele%Ceruti%samuele.ceruti@moncucco.ch%1,                           Marco%Roncador%NULL%2,                           Marco%Roncador%NULL%0,                           Andrea%Saporito%NULL%1,                           Maira%Biggiogero%NULL%1,                           Andrea%Glotta%NULL%1,                           Pier Andrea%Maida%NULL%1,                           Patrizia%Urso%NULL%1,                           Giovanni%Bona%NULL%1,                           Christian%Garzoni%NULL%1,                           Romano%Mauri%NULL%1,                           Alain%Borgeat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%4,                           Anna Lisa%Ridolfo%NULL%4,                           Laura%Milazzo%NULL%2,                           Letizia%Oreni%NULL%4,                           Dario%Bernacchia%NULL%4,                           Matteo%Siano%NULL%4,                           Cecilia%Bonazzetti%NULL%2,                           Alice%Covizzi%NULL%2,                           Marco%Schiuma%NULL%2,                           Matteo%Passerini%NULL%2,                           Marco%Piscaglia%NULL%2,                           Massimo%Coen%NULL%2,                           Guido%Gubertini%NULL%2,                           Giuliano%Rizzardini%NULL%4,                           Chiara%Cogliati%NULL%2,                           Anna Maria%Brambilla%NULL%2,                           Riccardo%Colombo%NULL%2,                           Antonio%Castelli%NULL%2,                           Roberto%Rech%NULL%2,                           Agostino%Riva%NULL%2,                           Alessandro%Torre%NULL%2,                           Luca%Meroni%NULL%2,                           Stefano%Rusconi%NULL%4,                           Spinello%Antinori%NULL%4,                           Massimo%Galli%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                          Cabrini%Luca%coreGivesNoEmail%4,                          Castelli%Antonio%coreGivesNoEmail%4,                          Cecconi%Maurizio%coreGivesNoEmail%4,                          Cereda%Danilo%coreGivesNoEmail%4,                          Coluccello%Antonio%coreGivesNoEmail%4,                          Foti%Giuseppe%coreGivesNoEmail%4,                          Fumagalli%Roberto%coreGivesNoEmail%4,                          Grasselli%Giacomo%coreGivesNoEmail%4,                          Iotti%Giorgio%coreGivesNoEmail%4,                          Latronico%Nicola%coreGivesNoEmail%4,                          Lorini%Luca%coreGivesNoEmail%4,                          Merler%Stefano%coreGivesNoEmail%4,                          Natalini%Giuseppe%coreGivesNoEmail%4,                          Pesenti%Antonio%coreGivesNoEmail%4,                          Piatti%Alessandra%coreGivesNoEmail%4,                          Ranieri%Marco Vito%coreGivesNoEmail%4,                          Scandroglio%Anna Mara%coreGivesNoEmail%4,                          Storti%Enrico%coreGivesNoEmail%4,                          Zanella%Alberto%coreGivesNoEmail%4,                          Zangrillo%Alberto%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Pavoni%NULL%1,                           Lara%Gianesello%gianesello.lara@libero.it%1,                           Maddalena%Pazzi%NULL%2,                           Maddalena%Pazzi%NULL%0,                           Caterina%Stera%NULL%1,                           Tommaso%Meconi%NULL%1,                           Francesca Covani%Frigieri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Piano%salvatore.piano@unipd.it%1,                           Andrea%Dalbeni%NULL%2,                           Andrea%Dalbeni%NULL%0,                           Elia%Vettore%NULL%2,                           Elia%Vettore%NULL%0,                           Devis%Benfaremo%NULL%1,                           Massimo%Mattioli%NULL%1,                           Carmine G.%Gambino%NULL%1,                           Viviana%Framba%NULL%2,                           Viviana%Framba%NULL%0,                           Lorenzo%Cerruti%NULL%1,                           Anna%Mantovani%NULL%1,                           Andrea%Martini%NULL%1,                           Michele M.%Luchetti%NULL%1,                           Roberto%Serra%NULL%0,                           Annamaria%Cattelan%NULL%1,                           Roberto%Vettor%NULL%0,                           Paolo%Angeli%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jean%Regina%NULL%1,                           Matthaios%Papadimitriou-Olivgeris%NULL%2,                           Matthaios%Papadimitriou-Olivgeris%NULL%0,                           Raphaël%Burger%NULL%1,                           Marie-Annick%Le Pogam%NULL%1,                           Tapio%Niemi%NULL%2,                           Tapio%Niemi%NULL%0,                           Paraskevas%Filippidis%NULL%1,                           Jonathan%Tschopp%NULL%1,                           Florian%Desgranges%NULL%1,                           Benjamin%Viala%NULL%1,                           Eleftheria%Kampouri%NULL%1,                           Laurence%Rochat%NULL%2,                           Laurence%Rochat%NULL%0,                           David%Haefliger%NULL%1,                           Mehdi%Belkoniene%NULL%1,                           Carlos%Fidalgo%NULL%1,                           Antonios%Kritikos%NULL%1,                           Katia%Jaton%NULL%1,                           Laurence%Senn%NULL%1,                           Pierre-Alexandre%Bart%NULL%1,                           Jean-Luc%Pagani%NULL%2,                           Jean-Luc%Pagani%NULL%0,                           Oriol%Manuel%NULL%1,                           Loïc%Lhopitallier%NULL%1,                           Chiara%Lazzeri%NULL%2,                           Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zheng Jie%Lim%NULL%1,                           Ashwin%Subramaniam%NULL%2,                           Ashwin%Subramaniam%NULL%0,                           Mallikarjuna%Ponnapa Reddy%NULL%2,                           Mallikarjuna%Ponnapa Reddy%NULL%0,                           Gabriel%Blecher%NULL%1,                           Umesh%Kadam%NULL%2,                           Umesh%Kadam%NULL%0,                           Afsana%Afroz%NULL%1,                           Baki%Billah%NULL%1,                           Sushma%Ashwin%NULL%1,                           Mark%Kubicki%NULL%1,                           Federico%Bilotta%NULL%1,                           J. Randall%Curtis%NULL%2,                           J. Randall%Curtis%NULL%0,                           Francesca%Rubulotta%NULL%2,                           Francesca%Rubulotta%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aggarwal%Gaurav%coreGivesNoEmail%3,                          Aggarwal%Saurabh%coreGivesNoEmail%3,                          Garcia-Telles%Nelson%coreGivesNoEmail%3,                          Henry%Brandon Michael%coreGivesNoEmail%3,                          Lavie%Carl%coreGivesNoEmail%3,                          Lippi%Giuseppe%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                           Samuel L%Bruce%NULL%2,                           Cody L%Slater%NULL%2,                           Jonathan R%Tiao%NULL%2,                           Matthew R%Baldwin%NULL%3,                           R Graham%Barr%NULL%2,                           Bernard P%Chang%NULL%2,                           Katherine H%Chau%NULL%2,                           Justin J%Choi%NULL%2,                           Nicholas%Gavin%NULL%2,                           Parag%Goyal%NULL%2,                           Angela M%Mills%NULL%2,                           Ashmi A%Patel%NULL%2,                           Marie-Laure S%Romney%NULL%2,                           Monika M%Safford%NULL%2,                           Neil W%Schluger%NULL%2,                           Soumitra%Sengupta%NULL%2,                           Magdalena E%Sobieszczyk%NULL%2,                           Jason E%Zucker%NULL%2,                           Paul A%Asadourian%NULL%2,                           Fletcher M%Bell%NULL%2,                           Rebekah%Boyd%NULL%2,                           Matthew F%Cohen%NULL%2,                           MacAlistair I%Colquhoun%NULL%2,                           Lucy A%Colville%NULL%2,                           Joseph H%de Jonge%NULL%2,                           Lyle B%Dershowitz%NULL%2,                           Shirin A%Dey%NULL%2,                           Katherine A%Eiseman%NULL%2,                           Zachary P%Girvin%NULL%2,                           Daniella T%Goni%NULL%2,                           Amro A%Harb%NULL%2,                           Nicholas%Herzik%NULL%2,                           Sarah%Householder%NULL%2,                           Lara E%Karaaslan%NULL%2,                           Heather%Lee%NULL%2,                           Evan%Lieberman%NULL%2,                           Andrew%Ling%NULL%2,                           Ree%Lu%NULL%2,                           Arthur Y%Shou%NULL%2,                           Alexander C%Sisti%NULL%2,                           Zachary E%Snow%NULL%2,                           Colin P%Sperring%NULL%2,                           Yuqing%Xiong%NULL%2,                           Henry W%Zhou%NULL%2,                           Karthik%Natarajan%NULL%2,                           George%Hripcsak%NULL%2,                           Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                           Mark%Caridi-Scheible%NULL%3,                           James M.%Blum%NULL%2,                           Chad%Robichaux%NULL%2,                           Colleen%Kraft%NULL%2,                           Jesse T.%Jacob%NULL%2,                           Craig S.%Jabaley%NULL%2,                           David%Carpenter%NULL%2,                           Roberta%Kaplow%NULL%2,                           Alfonso C.%Hernandez-Romieu%NULL%2,                           Max W.%Adelman%NULL%2,                           Greg S.%Martin%NULL%2,                           Craig M.%Coopersmith%NULL%2,                           David J.%Murphy%NULL%2,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                           Bijan J.%Ghassemieh%NULL%0,                           Michelle%Nichols%NULL%0,                           Richard%Kim%NULL%0,                           Keith R.%Jerome%NULL%0,                           Arun K.%Nalla%NULL%0,                           Alexander L.%Greninger%NULL%0,                           Sudhakar%Pipavath%NULL%0,                           Mark M.%Wurfel%NULL%0,                           Laura%Evans%NULL%0,                           Patricia A.%Kritek%NULL%0,                           T. Eoin%West%NULL%0,                           Andrew%Luks%NULL%0,                           Anthony%Gerbino%NULL%0,                           Chris R.%Dale%NULL%0,                           Jason D.%Goldman%NULL%0,                           Shane%O’Mahony%NULL%0,                           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,                           Denise J%McCulloch%NULL%0,                           Denise J%McCulloch%NULL%0,                           Vidya%Atluri%NULL%0,                           Michela%Blain%NULL%0,                           Sarah A%McGuffin%NULL%0,                           Arun K%Nalla%NULL%0,                           Meei-Li%Huang%NULL%0,                           Alex L%Greninger%NULL%0,                           Keith R%Jerome%NULL%0,                           Seth A%Cohen%NULL%0,                           Santiago%Neme%NULL%0,                           Margaret L%Green%NULL%0,                           Helen Y%Chu%NULL%0,                           H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jessica%Ferguson%NULL%0,                           Joelle I.%Rosser%NULL%0,                           Orlando%Quintero%NULL%0,                           Jake%Scott%NULL%0,                           Aruna%Subramanian%NULL%0,                           Mohammad%Gumma%NULL%0,                           Angela%Rogers%NULL%0,                           Shanthi%Kappagoda%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Brian T.%Garibaldi%NULL%0,                           Jacob%Fiksel%NULL%2,                           Jacob%Fiksel%NULL%0,                           John%Muschelli%NULL%2,                           John%Muschelli%NULL%0,                           Matthew L.%Robinson%NULL%2,                           Matthew L.%Robinson%NULL%0,                           Masoud%Rouhizadeh%NULL%2,                           Masoud%Rouhizadeh%NULL%0,                           Jamie%Perin%NULL%2,                           Jamie%Perin%NULL%0,                           Grant%Schumock%NULL%2,                           Grant%Schumock%NULL%0,                           Paul%Nagy%NULL%2,                           Paul%Nagy%NULL%0,                           Josh H.%Gray%NULL%2,                           Josh H.%Gray%NULL%0,                           Harsha%Malapati%NULL%2,                           Harsha%Malapati%NULL%0,                           Mariam%Ghobadi-Krueger%NULL%2,                           Mariam%Ghobadi-Krueger%NULL%0,                           Timothy M.%Niessen%NULL%1,                           Bo Soo%Kim%NULL%1,                           Peter M.%Hill%NULL%1,                           M. Shafeeq%Ahmed%NULL%1,                           Eric D.%Dobkin%NULL%1,                           Renee%Blanding%NULL%1,                           Jennifer%Abele%NULL%1,                           Bonnie%Woods%NULL%1,                           Kenneth%Harkness%NULL%1,                           David R.%Thiemann%NULL%1,                           Mary G.%Bowring%NULL%1,                           Aalok B.%Shah%NULL%2,                           Aalok B.%Shah%NULL%0,                           Mei-Cheng%Wang%NULL%1,                           Karen%Bandeen-Roche%NULL%1,                           Antony%Rosen%NULL%1,                           Scott L.%Zeger%NULL%2,                           Scott L.%Zeger%NULL%0,                           Amita%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jeremy A. W.%Gold%xref no email%0,       Karen K.%Wong%xref no email%1,       Christine M.%Szablewski%xref no email%1,       Priti R.%Patel%xref no email%1,       John%Rossow%xref no email%1,       Juliana%da Silva%xref no email%1,       Pavithra%Natarajan%xref no email%1,       Sapna Bamrah%Morris%xref no email%1,       Robyn Neblett%Fanfair%xref no email%1,       Jessica%Rogers-Brown%xref no email%1,       Beau B.%Bruce%xref no email%1,       Sean D.%Browning%xref no email%1,       Alfonso C.%Hernandez-Romieu%xref no email%1,       Nathan W.%Furukawa%xref no email%1,       Mohleen%Kang%xref no email%1,       Mary E.%Evans%xref no email%1,       Nadine%Oosmanally%xref no email%1,       Melissa%Tobin-D\u2019Angelo%xref no email%1,       Cherie%Drenzek%xref no email%1,       David J.%Murphy%xref no email%1,       Julie%Hollberg%xref no email%1,       James M.%Blum%xref no email%1,       Robert%Jansen%xref no email%1,       David W.%Wright%xref no email%1,       William M.%Sewell%xref no email%1,       Jack D.%Owens%xref no email%1,       Benjamin%Lefkove%xref no email%1,       Frank W.%Brown%xref no email%1,       Deron C.%Burton%xref no email%1,       Timothy M.%Uyeki%xref no email%1,       Stephanie R.%Bialek%xref no email%1,       Brendan R.%Jackson%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,                           Justin J.%Choi%NULL%0,                           Laura C.%Pinheiro%NULL%0,                           Edward J.%Schenck%NULL%0,                           Ruijun%Chen%NULL%0,                           Assem%Jabri%NULL%0,                           Michael J.%Satlin%NULL%0,                           Thomas R.%Campion%NULL%0,                           Musarrat%Nahid%NULL%0,                           Joanna B.%Ringel%NULL%0,                           Katherine L.%Hoffman%NULL%0,                           Mark N.%Alshak%NULL%0,                           Han A.%Li%NULL%0,                           Graham T.%Wehmeyer%NULL%0,                           Graham T.%Wehmeyer%NULL%0,                           Mangala%Rajan%NULL%0,                           Evgeniya%Reshetnyak%NULL%0,                           Nathaniel%Hupert%NULL%0,                           Evelyn M.%Horn%NULL%0,                           Fernando J.%Martinez%NULL%0,                           Roy M.%Gulick%NULL%0,                           Monika M.%Safford%NULL%0,                           Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Christopher M%Petrilli%NULL%0,                           Simon A%Jones%NULL%0,                           Jie%Yang%NULL%0,                           Harish%Rajagopalan%NULL%0,                           Luke%O’Donnell%NULL%0,                           Yelena%Chernyak%NULL%0,                           Katie A%Tobin%NULL%0,                           Robert J%Cerfolio%NULL%0,                           Fritz%Francois%NULL%0,                           Leora I%Horwitz%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                           Anatoly%Mitrokhin%NULL%2,                           Anatoly%Mitrokhin%NULL%0,                           Ajai%Rajabalan%NULL%1,                           Christian%Benjamin%NULL%1,                           Sushma%Raviralla%NULL%1,                           Vishnu R%Mani%vishnu.mani@duke.edu%2,                           Vishnu R%Mani%vishnu.mani@duke.edu%0,                           Aleksandr%Kalabin%NULL%2,                           Aleksandr%Kalabin%NULL%0,                           Sebastian C%Valdivieso%NULL%2,                           Sebastian C%Valdivieso%NULL%0,                           Max%Murray-Ramcharan%NULL%2,                           Max%Murray-Ramcharan%NULL%0,                           Brian%Donaldson%NULL%2,                           Brian%Donaldson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Anish R.%Mitra%null%2,                            Nicholas A.%Fergusson%null%2,                            Elisa%Lloyd-Smith%null%2,                            Andrew%Wormsbecker%null%2,                            Denise%Foster%null%2,                            Andrei%Karpov%null%2,                            Sarah%Crowe%null%2,                            Greg%Haljan%null%2,                            Dean R.%Chittock%null%2,                            Hussein D.%Kanji%null%2,                            Mypinder S.%Sekhon%null%2,                            Donald E.G.%Griesdale%null%2,                          Anish R.%Mitra%null%1,                          Nicholas A.%Fergusson%null%1,                          Elisa%Lloyd-Smith%null%1,                          Andrew%Wormsbecker%null%1,                          Denise%Foster%null%1,                          Andrei%Karpov%null%1,                          Sarah%Crowe%null%1,                          Greg%Haljan%null%1,                          Dean R.%Chittock%null%1,                          Hussein D.%Kanji%null%1,                          Mypinder S.%Sekhon%null%1,                          Donald E.G.%Griesdale%null%1]</t>
+  </si>
+  <si>
+    <t>[Leonidas%Palaiodimos%leonidas.palaiodimos@gmail.com%1,                           Damianos G.%Kokkinidis%NULL%1,                           Weijia%Li%NULL%1,                           Dimitrios%Karamanis%NULL%1,                           Jennifer%Ognibene%NULL%1,                           Shitij%Arora%NULL%1,                           William N.%Southern%NULL%1,                           Christos S.%Mantzoros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Morayma%Reyes Gil%NULL%1,                           Jesus D.%Gonzalez-Lugo%NULL%1,                           Shafia%Rahman%NULL%1,                           Mohammad%Barouqa%NULL%1,                           James%Szymanski%NULL%1,                           Kenji%Ikemura%NULL%1,                           Yungtai%Lo%NULL%1,                           Henny H.%Billett%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                          Becker%L.B.%coreGivesNoEmail%4,                          Chelico%J.D.%coreGivesNoEmail%4,                          Cohen%S.L.%coreGivesNoEmail%4,                          Cookingham%J.%coreGivesNoEmail%4,                          Coppa%K.%coreGivesNoEmail%4,                          Crawford%J.M.%coreGivesNoEmail%4,                          Davidson%K.W.%coreGivesNoEmail%4,                          Diefenbach%M.A.%coreGivesNoEmail%4,                          Dominello%A.J.%coreGivesNoEmail%4,                          Duer-Hefele%J.%coreGivesNoEmail%4,                          Falzon%L.%coreGivesNoEmail%4,                          Gitlin%J.%coreGivesNoEmail%4,                          Hajizadeh%N.%coreGivesNoEmail%4,                          Harvin%T.G.%coreGivesNoEmail%4,                          Hirsch%J.S.%coreGivesNoEmail%4,                          Hirschwerk%D.A.%coreGivesNoEmail%4,                          Kim%E.J.%coreGivesNoEmail%4,                          Kozel%Z.M.%coreGivesNoEmail%4,                          Marrast%L.M.%coreGivesNoEmail%4,                          McGinn%T.%coreGivesNoEmail%4,                          Mogavero%J.N.%coreGivesNoEmail%4,                          Narasimhan%M.%coreGivesNoEmail%4,                          Osorio%G.A.%coreGivesNoEmail%4,                          Qiu%M.%coreGivesNoEmail%4,                          Richardson%S.%coreGivesNoEmail%4,                          Zanos%T.P.%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%2,                           Viet-Thi%Tran%NULL%4,                           Viet-Thi%Tran%NULL%0,                           Mathilde%Roumier%NULL%2,                           Amélie%Chabrol%NULL%2,                           Romain%Paule%NULL%2,                           Constance%Guillaud%NULL%2,                           Elena%Fois%NULL%2,                           Raphael%Lepeule%NULL%2,                           Tali-Anne%Szwebel%NULL%2,                           François-Xavier%Lescure%NULL%2,                           Frédéric%Schlemmer%NULL%2,                           Marie%Matignon%NULL%2,                           Mehdi%Khellaf%NULL%2,                           Etienne%Crickx%NULL%2,                           Benjamin%Terrier%NULL%2,                           Caroline%Morbieu%NULL%2,                           Paul%Legendre%NULL%2,                           Julien%Dang%NULL%2,                           Yoland%Schoindre%NULL%2,                           Jean-Michel%Pawlotsky%NULL%2,                           Marc%Michel%NULL%2,                           Elodie%Perrodeau%NULL%2,                           Nicolas%Carlier%NULL%2,                           Nicolas%Roche%NULL%2,                           Victoire%de Lastours%NULL%2,                           Clément%Ourghanlian%NULL%2,                           Solen%Kerneis%NULL%2,                           Philippe%Ménager%NULL%2,                           Luc%Mouthon%NULL%2,                           Etienne%Audureau%NULL%2,                           Philippe%Ravaud%NULL%2,                           Bertrand%Godeau%NULL%2,                           Sébastien%Gallien%NULL%2,                           Nathalie%Costedoat-Chalumeau%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Hui%Shi%NULL%1,                         Yu%Zuo%NULL%1,                         Srilakshmi%Yalavarthi%NULL%1,                         Kelsey%Gockman%NULL%1,                         Melanie%Zuo%NULL%1,                         Jacqueline A%Madison%NULL%1,                         Christopher%Blair%NULL%1,                         Wrenn%Woodward%NULL%1,                         Sean P%Lezak%NULL%1,                         Njira L%Lugogo%NULL%1,                         Robert J%Woods%NULL%1,                         Christian%Lood%NULL%1,                         Jason S%Knight%NULL%2,                         Jason S%Knight%NULL%0,                         Yogendra%Kanthi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Geehan%Suleyman%NULL%1,                           Raef A.%Fadel%NULL%1,                           Kelly M.%Malette%NULL%1,                           Charles%Hammond%NULL%1,                           Hafsa%Abdulla%NULL%1,                           Abigail%Entz%NULL%1,                           Zachary%Demertzis%NULL%1,                           Zachary%Hanna%NULL%1,                           Andrew%Failla%NULL%1,                           Carina%Dagher%NULL%0,                           Zohra%Chaudhry%NULL%2,                           Amit%Vahia%NULL%2,                           Odaliz%Abreu Lanfranco%NULL%1,                           Mayur%Ramesh%NULL%1,                           Marcus J.%Zervos%NULL%1,                           George%Alangaden%NULL%2,                           Joseph%Miller%NULL%2,                           Indira%Brar%NULL%2]</t>
   </si>
 </sst>
 </file>
@@ -3951,7 +4318,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>926</v>
+        <v>1038</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3977,22 +4344,22 @@
         <v>43952</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>981</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>1039</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>1040</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>984</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>985</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
@@ -4015,7 +4382,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>927</v>
+        <v>1041</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
@@ -4047,7 +4414,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>928</v>
+        <v>1042</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -4079,7 +4446,7 @@
         <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>929</v>
+        <v>1043</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
@@ -4111,7 +4478,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>930</v>
+        <v>1044</v>
       </c>
       <c r="F7" t="s">
         <v>101</v>
@@ -4143,7 +4510,7 @@
         <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>931</v>
+        <v>1045</v>
       </c>
       <c r="F8" t="s">
         <v>104</v>
@@ -4175,7 +4542,7 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>932</v>
+        <v>1046</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -4207,7 +4574,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>933</v>
+        <v>1047</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
@@ -4239,7 +4606,7 @@
         <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>934</v>
+        <v>1048</v>
       </c>
       <c r="F11" t="s">
         <v>114</v>
@@ -4271,7 +4638,7 @@
         <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>935</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -4303,7 +4670,7 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>936</v>
+        <v>1050</v>
       </c>
       <c r="F13" t="s">
         <v>121</v>
@@ -4335,7 +4702,7 @@
         <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>937</v>
+        <v>1051</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -4361,22 +4728,22 @@
         <v>43920</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>1052</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>1053</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>984</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -4399,7 +4766,7 @@
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>938</v>
+        <v>336</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -4431,7 +4798,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>939</v>
+        <v>1054</v>
       </c>
       <c r="F17" t="s">
         <v>128</v>
@@ -4463,7 +4830,7 @@
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -4495,7 +4862,7 @@
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>941</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -4527,7 +4894,7 @@
         <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>942</v>
+        <v>1056</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
@@ -4559,7 +4926,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>943</v>
+        <v>1057</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -4591,7 +4958,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>944</v>
+        <v>1058</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -4623,7 +4990,7 @@
         <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>945</v>
+        <v>1059</v>
       </c>
       <c r="F23" t="s">
         <v>146</v>
@@ -4655,7 +5022,7 @@
         <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>946</v>
+        <v>1060</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -4687,7 +5054,7 @@
         <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>947</v>
+        <v>1061</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -4719,7 +5086,7 @@
         <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>948</v>
+        <v>1062</v>
       </c>
       <c r="F26" t="s">
         <v>156</v>
@@ -4751,7 +5118,7 @@
         <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>949</v>
+        <v>1063</v>
       </c>
       <c r="F27" t="s">
         <v>159</v>
@@ -4783,7 +5150,7 @@
         <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>950</v>
+        <v>1064</v>
       </c>
       <c r="F28" t="s">
         <v>161</v>
@@ -4815,7 +5182,7 @@
         <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>951</v>
+        <v>1065</v>
       </c>
       <c r="F29" t="s">
         <v>165</v>
@@ -4847,7 +5214,7 @@
         <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>952</v>
+        <v>1066</v>
       </c>
       <c r="F30" t="s">
         <v>168</v>
@@ -4879,7 +5246,7 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>953</v>
+        <v>1067</v>
       </c>
       <c r="F31" t="s">
         <v>171</v>
@@ -4911,7 +5278,7 @@
         <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>954</v>
+        <v>1068</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -4943,7 +5310,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>955</v>
+        <v>1069</v>
       </c>
       <c r="F33" t="s">
         <v>174</v>
@@ -4975,7 +5342,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>956</v>
+        <v>1070</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
@@ -5007,7 +5374,7 @@
         <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>957</v>
+        <v>1071</v>
       </c>
       <c r="F35" t="s">
         <v>181</v>
@@ -5039,7 +5406,7 @@
         <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>958</v>
+        <v>1072</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5103,7 +5470,7 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>959</v>
+        <v>1073</v>
       </c>
       <c r="F38" t="s">
         <v>47</v>
@@ -5135,7 +5502,7 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>960</v>
+        <v>358</v>
       </c>
       <c r="F39" t="s">
         <v>48</v>
@@ -5167,7 +5534,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>961</v>
+        <v>1074</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -5199,7 +5566,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>962</v>
+        <v>1075</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -5231,7 +5598,7 @@
         <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>963</v>
+        <v>1076</v>
       </c>
       <c r="F42" t="s">
         <v>196</v>
@@ -5263,7 +5630,7 @@
         <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>964</v>
+        <v>1077</v>
       </c>
       <c r="F43" t="s">
         <v>199</v>
@@ -5295,7 +5662,7 @@
         <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>965</v>
+        <v>1078</v>
       </c>
       <c r="F44" t="s">
         <v>202</v>
@@ -5327,7 +5694,7 @@
         <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>966</v>
+        <v>1079</v>
       </c>
       <c r="F45" t="s">
         <v>205</v>
@@ -5359,7 +5726,7 @@
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>967</v>
+        <v>1080</v>
       </c>
       <c r="F46" t="s">
         <v>322</v>
@@ -5391,7 +5758,7 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>968</v>
+        <v>1081</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -5423,7 +5790,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>969</v>
+        <v>1082</v>
       </c>
       <c r="F48" t="s">
         <v>210</v>
@@ -5455,7 +5822,7 @@
         <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>970</v>
+        <v>1083</v>
       </c>
       <c r="F49" t="s">
         <v>213</v>
@@ -5487,7 +5854,7 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="F50" t="s">
         <v>217</v>
@@ -5519,7 +5886,7 @@
         <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="F51" t="s">
         <v>222</v>
@@ -5551,7 +5918,7 @@
         <v>209</v>
       </c>
       <c r="E52" t="s">
-        <v>969</v>
+        <v>1082</v>
       </c>
       <c r="F52" t="s">
         <v>210</v>
@@ -5583,7 +5950,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>973</v>
+        <v>1086</v>
       </c>
       <c r="F53" t="s">
         <v>225</v>
@@ -5615,7 +5982,7 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>974</v>
+        <v>1087</v>
       </c>
       <c r="F54" t="s">
         <v>64</v>
@@ -5647,7 +6014,7 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>975</v>
+        <v>1088</v>
       </c>
       <c r="F55" t="s">
         <v>229</v>
@@ -5679,7 +6046,7 @@
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>976</v>
+        <v>373</v>
       </c>
       <c r="F56" t="s">
         <v>67</v>
@@ -5711,7 +6078,7 @@
         <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>977</v>
+        <v>1089</v>
       </c>
       <c r="F57" t="s">
         <v>247</v>
@@ -5743,7 +6110,7 @@
         <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>978</v>
+        <v>1090</v>
       </c>
       <c r="F58" t="s">
         <v>233</v>
@@ -5775,7 +6142,7 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>979</v>
+        <v>376</v>
       </c>
       <c r="F59" t="s">
         <v>70</v>
